--- a/Suivie de Caisse 1.xlsx
+++ b/Suivie de Caisse 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ES-SABRE\Desktop\Caisse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7873685-4D0B-452E-888A-38F657C1C3DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B32EE9-24A7-47A8-9ADE-45BDF86245E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Suivie Caisse Djamel Septembre'!$A$1:$G$54</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="337">
   <si>
     <t>Total</t>
   </si>
@@ -1089,6 +1088,15 @@
   </si>
   <si>
     <t>Flexy 2000 dinar a Yacine</t>
+  </si>
+  <si>
+    <t>40*12</t>
+  </si>
+  <si>
+    <t>Silicon ( djamel ) + clé a molette</t>
+  </si>
+  <si>
+    <t>600 + 800</t>
   </si>
 </sst>
 </file>
@@ -4861,15 +4869,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="D37:F37"/>
@@ -4883,6 +4882,15 @@
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="D29:F29"/>
     <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
@@ -8343,14 +8351,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="B168" workbookViewId="0">
+      <selection activeCell="H179" sqref="H179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="217" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" style="73" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" style="73" customWidth="1"/>
     <col min="3" max="3" width="21" style="46" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" style="46" customWidth="1"/>
     <col min="5" max="5" width="14.140625" style="46" customWidth="1"/>
@@ -8414,7 +8422,7 @@
       </c>
       <c r="C9" s="76">
         <f>E182</f>
-        <v>744655</v>
+        <v>746535</v>
       </c>
       <c r="D9" s="140"/>
       <c r="G9" s="160"/>
@@ -8436,7 +8444,7 @@
       </c>
       <c r="C11" s="78">
         <f>C10-C9</f>
-        <v>17345</v>
+        <v>15465</v>
       </c>
       <c r="D11" s="159"/>
       <c r="G11" s="160"/>
@@ -10837,7 +10845,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="177" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B177" s="84"/>
       <c r="C177" s="103"/>
       <c r="D177" s="103"/>
@@ -10845,23 +10853,43 @@
       <c r="F177" s="228"/>
       <c r="G177" s="106"/>
     </row>
-    <row r="178" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="84"/>
-      <c r="C178" s="103"/>
+    <row r="178" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B178" s="84">
+        <v>44815</v>
+      </c>
+      <c r="C178" s="103" t="s">
+        <v>95</v>
+      </c>
       <c r="D178" s="103"/>
-      <c r="E178" s="227"/>
+      <c r="E178" s="227">
+        <v>480</v>
+      </c>
       <c r="F178" s="228"/>
-      <c r="G178" s="106"/>
-    </row>
-    <row r="179" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G178" s="106" t="s">
+        <v>178</v>
+      </c>
+      <c r="H178" s="107" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="179" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B179" s="84"/>
-      <c r="C179" s="103"/>
+      <c r="C179" s="103" t="s">
+        <v>95</v>
+      </c>
       <c r="D179" s="103"/>
-      <c r="E179" s="227"/>
+      <c r="E179" s="227">
+        <v>1400</v>
+      </c>
       <c r="F179" s="228"/>
-      <c r="G179" s="106"/>
-    </row>
-    <row r="180" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G179" s="106" t="s">
+        <v>335</v>
+      </c>
+      <c r="H179" s="107" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="180" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B180" s="84"/>
       <c r="C180" s="103"/>
       <c r="D180" s="103"/>
@@ -10869,7 +10897,7 @@
       <c r="F180" s="228"/>
       <c r="G180" s="106"/>
     </row>
-    <row r="181" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B181" s="82"/>
       <c r="C181" s="79"/>
       <c r="D181" s="79"/>
@@ -10877,7 +10905,7 @@
       <c r="F181" s="156"/>
       <c r="G181" s="92"/>
     </row>
-    <row r="182" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B182" s="85"/>
       <c r="C182" s="86" t="s">
         <v>0</v>
@@ -10885,7 +10913,7 @@
       <c r="D182" s="86"/>
       <c r="E182" s="213">
         <f>SUM(E14:E181)</f>
-        <v>744655</v>
+        <v>746535</v>
       </c>
       <c r="F182" s="214">
         <f>SUM(F14:F181)</f>

--- a/Suivie de Caisse 1.xlsx
+++ b/Suivie de Caisse 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ES-SABRE\Desktop\Caisse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B32EE9-24A7-47A8-9ADE-45BDF86245E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7445C4B-27EB-4E39-B224-2EC6A97C557A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ETAT DE FACTURES DE DOIT" sheetId="3" state="hidden" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="345">
   <si>
     <t>Total</t>
   </si>
@@ -326,9 +326,6 @@
     <t>Payement flinkot acheté par Bilel Etanch,,</t>
   </si>
   <si>
-    <t>4 fardeau d'eau pour ouvrier</t>
-  </si>
-  <si>
     <t>achat</t>
   </si>
   <si>
@@ -366,9 +363,6 @@
   </si>
   <si>
     <t>Lampe torche pour gardien</t>
-  </si>
-  <si>
-    <t>fardeau eau pour ouvrir</t>
   </si>
   <si>
     <t>sable jaune/carrier + ciment</t>
@@ -560,9 +554,6 @@
     <t>Totale 11000 Da</t>
   </si>
   <si>
-    <t>achat Patte a Joints Villa</t>
-  </si>
-  <si>
     <t>550*30 + 1500 transport</t>
   </si>
   <si>
@@ -737,9 +728,6 @@
     </r>
   </si>
   <si>
-    <t>Le matin dans ca voiture avec la lettre pour Madame Benaantar</t>
-  </si>
-  <si>
     <t>Payement deux voyage de citerne d'eau</t>
   </si>
   <si>
@@ -756,9 +744,6 @@
   </si>
   <si>
     <t>Achat 2 tuyaux PVC 200 pn6 + 5 PVC 160 pn6</t>
-  </si>
-  <si>
-    <t>prévu pour payement girafe, citerne d'eau, gardien</t>
   </si>
   <si>
     <t>Ciment colle pour villa Djamel</t>
@@ -794,9 +779,6 @@
     <t>4 Pax 40 pj +30 polystyrène 40mm</t>
   </si>
   <si>
-    <t>téflon pour plombier villa</t>
-  </si>
-  <si>
     <t>Un sac de ciment pour Girafe</t>
   </si>
   <si>
@@ -813,9 +795,6 @@
   </si>
   <si>
     <t>deux fardeau</t>
-  </si>
-  <si>
-    <t>colle+papier verre pour reparation PVC 160</t>
   </si>
   <si>
     <t>5 Bidon Sika hydrofuge</t>
@@ -846,9 +825,6 @@
   </si>
   <si>
     <t>13*70 + 120tran</t>
-  </si>
-  <si>
-    <t>service</t>
   </si>
   <si>
     <t>Eau pour ouvrier</t>
@@ -935,16 +911,10 @@
     <t>boite d'archive/classeur</t>
   </si>
   <si>
-    <t>Pose extension+reglage couvre joints+rabotage Ssol</t>
-  </si>
-  <si>
     <t>Cartouche d'encre pour Imprimente</t>
   </si>
   <si>
     <t>Construction de la baraque 40000/40000</t>
-  </si>
-  <si>
-    <t>NB: La somme de 100 000,00  qui m'a étais donnée le 26/07/2022 Par Mr Djamel n'a pas étais introduite dans les comptes puisque la majorité de la somme a étais utiliser pour des achat pour le chantier  ES-Sabre, la somme de 27 160,00 figurante en haut a étais payé avec cet argent, le compte du moi d'aout va être réinitialiser a 0,00</t>
   </si>
   <si>
     <r>
@@ -1021,9 +991,6 @@
     <t>Le matin derriere la baraque</t>
   </si>
   <si>
-    <t>payement du compacteur</t>
-  </si>
-  <si>
     <t>achat effectuer le 31/8 :48Kg de polyane:18240da + colle :1500da + 2bidon de sika hydrofuge : 2350da/bidon</t>
   </si>
   <si>
@@ -1097,6 +1064,63 @@
   </si>
   <si>
     <t>600 + 800</t>
+  </si>
+  <si>
+    <t>18*40 + 18*40  (grande chaleur)</t>
+  </si>
+  <si>
+    <t>2 Sac platre + Transport</t>
+  </si>
+  <si>
+    <t>18*40+12*40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pour Tracage villa 900 +600 </t>
+  </si>
+  <si>
+    <t>Payement du compacteur</t>
+  </si>
+  <si>
+    <t>3 fardeau eau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 Feuille polysteren </t>
+  </si>
+  <si>
+    <t>Solde De La Caisse</t>
+  </si>
+  <si>
+    <t>Manquant du sold ciment</t>
+  </si>
+  <si>
+    <t>Prévu pour payement girafe, citerne d'eau, gardien</t>
+  </si>
+  <si>
+    <t>Achat Patte a Joints Villa</t>
+  </si>
+  <si>
+    <t>4 Eau pour ouvrier</t>
+  </si>
+  <si>
+    <t>Le matin dans sa voiture avec la lettre pour Madame Benaantar,</t>
+  </si>
+  <si>
+    <t>Téflon pour plombier villa</t>
+  </si>
+  <si>
+    <t>Colle+papier verre pour reparation PVC 160</t>
+  </si>
+  <si>
+    <t>Aervice</t>
+  </si>
+  <si>
+    <t>NB: La somme de 100 000,00  qui m'a étais donnée le 26/07/2022 Par Mr Djamel n'a pas étais introduite dans les comptes puisque la majorité de la somme a étais utiliser pour des achat pour le chantier  ES-Sabre, la somme de 27 160,00 figurante en haut a étais payé avec cet argent, le compte du mois d'aout va être réinitialiser a 0,00</t>
+  </si>
+  <si>
+    <t>Pose extension +reglage couvre joints+rabotage Ssol</t>
+  </si>
+  <si>
+    <t>Flexible pour machine à lavé,</t>
   </si>
 </sst>
 </file>
@@ -1218,7 +1242,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1321,8 +1345,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1565,6 +1595,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1575,7 +1614,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="275">
+  <cellXfs count="301">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2190,16 +2229,10 @@
     <xf numFmtId="4" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="11" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2349,6 +2382,90 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="18" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="18" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="18" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="18" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="18" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="18" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="18" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="18" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="18" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="18" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -2356,7 +2473,284 @@
     <cellStyle name="Monétaire" xfId="3" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="47">
+  <dxfs count="58">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFF0000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3660,10 +4054,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF82FF65"/>
       <color rgb="FFFEBAAC"/>
       <color rgb="FFFF5353"/>
       <color rgb="FFFE9782"/>
-      <color rgb="FF82FF65"/>
       <color rgb="FFFFFF66"/>
       <color rgb="FF00FF00"/>
     </mruColors>
@@ -3761,75 +4155,77 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau4" displayName="Tableau4" ref="B13:G95" totalsRowShown="0" headerRowDxfId="46" dataDxfId="44" headerRowBorderDxfId="45" tableBorderDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau4" displayName="Tableau4" ref="B13:G95" totalsRowShown="0" headerRowDxfId="57" dataDxfId="55" headerRowBorderDxfId="56" tableBorderDxfId="54">
   <autoFilter ref="B13:G95" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Opérations" dataDxfId="41"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Par / De" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Débit" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Crédit" dataDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Observation" dataDxfId="37"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Opérations" dataDxfId="52"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Par / De" dataDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Débit" dataDxfId="50"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Crédit" dataDxfId="49"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Observation" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau42" displayName="Tableau42" ref="B13:G52" totalsRowShown="0" headerRowDxfId="36" dataDxfId="34" headerRowBorderDxfId="35" tableBorderDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau42" displayName="Tableau42" ref="B13:G52" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44">
   <autoFilter ref="B13:G52" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Date" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Opérations" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Par / De" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Débit" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Crédit" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Observation" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Date" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Opérations" dataDxfId="42"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Par / De" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Débit" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Crédit" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Observation" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D79F84FD-02FB-4970-B09E-1D3934AE7625}" name="Tableau426" displayName="Tableau426" ref="B13:G54" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D79F84FD-02FB-4970-B09E-1D3934AE7625}" name="Tableau426" displayName="Tableau426" ref="B13:G54" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34">
   <autoFilter ref="B13:G54" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{9712B134-76DF-4E92-834A-88CE2D0D20B1}" name="Date" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{435323D6-CD61-47E6-9E37-D5FC77826705}" name="Opérations" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{D3626E4C-0CBA-4147-9F26-7CD98D019F06}" name="Par / De" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{A4C3AC32-653D-4FA1-B3C4-14979BB0F578}" name="Débit" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{81D053C2-198C-43A9-9B40-8C044522E5A0}" name="Crédit" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{C59247B9-B17D-4825-9165-85A02C3F100C}" name="Observation" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{9712B134-76DF-4E92-834A-88CE2D0D20B1}" name="Date" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{435323D6-CD61-47E6-9E37-D5FC77826705}" name="Opérations" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{D3626E4C-0CBA-4147-9F26-7CD98D019F06}" name="Par / De" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{A4C3AC32-653D-4FA1-B3C4-14979BB0F578}" name="Débit" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{81D053C2-198C-43A9-9B40-8C044522E5A0}" name="Crédit" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{C59247B9-B17D-4825-9165-85A02C3F100C}" name="Observation" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tableau2" displayName="Tableau2" ref="B13:G182" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14">
-  <autoFilter ref="B13:G182" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tableau2" displayName="Tableau2" ref="B13:G195" totalsRowCount="1" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25">
+  <autoFilter ref="B13:G194" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Date" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Opérations" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Par / De" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Débit" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Crédit" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Observation" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Date" totalsRowLabel="Solde De La Caisse" dataDxfId="24" totalsRowDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Opérations" dataDxfId="23" totalsRowDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Par / De" totalsRowFunction="custom" dataDxfId="22" totalsRowDxfId="3">
+      <totalsRowFormula>F194-E194</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Débit" dataDxfId="21" totalsRowDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Crédit" dataDxfId="20" totalsRowDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Observation" totalsRowFunction="count" dataDxfId="19" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau3" displayName="Tableau3" ref="B13:G78" totalsRowShown="0" headerRowBorderDxfId="7" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau3" displayName="Tableau3" ref="B13:G78" totalsRowShown="0" headerRowBorderDxfId="18" tableBorderDxfId="17">
   <autoFilter ref="B13:G78" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Date" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Opérations" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Par / De" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Débit" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Crédit" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Observation" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Date" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Opérations" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Par / De" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Débit" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Crédit" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Observation" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4194,8 +4590,8 @@
       <c r="G4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="236"/>
-      <c r="I4" s="237"/>
+      <c r="H4" s="234"/>
+      <c r="I4" s="235"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
@@ -4222,11 +4618,11 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="238" t="s">
+      <c r="C10" s="236" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="239"/>
-      <c r="E10" s="240"/>
+      <c r="D10" s="237"/>
+      <c r="E10" s="238"/>
       <c r="F10" s="26"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
@@ -4287,11 +4683,11 @@
       <c r="C18" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="241" t="s">
+      <c r="D18" s="239" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="242"/>
-      <c r="F18" s="243"/>
+      <c r="E18" s="240"/>
+      <c r="F18" s="241"/>
       <c r="G18" s="40" t="s">
         <v>20</v>
       </c>
@@ -4305,9 +4701,9 @@
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="22"/>
       <c r="C19" s="23"/>
-      <c r="D19" s="233"/>
-      <c r="E19" s="234"/>
-      <c r="F19" s="235"/>
+      <c r="D19" s="231"/>
+      <c r="E19" s="232"/>
+      <c r="F19" s="233"/>
       <c r="G19" s="37"/>
       <c r="H19" s="37"/>
       <c r="I19" s="24">
@@ -4318,9 +4714,9 @@
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="11"/>
       <c r="C20" s="12"/>
-      <c r="D20" s="233"/>
-      <c r="E20" s="234"/>
-      <c r="F20" s="235"/>
+      <c r="D20" s="231"/>
+      <c r="E20" s="232"/>
+      <c r="F20" s="233"/>
       <c r="G20" s="38"/>
       <c r="H20" s="38"/>
       <c r="I20" s="13">
@@ -4331,9 +4727,9 @@
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
-      <c r="D21" s="233"/>
-      <c r="E21" s="234"/>
-      <c r="F21" s="235"/>
+      <c r="D21" s="231"/>
+      <c r="E21" s="232"/>
+      <c r="F21" s="233"/>
       <c r="G21" s="38"/>
       <c r="H21" s="38"/>
       <c r="I21" s="13">
@@ -4344,9 +4740,9 @@
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
-      <c r="D22" s="233"/>
-      <c r="E22" s="234"/>
-      <c r="F22" s="235"/>
+      <c r="D22" s="231"/>
+      <c r="E22" s="232"/>
+      <c r="F22" s="233"/>
       <c r="G22" s="38"/>
       <c r="H22" s="38"/>
       <c r="I22" s="13">
@@ -4357,9 +4753,9 @@
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
-      <c r="D23" s="233"/>
-      <c r="E23" s="234"/>
-      <c r="F23" s="235"/>
+      <c r="D23" s="231"/>
+      <c r="E23" s="232"/>
+      <c r="F23" s="233"/>
       <c r="G23" s="38"/>
       <c r="H23" s="38"/>
       <c r="I23" s="13">
@@ -4370,9 +4766,9 @@
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
-      <c r="D24" s="233"/>
-      <c r="E24" s="234"/>
-      <c r="F24" s="235"/>
+      <c r="D24" s="231"/>
+      <c r="E24" s="232"/>
+      <c r="F24" s="233"/>
       <c r="G24" s="38"/>
       <c r="H24" s="38"/>
       <c r="I24" s="13">
@@ -4396,9 +4792,9 @@
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
-      <c r="D26" s="233"/>
-      <c r="E26" s="234"/>
-      <c r="F26" s="235"/>
+      <c r="D26" s="231"/>
+      <c r="E26" s="232"/>
+      <c r="F26" s="233"/>
       <c r="G26" s="38"/>
       <c r="H26" s="38"/>
       <c r="I26" s="13">
@@ -4409,9 +4805,9 @@
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
-      <c r="D27" s="233"/>
-      <c r="E27" s="234"/>
-      <c r="F27" s="235"/>
+      <c r="D27" s="231"/>
+      <c r="E27" s="232"/>
+      <c r="F27" s="233"/>
       <c r="G27" s="38"/>
       <c r="H27" s="38"/>
       <c r="I27" s="13">
@@ -4422,9 +4818,9 @@
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
-      <c r="D28" s="233"/>
-      <c r="E28" s="234"/>
-      <c r="F28" s="235"/>
+      <c r="D28" s="231"/>
+      <c r="E28" s="232"/>
+      <c r="F28" s="233"/>
       <c r="G28" s="38"/>
       <c r="H28" s="38"/>
       <c r="I28" s="13">
@@ -4435,9 +4831,9 @@
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
-      <c r="D29" s="233"/>
-      <c r="E29" s="234"/>
-      <c r="F29" s="235"/>
+      <c r="D29" s="231"/>
+      <c r="E29" s="232"/>
+      <c r="F29" s="233"/>
       <c r="G29" s="38"/>
       <c r="H29" s="38"/>
       <c r="I29" s="13">
@@ -4448,9 +4844,9 @@
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" s="11"/>
       <c r="C30" s="12"/>
-      <c r="D30" s="233"/>
-      <c r="E30" s="234"/>
-      <c r="F30" s="235"/>
+      <c r="D30" s="231"/>
+      <c r="E30" s="232"/>
+      <c r="F30" s="233"/>
       <c r="G30" s="38"/>
       <c r="H30" s="38"/>
       <c r="I30" s="13">
@@ -4461,9 +4857,9 @@
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" s="11"/>
       <c r="C31" s="12"/>
-      <c r="D31" s="233"/>
-      <c r="E31" s="234"/>
-      <c r="F31" s="235"/>
+      <c r="D31" s="231"/>
+      <c r="E31" s="232"/>
+      <c r="F31" s="233"/>
       <c r="G31" s="38"/>
       <c r="H31" s="38"/>
       <c r="I31" s="13">
@@ -4474,9 +4870,9 @@
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" s="11"/>
       <c r="C32" s="12"/>
-      <c r="D32" s="233"/>
-      <c r="E32" s="234"/>
-      <c r="F32" s="235"/>
+      <c r="D32" s="231"/>
+      <c r="E32" s="232"/>
+      <c r="F32" s="233"/>
       <c r="G32" s="38"/>
       <c r="H32" s="38"/>
       <c r="I32" s="13">
@@ -4487,9 +4883,9 @@
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="11"/>
       <c r="C33" s="12"/>
-      <c r="D33" s="233"/>
-      <c r="E33" s="234"/>
-      <c r="F33" s="235"/>
+      <c r="D33" s="231"/>
+      <c r="E33" s="232"/>
+      <c r="F33" s="233"/>
       <c r="G33" s="38"/>
       <c r="H33" s="38"/>
       <c r="I33" s="13">
@@ -4500,9 +4896,9 @@
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="11"/>
       <c r="C34" s="12"/>
-      <c r="D34" s="233"/>
-      <c r="E34" s="234"/>
-      <c r="F34" s="235"/>
+      <c r="D34" s="231"/>
+      <c r="E34" s="232"/>
+      <c r="F34" s="233"/>
       <c r="G34" s="38"/>
       <c r="H34" s="38"/>
       <c r="I34" s="13">
@@ -4513,9 +4909,9 @@
     <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" s="11"/>
       <c r="C35" s="12"/>
-      <c r="D35" s="233"/>
-      <c r="E35" s="234"/>
-      <c r="F35" s="235"/>
+      <c r="D35" s="231"/>
+      <c r="E35" s="232"/>
+      <c r="F35" s="233"/>
       <c r="G35" s="38"/>
       <c r="H35" s="38"/>
       <c r="I35" s="13">
@@ -4526,9 +4922,9 @@
     <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="11"/>
       <c r="C36" s="12"/>
-      <c r="D36" s="233"/>
-      <c r="E36" s="234"/>
-      <c r="F36" s="235"/>
+      <c r="D36" s="231"/>
+      <c r="E36" s="232"/>
+      <c r="F36" s="233"/>
       <c r="G36" s="38"/>
       <c r="H36" s="38"/>
       <c r="I36" s="13">
@@ -4539,9 +4935,9 @@
     <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" s="11"/>
       <c r="C37" s="12"/>
-      <c r="D37" s="233"/>
-      <c r="E37" s="234"/>
-      <c r="F37" s="235"/>
+      <c r="D37" s="231"/>
+      <c r="E37" s="232"/>
+      <c r="F37" s="233"/>
       <c r="G37" s="38"/>
       <c r="H37" s="38"/>
       <c r="I37" s="13">
@@ -4552,9 +4948,9 @@
     <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" s="11"/>
       <c r="C38" s="12"/>
-      <c r="D38" s="233"/>
-      <c r="E38" s="234"/>
-      <c r="F38" s="235"/>
+      <c r="D38" s="231"/>
+      <c r="E38" s="232"/>
+      <c r="F38" s="233"/>
       <c r="G38" s="38"/>
       <c r="H38" s="38"/>
       <c r="I38" s="13">
@@ -4908,8 +5304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:H105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98:G99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4926,14 +5322,14 @@
   <sheetData>
     <row r="2" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="248" t="s">
+      <c r="B3" s="246" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="249"/>
-      <c r="D3" s="249"/>
-      <c r="E3" s="249"/>
-      <c r="F3" s="249"/>
-      <c r="G3" s="250"/>
+      <c r="C3" s="247"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
+      <c r="F3" s="247"/>
+      <c r="G3" s="248"/>
     </row>
     <row r="4" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C4" s="45"/>
@@ -4942,21 +5338,21 @@
       <c r="F4" s="46"/>
     </row>
     <row r="5" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="245" t="s">
-        <v>294</v>
-      </c>
-      <c r="C5" s="246"/>
-      <c r="D5" s="246"/>
-      <c r="E5" s="246"/>
-      <c r="F5" s="246"/>
-      <c r="G5" s="247"/>
+      <c r="B5" s="243" t="s">
+        <v>284</v>
+      </c>
+      <c r="C5" s="244"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="245"/>
     </row>
     <row r="6" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E7" s="256" t="s">
-        <v>201</v>
-      </c>
-      <c r="F7" s="256"/>
+      <c r="E7" s="254" t="s">
+        <v>198</v>
+      </c>
+      <c r="F7" s="254"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="178" t="s">
@@ -4966,10 +5362,10 @@
         <v>37</v>
       </c>
       <c r="D8" s="61"/>
-      <c r="E8" s="255" t="s">
+      <c r="E8" s="253" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="255"/>
+      <c r="F8" s="253"/>
       <c r="G8" s="187"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
@@ -4981,10 +5377,10 @@
         <v>440580</v>
       </c>
       <c r="D9" s="62"/>
-      <c r="E9" s="254" t="s">
+      <c r="E9" s="252" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="254"/>
+      <c r="F9" s="252"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="178" t="s">
@@ -4995,10 +5391,10 @@
         <v>413420</v>
       </c>
       <c r="D10" s="63"/>
-      <c r="E10" s="253" t="s">
-        <v>202</v>
-      </c>
-      <c r="F10" s="253"/>
+      <c r="E10" s="251" t="s">
+        <v>199</v>
+      </c>
+      <c r="F10" s="251"/>
     </row>
     <row r="11" spans="2:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="178" t="s">
@@ -5009,10 +5405,10 @@
         <v>-27160</v>
       </c>
       <c r="D11" s="130"/>
-      <c r="E11" s="251" t="s">
-        <v>200</v>
-      </c>
-      <c r="F11" s="252"/>
+      <c r="E11" s="249" t="s">
+        <v>197</v>
+      </c>
+      <c r="F11" s="250"/>
     </row>
     <row r="13" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="192" t="s">
@@ -5200,7 +5596,7 @@
       </c>
       <c r="F25" s="116"/>
       <c r="G25" s="117" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5230,7 +5626,7 @@
       </c>
       <c r="F27" s="116"/>
       <c r="G27" s="117" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5330,7 +5726,7 @@
       </c>
       <c r="F34" s="116"/>
       <c r="G34" s="117" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5372,7 +5768,7 @@
       <c r="E37" s="121"/>
       <c r="F37" s="121"/>
       <c r="G37" s="122" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5381,7 +5777,7 @@
         <v>47</v>
       </c>
       <c r="D38" s="110" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E38" s="119">
         <v>20000</v>
@@ -5397,7 +5793,7 @@
         <v>47</v>
       </c>
       <c r="D39" s="110" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E39" s="116">
         <v>4000</v>
@@ -5460,7 +5856,7 @@
       </c>
       <c r="F43" s="119"/>
       <c r="G43" s="120" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="44" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5514,7 +5910,7 @@
       </c>
       <c r="F47" s="119"/>
       <c r="G47" s="120" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="48" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5576,7 +5972,7 @@
       </c>
       <c r="F51" s="116"/>
       <c r="G51" s="117" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="52" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5587,12 +5983,12 @@
       <c r="F52" s="114"/>
       <c r="G52" s="115"/>
     </row>
-    <row r="53" spans="2:7" s="131" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" s="131" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B53" s="180" t="s">
         <v>82</v>
       </c>
       <c r="C53" s="110" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D53" s="110"/>
       <c r="E53" s="114"/>
@@ -5623,7 +6019,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7" s="113" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B56" s="180"/>
       <c r="C56" s="110" t="s">
         <v>44</v>
@@ -5672,7 +6068,7 @@
       </c>
       <c r="F59" s="119"/>
       <c r="G59" s="120" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="60" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5681,23 +6077,23 @@
         <v>47</v>
       </c>
       <c r="D60" s="110" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E60" s="116">
         <v>16000</v>
       </c>
       <c r="F60" s="116"/>
       <c r="G60" s="117" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B61" s="180"/>
       <c r="C61" s="110" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D61" s="110" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E61" s="119">
         <v>5000</v>
@@ -5711,20 +6107,20 @@
         <v>47</v>
       </c>
       <c r="D62" s="110" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E62" s="119">
         <v>3000</v>
       </c>
       <c r="F62" s="119"/>
       <c r="G62" s="120" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="63" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B63" s="180"/>
       <c r="C63" s="110" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D63" s="110" t="s">
         <v>90</v>
@@ -5734,7 +6130,7 @@
       </c>
       <c r="F63" s="119"/>
       <c r="G63" s="120" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="64" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5760,7 +6156,7 @@
         <v>100000</v>
       </c>
       <c r="G65" s="112" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="66" spans="2:7" s="113" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5769,28 +6165,28 @@
         <v>47</v>
       </c>
       <c r="D66" s="110" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E66" s="121"/>
       <c r="F66" s="121"/>
       <c r="G66" s="122" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" s="113" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B67" s="180"/>
       <c r="C67" s="110" t="s">
         <v>47</v>
       </c>
       <c r="D67" s="110" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E67" s="116">
         <v>20000</v>
       </c>
       <c r="F67" s="116"/>
       <c r="G67" s="117" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="68" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5814,7 +6210,7 @@
       </c>
       <c r="F69" s="119"/>
       <c r="G69" s="120" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="70" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5828,7 +6224,7 @@
       </c>
       <c r="F70" s="119"/>
       <c r="G70" s="120" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="71" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5842,7 +6238,7 @@
       </c>
       <c r="F71" s="119"/>
       <c r="G71" s="120" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="72" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5866,7 +6262,7 @@
       </c>
       <c r="F73" s="119"/>
       <c r="G73" s="120" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="74" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5880,7 +6276,7 @@
       </c>
       <c r="F74" s="119"/>
       <c r="G74" s="120" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="75" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5906,7 +6302,7 @@
         <v>60000</v>
       </c>
       <c r="G76" s="112" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="77" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5920,7 +6316,7 @@
       </c>
       <c r="F77" s="119"/>
       <c r="G77" s="120" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="78" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5934,7 +6330,7 @@
       </c>
       <c r="F78" s="119"/>
       <c r="G78" s="120" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="79" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5948,13 +6344,13 @@
       </c>
       <c r="F79" s="119"/>
       <c r="G79" s="120" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="80" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B80" s="180"/>
       <c r="C80" s="110" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D80" s="110"/>
       <c r="E80" s="119">
@@ -5962,7 +6358,7 @@
       </c>
       <c r="F80" s="119"/>
       <c r="G80" s="120" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="81" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5986,7 +6382,7 @@
       </c>
       <c r="F82" s="119"/>
       <c r="G82" s="120" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="83" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6010,7 +6406,7 @@
       </c>
       <c r="F84" s="116"/>
       <c r="G84" s="117" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="85" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6024,7 +6420,7 @@
       </c>
       <c r="F85" s="116"/>
       <c r="G85" s="117" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="86" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6036,7 +6432,7 @@
       </c>
       <c r="F86" s="116"/>
       <c r="G86" s="117" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="87" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6055,24 +6451,24 @@
         <v>47</v>
       </c>
       <c r="D88" s="110" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E88" s="121"/>
       <c r="F88" s="121"/>
       <c r="G88" s="122" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="89" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B89" s="180"/>
       <c r="C89" s="110"/>
       <c r="D89" s="110" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E89" s="121"/>
       <c r="F89" s="121"/>
       <c r="G89" s="122" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="90" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6096,7 +6492,7 @@
       </c>
       <c r="F91" s="116"/>
       <c r="G91" s="117" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="92" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6124,7 +6520,7 @@
       </c>
       <c r="F93" s="116"/>
       <c r="G93" s="117" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="94" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6152,26 +6548,26 @@
       <c r="G95" s="129"/>
     </row>
     <row r="98" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="244" t="s">
-        <v>293</v>
-      </c>
-      <c r="C98" s="244"/>
-      <c r="D98" s="244"/>
-      <c r="E98" s="244"/>
-      <c r="F98" s="244"/>
-      <c r="G98" s="244"/>
+      <c r="B98" s="242" t="s">
+        <v>342</v>
+      </c>
+      <c r="C98" s="242"/>
+      <c r="D98" s="242"/>
+      <c r="E98" s="242"/>
+      <c r="F98" s="242"/>
+      <c r="G98" s="242"/>
       <c r="H98">
         <f>6400/1280</f>
         <v>5</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B99" s="244"/>
-      <c r="C99" s="244"/>
-      <c r="D99" s="244"/>
-      <c r="E99" s="244"/>
-      <c r="F99" s="244"/>
-      <c r="G99" s="244"/>
+      <c r="B99" s="242"/>
+      <c r="C99" s="242"/>
+      <c r="D99" s="242"/>
+      <c r="E99" s="242"/>
+      <c r="F99" s="242"/>
+      <c r="G99" s="242"/>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B100" s="163"/>
@@ -6207,8 +6603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:H114"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6225,14 +6621,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="260" t="s">
+      <c r="B3" s="258" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="260"/>
-      <c r="D3" s="260"/>
-      <c r="E3" s="260"/>
-      <c r="F3" s="260"/>
-      <c r="G3" s="260"/>
+      <c r="C3" s="258"/>
+      <c r="D3" s="258"/>
+      <c r="E3" s="258"/>
+      <c r="F3" s="258"/>
+      <c r="G3" s="258"/>
     </row>
     <row r="4" spans="2:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="164"/>
@@ -6241,21 +6637,21 @@
       <c r="F4" s="165"/>
     </row>
     <row r="5" spans="2:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="259" t="s">
-        <v>308</v>
-      </c>
-      <c r="C5" s="259"/>
-      <c r="D5" s="259"/>
-      <c r="E5" s="259"/>
-      <c r="F5" s="259"/>
-      <c r="G5" s="259"/>
+      <c r="B5" s="257" t="s">
+        <v>298</v>
+      </c>
+      <c r="C5" s="257"/>
+      <c r="D5" s="257"/>
+      <c r="E5" s="257"/>
+      <c r="F5" s="257"/>
+      <c r="G5" s="257"/>
     </row>
     <row r="6" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E7" s="257" t="s">
-        <v>201</v>
-      </c>
-      <c r="F7" s="258"/>
+      <c r="E7" s="255" t="s">
+        <v>198</v>
+      </c>
+      <c r="F7" s="256"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="204" t="s">
@@ -6265,10 +6661,10 @@
         <v>37</v>
       </c>
       <c r="D8" s="201"/>
-      <c r="E8" s="261" t="s">
+      <c r="E8" s="259" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="262"/>
+      <c r="F8" s="260"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="204" t="s">
@@ -6279,10 +6675,10 @@
         <v>98590</v>
       </c>
       <c r="D9" s="202"/>
-      <c r="E9" s="263" t="s">
+      <c r="E9" s="261" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="264"/>
+      <c r="F9" s="262"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="204" t="s">
@@ -6293,10 +6689,10 @@
         <v>66000</v>
       </c>
       <c r="D10" s="202"/>
-      <c r="E10" s="265" t="s">
-        <v>202</v>
-      </c>
-      <c r="F10" s="266"/>
+      <c r="E10" s="263" t="s">
+        <v>199</v>
+      </c>
+      <c r="F10" s="264"/>
     </row>
     <row r="11" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="204" t="s">
@@ -6307,10 +6703,10 @@
         <v>-32590</v>
       </c>
       <c r="D11" s="203"/>
-      <c r="E11" s="251" t="s">
-        <v>200</v>
-      </c>
-      <c r="F11" s="252"/>
+      <c r="E11" s="249" t="s">
+        <v>197</v>
+      </c>
+      <c r="F11" s="250"/>
     </row>
     <row r="12" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6349,14 +6745,14 @@
         <v>39</v>
       </c>
       <c r="D15" s="110" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E15" s="111"/>
       <c r="F15" s="111">
         <v>16000</v>
       </c>
       <c r="G15" s="112" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6370,7 +6766,7 @@
       </c>
       <c r="F16" s="116"/>
       <c r="G16" s="117" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6384,7 +6780,7 @@
       </c>
       <c r="F17" s="116"/>
       <c r="G17" s="117" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6393,14 +6789,14 @@
         <v>47</v>
       </c>
       <c r="D18" s="110" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E18" s="133">
         <v>8000</v>
       </c>
       <c r="F18" s="116"/>
       <c r="G18" s="117" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6424,7 +6820,7 @@
       </c>
       <c r="F20" s="116"/>
       <c r="G20" s="117" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6439,7 +6835,7 @@
       </c>
       <c r="F21" s="116"/>
       <c r="G21" s="117" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6463,7 +6859,7 @@
       </c>
       <c r="F23" s="116"/>
       <c r="G23" s="117" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6477,7 +6873,7 @@
       </c>
       <c r="F24" s="116"/>
       <c r="G24" s="117" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6486,7 +6882,7 @@
         <v>39</v>
       </c>
       <c r="D25" s="110" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E25" s="111"/>
       <c r="F25" s="111">
@@ -6500,32 +6896,32 @@
         <v>47</v>
       </c>
       <c r="D26" s="110" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E26" s="116">
         <v>7000</v>
       </c>
       <c r="F26" s="116" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G26" s="117" t="s">
-        <v>290</v>
+        <v>343</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="180"/>
       <c r="C27" s="110" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D27" s="110" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E27" s="116">
         <v>5000</v>
       </c>
       <c r="F27" s="116"/>
       <c r="G27" s="117" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6549,7 +6945,7 @@
       </c>
       <c r="F29" s="116"/>
       <c r="G29" s="117" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6563,12 +6959,12 @@
       </c>
       <c r="F30" s="116"/>
       <c r="G30" s="117" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="180" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C31" s="110"/>
       <c r="D31" s="110"/>
@@ -6589,7 +6985,7 @@
       </c>
       <c r="F32" s="116"/>
       <c r="G32" s="117" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6603,7 +6999,7 @@
       </c>
       <c r="F33" s="116"/>
       <c r="G33" s="117" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6627,7 +7023,7 @@
       </c>
       <c r="F35" s="116"/>
       <c r="G35" s="117" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="36" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6651,7 +7047,7 @@
       </c>
       <c r="F37" s="116"/>
       <c r="G37" s="117" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="38" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6675,7 +7071,7 @@
       </c>
       <c r="F39" s="116"/>
       <c r="G39" s="117" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="40" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6699,7 +7095,7 @@
       </c>
       <c r="F41" s="116"/>
       <c r="G41" s="117" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
     <row r="42" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6723,7 +7119,7 @@
       </c>
       <c r="F43" s="116"/>
       <c r="G43" s="117" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="44" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6737,7 +7133,7 @@
       </c>
       <c r="F44" s="116"/>
       <c r="G44" s="117" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
     </row>
     <row r="45" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6755,7 +7151,7 @@
       <c r="E46" s="110"/>
       <c r="F46" s="110"/>
       <c r="G46" s="177" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="47" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6765,7 +7161,7 @@
       <c r="E47" s="110"/>
       <c r="F47" s="110"/>
       <c r="G47" s="177" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="48" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6775,7 +7171,7 @@
       <c r="E48" s="110"/>
       <c r="F48" s="110"/>
       <c r="G48" s="177" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="49" spans="2:8" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6785,7 +7181,7 @@
       <c r="E49" s="110"/>
       <c r="F49" s="110"/>
       <c r="G49" s="177" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="H49" s="206"/>
     </row>
@@ -6796,7 +7192,7 @@
       <c r="E50" s="110"/>
       <c r="F50" s="110"/>
       <c r="G50" s="207" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="51" spans="2:8" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7324,8 +7720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B8C70F-B8AB-4C19-B79C-FF22DE95A418}">
   <dimension ref="A3:I116"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7342,14 +7738,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="260" t="s">
+      <c r="B3" s="258" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="260"/>
-      <c r="D3" s="260"/>
-      <c r="E3" s="260"/>
-      <c r="F3" s="260"/>
-      <c r="G3" s="260"/>
+      <c r="C3" s="258"/>
+      <c r="D3" s="258"/>
+      <c r="E3" s="258"/>
+      <c r="F3" s="258"/>
+      <c r="G3" s="258"/>
     </row>
     <row r="4" spans="2:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="164"/>
@@ -7358,21 +7754,21 @@
       <c r="F4" s="165"/>
     </row>
     <row r="5" spans="2:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="259" t="s">
-        <v>308</v>
-      </c>
-      <c r="C5" s="259"/>
-      <c r="D5" s="259"/>
-      <c r="E5" s="259"/>
-      <c r="F5" s="259"/>
-      <c r="G5" s="259"/>
+      <c r="B5" s="257" t="s">
+        <v>298</v>
+      </c>
+      <c r="C5" s="257"/>
+      <c r="D5" s="257"/>
+      <c r="E5" s="257"/>
+      <c r="F5" s="257"/>
+      <c r="G5" s="257"/>
     </row>
     <row r="6" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E7" s="257" t="s">
-        <v>201</v>
-      </c>
-      <c r="F7" s="258"/>
+      <c r="E7" s="255" t="s">
+        <v>198</v>
+      </c>
+      <c r="F7" s="256"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="204" t="s">
@@ -7382,10 +7778,10 @@
         <v>37</v>
       </c>
       <c r="D8" s="201"/>
-      <c r="E8" s="261" t="s">
+      <c r="E8" s="259" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="262"/>
+      <c r="F8" s="260"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="204" t="s">
@@ -7393,13 +7789,13 @@
       </c>
       <c r="C9" s="176">
         <f>E54</f>
-        <v>53440</v>
+        <v>53890</v>
       </c>
       <c r="D9" s="202"/>
-      <c r="E9" s="263" t="s">
+      <c r="E9" s="261" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="264"/>
+      <c r="F9" s="262"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="204" t="s">
@@ -7410,10 +7806,10 @@
         <v>0</v>
       </c>
       <c r="D10" s="202"/>
-      <c r="E10" s="265" t="s">
-        <v>202</v>
-      </c>
-      <c r="F10" s="266"/>
+      <c r="E10" s="263" t="s">
+        <v>199</v>
+      </c>
+      <c r="F10" s="264"/>
     </row>
     <row r="11" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="204" t="s">
@@ -7421,13 +7817,13 @@
       </c>
       <c r="C11" s="208">
         <f>C10-C9</f>
-        <v>-53440</v>
+        <v>-53890</v>
       </c>
       <c r="D11" s="203"/>
-      <c r="E11" s="251" t="s">
-        <v>200</v>
-      </c>
-      <c r="F11" s="252"/>
+      <c r="E11" s="249" t="s">
+        <v>197</v>
+      </c>
+      <c r="F11" s="250"/>
     </row>
     <row r="12" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7460,7 +7856,7 @@
     </row>
     <row r="15" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="180" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="C15" s="110"/>
       <c r="D15" s="110"/>
@@ -7469,16 +7865,16 @@
       </c>
       <c r="F15" s="116"/>
       <c r="G15" s="116" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
     </row>
     <row r="16" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="181"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="134"/>
+      <c r="B16" s="280"/>
+      <c r="C16" s="281"/>
+      <c r="D16" s="281"/>
+      <c r="E16" s="281"/>
+      <c r="F16" s="281"/>
+      <c r="G16" s="282"/>
     </row>
     <row r="17" spans="1:9" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="180">
@@ -7493,7 +7889,7 @@
       </c>
       <c r="F17" s="116"/>
       <c r="G17" s="117" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7507,10 +7903,10 @@
       </c>
       <c r="F18" s="116"/>
       <c r="G18" s="117" t="s">
-        <v>320</v>
-      </c>
-      <c r="H18" s="267"/>
-      <c r="I18" s="268"/>
+        <v>309</v>
+      </c>
+      <c r="H18" s="265"/>
+      <c r="I18" s="266"/>
     </row>
     <row r="19" spans="1:9" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="180"/>
@@ -7523,16 +7919,16 @@
       </c>
       <c r="F19" s="116"/>
       <c r="G19" s="116" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="220"/>
-      <c r="C20" s="221"/>
-      <c r="D20" s="221"/>
-      <c r="E20" s="221"/>
-      <c r="F20" s="225"/>
-      <c r="G20" s="222"/>
+      <c r="B20" s="283"/>
+      <c r="C20" s="284"/>
+      <c r="D20" s="284"/>
+      <c r="E20" s="284"/>
+      <c r="F20" s="285"/>
+      <c r="G20" s="286"/>
     </row>
     <row r="21" spans="1:9" s="168" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="220">
@@ -7542,21 +7938,21 @@
         <v>47</v>
       </c>
       <c r="D21" s="221" t="s">
-        <v>323</v>
-      </c>
-      <c r="E21" s="223"/>
-      <c r="F21" s="224"/>
-      <c r="G21" s="226" t="s">
-        <v>326</v>
+        <v>312</v>
+      </c>
+      <c r="E21" s="222"/>
+      <c r="F21" s="223"/>
+      <c r="G21" s="224" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="180"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="110"/>
-      <c r="G22" s="134"/>
+      <c r="B22" s="287"/>
+      <c r="C22" s="281"/>
+      <c r="D22" s="281"/>
+      <c r="E22" s="281"/>
+      <c r="F22" s="281"/>
+      <c r="G22" s="282"/>
     </row>
     <row r="23" spans="1:9" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="169"/>
@@ -7572,7 +7968,7 @@
       </c>
       <c r="F23" s="116"/>
       <c r="G23" s="117" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7581,14 +7977,14 @@
         <v>47</v>
       </c>
       <c r="D24" s="110" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="E24" s="116">
         <v>10500</v>
       </c>
       <c r="F24" s="116"/>
       <c r="G24" s="117" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7597,47 +7993,55 @@
         <v>47</v>
       </c>
       <c r="D25" s="110" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="E25" s="116">
         <v>6000</v>
       </c>
       <c r="F25" s="116"/>
       <c r="G25" s="117" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="180"/>
-      <c r="C26" s="110"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="116"/>
-      <c r="F26" s="116"/>
-      <c r="G26" s="117"/>
+      <c r="B26" s="287"/>
+      <c r="C26" s="281"/>
+      <c r="D26" s="281"/>
+      <c r="E26" s="281"/>
+      <c r="F26" s="281"/>
+      <c r="G26" s="282"/>
     </row>
     <row r="27" spans="1:9" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="180"/>
-      <c r="C27" s="110"/>
+      <c r="B27" s="180">
+        <v>44821</v>
+      </c>
+      <c r="C27" s="110" t="s">
+        <v>41</v>
+      </c>
       <c r="D27" s="110"/>
-      <c r="E27" s="111"/>
-      <c r="F27" s="111"/>
-      <c r="G27" s="112"/>
+      <c r="E27" s="110">
+        <v>450</v>
+      </c>
+      <c r="F27" s="110"/>
+      <c r="G27" s="134" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="28" spans="1:9" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="180"/>
       <c r="C28" s="110"/>
       <c r="D28" s="110"/>
-      <c r="E28" s="116"/>
-      <c r="F28" s="116"/>
-      <c r="G28" s="117"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="134"/>
     </row>
     <row r="29" spans="1:9" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="180"/>
       <c r="C29" s="110"/>
       <c r="D29" s="110"/>
-      <c r="E29" s="116"/>
-      <c r="F29" s="116"/>
-      <c r="G29" s="117"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="110"/>
+      <c r="G29" s="134"/>
     </row>
     <row r="30" spans="1:9" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="180"/>
@@ -7651,17 +8055,17 @@
       <c r="B31" s="180"/>
       <c r="C31" s="110"/>
       <c r="D31" s="110"/>
-      <c r="E31" s="116"/>
-      <c r="F31" s="116"/>
-      <c r="G31" s="117"/>
+      <c r="E31" s="110"/>
+      <c r="F31" s="110"/>
+      <c r="G31" s="134"/>
     </row>
     <row r="32" spans="1:9" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="180"/>
       <c r="C32" s="110"/>
       <c r="D32" s="110"/>
-      <c r="E32" s="116"/>
-      <c r="F32" s="116"/>
-      <c r="G32" s="117"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="134"/>
     </row>
     <row r="33" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="180"/>
@@ -7675,17 +8079,17 @@
       <c r="B34" s="180"/>
       <c r="C34" s="110"/>
       <c r="D34" s="110"/>
-      <c r="E34" s="116"/>
-      <c r="F34" s="116"/>
-      <c r="G34" s="117"/>
+      <c r="E34" s="110"/>
+      <c r="F34" s="110"/>
+      <c r="G34" s="134"/>
     </row>
     <row r="35" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="180"/>
       <c r="C35" s="110"/>
       <c r="D35" s="110"/>
-      <c r="E35" s="116"/>
-      <c r="F35" s="116"/>
-      <c r="G35" s="117"/>
+      <c r="E35" s="110"/>
+      <c r="F35" s="110"/>
+      <c r="G35" s="134"/>
     </row>
     <row r="36" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="180"/>
@@ -7699,9 +8103,9 @@
       <c r="B37" s="180"/>
       <c r="C37" s="110"/>
       <c r="D37" s="110"/>
-      <c r="E37" s="116"/>
-      <c r="F37" s="116"/>
-      <c r="G37" s="117"/>
+      <c r="E37" s="110"/>
+      <c r="F37" s="110"/>
+      <c r="G37" s="134"/>
     </row>
     <row r="38" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="180"/>
@@ -7715,9 +8119,9 @@
       <c r="B39" s="180"/>
       <c r="C39" s="110"/>
       <c r="D39" s="110"/>
-      <c r="E39" s="116"/>
-      <c r="F39" s="116"/>
-      <c r="G39" s="117"/>
+      <c r="E39" s="110"/>
+      <c r="F39" s="110"/>
+      <c r="G39" s="134"/>
     </row>
     <row r="40" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="180"/>
@@ -7731,9 +8135,9 @@
       <c r="B41" s="180"/>
       <c r="C41" s="110"/>
       <c r="D41" s="110"/>
-      <c r="E41" s="116"/>
-      <c r="F41" s="116"/>
-      <c r="G41" s="117"/>
+      <c r="E41" s="110"/>
+      <c r="F41" s="110"/>
+      <c r="G41" s="134"/>
     </row>
     <row r="42" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="180"/>
@@ -7747,9 +8151,9 @@
       <c r="B43" s="180"/>
       <c r="C43" s="110"/>
       <c r="D43" s="110"/>
-      <c r="E43" s="116"/>
-      <c r="F43" s="116"/>
-      <c r="G43" s="117"/>
+      <c r="E43" s="110"/>
+      <c r="F43" s="110"/>
+      <c r="G43" s="134"/>
     </row>
     <row r="44" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="180"/>
@@ -7763,17 +8167,17 @@
       <c r="B45" s="180"/>
       <c r="C45" s="110"/>
       <c r="D45" s="110"/>
-      <c r="E45" s="116"/>
-      <c r="F45" s="116"/>
-      <c r="G45" s="117"/>
+      <c r="E45" s="110"/>
+      <c r="F45" s="110"/>
+      <c r="G45" s="134"/>
     </row>
     <row r="46" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="180"/>
       <c r="C46" s="110"/>
       <c r="D46" s="110"/>
-      <c r="E46" s="116"/>
-      <c r="F46" s="116"/>
-      <c r="G46" s="117"/>
+      <c r="E46" s="110"/>
+      <c r="F46" s="110"/>
+      <c r="G46" s="134"/>
     </row>
     <row r="47" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B47" s="180"/>
@@ -7789,7 +8193,7 @@
       <c r="D48" s="110"/>
       <c r="E48" s="110"/>
       <c r="F48" s="110"/>
-      <c r="G48" s="177"/>
+      <c r="G48" s="278"/>
     </row>
     <row r="49" spans="2:8" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B49" s="180"/>
@@ -7797,7 +8201,7 @@
       <c r="D49" s="110"/>
       <c r="E49" s="110"/>
       <c r="F49" s="110"/>
-      <c r="G49" s="177"/>
+      <c r="G49" s="278"/>
     </row>
     <row r="50" spans="2:8" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B50" s="180"/>
@@ -7805,7 +8209,7 @@
       <c r="D50" s="110"/>
       <c r="E50" s="110"/>
       <c r="F50" s="110"/>
-      <c r="G50" s="177"/>
+      <c r="G50" s="278"/>
     </row>
     <row r="51" spans="2:8" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B51" s="180"/>
@@ -7813,7 +8217,7 @@
       <c r="D51" s="110"/>
       <c r="E51" s="110"/>
       <c r="F51" s="110"/>
-      <c r="G51" s="177"/>
+      <c r="G51" s="278"/>
       <c r="H51" s="206"/>
     </row>
     <row r="52" spans="2:8" s="175" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7822,7 +8226,7 @@
       <c r="D52" s="110"/>
       <c r="E52" s="110"/>
       <c r="F52" s="110"/>
-      <c r="G52" s="207"/>
+      <c r="G52" s="279"/>
     </row>
     <row r="53" spans="2:8" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B53" s="180"/>
@@ -7830,7 +8234,7 @@
       <c r="D53" s="110"/>
       <c r="E53" s="110"/>
       <c r="F53" s="172"/>
-      <c r="G53" s="173"/>
+      <c r="G53" s="170"/>
     </row>
     <row r="54" spans="2:8" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="182"/>
@@ -7840,7 +8244,7 @@
       <c r="D54" s="127"/>
       <c r="E54" s="128">
         <f>SUM(E14:E53)</f>
-        <v>53440</v>
+        <v>53890</v>
       </c>
       <c r="F54" s="128">
         <f>SUM(F14:F53)</f>
@@ -8349,10 +8753,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J182"/>
+  <dimension ref="A1:J195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B168" workbookViewId="0">
-      <selection activeCell="H179" sqref="H179"/>
+    <sheetView topLeftCell="A175" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8376,12 +8780,12 @@
       <c r="G2" s="160"/>
     </row>
     <row r="3" spans="2:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="269" t="s">
+      <c r="C3" s="267" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="270"/>
-      <c r="E3" s="271"/>
-      <c r="F3" s="271"/>
+      <c r="D3" s="268"/>
+      <c r="E3" s="269"/>
+      <c r="F3" s="269"/>
       <c r="G3" s="160"/>
     </row>
     <row r="4" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8395,12 +8799,12 @@
       <c r="G5" s="160"/>
     </row>
     <row r="6" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="272" t="s">
+      <c r="C6" s="270" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="272"/>
-      <c r="E6" s="273"/>
-      <c r="F6" s="273"/>
+      <c r="D6" s="270"/>
+      <c r="E6" s="271"/>
+      <c r="F6" s="271"/>
       <c r="G6" s="160"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
@@ -8421,8 +8825,8 @@
         <v>29</v>
       </c>
       <c r="C9" s="76">
-        <f>E182</f>
-        <v>746535</v>
+        <f>E194</f>
+        <v>763895</v>
       </c>
       <c r="D9" s="140"/>
       <c r="G9" s="160"/>
@@ -8432,7 +8836,7 @@
         <v>30</v>
       </c>
       <c r="C10" s="77">
-        <f>F182</f>
+        <f>F194</f>
         <v>762000</v>
       </c>
       <c r="D10" s="141"/>
@@ -8444,7 +8848,7 @@
       </c>
       <c r="C11" s="78">
         <f>C10-C9</f>
-        <v>15465</v>
+        <v>-1895</v>
       </c>
       <c r="D11" s="159"/>
       <c r="G11" s="160"/>
@@ -8472,7 +8876,7 @@
         <v>34</v>
       </c>
       <c r="H13" s="108" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -8490,7 +8894,7 @@
         <v>150000</v>
       </c>
       <c r="G14" s="209" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -8504,7 +8908,7 @@
       </c>
       <c r="F15" s="151"/>
       <c r="G15" s="209" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8518,7 +8922,7 @@
       </c>
       <c r="F16" s="151"/>
       <c r="G16" s="209" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="142" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8553,14 +8957,14 @@
         <v>42</v>
       </c>
       <c r="D19" s="136" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E19" s="136">
         <v>6000</v>
       </c>
       <c r="F19" s="151"/>
       <c r="G19" s="209" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="142" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -8588,7 +8992,7 @@
         <v>70000</v>
       </c>
       <c r="G21" s="209" t="s">
-        <v>231</v>
+        <v>335</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -8602,7 +9006,7 @@
       </c>
       <c r="F22" s="151"/>
       <c r="G22" s="211" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -8611,14 +9015,14 @@
         <v>42</v>
       </c>
       <c r="D23" s="136" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E23" s="136">
         <v>20000</v>
       </c>
       <c r="F23" s="151"/>
       <c r="G23" s="209" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="142" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -8644,7 +9048,7 @@
       </c>
       <c r="F25" s="151"/>
       <c r="G25" s="209" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J25" s="143"/>
     </row>
@@ -8673,7 +9077,7 @@
       </c>
       <c r="F27" s="151"/>
       <c r="G27" s="211" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -8687,7 +9091,7 @@
       </c>
       <c r="F28" s="151"/>
       <c r="G28" s="211" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -8701,7 +9105,7 @@
       </c>
       <c r="F29" s="151"/>
       <c r="G29" s="209" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -8829,7 +9233,7 @@
       </c>
       <c r="F38" s="154"/>
       <c r="G38" s="209" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -8843,7 +9247,7 @@
       </c>
       <c r="F39" s="155"/>
       <c r="G39" s="209" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -8857,7 +9261,7 @@
       </c>
       <c r="F40" s="153"/>
       <c r="G40" s="209" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H40" s="132"/>
       <c r="I40" s="146"/>
@@ -8876,7 +9280,7 @@
       </c>
       <c r="F41" s="153"/>
       <c r="G41" s="209" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="I41" s="146"/>
     </row>
@@ -8908,7 +9312,7 @@
       </c>
       <c r="F43" s="153"/>
       <c r="G43" s="209" t="s">
-        <v>94</v>
+        <v>337</v>
       </c>
       <c r="I43" s="146"/>
     </row>
@@ -8928,7 +9332,7 @@
         <v>44769</v>
       </c>
       <c r="C45" s="136" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D45" s="136"/>
       <c r="E45" s="145">
@@ -8936,7 +9340,7 @@
       </c>
       <c r="F45" s="153"/>
       <c r="G45" s="209" t="s">
-        <v>108</v>
+        <v>254</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="142" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -8955,7 +9359,7 @@
         <v>44770</v>
       </c>
       <c r="C47" s="136" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D47" s="136"/>
       <c r="E47" s="145">
@@ -8963,7 +9367,7 @@
       </c>
       <c r="F47" s="153"/>
       <c r="G47" s="209" t="s">
-        <v>112</v>
+        <v>337</v>
       </c>
     </row>
     <row r="48" spans="1:9" s="142" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -8990,7 +9394,7 @@
       </c>
       <c r="F49" s="153"/>
       <c r="G49" s="209" t="s">
-        <v>112</v>
+        <v>254</v>
       </c>
     </row>
     <row r="50" spans="1:9" s="142" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9009,7 +9413,7 @@
         <v>44772</v>
       </c>
       <c r="C51" s="136" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D51" s="136" t="s">
         <v>40</v>
@@ -9019,7 +9423,7 @@
         <v>20000</v>
       </c>
       <c r="G51" s="209" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9034,7 +9438,7 @@
       </c>
       <c r="F52" s="153"/>
       <c r="G52" s="209" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9049,7 +9453,7 @@
       </c>
       <c r="F53" s="153"/>
       <c r="G53" s="209" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9064,7 +9468,7 @@
       </c>
       <c r="F54" s="153"/>
       <c r="G54" s="211" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9079,7 +9483,7 @@
       </c>
       <c r="F55" s="153"/>
       <c r="G55" s="211" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9094,7 +9498,7 @@
       </c>
       <c r="F56" s="153"/>
       <c r="G56" s="212" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9104,14 +9508,14 @@
         <v>41</v>
       </c>
       <c r="D57" s="136" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E57" s="145">
         <v>2000</v>
       </c>
       <c r="F57" s="153"/>
       <c r="G57" s="211" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I57" s="46">
         <f>21900+6000+2000+2000+6000</f>
@@ -9151,7 +9555,7 @@
       </c>
       <c r="F60" s="153"/>
       <c r="G60" s="209" t="s">
-        <v>116</v>
+        <v>254</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9168,7 +9572,7 @@
         <v>50000</v>
       </c>
       <c r="G61" s="209" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -9178,14 +9582,14 @@
         <v>71</v>
       </c>
       <c r="D62" s="136" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E62" s="145">
         <v>23000</v>
       </c>
       <c r="F62" s="153"/>
       <c r="G62" s="209" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I62" s="46">
         <f>50000-23000-1000-500</f>
@@ -9199,14 +9603,14 @@
         <v>41</v>
       </c>
       <c r="D63" s="136" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E63" s="145">
         <v>1000</v>
       </c>
       <c r="F63" s="153"/>
       <c r="G63" s="209" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9220,18 +9624,18 @@
         <v>500</v>
       </c>
       <c r="F64" s="153"/>
-      <c r="G64" s="209" t="s">
-        <v>172</v>
+      <c r="G64" s="211" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="219"/>
-      <c r="B65" s="82"/>
-      <c r="C65" s="136"/>
-      <c r="D65" s="136"/>
-      <c r="E65" s="145"/>
-      <c r="F65" s="153"/>
-      <c r="G65" s="209"/>
+      <c r="B65" s="288"/>
+      <c r="C65" s="289"/>
+      <c r="D65" s="289"/>
+      <c r="E65" s="289"/>
+      <c r="F65" s="290"/>
+      <c r="G65" s="291"/>
     </row>
     <row r="66" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="219"/>
@@ -9239,7 +9643,7 @@
         <v>44774</v>
       </c>
       <c r="C66" s="136" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D66" s="136"/>
       <c r="E66" s="145">
@@ -9247,14 +9651,14 @@
       </c>
       <c r="F66" s="153"/>
       <c r="G66" s="209" t="s">
-        <v>112</v>
+        <v>254</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="219"/>
       <c r="B67" s="82"/>
       <c r="C67" s="136" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D67" s="136"/>
       <c r="E67" s="145">
@@ -9262,20 +9666,20 @@
       </c>
       <c r="F67" s="153"/>
       <c r="G67" s="209" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="H67" s="107" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="219"/>
-      <c r="B68" s="82"/>
-      <c r="C68" s="136"/>
-      <c r="D68" s="136"/>
-      <c r="E68" s="145"/>
-      <c r="F68" s="153"/>
-      <c r="G68" s="209"/>
+      <c r="B68" s="288"/>
+      <c r="C68" s="289"/>
+      <c r="D68" s="289"/>
+      <c r="E68" s="289"/>
+      <c r="F68" s="290"/>
+      <c r="G68" s="291"/>
     </row>
     <row r="69" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="219"/>
@@ -9293,7 +9697,7 @@
         <v>50000</v>
       </c>
       <c r="G69" s="209" t="s">
-        <v>224</v>
+        <v>338</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9308,7 +9712,7 @@
       </c>
       <c r="F70" s="153"/>
       <c r="G70" s="209" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9323,7 +9727,7 @@
       </c>
       <c r="F71" s="153"/>
       <c r="G71" s="211" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H71" s="132"/>
     </row>
@@ -9339,7 +9743,7 @@
       </c>
       <c r="F72" s="153"/>
       <c r="G72" s="209" t="s">
-        <v>112</v>
+        <v>254</v>
       </c>
       <c r="H72" s="132"/>
     </row>
@@ -9355,7 +9759,7 @@
       </c>
       <c r="F73" s="153"/>
       <c r="G73" s="211" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9370,7 +9774,7 @@
       </c>
       <c r="F74" s="153"/>
       <c r="G74" s="211" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -9380,24 +9784,24 @@
         <v>47</v>
       </c>
       <c r="D75" s="136" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E75" s="145">
         <v>1000</v>
       </c>
       <c r="F75" s="153"/>
       <c r="G75" s="209" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="219"/>
-      <c r="B76" s="82"/>
-      <c r="C76" s="136"/>
-      <c r="D76" s="136"/>
-      <c r="E76" s="145"/>
-      <c r="F76" s="153"/>
-      <c r="G76" s="209"/>
+      <c r="B76" s="288"/>
+      <c r="C76" s="289"/>
+      <c r="D76" s="289"/>
+      <c r="E76" s="289"/>
+      <c r="F76" s="290"/>
+      <c r="G76" s="291"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="219"/>
@@ -9405,7 +9809,7 @@
         <v>44776</v>
       </c>
       <c r="C77" s="136" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="D77" s="136"/>
       <c r="E77" s="145">
@@ -9413,10 +9817,10 @@
       </c>
       <c r="F77" s="153"/>
       <c r="G77" s="209" t="s">
-        <v>178</v>
+        <v>254</v>
       </c>
       <c r="H77" s="107" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9434,7 +9838,7 @@
         <v>44777</v>
       </c>
       <c r="C79" s="136" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="D79" s="136"/>
       <c r="E79" s="145">
@@ -9442,7 +9846,7 @@
       </c>
       <c r="F79" s="153"/>
       <c r="G79" s="209" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9459,7 +9863,7 @@
       </c>
       <c r="F80" s="153"/>
       <c r="G80" s="209" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H80" s="107">
         <f>37800/1800</f>
@@ -9470,7 +9874,7 @@
       <c r="A81" s="219"/>
       <c r="B81" s="82"/>
       <c r="C81" s="136" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="D81" s="136"/>
       <c r="E81" s="145">
@@ -9478,20 +9882,20 @@
       </c>
       <c r="F81" s="153"/>
       <c r="G81" s="209" t="s">
+        <v>254</v>
+      </c>
+      <c r="H81" s="107" t="s">
         <v>178</v>
-      </c>
-      <c r="H81" s="107" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="219"/>
-      <c r="B82" s="82"/>
-      <c r="C82" s="136"/>
-      <c r="D82" s="136"/>
-      <c r="E82" s="145"/>
-      <c r="F82" s="153"/>
-      <c r="G82" s="209"/>
+      <c r="B82" s="288"/>
+      <c r="C82" s="289"/>
+      <c r="D82" s="289"/>
+      <c r="E82" s="289"/>
+      <c r="F82" s="290"/>
+      <c r="G82" s="291"/>
     </row>
     <row r="83" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="219"/>
@@ -9499,23 +9903,23 @@
         <v>44779</v>
       </c>
       <c r="C83" s="136" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D83" s="136"/>
       <c r="E83" s="145"/>
       <c r="F83" s="153"/>
       <c r="G83" s="209" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="219"/>
-      <c r="B84" s="82"/>
-      <c r="C84" s="136"/>
-      <c r="D84" s="136"/>
-      <c r="E84" s="145"/>
-      <c r="F84" s="153"/>
-      <c r="G84" s="209"/>
+      <c r="B84" s="288"/>
+      <c r="C84" s="289"/>
+      <c r="D84" s="289"/>
+      <c r="E84" s="289"/>
+      <c r="F84" s="290"/>
+      <c r="G84" s="291"/>
     </row>
     <row r="85" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="219"/>
@@ -9523,7 +9927,7 @@
         <v>44780</v>
       </c>
       <c r="C85" s="136" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="D85" s="136"/>
       <c r="E85" s="145">
@@ -9531,20 +9935,20 @@
       </c>
       <c r="F85" s="153"/>
       <c r="G85" s="209" t="s">
-        <v>178</v>
+        <v>254</v>
       </c>
       <c r="H85" s="107" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="219"/>
-      <c r="B86" s="82"/>
-      <c r="C86" s="136"/>
-      <c r="D86" s="136"/>
-      <c r="E86" s="145"/>
-      <c r="F86" s="153"/>
-      <c r="G86" s="209"/>
+      <c r="B86" s="288"/>
+      <c r="C86" s="289"/>
+      <c r="D86" s="289"/>
+      <c r="E86" s="289"/>
+      <c r="F86" s="290"/>
+      <c r="G86" s="291"/>
     </row>
     <row r="87" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="219"/>
@@ -9552,7 +9956,7 @@
         <v>44781</v>
       </c>
       <c r="C87" s="136" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="D87" s="136"/>
       <c r="E87" s="145">
@@ -9560,10 +9964,10 @@
       </c>
       <c r="F87" s="153"/>
       <c r="G87" s="209" t="s">
-        <v>178</v>
+        <v>254</v>
       </c>
       <c r="H87" s="107" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I87" s="46">
         <f>3*240</f>
@@ -9574,7 +9978,7 @@
       <c r="A88" s="219"/>
       <c r="B88" s="82"/>
       <c r="C88" s="136" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="D88" s="136"/>
       <c r="E88" s="145">
@@ -9582,20 +9986,20 @@
       </c>
       <c r="F88" s="153"/>
       <c r="G88" s="211" t="s">
-        <v>243</v>
+        <v>339</v>
       </c>
       <c r="H88" s="107" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="219"/>
-      <c r="B89" s="82"/>
-      <c r="C89" s="136"/>
-      <c r="D89" s="136"/>
-      <c r="E89" s="145"/>
-      <c r="F89" s="153"/>
-      <c r="G89" s="209"/>
+      <c r="B89" s="288"/>
+      <c r="C89" s="289"/>
+      <c r="D89" s="289"/>
+      <c r="E89" s="289"/>
+      <c r="F89" s="290"/>
+      <c r="G89" s="291"/>
     </row>
     <row r="90" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="219"/>
@@ -9603,7 +10007,7 @@
         <v>44782</v>
       </c>
       <c r="C90" s="136" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="D90" s="136"/>
       <c r="E90" s="145">
@@ -9611,10 +10015,10 @@
       </c>
       <c r="F90" s="153"/>
       <c r="G90" s="209" t="s">
-        <v>178</v>
+        <v>254</v>
       </c>
       <c r="H90" s="107" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9629,190 +10033,198 @@
       </c>
       <c r="F91" s="153"/>
       <c r="G91" s="209" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="219"/>
-      <c r="B92" s="82"/>
-      <c r="C92" s="136"/>
-      <c r="D92" s="136"/>
-      <c r="E92" s="145"/>
-      <c r="F92" s="153"/>
-      <c r="G92" s="209"/>
+      <c r="B92" s="288"/>
+      <c r="C92" s="289"/>
+      <c r="D92" s="289"/>
+      <c r="E92" s="289"/>
+      <c r="F92" s="290"/>
+      <c r="G92" s="291"/>
     </row>
     <row r="93" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="219"/>
-      <c r="B93" s="82"/>
-      <c r="C93" s="136"/>
+      <c r="B93" s="82">
+        <v>44783</v>
+      </c>
+      <c r="C93" s="136" t="s">
+        <v>41</v>
+      </c>
       <c r="D93" s="136"/>
-      <c r="E93" s="145"/>
+      <c r="E93" s="145">
+        <v>420</v>
+      </c>
       <c r="F93" s="153"/>
-      <c r="G93" s="209"/>
+      <c r="G93" s="209" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="94" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="219"/>
-      <c r="B94" s="82">
-        <v>44783</v>
-      </c>
+      <c r="B94" s="82"/>
       <c r="C94" s="136" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="D94" s="136"/>
       <c r="E94" s="145">
-        <v>420</v>
+        <v>500</v>
       </c>
       <c r="F94" s="153"/>
       <c r="G94" s="209" t="s">
-        <v>178</v>
+        <v>238</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="219"/>
       <c r="B95" s="82"/>
       <c r="C95" s="136" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="D95" s="136"/>
       <c r="E95" s="145">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F95" s="153"/>
       <c r="G95" s="209" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="219"/>
-      <c r="B96" s="82"/>
-      <c r="C96" s="136" t="s">
-        <v>95</v>
-      </c>
-      <c r="D96" s="136"/>
-      <c r="E96" s="145">
-        <v>1000</v>
-      </c>
-      <c r="F96" s="153"/>
-      <c r="G96" s="209" t="s">
-        <v>245</v>
-      </c>
+      <c r="B96" s="288"/>
+      <c r="C96" s="289"/>
+      <c r="D96" s="289"/>
+      <c r="E96" s="289"/>
+      <c r="F96" s="290"/>
+      <c r="G96" s="291"/>
     </row>
     <row r="97" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="219"/>
-      <c r="B97" s="82"/>
-      <c r="C97" s="136"/>
+      <c r="B97" s="82">
+        <v>44784</v>
+      </c>
+      <c r="C97" s="136" t="s">
+        <v>41</v>
+      </c>
       <c r="D97" s="136"/>
-      <c r="E97" s="145"/>
+      <c r="E97" s="145">
+        <v>360</v>
+      </c>
       <c r="F97" s="153"/>
-      <c r="G97" s="209"/>
+      <c r="G97" s="209" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="98" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="219"/>
-      <c r="B98" s="82"/>
-      <c r="C98" s="136"/>
-      <c r="D98" s="136"/>
-      <c r="E98" s="145"/>
-      <c r="F98" s="153"/>
-      <c r="G98" s="209"/>
+      <c r="B98" s="288"/>
+      <c r="C98" s="292"/>
+      <c r="D98" s="292"/>
+      <c r="E98" s="293"/>
+      <c r="F98" s="294"/>
+      <c r="G98" s="295"/>
     </row>
     <row r="99" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="219"/>
       <c r="B99" s="82">
-        <v>44784</v>
-      </c>
-      <c r="C99" s="136" t="s">
-        <v>95</v>
-      </c>
-      <c r="D99" s="136"/>
-      <c r="E99" s="145">
-        <v>360</v>
-      </c>
-      <c r="F99" s="153"/>
-      <c r="G99" s="209" t="s">
-        <v>178</v>
+        <v>44786</v>
+      </c>
+      <c r="C99" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="D99" s="79"/>
+      <c r="E99" s="148">
+        <f>360+420</f>
+        <v>780</v>
+      </c>
+      <c r="F99" s="156"/>
+      <c r="G99" s="92" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="219"/>
-      <c r="B100" s="82"/>
-      <c r="C100" s="79"/>
-      <c r="D100" s="79"/>
-      <c r="E100" s="148"/>
-      <c r="F100" s="156"/>
-      <c r="G100" s="92"/>
+      <c r="B100" s="288"/>
+      <c r="C100" s="292"/>
+      <c r="D100" s="292"/>
+      <c r="E100" s="293"/>
+      <c r="F100" s="294"/>
+      <c r="G100" s="295"/>
     </row>
     <row r="101" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="219"/>
       <c r="B101" s="82">
-        <v>44786</v>
+        <v>44788</v>
       </c>
       <c r="C101" s="79" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="D101" s="79"/>
       <c r="E101" s="148">
-        <f>360+420</f>
-        <v>780</v>
+        <v>480</v>
       </c>
       <c r="F101" s="156"/>
       <c r="G101" s="92" t="s">
-        <v>178</v>
+        <v>254</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="219"/>
       <c r="B102" s="82"/>
-      <c r="C102" s="79"/>
+      <c r="C102" s="79" t="s">
+        <v>47</v>
+      </c>
       <c r="D102" s="79"/>
-      <c r="E102" s="148"/>
+      <c r="E102" s="148">
+        <v>27500</v>
+      </c>
       <c r="F102" s="156"/>
-      <c r="G102" s="92"/>
+      <c r="G102" s="92" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="103" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="219"/>
-      <c r="B103" s="82">
-        <v>44788</v>
-      </c>
+      <c r="B103" s="82"/>
       <c r="C103" s="79" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="D103" s="79"/>
       <c r="E103" s="148">
-        <v>480</v>
+        <v>27800</v>
       </c>
       <c r="F103" s="156"/>
       <c r="G103" s="92" t="s">
-        <v>178</v>
+        <v>241</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="219"/>
-      <c r="B104" s="82"/>
-      <c r="C104" s="79" t="s">
-        <v>47</v>
-      </c>
-      <c r="D104" s="79"/>
-      <c r="E104" s="148">
-        <v>27500</v>
-      </c>
-      <c r="F104" s="156"/>
-      <c r="G104" s="92" t="s">
-        <v>246</v>
-      </c>
+      <c r="B104" s="288"/>
+      <c r="C104" s="292"/>
+      <c r="D104" s="292"/>
+      <c r="E104" s="293"/>
+      <c r="F104" s="294"/>
+      <c r="G104" s="295"/>
     </row>
     <row r="105" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="219"/>
-      <c r="B105" s="82"/>
+      <c r="B105" s="82">
+        <v>44789</v>
+      </c>
       <c r="C105" s="79" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D105" s="79"/>
       <c r="E105" s="148">
-        <v>27800</v>
+        <v>7400</v>
       </c>
       <c r="F105" s="156"/>
       <c r="G105" s="92" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9820,1112 +10232,1284 @@
       <c r="B106" s="82"/>
       <c r="C106" s="79"/>
       <c r="D106" s="79"/>
-      <c r="E106" s="148"/>
+      <c r="E106" s="148">
+        <v>420</v>
+      </c>
       <c r="F106" s="156"/>
-      <c r="G106" s="92"/>
+      <c r="G106" s="92" t="s">
+        <v>254</v>
+      </c>
+      <c r="H106" s="107" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="107" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="219"/>
-      <c r="B107" s="82">
-        <v>44789</v>
-      </c>
+      <c r="B107" s="82"/>
       <c r="C107" s="79" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="D107" s="79"/>
       <c r="E107" s="148">
-        <v>7400</v>
+        <v>700</v>
       </c>
       <c r="F107" s="156"/>
       <c r="G107" s="92" t="s">
-        <v>248</v>
+        <v>340</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="219"/>
-      <c r="B108" s="82"/>
-      <c r="C108" s="79"/>
-      <c r="D108" s="79"/>
-      <c r="E108" s="148">
-        <v>420</v>
-      </c>
-      <c r="F108" s="156"/>
-      <c r="G108" s="92" t="s">
-        <v>166</v>
-      </c>
-      <c r="H108" s="107" t="s">
-        <v>249</v>
-      </c>
+      <c r="B108" s="288"/>
+      <c r="C108" s="292"/>
+      <c r="D108" s="292"/>
+      <c r="E108" s="293"/>
+      <c r="F108" s="294"/>
+      <c r="G108" s="295"/>
     </row>
     <row r="109" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="219"/>
-      <c r="B109" s="82"/>
+      <c r="B109" s="82">
+        <v>44790</v>
+      </c>
       <c r="C109" s="79" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="D109" s="79"/>
       <c r="E109" s="148">
-        <v>700</v>
+        <v>11000</v>
       </c>
       <c r="F109" s="156"/>
       <c r="G109" s="92" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="219"/>
       <c r="B110" s="82"/>
-      <c r="C110" s="79"/>
+      <c r="C110" s="79" t="s">
+        <v>41</v>
+      </c>
       <c r="D110" s="79"/>
-      <c r="E110" s="148"/>
+      <c r="E110" s="148">
+        <v>2300</v>
+      </c>
       <c r="F110" s="156"/>
-      <c r="G110" s="92"/>
+      <c r="G110" s="92" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="111" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="219"/>
-      <c r="B111" s="82">
-        <v>44790</v>
-      </c>
+      <c r="B111" s="82"/>
       <c r="C111" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="D111" s="79"/>
-      <c r="E111" s="148">
-        <v>11000</v>
-      </c>
-      <c r="F111" s="156"/>
+        <v>39</v>
+      </c>
+      <c r="D111" s="79" t="s">
+        <v>40</v>
+      </c>
+      <c r="E111" s="148"/>
+      <c r="F111" s="158">
+        <v>100000</v>
+      </c>
       <c r="G111" s="92" t="s">
+        <v>250</v>
+      </c>
+      <c r="H111" s="162" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="219"/>
       <c r="B112" s="82"/>
-      <c r="C112" s="79" t="s">
-        <v>95</v>
-      </c>
+      <c r="C112" s="79"/>
       <c r="D112" s="79"/>
-      <c r="E112" s="148">
-        <v>2300</v>
-      </c>
+      <c r="E112" s="148"/>
       <c r="F112" s="156"/>
-      <c r="G112" s="92" t="s">
-        <v>252</v>
-      </c>
+      <c r="G112" s="92"/>
     </row>
     <row r="113" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="219"/>
-      <c r="B113" s="82"/>
+      <c r="B113" s="82">
+        <v>44791</v>
+      </c>
       <c r="C113" s="79" t="s">
-        <v>39</v>
-      </c>
-      <c r="D113" s="79" t="s">
-        <v>40</v>
-      </c>
-      <c r="E113" s="148"/>
-      <c r="F113" s="158">
-        <v>100000</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="D113" s="79"/>
+      <c r="E113" s="148">
+        <v>500</v>
+      </c>
+      <c r="F113" s="156"/>
       <c r="G113" s="92" t="s">
-        <v>257</v>
-      </c>
-      <c r="H113" s="162" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="219"/>
       <c r="B114" s="82"/>
-      <c r="C114" s="79"/>
+      <c r="C114" s="79" t="s">
+        <v>41</v>
+      </c>
       <c r="D114" s="79"/>
-      <c r="E114" s="148"/>
+      <c r="E114" s="148">
+        <v>480</v>
+      </c>
       <c r="F114" s="156"/>
-      <c r="G114" s="92"/>
+      <c r="G114" s="92" t="s">
+        <v>265</v>
+      </c>
+      <c r="H114" s="107" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="115" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="219"/>
-      <c r="B115" s="82">
-        <v>44791</v>
-      </c>
+      <c r="B115" s="82"/>
       <c r="C115" s="79" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="D115" s="79"/>
       <c r="E115" s="148">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="F115" s="156"/>
       <c r="G115" s="92" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="219"/>
       <c r="B116" s="82"/>
       <c r="C116" s="79" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="D116" s="79"/>
       <c r="E116" s="148">
-        <v>480</v>
+        <v>6000</v>
       </c>
       <c r="F116" s="156"/>
       <c r="G116" s="92" t="s">
-        <v>273</v>
-      </c>
-      <c r="H116" s="107" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="219"/>
-      <c r="B117" s="82"/>
-      <c r="C117" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="D117" s="79"/>
-      <c r="E117" s="148">
-        <v>2000</v>
-      </c>
-      <c r="F117" s="156"/>
-      <c r="G117" s="92" t="s">
-        <v>254</v>
-      </c>
+      <c r="B117" s="288"/>
+      <c r="C117" s="292"/>
+      <c r="D117" s="292"/>
+      <c r="E117" s="293"/>
+      <c r="F117" s="294"/>
+      <c r="G117" s="295"/>
     </row>
     <row r="118" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="219"/>
-      <c r="B118" s="82"/>
+      <c r="B118" s="82">
+        <v>44793</v>
+      </c>
       <c r="C118" s="79" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D118" s="79"/>
       <c r="E118" s="148">
-        <v>6000</v>
+        <v>10300</v>
       </c>
       <c r="F118" s="156"/>
       <c r="G118" s="92" t="s">
-        <v>256</v>
+        <v>263</v>
+      </c>
+      <c r="H118" s="107" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="219"/>
       <c r="B119" s="82"/>
-      <c r="C119" s="79"/>
+      <c r="C119" s="79" t="s">
+        <v>41</v>
+      </c>
       <c r="D119" s="79"/>
-      <c r="E119" s="148"/>
+      <c r="E119" s="148">
+        <v>12300</v>
+      </c>
       <c r="F119" s="156"/>
-      <c r="G119" s="92"/>
+      <c r="G119" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="H119" s="107" t="s">
+        <v>252</v>
+      </c>
+      <c r="J119" s="46">
+        <f>6750/15</f>
+        <v>450</v>
+      </c>
     </row>
     <row r="120" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="219"/>
-      <c r="B120" s="82">
-        <v>44793</v>
-      </c>
-      <c r="C120" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="D120" s="79"/>
-      <c r="E120" s="148">
-        <v>10300</v>
-      </c>
-      <c r="F120" s="156"/>
-      <c r="G120" s="92" t="s">
-        <v>271</v>
-      </c>
-      <c r="H120" s="107" t="s">
-        <v>260</v>
-      </c>
+      <c r="B120" s="288"/>
+      <c r="C120" s="292"/>
+      <c r="D120" s="292"/>
+      <c r="E120" s="293"/>
+      <c r="F120" s="294"/>
+      <c r="G120" s="295"/>
     </row>
     <row r="121" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="219"/>
-      <c r="B121" s="82"/>
+      <c r="B121" s="82">
+        <v>44794</v>
+      </c>
       <c r="C121" s="79" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="D121" s="79"/>
       <c r="E121" s="148">
-        <v>12300</v>
+        <v>720</v>
       </c>
       <c r="F121" s="156"/>
       <c r="G121" s="92" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="H121" s="107" t="s">
-        <v>259</v>
-      </c>
-      <c r="J121" s="46">
-        <f>6750/15</f>
-        <v>450</v>
+        <v>255</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="219"/>
       <c r="B122" s="82"/>
-      <c r="C122" s="79"/>
+      <c r="C122" s="79" t="s">
+        <v>44</v>
+      </c>
       <c r="D122" s="79"/>
-      <c r="E122" s="148"/>
+      <c r="E122" s="148">
+        <v>2000</v>
+      </c>
       <c r="F122" s="156"/>
-      <c r="G122" s="92"/>
+      <c r="G122" s="92" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="123" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="219"/>
-      <c r="B123" s="82">
-        <v>44794</v>
-      </c>
+      <c r="B123" s="82"/>
       <c r="C123" s="79" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="D123" s="79"/>
       <c r="E123" s="148">
-        <v>720</v>
+        <v>3000</v>
       </c>
       <c r="F123" s="156"/>
       <c r="G123" s="92" t="s">
-        <v>262</v>
-      </c>
-      <c r="H123" s="107" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="219"/>
       <c r="B124" s="82"/>
-      <c r="C124" s="79" t="s">
-        <v>261</v>
-      </c>
+      <c r="C124" s="79"/>
       <c r="D124" s="79"/>
       <c r="E124" s="148">
-        <v>2000</v>
+        <v>250</v>
       </c>
       <c r="F124" s="156"/>
       <c r="G124" s="92" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="219"/>
-      <c r="B125" s="82"/>
-      <c r="C125" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="D125" s="79"/>
-      <c r="E125" s="148">
-        <v>3000</v>
-      </c>
-      <c r="F125" s="156"/>
-      <c r="G125" s="92" t="s">
-        <v>264</v>
-      </c>
+      <c r="B125" s="288"/>
+      <c r="C125" s="292"/>
+      <c r="D125" s="292"/>
+      <c r="E125" s="293"/>
+      <c r="F125" s="294"/>
+      <c r="G125" s="295"/>
     </row>
     <row r="126" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="219"/>
-      <c r="B126" s="82"/>
-      <c r="C126" s="79"/>
+      <c r="B126" s="82">
+        <v>44795</v>
+      </c>
+      <c r="C126" s="79" t="s">
+        <v>41</v>
+      </c>
       <c r="D126" s="79"/>
       <c r="E126" s="148">
-        <v>250</v>
+        <v>480</v>
       </c>
       <c r="F126" s="156"/>
       <c r="G126" s="92" t="s">
-        <v>280</v>
+        <v>254</v>
+      </c>
+      <c r="H126" s="107" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="219"/>
       <c r="B127" s="82"/>
-      <c r="C127" s="79"/>
+      <c r="C127" s="79" t="s">
+        <v>41</v>
+      </c>
       <c r="D127" s="79"/>
-      <c r="E127" s="148"/>
+      <c r="E127" s="148">
+        <v>1000</v>
+      </c>
       <c r="F127" s="156"/>
-      <c r="G127" s="92"/>
+      <c r="G127" s="92" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="128" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" s="219"/>
-      <c r="B128" s="82">
-        <v>44795</v>
-      </c>
+      <c r="B128" s="82"/>
       <c r="C128" s="79" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="D128" s="79"/>
       <c r="E128" s="148">
-        <v>480</v>
+        <v>1500</v>
       </c>
       <c r="F128" s="156"/>
       <c r="G128" s="92" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H128" s="107" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" s="219"/>
       <c r="B129" s="82"/>
       <c r="C129" s="79" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="D129" s="79"/>
       <c r="E129" s="148">
-        <v>1000</v>
+        <v>17600</v>
       </c>
       <c r="F129" s="156"/>
       <c r="G129" s="92" t="s">
-        <v>269</v>
+        <v>266</v>
+      </c>
+      <c r="H129" s="107" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="219"/>
-      <c r="B130" s="82"/>
-      <c r="C130" s="79" t="s">
-        <v>261</v>
-      </c>
-      <c r="D130" s="79"/>
-      <c r="E130" s="148">
-        <v>1500</v>
-      </c>
-      <c r="F130" s="156"/>
-      <c r="G130" s="92" t="s">
-        <v>267</v>
-      </c>
-      <c r="H130" s="107" t="s">
-        <v>268</v>
-      </c>
+      <c r="B130" s="288"/>
+      <c r="C130" s="292"/>
+      <c r="D130" s="292"/>
+      <c r="E130" s="293"/>
+      <c r="F130" s="294"/>
+      <c r="G130" s="295"/>
     </row>
     <row r="131" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="219"/>
-      <c r="B131" s="82"/>
+      <c r="B131" s="82">
+        <v>44796</v>
+      </c>
       <c r="C131" s="79" t="s">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="D131" s="79"/>
-      <c r="E131" s="148">
-        <v>17600</v>
-      </c>
-      <c r="F131" s="156"/>
+      <c r="E131" s="148"/>
+      <c r="F131" s="158">
+        <v>100000</v>
+      </c>
       <c r="G131" s="92" t="s">
-        <v>274</v>
-      </c>
-      <c r="H131" s="107" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" s="219"/>
       <c r="B132" s="82"/>
-      <c r="C132" s="79"/>
+      <c r="C132" s="79" t="s">
+        <v>94</v>
+      </c>
       <c r="D132" s="79"/>
-      <c r="E132" s="148"/>
+      <c r="E132" s="148">
+        <v>20500</v>
+      </c>
       <c r="F132" s="156"/>
-      <c r="G132" s="92"/>
+      <c r="G132" s="92" t="s">
+        <v>269</v>
+      </c>
+      <c r="H132" s="107" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="133" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="219"/>
-      <c r="B133" s="82">
-        <v>44796</v>
-      </c>
+      <c r="B133" s="82"/>
       <c r="C133" s="79" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D133" s="79"/>
-      <c r="E133" s="148"/>
-      <c r="F133" s="158">
-        <v>100000</v>
-      </c>
+      <c r="E133" s="161">
+        <v>480</v>
+      </c>
+      <c r="F133" s="156"/>
       <c r="G133" s="92" t="s">
-        <v>276</v>
+        <v>175</v>
+      </c>
+      <c r="H133" s="107" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="219"/>
-      <c r="B134" s="82"/>
+      <c r="B134" s="84"/>
       <c r="C134" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="D134" s="79"/>
-      <c r="E134" s="148">
-        <v>20500</v>
-      </c>
-      <c r="F134" s="156"/>
-      <c r="G134" s="92" t="s">
-        <v>277</v>
-      </c>
-      <c r="H134" s="107" t="s">
-        <v>278</v>
+        <v>41</v>
+      </c>
+      <c r="D134" s="103"/>
+      <c r="E134" s="225">
+        <v>2000</v>
+      </c>
+      <c r="F134" s="226"/>
+      <c r="G134" s="106" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="219"/>
-      <c r="B135" s="82"/>
-      <c r="C135" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="D135" s="79"/>
-      <c r="E135" s="161">
-        <v>480</v>
-      </c>
-      <c r="F135" s="156"/>
-      <c r="G135" s="92" t="s">
-        <v>178</v>
-      </c>
-      <c r="H135" s="107" t="s">
-        <v>265</v>
-      </c>
+      <c r="B135" s="288"/>
+      <c r="C135" s="292"/>
+      <c r="D135" s="292"/>
+      <c r="E135" s="293"/>
+      <c r="F135" s="294"/>
+      <c r="G135" s="295"/>
     </row>
     <row r="136" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A136" s="219"/>
-      <c r="B136" s="84"/>
-      <c r="C136" s="103" t="s">
-        <v>95</v>
-      </c>
-      <c r="D136" s="103"/>
-      <c r="E136" s="227">
-        <v>2000</v>
-      </c>
-      <c r="F136" s="228"/>
-      <c r="G136" s="106" t="s">
-        <v>333</v>
+      <c r="B136" s="82">
+        <v>44797</v>
+      </c>
+      <c r="C136" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="D136" s="79"/>
+      <c r="E136" s="148">
+        <v>3000</v>
+      </c>
+      <c r="F136" s="156"/>
+      <c r="G136" s="92" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A137" s="219"/>
       <c r="B137" s="82"/>
-      <c r="C137" s="79"/>
+      <c r="C137" s="79" t="s">
+        <v>41</v>
+      </c>
       <c r="D137" s="79"/>
-      <c r="E137" s="148"/>
+      <c r="E137" s="148">
+        <v>520</v>
+      </c>
       <c r="F137" s="156"/>
-      <c r="G137" s="92"/>
+      <c r="G137" s="92" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="138" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A138" s="219"/>
-      <c r="B138" s="82">
-        <v>44797</v>
-      </c>
-      <c r="C138" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="D138" s="79"/>
-      <c r="E138" s="148">
-        <v>3000</v>
-      </c>
-      <c r="F138" s="156"/>
-      <c r="G138" s="92" t="s">
-        <v>279</v>
-      </c>
+      <c r="B138" s="288"/>
+      <c r="C138" s="292"/>
+      <c r="D138" s="292"/>
+      <c r="E138" s="293"/>
+      <c r="F138" s="294"/>
+      <c r="G138" s="295"/>
     </row>
     <row r="139" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" s="219"/>
-      <c r="B139" s="82"/>
+      <c r="B139" s="82">
+        <v>44798</v>
+      </c>
       <c r="C139" s="79" t="s">
-        <v>95</v>
+        <v>341</v>
       </c>
       <c r="D139" s="79"/>
       <c r="E139" s="148">
-        <v>520</v>
+        <v>14000</v>
       </c>
       <c r="F139" s="156"/>
       <c r="G139" s="92" t="s">
-        <v>112</v>
+        <v>273</v>
+      </c>
+      <c r="H139" s="107" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="219"/>
       <c r="B140" s="82"/>
-      <c r="C140" s="79"/>
+      <c r="C140" s="79" t="s">
+        <v>41</v>
+      </c>
       <c r="D140" s="79"/>
-      <c r="E140" s="148"/>
+      <c r="E140" s="148">
+        <v>720</v>
+      </c>
       <c r="F140" s="156"/>
-      <c r="G140" s="92"/>
+      <c r="G140" s="92" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="141" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" s="219"/>
-      <c r="B141" s="82">
-        <v>44798</v>
-      </c>
-      <c r="C141" s="79" t="s">
-        <v>261</v>
-      </c>
-      <c r="D141" s="79"/>
-      <c r="E141" s="148">
-        <v>14000</v>
-      </c>
-      <c r="F141" s="156"/>
-      <c r="G141" s="92" t="s">
-        <v>281</v>
-      </c>
-      <c r="H141" s="107" t="s">
-        <v>282</v>
-      </c>
+      <c r="B141" s="288"/>
+      <c r="C141" s="292"/>
+      <c r="D141" s="292"/>
+      <c r="E141" s="293"/>
+      <c r="F141" s="294"/>
+      <c r="G141" s="295"/>
     </row>
     <row r="142" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A142" s="219"/>
-      <c r="B142" s="82"/>
+      <c r="B142" s="82">
+        <v>44800</v>
+      </c>
       <c r="C142" s="79" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="D142" s="79"/>
       <c r="E142" s="148">
-        <v>720</v>
+        <v>600</v>
       </c>
       <c r="F142" s="156"/>
       <c r="G142" s="92" t="s">
-        <v>283</v>
+        <v>175</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A143" s="219"/>
-      <c r="B143" s="82"/>
-      <c r="C143" s="79"/>
-      <c r="D143" s="79"/>
-      <c r="E143" s="148"/>
-      <c r="F143" s="156"/>
-      <c r="G143" s="92"/>
+      <c r="B143" s="288"/>
+      <c r="C143" s="292"/>
+      <c r="D143" s="292"/>
+      <c r="E143" s="293"/>
+      <c r="F143" s="294"/>
+      <c r="G143" s="295"/>
     </row>
     <row r="144" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A144" s="219"/>
       <c r="B144" s="82">
-        <v>44800</v>
-      </c>
-      <c r="C144" s="79" t="s">
-        <v>95</v>
-      </c>
+        <v>44801</v>
+      </c>
+      <c r="C144" s="79"/>
       <c r="D144" s="79"/>
       <c r="E144" s="148">
         <v>600</v>
       </c>
       <c r="F144" s="156"/>
       <c r="G144" s="92" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+      <c r="H144" s="107" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A145" s="219"/>
-      <c r="B145" s="82"/>
-      <c r="C145" s="79"/>
-      <c r="D145" s="79"/>
-      <c r="E145" s="148"/>
-      <c r="F145" s="156"/>
-      <c r="G145" s="92"/>
-    </row>
-    <row r="146" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="288"/>
+      <c r="C145" s="292"/>
+      <c r="D145" s="292"/>
+      <c r="E145" s="293"/>
+      <c r="F145" s="294"/>
+      <c r="G145" s="295"/>
+    </row>
+    <row r="146" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A146" s="219"/>
       <c r="B146" s="82">
-        <v>44801</v>
-      </c>
-      <c r="C146" s="79"/>
+        <v>44802</v>
+      </c>
+      <c r="C146" s="79" t="s">
+        <v>41</v>
+      </c>
       <c r="D146" s="79"/>
       <c r="E146" s="148">
-        <v>600</v>
+        <v>720</v>
       </c>
       <c r="F146" s="156"/>
       <c r="G146" s="92" t="s">
-        <v>284</v>
-      </c>
-      <c r="H146" s="107" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A147" s="219"/>
-      <c r="B147" s="82"/>
-      <c r="C147" s="79"/>
-      <c r="D147" s="79"/>
-      <c r="E147" s="148"/>
-      <c r="F147" s="156"/>
-      <c r="G147" s="92"/>
-    </row>
-    <row r="148" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="288"/>
+      <c r="C147" s="292"/>
+      <c r="D147" s="292"/>
+      <c r="E147" s="293"/>
+      <c r="F147" s="294"/>
+      <c r="G147" s="295"/>
+    </row>
+    <row r="148" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" s="219"/>
       <c r="B148" s="82">
-        <v>44802</v>
+        <v>44803</v>
       </c>
       <c r="C148" s="79" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="D148" s="79"/>
       <c r="E148" s="148">
-        <v>720</v>
+        <v>2800</v>
       </c>
       <c r="F148" s="156"/>
       <c r="G148" s="92" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="219"/>
       <c r="B149" s="82"/>
-      <c r="C149" s="79"/>
+      <c r="C149" s="79" t="s">
+        <v>41</v>
+      </c>
       <c r="D149" s="79"/>
-      <c r="E149" s="148"/>
+      <c r="E149" s="148">
+        <v>300</v>
+      </c>
       <c r="F149" s="156"/>
-      <c r="G149" s="92"/>
-    </row>
-    <row r="150" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G149" s="92" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="219"/>
-      <c r="B150" s="82">
-        <v>44803</v>
-      </c>
+      <c r="B150" s="82"/>
       <c r="C150" s="79" t="s">
-        <v>261</v>
+        <v>341</v>
       </c>
       <c r="D150" s="79"/>
       <c r="E150" s="148">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="F150" s="156"/>
       <c r="G150" s="92" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="219"/>
-      <c r="B151" s="82"/>
-      <c r="C151" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="D151" s="79"/>
-      <c r="E151" s="148">
-        <v>300</v>
-      </c>
-      <c r="F151" s="156"/>
-      <c r="G151" s="92" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="288"/>
+      <c r="C151" s="292"/>
+      <c r="D151" s="292"/>
+      <c r="E151" s="293"/>
+      <c r="F151" s="294"/>
+      <c r="G151" s="295"/>
+    </row>
+    <row r="152" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="219"/>
-      <c r="B152" s="82"/>
+      <c r="B152" s="82">
+        <v>44804</v>
+      </c>
       <c r="C152" s="79" t="s">
-        <v>261</v>
+        <v>41</v>
       </c>
       <c r="D152" s="79"/>
       <c r="E152" s="148">
-        <v>3000</v>
+        <v>1785</v>
       </c>
       <c r="F152" s="156"/>
       <c r="G152" s="92" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="219"/>
       <c r="B153" s="82"/>
-      <c r="C153" s="79"/>
+      <c r="C153" s="79" t="s">
+        <v>41</v>
+      </c>
       <c r="D153" s="79"/>
-      <c r="E153" s="148"/>
+      <c r="E153" s="148">
+        <v>720</v>
+      </c>
       <c r="F153" s="156"/>
-      <c r="G153" s="92"/>
-    </row>
-    <row r="154" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G153" s="92" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" s="219"/>
-      <c r="B154" s="82">
-        <v>44804</v>
-      </c>
+      <c r="B154" s="82"/>
       <c r="C154" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="D154" s="79"/>
-      <c r="E154" s="148">
-        <v>1785</v>
-      </c>
-      <c r="F154" s="156"/>
+        <v>39</v>
+      </c>
+      <c r="D154" s="79" t="s">
+        <v>40</v>
+      </c>
+      <c r="E154" s="148"/>
+      <c r="F154" s="158">
+        <v>2000</v>
+      </c>
       <c r="G154" s="92" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="219"/>
       <c r="B155" s="82"/>
       <c r="C155" s="79" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="D155" s="79"/>
       <c r="E155" s="148">
-        <v>720</v>
+        <v>1500</v>
       </c>
       <c r="F155" s="156"/>
       <c r="G155" s="92" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="219"/>
-      <c r="B156" s="82"/>
-      <c r="C156" s="79" t="s">
-        <v>39</v>
-      </c>
-      <c r="D156" s="79" t="s">
-        <v>40</v>
-      </c>
-      <c r="E156" s="148"/>
-      <c r="F156" s="156">
-        <v>2000</v>
-      </c>
-      <c r="G156" s="92" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B156" s="227"/>
+      <c r="C156" s="300" t="s">
+        <v>41</v>
+      </c>
+      <c r="D156" s="230"/>
+      <c r="E156" s="228">
+        <v>400</v>
+      </c>
+      <c r="F156" s="230"/>
+      <c r="G156" s="229" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A157" s="219"/>
-      <c r="B157" s="82"/>
-      <c r="C157" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="D157" s="79"/>
-      <c r="E157" s="148">
-        <v>1500</v>
-      </c>
-      <c r="F157" s="156"/>
-      <c r="G157" s="92" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="229"/>
-      <c r="C158" s="232" t="s">
-        <v>95</v>
-      </c>
-      <c r="D158" s="232"/>
-      <c r="E158" s="230">
-        <v>400</v>
-      </c>
-      <c r="F158" s="232"/>
-      <c r="G158" s="231" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B157" s="288"/>
+      <c r="C157" s="292"/>
+      <c r="D157" s="292"/>
+      <c r="E157" s="293"/>
+      <c r="F157" s="294"/>
+      <c r="G157" s="295"/>
+    </row>
+    <row r="158" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="219"/>
+      <c r="B158" s="82">
+        <v>44805</v>
+      </c>
+      <c r="C158" s="79"/>
+      <c r="D158" s="79"/>
+      <c r="E158" s="148"/>
+      <c r="F158" s="156"/>
+      <c r="G158" s="92"/>
+    </row>
+    <row r="159" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A159" s="219"/>
-      <c r="B159" s="82"/>
-      <c r="C159" s="79"/>
-      <c r="D159" s="79"/>
-      <c r="E159" s="148"/>
-      <c r="F159" s="156"/>
-      <c r="G159" s="92"/>
-    </row>
-    <row r="160" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B159" s="288"/>
+      <c r="C159" s="292"/>
+      <c r="D159" s="292"/>
+      <c r="E159" s="293"/>
+      <c r="F159" s="294"/>
+      <c r="G159" s="295"/>
+    </row>
+    <row r="160" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A160" s="219"/>
       <c r="B160" s="82">
-        <v>44805</v>
-      </c>
-      <c r="C160" s="79"/>
+        <v>44807</v>
+      </c>
+      <c r="C160" s="79" t="s">
+        <v>41</v>
+      </c>
       <c r="D160" s="79"/>
-      <c r="E160" s="148"/>
+      <c r="E160" s="148">
+        <v>520</v>
+      </c>
       <c r="F160" s="156"/>
-      <c r="G160" s="92"/>
+      <c r="G160" s="92" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="161" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A161" s="219"/>
-      <c r="B161" s="82"/>
-      <c r="C161" s="79"/>
-      <c r="D161" s="79"/>
-      <c r="E161" s="148"/>
-      <c r="F161" s="156"/>
-      <c r="G161" s="92"/>
+      <c r="B161" s="288"/>
+      <c r="C161" s="292"/>
+      <c r="D161" s="292"/>
+      <c r="E161" s="293"/>
+      <c r="F161" s="294"/>
+      <c r="G161" s="295"/>
     </row>
     <row r="162" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A162" s="219"/>
       <c r="B162" s="82">
-        <v>44807</v>
+        <v>44808</v>
       </c>
       <c r="C162" s="79" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="D162" s="79"/>
       <c r="E162" s="148">
-        <v>520</v>
+        <v>720</v>
       </c>
       <c r="F162" s="156"/>
       <c r="G162" s="92" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A163" s="219"/>
-      <c r="B163" s="82"/>
-      <c r="C163" s="79"/>
-      <c r="D163" s="79"/>
-      <c r="E163" s="148"/>
-      <c r="F163" s="156"/>
-      <c r="G163" s="92"/>
+      <c r="B163" s="288"/>
+      <c r="C163" s="292"/>
+      <c r="D163" s="292"/>
+      <c r="E163" s="293"/>
+      <c r="F163" s="294"/>
+      <c r="G163" s="295"/>
+      <c r="H163" s="107">
+        <f>2000+600+1750+700</f>
+        <v>5050</v>
+      </c>
     </row>
     <row r="164" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" s="219"/>
       <c r="B164" s="82">
-        <v>44808</v>
+        <v>44809</v>
       </c>
       <c r="C164" s="79" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="D164" s="79"/>
       <c r="E164" s="148">
-        <v>720</v>
+        <v>480</v>
       </c>
       <c r="F164" s="156"/>
       <c r="G164" s="92" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="219"/>
-      <c r="B165" s="82"/>
-      <c r="C165" s="79"/>
-      <c r="D165" s="79"/>
-      <c r="E165" s="148"/>
-      <c r="F165" s="156"/>
-      <c r="G165" s="92"/>
-      <c r="H165" s="107">
-        <f>2000+600+1750+700</f>
-        <v>5050</v>
-      </c>
+      <c r="B165" s="288"/>
+      <c r="C165" s="292"/>
+      <c r="D165" s="292"/>
+      <c r="E165" s="293"/>
+      <c r="F165" s="294"/>
+      <c r="G165" s="295"/>
     </row>
     <row r="166" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="219"/>
       <c r="B166" s="82">
-        <v>44809</v>
+        <v>44810</v>
       </c>
       <c r="C166" s="79" t="s">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="D166" s="79"/>
-      <c r="E166" s="148">
-        <v>480</v>
-      </c>
-      <c r="F166" s="156"/>
+      <c r="E166" s="148"/>
+      <c r="F166" s="158">
+        <v>100000</v>
+      </c>
       <c r="G166" s="92" t="s">
-        <v>178</v>
+        <v>300</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B167" s="82"/>
-      <c r="C167" s="79"/>
+      <c r="C167" s="79" t="s">
+        <v>44</v>
+      </c>
       <c r="D167" s="79"/>
-      <c r="E167" s="148"/>
+      <c r="E167" s="148">
+        <v>9000</v>
+      </c>
       <c r="F167" s="156"/>
-      <c r="G167" s="92"/>
+      <c r="G167" s="92" t="s">
+        <v>330</v>
+      </c>
+      <c r="H167" s="107" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="168" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="82">
-        <v>44810</v>
-      </c>
+      <c r="B168" s="82"/>
       <c r="C168" s="79" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D168" s="79"/>
-      <c r="E168" s="148"/>
-      <c r="F168" s="156">
-        <v>100000</v>
-      </c>
+      <c r="E168" s="148">
+        <v>24600</v>
+      </c>
+      <c r="F168" s="156"/>
       <c r="G168" s="92" t="s">
-        <v>310</v>
+        <v>302</v>
+      </c>
+      <c r="H168" s="107" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B169" s="82"/>
       <c r="C169" s="79" t="s">
-        <v>44</v>
-      </c>
-      <c r="D169" s="79"/>
+        <v>42</v>
+      </c>
+      <c r="D169" s="79" t="s">
+        <v>305</v>
+      </c>
       <c r="E169" s="148">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="F169" s="156"/>
       <c r="G169" s="92" t="s">
-        <v>311</v>
-      </c>
-      <c r="H169" s="107" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B170" s="82"/>
       <c r="C170" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="D170" s="79"/>
+        <v>42</v>
+      </c>
+      <c r="D170" s="79" t="s">
+        <v>304</v>
+      </c>
       <c r="E170" s="148">
-        <v>24600</v>
+        <v>12000</v>
       </c>
       <c r="F170" s="156"/>
       <c r="G170" s="92" t="s">
-        <v>313</v>
-      </c>
-      <c r="H170" s="107" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B171" s="82"/>
-      <c r="C171" s="79" t="s">
-        <v>42</v>
-      </c>
-      <c r="D171" s="79" t="s">
-        <v>316</v>
-      </c>
-      <c r="E171" s="148">
-        <v>12000</v>
-      </c>
-      <c r="F171" s="156"/>
-      <c r="G171" s="92" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="82"/>
-      <c r="C172" s="79" t="s">
-        <v>42</v>
-      </c>
-      <c r="D172" s="79" t="s">
-        <v>315</v>
-      </c>
-      <c r="E172" s="148">
-        <v>12000</v>
-      </c>
-      <c r="F172" s="156"/>
-      <c r="G172" s="92" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="82"/>
-      <c r="C173" s="79"/>
-      <c r="D173" s="79"/>
-      <c r="E173" s="148"/>
-      <c r="F173" s="156"/>
-      <c r="G173" s="92"/>
-      <c r="H173" s="107">
+      <c r="B171" s="288"/>
+      <c r="C171" s="292"/>
+      <c r="D171" s="292"/>
+      <c r="E171" s="293"/>
+      <c r="F171" s="294"/>
+      <c r="G171" s="295"/>
+      <c r="H171" s="107">
         <f>27*1800</f>
         <v>48600</v>
       </c>
     </row>
+    <row r="172" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B172" s="84">
+        <v>44811</v>
+      </c>
+      <c r="C172" s="103" t="s">
+        <v>41</v>
+      </c>
+      <c r="D172" s="103"/>
+      <c r="E172" s="225">
+        <v>530</v>
+      </c>
+      <c r="F172" s="226"/>
+      <c r="G172" s="106" t="s">
+        <v>175</v>
+      </c>
+      <c r="H172" s="107" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B173" s="84"/>
+      <c r="C173" s="103" t="s">
+        <v>41</v>
+      </c>
+      <c r="D173" s="103"/>
+      <c r="E173" s="225">
+        <v>350</v>
+      </c>
+      <c r="F173" s="226"/>
+      <c r="G173" s="106" t="s">
+        <v>319</v>
+      </c>
+    </row>
     <row r="174" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="84">
-        <v>44811</v>
-      </c>
-      <c r="C174" s="103" t="s">
+      <c r="B174" s="84"/>
+      <c r="C174" s="79" t="s">
         <v>41</v>
       </c>
       <c r="D174" s="103"/>
-      <c r="E174" s="227">
-        <v>530</v>
-      </c>
-      <c r="F174" s="228"/>
+      <c r="E174" s="225">
+        <v>100</v>
+      </c>
+      <c r="F174" s="226"/>
       <c r="G174" s="106" t="s">
-        <v>178</v>
-      </c>
-      <c r="H174" s="107" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B175" s="84"/>
-      <c r="C175" s="103" t="s">
+      <c r="B175" s="296"/>
+      <c r="C175" s="297"/>
+      <c r="D175" s="297"/>
+      <c r="E175" s="297"/>
+      <c r="F175" s="298"/>
+      <c r="G175" s="299"/>
+    </row>
+    <row r="176" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B176" s="84">
+        <v>44815</v>
+      </c>
+      <c r="C176" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="D175" s="103"/>
-      <c r="E175" s="227">
-        <v>350</v>
-      </c>
-      <c r="F175" s="228"/>
-      <c r="G175" s="106" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="84"/>
-      <c r="C176" s="103" t="s">
-        <v>95</v>
-      </c>
       <c r="D176" s="103"/>
-      <c r="E176" s="227">
-        <v>100</v>
-      </c>
-      <c r="F176" s="228"/>
+      <c r="E176" s="225">
+        <v>480</v>
+      </c>
+      <c r="F176" s="226"/>
       <c r="G176" s="106" t="s">
-        <v>331</v>
+        <v>175</v>
+      </c>
+      <c r="H176" s="107" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="177" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B177" s="84"/>
-      <c r="C177" s="103"/>
+      <c r="C177" s="79" t="s">
+        <v>41</v>
+      </c>
       <c r="D177" s="103"/>
-      <c r="E177" s="227"/>
-      <c r="F177" s="228"/>
-      <c r="G177" s="106"/>
+      <c r="E177" s="225">
+        <v>1400</v>
+      </c>
+      <c r="F177" s="226"/>
+      <c r="G177" s="106" t="s">
+        <v>324</v>
+      </c>
+      <c r="H177" s="107" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="178" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="84">
-        <v>44815</v>
-      </c>
-      <c r="C178" s="103" t="s">
-        <v>95</v>
-      </c>
-      <c r="D178" s="103"/>
-      <c r="E178" s="227">
-        <v>480</v>
-      </c>
-      <c r="F178" s="228"/>
-      <c r="G178" s="106" t="s">
-        <v>178</v>
-      </c>
-      <c r="H178" s="107" t="s">
-        <v>334</v>
-      </c>
+      <c r="B178" s="296"/>
+      <c r="C178" s="297"/>
+      <c r="D178" s="297"/>
+      <c r="E178" s="297"/>
+      <c r="F178" s="298"/>
+      <c r="G178" s="299"/>
     </row>
     <row r="179" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B179" s="84"/>
-      <c r="C179" s="103" t="s">
-        <v>95</v>
+      <c r="B179" s="84">
+        <v>44816</v>
+      </c>
+      <c r="C179" s="79" t="s">
+        <v>41</v>
       </c>
       <c r="D179" s="103"/>
-      <c r="E179" s="227">
-        <v>1400</v>
-      </c>
-      <c r="F179" s="228"/>
+      <c r="E179" s="225">
+        <v>1440</v>
+      </c>
+      <c r="F179" s="226"/>
       <c r="G179" s="106" t="s">
-        <v>335</v>
+        <v>175</v>
       </c>
       <c r="H179" s="107" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
     </row>
     <row r="180" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B180" s="84"/>
-      <c r="C180" s="103"/>
+      <c r="C180" s="79" t="s">
+        <v>41</v>
+      </c>
       <c r="D180" s="103"/>
-      <c r="E180" s="227"/>
-      <c r="F180" s="228"/>
-      <c r="G180" s="106"/>
+      <c r="E180" s="225">
+        <v>1500</v>
+      </c>
+      <c r="F180" s="226"/>
+      <c r="G180" s="106" t="s">
+        <v>327</v>
+      </c>
+      <c r="H180" s="107" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="181" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="82"/>
-      <c r="C181" s="79"/>
-      <c r="D181" s="79"/>
-      <c r="E181" s="148"/>
-      <c r="F181" s="156"/>
-      <c r="G181" s="92"/>
-    </row>
-    <row r="182" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B182" s="85"/>
-      <c r="C182" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="D182" s="86"/>
-      <c r="E182" s="213">
-        <f>SUM(E14:E181)</f>
-        <v>746535</v>
-      </c>
-      <c r="F182" s="214">
-        <f>SUM(F14:F181)</f>
+      <c r="B181" s="296"/>
+      <c r="C181" s="297"/>
+      <c r="D181" s="297"/>
+      <c r="E181" s="297"/>
+      <c r="F181" s="298"/>
+      <c r="G181" s="299"/>
+    </row>
+    <row r="182" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B182" s="84">
+        <v>44817</v>
+      </c>
+      <c r="C182" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="D182" s="103"/>
+      <c r="E182" s="225">
+        <f>480+720</f>
+        <v>1200</v>
+      </c>
+      <c r="F182" s="226"/>
+      <c r="G182" s="92" t="s">
+        <v>254</v>
+      </c>
+      <c r="H182" s="107" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="183" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B183" s="296"/>
+      <c r="C183" s="297"/>
+      <c r="D183" s="297"/>
+      <c r="E183" s="297"/>
+      <c r="F183" s="298"/>
+      <c r="G183" s="299"/>
+    </row>
+    <row r="184" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B184" s="84">
+        <v>44818</v>
+      </c>
+      <c r="C184" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="D184" s="103"/>
+      <c r="E184" s="225">
+        <v>720</v>
+      </c>
+      <c r="F184" s="226"/>
+      <c r="G184" s="106" t="s">
+        <v>175</v>
+      </c>
+      <c r="H184" s="107" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="185" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B185" s="84"/>
+      <c r="C185" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="D185" s="103"/>
+      <c r="E185" s="225">
+        <v>12200</v>
+      </c>
+      <c r="F185" s="226"/>
+      <c r="G185" s="106" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="186" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B186" s="84"/>
+      <c r="C186" s="103"/>
+      <c r="D186" s="103"/>
+      <c r="E186" s="225">
+        <v>300</v>
+      </c>
+      <c r="F186" s="226"/>
+      <c r="G186" s="92" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="187" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B187" s="82"/>
+      <c r="C187" s="79"/>
+      <c r="D187" s="79"/>
+      <c r="E187" s="161"/>
+      <c r="F187" s="156"/>
+      <c r="G187" s="92"/>
+    </row>
+    <row r="188" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B188" s="84"/>
+      <c r="C188" s="103"/>
+      <c r="D188" s="103"/>
+      <c r="E188" s="225"/>
+      <c r="F188" s="226"/>
+      <c r="G188" s="106"/>
+    </row>
+    <row r="189" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B189" s="84"/>
+      <c r="C189" s="103"/>
+      <c r="D189" s="103"/>
+      <c r="E189" s="225"/>
+      <c r="F189" s="226"/>
+      <c r="G189" s="106"/>
+    </row>
+    <row r="190" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B190" s="84"/>
+      <c r="C190" s="103"/>
+      <c r="D190" s="103"/>
+      <c r="E190" s="225"/>
+      <c r="F190" s="226"/>
+      <c r="G190" s="106"/>
+    </row>
+    <row r="191" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B191" s="84"/>
+      <c r="C191" s="103"/>
+      <c r="D191" s="103"/>
+      <c r="E191" s="225"/>
+      <c r="F191" s="226"/>
+      <c r="G191" s="106"/>
+    </row>
+    <row r="192" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B192" s="84"/>
+      <c r="C192" s="103"/>
+      <c r="D192" s="103"/>
+      <c r="E192" s="225"/>
+      <c r="F192" s="226"/>
+      <c r="G192" s="106"/>
+    </row>
+    <row r="193" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B193" s="82"/>
+      <c r="C193" s="79"/>
+      <c r="D193" s="79"/>
+      <c r="E193" s="148"/>
+      <c r="F193" s="156"/>
+      <c r="G193" s="92"/>
+    </row>
+    <row r="194" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B194" s="85"/>
+      <c r="C194" s="86"/>
+      <c r="D194" s="86"/>
+      <c r="E194" s="213">
+        <f>SUM(E14:E193)</f>
+        <v>763895</v>
+      </c>
+      <c r="F194" s="214">
+        <f>SUM(F14:F193)</f>
         <v>762000</v>
       </c>
-      <c r="G182" s="102"/>
+      <c r="G194" s="102"/>
+    </row>
+    <row r="195" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B195" s="273" t="s">
+        <v>333</v>
+      </c>
+      <c r="C195" s="274"/>
+      <c r="D195" s="136">
+        <f>F194-E194</f>
+        <v>-1895</v>
+      </c>
+      <c r="E195" s="275"/>
+      <c r="F195" s="276"/>
+      <c r="G195" s="277">
+        <f>SUBTOTAL(103,Tableau2[Observation])</f>
+        <v>123</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C6:F6"/>
   </mergeCells>
+  <conditionalFormatting sqref="D195">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="lessThan">
+      <formula>-1895</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F190">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -10939,7 +11523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A3:J2745"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
+    <sheetView topLeftCell="A57" workbookViewId="0">
       <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
@@ -10954,12 +11538,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="269" t="s">
+      <c r="C3" s="267" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="270"/>
-      <c r="E3" s="271"/>
-      <c r="F3" s="274"/>
+      <c r="D3" s="268"/>
+      <c r="E3" s="269"/>
+      <c r="F3" s="272"/>
     </row>
     <row r="4" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="45"/>
@@ -10974,12 +11558,12 @@
       <c r="F5" s="46"/>
     </row>
     <row r="6" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="272" t="s">
+      <c r="C6" s="270" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="272"/>
-      <c r="E6" s="273"/>
-      <c r="F6" s="273"/>
+      <c r="D6" s="270"/>
+      <c r="E6" s="271"/>
+      <c r="F6" s="271"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="72" t="s">
@@ -11064,7 +11648,7 @@
       </c>
       <c r="F15" s="43"/>
       <c r="G15" s="92" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11088,7 +11672,7 @@
       </c>
       <c r="F17" s="43"/>
       <c r="G17" s="92" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -11112,7 +11696,7 @@
       </c>
       <c r="F19" s="69"/>
       <c r="G19" s="93" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11126,7 +11710,7 @@
       </c>
       <c r="F20" s="49"/>
       <c r="G20" s="92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11140,7 +11724,7 @@
       </c>
       <c r="F21" s="49"/>
       <c r="G21" s="92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="2:7" s="67" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11164,7 +11748,7 @@
       </c>
       <c r="F23" s="49"/>
       <c r="G23" s="92" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11188,7 +11772,7 @@
       </c>
       <c r="F25" s="55"/>
       <c r="G25" s="92" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11197,14 +11781,14 @@
         <v>47</v>
       </c>
       <c r="D26" s="51" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E26" s="55">
         <v>8000</v>
       </c>
       <c r="F26" s="55"/>
       <c r="G26" s="92" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11228,7 +11812,7 @@
       </c>
       <c r="F28" s="55"/>
       <c r="G28" s="92" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11260,7 +11844,7 @@
       </c>
       <c r="F31" s="43"/>
       <c r="G31" s="92" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="2:7" s="67" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11269,14 +11853,14 @@
         <v>47</v>
       </c>
       <c r="D32" s="68" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E32" s="69">
         <v>12000</v>
       </c>
       <c r="F32" s="69"/>
       <c r="G32" s="93" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11293,7 +11877,7 @@
         <v>44745</v>
       </c>
       <c r="C34" s="79" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D34" s="65"/>
       <c r="E34" s="50">
@@ -11301,7 +11885,7 @@
       </c>
       <c r="F34" s="43"/>
       <c r="G34" s="92" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11310,14 +11894,14 @@
         <v>47</v>
       </c>
       <c r="D35" s="47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E35" s="43">
         <v>10000</v>
       </c>
       <c r="F35" s="43"/>
       <c r="G35" s="94" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11331,7 +11915,7 @@
       </c>
       <c r="F36" s="43"/>
       <c r="G36" s="94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11345,7 +11929,7 @@
       </c>
       <c r="F37" s="43"/>
       <c r="G37" s="92" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11371,7 +11955,7 @@
       </c>
       <c r="F39" s="43"/>
       <c r="G39" s="92" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11380,14 +11964,14 @@
         <v>47</v>
       </c>
       <c r="D40" s="47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E40" s="43">
         <v>3000</v>
       </c>
       <c r="F40" s="43"/>
       <c r="G40" s="92" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11401,7 +11985,7 @@
       </c>
       <c r="F41" s="48"/>
       <c r="G41" s="92" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11415,7 +11999,7 @@
       </c>
       <c r="F42" s="48"/>
       <c r="G42" s="92" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11434,14 +12018,14 @@
         <v>47</v>
       </c>
       <c r="D44" s="47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E44" s="43">
         <v>7000</v>
       </c>
       <c r="F44" s="48"/>
       <c r="G44" s="92" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11455,7 +12039,7 @@
       </c>
       <c r="F45" s="48"/>
       <c r="G45" s="92" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11469,7 +12053,7 @@
       </c>
       <c r="F46" s="48"/>
       <c r="G46" s="92" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11488,14 +12072,14 @@
         <v>44</v>
       </c>
       <c r="D48" s="51" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E48" s="48">
         <v>1000</v>
       </c>
       <c r="F48" s="54"/>
       <c r="G48" s="92" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11509,7 +12093,7 @@
       </c>
       <c r="F49" s="55"/>
       <c r="G49" s="92" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11535,7 +12119,7 @@
       </c>
       <c r="F51" s="55"/>
       <c r="G51" s="92" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -11550,7 +12134,7 @@
       </c>
       <c r="F52" s="55"/>
       <c r="G52" s="92" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11576,7 +12160,7 @@
       </c>
       <c r="F54" s="55"/>
       <c r="G54" s="92" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11593,7 +12177,7 @@
       </c>
       <c r="F55" s="55"/>
       <c r="G55" s="92" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11603,14 +12187,14 @@
         <v>47</v>
       </c>
       <c r="D56" s="51" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E56" s="48">
         <v>3000</v>
       </c>
       <c r="F56" s="55"/>
       <c r="G56" s="92" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11620,14 +12204,14 @@
         <v>42</v>
       </c>
       <c r="D57" s="51" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E57" s="48">
         <v>3000</v>
       </c>
       <c r="F57" s="55"/>
       <c r="G57" s="92" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11653,7 +12237,7 @@
       </c>
       <c r="F59" s="55"/>
       <c r="G59" s="92" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11668,7 +12252,7 @@
       </c>
       <c r="F60" s="55"/>
       <c r="G60" s="92" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11694,7 +12278,7 @@
       </c>
       <c r="F62" s="55"/>
       <c r="G62" s="92" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11709,7 +12293,7 @@
       </c>
       <c r="F63" s="55"/>
       <c r="G63" s="92" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11735,7 +12319,7 @@
       </c>
       <c r="F65" s="55"/>
       <c r="G65" s="92" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11750,14 +12334,14 @@
       </c>
       <c r="F66" s="55"/>
       <c r="G66" s="92" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="57"/>
       <c r="B67" s="82"/>
       <c r="C67" s="79" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D67" s="51"/>
       <c r="E67" s="48">
@@ -11765,7 +12349,7 @@
       </c>
       <c r="F67" s="55"/>
       <c r="G67" s="92" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11783,7 +12367,7 @@
         <v>44762</v>
       </c>
       <c r="C69" s="79" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D69" s="51"/>
       <c r="E69" s="48">
@@ -11791,7 +12375,7 @@
       </c>
       <c r="F69" s="55"/>
       <c r="G69" s="92" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">

--- a/Suivie de Caisse 1.xlsx
+++ b/Suivie de Caisse 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ES-SABRE\Desktop\Caisse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7445C4B-27EB-4E39-B224-2EC6A97C557A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6F3097-3CEA-494D-AEC2-997892BD5E9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ETAT DE FACTURES DE DOIT" sheetId="3" state="hidden" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="355">
   <si>
     <t>Total</t>
   </si>
@@ -994,12 +994,6 @@
     <t>achat effectuer le 31/8 :48Kg de polyane:18240da + colle :1500da + 2bidon de sika hydrofuge : 2350da/bidon</t>
   </si>
   <si>
-    <t>payement du credit pris chez halim quaincailler</t>
-  </si>
-  <si>
-    <t>mois de aout 12000/48600</t>
-  </si>
-  <si>
     <t>Hassan MO</t>
   </si>
   <si>
@@ -1121,6 +1115,42 @@
   </si>
   <si>
     <t>Flexible pour machine à lavé,</t>
+  </si>
+  <si>
+    <t>46800/46800</t>
+  </si>
+  <si>
+    <t>26jour *1800</t>
+  </si>
+  <si>
+    <t>Manquant du sold ciment /erreur de calcul de mohamed</t>
+  </si>
+  <si>
+    <t>Ciment</t>
+  </si>
+  <si>
+    <t>mois de aout 12000/46800</t>
+  </si>
+  <si>
+    <t>le matin au bureau avec l'argent du ciment et le cheque pour Mohamed Materiau</t>
+  </si>
+  <si>
+    <t>Mois d'Aout 46800/46800</t>
+  </si>
+  <si>
+    <t>3 Balais, 2 manche, 1 pelle avec manche</t>
+  </si>
+  <si>
+    <t>Citerne</t>
+  </si>
+  <si>
+    <t>4 voyage d'eau</t>
+  </si>
+  <si>
+    <t>Le 1*13/9  2*14/9 1*15/09</t>
+  </si>
+  <si>
+    <t>payement du credit fait chez halim quaincailler</t>
   </si>
 </sst>
 </file>
@@ -1614,7 +1644,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="301">
+  <cellXfs count="294">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1994,15 +2024,6 @@
     <xf numFmtId="172" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2019,9 +2040,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2045,23 +2063,8 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2238,22 +2241,49 @@
     <xf numFmtId="4" fontId="11" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="18" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="18" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="18" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="18" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="18" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="18" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="4" fontId="2" fillId="18" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2382,88 +2412,67 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="18" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="18" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="18" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="18" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="18" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="18" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="18" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="18" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="11" fillId="18" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="18" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2473,10 +2482,10 @@
     <cellStyle name="Monétaire" xfId="3" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="58">
+  <dxfs count="59">
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -2488,6 +2497,7 @@
         <sz val="10"/>
         <color auto="1"/>
         <name val="Arial"/>
+        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -2508,7 +2518,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -2520,6 +2530,7 @@
         <sz val="10"/>
         <color auto="1"/>
         <name val="Arial"/>
+        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -2540,7 +2551,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -2552,6 +2563,7 @@
         <sz val="10"/>
         <color auto="1"/>
         <name val="Arial"/>
+        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -2614,7 +2626,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -2626,6 +2638,7 @@
         <sz val="10"/>
         <color auto="1"/>
         <name val="Arial"/>
+        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -2660,6 +2673,7 @@
         <sz val="10"/>
         <color auto="1"/>
         <name val="Arial"/>
+        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -2680,13 +2694,287 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b/>
+        <family val="2"/>
       </font>
+      <numFmt numFmtId="175" formatCode="#.##0\.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+      <numFmt numFmtId="175" formatCode="#.##0\.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="44"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="172" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3017,246 +3305,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="172" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <left style="medium">
           <color indexed="64"/>
@@ -3279,41 +3327,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="44"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -4155,77 +4168,77 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau4" displayName="Tableau4" ref="B13:G95" totalsRowShown="0" headerRowDxfId="57" dataDxfId="55" headerRowBorderDxfId="56" tableBorderDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau4" displayName="Tableau4" ref="B13:G95" totalsRowShown="0" headerRowDxfId="58" dataDxfId="56" headerRowBorderDxfId="57" tableBorderDxfId="55">
   <autoFilter ref="B13:G95" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Opérations" dataDxfId="52"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Par / De" dataDxfId="51"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Débit" dataDxfId="50"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Crédit" dataDxfId="49"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Observation" dataDxfId="48"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Opérations" dataDxfId="53"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Par / De" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Débit" dataDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Crédit" dataDxfId="50"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Observation" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau42" displayName="Tableau42" ref="B13:G52" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau42" displayName="Tableau42" ref="B13:G52" totalsRowShown="0" headerRowDxfId="48" dataDxfId="46" headerRowBorderDxfId="47" tableBorderDxfId="45">
   <autoFilter ref="B13:G52" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Date" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Opérations" dataDxfId="42"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Par / De" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Débit" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Crédit" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Observation" dataDxfId="38"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Date" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Opérations" dataDxfId="43"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Par / De" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Débit" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Crédit" dataDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Observation" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D79F84FD-02FB-4970-B09E-1D3934AE7625}" name="Tableau426" displayName="Tableau426" ref="B13:G54" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D79F84FD-02FB-4970-B09E-1D3934AE7625}" name="Tableau426" displayName="Tableau426" ref="B13:G54" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35">
   <autoFilter ref="B13:G54" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{9712B134-76DF-4E92-834A-88CE2D0D20B1}" name="Date" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{435323D6-CD61-47E6-9E37-D5FC77826705}" name="Opérations" dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{D3626E4C-0CBA-4147-9F26-7CD98D019F06}" name="Par / De" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{A4C3AC32-653D-4FA1-B3C4-14979BB0F578}" name="Débit" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{81D053C2-198C-43A9-9B40-8C044522E5A0}" name="Crédit" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{C59247B9-B17D-4825-9165-85A02C3F100C}" name="Observation" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{9712B134-76DF-4E92-834A-88CE2D0D20B1}" name="Date" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{435323D6-CD61-47E6-9E37-D5FC77826705}" name="Opérations" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{D3626E4C-0CBA-4147-9F26-7CD98D019F06}" name="Par / De" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{A4C3AC32-653D-4FA1-B3C4-14979BB0F578}" name="Débit" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{81D053C2-198C-43A9-9B40-8C044522E5A0}" name="Crédit" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{C59247B9-B17D-4825-9165-85A02C3F100C}" name="Observation" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tableau2" displayName="Tableau2" ref="B13:G195" totalsRowCount="1" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25">
-  <autoFilter ref="B13:G194" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tableau2" displayName="Tableau2" ref="B13:G200" totalsRowCount="1" headerRowDxfId="8" dataDxfId="6" totalsRowDxfId="7" headerRowBorderDxfId="28" tableBorderDxfId="27">
+  <autoFilter ref="B13:G199" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Date" totalsRowLabel="Solde De La Caisse" dataDxfId="24" totalsRowDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Opérations" dataDxfId="23" totalsRowDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Par / De" totalsRowFunction="custom" dataDxfId="22" totalsRowDxfId="3">
-      <totalsRowFormula>F194-E194</totalsRowFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Date" totalsRowLabel="Solde De La Caisse" dataDxfId="14" totalsRowDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Opérations" dataDxfId="13" totalsRowDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Par / De" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="3">
+      <totalsRowFormula>F199-E199</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Débit" dataDxfId="21" totalsRowDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Crédit" dataDxfId="20" totalsRowDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Observation" totalsRowFunction="count" dataDxfId="19" totalsRowDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Débit" dataDxfId="11" totalsRowDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Crédit" dataDxfId="10" totalsRowDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Observation" totalsRowFunction="count" dataDxfId="9" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau3" displayName="Tableau3" ref="B13:G78" totalsRowShown="0" headerRowBorderDxfId="18" tableBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau3" displayName="Tableau3" ref="B13:G78" totalsRowShown="0" headerRowBorderDxfId="26" tableBorderDxfId="25">
   <autoFilter ref="B13:G78" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Date" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Opérations" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Par / De" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Débit" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Crédit" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Observation" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Date" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Opérations" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Par / De" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Débit" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Crédit" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Observation" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5355,10 +5368,10 @@
       <c r="F7" s="254"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="178" t="s">
+      <c r="B8" s="169" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="167" t="s">
+      <c r="C8" s="158" t="s">
         <v>37</v>
       </c>
       <c r="D8" s="61"/>
@@ -5366,13 +5379,13 @@
         <v>39</v>
       </c>
       <c r="F8" s="253"/>
-      <c r="G8" s="187"/>
+      <c r="G8" s="178"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="178" t="s">
+      <c r="B9" s="169" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="184">
+      <c r="C9" s="175">
         <f>E95</f>
         <v>440580</v>
       </c>
@@ -5383,10 +5396,10 @@
       <c r="F9" s="252"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="178" t="s">
+      <c r="B10" s="169" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="184">
+      <c r="C10" s="175">
         <f>F95</f>
         <v>413420</v>
       </c>
@@ -5397,10 +5410,10 @@
       <c r="F10" s="251"/>
     </row>
     <row r="11" spans="2:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="178" t="s">
+      <c r="B11" s="169" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="186">
+      <c r="C11" s="177">
         <f>C10-C9</f>
         <v>-27160</v>
       </c>
@@ -5411,156 +5424,156 @@
       <c r="F11" s="250"/>
     </row>
     <row r="13" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="192" t="s">
+      <c r="B13" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="193" t="s">
+      <c r="C13" s="184" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="193" t="s">
+      <c r="D13" s="184" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="193" t="s">
+      <c r="E13" s="184" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="193" t="s">
+      <c r="F13" s="184" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="194" t="s">
+      <c r="G13" s="185" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="195" t="s">
+      <c r="B14" s="186" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="196" t="s">
+      <c r="C14" s="187" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="196"/>
-      <c r="E14" s="197"/>
-      <c r="F14" s="197">
+      <c r="D14" s="187"/>
+      <c r="E14" s="188"/>
+      <c r="F14" s="188">
         <v>23420</v>
       </c>
-      <c r="G14" s="197" t="s">
+      <c r="G14" s="188" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="15" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="195"/>
-      <c r="C15" s="196"/>
-      <c r="D15" s="196"/>
-      <c r="E15" s="196"/>
-      <c r="F15" s="198"/>
-      <c r="G15" s="198"/>
+      <c r="B15" s="186"/>
+      <c r="C15" s="187"/>
+      <c r="D15" s="187"/>
+      <c r="E15" s="187"/>
+      <c r="F15" s="189"/>
+      <c r="G15" s="189"/>
     </row>
     <row r="16" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="199">
+      <c r="B16" s="190">
         <v>44744</v>
       </c>
-      <c r="C16" s="196" t="s">
+      <c r="C16" s="187" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="196"/>
-      <c r="E16" s="200">
+      <c r="D16" s="187"/>
+      <c r="E16" s="191">
         <v>7800</v>
       </c>
-      <c r="F16" s="200"/>
-      <c r="G16" s="200" t="s">
+      <c r="F16" s="191"/>
+      <c r="G16" s="191" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="195"/>
-      <c r="C17" s="196" t="s">
+      <c r="B17" s="186"/>
+      <c r="C17" s="187" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="196"/>
-      <c r="E17" s="200">
+      <c r="D17" s="187"/>
+      <c r="E17" s="191">
         <v>5600</v>
       </c>
-      <c r="F17" s="200"/>
-      <c r="G17" s="200" t="s">
+      <c r="F17" s="191"/>
+      <c r="G17" s="191" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="195"/>
-      <c r="C18" s="196" t="s">
+      <c r="B18" s="186"/>
+      <c r="C18" s="187" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="196" t="s">
+      <c r="D18" s="187" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="183"/>
-      <c r="F18" s="197">
+      <c r="E18" s="174"/>
+      <c r="F18" s="188">
         <v>40000</v>
       </c>
-      <c r="G18" s="197"/>
+      <c r="G18" s="188"/>
     </row>
     <row r="19" spans="1:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="195"/>
-      <c r="C19" s="196" t="s">
+      <c r="B19" s="186"/>
+      <c r="C19" s="187" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="196"/>
-      <c r="E19" s="200">
+      <c r="D19" s="187"/>
+      <c r="E19" s="191">
         <v>16800</v>
       </c>
-      <c r="F19" s="200"/>
-      <c r="G19" s="200" t="s">
+      <c r="F19" s="191"/>
+      <c r="G19" s="191" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="195"/>
-      <c r="C20" s="196" t="s">
+      <c r="B20" s="186"/>
+      <c r="C20" s="187" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="196"/>
-      <c r="E20" s="200">
+      <c r="D20" s="187"/>
+      <c r="E20" s="191">
         <v>2100</v>
       </c>
-      <c r="F20" s="200"/>
-      <c r="G20" s="200" t="s">
+      <c r="F20" s="191"/>
+      <c r="G20" s="191" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="118"/>
-      <c r="B21" s="195"/>
-      <c r="C21" s="196" t="s">
+      <c r="B21" s="186"/>
+      <c r="C21" s="187" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="196" t="s">
+      <c r="D21" s="187" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="200">
+      <c r="E21" s="191">
         <v>14000</v>
       </c>
-      <c r="F21" s="200"/>
-      <c r="G21" s="200" t="s">
+      <c r="F21" s="191"/>
+      <c r="G21" s="191" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="188"/>
-      <c r="C22" s="189" t="s">
+      <c r="B22" s="179"/>
+      <c r="C22" s="180" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="189" t="s">
+      <c r="D22" s="180" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="190">
+      <c r="E22" s="181">
         <v>12000</v>
       </c>
-      <c r="F22" s="190"/>
-      <c r="G22" s="191" t="s">
+      <c r="F22" s="181"/>
+      <c r="G22" s="182" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="180"/>
+      <c r="B23" s="171"/>
       <c r="C23" s="110" t="s">
         <v>39</v>
       </c>
@@ -5574,7 +5587,7 @@
       <c r="G23" s="112"/>
     </row>
     <row r="24" spans="1:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="180"/>
+      <c r="B24" s="171"/>
       <c r="C24" s="110"/>
       <c r="D24" s="110"/>
       <c r="E24" s="114"/>
@@ -5582,7 +5595,7 @@
       <c r="G24" s="115"/>
     </row>
     <row r="25" spans="1:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="180">
+      <c r="B25" s="171">
         <v>44745</v>
       </c>
       <c r="C25" s="110" t="s">
@@ -5600,7 +5613,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="180"/>
+      <c r="B26" s="171"/>
       <c r="C26" s="110" t="s">
         <v>41</v>
       </c>
@@ -5614,7 +5627,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" s="113" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="180"/>
+      <c r="B27" s="171"/>
       <c r="C27" s="110" t="s">
         <v>47</v>
       </c>
@@ -5630,7 +5643,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="180"/>
+      <c r="B28" s="171"/>
       <c r="C28" s="110" t="s">
         <v>47</v>
       </c>
@@ -5646,7 +5659,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="180"/>
+      <c r="B29" s="171"/>
       <c r="C29" s="110" t="s">
         <v>71</v>
       </c>
@@ -5662,7 +5675,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="180"/>
+      <c r="B30" s="171"/>
       <c r="C30" s="110" t="s">
         <v>41</v>
       </c>
@@ -5676,7 +5689,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="180"/>
+      <c r="B31" s="171"/>
       <c r="C31" s="110" t="s">
         <v>41</v>
       </c>
@@ -5690,7 +5703,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="180"/>
+      <c r="B32" s="171"/>
       <c r="C32" s="110"/>
       <c r="D32" s="110"/>
       <c r="E32" s="114"/>
@@ -5698,7 +5711,7 @@
       <c r="G32" s="115"/>
     </row>
     <row r="33" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="180">
+      <c r="B33" s="171">
         <v>44746</v>
       </c>
       <c r="C33" s="110" t="s">
@@ -5714,7 +5727,7 @@
       <c r="G33" s="112"/>
     </row>
     <row r="34" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="180"/>
+      <c r="B34" s="171"/>
       <c r="C34" s="110" t="s">
         <v>47</v>
       </c>
@@ -5730,7 +5743,7 @@
       </c>
     </row>
     <row r="35" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="180"/>
+      <c r="B35" s="171"/>
       <c r="C35" s="110" t="s">
         <v>39</v>
       </c>
@@ -5744,7 +5757,7 @@
       <c r="G35" s="112"/>
     </row>
     <row r="36" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="180"/>
+      <c r="B36" s="171"/>
       <c r="C36" s="110" t="s">
         <v>70</v>
       </c>
@@ -5758,7 +5771,7 @@
       </c>
     </row>
     <row r="37" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="180"/>
+      <c r="B37" s="171"/>
       <c r="C37" s="110" t="s">
         <v>47</v>
       </c>
@@ -5772,7 +5785,7 @@
       </c>
     </row>
     <row r="38" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="180"/>
+      <c r="B38" s="171"/>
       <c r="C38" s="110" t="s">
         <v>47</v>
       </c>
@@ -5788,7 +5801,7 @@
       </c>
     </row>
     <row r="39" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="180"/>
+      <c r="B39" s="171"/>
       <c r="C39" s="110" t="s">
         <v>47</v>
       </c>
@@ -5804,7 +5817,7 @@
       </c>
     </row>
     <row r="40" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="180"/>
+      <c r="B40" s="171"/>
       <c r="C40" s="110" t="s">
         <v>47</v>
       </c>
@@ -5820,7 +5833,7 @@
       </c>
     </row>
     <row r="41" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="180"/>
+      <c r="B41" s="171"/>
       <c r="C41" s="110" t="s">
         <v>41</v>
       </c>
@@ -5834,7 +5847,7 @@
       </c>
     </row>
     <row r="42" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="180"/>
+      <c r="B42" s="171"/>
       <c r="C42" s="110"/>
       <c r="D42" s="110"/>
       <c r="E42" s="114"/>
@@ -5842,7 +5855,7 @@
       <c r="G42" s="115"/>
     </row>
     <row r="43" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="180">
+      <c r="B43" s="171">
         <v>44747</v>
       </c>
       <c r="C43" s="110" t="s">
@@ -5860,7 +5873,7 @@
       </c>
     </row>
     <row r="44" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="180"/>
+      <c r="B44" s="171"/>
       <c r="C44" s="110" t="s">
         <v>47</v>
       </c>
@@ -5876,7 +5889,7 @@
       </c>
     </row>
     <row r="45" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="180"/>
+      <c r="B45" s="171"/>
       <c r="C45" s="110" t="s">
         <v>44</v>
       </c>
@@ -5890,7 +5903,7 @@
       </c>
     </row>
     <row r="46" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="180"/>
+      <c r="B46" s="171"/>
       <c r="C46" s="110"/>
       <c r="D46" s="110"/>
       <c r="E46" s="114"/>
@@ -5898,7 +5911,7 @@
       <c r="G46" s="115"/>
     </row>
     <row r="47" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="180">
+      <c r="B47" s="171">
         <v>44748</v>
       </c>
       <c r="C47" s="110" t="s">
@@ -5914,7 +5927,7 @@
       </c>
     </row>
     <row r="48" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="180"/>
+      <c r="B48" s="171"/>
       <c r="C48" s="110" t="s">
         <v>39</v>
       </c>
@@ -5930,7 +5943,7 @@
       </c>
     </row>
     <row r="49" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="180"/>
+      <c r="B49" s="171"/>
       <c r="C49" s="110" t="s">
         <v>41</v>
       </c>
@@ -5944,7 +5957,7 @@
       </c>
     </row>
     <row r="50" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="180"/>
+      <c r="B50" s="171"/>
       <c r="C50" s="110" t="s">
         <v>39</v>
       </c>
@@ -5960,7 +5973,7 @@
       </c>
     </row>
     <row r="51" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="180"/>
+      <c r="B51" s="171"/>
       <c r="C51" s="110" t="s">
         <v>47</v>
       </c>
@@ -5976,7 +5989,7 @@
       </c>
     </row>
     <row r="52" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="180"/>
+      <c r="B52" s="171"/>
       <c r="C52" s="110"/>
       <c r="D52" s="110"/>
       <c r="E52" s="114"/>
@@ -5984,7 +5997,7 @@
       <c r="G52" s="115"/>
     </row>
     <row r="53" spans="2:7" s="131" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="180" t="s">
+      <c r="B53" s="171" t="s">
         <v>82</v>
       </c>
       <c r="C53" s="110" t="s">
@@ -5996,7 +6009,7 @@
       <c r="G53" s="115"/>
     </row>
     <row r="54" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="180"/>
+      <c r="B54" s="171"/>
       <c r="C54" s="110"/>
       <c r="D54" s="110"/>
       <c r="E54" s="114"/>
@@ -6004,7 +6017,7 @@
       <c r="G54" s="115"/>
     </row>
     <row r="55" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="180">
+      <c r="B55" s="171">
         <v>44755</v>
       </c>
       <c r="C55" s="110" t="s">
@@ -6020,7 +6033,7 @@
       </c>
     </row>
     <row r="56" spans="2:7" s="113" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="180"/>
+      <c r="B56" s="171"/>
       <c r="C56" s="110" t="s">
         <v>44</v>
       </c>
@@ -6034,7 +6047,7 @@
       </c>
     </row>
     <row r="57" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="180"/>
+      <c r="B57" s="171"/>
       <c r="C57" s="110" t="s">
         <v>44</v>
       </c>
@@ -6048,7 +6061,7 @@
       </c>
     </row>
     <row r="58" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="180"/>
+      <c r="B58" s="171"/>
       <c r="C58" s="110"/>
       <c r="D58" s="110"/>
       <c r="E58" s="114"/>
@@ -6056,7 +6069,7 @@
       <c r="G58" s="115"/>
     </row>
     <row r="59" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="180">
+      <c r="B59" s="171">
         <v>44756</v>
       </c>
       <c r="C59" s="110" t="s">
@@ -6072,7 +6085,7 @@
       </c>
     </row>
     <row r="60" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="180"/>
+      <c r="B60" s="171"/>
       <c r="C60" s="110" t="s">
         <v>47</v>
       </c>
@@ -6088,7 +6101,7 @@
       </c>
     </row>
     <row r="61" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="180"/>
+      <c r="B61" s="171"/>
       <c r="C61" s="110" t="s">
         <v>209</v>
       </c>
@@ -6102,7 +6115,7 @@
       <c r="G61" s="120"/>
     </row>
     <row r="62" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="180"/>
+      <c r="B62" s="171"/>
       <c r="C62" s="110" t="s">
         <v>47</v>
       </c>
@@ -6118,7 +6131,7 @@
       </c>
     </row>
     <row r="63" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="180"/>
+      <c r="B63" s="171"/>
       <c r="C63" s="110" t="s">
         <v>211</v>
       </c>
@@ -6134,7 +6147,7 @@
       </c>
     </row>
     <row r="64" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="180"/>
+      <c r="B64" s="171"/>
       <c r="C64" s="110"/>
       <c r="D64" s="110"/>
       <c r="E64" s="114"/>
@@ -6142,7 +6155,7 @@
       <c r="G64" s="115"/>
     </row>
     <row r="65" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="180">
+      <c r="B65" s="171">
         <v>44758</v>
       </c>
       <c r="C65" s="110" t="s">
@@ -6160,7 +6173,7 @@
       </c>
     </row>
     <row r="66" spans="2:7" s="113" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="180"/>
+      <c r="B66" s="171"/>
       <c r="C66" s="110" t="s">
         <v>47</v>
       </c>
@@ -6174,7 +6187,7 @@
       </c>
     </row>
     <row r="67" spans="2:7" s="113" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="180"/>
+      <c r="B67" s="171"/>
       <c r="C67" s="110" t="s">
         <v>47</v>
       </c>
@@ -6190,7 +6203,7 @@
       </c>
     </row>
     <row r="68" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="180"/>
+      <c r="B68" s="171"/>
       <c r="C68" s="110"/>
       <c r="D68" s="110"/>
       <c r="E68" s="114"/>
@@ -6198,7 +6211,7 @@
       <c r="G68" s="115"/>
     </row>
     <row r="69" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="180">
+      <c r="B69" s="171">
         <v>44759</v>
       </c>
       <c r="C69" s="110" t="s">
@@ -6214,7 +6227,7 @@
       </c>
     </row>
     <row r="70" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="180"/>
+      <c r="B70" s="171"/>
       <c r="C70" s="110" t="s">
         <v>44</v>
       </c>
@@ -6228,7 +6241,7 @@
       </c>
     </row>
     <row r="71" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="180"/>
+      <c r="B71" s="171"/>
       <c r="C71" s="110" t="s">
         <v>41</v>
       </c>
@@ -6242,7 +6255,7 @@
       </c>
     </row>
     <row r="72" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="180"/>
+      <c r="B72" s="171"/>
       <c r="C72" s="110"/>
       <c r="D72" s="110"/>
       <c r="E72" s="110"/>
@@ -6250,7 +6263,7 @@
       <c r="G72" s="115"/>
     </row>
     <row r="73" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="180">
+      <c r="B73" s="171">
         <v>44760</v>
       </c>
       <c r="C73" s="110" t="s">
@@ -6266,7 +6279,7 @@
       </c>
     </row>
     <row r="74" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="180"/>
+      <c r="B74" s="171"/>
       <c r="C74" s="110" t="s">
         <v>41</v>
       </c>
@@ -6280,7 +6293,7 @@
       </c>
     </row>
     <row r="75" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="180"/>
+      <c r="B75" s="171"/>
       <c r="C75" s="110"/>
       <c r="D75" s="110"/>
       <c r="E75" s="114"/>
@@ -6288,7 +6301,7 @@
       <c r="G75" s="115"/>
     </row>
     <row r="76" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="180">
+      <c r="B76" s="171">
         <v>44761</v>
       </c>
       <c r="C76" s="110" t="s">
@@ -6306,7 +6319,7 @@
       </c>
     </row>
     <row r="77" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="180"/>
+      <c r="B77" s="171"/>
       <c r="C77" s="110" t="s">
         <v>41</v>
       </c>
@@ -6320,7 +6333,7 @@
       </c>
     </row>
     <row r="78" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="180"/>
+      <c r="B78" s="171"/>
       <c r="C78" s="110" t="s">
         <v>41</v>
       </c>
@@ -6334,7 +6347,7 @@
       </c>
     </row>
     <row r="79" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="180"/>
+      <c r="B79" s="171"/>
       <c r="C79" s="110" t="s">
         <v>44</v>
       </c>
@@ -6348,7 +6361,7 @@
       </c>
     </row>
     <row r="80" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="180"/>
+      <c r="B80" s="171"/>
       <c r="C80" s="110" t="s">
         <v>94</v>
       </c>
@@ -6362,7 +6375,7 @@
       </c>
     </row>
     <row r="81" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="180"/>
+      <c r="B81" s="171"/>
       <c r="C81" s="110"/>
       <c r="D81" s="110"/>
       <c r="E81" s="114"/>
@@ -6370,7 +6383,7 @@
       <c r="G81" s="115"/>
     </row>
     <row r="82" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="180">
+      <c r="B82" s="171">
         <v>44762</v>
       </c>
       <c r="C82" s="110" t="s">
@@ -6386,7 +6399,7 @@
       </c>
     </row>
     <row r="83" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="180"/>
+      <c r="B83" s="171"/>
       <c r="C83" s="110"/>
       <c r="D83" s="110"/>
       <c r="E83" s="114"/>
@@ -6394,7 +6407,7 @@
       <c r="G83" s="115"/>
     </row>
     <row r="84" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="180">
+      <c r="B84" s="171">
         <v>44765</v>
       </c>
       <c r="C84" s="110" t="s">
@@ -6410,7 +6423,7 @@
       </c>
     </row>
     <row r="85" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="180"/>
+      <c r="B85" s="171"/>
       <c r="C85" s="110" t="s">
         <v>41</v>
       </c>
@@ -6424,7 +6437,7 @@
       </c>
     </row>
     <row r="86" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="180"/>
+      <c r="B86" s="171"/>
       <c r="C86" s="110"/>
       <c r="D86" s="110"/>
       <c r="E86" s="116">
@@ -6436,7 +6449,7 @@
       </c>
     </row>
     <row r="87" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="180"/>
+      <c r="B87" s="171"/>
       <c r="C87" s="110"/>
       <c r="D87" s="110"/>
       <c r="E87" s="114"/>
@@ -6444,7 +6457,7 @@
       <c r="G87" s="115"/>
     </row>
     <row r="88" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="180">
+      <c r="B88" s="171">
         <v>44770</v>
       </c>
       <c r="C88" s="110" t="s">
@@ -6460,7 +6473,7 @@
       </c>
     </row>
     <row r="89" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="180"/>
+      <c r="B89" s="171"/>
       <c r="C89" s="110"/>
       <c r="D89" s="110" t="s">
         <v>135</v>
@@ -6472,7 +6485,7 @@
       </c>
     </row>
     <row r="90" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="180"/>
+      <c r="B90" s="171"/>
       <c r="C90" s="110"/>
       <c r="D90" s="110"/>
       <c r="E90" s="114"/>
@@ -6480,7 +6493,7 @@
       <c r="G90" s="115"/>
     </row>
     <row r="91" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="180">
+      <c r="B91" s="171">
         <v>44772</v>
       </c>
       <c r="C91" s="110" t="s">
@@ -6496,7 +6509,7 @@
       </c>
     </row>
     <row r="92" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="180"/>
+      <c r="B92" s="171"/>
       <c r="C92" s="110" t="s">
         <v>44</v>
       </c>
@@ -6510,7 +6523,7 @@
       </c>
     </row>
     <row r="93" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="180"/>
+      <c r="B93" s="171"/>
       <c r="C93" s="110" t="s">
         <v>41</v>
       </c>
@@ -6524,7 +6537,7 @@
       </c>
     </row>
     <row r="94" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="180"/>
+      <c r="B94" s="171"/>
       <c r="C94" s="123"/>
       <c r="D94" s="123"/>
       <c r="E94" s="124"/>
@@ -6532,7 +6545,7 @@
       <c r="G94" s="126"/>
     </row>
     <row r="95" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="182"/>
+      <c r="B95" s="173"/>
       <c r="C95" s="127" t="s">
         <v>0</v>
       </c>
@@ -6549,7 +6562,7 @@
     </row>
     <row r="98" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="242" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C98" s="242"/>
       <c r="D98" s="242"/>
@@ -6570,13 +6583,13 @@
       <c r="G99" s="242"/>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B100" s="163"/>
+      <c r="B100" s="154"/>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D102" s="59"/>
     </row>
     <row r="105" spans="2:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="G105" s="185"/>
+      <c r="G105" s="176"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6610,7 +6623,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="135" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="166" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="157" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" style="135" customWidth="1"/>
     <col min="4" max="4" width="17" style="135" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" style="135" customWidth="1"/>
@@ -6631,10 +6644,10 @@
       <c r="G3" s="258"/>
     </row>
     <row r="4" spans="2:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="164"/>
-      <c r="D4" s="164"/>
-      <c r="E4" s="165"/>
-      <c r="F4" s="165"/>
+      <c r="C4" s="155"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="156"/>
+      <c r="F4" s="156"/>
     </row>
     <row r="5" spans="2:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="257" t="s">
@@ -6654,55 +6667,55 @@
       <c r="F7" s="256"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="204" t="s">
+      <c r="B8" s="195" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="205" t="s">
+      <c r="C8" s="196" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="201"/>
+      <c r="D8" s="192"/>
       <c r="E8" s="259" t="s">
         <v>39</v>
       </c>
       <c r="F8" s="260"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="204" t="s">
+      <c r="B9" s="195" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="176">
+      <c r="C9" s="167">
         <f>E52</f>
         <v>98590</v>
       </c>
-      <c r="D9" s="202"/>
+      <c r="D9" s="193"/>
       <c r="E9" s="261" t="s">
         <v>31</v>
       </c>
       <c r="F9" s="262"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="204" t="s">
+      <c r="B10" s="195" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="176">
+      <c r="C10" s="167">
         <f>F52</f>
         <v>66000</v>
       </c>
-      <c r="D10" s="202"/>
+      <c r="D10" s="193"/>
       <c r="E10" s="263" t="s">
         <v>199</v>
       </c>
       <c r="F10" s="264"/>
     </row>
     <row r="11" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="204" t="s">
+      <c r="B11" s="195" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="208">
+      <c r="C11" s="199">
         <f>C10-C9</f>
         <v>-32590</v>
       </c>
-      <c r="D11" s="203"/>
+      <c r="D11" s="194"/>
       <c r="E11" s="249" t="s">
         <v>197</v>
       </c>
@@ -6710,7 +6723,7 @@
     </row>
     <row r="12" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="179" t="s">
+      <c r="B13" s="170" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="44" t="s">
@@ -6729,16 +6742,16 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="180"/>
+    <row r="14" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="171"/>
       <c r="C14" s="110"/>
       <c r="D14" s="110"/>
       <c r="E14" s="110"/>
       <c r="F14" s="110"/>
       <c r="G14" s="134"/>
     </row>
-    <row r="15" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="180">
+    <row r="15" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="171">
         <v>44783</v>
       </c>
       <c r="C15" s="110" t="s">
@@ -6755,8 +6768,8 @@
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="181"/>
+    <row r="16" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="172"/>
       <c r="C16" s="110" t="s">
         <v>41</v>
       </c>
@@ -6769,8 +6782,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="180"/>
+    <row r="17" spans="1:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="171"/>
       <c r="C17" s="110" t="s">
         <v>41</v>
       </c>
@@ -6783,8 +6796,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="180"/>
+    <row r="18" spans="1:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="171"/>
       <c r="C18" s="110" t="s">
         <v>47</v>
       </c>
@@ -6799,16 +6812,16 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="180"/>
+    <row r="19" spans="1:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="171"/>
       <c r="C19" s="110"/>
       <c r="D19" s="110"/>
       <c r="E19" s="110"/>
       <c r="F19" s="110"/>
       <c r="G19" s="134"/>
     </row>
-    <row r="20" spans="1:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="180">
+    <row r="20" spans="1:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="171">
         <v>44784</v>
       </c>
       <c r="C20" s="110" t="s">
@@ -6823,9 +6836,9 @@
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="169"/>
-      <c r="B21" s="180"/>
+    <row r="21" spans="1:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="160"/>
+      <c r="B21" s="171"/>
       <c r="C21" s="110" t="s">
         <v>41</v>
       </c>
@@ -6838,16 +6851,16 @@
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="180"/>
+    <row r="22" spans="1:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="171"/>
       <c r="C22" s="110"/>
       <c r="D22" s="110"/>
       <c r="E22" s="110"/>
       <c r="F22" s="110"/>
       <c r="G22" s="134"/>
     </row>
-    <row r="23" spans="1:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="180">
+    <row r="23" spans="1:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="171">
         <v>44786</v>
       </c>
       <c r="C23" s="110" t="s">
@@ -6862,8 +6875,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="180"/>
+    <row r="24" spans="1:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="171"/>
       <c r="C24" s="110" t="s">
         <v>41</v>
       </c>
@@ -6876,8 +6889,8 @@
         <v>192</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="180"/>
+    <row r="25" spans="1:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="171"/>
       <c r="C25" s="110" t="s">
         <v>39</v>
       </c>
@@ -6890,8 +6903,8 @@
       </c>
       <c r="G25" s="112"/>
     </row>
-    <row r="26" spans="1:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="180"/>
+    <row r="26" spans="1:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="171"/>
       <c r="C26" s="110" t="s">
         <v>47</v>
       </c>
@@ -6905,11 +6918,11 @@
         <v>194</v>
       </c>
       <c r="G26" s="117" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="180"/>
+        <v>341</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="171"/>
       <c r="C27" s="110" t="s">
         <v>195</v>
       </c>
@@ -6924,16 +6937,16 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="180"/>
+    <row r="28" spans="1:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="171"/>
       <c r="C28" s="110"/>
       <c r="D28" s="110"/>
       <c r="E28" s="110"/>
       <c r="F28" s="110"/>
       <c r="G28" s="134"/>
     </row>
-    <row r="29" spans="1:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="180">
+    <row r="29" spans="1:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="171">
         <v>44787</v>
       </c>
       <c r="C29" s="110" t="s">
@@ -6948,8 +6961,8 @@
         <v>219</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="180"/>
+    <row r="30" spans="1:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="171"/>
       <c r="C30" s="110" t="s">
         <v>41</v>
       </c>
@@ -6962,8 +6975,8 @@
         <v>282</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="180" t="s">
+    <row r="31" spans="1:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="171" t="s">
         <v>194</v>
       </c>
       <c r="C31" s="110"/>
@@ -6972,8 +6985,8 @@
       <c r="F31" s="110"/>
       <c r="G31" s="134"/>
     </row>
-    <row r="32" spans="1:7" s="168" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="180">
+    <row r="32" spans="1:7" s="159" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="171">
         <v>44791</v>
       </c>
       <c r="C32" s="110" t="s">
@@ -6988,8 +7001,8 @@
         <v>291</v>
       </c>
     </row>
-    <row r="33" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="180"/>
+    <row r="33" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="171"/>
       <c r="C33" s="110" t="s">
         <v>41</v>
       </c>
@@ -7002,16 +7015,16 @@
         <v>248</v>
       </c>
     </row>
-    <row r="34" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="180"/>
+    <row r="34" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="171"/>
       <c r="C34" s="110"/>
       <c r="D34" s="110"/>
       <c r="E34" s="110"/>
       <c r="F34" s="110"/>
       <c r="G34" s="134"/>
     </row>
-    <row r="35" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="180">
+    <row r="35" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="171">
         <v>44793</v>
       </c>
       <c r="C35" s="110" t="s">
@@ -7026,16 +7039,16 @@
         <v>292</v>
       </c>
     </row>
-    <row r="36" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="180"/>
+    <row r="36" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="171"/>
       <c r="C36" s="110"/>
       <c r="D36" s="110"/>
       <c r="E36" s="110"/>
       <c r="F36" s="110"/>
       <c r="G36" s="134"/>
     </row>
-    <row r="37" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="180">
+    <row r="37" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="171">
         <v>44796</v>
       </c>
       <c r="C37" s="110" t="s">
@@ -7050,16 +7063,16 @@
         <v>293</v>
       </c>
     </row>
-    <row r="38" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="180"/>
+    <row r="38" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="171"/>
       <c r="C38" s="110"/>
       <c r="D38" s="110"/>
       <c r="E38" s="110"/>
-      <c r="F38" s="171"/>
+      <c r="F38" s="162"/>
       <c r="G38" s="134"/>
     </row>
-    <row r="39" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="180">
+    <row r="39" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="171">
         <v>44798</v>
       </c>
       <c r="C39" s="110" t="s">
@@ -7074,16 +7087,16 @@
         <v>294</v>
       </c>
     </row>
-    <row r="40" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="180"/>
+    <row r="40" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="171"/>
       <c r="C40" s="110"/>
       <c r="D40" s="110"/>
       <c r="E40" s="110"/>
       <c r="F40" s="110"/>
       <c r="G40" s="134"/>
     </row>
-    <row r="41" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="180">
+    <row r="41" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="171">
         <v>44803</v>
       </c>
       <c r="C41" s="110" t="s">
@@ -7098,16 +7111,16 @@
         <v>295</v>
       </c>
     </row>
-    <row r="42" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="180"/>
+    <row r="42" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="171"/>
       <c r="C42" s="110"/>
       <c r="D42" s="110"/>
       <c r="E42" s="110"/>
       <c r="F42" s="110"/>
       <c r="G42" s="134"/>
     </row>
-    <row r="43" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="180">
+    <row r="43" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="171">
         <v>44804</v>
       </c>
       <c r="C43" s="110" t="s">
@@ -7122,8 +7135,8 @@
         <v>296</v>
       </c>
     </row>
-    <row r="44" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="180"/>
+    <row r="44" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="171"/>
       <c r="C44" s="110" t="s">
         <v>41</v>
       </c>
@@ -7136,75 +7149,75 @@
         <v>297</v>
       </c>
     </row>
-    <row r="45" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="180"/>
+    <row r="45" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="171"/>
       <c r="C45" s="110"/>
       <c r="D45" s="110"/>
       <c r="E45" s="110"/>
       <c r="F45" s="110"/>
-      <c r="G45" s="170"/>
-    </row>
-    <row r="46" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="180"/>
+      <c r="G45" s="161"/>
+    </row>
+    <row r="46" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="171"/>
       <c r="C46" s="110"/>
       <c r="D46" s="110"/>
       <c r="E46" s="110"/>
       <c r="F46" s="110"/>
-      <c r="G46" s="177" t="s">
+      <c r="G46" s="168" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="47" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="180"/>
+    <row r="47" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="171"/>
       <c r="C47" s="110"/>
       <c r="D47" s="110"/>
       <c r="E47" s="110"/>
       <c r="F47" s="110"/>
-      <c r="G47" s="177" t="s">
+      <c r="G47" s="168" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="48" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="180"/>
+    <row r="48" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="171"/>
       <c r="C48" s="110"/>
       <c r="D48" s="110"/>
       <c r="E48" s="110"/>
       <c r="F48" s="110"/>
-      <c r="G48" s="177" t="s">
+      <c r="G48" s="168" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="49" spans="2:8" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="180"/>
+    <row r="49" spans="2:8" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="171"/>
       <c r="C49" s="110"/>
       <c r="D49" s="110"/>
       <c r="E49" s="110"/>
       <c r="F49" s="110"/>
-      <c r="G49" s="177" t="s">
+      <c r="G49" s="168" t="s">
         <v>287</v>
       </c>
-      <c r="H49" s="206"/>
-    </row>
-    <row r="50" spans="2:8" s="175" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="180"/>
+      <c r="H49" s="197"/>
+    </row>
+    <row r="50" spans="2:8" s="166" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="171"/>
       <c r="C50" s="110"/>
       <c r="D50" s="110"/>
       <c r="E50" s="110"/>
       <c r="F50" s="110"/>
-      <c r="G50" s="207" t="s">
+      <c r="G50" s="198" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="51" spans="2:8" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="180"/>
+    <row r="51" spans="2:8" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="171"/>
       <c r="C51" s="110"/>
       <c r="D51" s="110"/>
       <c r="E51" s="110"/>
-      <c r="F51" s="172"/>
-      <c r="G51" s="173"/>
-    </row>
-    <row r="52" spans="2:8" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="182"/>
+      <c r="F51" s="163"/>
+      <c r="G51" s="164"/>
+    </row>
+    <row r="52" spans="2:8" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="173"/>
       <c r="C52" s="127" t="s">
         <v>0</v>
       </c>
@@ -7217,474 +7230,474 @@
         <f>SUM(F14:F51)</f>
         <v>66000</v>
       </c>
-      <c r="G52" s="174"/>
-    </row>
-    <row r="53" spans="2:8" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="166"/>
+      <c r="G52" s="165"/>
+    </row>
+    <row r="53" spans="2:8" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="157"/>
       <c r="C53" s="135"/>
       <c r="D53" s="135"/>
       <c r="E53" s="135"/>
       <c r="F53" s="135"/>
       <c r="G53" s="135"/>
     </row>
-    <row r="54" spans="2:8" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="166"/>
+    <row r="54" spans="2:8" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="157"/>
       <c r="C54" s="135"/>
       <c r="D54" s="135"/>
       <c r="E54" s="135"/>
       <c r="F54" s="135"/>
       <c r="G54" s="135"/>
     </row>
-    <row r="55" spans="2:8" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="166"/>
+    <row r="55" spans="2:8" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="157"/>
       <c r="C55" s="135"/>
       <c r="D55" s="135"/>
       <c r="E55" s="135"/>
       <c r="F55" s="135"/>
       <c r="G55" s="135"/>
     </row>
-    <row r="56" spans="2:8" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="166"/>
+    <row r="56" spans="2:8" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="157"/>
       <c r="C56" s="135"/>
       <c r="D56" s="135"/>
       <c r="E56" s="135"/>
       <c r="F56" s="135"/>
       <c r="G56" s="135"/>
     </row>
-    <row r="57" spans="2:8" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="166"/>
+    <row r="57" spans="2:8" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="157"/>
       <c r="C57" s="135"/>
       <c r="D57" s="135"/>
       <c r="E57" s="135"/>
       <c r="F57" s="135"/>
       <c r="G57" s="135"/>
     </row>
-    <row r="58" spans="2:8" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="166"/>
+    <row r="58" spans="2:8" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="157"/>
       <c r="C58" s="135"/>
       <c r="D58" s="135"/>
       <c r="E58" s="135"/>
       <c r="F58" s="135"/>
       <c r="G58" s="135"/>
     </row>
-    <row r="59" spans="2:8" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="166"/>
+    <row r="59" spans="2:8" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="157"/>
       <c r="C59" s="135"/>
       <c r="D59" s="135"/>
       <c r="E59" s="135"/>
       <c r="F59" s="135"/>
       <c r="G59" s="135"/>
     </row>
-    <row r="60" spans="2:8" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="166"/>
+    <row r="60" spans="2:8" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="157"/>
       <c r="C60" s="135"/>
       <c r="D60" s="135"/>
       <c r="E60" s="135"/>
       <c r="F60" s="135"/>
       <c r="G60" s="135"/>
     </row>
-    <row r="61" spans="2:8" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="166"/>
+    <row r="61" spans="2:8" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="157"/>
       <c r="C61" s="135"/>
       <c r="D61" s="135"/>
       <c r="E61" s="135"/>
       <c r="F61" s="135"/>
       <c r="G61" s="135"/>
     </row>
-    <row r="62" spans="2:8" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="166"/>
+    <row r="62" spans="2:8" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="157"/>
       <c r="C62" s="135"/>
       <c r="D62" s="135"/>
       <c r="E62" s="135"/>
       <c r="F62" s="135"/>
       <c r="G62" s="135"/>
     </row>
-    <row r="63" spans="2:8" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="166"/>
+    <row r="63" spans="2:8" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="157"/>
       <c r="C63" s="135"/>
       <c r="D63" s="135"/>
       <c r="E63" s="135"/>
       <c r="F63" s="135"/>
       <c r="G63" s="135"/>
     </row>
-    <row r="64" spans="2:8" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="166"/>
+    <row r="64" spans="2:8" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="157"/>
       <c r="C64" s="135"/>
       <c r="D64" s="135"/>
       <c r="E64" s="135"/>
       <c r="F64" s="135"/>
       <c r="G64" s="135"/>
     </row>
-    <row r="65" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="166"/>
+    <row r="65" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="157"/>
       <c r="C65" s="135"/>
       <c r="D65" s="135"/>
       <c r="E65" s="135"/>
       <c r="F65" s="135"/>
       <c r="G65" s="135"/>
     </row>
-    <row r="66" spans="2:7" s="175" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="166"/>
+    <row r="66" spans="2:7" s="166" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="157"/>
       <c r="C66" s="135"/>
       <c r="D66" s="135"/>
       <c r="E66" s="135"/>
       <c r="F66" s="135"/>
       <c r="G66" s="135"/>
     </row>
-    <row r="67" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="166"/>
+    <row r="67" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="157"/>
       <c r="C67" s="135"/>
       <c r="D67" s="135"/>
       <c r="E67" s="135"/>
       <c r="F67" s="135"/>
       <c r="G67" s="135"/>
     </row>
-    <row r="68" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="166"/>
+    <row r="68" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="157"/>
       <c r="C68" s="135"/>
       <c r="D68" s="135"/>
       <c r="E68" s="135"/>
       <c r="F68" s="135"/>
       <c r="G68" s="135"/>
     </row>
-    <row r="69" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="166"/>
+    <row r="69" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="157"/>
       <c r="C69" s="135"/>
       <c r="D69" s="135"/>
       <c r="E69" s="135"/>
       <c r="F69" s="135"/>
       <c r="G69" s="135"/>
     </row>
-    <row r="70" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="166"/>
+    <row r="70" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="157"/>
       <c r="C70" s="135"/>
       <c r="D70" s="135"/>
       <c r="E70" s="135"/>
       <c r="F70" s="135"/>
       <c r="G70" s="135"/>
     </row>
-    <row r="71" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="166"/>
+    <row r="71" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="157"/>
       <c r="C71" s="135"/>
       <c r="D71" s="135"/>
       <c r="E71" s="135"/>
       <c r="F71" s="135"/>
       <c r="G71" s="135"/>
     </row>
-    <row r="72" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="166"/>
+    <row r="72" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="157"/>
       <c r="C72" s="135"/>
       <c r="D72" s="135"/>
       <c r="E72" s="135"/>
       <c r="F72" s="135"/>
       <c r="G72" s="135"/>
     </row>
-    <row r="73" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="166"/>
+    <row r="73" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="157"/>
       <c r="C73" s="135"/>
       <c r="D73" s="135"/>
       <c r="E73" s="135"/>
       <c r="F73" s="135"/>
       <c r="G73" s="135"/>
     </row>
-    <row r="74" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="166"/>
+    <row r="74" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="157"/>
       <c r="C74" s="135"/>
       <c r="D74" s="135"/>
       <c r="E74" s="135"/>
       <c r="F74" s="135"/>
       <c r="G74" s="135"/>
     </row>
-    <row r="75" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="166"/>
+    <row r="75" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="157"/>
       <c r="C75" s="135"/>
       <c r="D75" s="135"/>
       <c r="E75" s="135"/>
       <c r="F75" s="135"/>
       <c r="G75" s="135"/>
     </row>
-    <row r="76" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="166"/>
+    <row r="76" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="157"/>
       <c r="C76" s="135"/>
       <c r="D76" s="135"/>
       <c r="E76" s="135"/>
       <c r="F76" s="135"/>
       <c r="G76" s="135"/>
     </row>
-    <row r="77" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="166"/>
+    <row r="77" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="157"/>
       <c r="C77" s="135"/>
       <c r="D77" s="135"/>
       <c r="E77" s="135"/>
       <c r="F77" s="135"/>
       <c r="G77" s="135"/>
     </row>
-    <row r="78" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="166"/>
+    <row r="78" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="157"/>
       <c r="C78" s="135"/>
       <c r="D78" s="135"/>
       <c r="E78" s="135"/>
       <c r="F78" s="135"/>
       <c r="G78" s="135"/>
     </row>
-    <row r="79" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="166"/>
+    <row r="79" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="157"/>
       <c r="C79" s="135"/>
       <c r="D79" s="135"/>
       <c r="E79" s="135"/>
       <c r="F79" s="135"/>
       <c r="G79" s="135"/>
     </row>
-    <row r="80" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="166"/>
+    <row r="80" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="157"/>
       <c r="C80" s="135"/>
       <c r="D80" s="135"/>
       <c r="E80" s="135"/>
       <c r="F80" s="135"/>
       <c r="G80" s="135"/>
     </row>
-    <row r="81" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="166"/>
+    <row r="81" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="157"/>
       <c r="C81" s="135"/>
       <c r="D81" s="135"/>
       <c r="E81" s="135"/>
       <c r="F81" s="135"/>
       <c r="G81" s="135"/>
     </row>
-    <row r="82" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="166"/>
+    <row r="82" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="157"/>
       <c r="C82" s="135"/>
       <c r="D82" s="135"/>
       <c r="E82" s="135"/>
       <c r="F82" s="135"/>
       <c r="G82" s="135"/>
     </row>
-    <row r="83" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="166"/>
+    <row r="83" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="157"/>
       <c r="C83" s="135"/>
       <c r="D83" s="135"/>
       <c r="E83" s="135"/>
       <c r="F83" s="135"/>
       <c r="G83" s="135"/>
     </row>
-    <row r="84" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="166"/>
+    <row r="84" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="157"/>
       <c r="C84" s="135"/>
       <c r="D84" s="135"/>
       <c r="E84" s="135"/>
       <c r="F84" s="135"/>
       <c r="G84" s="135"/>
     </row>
-    <row r="85" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="166"/>
+    <row r="85" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="157"/>
       <c r="C85" s="135"/>
       <c r="D85" s="135"/>
       <c r="E85" s="135"/>
       <c r="F85" s="135"/>
       <c r="G85" s="135"/>
     </row>
-    <row r="86" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="166"/>
+    <row r="86" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="157"/>
       <c r="C86" s="135"/>
       <c r="D86" s="135"/>
       <c r="E86" s="135"/>
       <c r="F86" s="135"/>
       <c r="G86" s="135"/>
     </row>
-    <row r="87" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="166"/>
+    <row r="87" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="157"/>
       <c r="C87" s="135"/>
       <c r="D87" s="135"/>
       <c r="E87" s="135"/>
       <c r="F87" s="135"/>
       <c r="G87" s="135"/>
     </row>
-    <row r="88" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="166"/>
+    <row r="88" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="157"/>
       <c r="C88" s="135"/>
       <c r="D88" s="135"/>
       <c r="E88" s="135"/>
       <c r="F88" s="135"/>
       <c r="G88" s="135"/>
     </row>
-    <row r="89" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="166"/>
+    <row r="89" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="157"/>
       <c r="C89" s="135"/>
       <c r="D89" s="135"/>
       <c r="E89" s="135"/>
       <c r="F89" s="135"/>
       <c r="G89" s="135"/>
     </row>
-    <row r="90" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="166"/>
+    <row r="90" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="157"/>
       <c r="C90" s="135"/>
       <c r="D90" s="135"/>
       <c r="E90" s="135"/>
       <c r="F90" s="135"/>
       <c r="G90" s="135"/>
     </row>
-    <row r="91" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="166"/>
+    <row r="91" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="157"/>
       <c r="C91" s="135"/>
       <c r="D91" s="135"/>
       <c r="E91" s="135"/>
       <c r="F91" s="135"/>
       <c r="G91" s="135"/>
     </row>
-    <row r="92" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="166"/>
+    <row r="92" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B92" s="157"/>
       <c r="C92" s="135"/>
       <c r="D92" s="135"/>
       <c r="E92" s="135"/>
       <c r="F92" s="135"/>
       <c r="G92" s="135"/>
     </row>
-    <row r="93" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="166"/>
+    <row r="93" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B93" s="157"/>
       <c r="C93" s="135"/>
       <c r="D93" s="135"/>
       <c r="E93" s="135"/>
       <c r="F93" s="135"/>
       <c r="G93" s="135"/>
     </row>
-    <row r="94" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="166"/>
+    <row r="94" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="157"/>
       <c r="C94" s="135"/>
       <c r="D94" s="135"/>
       <c r="E94" s="135"/>
       <c r="F94" s="135"/>
       <c r="G94" s="135"/>
     </row>
-    <row r="95" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="166"/>
+    <row r="95" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B95" s="157"/>
       <c r="C95" s="135"/>
       <c r="D95" s="135"/>
       <c r="E95" s="135"/>
       <c r="F95" s="135"/>
       <c r="G95" s="135"/>
     </row>
-    <row r="96" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="166"/>
+    <row r="96" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="157"/>
       <c r="C96" s="135"/>
       <c r="D96" s="135"/>
       <c r="E96" s="135"/>
       <c r="F96" s="135"/>
       <c r="G96" s="135"/>
     </row>
-    <row r="97" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="166"/>
+    <row r="97" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B97" s="157"/>
       <c r="C97" s="135"/>
       <c r="D97" s="135"/>
       <c r="E97" s="135"/>
       <c r="F97" s="135"/>
       <c r="G97" s="135"/>
     </row>
-    <row r="98" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="166"/>
+    <row r="98" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B98" s="157"/>
       <c r="C98" s="135"/>
       <c r="D98" s="135"/>
       <c r="E98" s="135"/>
       <c r="F98" s="135"/>
       <c r="G98" s="135"/>
     </row>
-    <row r="99" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="166"/>
+    <row r="99" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B99" s="157"/>
       <c r="C99" s="135"/>
       <c r="D99" s="135"/>
       <c r="E99" s="135"/>
       <c r="F99" s="135"/>
       <c r="G99" s="135"/>
     </row>
-    <row r="100" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B100" s="166"/>
+    <row r="100" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B100" s="157"/>
       <c r="C100" s="135"/>
       <c r="D100" s="135"/>
       <c r="E100" s="135"/>
       <c r="F100" s="135"/>
       <c r="G100" s="135"/>
     </row>
-    <row r="101" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="166"/>
+    <row r="101" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B101" s="157"/>
       <c r="C101" s="135"/>
       <c r="D101" s="135"/>
       <c r="E101" s="135"/>
       <c r="F101" s="135"/>
       <c r="G101" s="135"/>
     </row>
-    <row r="102" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B102" s="166"/>
+    <row r="102" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B102" s="157"/>
       <c r="C102" s="135"/>
       <c r="D102" s="135"/>
       <c r="E102" s="135"/>
       <c r="F102" s="135"/>
       <c r="G102" s="135"/>
     </row>
-    <row r="103" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B103" s="166"/>
+    <row r="103" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B103" s="157"/>
       <c r="C103" s="135"/>
       <c r="D103" s="135"/>
       <c r="E103" s="135"/>
       <c r="F103" s="135"/>
       <c r="G103" s="135"/>
     </row>
-    <row r="104" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="166"/>
+    <row r="104" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B104" s="157"/>
       <c r="C104" s="135"/>
       <c r="D104" s="135"/>
       <c r="E104" s="135"/>
       <c r="F104" s="135"/>
       <c r="G104" s="135"/>
     </row>
-    <row r="105" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B105" s="166"/>
+    <row r="105" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B105" s="157"/>
       <c r="C105" s="135"/>
       <c r="D105" s="135"/>
       <c r="E105" s="135"/>
       <c r="F105" s="135"/>
       <c r="G105" s="135"/>
     </row>
-    <row r="106" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B106" s="166"/>
+    <row r="106" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B106" s="157"/>
       <c r="C106" s="135"/>
       <c r="D106" s="135"/>
       <c r="E106" s="135"/>
       <c r="F106" s="135"/>
       <c r="G106" s="135"/>
     </row>
-    <row r="107" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B107" s="166"/>
+    <row r="107" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B107" s="157"/>
       <c r="C107" s="135"/>
       <c r="D107" s="135"/>
       <c r="E107" s="135"/>
       <c r="F107" s="135"/>
       <c r="G107" s="135"/>
     </row>
-    <row r="108" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B108" s="166"/>
+    <row r="108" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B108" s="157"/>
       <c r="C108" s="135"/>
       <c r="D108" s="135"/>
       <c r="E108" s="135"/>
       <c r="F108" s="135"/>
       <c r="G108" s="135"/>
     </row>
-    <row r="109" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B109" s="166"/>
+    <row r="109" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B109" s="157"/>
       <c r="C109" s="135"/>
       <c r="D109" s="135"/>
       <c r="E109" s="135"/>
       <c r="F109" s="135"/>
       <c r="G109" s="135"/>
     </row>
-    <row r="110" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B110" s="166"/>
+    <row r="110" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B110" s="157"/>
       <c r="C110" s="135"/>
       <c r="D110" s="135"/>
       <c r="E110" s="135"/>
       <c r="F110" s="135"/>
       <c r="G110" s="135"/>
     </row>
-    <row r="111" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B111" s="166"/>
+    <row r="111" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B111" s="157"/>
       <c r="C111" s="135"/>
       <c r="D111" s="135"/>
       <c r="E111" s="135"/>
@@ -7720,14 +7733,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B8C70F-B8AB-4C19-B79C-FF22DE95A418}">
   <dimension ref="A3:I116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="135" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="166" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="157" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" style="135" customWidth="1"/>
     <col min="4" max="4" width="17" style="135" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" style="135" customWidth="1"/>
@@ -7748,10 +7761,10 @@
       <c r="G3" s="258"/>
     </row>
     <row r="4" spans="2:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="164"/>
-      <c r="D4" s="164"/>
-      <c r="E4" s="165"/>
-      <c r="F4" s="165"/>
+      <c r="C4" s="155"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="156"/>
+      <c r="F4" s="156"/>
     </row>
     <row r="5" spans="2:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="257" t="s">
@@ -7771,55 +7784,55 @@
       <c r="F7" s="256"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="204" t="s">
+      <c r="B8" s="195" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="205" t="s">
+      <c r="C8" s="196" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="201"/>
+      <c r="D8" s="192"/>
       <c r="E8" s="259" t="s">
         <v>39</v>
       </c>
       <c r="F8" s="260"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="204" t="s">
+      <c r="B9" s="195" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="176">
+      <c r="C9" s="167">
         <f>E54</f>
         <v>53890</v>
       </c>
-      <c r="D9" s="202"/>
+      <c r="D9" s="193"/>
       <c r="E9" s="261" t="s">
         <v>31</v>
       </c>
       <c r="F9" s="262"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="204" t="s">
+      <c r="B10" s="195" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="176">
+      <c r="C10" s="167">
         <f>F54</f>
         <v>0</v>
       </c>
-      <c r="D10" s="202"/>
+      <c r="D10" s="193"/>
       <c r="E10" s="263" t="s">
         <v>199</v>
       </c>
       <c r="F10" s="264"/>
     </row>
     <row r="11" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="204" t="s">
+      <c r="B11" s="195" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="208">
+      <c r="C11" s="199">
         <f>C10-C9</f>
         <v>-53890</v>
       </c>
-      <c r="D11" s="203"/>
+      <c r="D11" s="194"/>
       <c r="E11" s="249" t="s">
         <v>197</v>
       </c>
@@ -7827,7 +7840,7 @@
     </row>
     <row r="12" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="179" t="s">
+      <c r="B13" s="170" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="44" t="s">
@@ -7846,17 +7859,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="180"/>
+    <row r="14" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="171"/>
       <c r="C14" s="110"/>
       <c r="D14" s="110"/>
       <c r="E14" s="110"/>
       <c r="F14" s="110"/>
       <c r="G14" s="134"/>
     </row>
-    <row r="15" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="180" t="s">
-        <v>306</v>
+    <row r="15" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="171" t="s">
+        <v>304</v>
       </c>
       <c r="C15" s="110"/>
       <c r="D15" s="110"/>
@@ -7865,19 +7878,19 @@
       </c>
       <c r="F15" s="116"/>
       <c r="G15" s="116" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="280"/>
-      <c r="C16" s="281"/>
-      <c r="D16" s="281"/>
-      <c r="E16" s="281"/>
-      <c r="F16" s="281"/>
-      <c r="G16" s="282"/>
-    </row>
-    <row r="17" spans="1:9" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="180">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="218"/>
+      <c r="C16" s="219"/>
+      <c r="D16" s="219"/>
+      <c r="E16" s="219"/>
+      <c r="F16" s="219"/>
+      <c r="G16" s="220"/>
+    </row>
+    <row r="17" spans="1:9" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="171">
         <v>44810</v>
       </c>
       <c r="C17" s="110" t="s">
@@ -7889,11 +7902,11 @@
       </c>
       <c r="F17" s="116"/>
       <c r="G17" s="117" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="180"/>
+        <v>306</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="171"/>
       <c r="C18" s="110" t="s">
         <v>41</v>
       </c>
@@ -7903,13 +7916,13 @@
       </c>
       <c r="F18" s="116"/>
       <c r="G18" s="117" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H18" s="265"/>
       <c r="I18" s="266"/>
     </row>
-    <row r="19" spans="1:9" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="180"/>
+    <row r="19" spans="1:9" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="171"/>
       <c r="C19" s="110" t="s">
         <v>41</v>
       </c>
@@ -7919,44 +7932,44 @@
       </c>
       <c r="F19" s="116"/>
       <c r="G19" s="116" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="221"/>
+      <c r="C20" s="222"/>
+      <c r="D20" s="222"/>
+      <c r="E20" s="222"/>
+      <c r="F20" s="223"/>
+      <c r="G20" s="224"/>
+    </row>
+    <row r="21" spans="1:9" s="159" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="211">
+        <v>44811</v>
+      </c>
+      <c r="C21" s="212" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="212" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="283"/>
-      <c r="C20" s="284"/>
-      <c r="D20" s="284"/>
-      <c r="E20" s="284"/>
-      <c r="F20" s="285"/>
-      <c r="G20" s="286"/>
-    </row>
-    <row r="21" spans="1:9" s="168" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="220">
-        <v>44811</v>
-      </c>
-      <c r="C21" s="221" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="221" t="s">
-        <v>312</v>
-      </c>
-      <c r="E21" s="222"/>
-      <c r="F21" s="223"/>
-      <c r="G21" s="224" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="287"/>
-      <c r="C22" s="281"/>
-      <c r="D22" s="281"/>
-      <c r="E22" s="281"/>
-      <c r="F22" s="281"/>
-      <c r="G22" s="282"/>
-    </row>
-    <row r="23" spans="1:9" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="169"/>
-      <c r="B23" s="180">
+      <c r="E21" s="213"/>
+      <c r="F21" s="214"/>
+      <c r="G21" s="215" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="225"/>
+      <c r="C22" s="219"/>
+      <c r="D22" s="219"/>
+      <c r="E22" s="219"/>
+      <c r="F22" s="219"/>
+      <c r="G22" s="220"/>
+    </row>
+    <row r="23" spans="1:9" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="160"/>
+      <c r="B23" s="171">
         <v>44812</v>
       </c>
       <c r="C23" s="110" t="s">
@@ -7968,51 +7981,51 @@
       </c>
       <c r="F23" s="116"/>
       <c r="G23" s="117" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="180"/>
+        <v>309</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="171"/>
       <c r="C24" s="110" t="s">
         <v>47</v>
       </c>
       <c r="D24" s="110" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E24" s="116">
         <v>10500</v>
       </c>
       <c r="F24" s="116"/>
       <c r="G24" s="117" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="180"/>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="171"/>
       <c r="C25" s="110" t="s">
         <v>47</v>
       </c>
       <c r="D25" s="110" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E25" s="116">
         <v>6000</v>
       </c>
       <c r="F25" s="116"/>
       <c r="G25" s="117" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="287"/>
-      <c r="C26" s="281"/>
-      <c r="D26" s="281"/>
-      <c r="E26" s="281"/>
-      <c r="F26" s="281"/>
-      <c r="G26" s="282"/>
-    </row>
-    <row r="27" spans="1:9" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="180">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="225"/>
+      <c r="C26" s="219"/>
+      <c r="D26" s="219"/>
+      <c r="E26" s="219"/>
+      <c r="F26" s="219"/>
+      <c r="G26" s="220"/>
+    </row>
+    <row r="27" spans="1:9" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="171">
         <v>44821</v>
       </c>
       <c r="C27" s="110" t="s">
@@ -8024,220 +8037,220 @@
       </c>
       <c r="F27" s="110"/>
       <c r="G27" s="134" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="180"/>
+        <v>342</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="171"/>
       <c r="C28" s="110"/>
       <c r="D28" s="110"/>
       <c r="E28" s="110"/>
       <c r="F28" s="110"/>
       <c r="G28" s="134"/>
     </row>
-    <row r="29" spans="1:9" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="180"/>
+    <row r="29" spans="1:9" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="171"/>
       <c r="C29" s="110"/>
       <c r="D29" s="110"/>
       <c r="E29" s="110"/>
       <c r="F29" s="110"/>
       <c r="G29" s="134"/>
     </row>
-    <row r="30" spans="1:9" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="180"/>
+    <row r="30" spans="1:9" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="171"/>
       <c r="C30" s="110"/>
       <c r="D30" s="110"/>
       <c r="E30" s="110"/>
       <c r="F30" s="110"/>
       <c r="G30" s="134"/>
     </row>
-    <row r="31" spans="1:9" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="180"/>
+    <row r="31" spans="1:9" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="171"/>
       <c r="C31" s="110"/>
       <c r="D31" s="110"/>
       <c r="E31" s="110"/>
       <c r="F31" s="110"/>
       <c r="G31" s="134"/>
     </row>
-    <row r="32" spans="1:9" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="180"/>
+    <row r="32" spans="1:9" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="171"/>
       <c r="C32" s="110"/>
       <c r="D32" s="110"/>
       <c r="E32" s="110"/>
       <c r="F32" s="110"/>
       <c r="G32" s="134"/>
     </row>
-    <row r="33" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="180"/>
+    <row r="33" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="171"/>
       <c r="C33" s="110"/>
       <c r="D33" s="110"/>
       <c r="E33" s="110"/>
       <c r="F33" s="110"/>
       <c r="G33" s="134"/>
     </row>
-    <row r="34" spans="2:7" s="168" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="180"/>
+    <row r="34" spans="2:7" s="159" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="171"/>
       <c r="C34" s="110"/>
       <c r="D34" s="110"/>
       <c r="E34" s="110"/>
       <c r="F34" s="110"/>
       <c r="G34" s="134"/>
     </row>
-    <row r="35" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="180"/>
+    <row r="35" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="171"/>
       <c r="C35" s="110"/>
       <c r="D35" s="110"/>
       <c r="E35" s="110"/>
       <c r="F35" s="110"/>
       <c r="G35" s="134"/>
     </row>
-    <row r="36" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="180"/>
+    <row r="36" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="171"/>
       <c r="C36" s="110"/>
       <c r="D36" s="110"/>
       <c r="E36" s="110"/>
       <c r="F36" s="110"/>
       <c r="G36" s="134"/>
     </row>
-    <row r="37" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="180"/>
+    <row r="37" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="171"/>
       <c r="C37" s="110"/>
       <c r="D37" s="110"/>
       <c r="E37" s="110"/>
       <c r="F37" s="110"/>
       <c r="G37" s="134"/>
     </row>
-    <row r="38" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="180"/>
+    <row r="38" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="171"/>
       <c r="C38" s="110"/>
       <c r="D38" s="110"/>
       <c r="E38" s="110"/>
       <c r="F38" s="110"/>
       <c r="G38" s="134"/>
     </row>
-    <row r="39" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="180"/>
+    <row r="39" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="171"/>
       <c r="C39" s="110"/>
       <c r="D39" s="110"/>
       <c r="E39" s="110"/>
       <c r="F39" s="110"/>
       <c r="G39" s="134"/>
     </row>
-    <row r="40" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="180"/>
+    <row r="40" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="171"/>
       <c r="C40" s="110"/>
       <c r="D40" s="110"/>
       <c r="E40" s="110"/>
-      <c r="F40" s="171"/>
+      <c r="F40" s="162"/>
       <c r="G40" s="134"/>
     </row>
-    <row r="41" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="180"/>
+    <row r="41" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="171"/>
       <c r="C41" s="110"/>
       <c r="D41" s="110"/>
       <c r="E41" s="110"/>
       <c r="F41" s="110"/>
       <c r="G41" s="134"/>
     </row>
-    <row r="42" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="180"/>
+    <row r="42" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="171"/>
       <c r="C42" s="110"/>
       <c r="D42" s="110"/>
       <c r="E42" s="110"/>
       <c r="F42" s="110"/>
       <c r="G42" s="134"/>
     </row>
-    <row r="43" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="180"/>
+    <row r="43" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="171"/>
       <c r="C43" s="110"/>
       <c r="D43" s="110"/>
       <c r="E43" s="110"/>
       <c r="F43" s="110"/>
       <c r="G43" s="134"/>
     </row>
-    <row r="44" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="180"/>
+    <row r="44" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="171"/>
       <c r="C44" s="110"/>
       <c r="D44" s="110"/>
       <c r="E44" s="110"/>
       <c r="F44" s="110"/>
       <c r="G44" s="134"/>
     </row>
-    <row r="45" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="180"/>
+    <row r="45" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="171"/>
       <c r="C45" s="110"/>
       <c r="D45" s="110"/>
       <c r="E45" s="110"/>
       <c r="F45" s="110"/>
       <c r="G45" s="134"/>
     </row>
-    <row r="46" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="180"/>
+    <row r="46" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="171"/>
       <c r="C46" s="110"/>
       <c r="D46" s="110"/>
       <c r="E46" s="110"/>
       <c r="F46" s="110"/>
       <c r="G46" s="134"/>
     </row>
-    <row r="47" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="180"/>
+    <row r="47" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="171"/>
       <c r="C47" s="110"/>
       <c r="D47" s="110"/>
       <c r="E47" s="110"/>
       <c r="F47" s="110"/>
-      <c r="G47" s="170"/>
-    </row>
-    <row r="48" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="180"/>
+      <c r="G47" s="161"/>
+    </row>
+    <row r="48" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="171"/>
       <c r="C48" s="110"/>
       <c r="D48" s="110"/>
       <c r="E48" s="110"/>
       <c r="F48" s="110"/>
-      <c r="G48" s="278"/>
-    </row>
-    <row r="49" spans="2:8" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="180"/>
+      <c r="G48" s="216"/>
+    </row>
+    <row r="49" spans="2:8" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="171"/>
       <c r="C49" s="110"/>
       <c r="D49" s="110"/>
       <c r="E49" s="110"/>
       <c r="F49" s="110"/>
-      <c r="G49" s="278"/>
-    </row>
-    <row r="50" spans="2:8" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="180"/>
+      <c r="G49" s="216"/>
+    </row>
+    <row r="50" spans="2:8" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="171"/>
       <c r="C50" s="110"/>
       <c r="D50" s="110"/>
       <c r="E50" s="110"/>
       <c r="F50" s="110"/>
-      <c r="G50" s="278"/>
-    </row>
-    <row r="51" spans="2:8" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="180"/>
+      <c r="G50" s="216"/>
+    </row>
+    <row r="51" spans="2:8" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="171"/>
       <c r="C51" s="110"/>
       <c r="D51" s="110"/>
       <c r="E51" s="110"/>
       <c r="F51" s="110"/>
-      <c r="G51" s="278"/>
-      <c r="H51" s="206"/>
-    </row>
-    <row r="52" spans="2:8" s="175" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="180"/>
+      <c r="G51" s="216"/>
+      <c r="H51" s="197"/>
+    </row>
+    <row r="52" spans="2:8" s="166" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="171"/>
       <c r="C52" s="110"/>
       <c r="D52" s="110"/>
       <c r="E52" s="110"/>
       <c r="F52" s="110"/>
-      <c r="G52" s="279"/>
-    </row>
-    <row r="53" spans="2:8" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="180"/>
+      <c r="G52" s="217"/>
+    </row>
+    <row r="53" spans="2:8" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="171"/>
       <c r="C53" s="110"/>
       <c r="D53" s="110"/>
       <c r="E53" s="110"/>
-      <c r="F53" s="172"/>
-      <c r="G53" s="170"/>
-    </row>
-    <row r="54" spans="2:8" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="182"/>
+      <c r="F53" s="163"/>
+      <c r="G53" s="161"/>
+    </row>
+    <row r="54" spans="2:8" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="173"/>
       <c r="C54" s="127" t="s">
         <v>0</v>
       </c>
@@ -8250,474 +8263,474 @@
         <f>SUM(F14:F53)</f>
         <v>0</v>
       </c>
-      <c r="G54" s="174"/>
-    </row>
-    <row r="55" spans="2:8" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="166"/>
+      <c r="G54" s="165"/>
+    </row>
+    <row r="55" spans="2:8" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="157"/>
       <c r="C55" s="135"/>
       <c r="D55" s="135"/>
       <c r="E55" s="135"/>
       <c r="F55" s="135"/>
       <c r="G55" s="135"/>
     </row>
-    <row r="56" spans="2:8" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="166"/>
+    <row r="56" spans="2:8" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="157"/>
       <c r="C56" s="135"/>
       <c r="D56" s="135"/>
       <c r="E56" s="135"/>
       <c r="F56" s="135"/>
       <c r="G56" s="135"/>
     </row>
-    <row r="57" spans="2:8" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="166"/>
+    <row r="57" spans="2:8" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="157"/>
       <c r="C57" s="135"/>
       <c r="D57" s="135"/>
       <c r="E57" s="135"/>
       <c r="F57" s="135"/>
       <c r="G57" s="135"/>
     </row>
-    <row r="58" spans="2:8" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="166"/>
+    <row r="58" spans="2:8" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="157"/>
       <c r="C58" s="135"/>
       <c r="D58" s="135"/>
       <c r="E58" s="135"/>
       <c r="F58" s="135"/>
       <c r="G58" s="135"/>
     </row>
-    <row r="59" spans="2:8" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="166"/>
+    <row r="59" spans="2:8" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="157"/>
       <c r="C59" s="135"/>
       <c r="D59" s="135"/>
       <c r="E59" s="135"/>
       <c r="F59" s="135"/>
       <c r="G59" s="135"/>
     </row>
-    <row r="60" spans="2:8" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="166"/>
+    <row r="60" spans="2:8" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="157"/>
       <c r="C60" s="135"/>
       <c r="D60" s="135"/>
       <c r="E60" s="135"/>
       <c r="F60" s="135"/>
       <c r="G60" s="135"/>
     </row>
-    <row r="61" spans="2:8" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="166"/>
+    <row r="61" spans="2:8" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="157"/>
       <c r="C61" s="135"/>
       <c r="D61" s="135"/>
       <c r="E61" s="135"/>
       <c r="F61" s="135"/>
       <c r="G61" s="135"/>
     </row>
-    <row r="62" spans="2:8" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="166"/>
+    <row r="62" spans="2:8" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="157"/>
       <c r="C62" s="135"/>
       <c r="D62" s="135"/>
       <c r="E62" s="135"/>
       <c r="F62" s="135"/>
       <c r="G62" s="135"/>
     </row>
-    <row r="63" spans="2:8" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="166"/>
+    <row r="63" spans="2:8" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="157"/>
       <c r="C63" s="135"/>
       <c r="D63" s="135"/>
       <c r="E63" s="135"/>
       <c r="F63" s="135"/>
       <c r="G63" s="135"/>
     </row>
-    <row r="64" spans="2:8" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="166"/>
+    <row r="64" spans="2:8" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="157"/>
       <c r="C64" s="135"/>
       <c r="D64" s="135"/>
       <c r="E64" s="135"/>
       <c r="F64" s="135"/>
       <c r="G64" s="135"/>
     </row>
-    <row r="65" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="166"/>
+    <row r="65" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="157"/>
       <c r="C65" s="135"/>
       <c r="D65" s="135"/>
       <c r="E65" s="135"/>
       <c r="F65" s="135"/>
       <c r="G65" s="135"/>
     </row>
-    <row r="66" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="166"/>
+    <row r="66" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="157"/>
       <c r="C66" s="135"/>
       <c r="D66" s="135"/>
       <c r="E66" s="135"/>
       <c r="F66" s="135"/>
       <c r="G66" s="135"/>
     </row>
-    <row r="67" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="166"/>
+    <row r="67" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="157"/>
       <c r="C67" s="135"/>
       <c r="D67" s="135"/>
       <c r="E67" s="135"/>
       <c r="F67" s="135"/>
       <c r="G67" s="135"/>
     </row>
-    <row r="68" spans="2:7" s="175" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="166"/>
+    <row r="68" spans="2:7" s="166" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="157"/>
       <c r="C68" s="135"/>
       <c r="D68" s="135"/>
       <c r="E68" s="135"/>
       <c r="F68" s="135"/>
       <c r="G68" s="135"/>
     </row>
-    <row r="69" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="166"/>
+    <row r="69" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="157"/>
       <c r="C69" s="135"/>
       <c r="D69" s="135"/>
       <c r="E69" s="135"/>
       <c r="F69" s="135"/>
       <c r="G69" s="135"/>
     </row>
-    <row r="70" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="166"/>
+    <row r="70" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="157"/>
       <c r="C70" s="135"/>
       <c r="D70" s="135"/>
       <c r="E70" s="135"/>
       <c r="F70" s="135"/>
       <c r="G70" s="135"/>
     </row>
-    <row r="71" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="166"/>
+    <row r="71" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="157"/>
       <c r="C71" s="135"/>
       <c r="D71" s="135"/>
       <c r="E71" s="135"/>
       <c r="F71" s="135"/>
       <c r="G71" s="135"/>
     </row>
-    <row r="72" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="166"/>
+    <row r="72" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="157"/>
       <c r="C72" s="135"/>
       <c r="D72" s="135"/>
       <c r="E72" s="135"/>
       <c r="F72" s="135"/>
       <c r="G72" s="135"/>
     </row>
-    <row r="73" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="166"/>
+    <row r="73" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="157"/>
       <c r="C73" s="135"/>
       <c r="D73" s="135"/>
       <c r="E73" s="135"/>
       <c r="F73" s="135"/>
       <c r="G73" s="135"/>
     </row>
-    <row r="74" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="166"/>
+    <row r="74" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="157"/>
       <c r="C74" s="135"/>
       <c r="D74" s="135"/>
       <c r="E74" s="135"/>
       <c r="F74" s="135"/>
       <c r="G74" s="135"/>
     </row>
-    <row r="75" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="166"/>
+    <row r="75" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="157"/>
       <c r="C75" s="135"/>
       <c r="D75" s="135"/>
       <c r="E75" s="135"/>
       <c r="F75" s="135"/>
       <c r="G75" s="135"/>
     </row>
-    <row r="76" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="166"/>
+    <row r="76" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="157"/>
       <c r="C76" s="135"/>
       <c r="D76" s="135"/>
       <c r="E76" s="135"/>
       <c r="F76" s="135"/>
       <c r="G76" s="135"/>
     </row>
-    <row r="77" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="166"/>
+    <row r="77" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="157"/>
       <c r="C77" s="135"/>
       <c r="D77" s="135"/>
       <c r="E77" s="135"/>
       <c r="F77" s="135"/>
       <c r="G77" s="135"/>
     </row>
-    <row r="78" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="166"/>
+    <row r="78" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="157"/>
       <c r="C78" s="135"/>
       <c r="D78" s="135"/>
       <c r="E78" s="135"/>
       <c r="F78" s="135"/>
       <c r="G78" s="135"/>
     </row>
-    <row r="79" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="166"/>
+    <row r="79" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="157"/>
       <c r="C79" s="135"/>
       <c r="D79" s="135"/>
       <c r="E79" s="135"/>
       <c r="F79" s="135"/>
       <c r="G79" s="135"/>
     </row>
-    <row r="80" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="166"/>
+    <row r="80" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="157"/>
       <c r="C80" s="135"/>
       <c r="D80" s="135"/>
       <c r="E80" s="135"/>
       <c r="F80" s="135"/>
       <c r="G80" s="135"/>
     </row>
-    <row r="81" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="166"/>
+    <row r="81" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="157"/>
       <c r="C81" s="135"/>
       <c r="D81" s="135"/>
       <c r="E81" s="135"/>
       <c r="F81" s="135"/>
       <c r="G81" s="135"/>
     </row>
-    <row r="82" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="166"/>
+    <row r="82" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="157"/>
       <c r="C82" s="135"/>
       <c r="D82" s="135"/>
       <c r="E82" s="135"/>
       <c r="F82" s="135"/>
       <c r="G82" s="135"/>
     </row>
-    <row r="83" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="166"/>
+    <row r="83" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="157"/>
       <c r="C83" s="135"/>
       <c r="D83" s="135"/>
       <c r="E83" s="135"/>
       <c r="F83" s="135"/>
       <c r="G83" s="135"/>
     </row>
-    <row r="84" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="166"/>
+    <row r="84" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="157"/>
       <c r="C84" s="135"/>
       <c r="D84" s="135"/>
       <c r="E84" s="135"/>
       <c r="F84" s="135"/>
       <c r="G84" s="135"/>
     </row>
-    <row r="85" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="166"/>
+    <row r="85" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="157"/>
       <c r="C85" s="135"/>
       <c r="D85" s="135"/>
       <c r="E85" s="135"/>
       <c r="F85" s="135"/>
       <c r="G85" s="135"/>
     </row>
-    <row r="86" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="166"/>
+    <row r="86" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="157"/>
       <c r="C86" s="135"/>
       <c r="D86" s="135"/>
       <c r="E86" s="135"/>
       <c r="F86" s="135"/>
       <c r="G86" s="135"/>
     </row>
-    <row r="87" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="166"/>
+    <row r="87" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="157"/>
       <c r="C87" s="135"/>
       <c r="D87" s="135"/>
       <c r="E87" s="135"/>
       <c r="F87" s="135"/>
       <c r="G87" s="135"/>
     </row>
-    <row r="88" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="166"/>
+    <row r="88" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="157"/>
       <c r="C88" s="135"/>
       <c r="D88" s="135"/>
       <c r="E88" s="135"/>
       <c r="F88" s="135"/>
       <c r="G88" s="135"/>
     </row>
-    <row r="89" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="166"/>
+    <row r="89" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="157"/>
       <c r="C89" s="135"/>
       <c r="D89" s="135"/>
       <c r="E89" s="135"/>
       <c r="F89" s="135"/>
       <c r="G89" s="135"/>
     </row>
-    <row r="90" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="166"/>
+    <row r="90" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="157"/>
       <c r="C90" s="135"/>
       <c r="D90" s="135"/>
       <c r="E90" s="135"/>
       <c r="F90" s="135"/>
       <c r="G90" s="135"/>
     </row>
-    <row r="91" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="166"/>
+    <row r="91" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="157"/>
       <c r="C91" s="135"/>
       <c r="D91" s="135"/>
       <c r="E91" s="135"/>
       <c r="F91" s="135"/>
       <c r="G91" s="135"/>
     </row>
-    <row r="92" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="166"/>
+    <row r="92" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B92" s="157"/>
       <c r="C92" s="135"/>
       <c r="D92" s="135"/>
       <c r="E92" s="135"/>
       <c r="F92" s="135"/>
       <c r="G92" s="135"/>
     </row>
-    <row r="93" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="166"/>
+    <row r="93" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B93" s="157"/>
       <c r="C93" s="135"/>
       <c r="D93" s="135"/>
       <c r="E93" s="135"/>
       <c r="F93" s="135"/>
       <c r="G93" s="135"/>
     </row>
-    <row r="94" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="166"/>
+    <row r="94" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="157"/>
       <c r="C94" s="135"/>
       <c r="D94" s="135"/>
       <c r="E94" s="135"/>
       <c r="F94" s="135"/>
       <c r="G94" s="135"/>
     </row>
-    <row r="95" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="166"/>
+    <row r="95" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B95" s="157"/>
       <c r="C95" s="135"/>
       <c r="D95" s="135"/>
       <c r="E95" s="135"/>
       <c r="F95" s="135"/>
       <c r="G95" s="135"/>
     </row>
-    <row r="96" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="166"/>
+    <row r="96" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="157"/>
       <c r="C96" s="135"/>
       <c r="D96" s="135"/>
       <c r="E96" s="135"/>
       <c r="F96" s="135"/>
       <c r="G96" s="135"/>
     </row>
-    <row r="97" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="166"/>
+    <row r="97" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B97" s="157"/>
       <c r="C97" s="135"/>
       <c r="D97" s="135"/>
       <c r="E97" s="135"/>
       <c r="F97" s="135"/>
       <c r="G97" s="135"/>
     </row>
-    <row r="98" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="166"/>
+    <row r="98" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B98" s="157"/>
       <c r="C98" s="135"/>
       <c r="D98" s="135"/>
       <c r="E98" s="135"/>
       <c r="F98" s="135"/>
       <c r="G98" s="135"/>
     </row>
-    <row r="99" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="166"/>
+    <row r="99" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B99" s="157"/>
       <c r="C99" s="135"/>
       <c r="D99" s="135"/>
       <c r="E99" s="135"/>
       <c r="F99" s="135"/>
       <c r="G99" s="135"/>
     </row>
-    <row r="100" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B100" s="166"/>
+    <row r="100" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B100" s="157"/>
       <c r="C100" s="135"/>
       <c r="D100" s="135"/>
       <c r="E100" s="135"/>
       <c r="F100" s="135"/>
       <c r="G100" s="135"/>
     </row>
-    <row r="101" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="166"/>
+    <row r="101" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B101" s="157"/>
       <c r="C101" s="135"/>
       <c r="D101" s="135"/>
       <c r="E101" s="135"/>
       <c r="F101" s="135"/>
       <c r="G101" s="135"/>
     </row>
-    <row r="102" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B102" s="166"/>
+    <row r="102" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B102" s="157"/>
       <c r="C102" s="135"/>
       <c r="D102" s="135"/>
       <c r="E102" s="135"/>
       <c r="F102" s="135"/>
       <c r="G102" s="135"/>
     </row>
-    <row r="103" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B103" s="166"/>
+    <row r="103" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B103" s="157"/>
       <c r="C103" s="135"/>
       <c r="D103" s="135"/>
       <c r="E103" s="135"/>
       <c r="F103" s="135"/>
       <c r="G103" s="135"/>
     </row>
-    <row r="104" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="166"/>
+    <row r="104" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B104" s="157"/>
       <c r="C104" s="135"/>
       <c r="D104" s="135"/>
       <c r="E104" s="135"/>
       <c r="F104" s="135"/>
       <c r="G104" s="135"/>
     </row>
-    <row r="105" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B105" s="166"/>
+    <row r="105" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B105" s="157"/>
       <c r="C105" s="135"/>
       <c r="D105" s="135"/>
       <c r="E105" s="135"/>
       <c r="F105" s="135"/>
       <c r="G105" s="135"/>
     </row>
-    <row r="106" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B106" s="166"/>
+    <row r="106" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B106" s="157"/>
       <c r="C106" s="135"/>
       <c r="D106" s="135"/>
       <c r="E106" s="135"/>
       <c r="F106" s="135"/>
       <c r="G106" s="135"/>
     </row>
-    <row r="107" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B107" s="166"/>
+    <row r="107" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B107" s="157"/>
       <c r="C107" s="135"/>
       <c r="D107" s="135"/>
       <c r="E107" s="135"/>
       <c r="F107" s="135"/>
       <c r="G107" s="135"/>
     </row>
-    <row r="108" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B108" s="166"/>
+    <row r="108" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B108" s="157"/>
       <c r="C108" s="135"/>
       <c r="D108" s="135"/>
       <c r="E108" s="135"/>
       <c r="F108" s="135"/>
       <c r="G108" s="135"/>
     </row>
-    <row r="109" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B109" s="166"/>
+    <row r="109" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B109" s="157"/>
       <c r="C109" s="135"/>
       <c r="D109" s="135"/>
       <c r="E109" s="135"/>
       <c r="F109" s="135"/>
       <c r="G109" s="135"/>
     </row>
-    <row r="110" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B110" s="166"/>
+    <row r="110" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B110" s="157"/>
       <c r="C110" s="135"/>
       <c r="D110" s="135"/>
       <c r="E110" s="135"/>
       <c r="F110" s="135"/>
       <c r="G110" s="135"/>
     </row>
-    <row r="111" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B111" s="166"/>
+    <row r="111" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B111" s="157"/>
       <c r="C111" s="135"/>
       <c r="D111" s="135"/>
       <c r="E111" s="135"/>
       <c r="F111" s="135"/>
       <c r="G111" s="135"/>
     </row>
-    <row r="112" spans="2:7" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B112" s="166"/>
+    <row r="112" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B112" s="157"/>
       <c r="C112" s="135"/>
       <c r="D112" s="135"/>
       <c r="E112" s="135"/>
       <c r="F112" s="135"/>
       <c r="G112" s="135"/>
     </row>
-    <row r="113" spans="2:8" s="168" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B113" s="166"/>
+    <row r="113" spans="2:8" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B113" s="157"/>
       <c r="C113" s="135"/>
       <c r="D113" s="135"/>
       <c r="E113" s="135"/>
@@ -8753,94 +8766,94 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J195"/>
+  <dimension ref="A1:J200"/>
   <sheetViews>
-    <sheetView topLeftCell="A175" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G107" sqref="G107"/>
+    <sheetView tabSelected="1" topLeftCell="A178" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G169" sqref="G169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="217" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" style="73" customWidth="1"/>
-    <col min="3" max="3" width="21" style="46" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" style="46" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="46" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="46" customWidth="1"/>
-    <col min="7" max="7" width="42.28515625" style="157" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="208" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" style="274" customWidth="1"/>
+    <col min="3" max="3" width="21" style="156" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="156" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="156" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="156" customWidth="1"/>
+    <col min="7" max="7" width="42.28515625" style="293" customWidth="1"/>
     <col min="8" max="8" width="36.5703125" style="107" customWidth="1"/>
     <col min="9" max="9" width="17.7109375" style="46" customWidth="1"/>
     <col min="10" max="16384" width="11.42578125" style="46"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="G1" s="160"/>
+      <c r="G1" s="275"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="G2" s="160"/>
+      <c r="G2" s="275"/>
     </row>
     <row r="3" spans="2:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="267" t="s">
+      <c r="C3" s="276" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="268"/>
-      <c r="E3" s="269"/>
-      <c r="F3" s="269"/>
-      <c r="G3" s="160"/>
+      <c r="D3" s="277"/>
+      <c r="E3" s="278"/>
+      <c r="F3" s="278"/>
+      <c r="G3" s="275"/>
     </row>
     <row r="4" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="G4" s="160"/>
+      <c r="C4" s="155"/>
+      <c r="D4" s="155"/>
+      <c r="G4" s="275"/>
     </row>
     <row r="5" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="G5" s="160"/>
+      <c r="C5" s="155"/>
+      <c r="D5" s="155"/>
+      <c r="G5" s="275"/>
     </row>
     <row r="6" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" s="270" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="270"/>
-      <c r="E6" s="271"/>
-      <c r="F6" s="271"/>
-      <c r="G6" s="160"/>
+      <c r="E6" s="279"/>
+      <c r="F6" s="279"/>
+      <c r="G6" s="275"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="G7" s="160"/>
+      <c r="G7" s="275"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="75" t="s">
+      <c r="C8" s="230" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="139"/>
-      <c r="G8" s="160"/>
+      <c r="D8" s="280"/>
+      <c r="G8" s="275"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="138" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="76">
-        <f>E194</f>
-        <v>763895</v>
-      </c>
-      <c r="D9" s="140"/>
-      <c r="G9" s="160"/>
+      <c r="C9" s="167">
+        <f>E199</f>
+        <v>856495</v>
+      </c>
+      <c r="D9" s="281"/>
+      <c r="G9" s="275"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="138" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="77">
-        <f>F194</f>
-        <v>762000</v>
-      </c>
-      <c r="D10" s="141"/>
-      <c r="G10" s="160"/>
+      <c r="C10" s="167">
+        <f>F199</f>
+        <v>962000</v>
+      </c>
+      <c r="D10" s="281"/>
+      <c r="G10" s="275"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="138" t="s">
@@ -8848,13 +8861,13 @@
       </c>
       <c r="C11" s="78">
         <f>C10-C9</f>
-        <v>-1895</v>
-      </c>
-      <c r="D11" s="159"/>
-      <c r="G11" s="160"/>
+        <v>105505</v>
+      </c>
+      <c r="D11" s="152"/>
+      <c r="G11" s="275"/>
     </row>
     <row r="12" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G12" s="160"/>
+      <c r="G12" s="275"/>
     </row>
     <row r="13" spans="2:8" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="74" t="s">
@@ -8869,7 +8882,7 @@
       <c r="E13" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="149" t="s">
+      <c r="F13" s="145" t="s">
         <v>32</v>
       </c>
       <c r="G13" s="87" t="s">
@@ -8890,10 +8903,10 @@
         <v>40</v>
       </c>
       <c r="E14" s="136"/>
-      <c r="F14" s="150">
+      <c r="F14" s="146">
         <v>150000</v>
       </c>
-      <c r="G14" s="209" t="s">
+      <c r="G14" s="200" t="s">
         <v>224</v>
       </c>
     </row>
@@ -8906,8 +8919,8 @@
       <c r="E15" s="136">
         <v>45000</v>
       </c>
-      <c r="F15" s="151"/>
-      <c r="G15" s="209" t="s">
+      <c r="F15" s="147"/>
+      <c r="G15" s="200" t="s">
         <v>225</v>
       </c>
     </row>
@@ -8920,19 +8933,19 @@
       <c r="E16" s="136">
         <v>35000</v>
       </c>
-      <c r="F16" s="151"/>
-      <c r="G16" s="209" t="s">
+      <c r="F16" s="147"/>
+      <c r="G16" s="200" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="142" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="217"/>
+    <row r="17" spans="1:10" s="139" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="208"/>
       <c r="B17" s="89"/>
       <c r="C17" s="137"/>
       <c r="D17" s="137"/>
       <c r="E17" s="137"/>
-      <c r="F17" s="152"/>
-      <c r="G17" s="210"/>
+      <c r="F17" s="148"/>
+      <c r="G17" s="201"/>
       <c r="H17" s="109"/>
     </row>
     <row r="18" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -8946,10 +8959,10 @@
         <v>40</v>
       </c>
       <c r="E18" s="136"/>
-      <c r="F18" s="150">
+      <c r="F18" s="146">
         <v>20000</v>
       </c>
-      <c r="G18" s="209"/>
+      <c r="G18" s="200"/>
     </row>
     <row r="19" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="81"/>
@@ -8962,19 +8975,19 @@
       <c r="E19" s="136">
         <v>6000</v>
       </c>
-      <c r="F19" s="151"/>
-      <c r="G19" s="209" t="s">
+      <c r="F19" s="147"/>
+      <c r="G19" s="200" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="142" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="217"/>
+    <row r="20" spans="1:10" s="139" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="208"/>
       <c r="B20" s="90"/>
       <c r="C20" s="137"/>
       <c r="D20" s="137"/>
       <c r="E20" s="137"/>
-      <c r="F20" s="152"/>
-      <c r="G20" s="210"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="201"/>
       <c r="H20" s="109"/>
     </row>
     <row r="21" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -8988,11 +9001,11 @@
         <v>40</v>
       </c>
       <c r="E21" s="136"/>
-      <c r="F21" s="150">
+      <c r="F21" s="146">
         <v>70000</v>
       </c>
-      <c r="G21" s="209" t="s">
-        <v>335</v>
+      <c r="G21" s="200" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9004,8 +9017,8 @@
       <c r="E22" s="136">
         <v>12000</v>
       </c>
-      <c r="F22" s="151"/>
-      <c r="G22" s="211" t="s">
+      <c r="F22" s="147"/>
+      <c r="G22" s="202" t="s">
         <v>227</v>
       </c>
     </row>
@@ -9020,19 +9033,19 @@
       <c r="E23" s="136">
         <v>20000</v>
       </c>
-      <c r="F23" s="151"/>
-      <c r="G23" s="209" t="s">
+      <c r="F23" s="147"/>
+      <c r="G23" s="200" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="142" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="217"/>
+    <row r="24" spans="1:10" s="139" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="208"/>
       <c r="B24" s="90"/>
       <c r="C24" s="137"/>
       <c r="D24" s="137"/>
       <c r="E24" s="137"/>
-      <c r="F24" s="152"/>
-      <c r="G24" s="210"/>
+      <c r="F24" s="148"/>
+      <c r="G24" s="201"/>
       <c r="H24" s="109"/>
     </row>
     <row r="25" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9046,23 +9059,23 @@
       <c r="E25" s="136">
         <v>86520</v>
       </c>
-      <c r="F25" s="151"/>
-      <c r="G25" s="209" t="s">
+      <c r="F25" s="147"/>
+      <c r="G25" s="200" t="s">
         <v>228</v>
       </c>
-      <c r="J25" s="143"/>
+      <c r="J25" s="140"/>
     </row>
     <row r="26" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="81"/>
       <c r="C26" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="216"/>
-      <c r="E26" s="215">
+      <c r="D26" s="207"/>
+      <c r="E26" s="206">
         <v>2000</v>
       </c>
-      <c r="F26" s="151"/>
-      <c r="G26" s="209" t="s">
+      <c r="F26" s="147"/>
+      <c r="G26" s="200" t="s">
         <v>45</v>
       </c>
     </row>
@@ -9075,8 +9088,8 @@
       <c r="E27" s="136">
         <v>1800</v>
       </c>
-      <c r="F27" s="151"/>
-      <c r="G27" s="211" t="s">
+      <c r="F27" s="147"/>
+      <c r="G27" s="202" t="s">
         <v>229</v>
       </c>
     </row>
@@ -9089,8 +9102,8 @@
       <c r="E28" s="136">
         <v>12700</v>
       </c>
-      <c r="F28" s="151"/>
-      <c r="G28" s="211" t="s">
+      <c r="F28" s="147"/>
+      <c r="G28" s="202" t="s">
         <v>229</v>
       </c>
     </row>
@@ -9103,8 +9116,8 @@
       <c r="E29" s="136">
         <v>1520</v>
       </c>
-      <c r="F29" s="151"/>
-      <c r="G29" s="209" t="s">
+      <c r="F29" s="147"/>
+      <c r="G29" s="200" t="s">
         <v>230</v>
       </c>
     </row>
@@ -9119,8 +9132,8 @@
       <c r="E30" s="136">
         <v>15000</v>
       </c>
-      <c r="F30" s="151"/>
-      <c r="G30" s="209" t="s">
+      <c r="F30" s="147"/>
+      <c r="G30" s="200" t="s">
         <v>48</v>
       </c>
     </row>
@@ -9128,9 +9141,9 @@
       <c r="B31" s="90"/>
       <c r="C31" s="137"/>
       <c r="D31" s="137"/>
-      <c r="E31" s="144"/>
-      <c r="F31" s="152"/>
-      <c r="G31" s="210"/>
+      <c r="E31" s="141"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="201"/>
     </row>
     <row r="32" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="81">
@@ -9143,8 +9156,8 @@
       <c r="E32" s="136">
         <v>1000</v>
       </c>
-      <c r="F32" s="151"/>
-      <c r="G32" s="209" t="s">
+      <c r="F32" s="147"/>
+      <c r="G32" s="200" t="s">
         <v>84</v>
       </c>
     </row>
@@ -9159,19 +9172,19 @@
       <c r="E33" s="136">
         <v>2000</v>
       </c>
-      <c r="F33" s="153"/>
-      <c r="G33" s="209" t="s">
+      <c r="F33" s="149"/>
+      <c r="G33" s="200" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="142" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="217"/>
+    <row r="34" spans="1:9" s="139" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="208"/>
       <c r="B34" s="90"/>
       <c r="C34" s="137"/>
       <c r="D34" s="137"/>
       <c r="E34" s="137"/>
-      <c r="F34" s="152"/>
-      <c r="G34" s="210"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="201"/>
       <c r="H34" s="109"/>
     </row>
     <row r="35" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9185,10 +9198,10 @@
         <v>52</v>
       </c>
       <c r="E35" s="136"/>
-      <c r="F35" s="150">
+      <c r="F35" s="146">
         <v>100000</v>
       </c>
-      <c r="G35" s="209"/>
+      <c r="G35" s="200"/>
     </row>
     <row r="36" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="82"/>
@@ -9199,11 +9212,11 @@
       <c r="E36" s="136">
         <v>44000</v>
       </c>
-      <c r="F36" s="153"/>
-      <c r="G36" s="209" t="s">
+      <c r="F36" s="149"/>
+      <c r="G36" s="200" t="s">
         <v>89</v>
       </c>
-      <c r="I36" s="146"/>
+      <c r="I36" s="143"/>
     </row>
     <row r="37" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="82"/>
@@ -9213,14 +9226,14 @@
       <c r="D37" s="136" t="s">
         <v>90</v>
       </c>
-      <c r="E37" s="145">
+      <c r="E37" s="142">
         <v>13000</v>
       </c>
-      <c r="F37" s="153"/>
-      <c r="G37" s="209" t="s">
+      <c r="F37" s="149"/>
+      <c r="G37" s="200" t="s">
         <v>91</v>
       </c>
-      <c r="I37" s="146"/>
+      <c r="I37" s="143"/>
     </row>
     <row r="38" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="82"/>
@@ -9228,11 +9241,11 @@
         <v>41</v>
       </c>
       <c r="D38" s="136"/>
-      <c r="E38" s="145">
+      <c r="E38" s="142">
         <v>5800</v>
       </c>
-      <c r="F38" s="154"/>
-      <c r="G38" s="209" t="s">
+      <c r="F38" s="150"/>
+      <c r="G38" s="200" t="s">
         <v>220</v>
       </c>
     </row>
@@ -9242,11 +9255,11 @@
         <v>41</v>
       </c>
       <c r="D39" s="136"/>
-      <c r="E39" s="145">
+      <c r="E39" s="142">
         <v>5600</v>
       </c>
-      <c r="F39" s="155"/>
-      <c r="G39" s="209" t="s">
+      <c r="F39" s="151"/>
+      <c r="G39" s="200" t="s">
         <v>231</v>
       </c>
     </row>
@@ -9256,18 +9269,18 @@
         <v>41</v>
       </c>
       <c r="D40" s="136"/>
-      <c r="E40" s="145">
+      <c r="E40" s="142">
         <v>6000</v>
       </c>
-      <c r="F40" s="153"/>
-      <c r="G40" s="209" t="s">
+      <c r="F40" s="149"/>
+      <c r="G40" s="200" t="s">
         <v>232</v>
       </c>
       <c r="H40" s="132"/>
-      <c r="I40" s="146"/>
+      <c r="I40" s="143"/>
     </row>
     <row r="41" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="218"/>
+      <c r="A41" s="209"/>
       <c r="B41" s="82"/>
       <c r="C41" s="136" t="s">
         <v>44</v>
@@ -9275,59 +9288,59 @@
       <c r="D41" s="136" t="s">
         <v>92</v>
       </c>
-      <c r="E41" s="145">
+      <c r="E41" s="142">
         <v>2000</v>
       </c>
-      <c r="F41" s="153"/>
-      <c r="G41" s="209" t="s">
+      <c r="F41" s="149"/>
+      <c r="G41" s="200" t="s">
         <v>233</v>
       </c>
-      <c r="I41" s="146"/>
+      <c r="I41" s="143"/>
     </row>
     <row r="42" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="219"/>
+      <c r="A42" s="210"/>
       <c r="B42" s="82"/>
       <c r="C42" s="136" t="s">
         <v>41</v>
       </c>
       <c r="D42" s="136"/>
-      <c r="E42" s="145">
+      <c r="E42" s="142">
         <v>9000</v>
       </c>
-      <c r="F42" s="153"/>
-      <c r="G42" s="209" t="s">
+      <c r="F42" s="149"/>
+      <c r="G42" s="200" t="s">
         <v>93</v>
       </c>
-      <c r="I42" s="146"/>
+      <c r="I42" s="143"/>
     </row>
     <row r="43" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="219"/>
+      <c r="A43" s="210"/>
       <c r="B43" s="82"/>
       <c r="C43" s="136" t="s">
         <v>41</v>
       </c>
       <c r="D43" s="136"/>
-      <c r="E43" s="145">
+      <c r="E43" s="142">
         <v>960</v>
       </c>
-      <c r="F43" s="153"/>
-      <c r="G43" s="209" t="s">
-        <v>337</v>
-      </c>
-      <c r="I43" s="146"/>
-    </row>
-    <row r="44" spans="1:9" s="142" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="219"/>
+      <c r="F43" s="149"/>
+      <c r="G43" s="200" t="s">
+        <v>335</v>
+      </c>
+      <c r="I43" s="143"/>
+    </row>
+    <row r="44" spans="1:9" s="139" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="210"/>
       <c r="B44" s="90"/>
       <c r="C44" s="137"/>
       <c r="D44" s="137"/>
       <c r="E44" s="137"/>
-      <c r="F44" s="152"/>
-      <c r="G44" s="210"/>
+      <c r="F44" s="148"/>
+      <c r="G44" s="201"/>
       <c r="H44" s="109"/>
     </row>
     <row r="45" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="219"/>
+      <c r="A45" s="210"/>
       <c r="B45" s="82">
         <v>44769</v>
       </c>
@@ -9335,26 +9348,26 @@
         <v>94</v>
       </c>
       <c r="D45" s="136"/>
-      <c r="E45" s="145">
+      <c r="E45" s="142">
         <v>240</v>
       </c>
-      <c r="F45" s="153"/>
-      <c r="G45" s="209" t="s">
+      <c r="F45" s="149"/>
+      <c r="G45" s="200" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="142" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="219"/>
+    <row r="46" spans="1:9" s="139" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="210"/>
       <c r="B46" s="90"/>
       <c r="C46" s="137"/>
-      <c r="D46" s="147"/>
-      <c r="E46" s="147"/>
-      <c r="F46" s="152"/>
-      <c r="G46" s="210"/>
+      <c r="D46" s="144"/>
+      <c r="E46" s="144"/>
+      <c r="F46" s="148"/>
+      <c r="G46" s="201"/>
       <c r="H46" s="109"/>
     </row>
     <row r="47" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="219"/>
+      <c r="A47" s="210"/>
       <c r="B47" s="82">
         <v>44770</v>
       </c>
@@ -9362,26 +9375,26 @@
         <v>94</v>
       </c>
       <c r="D47" s="136"/>
-      <c r="E47" s="145">
+      <c r="E47" s="142">
         <v>960</v>
       </c>
-      <c r="F47" s="153"/>
-      <c r="G47" s="209" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" s="142" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="219"/>
+      <c r="F47" s="149"/>
+      <c r="G47" s="200" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="139" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="210"/>
       <c r="B48" s="90"/>
       <c r="C48" s="137"/>
       <c r="D48" s="137"/>
       <c r="E48" s="137"/>
-      <c r="F48" s="152"/>
-      <c r="G48" s="210"/>
+      <c r="F48" s="148"/>
+      <c r="G48" s="201"/>
       <c r="H48" s="109"/>
     </row>
     <row r="49" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="219"/>
+      <c r="A49" s="210"/>
       <c r="B49" s="82">
         <v>44771</v>
       </c>
@@ -9389,26 +9402,26 @@
         <v>41</v>
       </c>
       <c r="D49" s="136"/>
-      <c r="E49" s="145">
+      <c r="E49" s="142">
         <v>240</v>
       </c>
-      <c r="F49" s="153"/>
-      <c r="G49" s="209" t="s">
+      <c r="F49" s="149"/>
+      <c r="G49" s="200" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="142" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="219"/>
+    <row r="50" spans="1:9" s="139" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="210"/>
       <c r="B50" s="90"/>
       <c r="C50" s="137"/>
       <c r="D50" s="137"/>
       <c r="E50" s="137"/>
-      <c r="F50" s="152"/>
-      <c r="G50" s="210"/>
+      <c r="F50" s="148"/>
+      <c r="G50" s="201"/>
       <c r="H50" s="109"/>
     </row>
     <row r="51" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="219"/>
+      <c r="A51" s="210"/>
       <c r="B51" s="82">
         <v>44772</v>
       </c>
@@ -9418,91 +9431,91 @@
       <c r="D51" s="136" t="s">
         <v>40</v>
       </c>
-      <c r="E51" s="145"/>
-      <c r="F51" s="150">
+      <c r="E51" s="142"/>
+      <c r="F51" s="146">
         <v>20000</v>
       </c>
-      <c r="G51" s="209" t="s">
+      <c r="G51" s="200" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="219"/>
+      <c r="A52" s="210"/>
       <c r="B52" s="82"/>
       <c r="C52" s="136" t="s">
         <v>41</v>
       </c>
       <c r="D52" s="136"/>
-      <c r="E52" s="145">
+      <c r="E52" s="142">
         <v>19800</v>
       </c>
-      <c r="F52" s="153"/>
-      <c r="G52" s="209" t="s">
+      <c r="F52" s="149"/>
+      <c r="G52" s="200" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="219"/>
+      <c r="A53" s="210"/>
       <c r="B53" s="82"/>
       <c r="C53" s="136" t="s">
         <v>41</v>
       </c>
       <c r="D53" s="136"/>
-      <c r="E53" s="145">
+      <c r="E53" s="142">
         <v>280</v>
       </c>
-      <c r="F53" s="153"/>
-      <c r="G53" s="209" t="s">
+      <c r="F53" s="149"/>
+      <c r="G53" s="200" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="219"/>
+      <c r="A54" s="210"/>
       <c r="B54" s="82"/>
       <c r="C54" s="136" t="s">
         <v>41</v>
       </c>
       <c r="D54" s="136"/>
-      <c r="E54" s="145">
+      <c r="E54" s="142">
         <v>5950</v>
       </c>
-      <c r="F54" s="153"/>
-      <c r="G54" s="211" t="s">
+      <c r="F54" s="149"/>
+      <c r="G54" s="202" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="219"/>
+      <c r="A55" s="210"/>
       <c r="B55" s="82"/>
       <c r="C55" s="136" t="s">
         <v>44</v>
       </c>
       <c r="D55" s="136"/>
-      <c r="E55" s="145">
+      <c r="E55" s="142">
         <v>1000</v>
       </c>
-      <c r="F55" s="153"/>
-      <c r="G55" s="211" t="s">
+      <c r="F55" s="149"/>
+      <c r="G55" s="202" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="219"/>
+      <c r="A56" s="210"/>
       <c r="B56" s="82"/>
       <c r="C56" s="136" t="s">
         <v>41</v>
       </c>
       <c r="D56" s="136"/>
-      <c r="E56" s="145">
+      <c r="E56" s="142">
         <v>960</v>
       </c>
-      <c r="F56" s="153"/>
-      <c r="G56" s="212" t="s">
+      <c r="F56" s="149"/>
+      <c r="G56" s="203" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="219"/>
+      <c r="A57" s="210"/>
       <c r="B57" s="82"/>
       <c r="C57" s="136" t="s">
         <v>41</v>
@@ -9510,11 +9523,11 @@
       <c r="D57" s="136" t="s">
         <v>118</v>
       </c>
-      <c r="E57" s="145">
+      <c r="E57" s="142">
         <v>2000</v>
       </c>
-      <c r="F57" s="153"/>
-      <c r="G57" s="211" t="s">
+      <c r="F57" s="149"/>
+      <c r="G57" s="202" t="s">
         <v>119</v>
       </c>
       <c r="I57" s="46">
@@ -9523,26 +9536,26 @@
       </c>
     </row>
     <row r="58" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="219"/>
+      <c r="A58" s="210"/>
       <c r="B58" s="82"/>
       <c r="C58" s="136"/>
       <c r="D58" s="136"/>
-      <c r="E58" s="145"/>
-      <c r="F58" s="153"/>
-      <c r="G58" s="209"/>
-    </row>
-    <row r="59" spans="1:9" s="142" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="219"/>
+      <c r="E58" s="142"/>
+      <c r="F58" s="149"/>
+      <c r="G58" s="200"/>
+    </row>
+    <row r="59" spans="1:9" s="139" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="210"/>
       <c r="B59" s="90"/>
       <c r="C59" s="137"/>
       <c r="D59" s="137"/>
       <c r="E59" s="137"/>
-      <c r="F59" s="152"/>
-      <c r="G59" s="210"/>
+      <c r="F59" s="148"/>
+      <c r="G59" s="201"/>
       <c r="H59" s="109"/>
     </row>
     <row r="60" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="219"/>
+      <c r="A60" s="210"/>
       <c r="B60" s="82">
         <v>44773</v>
       </c>
@@ -9550,16 +9563,16 @@
         <v>41</v>
       </c>
       <c r="D60" s="136"/>
-      <c r="E60" s="145">
+      <c r="E60" s="142">
         <v>960</v>
       </c>
-      <c r="F60" s="153"/>
-      <c r="G60" s="209" t="s">
+      <c r="F60" s="149"/>
+      <c r="G60" s="200" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="219"/>
+      <c r="A61" s="210"/>
       <c r="B61" s="82"/>
       <c r="C61" s="136" t="s">
         <v>39</v>
@@ -9567,16 +9580,16 @@
       <c r="D61" s="136" t="s">
         <v>40</v>
       </c>
-      <c r="E61" s="145"/>
-      <c r="F61" s="150">
+      <c r="E61" s="142"/>
+      <c r="F61" s="146">
         <v>50000</v>
       </c>
-      <c r="G61" s="209" t="s">
+      <c r="G61" s="200" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="219"/>
+      <c r="A62" s="210"/>
       <c r="B62" s="82"/>
       <c r="C62" s="136" t="s">
         <v>71</v>
@@ -9584,11 +9597,11 @@
       <c r="D62" s="136" t="s">
         <v>203</v>
       </c>
-      <c r="E62" s="145">
+      <c r="E62" s="142">
         <v>23000</v>
       </c>
-      <c r="F62" s="153"/>
-      <c r="G62" s="209" t="s">
+      <c r="F62" s="149"/>
+      <c r="G62" s="200" t="s">
         <v>167</v>
       </c>
       <c r="I62" s="46">
@@ -9597,7 +9610,7 @@
       </c>
     </row>
     <row r="63" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="219"/>
+      <c r="A63" s="210"/>
       <c r="B63" s="82"/>
       <c r="C63" s="136" t="s">
         <v>41</v>
@@ -9605,40 +9618,40 @@
       <c r="D63" s="136" t="s">
         <v>234</v>
       </c>
-      <c r="E63" s="145">
+      <c r="E63" s="142">
         <v>1000</v>
       </c>
-      <c r="F63" s="153"/>
-      <c r="G63" s="209" t="s">
+      <c r="F63" s="149"/>
+      <c r="G63" s="200" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="219"/>
+      <c r="A64" s="210"/>
       <c r="B64" s="82"/>
       <c r="C64" s="136" t="s">
         <v>41</v>
       </c>
       <c r="D64" s="136"/>
-      <c r="E64" s="145">
+      <c r="E64" s="142">
         <v>500</v>
       </c>
-      <c r="F64" s="153"/>
-      <c r="G64" s="211" t="s">
-        <v>336</v>
+      <c r="F64" s="149"/>
+      <c r="G64" s="202" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="219"/>
-      <c r="B65" s="288"/>
-      <c r="C65" s="289"/>
-      <c r="D65" s="289"/>
-      <c r="E65" s="289"/>
-      <c r="F65" s="290"/>
-      <c r="G65" s="291"/>
+      <c r="A65" s="210"/>
+      <c r="B65" s="226"/>
+      <c r="C65" s="227"/>
+      <c r="D65" s="227"/>
+      <c r="E65" s="227"/>
+      <c r="F65" s="228"/>
+      <c r="G65" s="229"/>
     </row>
     <row r="66" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="219"/>
+      <c r="A66" s="210"/>
       <c r="B66" s="82">
         <v>44774</v>
       </c>
@@ -9646,26 +9659,26 @@
         <v>94</v>
       </c>
       <c r="D66" s="136"/>
-      <c r="E66" s="145">
+      <c r="E66" s="142">
         <v>720</v>
       </c>
-      <c r="F66" s="153"/>
-      <c r="G66" s="209" t="s">
+      <c r="F66" s="149"/>
+      <c r="G66" s="200" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="219"/>
+      <c r="A67" s="210"/>
       <c r="B67" s="82"/>
       <c r="C67" s="136" t="s">
         <v>94</v>
       </c>
       <c r="D67" s="136"/>
-      <c r="E67" s="145">
+      <c r="E67" s="142">
         <v>18000</v>
       </c>
-      <c r="F67" s="153"/>
-      <c r="G67" s="209" t="s">
+      <c r="F67" s="149"/>
+      <c r="G67" s="200" t="s">
         <v>236</v>
       </c>
       <c r="H67" s="107" t="s">
@@ -9673,16 +9686,16 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="219"/>
-      <c r="B68" s="288"/>
-      <c r="C68" s="289"/>
-      <c r="D68" s="289"/>
-      <c r="E68" s="289"/>
-      <c r="F68" s="290"/>
-      <c r="G68" s="291"/>
+      <c r="A68" s="210"/>
+      <c r="B68" s="226"/>
+      <c r="C68" s="227"/>
+      <c r="D68" s="227"/>
+      <c r="E68" s="227"/>
+      <c r="F68" s="228"/>
+      <c r="G68" s="229"/>
     </row>
     <row r="69" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="219"/>
+      <c r="A69" s="210"/>
       <c r="B69" s="82">
         <v>44775</v>
       </c>
@@ -9692,93 +9705,93 @@
       <c r="D69" s="136" t="s">
         <v>40</v>
       </c>
-      <c r="E69" s="145"/>
-      <c r="F69" s="150">
+      <c r="E69" s="142"/>
+      <c r="F69" s="146">
         <v>50000</v>
       </c>
-      <c r="G69" s="209" t="s">
-        <v>338</v>
+      <c r="G69" s="200" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="219"/>
+      <c r="A70" s="210"/>
       <c r="B70" s="82"/>
       <c r="C70" s="136" t="s">
         <v>41</v>
       </c>
       <c r="D70" s="136"/>
-      <c r="E70" s="145">
+      <c r="E70" s="142">
         <v>6000</v>
       </c>
-      <c r="F70" s="153"/>
-      <c r="G70" s="209" t="s">
+      <c r="F70" s="149"/>
+      <c r="G70" s="200" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="219"/>
+      <c r="A71" s="210"/>
       <c r="B71" s="82"/>
       <c r="C71" s="136" t="s">
         <v>41</v>
       </c>
       <c r="D71" s="136"/>
-      <c r="E71" s="145">
+      <c r="E71" s="142">
         <v>11500</v>
       </c>
-      <c r="F71" s="153"/>
-      <c r="G71" s="211" t="s">
+      <c r="F71" s="149"/>
+      <c r="G71" s="202" t="s">
         <v>171</v>
       </c>
       <c r="H71" s="132"/>
     </row>
     <row r="72" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="219"/>
+      <c r="A72" s="210"/>
       <c r="B72" s="82"/>
       <c r="C72" s="136" t="s">
         <v>41</v>
       </c>
       <c r="D72" s="136"/>
-      <c r="E72" s="145">
+      <c r="E72" s="142">
         <v>600</v>
       </c>
-      <c r="F72" s="153"/>
-      <c r="G72" s="209" t="s">
+      <c r="F72" s="149"/>
+      <c r="G72" s="200" t="s">
         <v>254</v>
       </c>
       <c r="H72" s="132"/>
     </row>
     <row r="73" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="219"/>
+      <c r="A73" s="210"/>
       <c r="B73" s="82"/>
       <c r="C73" s="136" t="s">
         <v>41</v>
       </c>
       <c r="D73" s="136"/>
-      <c r="E73" s="145">
+      <c r="E73" s="142">
         <v>1800</v>
       </c>
-      <c r="F73" s="153"/>
-      <c r="G73" s="211" t="s">
+      <c r="F73" s="149"/>
+      <c r="G73" s="202" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="219"/>
+      <c r="A74" s="210"/>
       <c r="B74" s="82"/>
       <c r="C74" s="136" t="s">
         <v>41</v>
       </c>
       <c r="D74" s="136"/>
-      <c r="E74" s="145">
+      <c r="E74" s="142">
         <v>1500</v>
       </c>
-      <c r="F74" s="153"/>
-      <c r="G74" s="211" t="s">
+      <c r="F74" s="149"/>
+      <c r="G74" s="202" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="219"/>
+      <c r="A75" s="210"/>
       <c r="B75" s="82"/>
       <c r="C75" s="136" t="s">
         <v>47</v>
@@ -9786,25 +9799,25 @@
       <c r="D75" s="136" t="s">
         <v>173</v>
       </c>
-      <c r="E75" s="145">
+      <c r="E75" s="142">
         <v>1000</v>
       </c>
-      <c r="F75" s="153"/>
-      <c r="G75" s="209" t="s">
+      <c r="F75" s="149"/>
+      <c r="G75" s="200" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="219"/>
-      <c r="B76" s="288"/>
-      <c r="C76" s="289"/>
-      <c r="D76" s="289"/>
-      <c r="E76" s="289"/>
-      <c r="F76" s="290"/>
-      <c r="G76" s="291"/>
+      <c r="A76" s="210"/>
+      <c r="B76" s="226"/>
+      <c r="C76" s="227"/>
+      <c r="D76" s="227"/>
+      <c r="E76" s="227"/>
+      <c r="F76" s="228"/>
+      <c r="G76" s="229"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="219"/>
+      <c r="A77" s="210"/>
       <c r="B77" s="82">
         <v>44776</v>
       </c>
@@ -9812,11 +9825,11 @@
         <v>41</v>
       </c>
       <c r="D77" s="136"/>
-      <c r="E77" s="145">
+      <c r="E77" s="142">
         <v>360</v>
       </c>
-      <c r="F77" s="153"/>
-      <c r="G77" s="209" t="s">
+      <c r="F77" s="149"/>
+      <c r="G77" s="200" t="s">
         <v>254</v>
       </c>
       <c r="H77" s="107" t="s">
@@ -9824,16 +9837,16 @@
       </c>
     </row>
     <row r="78" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="219"/>
+      <c r="A78" s="210"/>
       <c r="B78" s="82"/>
       <c r="C78" s="136"/>
       <c r="D78" s="136"/>
-      <c r="E78" s="145"/>
-      <c r="F78" s="153"/>
-      <c r="G78" s="209"/>
+      <c r="E78" s="142"/>
+      <c r="F78" s="149"/>
+      <c r="G78" s="200"/>
     </row>
     <row r="79" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="219"/>
+      <c r="A79" s="210"/>
       <c r="B79" s="82">
         <v>44777</v>
       </c>
@@ -9841,16 +9854,16 @@
         <v>41</v>
       </c>
       <c r="D79" s="136"/>
-      <c r="E79" s="145">
+      <c r="E79" s="142">
         <v>44160</v>
       </c>
-      <c r="F79" s="153"/>
-      <c r="G79" s="209" t="s">
+      <c r="F79" s="149"/>
+      <c r="G79" s="200" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="219"/>
+      <c r="A80" s="210"/>
       <c r="B80" s="82"/>
       <c r="C80" s="136" t="s">
         <v>47</v>
@@ -9858,11 +9871,11 @@
       <c r="D80" s="136" t="s">
         <v>81</v>
       </c>
-      <c r="E80" s="145">
+      <c r="E80" s="142">
         <v>10000</v>
       </c>
-      <c r="F80" s="153"/>
-      <c r="G80" s="209" t="s">
+      <c r="F80" s="149"/>
+      <c r="G80" s="200" t="s">
         <v>177</v>
       </c>
       <c r="H80" s="107">
@@ -9871,17 +9884,17 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="219"/>
+      <c r="A81" s="210"/>
       <c r="B81" s="82"/>
       <c r="C81" s="136" t="s">
         <v>41</v>
       </c>
       <c r="D81" s="136"/>
-      <c r="E81" s="145">
+      <c r="E81" s="142">
         <v>600</v>
       </c>
-      <c r="F81" s="153"/>
-      <c r="G81" s="209" t="s">
+      <c r="F81" s="149"/>
+      <c r="G81" s="200" t="s">
         <v>254</v>
       </c>
       <c r="H81" s="107" t="s">
@@ -9889,16 +9902,16 @@
       </c>
     </row>
     <row r="82" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="219"/>
-      <c r="B82" s="288"/>
-      <c r="C82" s="289"/>
-      <c r="D82" s="289"/>
-      <c r="E82" s="289"/>
-      <c r="F82" s="290"/>
-      <c r="G82" s="291"/>
+      <c r="A82" s="210"/>
+      <c r="B82" s="226"/>
+      <c r="C82" s="227"/>
+      <c r="D82" s="227"/>
+      <c r="E82" s="227"/>
+      <c r="F82" s="228"/>
+      <c r="G82" s="229"/>
     </row>
     <row r="83" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="219"/>
+      <c r="A83" s="210"/>
       <c r="B83" s="82">
         <v>44779</v>
       </c>
@@ -9906,23 +9919,23 @@
         <v>180</v>
       </c>
       <c r="D83" s="136"/>
-      <c r="E83" s="145"/>
-      <c r="F83" s="153"/>
-      <c r="G83" s="209" t="s">
+      <c r="E83" s="142"/>
+      <c r="F83" s="149"/>
+      <c r="G83" s="200" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="219"/>
-      <c r="B84" s="288"/>
-      <c r="C84" s="289"/>
-      <c r="D84" s="289"/>
-      <c r="E84" s="289"/>
-      <c r="F84" s="290"/>
-      <c r="G84" s="291"/>
+      <c r="A84" s="210"/>
+      <c r="B84" s="226"/>
+      <c r="C84" s="227"/>
+      <c r="D84" s="227"/>
+      <c r="E84" s="227"/>
+      <c r="F84" s="228"/>
+      <c r="G84" s="229"/>
     </row>
     <row r="85" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="219"/>
+      <c r="A85" s="210"/>
       <c r="B85" s="82">
         <v>44780</v>
       </c>
@@ -9930,11 +9943,11 @@
         <v>41</v>
       </c>
       <c r="D85" s="136"/>
-      <c r="E85" s="145">
+      <c r="E85" s="142">
         <v>1200</v>
       </c>
-      <c r="F85" s="153"/>
-      <c r="G85" s="209" t="s">
+      <c r="F85" s="149"/>
+      <c r="G85" s="200" t="s">
         <v>254</v>
       </c>
       <c r="H85" s="107" t="s">
@@ -9942,16 +9955,16 @@
       </c>
     </row>
     <row r="86" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="219"/>
-      <c r="B86" s="288"/>
-      <c r="C86" s="289"/>
-      <c r="D86" s="289"/>
-      <c r="E86" s="289"/>
-      <c r="F86" s="290"/>
-      <c r="G86" s="291"/>
+      <c r="A86" s="210"/>
+      <c r="B86" s="226"/>
+      <c r="C86" s="227"/>
+      <c r="D86" s="227"/>
+      <c r="E86" s="227"/>
+      <c r="F86" s="228"/>
+      <c r="G86" s="229"/>
     </row>
     <row r="87" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="219"/>
+      <c r="A87" s="210"/>
       <c r="B87" s="82">
         <v>44781</v>
       </c>
@@ -9959,11 +9972,11 @@
         <v>41</v>
       </c>
       <c r="D87" s="136"/>
-      <c r="E87" s="145">
+      <c r="E87" s="142">
         <v>720</v>
       </c>
-      <c r="F87" s="153"/>
-      <c r="G87" s="209" t="s">
+      <c r="F87" s="149"/>
+      <c r="G87" s="200" t="s">
         <v>254</v>
       </c>
       <c r="H87" s="107" t="s">
@@ -9975,34 +9988,34 @@
       </c>
     </row>
     <row r="88" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="219"/>
+      <c r="A88" s="210"/>
       <c r="B88" s="82"/>
       <c r="C88" s="136" t="s">
         <v>41</v>
       </c>
       <c r="D88" s="136"/>
-      <c r="E88" s="145">
+      <c r="E88" s="142">
         <v>250</v>
       </c>
-      <c r="F88" s="153"/>
-      <c r="G88" s="211" t="s">
-        <v>339</v>
+      <c r="F88" s="149"/>
+      <c r="G88" s="202" t="s">
+        <v>337</v>
       </c>
       <c r="H88" s="107" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="219"/>
-      <c r="B89" s="288"/>
-      <c r="C89" s="289"/>
-      <c r="D89" s="289"/>
-      <c r="E89" s="289"/>
-      <c r="F89" s="290"/>
-      <c r="G89" s="291"/>
+      <c r="A89" s="210"/>
+      <c r="B89" s="226"/>
+      <c r="C89" s="227"/>
+      <c r="D89" s="227"/>
+      <c r="E89" s="227"/>
+      <c r="F89" s="228"/>
+      <c r="G89" s="229"/>
     </row>
     <row r="90" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="219"/>
+      <c r="A90" s="210"/>
       <c r="B90" s="82">
         <v>44782</v>
       </c>
@@ -10010,11 +10023,11 @@
         <v>41</v>
       </c>
       <c r="D90" s="136"/>
-      <c r="E90" s="145">
+      <c r="E90" s="142">
         <v>720</v>
       </c>
-      <c r="F90" s="153"/>
-      <c r="G90" s="209" t="s">
+      <c r="F90" s="149"/>
+      <c r="G90" s="200" t="s">
         <v>254</v>
       </c>
       <c r="H90" s="107" t="s">
@@ -10022,31 +10035,31 @@
       </c>
     </row>
     <row r="91" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="219"/>
+      <c r="A91" s="210"/>
       <c r="B91" s="82"/>
       <c r="C91" s="136" t="s">
         <v>44</v>
       </c>
       <c r="D91" s="136"/>
-      <c r="E91" s="145">
+      <c r="E91" s="142">
         <v>9000</v>
       </c>
-      <c r="F91" s="153"/>
-      <c r="G91" s="209" t="s">
+      <c r="F91" s="149"/>
+      <c r="G91" s="200" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="219"/>
-      <c r="B92" s="288"/>
-      <c r="C92" s="289"/>
-      <c r="D92" s="289"/>
-      <c r="E92" s="289"/>
-      <c r="F92" s="290"/>
-      <c r="G92" s="291"/>
+      <c r="A92" s="210"/>
+      <c r="B92" s="226"/>
+      <c r="C92" s="227"/>
+      <c r="D92" s="227"/>
+      <c r="E92" s="227"/>
+      <c r="F92" s="228"/>
+      <c r="G92" s="229"/>
     </row>
     <row r="93" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="219"/>
+      <c r="A93" s="210"/>
       <c r="B93" s="82">
         <v>44783</v>
       </c>
@@ -10054,55 +10067,55 @@
         <v>41</v>
       </c>
       <c r="D93" s="136"/>
-      <c r="E93" s="145">
+      <c r="E93" s="142">
         <v>420</v>
       </c>
-      <c r="F93" s="153"/>
-      <c r="G93" s="209" t="s">
+      <c r="F93" s="149"/>
+      <c r="G93" s="200" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="219"/>
+      <c r="A94" s="210"/>
       <c r="B94" s="82"/>
       <c r="C94" s="136" t="s">
         <v>41</v>
       </c>
       <c r="D94" s="136"/>
-      <c r="E94" s="145">
+      <c r="E94" s="142">
         <v>500</v>
       </c>
-      <c r="F94" s="153"/>
-      <c r="G94" s="209" t="s">
+      <c r="F94" s="149"/>
+      <c r="G94" s="200" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="219"/>
+      <c r="A95" s="210"/>
       <c r="B95" s="82"/>
       <c r="C95" s="136" t="s">
         <v>41</v>
       </c>
       <c r="D95" s="136"/>
-      <c r="E95" s="145">
+      <c r="E95" s="142">
         <v>1000</v>
       </c>
-      <c r="F95" s="153"/>
-      <c r="G95" s="209" t="s">
+      <c r="F95" s="149"/>
+      <c r="G95" s="200" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="219"/>
-      <c r="B96" s="288"/>
-      <c r="C96" s="289"/>
-      <c r="D96" s="289"/>
-      <c r="E96" s="289"/>
-      <c r="F96" s="290"/>
-      <c r="G96" s="291"/>
+      <c r="A96" s="210"/>
+      <c r="B96" s="226"/>
+      <c r="C96" s="227"/>
+      <c r="D96" s="227"/>
+      <c r="E96" s="227"/>
+      <c r="F96" s="228"/>
+      <c r="G96" s="229"/>
     </row>
     <row r="97" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="219"/>
+      <c r="A97" s="210"/>
       <c r="B97" s="82">
         <v>44784</v>
       </c>
@@ -10110,133 +10123,133 @@
         <v>41</v>
       </c>
       <c r="D97" s="136"/>
-      <c r="E97" s="145">
+      <c r="E97" s="142">
         <v>360</v>
       </c>
-      <c r="F97" s="153"/>
-      <c r="G97" s="209" t="s">
+      <c r="F97" s="149"/>
+      <c r="G97" s="200" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="219"/>
-      <c r="B98" s="288"/>
-      <c r="C98" s="292"/>
-      <c r="D98" s="292"/>
-      <c r="E98" s="293"/>
-      <c r="F98" s="294"/>
-      <c r="G98" s="295"/>
+      <c r="A98" s="210"/>
+      <c r="B98" s="226"/>
+      <c r="C98" s="227"/>
+      <c r="D98" s="227"/>
+      <c r="E98" s="227"/>
+      <c r="F98" s="228"/>
+      <c r="G98" s="229"/>
     </row>
     <row r="99" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="219"/>
+      <c r="A99" s="210"/>
       <c r="B99" s="82">
         <v>44786</v>
       </c>
-      <c r="C99" s="79" t="s">
+      <c r="C99" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="D99" s="79"/>
-      <c r="E99" s="148">
+      <c r="D99" s="136"/>
+      <c r="E99" s="142">
         <f>360+420</f>
         <v>780</v>
       </c>
-      <c r="F99" s="156"/>
-      <c r="G99" s="92" t="s">
+      <c r="F99" s="149"/>
+      <c r="G99" s="200" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="219"/>
-      <c r="B100" s="288"/>
-      <c r="C100" s="292"/>
-      <c r="D100" s="292"/>
-      <c r="E100" s="293"/>
-      <c r="F100" s="294"/>
-      <c r="G100" s="295"/>
+      <c r="A100" s="210"/>
+      <c r="B100" s="226"/>
+      <c r="C100" s="227"/>
+      <c r="D100" s="227"/>
+      <c r="E100" s="227"/>
+      <c r="F100" s="228"/>
+      <c r="G100" s="229"/>
     </row>
     <row r="101" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="219"/>
+      <c r="A101" s="210"/>
       <c r="B101" s="82">
         <v>44788</v>
       </c>
-      <c r="C101" s="79" t="s">
+      <c r="C101" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="D101" s="79"/>
-      <c r="E101" s="148">
+      <c r="D101" s="136"/>
+      <c r="E101" s="142">
         <v>480</v>
       </c>
-      <c r="F101" s="156"/>
-      <c r="G101" s="92" t="s">
+      <c r="F101" s="149"/>
+      <c r="G101" s="200" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="219"/>
+      <c r="A102" s="210"/>
       <c r="B102" s="82"/>
-      <c r="C102" s="79" t="s">
+      <c r="C102" s="136" t="s">
         <v>47</v>
       </c>
-      <c r="D102" s="79"/>
-      <c r="E102" s="148">
+      <c r="D102" s="136"/>
+      <c r="E102" s="142">
         <v>27500</v>
       </c>
-      <c r="F102" s="156"/>
-      <c r="G102" s="92" t="s">
+      <c r="F102" s="149"/>
+      <c r="G102" s="200" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="219"/>
+      <c r="A103" s="210"/>
       <c r="B103" s="82"/>
-      <c r="C103" s="79" t="s">
+      <c r="C103" s="136" t="s">
         <v>47</v>
       </c>
-      <c r="D103" s="79"/>
-      <c r="E103" s="148">
+      <c r="D103" s="136"/>
+      <c r="E103" s="142">
         <v>27800</v>
       </c>
-      <c r="F103" s="156"/>
-      <c r="G103" s="92" t="s">
+      <c r="F103" s="149"/>
+      <c r="G103" s="200" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="219"/>
-      <c r="B104" s="288"/>
-      <c r="C104" s="292"/>
-      <c r="D104" s="292"/>
-      <c r="E104" s="293"/>
-      <c r="F104" s="294"/>
-      <c r="G104" s="295"/>
+      <c r="A104" s="210"/>
+      <c r="B104" s="226"/>
+      <c r="C104" s="227"/>
+      <c r="D104" s="227"/>
+      <c r="E104" s="227"/>
+      <c r="F104" s="228"/>
+      <c r="G104" s="229"/>
     </row>
     <row r="105" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="219"/>
+      <c r="A105" s="210"/>
       <c r="B105" s="82">
         <v>44789</v>
       </c>
-      <c r="C105" s="79" t="s">
+      <c r="C105" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="D105" s="79"/>
-      <c r="E105" s="148">
+      <c r="D105" s="136"/>
+      <c r="E105" s="142">
         <v>7400</v>
       </c>
-      <c r="F105" s="156"/>
-      <c r="G105" s="92" t="s">
+      <c r="F105" s="149"/>
+      <c r="G105" s="200" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="219"/>
+      <c r="A106" s="210"/>
       <c r="B106" s="82"/>
-      <c r="C106" s="79"/>
-      <c r="D106" s="79"/>
-      <c r="E106" s="148">
+      <c r="C106" s="136"/>
+      <c r="D106" s="136"/>
+      <c r="E106" s="142">
         <v>420</v>
       </c>
-      <c r="F106" s="156"/>
-      <c r="G106" s="92" t="s">
+      <c r="F106" s="149"/>
+      <c r="G106" s="200" t="s">
         <v>254</v>
       </c>
       <c r="H106" s="107" t="s">
@@ -10244,119 +10257,119 @@
       </c>
     </row>
     <row r="107" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="219"/>
+      <c r="A107" s="210"/>
       <c r="B107" s="82"/>
-      <c r="C107" s="79" t="s">
+      <c r="C107" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="D107" s="79"/>
-      <c r="E107" s="148">
+      <c r="D107" s="136"/>
+      <c r="E107" s="142">
         <v>700</v>
       </c>
-      <c r="F107" s="156"/>
-      <c r="G107" s="92" t="s">
-        <v>340</v>
+      <c r="F107" s="149"/>
+      <c r="G107" s="200" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="219"/>
-      <c r="B108" s="288"/>
-      <c r="C108" s="292"/>
-      <c r="D108" s="292"/>
-      <c r="E108" s="293"/>
-      <c r="F108" s="294"/>
-      <c r="G108" s="295"/>
+      <c r="A108" s="210"/>
+      <c r="B108" s="226"/>
+      <c r="C108" s="227"/>
+      <c r="D108" s="227"/>
+      <c r="E108" s="227"/>
+      <c r="F108" s="228"/>
+      <c r="G108" s="229"/>
     </row>
     <row r="109" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="219"/>
+      <c r="A109" s="210"/>
       <c r="B109" s="82">
         <v>44790</v>
       </c>
-      <c r="C109" s="79" t="s">
+      <c r="C109" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="D109" s="79"/>
-      <c r="E109" s="148">
+      <c r="D109" s="136"/>
+      <c r="E109" s="142">
         <v>11000</v>
       </c>
-      <c r="F109" s="156"/>
-      <c r="G109" s="92" t="s">
+      <c r="F109" s="149"/>
+      <c r="G109" s="200" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="219"/>
+      <c r="A110" s="210"/>
       <c r="B110" s="82"/>
-      <c r="C110" s="79" t="s">
+      <c r="C110" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="D110" s="79"/>
-      <c r="E110" s="148">
+      <c r="D110" s="136"/>
+      <c r="E110" s="142">
         <v>2300</v>
       </c>
-      <c r="F110" s="156"/>
-      <c r="G110" s="92" t="s">
+      <c r="F110" s="149"/>
+      <c r="G110" s="200" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="219"/>
+    <row r="111" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="210"/>
       <c r="B111" s="82"/>
-      <c r="C111" s="79" t="s">
+      <c r="C111" s="136" t="s">
         <v>39</v>
       </c>
-      <c r="D111" s="79" t="s">
+      <c r="D111" s="136" t="s">
         <v>40</v>
       </c>
-      <c r="E111" s="148"/>
-      <c r="F111" s="158">
+      <c r="E111" s="142"/>
+      <c r="F111" s="146">
         <v>100000</v>
       </c>
-      <c r="G111" s="92" t="s">
+      <c r="G111" s="200" t="s">
         <v>250</v>
       </c>
-      <c r="H111" s="162" t="s">
+      <c r="H111" s="153" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="219"/>
+      <c r="A112" s="210"/>
       <c r="B112" s="82"/>
-      <c r="C112" s="79"/>
-      <c r="D112" s="79"/>
-      <c r="E112" s="148"/>
-      <c r="F112" s="156"/>
-      <c r="G112" s="92"/>
+      <c r="C112" s="136"/>
+      <c r="D112" s="136"/>
+      <c r="E112" s="142"/>
+      <c r="F112" s="149"/>
+      <c r="G112" s="200"/>
     </row>
     <row r="113" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="219"/>
+      <c r="A113" s="210"/>
       <c r="B113" s="82">
         <v>44791</v>
       </c>
-      <c r="C113" s="79" t="s">
+      <c r="C113" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="D113" s="79"/>
-      <c r="E113" s="148">
+      <c r="D113" s="136"/>
+      <c r="E113" s="142">
         <v>500</v>
       </c>
-      <c r="F113" s="156"/>
-      <c r="G113" s="92" t="s">
+      <c r="F113" s="149"/>
+      <c r="G113" s="200" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="219"/>
+      <c r="A114" s="210"/>
       <c r="B114" s="82"/>
-      <c r="C114" s="79" t="s">
+      <c r="C114" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="D114" s="79"/>
-      <c r="E114" s="148">
+      <c r="D114" s="136"/>
+      <c r="E114" s="142">
         <v>480</v>
       </c>
-      <c r="F114" s="156"/>
-      <c r="G114" s="92" t="s">
+      <c r="F114" s="149"/>
+      <c r="G114" s="200" t="s">
         <v>265</v>
       </c>
       <c r="H114" s="107" t="s">
@@ -10364,58 +10377,58 @@
       </c>
     </row>
     <row r="115" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="219"/>
+      <c r="A115" s="210"/>
       <c r="B115" s="82"/>
-      <c r="C115" s="79" t="s">
+      <c r="C115" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="D115" s="79"/>
-      <c r="E115" s="148">
+      <c r="D115" s="136"/>
+      <c r="E115" s="142">
         <v>2000</v>
       </c>
-      <c r="F115" s="156"/>
-      <c r="G115" s="92" t="s">
+      <c r="F115" s="149"/>
+      <c r="G115" s="200" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="219"/>
+      <c r="A116" s="210"/>
       <c r="B116" s="82"/>
-      <c r="C116" s="79" t="s">
+      <c r="C116" s="136" t="s">
         <v>47</v>
       </c>
-      <c r="D116" s="79"/>
-      <c r="E116" s="148">
+      <c r="D116" s="136"/>
+      <c r="E116" s="142">
         <v>6000</v>
       </c>
-      <c r="F116" s="156"/>
-      <c r="G116" s="92" t="s">
+      <c r="F116" s="149"/>
+      <c r="G116" s="200" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="219"/>
-      <c r="B117" s="288"/>
-      <c r="C117" s="292"/>
-      <c r="D117" s="292"/>
-      <c r="E117" s="293"/>
-      <c r="F117" s="294"/>
-      <c r="G117" s="295"/>
+      <c r="A117" s="210"/>
+      <c r="B117" s="226"/>
+      <c r="C117" s="227"/>
+      <c r="D117" s="227"/>
+      <c r="E117" s="227"/>
+      <c r="F117" s="228"/>
+      <c r="G117" s="229"/>
     </row>
     <row r="118" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="219"/>
+      <c r="A118" s="210"/>
       <c r="B118" s="82">
         <v>44793</v>
       </c>
-      <c r="C118" s="79" t="s">
+      <c r="C118" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="D118" s="79"/>
-      <c r="E118" s="148">
+      <c r="D118" s="136"/>
+      <c r="E118" s="142">
         <v>10300</v>
       </c>
-      <c r="F118" s="156"/>
-      <c r="G118" s="92" t="s">
+      <c r="F118" s="149"/>
+      <c r="G118" s="200" t="s">
         <v>263</v>
       </c>
       <c r="H118" s="107" t="s">
@@ -10423,17 +10436,17 @@
       </c>
     </row>
     <row r="119" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="219"/>
+      <c r="A119" s="210"/>
       <c r="B119" s="82"/>
-      <c r="C119" s="79" t="s">
+      <c r="C119" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="D119" s="79"/>
-      <c r="E119" s="148">
+      <c r="D119" s="136"/>
+      <c r="E119" s="142">
         <v>12300</v>
       </c>
-      <c r="F119" s="156"/>
-      <c r="G119" s="92" t="s">
+      <c r="F119" s="149"/>
+      <c r="G119" s="200" t="s">
         <v>262</v>
       </c>
       <c r="H119" s="107" t="s">
@@ -10445,100 +10458,100 @@
       </c>
     </row>
     <row r="120" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="219"/>
-      <c r="B120" s="288"/>
-      <c r="C120" s="292"/>
-      <c r="D120" s="292"/>
-      <c r="E120" s="293"/>
-      <c r="F120" s="294"/>
-      <c r="G120" s="295"/>
+      <c r="A120" s="210"/>
+      <c r="B120" s="226"/>
+      <c r="C120" s="227"/>
+      <c r="D120" s="227"/>
+      <c r="E120" s="227"/>
+      <c r="F120" s="228"/>
+      <c r="G120" s="229"/>
     </row>
     <row r="121" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="219"/>
+      <c r="A121" s="210"/>
       <c r="B121" s="82">
         <v>44794</v>
       </c>
-      <c r="C121" s="79" t="s">
+      <c r="C121" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="D121" s="79"/>
-      <c r="E121" s="148">
+      <c r="D121" s="136"/>
+      <c r="E121" s="142">
         <v>720</v>
       </c>
-      <c r="F121" s="156"/>
-      <c r="G121" s="92" t="s">
+      <c r="F121" s="149"/>
+      <c r="G121" s="200" t="s">
         <v>254</v>
       </c>
       <c r="H121" s="107" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="219"/>
+    <row r="122" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="210"/>
       <c r="B122" s="82"/>
-      <c r="C122" s="79" t="s">
+      <c r="C122" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="D122" s="79"/>
-      <c r="E122" s="148">
+      <c r="D122" s="136"/>
+      <c r="E122" s="142">
         <v>2000</v>
       </c>
-      <c r="F122" s="156"/>
-      <c r="G122" s="92" t="s">
+      <c r="F122" s="149"/>
+      <c r="G122" s="200" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="219"/>
+      <c r="A123" s="210"/>
       <c r="B123" s="82"/>
-      <c r="C123" s="79" t="s">
+      <c r="C123" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="D123" s="79"/>
-      <c r="E123" s="148">
+      <c r="D123" s="136"/>
+      <c r="E123" s="142">
         <v>3000</v>
       </c>
-      <c r="F123" s="156"/>
-      <c r="G123" s="92" t="s">
+      <c r="F123" s="149"/>
+      <c r="G123" s="200" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="219"/>
+      <c r="A124" s="210"/>
       <c r="B124" s="82"/>
-      <c r="C124" s="79"/>
-      <c r="D124" s="79"/>
-      <c r="E124" s="148">
+      <c r="C124" s="136"/>
+      <c r="D124" s="136"/>
+      <c r="E124" s="142">
         <v>250</v>
       </c>
-      <c r="F124" s="156"/>
-      <c r="G124" s="92" t="s">
+      <c r="F124" s="149"/>
+      <c r="G124" s="200" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="219"/>
-      <c r="B125" s="288"/>
-      <c r="C125" s="292"/>
-      <c r="D125" s="292"/>
-      <c r="E125" s="293"/>
-      <c r="F125" s="294"/>
-      <c r="G125" s="295"/>
+      <c r="A125" s="210"/>
+      <c r="B125" s="226"/>
+      <c r="C125" s="227"/>
+      <c r="D125" s="227"/>
+      <c r="E125" s="227"/>
+      <c r="F125" s="228"/>
+      <c r="G125" s="229"/>
     </row>
     <row r="126" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="219"/>
+      <c r="A126" s="210"/>
       <c r="B126" s="82">
         <v>44795</v>
       </c>
-      <c r="C126" s="79" t="s">
+      <c r="C126" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="D126" s="79"/>
-      <c r="E126" s="148">
+      <c r="D126" s="136"/>
+      <c r="E126" s="142">
         <v>480</v>
       </c>
-      <c r="F126" s="156"/>
-      <c r="G126" s="92" t="s">
+      <c r="F126" s="149"/>
+      <c r="G126" s="200" t="s">
         <v>254</v>
       </c>
       <c r="H126" s="107" t="s">
@@ -10546,32 +10559,32 @@
       </c>
     </row>
     <row r="127" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="219"/>
+      <c r="A127" s="210"/>
       <c r="B127" s="82"/>
-      <c r="C127" s="79" t="s">
+      <c r="C127" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="D127" s="79"/>
-      <c r="E127" s="148">
+      <c r="D127" s="136"/>
+      <c r="E127" s="142">
         <v>1000</v>
       </c>
-      <c r="F127" s="156"/>
-      <c r="G127" s="92" t="s">
+      <c r="F127" s="149"/>
+      <c r="G127" s="200" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="219"/>
+      <c r="A128" s="210"/>
       <c r="B128" s="82"/>
-      <c r="C128" s="79" t="s">
+      <c r="C128" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="D128" s="79"/>
-      <c r="E128" s="148">
+      <c r="D128" s="136"/>
+      <c r="E128" s="142">
         <v>1500</v>
       </c>
-      <c r="F128" s="156"/>
-      <c r="G128" s="92" t="s">
+      <c r="F128" s="149"/>
+      <c r="G128" s="200" t="s">
         <v>259</v>
       </c>
       <c r="H128" s="107" t="s">
@@ -10579,17 +10592,17 @@
       </c>
     </row>
     <row r="129" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="219"/>
+      <c r="A129" s="210"/>
       <c r="B129" s="82"/>
-      <c r="C129" s="79" t="s">
+      <c r="C129" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="D129" s="79"/>
-      <c r="E129" s="148">
+      <c r="D129" s="136"/>
+      <c r="E129" s="142">
         <v>17600</v>
       </c>
-      <c r="F129" s="156"/>
-      <c r="G129" s="92" t="s">
+      <c r="F129" s="149"/>
+      <c r="G129" s="200" t="s">
         <v>266</v>
       </c>
       <c r="H129" s="107" t="s">
@@ -10597,43 +10610,43 @@
       </c>
     </row>
     <row r="130" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="219"/>
-      <c r="B130" s="288"/>
-      <c r="C130" s="292"/>
-      <c r="D130" s="292"/>
-      <c r="E130" s="293"/>
-      <c r="F130" s="294"/>
-      <c r="G130" s="295"/>
+      <c r="A130" s="210"/>
+      <c r="B130" s="226"/>
+      <c r="C130" s="227"/>
+      <c r="D130" s="227"/>
+      <c r="E130" s="227"/>
+      <c r="F130" s="228"/>
+      <c r="G130" s="229"/>
     </row>
     <row r="131" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="219"/>
+      <c r="A131" s="210"/>
       <c r="B131" s="82">
         <v>44796</v>
       </c>
-      <c r="C131" s="79" t="s">
+      <c r="C131" s="136" t="s">
         <v>39</v>
       </c>
-      <c r="D131" s="79"/>
-      <c r="E131" s="148"/>
-      <c r="F131" s="158">
+      <c r="D131" s="136"/>
+      <c r="E131" s="142"/>
+      <c r="F131" s="146">
         <v>100000</v>
       </c>
-      <c r="G131" s="92" t="s">
+      <c r="G131" s="200" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="219"/>
+      <c r="A132" s="210"/>
       <c r="B132" s="82"/>
-      <c r="C132" s="79" t="s">
+      <c r="C132" s="136" t="s">
         <v>94</v>
       </c>
-      <c r="D132" s="79"/>
-      <c r="E132" s="148">
+      <c r="D132" s="136"/>
+      <c r="E132" s="142">
         <v>20500</v>
       </c>
-      <c r="F132" s="156"/>
-      <c r="G132" s="92" t="s">
+      <c r="F132" s="149"/>
+      <c r="G132" s="200" t="s">
         <v>269</v>
       </c>
       <c r="H132" s="107" t="s">
@@ -10641,17 +10654,17 @@
       </c>
     </row>
     <row r="133" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="219"/>
+      <c r="A133" s="210"/>
       <c r="B133" s="82"/>
-      <c r="C133" s="79" t="s">
+      <c r="C133" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="D133" s="79"/>
-      <c r="E133" s="161">
+      <c r="D133" s="136"/>
+      <c r="E133" s="142">
         <v>480</v>
       </c>
-      <c r="F133" s="156"/>
-      <c r="G133" s="92" t="s">
+      <c r="F133" s="149"/>
+      <c r="G133" s="200" t="s">
         <v>175</v>
       </c>
       <c r="H133" s="107" t="s">
@@ -10659,84 +10672,84 @@
       </c>
     </row>
     <row r="134" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="219"/>
-      <c r="B134" s="84"/>
-      <c r="C134" s="79" t="s">
+      <c r="A134" s="210"/>
+      <c r="B134" s="82"/>
+      <c r="C134" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="D134" s="103"/>
-      <c r="E134" s="225">
+      <c r="D134" s="136"/>
+      <c r="E134" s="142">
         <v>2000</v>
       </c>
-      <c r="F134" s="226"/>
-      <c r="G134" s="106" t="s">
-        <v>322</v>
+      <c r="F134" s="149"/>
+      <c r="G134" s="200" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="219"/>
-      <c r="B135" s="288"/>
-      <c r="C135" s="292"/>
-      <c r="D135" s="292"/>
-      <c r="E135" s="293"/>
-      <c r="F135" s="294"/>
-      <c r="G135" s="295"/>
+      <c r="A135" s="210"/>
+      <c r="B135" s="226"/>
+      <c r="C135" s="227"/>
+      <c r="D135" s="227"/>
+      <c r="E135" s="227"/>
+      <c r="F135" s="228"/>
+      <c r="G135" s="229"/>
     </row>
     <row r="136" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="219"/>
+      <c r="A136" s="210"/>
       <c r="B136" s="82">
         <v>44797</v>
       </c>
-      <c r="C136" s="79" t="s">
+      <c r="C136" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="D136" s="79"/>
-      <c r="E136" s="148">
+      <c r="D136" s="136"/>
+      <c r="E136" s="142">
         <v>3000</v>
       </c>
-      <c r="F136" s="156"/>
-      <c r="G136" s="92" t="s">
+      <c r="F136" s="149"/>
+      <c r="G136" s="200" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="219"/>
+      <c r="A137" s="210"/>
       <c r="B137" s="82"/>
-      <c r="C137" s="79" t="s">
+      <c r="C137" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="D137" s="79"/>
-      <c r="E137" s="148">
+      <c r="D137" s="136"/>
+      <c r="E137" s="142">
         <v>520</v>
       </c>
-      <c r="F137" s="156"/>
-      <c r="G137" s="92" t="s">
+      <c r="F137" s="149"/>
+      <c r="G137" s="200" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="219"/>
-      <c r="B138" s="288"/>
-      <c r="C138" s="292"/>
-      <c r="D138" s="292"/>
-      <c r="E138" s="293"/>
-      <c r="F138" s="294"/>
-      <c r="G138" s="295"/>
+      <c r="A138" s="210"/>
+      <c r="B138" s="226"/>
+      <c r="C138" s="227"/>
+      <c r="D138" s="227"/>
+      <c r="E138" s="227"/>
+      <c r="F138" s="228"/>
+      <c r="G138" s="229"/>
     </row>
     <row r="139" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="219"/>
+      <c r="A139" s="210"/>
       <c r="B139" s="82">
         <v>44798</v>
       </c>
-      <c r="C139" s="79" t="s">
-        <v>341</v>
-      </c>
-      <c r="D139" s="79"/>
-      <c r="E139" s="148">
+      <c r="C139" s="136" t="s">
+        <v>339</v>
+      </c>
+      <c r="D139" s="136"/>
+      <c r="E139" s="142">
         <v>14000</v>
       </c>
-      <c r="F139" s="156"/>
-      <c r="G139" s="92" t="s">
+      <c r="F139" s="149"/>
+      <c r="G139" s="200" t="s">
         <v>273</v>
       </c>
       <c r="H139" s="107" t="s">
@@ -10744,67 +10757,67 @@
       </c>
     </row>
     <row r="140" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="219"/>
+      <c r="A140" s="210"/>
       <c r="B140" s="82"/>
-      <c r="C140" s="79" t="s">
+      <c r="C140" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="D140" s="79"/>
-      <c r="E140" s="148">
+      <c r="D140" s="136"/>
+      <c r="E140" s="142">
         <v>720</v>
       </c>
-      <c r="F140" s="156"/>
-      <c r="G140" s="92" t="s">
+      <c r="F140" s="149"/>
+      <c r="G140" s="200" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="219"/>
-      <c r="B141" s="288"/>
-      <c r="C141" s="292"/>
-      <c r="D141" s="292"/>
-      <c r="E141" s="293"/>
-      <c r="F141" s="294"/>
-      <c r="G141" s="295"/>
+      <c r="A141" s="210"/>
+      <c r="B141" s="226"/>
+      <c r="C141" s="227"/>
+      <c r="D141" s="227"/>
+      <c r="E141" s="227"/>
+      <c r="F141" s="228"/>
+      <c r="G141" s="229"/>
     </row>
     <row r="142" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="219"/>
+      <c r="A142" s="210"/>
       <c r="B142" s="82">
         <v>44800</v>
       </c>
-      <c r="C142" s="79" t="s">
+      <c r="C142" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="D142" s="79"/>
-      <c r="E142" s="148">
+      <c r="D142" s="136"/>
+      <c r="E142" s="142">
         <v>600</v>
       </c>
-      <c r="F142" s="156"/>
-      <c r="G142" s="92" t="s">
+      <c r="F142" s="149"/>
+      <c r="G142" s="200" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="219"/>
-      <c r="B143" s="288"/>
-      <c r="C143" s="292"/>
-      <c r="D143" s="292"/>
-      <c r="E143" s="293"/>
-      <c r="F143" s="294"/>
-      <c r="G143" s="295"/>
+      <c r="A143" s="210"/>
+      <c r="B143" s="226"/>
+      <c r="C143" s="227"/>
+      <c r="D143" s="227"/>
+      <c r="E143" s="227"/>
+      <c r="F143" s="228"/>
+      <c r="G143" s="229"/>
     </row>
     <row r="144" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="219"/>
+      <c r="A144" s="210"/>
       <c r="B144" s="82">
         <v>44801</v>
       </c>
-      <c r="C144" s="79"/>
-      <c r="D144" s="79"/>
-      <c r="E144" s="148">
+      <c r="C144" s="136"/>
+      <c r="D144" s="136"/>
+      <c r="E144" s="142">
         <v>600</v>
       </c>
-      <c r="F144" s="156"/>
-      <c r="G144" s="92" t="s">
+      <c r="F144" s="149"/>
+      <c r="G144" s="200" t="s">
         <v>276</v>
       </c>
       <c r="H144" s="107" t="s">
@@ -10812,329 +10825,329 @@
       </c>
     </row>
     <row r="145" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="219"/>
-      <c r="B145" s="288"/>
-      <c r="C145" s="292"/>
-      <c r="D145" s="292"/>
-      <c r="E145" s="293"/>
-      <c r="F145" s="294"/>
-      <c r="G145" s="295"/>
+      <c r="A145" s="210"/>
+      <c r="B145" s="226"/>
+      <c r="C145" s="227"/>
+      <c r="D145" s="227"/>
+      <c r="E145" s="227"/>
+      <c r="F145" s="228"/>
+      <c r="G145" s="229"/>
     </row>
     <row r="146" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="219"/>
+      <c r="A146" s="210"/>
       <c r="B146" s="82">
         <v>44802</v>
       </c>
-      <c r="C146" s="79" t="s">
+      <c r="C146" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="D146" s="79"/>
-      <c r="E146" s="148">
+      <c r="D146" s="136"/>
+      <c r="E146" s="142">
         <v>720</v>
       </c>
-      <c r="F146" s="156"/>
-      <c r="G146" s="92" t="s">
+      <c r="F146" s="149"/>
+      <c r="G146" s="200" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="219"/>
-      <c r="B147" s="288"/>
-      <c r="C147" s="292"/>
-      <c r="D147" s="292"/>
-      <c r="E147" s="293"/>
-      <c r="F147" s="294"/>
-      <c r="G147" s="295"/>
+      <c r="A147" s="210"/>
+      <c r="B147" s="226"/>
+      <c r="C147" s="227"/>
+      <c r="D147" s="227"/>
+      <c r="E147" s="227"/>
+      <c r="F147" s="228"/>
+      <c r="G147" s="229"/>
     </row>
     <row r="148" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="219"/>
+      <c r="A148" s="210"/>
       <c r="B148" s="82">
         <v>44803</v>
       </c>
-      <c r="C148" s="79" t="s">
+      <c r="C148" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="D148" s="79"/>
-      <c r="E148" s="148">
+      <c r="D148" s="136"/>
+      <c r="E148" s="142">
         <v>2800</v>
       </c>
-      <c r="F148" s="156"/>
-      <c r="G148" s="92" t="s">
+      <c r="F148" s="149"/>
+      <c r="G148" s="200" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="219"/>
+      <c r="A149" s="210"/>
       <c r="B149" s="82"/>
-      <c r="C149" s="79" t="s">
+      <c r="C149" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="D149" s="79"/>
-      <c r="E149" s="148">
+      <c r="D149" s="136"/>
+      <c r="E149" s="142">
         <v>300</v>
       </c>
-      <c r="F149" s="156"/>
-      <c r="G149" s="92" t="s">
+      <c r="F149" s="149"/>
+      <c r="G149" s="200" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="219"/>
+      <c r="A150" s="210"/>
       <c r="B150" s="82"/>
-      <c r="C150" s="79" t="s">
-        <v>341</v>
-      </c>
-      <c r="D150" s="79"/>
-      <c r="E150" s="148">
+      <c r="C150" s="136" t="s">
+        <v>339</v>
+      </c>
+      <c r="D150" s="136"/>
+      <c r="E150" s="142">
         <v>3000</v>
       </c>
-      <c r="F150" s="156"/>
-      <c r="G150" s="92" t="s">
+      <c r="F150" s="149"/>
+      <c r="G150" s="200" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="219"/>
-      <c r="B151" s="288"/>
-      <c r="C151" s="292"/>
-      <c r="D151" s="292"/>
-      <c r="E151" s="293"/>
-      <c r="F151" s="294"/>
-      <c r="G151" s="295"/>
+      <c r="A151" s="210"/>
+      <c r="B151" s="226"/>
+      <c r="C151" s="227"/>
+      <c r="D151" s="227"/>
+      <c r="E151" s="227"/>
+      <c r="F151" s="228"/>
+      <c r="G151" s="229"/>
     </row>
     <row r="152" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="219"/>
+      <c r="A152" s="210"/>
       <c r="B152" s="82">
         <v>44804</v>
       </c>
-      <c r="C152" s="79" t="s">
+      <c r="C152" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="D152" s="79"/>
-      <c r="E152" s="148">
+      <c r="D152" s="136"/>
+      <c r="E152" s="142">
         <v>1785</v>
       </c>
-      <c r="F152" s="156"/>
-      <c r="G152" s="92" t="s">
+      <c r="F152" s="149"/>
+      <c r="G152" s="200" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="219"/>
+      <c r="A153" s="210"/>
       <c r="B153" s="82"/>
-      <c r="C153" s="79" t="s">
+      <c r="C153" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="D153" s="79"/>
-      <c r="E153" s="148">
+      <c r="D153" s="136"/>
+      <c r="E153" s="142">
         <v>720</v>
       </c>
-      <c r="F153" s="156"/>
-      <c r="G153" s="92" t="s">
+      <c r="F153" s="149"/>
+      <c r="G153" s="200" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="219"/>
+      <c r="A154" s="210"/>
       <c r="B154" s="82"/>
-      <c r="C154" s="79" t="s">
+      <c r="C154" s="136" t="s">
         <v>39</v>
       </c>
-      <c r="D154" s="79" t="s">
+      <c r="D154" s="136" t="s">
         <v>40</v>
       </c>
-      <c r="E154" s="148"/>
-      <c r="F154" s="158">
+      <c r="E154" s="142"/>
+      <c r="F154" s="146">
         <v>2000</v>
       </c>
-      <c r="G154" s="92" t="s">
+      <c r="G154" s="282" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="219"/>
+      <c r="A155" s="210"/>
       <c r="B155" s="82"/>
-      <c r="C155" s="79" t="s">
+      <c r="C155" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="D155" s="79"/>
-      <c r="E155" s="148">
+      <c r="D155" s="136"/>
+      <c r="E155" s="142">
         <v>1500</v>
       </c>
-      <c r="F155" s="156"/>
-      <c r="G155" s="92" t="s">
+      <c r="F155" s="149"/>
+      <c r="G155" s="200" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="227"/>
-      <c r="C156" s="300" t="s">
+      <c r="B156" s="283"/>
+      <c r="C156" s="284" t="s">
         <v>41</v>
       </c>
-      <c r="D156" s="230"/>
-      <c r="E156" s="228">
+      <c r="D156" s="284"/>
+      <c r="E156" s="285">
         <v>400</v>
       </c>
-      <c r="F156" s="230"/>
-      <c r="G156" s="229" t="s">
-        <v>321</v>
+      <c r="F156" s="284"/>
+      <c r="G156" s="286" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="219"/>
-      <c r="B157" s="288"/>
-      <c r="C157" s="292"/>
-      <c r="D157" s="292"/>
-      <c r="E157" s="293"/>
-      <c r="F157" s="294"/>
-      <c r="G157" s="295"/>
+      <c r="A157" s="210"/>
+      <c r="B157" s="226"/>
+      <c r="C157" s="227"/>
+      <c r="D157" s="227"/>
+      <c r="E157" s="227"/>
+      <c r="F157" s="228"/>
+      <c r="G157" s="229"/>
     </row>
     <row r="158" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="219"/>
+      <c r="A158" s="210"/>
       <c r="B158" s="82">
         <v>44805</v>
       </c>
-      <c r="C158" s="79"/>
-      <c r="D158" s="79"/>
-      <c r="E158" s="148"/>
-      <c r="F158" s="156"/>
-      <c r="G158" s="92"/>
+      <c r="C158" s="136"/>
+      <c r="D158" s="136"/>
+      <c r="E158" s="142"/>
+      <c r="F158" s="149"/>
+      <c r="G158" s="200"/>
     </row>
     <row r="159" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="219"/>
-      <c r="B159" s="288"/>
-      <c r="C159" s="292"/>
-      <c r="D159" s="292"/>
-      <c r="E159" s="293"/>
-      <c r="F159" s="294"/>
-      <c r="G159" s="295"/>
+      <c r="A159" s="210"/>
+      <c r="B159" s="226"/>
+      <c r="C159" s="227"/>
+      <c r="D159" s="227"/>
+      <c r="E159" s="227"/>
+      <c r="F159" s="228"/>
+      <c r="G159" s="229"/>
     </row>
     <row r="160" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="219"/>
+      <c r="A160" s="210"/>
       <c r="B160" s="82">
         <v>44807</v>
       </c>
-      <c r="C160" s="79" t="s">
+      <c r="C160" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="D160" s="79"/>
-      <c r="E160" s="148">
+      <c r="D160" s="136"/>
+      <c r="E160" s="142">
         <v>520</v>
       </c>
-      <c r="F160" s="156"/>
-      <c r="G160" s="92" t="s">
+      <c r="F160" s="149"/>
+      <c r="G160" s="200" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="219"/>
-      <c r="B161" s="288"/>
-      <c r="C161" s="292"/>
-      <c r="D161" s="292"/>
-      <c r="E161" s="293"/>
-      <c r="F161" s="294"/>
-      <c r="G161" s="295"/>
+      <c r="A161" s="210"/>
+      <c r="B161" s="226"/>
+      <c r="C161" s="227"/>
+      <c r="D161" s="227"/>
+      <c r="E161" s="227"/>
+      <c r="F161" s="228"/>
+      <c r="G161" s="229"/>
     </row>
     <row r="162" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="219"/>
+      <c r="A162" s="210"/>
       <c r="B162" s="82">
         <v>44808</v>
       </c>
-      <c r="C162" s="79" t="s">
+      <c r="C162" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="D162" s="79"/>
-      <c r="E162" s="148">
+      <c r="D162" s="136"/>
+      <c r="E162" s="142">
         <v>720</v>
       </c>
-      <c r="F162" s="156"/>
-      <c r="G162" s="92" t="s">
+      <c r="F162" s="149"/>
+      <c r="G162" s="200" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="219"/>
-      <c r="B163" s="288"/>
-      <c r="C163" s="292"/>
-      <c r="D163" s="292"/>
-      <c r="E163" s="293"/>
-      <c r="F163" s="294"/>
-      <c r="G163" s="295"/>
+      <c r="A163" s="210"/>
+      <c r="B163" s="226"/>
+      <c r="C163" s="227"/>
+      <c r="D163" s="227"/>
+      <c r="E163" s="227"/>
+      <c r="F163" s="228"/>
+      <c r="G163" s="229"/>
       <c r="H163" s="107">
         <f>2000+600+1750+700</f>
         <v>5050</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="219"/>
+      <c r="A164" s="210"/>
       <c r="B164" s="82">
         <v>44809</v>
       </c>
-      <c r="C164" s="79" t="s">
+      <c r="C164" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="D164" s="79"/>
-      <c r="E164" s="148">
+      <c r="D164" s="136"/>
+      <c r="E164" s="142">
         <v>480</v>
       </c>
-      <c r="F164" s="156"/>
-      <c r="G164" s="92" t="s">
+      <c r="F164" s="149"/>
+      <c r="G164" s="200" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="288"/>
-      <c r="C165" s="292"/>
-      <c r="D165" s="292"/>
-      <c r="E165" s="293"/>
-      <c r="F165" s="294"/>
-      <c r="G165" s="295"/>
+      <c r="B165" s="226"/>
+      <c r="C165" s="227"/>
+      <c r="D165" s="227"/>
+      <c r="E165" s="227"/>
+      <c r="F165" s="228"/>
+      <c r="G165" s="229"/>
     </row>
     <row r="166" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B166" s="82">
         <v>44810</v>
       </c>
-      <c r="C166" s="79" t="s">
+      <c r="C166" s="136" t="s">
         <v>39</v>
       </c>
-      <c r="D166" s="79"/>
-      <c r="E166" s="148"/>
-      <c r="F166" s="158">
+      <c r="D166" s="136"/>
+      <c r="E166" s="142"/>
+      <c r="F166" s="146">
         <v>100000</v>
       </c>
-      <c r="G166" s="92" t="s">
+      <c r="G166" s="282" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B167" s="82"/>
-      <c r="C167" s="79" t="s">
+      <c r="C167" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="D167" s="79"/>
-      <c r="E167" s="148">
+      <c r="D167" s="136"/>
+      <c r="E167" s="142">
         <v>9000</v>
       </c>
-      <c r="F167" s="156"/>
-      <c r="G167" s="92" t="s">
-        <v>330</v>
+      <c r="F167" s="149"/>
+      <c r="G167" s="200" t="s">
+        <v>328</v>
       </c>
       <c r="H167" s="107" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B168" s="82"/>
-      <c r="C168" s="79" t="s">
+      <c r="C168" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="D168" s="79"/>
-      <c r="E168" s="148">
+      <c r="D168" s="136"/>
+      <c r="E168" s="142">
         <v>24600</v>
       </c>
-      <c r="F168" s="156"/>
-      <c r="G168" s="92" t="s">
-        <v>302</v>
+      <c r="F168" s="149"/>
+      <c r="G168" s="200" t="s">
+        <v>354</v>
       </c>
       <c r="H168" s="107" t="s">
         <v>301</v>
@@ -11142,348 +11155,449 @@
     </row>
     <row r="169" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B169" s="82"/>
-      <c r="C169" s="79" t="s">
+      <c r="C169" s="136" t="s">
         <v>42</v>
       </c>
-      <c r="D169" s="79" t="s">
-        <v>305</v>
-      </c>
-      <c r="E169" s="148">
+      <c r="D169" s="136" t="s">
+        <v>303</v>
+      </c>
+      <c r="E169" s="142">
         <v>12000</v>
       </c>
-      <c r="F169" s="156"/>
-      <c r="G169" s="92" t="s">
-        <v>303</v>
+      <c r="F169" s="149"/>
+      <c r="G169" s="200" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B170" s="82"/>
-      <c r="C170" s="79" t="s">
+      <c r="C170" s="136" t="s">
         <v>42</v>
       </c>
-      <c r="D170" s="79" t="s">
-        <v>304</v>
-      </c>
-      <c r="E170" s="148">
+      <c r="D170" s="136" t="s">
+        <v>302</v>
+      </c>
+      <c r="E170" s="142">
         <v>12000</v>
       </c>
-      <c r="F170" s="156"/>
-      <c r="G170" s="92" t="s">
-        <v>303</v>
+      <c r="F170" s="149"/>
+      <c r="G170" s="200" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B171" s="288"/>
-      <c r="C171" s="292"/>
-      <c r="D171" s="292"/>
-      <c r="E171" s="293"/>
-      <c r="F171" s="294"/>
-      <c r="G171" s="295"/>
+      <c r="B171" s="226"/>
+      <c r="C171" s="227"/>
+      <c r="D171" s="227"/>
+      <c r="E171" s="227"/>
+      <c r="F171" s="228"/>
+      <c r="G171" s="229"/>
       <c r="H171" s="107">
         <f>27*1800</f>
         <v>48600</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="84">
+      <c r="B172" s="82">
         <v>44811</v>
       </c>
-      <c r="C172" s="103" t="s">
+      <c r="C172" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="D172" s="103"/>
-      <c r="E172" s="225">
+      <c r="D172" s="136"/>
+      <c r="E172" s="142">
         <v>530</v>
       </c>
-      <c r="F172" s="226"/>
-      <c r="G172" s="106" t="s">
+      <c r="F172" s="149"/>
+      <c r="G172" s="200" t="s">
         <v>175</v>
       </c>
       <c r="H172" s="107" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B173" s="82"/>
+      <c r="C173" s="136" t="s">
+        <v>41</v>
+      </c>
+      <c r="D173" s="136"/>
+      <c r="E173" s="142">
+        <v>350</v>
+      </c>
+      <c r="F173" s="149"/>
+      <c r="G173" s="200" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="84"/>
-      <c r="C173" s="103" t="s">
+    <row r="174" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B174" s="82"/>
+      <c r="C174" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="D173" s="103"/>
-      <c r="E173" s="225">
-        <v>350</v>
-      </c>
-      <c r="F173" s="226"/>
-      <c r="G173" s="106" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="84"/>
-      <c r="C174" s="79" t="s">
+      <c r="D174" s="136"/>
+      <c r="E174" s="142">
+        <v>100</v>
+      </c>
+      <c r="F174" s="149"/>
+      <c r="G174" s="200" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B175" s="226"/>
+      <c r="C175" s="227"/>
+      <c r="D175" s="227"/>
+      <c r="E175" s="227"/>
+      <c r="F175" s="228"/>
+      <c r="G175" s="229"/>
+    </row>
+    <row r="176" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B176" s="82">
+        <v>44815</v>
+      </c>
+      <c r="C176" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="D174" s="103"/>
-      <c r="E174" s="225">
-        <v>100</v>
-      </c>
-      <c r="F174" s="226"/>
-      <c r="G174" s="106" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B175" s="296"/>
-      <c r="C175" s="297"/>
-      <c r="D175" s="297"/>
-      <c r="E175" s="297"/>
-      <c r="F175" s="298"/>
-      <c r="G175" s="299"/>
-    </row>
-    <row r="176" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="84">
-        <v>44815</v>
-      </c>
-      <c r="C176" s="79" t="s">
+      <c r="D176" s="136"/>
+      <c r="E176" s="142">
+        <v>480</v>
+      </c>
+      <c r="F176" s="149"/>
+      <c r="G176" s="200" t="s">
+        <v>175</v>
+      </c>
+      <c r="H176" s="107" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="177" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B177" s="82"/>
+      <c r="C177" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="D176" s="103"/>
-      <c r="E176" s="225">
-        <v>480</v>
-      </c>
-      <c r="F176" s="226"/>
-      <c r="G176" s="106" t="s">
+      <c r="D177" s="136"/>
+      <c r="E177" s="142">
+        <v>1400</v>
+      </c>
+      <c r="F177" s="149"/>
+      <c r="G177" s="200" t="s">
+        <v>322</v>
+      </c>
+      <c r="H177" s="107" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="178" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B178" s="226"/>
+      <c r="C178" s="227"/>
+      <c r="D178" s="227"/>
+      <c r="E178" s="227"/>
+      <c r="F178" s="228"/>
+      <c r="G178" s="229"/>
+    </row>
+    <row r="179" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B179" s="82">
+        <v>44816</v>
+      </c>
+      <c r="C179" s="136" t="s">
+        <v>41</v>
+      </c>
+      <c r="D179" s="136"/>
+      <c r="E179" s="142">
+        <v>1440</v>
+      </c>
+      <c r="F179" s="149"/>
+      <c r="G179" s="200" t="s">
         <v>175</v>
       </c>
-      <c r="H176" s="107" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="177" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="84"/>
-      <c r="C177" s="79" t="s">
+      <c r="H179" s="107" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="180" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B180" s="82"/>
+      <c r="C180" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="D177" s="103"/>
-      <c r="E177" s="225">
-        <v>1400</v>
-      </c>
-      <c r="F177" s="226"/>
-      <c r="G177" s="106" t="s">
-        <v>324</v>
-      </c>
-      <c r="H177" s="107" t="s">
+      <c r="D180" s="136"/>
+      <c r="E180" s="142">
+        <v>1500</v>
+      </c>
+      <c r="F180" s="149"/>
+      <c r="G180" s="200" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="178" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="296"/>
-      <c r="C178" s="297"/>
-      <c r="D178" s="297"/>
-      <c r="E178" s="297"/>
-      <c r="F178" s="298"/>
-      <c r="G178" s="299"/>
-    </row>
-    <row r="179" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B179" s="84">
-        <v>44816</v>
-      </c>
-      <c r="C179" s="79" t="s">
+      <c r="H180" s="107" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="181" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B181" s="226"/>
+      <c r="C181" s="227"/>
+      <c r="D181" s="227"/>
+      <c r="E181" s="227"/>
+      <c r="F181" s="228"/>
+      <c r="G181" s="229"/>
+    </row>
+    <row r="182" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B182" s="82">
+        <v>44817</v>
+      </c>
+      <c r="C182" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="D179" s="103"/>
-      <c r="E179" s="225">
-        <v>1440</v>
-      </c>
-      <c r="F179" s="226"/>
-      <c r="G179" s="106" t="s">
-        <v>175</v>
-      </c>
-      <c r="H179" s="107" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="180" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="84"/>
-      <c r="C180" s="79" t="s">
-        <v>41</v>
-      </c>
-      <c r="D180" s="103"/>
-      <c r="E180" s="225">
-        <v>1500</v>
-      </c>
-      <c r="F180" s="226"/>
-      <c r="G180" s="106" t="s">
-        <v>327</v>
-      </c>
-      <c r="H180" s="107" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="181" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="296"/>
-      <c r="C181" s="297"/>
-      <c r="D181" s="297"/>
-      <c r="E181" s="297"/>
-      <c r="F181" s="298"/>
-      <c r="G181" s="299"/>
-    </row>
-    <row r="182" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B182" s="84">
-        <v>44817</v>
-      </c>
-      <c r="C182" s="79" t="s">
-        <v>41</v>
-      </c>
-      <c r="D182" s="103"/>
-      <c r="E182" s="225">
+      <c r="D182" s="136"/>
+      <c r="E182" s="142">
         <f>480+720</f>
         <v>1200</v>
       </c>
-      <c r="F182" s="226"/>
-      <c r="G182" s="92" t="s">
+      <c r="F182" s="149"/>
+      <c r="G182" s="200" t="s">
         <v>254</v>
       </c>
       <c r="H182" s="107" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="183" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B183" s="296"/>
-      <c r="C183" s="297"/>
-      <c r="D183" s="297"/>
-      <c r="E183" s="297"/>
-      <c r="F183" s="298"/>
-      <c r="G183" s="299"/>
+      <c r="B183" s="226"/>
+      <c r="C183" s="227"/>
+      <c r="D183" s="227"/>
+      <c r="E183" s="227"/>
+      <c r="F183" s="228"/>
+      <c r="G183" s="229"/>
     </row>
     <row r="184" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="84">
+      <c r="B184" s="82">
         <v>44818</v>
       </c>
-      <c r="C184" s="79" t="s">
+      <c r="C184" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="D184" s="103"/>
-      <c r="E184" s="225">
+      <c r="D184" s="136"/>
+      <c r="E184" s="142">
         <v>720</v>
       </c>
-      <c r="F184" s="226"/>
-      <c r="G184" s="106" t="s">
+      <c r="F184" s="149"/>
+      <c r="G184" s="200" t="s">
         <v>175</v>
       </c>
       <c r="H184" s="107" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="185" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B185" s="82"/>
+      <c r="C185" s="136" t="s">
+        <v>41</v>
+      </c>
+      <c r="D185" s="136"/>
+      <c r="E185" s="142">
+        <v>12200</v>
+      </c>
+      <c r="F185" s="149"/>
+      <c r="G185" s="200" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="186" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B186" s="82"/>
+      <c r="C186" s="136"/>
+      <c r="D186" s="136"/>
+      <c r="E186" s="142">
+        <v>300</v>
+      </c>
+      <c r="F186" s="149"/>
+      <c r="G186" s="200" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="187" spans="2:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B187" s="82"/>
+      <c r="C187" s="136" t="s">
+        <v>71</v>
+      </c>
+      <c r="D187" s="136" t="s">
+        <v>346</v>
+      </c>
+      <c r="E187" s="142">
+        <v>9000</v>
+      </c>
+      <c r="F187" s="149"/>
+      <c r="G187" s="200" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="188" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B188" s="82"/>
+      <c r="C188" s="136"/>
+      <c r="D188" s="136"/>
+      <c r="E188" s="142"/>
+      <c r="F188" s="149"/>
+      <c r="G188" s="200"/>
+    </row>
+    <row r="189" spans="2:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B189" s="82">
+        <v>44819</v>
+      </c>
+      <c r="C189" s="136" t="s">
+        <v>39</v>
+      </c>
+      <c r="D189" s="136" t="s">
+        <v>52</v>
+      </c>
+      <c r="E189" s="142"/>
+      <c r="F189" s="146">
+        <v>200000</v>
+      </c>
+      <c r="G189" s="282" t="s">
+        <v>348</v>
+      </c>
+      <c r="H189" s="107" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="190" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B190" s="82"/>
+      <c r="C190" s="136" t="s">
+        <v>47</v>
+      </c>
+      <c r="D190" s="136" t="s">
+        <v>81</v>
+      </c>
+      <c r="E190" s="142">
+        <v>34800</v>
+      </c>
+      <c r="F190" s="149"/>
+      <c r="G190" s="200" t="s">
+        <v>349</v>
+      </c>
+      <c r="H190" s="107" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="191" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B191" s="82"/>
+      <c r="C191" s="136" t="s">
+        <v>47</v>
+      </c>
+      <c r="D191" s="136" t="s">
+        <v>302</v>
+      </c>
+      <c r="E191" s="147">
+        <v>34800</v>
+      </c>
+      <c r="F191" s="149"/>
+      <c r="G191" s="200" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="192" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B192" s="82"/>
+      <c r="C192" s="136"/>
+      <c r="D192" s="136"/>
+      <c r="E192" s="142"/>
+      <c r="F192" s="149"/>
+      <c r="G192" s="200"/>
+    </row>
+    <row r="193" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B193" s="82">
+        <v>44822</v>
+      </c>
+      <c r="C193" s="136" t="s">
+        <v>41</v>
+      </c>
+      <c r="D193" s="136"/>
+      <c r="E193" s="142">
+        <v>2000</v>
+      </c>
+      <c r="F193" s="149"/>
+      <c r="G193" s="200" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="194" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B194" s="82"/>
+      <c r="C194" s="136" t="s">
+        <v>44</v>
+      </c>
+      <c r="D194" s="136" t="s">
+        <v>351</v>
+      </c>
+      <c r="E194" s="142">
+        <v>12000</v>
+      </c>
+      <c r="F194" s="149"/>
+      <c r="G194" s="200" t="s">
+        <v>352</v>
+      </c>
+      <c r="H194" s="273" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="195" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B195" s="82"/>
+      <c r="C195" s="136"/>
+      <c r="D195" s="136"/>
+      <c r="E195" s="142"/>
+      <c r="F195" s="149"/>
+      <c r="G195" s="200"/>
+    </row>
+    <row r="196" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B196" s="82"/>
+      <c r="C196" s="136"/>
+      <c r="D196" s="136"/>
+      <c r="E196" s="142"/>
+      <c r="F196" s="149"/>
+      <c r="G196" s="200"/>
+    </row>
+    <row r="197" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B197" s="82"/>
+      <c r="C197" s="136"/>
+      <c r="D197" s="136"/>
+      <c r="E197" s="142"/>
+      <c r="F197" s="149"/>
+      <c r="G197" s="200"/>
+    </row>
+    <row r="198" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B198" s="82"/>
+      <c r="C198" s="136"/>
+      <c r="D198" s="136"/>
+      <c r="E198" s="142"/>
+      <c r="F198" s="149"/>
+      <c r="G198" s="200"/>
+    </row>
+    <row r="199" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B199" s="85"/>
+      <c r="C199" s="86"/>
+      <c r="D199" s="86"/>
+      <c r="E199" s="204">
+        <f>SUM(E14:E198)</f>
+        <v>856495</v>
+      </c>
+      <c r="F199" s="205">
+        <f>SUM(F14:F198)</f>
+        <v>962000</v>
+      </c>
+      <c r="G199" s="287" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="200" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B200" s="288" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="185" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B185" s="84"/>
-      <c r="C185" s="79" t="s">
-        <v>41</v>
-      </c>
-      <c r="D185" s="103"/>
-      <c r="E185" s="225">
-        <v>12200</v>
-      </c>
-      <c r="F185" s="226"/>
-      <c r="G185" s="106" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="186" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="84"/>
-      <c r="C186" s="103"/>
-      <c r="D186" s="103"/>
-      <c r="E186" s="225">
-        <v>300</v>
-      </c>
-      <c r="F186" s="226"/>
-      <c r="G186" s="92" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="187" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="82"/>
-      <c r="C187" s="79"/>
-      <c r="D187" s="79"/>
-      <c r="E187" s="161"/>
-      <c r="F187" s="156"/>
-      <c r="G187" s="92"/>
-    </row>
-    <row r="188" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="84"/>
-      <c r="C188" s="103"/>
-      <c r="D188" s="103"/>
-      <c r="E188" s="225"/>
-      <c r="F188" s="226"/>
-      <c r="G188" s="106"/>
-    </row>
-    <row r="189" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="84"/>
-      <c r="C189" s="103"/>
-      <c r="D189" s="103"/>
-      <c r="E189" s="225"/>
-      <c r="F189" s="226"/>
-      <c r="G189" s="106"/>
-    </row>
-    <row r="190" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="84"/>
-      <c r="C190" s="103"/>
-      <c r="D190" s="103"/>
-      <c r="E190" s="225"/>
-      <c r="F190" s="226"/>
-      <c r="G190" s="106"/>
-    </row>
-    <row r="191" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="84"/>
-      <c r="C191" s="103"/>
-      <c r="D191" s="103"/>
-      <c r="E191" s="225"/>
-      <c r="F191" s="226"/>
-      <c r="G191" s="106"/>
-    </row>
-    <row r="192" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="84"/>
-      <c r="C192" s="103"/>
-      <c r="D192" s="103"/>
-      <c r="E192" s="225"/>
-      <c r="F192" s="226"/>
-      <c r="G192" s="106"/>
-    </row>
-    <row r="193" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B193" s="82"/>
-      <c r="C193" s="79"/>
-      <c r="D193" s="79"/>
-      <c r="E193" s="148"/>
-      <c r="F193" s="156"/>
-      <c r="G193" s="92"/>
-    </row>
-    <row r="194" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B194" s="85"/>
-      <c r="C194" s="86"/>
-      <c r="D194" s="86"/>
-      <c r="E194" s="213">
-        <f>SUM(E14:E193)</f>
-        <v>763895</v>
-      </c>
-      <c r="F194" s="214">
-        <f>SUM(F14:F193)</f>
-        <v>762000</v>
-      </c>
-      <c r="G194" s="102"/>
-    </row>
-    <row r="195" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B195" s="273" t="s">
-        <v>333</v>
-      </c>
-      <c r="C195" s="274"/>
-      <c r="D195" s="136">
-        <f>F194-E194</f>
-        <v>-1895</v>
-      </c>
-      <c r="E195" s="275"/>
-      <c r="F195" s="276"/>
-      <c r="G195" s="277">
+      <c r="C200" s="289"/>
+      <c r="D200" s="136">
+        <f>F199-E199</f>
+        <v>105505</v>
+      </c>
+      <c r="E200" s="290"/>
+      <c r="F200" s="291"/>
+      <c r="G200" s="292">
         <f>SUBTOTAL(103,Tableau2[Observation])</f>
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -11491,22 +11605,17 @@
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C6:F6"/>
   </mergeCells>
-  <conditionalFormatting sqref="D195">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="D200">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="lessThan">
       <formula>-1895</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F190">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Suivie de Caisse 1.xlsx
+++ b/Suivie de Caisse 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ES-SABRE\Desktop\Caisse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6F3097-3CEA-494D-AEC2-997892BD5E9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AE66494-C904-48CD-8BF7-425EDBBC6BB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ETAT DE FACTURES DE DOIT" sheetId="3" state="hidden" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="380">
   <si>
     <t>Total</t>
   </si>
@@ -821,9 +821,6 @@
     <t xml:space="preserve">jour de coulage dernier voile pereferique + demarrage de la dalle de sol de la terrasse picine </t>
   </si>
   <si>
-    <t>15sac*45 + 2*250</t>
-  </si>
-  <si>
     <t>13*70 + 120tran</t>
   </si>
   <si>
@@ -851,9 +848,6 @@
     <t>Repas pour operateurs girafe</t>
   </si>
   <si>
-    <t>Achat ciment + pvc</t>
-  </si>
-  <si>
     <t>Achat polisteren</t>
   </si>
   <si>
@@ -870,12 +864,6 @@
   </si>
   <si>
     <t>Par Chacal Mohamed au bureau</t>
-  </si>
-  <si>
-    <t>Rouleau Poliane+Brouette+transport</t>
-  </si>
-  <si>
-    <t>14800+5900+500</t>
   </si>
   <si>
     <t>tuyau d'eau</t>
@@ -991,9 +979,6 @@
     <t>Le matin derriere la baraque</t>
   </si>
   <si>
-    <t>achat effectuer le 31/8 :48Kg de polyane:18240da + colle :1500da + 2bidon de sika hydrofuge : 2350da/bidon</t>
-  </si>
-  <si>
     <t>Hassan MO</t>
   </si>
   <si>
@@ -1054,16 +1039,10 @@
     <t>40*12</t>
   </si>
   <si>
-    <t>Silicon ( djamel ) + clé a molette</t>
-  </si>
-  <si>
     <t>600 + 800</t>
   </si>
   <si>
     <t>18*40 + 18*40  (grande chaleur)</t>
-  </si>
-  <si>
-    <t>2 Sac platre + Transport</t>
   </si>
   <si>
     <t>18*40+12*40</t>
@@ -1117,9 +1096,6 @@
     <t>Flexible pour machine à lavé,</t>
   </si>
   <si>
-    <t>46800/46800</t>
-  </si>
-  <si>
     <t>26jour *1800</t>
   </si>
   <si>
@@ -1141,16 +1117,115 @@
     <t>3 Balais, 2 manche, 1 pelle avec manche</t>
   </si>
   <si>
-    <t>Citerne</t>
+    <t>payement du credit fait chez halim quaincailler</t>
   </si>
   <si>
-    <t>4 voyage d'eau</t>
+    <t>LOT</t>
   </si>
   <si>
-    <t>Le 1*13/9  2*14/9 1*15/09</t>
+    <t>Plomberie</t>
   </si>
   <si>
-    <t>payement du credit fait chez halim quaincailler</t>
+    <t>Villa Djamel</t>
+  </si>
+  <si>
+    <t>Colonne1</t>
+  </si>
+  <si>
+    <t>Villa</t>
+  </si>
+  <si>
+    <t>argent</t>
+  </si>
+  <si>
+    <t>vila</t>
+  </si>
+  <si>
+    <t>degager</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Payement personnel</t>
+  </si>
+  <si>
+    <t>Beton</t>
+  </si>
+  <si>
+    <t>Necessaire au Chantier</t>
+  </si>
+  <si>
+    <t>Terrassement</t>
+  </si>
+  <si>
+    <t>Etanchéité</t>
+  </si>
+  <si>
+    <t>Divers</t>
+  </si>
+  <si>
+    <t>Coulage Beton</t>
+  </si>
+  <si>
+    <t>achet chez Sika 2200</t>
+  </si>
+  <si>
+    <t>credit chez halim 2300</t>
+  </si>
+  <si>
+    <t>Pointe a beton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Achat ciment </t>
+  </si>
+  <si>
+    <t>PVC</t>
+  </si>
+  <si>
+    <t>2*2550</t>
+  </si>
+  <si>
+    <t>16sac*450</t>
+  </si>
+  <si>
+    <t>Rouleau Poliane</t>
+  </si>
+  <si>
+    <t>Brouette</t>
+  </si>
+  <si>
+    <t>Polyane</t>
+  </si>
+  <si>
+    <t>Colle</t>
+  </si>
+  <si>
+    <t>achat effectuer le 31/8 :48Kg de polyane:18400da + colle :1500da + 2bidon de sika hydrofuge : 2350da/bidon</t>
+  </si>
+  <si>
+    <t>Outils de Chantier</t>
+  </si>
+  <si>
+    <t>Silicon ( djamel )</t>
+  </si>
+  <si>
+    <t>Clé a molette</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 Sac de Platre</t>
+  </si>
+  <si>
+    <t>Autre</t>
+  </si>
+  <si>
+    <t>Le 1*13/9  4*14/9 1*15/09 1*19/9</t>
+  </si>
+  <si>
+    <t>7 Voyages citern d'eau</t>
+  </si>
+  <si>
+    <t>Eau pour ouvrier,</t>
   </si>
 </sst>
 </file>
@@ -1382,7 +1457,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1625,15 +1700,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1644,7 +1710,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="294">
+  <cellXfs count="301">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2286,6 +2352,78 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2394,6 +2532,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2403,77 +2556,11 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2482,563 +2569,7 @@
     <cellStyle name="Monétaire" xfId="3" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="59">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-      <numFmt numFmtId="175" formatCode="#.##0\.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-      <numFmt numFmtId="175" formatCode="#.##0\.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="44"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="172" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF0000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFF0000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="68">
     <dxf>
       <font>
         <b val="0"/>
@@ -3305,6 +2836,586 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="172" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+      <numFmt numFmtId="173" formatCode="#.##0\.00"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <left style="medium">
           <color indexed="64"/>
@@ -3321,10 +3432,116 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+      <numFmt numFmtId="173" formatCode="#.##0\.00"/>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="44"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFF0000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
         <vertical/>
         <horizontal/>
       </border>
@@ -4067,8 +4284,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFEBAAC"/>
       <color rgb="FF82FF65"/>
-      <color rgb="FFFEBAAC"/>
       <color rgb="FFFF5353"/>
       <color rgb="FFFE9782"/>
       <color rgb="FFFFFF66"/>
@@ -4168,77 +4385,98 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau4" displayName="Tableau4" ref="B13:G95" totalsRowShown="0" headerRowDxfId="58" dataDxfId="56" headerRowBorderDxfId="57" tableBorderDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau4" displayName="Tableau4" ref="B13:G95" totalsRowShown="0" headerRowDxfId="67" dataDxfId="65" headerRowBorderDxfId="66" tableBorderDxfId="64">
   <autoFilter ref="B13:G95" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Opérations" dataDxfId="53"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Par / De" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Débit" dataDxfId="51"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Crédit" dataDxfId="50"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Observation" dataDxfId="49"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Opérations" dataDxfId="62"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Par / De" dataDxfId="61"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Débit" dataDxfId="60"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Crédit" dataDxfId="59"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Observation" dataDxfId="58"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau42" displayName="Tableau42" ref="B13:G52" totalsRowShown="0" headerRowDxfId="48" dataDxfId="46" headerRowBorderDxfId="47" tableBorderDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau42" displayName="Tableau42" ref="B13:G52" totalsRowShown="0" headerRowDxfId="57" dataDxfId="55" headerRowBorderDxfId="56" tableBorderDxfId="54">
   <autoFilter ref="B13:G52" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Date" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Opérations" dataDxfId="43"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Par / De" dataDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Débit" dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Crédit" dataDxfId="40"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Observation" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Date" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Opérations" dataDxfId="52"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Par / De" dataDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Débit" dataDxfId="50"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Crédit" dataDxfId="49"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Observation" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D79F84FD-02FB-4970-B09E-1D3934AE7625}" name="Tableau426" displayName="Tableau426" ref="B13:G54" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D79F84FD-02FB-4970-B09E-1D3934AE7625}" name="Tableau426" displayName="Tableau426" ref="B13:G54" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44">
   <autoFilter ref="B13:G54" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{9712B134-76DF-4E92-834A-88CE2D0D20B1}" name="Date" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{435323D6-CD61-47E6-9E37-D5FC77826705}" name="Opérations" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{D3626E4C-0CBA-4147-9F26-7CD98D019F06}" name="Par / De" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{A4C3AC32-653D-4FA1-B3C4-14979BB0F578}" name="Débit" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{81D053C2-198C-43A9-9B40-8C044522E5A0}" name="Crédit" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{C59247B9-B17D-4825-9165-85A02C3F100C}" name="Observation" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{9712B134-76DF-4E92-834A-88CE2D0D20B1}" name="Date" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{435323D6-CD61-47E6-9E37-D5FC77826705}" name="Opérations" dataDxfId="42"/>
+    <tableColumn id="6" xr3:uid="{D3626E4C-0CBA-4147-9F26-7CD98D019F06}" name="Par / De" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{A4C3AC32-653D-4FA1-B3C4-14979BB0F578}" name="Débit" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{81D053C2-198C-43A9-9B40-8C044522E5A0}" name="Crédit" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{C59247B9-B17D-4825-9165-85A02C3F100C}" name="Observation" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tableau2" displayName="Tableau2" ref="B13:G200" totalsRowCount="1" headerRowDxfId="8" dataDxfId="6" totalsRowDxfId="7" headerRowBorderDxfId="28" tableBorderDxfId="27">
-  <autoFilter ref="B13:G199" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Date" totalsRowLabel="Solde De La Caisse" dataDxfId="14" totalsRowDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Opérations" dataDxfId="13" totalsRowDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Par / De" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="3">
-      <totalsRowFormula>F199-E199</totalsRowFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tableau2" displayName="Tableau2" ref="B13:H210" totalsRowCount="1" headerRowDxfId="33" dataDxfId="31" totalsRowDxfId="29" headerRowBorderDxfId="32" tableBorderDxfId="30" totalsRowBorderDxfId="28">
+  <autoFilter ref="B13:H209" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Date" totalsRowLabel="Solde De La Caisse" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Opérations" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Par / De" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="22">
+      <totalsRowFormula>Tableau2[[#Totals],[Crédit]]-Tableau2[[#Totals],[Débit]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Débit" dataDxfId="11" totalsRowDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Crédit" dataDxfId="10" totalsRowDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Observation" totalsRowFunction="count" dataDxfId="9" totalsRowDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Débit" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Crédit" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{C30977D3-8D38-454C-AD50-AD6368348F30}" name="LOT" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Observation" totalsRowFunction="count" dataDxfId="15" totalsRowDxfId="14"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau3" displayName="Tableau3" ref="B13:G78" totalsRowShown="0" headerRowBorderDxfId="26" tableBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7806D280-479D-4BBD-9B9E-3AA9E67319C5}" name="Tableau6" displayName="Tableau6" ref="R13:R29" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="R13:R29" xr:uid="{7C1DE353-BB19-436D-A152-983C47C78B9A}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{5955CE97-A309-4197-818D-A9EABF5AE20B}" name="Colonne1" dataDxfId="11"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{18FB793D-403A-4D62-8F16-D79D9EAD4081}" name="Tableau8" displayName="Tableau8" ref="T13:T29" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="T13:T29" xr:uid="{06DB10D3-BDE0-4EAA-B542-5E6618A236D2}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{769C60AC-2314-4C7C-A097-41CE787E6F8B}" name="Colonne1" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau3" displayName="Tableau3" ref="B13:G78" totalsRowShown="0" headerRowBorderDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="B13:G78" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Date" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Opérations" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Par / De" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Débit" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Crédit" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Observation" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Date" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Opérations" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Par / De" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Débit" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Crédit" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Observation" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4603,8 +4841,8 @@
       <c r="G4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="234"/>
-      <c r="I4" s="235"/>
+      <c r="H4" s="258"/>
+      <c r="I4" s="259"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
@@ -4631,11 +4869,11 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="236" t="s">
+      <c r="C10" s="260" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="237"/>
-      <c r="E10" s="238"/>
+      <c r="D10" s="261"/>
+      <c r="E10" s="262"/>
       <c r="F10" s="26"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
@@ -4696,11 +4934,11 @@
       <c r="C18" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="239" t="s">
+      <c r="D18" s="263" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="240"/>
-      <c r="F18" s="241"/>
+      <c r="E18" s="264"/>
+      <c r="F18" s="265"/>
       <c r="G18" s="40" t="s">
         <v>20</v>
       </c>
@@ -4714,9 +4952,9 @@
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="22"/>
       <c r="C19" s="23"/>
-      <c r="D19" s="231"/>
-      <c r="E19" s="232"/>
-      <c r="F19" s="233"/>
+      <c r="D19" s="255"/>
+      <c r="E19" s="256"/>
+      <c r="F19" s="257"/>
       <c r="G19" s="37"/>
       <c r="H19" s="37"/>
       <c r="I19" s="24">
@@ -4727,9 +4965,9 @@
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="11"/>
       <c r="C20" s="12"/>
-      <c r="D20" s="231"/>
-      <c r="E20" s="232"/>
-      <c r="F20" s="233"/>
+      <c r="D20" s="255"/>
+      <c r="E20" s="256"/>
+      <c r="F20" s="257"/>
       <c r="G20" s="38"/>
       <c r="H20" s="38"/>
       <c r="I20" s="13">
@@ -4740,9 +4978,9 @@
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
-      <c r="D21" s="231"/>
-      <c r="E21" s="232"/>
-      <c r="F21" s="233"/>
+      <c r="D21" s="255"/>
+      <c r="E21" s="256"/>
+      <c r="F21" s="257"/>
       <c r="G21" s="38"/>
       <c r="H21" s="38"/>
       <c r="I21" s="13">
@@ -4753,9 +4991,9 @@
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
-      <c r="D22" s="231"/>
-      <c r="E22" s="232"/>
-      <c r="F22" s="233"/>
+      <c r="D22" s="255"/>
+      <c r="E22" s="256"/>
+      <c r="F22" s="257"/>
       <c r="G22" s="38"/>
       <c r="H22" s="38"/>
       <c r="I22" s="13">
@@ -4766,9 +5004,9 @@
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
-      <c r="D23" s="231"/>
-      <c r="E23" s="232"/>
-      <c r="F23" s="233"/>
+      <c r="D23" s="255"/>
+      <c r="E23" s="256"/>
+      <c r="F23" s="257"/>
       <c r="G23" s="38"/>
       <c r="H23" s="38"/>
       <c r="I23" s="13">
@@ -4779,9 +5017,9 @@
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
-      <c r="D24" s="231"/>
-      <c r="E24" s="232"/>
-      <c r="F24" s="233"/>
+      <c r="D24" s="255"/>
+      <c r="E24" s="256"/>
+      <c r="F24" s="257"/>
       <c r="G24" s="38"/>
       <c r="H24" s="38"/>
       <c r="I24" s="13">
@@ -4805,9 +5043,9 @@
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
-      <c r="D26" s="231"/>
-      <c r="E26" s="232"/>
-      <c r="F26" s="233"/>
+      <c r="D26" s="255"/>
+      <c r="E26" s="256"/>
+      <c r="F26" s="257"/>
       <c r="G26" s="38"/>
       <c r="H26" s="38"/>
       <c r="I26" s="13">
@@ -4818,9 +5056,9 @@
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
-      <c r="D27" s="231"/>
-      <c r="E27" s="232"/>
-      <c r="F27" s="233"/>
+      <c r="D27" s="255"/>
+      <c r="E27" s="256"/>
+      <c r="F27" s="257"/>
       <c r="G27" s="38"/>
       <c r="H27" s="38"/>
       <c r="I27" s="13">
@@ -4831,9 +5069,9 @@
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
-      <c r="D28" s="231"/>
-      <c r="E28" s="232"/>
-      <c r="F28" s="233"/>
+      <c r="D28" s="255"/>
+      <c r="E28" s="256"/>
+      <c r="F28" s="257"/>
       <c r="G28" s="38"/>
       <c r="H28" s="38"/>
       <c r="I28" s="13">
@@ -4844,9 +5082,9 @@
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
-      <c r="D29" s="231"/>
-      <c r="E29" s="232"/>
-      <c r="F29" s="233"/>
+      <c r="D29" s="255"/>
+      <c r="E29" s="256"/>
+      <c r="F29" s="257"/>
       <c r="G29" s="38"/>
       <c r="H29" s="38"/>
       <c r="I29" s="13">
@@ -4857,9 +5095,9 @@
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" s="11"/>
       <c r="C30" s="12"/>
-      <c r="D30" s="231"/>
-      <c r="E30" s="232"/>
-      <c r="F30" s="233"/>
+      <c r="D30" s="255"/>
+      <c r="E30" s="256"/>
+      <c r="F30" s="257"/>
       <c r="G30" s="38"/>
       <c r="H30" s="38"/>
       <c r="I30" s="13">
@@ -4870,9 +5108,9 @@
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" s="11"/>
       <c r="C31" s="12"/>
-      <c r="D31" s="231"/>
-      <c r="E31" s="232"/>
-      <c r="F31" s="233"/>
+      <c r="D31" s="255"/>
+      <c r="E31" s="256"/>
+      <c r="F31" s="257"/>
       <c r="G31" s="38"/>
       <c r="H31" s="38"/>
       <c r="I31" s="13">
@@ -4883,9 +5121,9 @@
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" s="11"/>
       <c r="C32" s="12"/>
-      <c r="D32" s="231"/>
-      <c r="E32" s="232"/>
-      <c r="F32" s="233"/>
+      <c r="D32" s="255"/>
+      <c r="E32" s="256"/>
+      <c r="F32" s="257"/>
       <c r="G32" s="38"/>
       <c r="H32" s="38"/>
       <c r="I32" s="13">
@@ -4896,9 +5134,9 @@
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="11"/>
       <c r="C33" s="12"/>
-      <c r="D33" s="231"/>
-      <c r="E33" s="232"/>
-      <c r="F33" s="233"/>
+      <c r="D33" s="255"/>
+      <c r="E33" s="256"/>
+      <c r="F33" s="257"/>
       <c r="G33" s="38"/>
       <c r="H33" s="38"/>
       <c r="I33" s="13">
@@ -4909,9 +5147,9 @@
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="11"/>
       <c r="C34" s="12"/>
-      <c r="D34" s="231"/>
-      <c r="E34" s="232"/>
-      <c r="F34" s="233"/>
+      <c r="D34" s="255"/>
+      <c r="E34" s="256"/>
+      <c r="F34" s="257"/>
       <c r="G34" s="38"/>
       <c r="H34" s="38"/>
       <c r="I34" s="13">
@@ -4922,9 +5160,9 @@
     <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" s="11"/>
       <c r="C35" s="12"/>
-      <c r="D35" s="231"/>
-      <c r="E35" s="232"/>
-      <c r="F35" s="233"/>
+      <c r="D35" s="255"/>
+      <c r="E35" s="256"/>
+      <c r="F35" s="257"/>
       <c r="G35" s="38"/>
       <c r="H35" s="38"/>
       <c r="I35" s="13">
@@ -4935,9 +5173,9 @@
     <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="11"/>
       <c r="C36" s="12"/>
-      <c r="D36" s="231"/>
-      <c r="E36" s="232"/>
-      <c r="F36" s="233"/>
+      <c r="D36" s="255"/>
+      <c r="E36" s="256"/>
+      <c r="F36" s="257"/>
       <c r="G36" s="38"/>
       <c r="H36" s="38"/>
       <c r="I36" s="13">
@@ -4948,9 +5186,9 @@
     <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" s="11"/>
       <c r="C37" s="12"/>
-      <c r="D37" s="231"/>
-      <c r="E37" s="232"/>
-      <c r="F37" s="233"/>
+      <c r="D37" s="255"/>
+      <c r="E37" s="256"/>
+      <c r="F37" s="257"/>
       <c r="G37" s="38"/>
       <c r="H37" s="38"/>
       <c r="I37" s="13">
@@ -4961,9 +5199,9 @@
     <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" s="11"/>
       <c r="C38" s="12"/>
-      <c r="D38" s="231"/>
-      <c r="E38" s="232"/>
-      <c r="F38" s="233"/>
+      <c r="D38" s="255"/>
+      <c r="E38" s="256"/>
+      <c r="F38" s="257"/>
       <c r="G38" s="38"/>
       <c r="H38" s="38"/>
       <c r="I38" s="13">
@@ -5278,6 +5516,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="D37:F37"/>
@@ -5291,15 +5538,6 @@
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="D29:F29"/>
     <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
@@ -5317,7 +5555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:H105"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="B98" sqref="B98:G99"/>
     </sheetView>
   </sheetViews>
@@ -5335,14 +5573,14 @@
   <sheetData>
     <row r="2" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="246" t="s">
+      <c r="B3" s="270" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="247"/>
-      <c r="D3" s="247"/>
-      <c r="E3" s="247"/>
-      <c r="F3" s="247"/>
-      <c r="G3" s="248"/>
+      <c r="C3" s="271"/>
+      <c r="D3" s="271"/>
+      <c r="E3" s="271"/>
+      <c r="F3" s="271"/>
+      <c r="G3" s="272"/>
     </row>
     <row r="4" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C4" s="45"/>
@@ -5351,21 +5589,21 @@
       <c r="F4" s="46"/>
     </row>
     <row r="5" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="243" t="s">
-        <v>284</v>
-      </c>
-      <c r="C5" s="244"/>
-      <c r="D5" s="244"/>
-      <c r="E5" s="244"/>
-      <c r="F5" s="244"/>
-      <c r="G5" s="245"/>
+      <c r="B5" s="267" t="s">
+        <v>280</v>
+      </c>
+      <c r="C5" s="268"/>
+      <c r="D5" s="268"/>
+      <c r="E5" s="268"/>
+      <c r="F5" s="268"/>
+      <c r="G5" s="269"/>
     </row>
     <row r="6" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E7" s="254" t="s">
+      <c r="E7" s="278" t="s">
         <v>198</v>
       </c>
-      <c r="F7" s="254"/>
+      <c r="F7" s="278"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="169" t="s">
@@ -5375,10 +5613,10 @@
         <v>37</v>
       </c>
       <c r="D8" s="61"/>
-      <c r="E8" s="253" t="s">
+      <c r="E8" s="277" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="253"/>
+      <c r="F8" s="277"/>
       <c r="G8" s="178"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
@@ -5390,10 +5628,10 @@
         <v>440580</v>
       </c>
       <c r="D9" s="62"/>
-      <c r="E9" s="252" t="s">
+      <c r="E9" s="276" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="252"/>
+      <c r="F9" s="276"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="169" t="s">
@@ -5404,10 +5642,10 @@
         <v>413420</v>
       </c>
       <c r="D10" s="63"/>
-      <c r="E10" s="251" t="s">
+      <c r="E10" s="275" t="s">
         <v>199</v>
       </c>
-      <c r="F10" s="251"/>
+      <c r="F10" s="275"/>
     </row>
     <row r="11" spans="2:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="169" t="s">
@@ -5418,10 +5656,10 @@
         <v>-27160</v>
       </c>
       <c r="D11" s="130"/>
-      <c r="E11" s="249" t="s">
+      <c r="E11" s="273" t="s">
         <v>197</v>
       </c>
-      <c r="F11" s="250"/>
+      <c r="F11" s="274"/>
     </row>
     <row r="13" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="183" t="s">
@@ -5869,7 +6107,7 @@
       </c>
       <c r="F43" s="119"/>
       <c r="G43" s="120" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="44" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6315,7 +6553,7 @@
         <v>60000</v>
       </c>
       <c r="G76" s="112" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="77" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6561,26 +6799,26 @@
       <c r="G95" s="129"/>
     </row>
     <row r="98" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="242" t="s">
-        <v>340</v>
-      </c>
-      <c r="C98" s="242"/>
-      <c r="D98" s="242"/>
-      <c r="E98" s="242"/>
-      <c r="F98" s="242"/>
-      <c r="G98" s="242"/>
+      <c r="B98" s="266" t="s">
+        <v>333</v>
+      </c>
+      <c r="C98" s="266"/>
+      <c r="D98" s="266"/>
+      <c r="E98" s="266"/>
+      <c r="F98" s="266"/>
+      <c r="G98" s="266"/>
       <c r="H98">
         <f>6400/1280</f>
         <v>5</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B99" s="242"/>
-      <c r="C99" s="242"/>
-      <c r="D99" s="242"/>
-      <c r="E99" s="242"/>
-      <c r="F99" s="242"/>
-      <c r="G99" s="242"/>
+      <c r="B99" s="266"/>
+      <c r="C99" s="266"/>
+      <c r="D99" s="266"/>
+      <c r="E99" s="266"/>
+      <c r="F99" s="266"/>
+      <c r="G99" s="266"/>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B100" s="154"/>
@@ -6616,7 +6854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:H114"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -6634,14 +6872,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="258" t="s">
+      <c r="B3" s="282" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="258"/>
-      <c r="D3" s="258"/>
-      <c r="E3" s="258"/>
-      <c r="F3" s="258"/>
-      <c r="G3" s="258"/>
+      <c r="C3" s="282"/>
+      <c r="D3" s="282"/>
+      <c r="E3" s="282"/>
+      <c r="F3" s="282"/>
+      <c r="G3" s="282"/>
     </row>
     <row r="4" spans="2:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="155"/>
@@ -6650,21 +6888,21 @@
       <c r="F4" s="156"/>
     </row>
     <row r="5" spans="2:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="257" t="s">
-        <v>298</v>
-      </c>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
+      <c r="B5" s="281" t="s">
+        <v>294</v>
+      </c>
+      <c r="C5" s="281"/>
+      <c r="D5" s="281"/>
+      <c r="E5" s="281"/>
+      <c r="F5" s="281"/>
+      <c r="G5" s="281"/>
     </row>
     <row r="6" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E7" s="255" t="s">
+      <c r="E7" s="279" t="s">
         <v>198</v>
       </c>
-      <c r="F7" s="256"/>
+      <c r="F7" s="280"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="195" t="s">
@@ -6674,10 +6912,10 @@
         <v>37</v>
       </c>
       <c r="D8" s="192"/>
-      <c r="E8" s="259" t="s">
+      <c r="E8" s="283" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="260"/>
+      <c r="F8" s="284"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="195" t="s">
@@ -6688,10 +6926,10 @@
         <v>98590</v>
       </c>
       <c r="D9" s="193"/>
-      <c r="E9" s="261" t="s">
+      <c r="E9" s="285" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="262"/>
+      <c r="F9" s="286"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="195" t="s">
@@ -6702,10 +6940,10 @@
         <v>66000</v>
       </c>
       <c r="D10" s="193"/>
-      <c r="E10" s="263" t="s">
+      <c r="E10" s="287" t="s">
         <v>199</v>
       </c>
-      <c r="F10" s="264"/>
+      <c r="F10" s="288"/>
     </row>
     <row r="11" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="195" t="s">
@@ -6716,10 +6954,10 @@
         <v>-32590</v>
       </c>
       <c r="D11" s="194"/>
-      <c r="E11" s="249" t="s">
+      <c r="E11" s="273" t="s">
         <v>197</v>
       </c>
-      <c r="F11" s="250"/>
+      <c r="F11" s="274"/>
     </row>
     <row r="12" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6918,7 +7156,7 @@
         <v>194</v>
       </c>
       <c r="G26" s="117" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6972,7 +7210,7 @@
       </c>
       <c r="F30" s="116"/>
       <c r="G30" s="117" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6998,7 +7236,7 @@
       </c>
       <c r="F32" s="116"/>
       <c r="G32" s="117" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="33" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7036,7 +7274,7 @@
       </c>
       <c r="F35" s="116"/>
       <c r="G35" s="117" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="36" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7060,7 +7298,7 @@
       </c>
       <c r="F37" s="116"/>
       <c r="G37" s="117" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7084,7 +7322,7 @@
       </c>
       <c r="F39" s="116"/>
       <c r="G39" s="117" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="40" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7108,7 +7346,7 @@
       </c>
       <c r="F41" s="116"/>
       <c r="G41" s="117" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="42" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7132,7 +7370,7 @@
       </c>
       <c r="F43" s="116"/>
       <c r="G43" s="117" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="44" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7146,7 +7384,7 @@
       </c>
       <c r="F44" s="116"/>
       <c r="G44" s="117" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="45" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7164,7 +7402,7 @@
       <c r="E46" s="110"/>
       <c r="F46" s="110"/>
       <c r="G46" s="168" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="47" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7174,7 +7412,7 @@
       <c r="E47" s="110"/>
       <c r="F47" s="110"/>
       <c r="G47" s="168" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="48" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7184,7 +7422,7 @@
       <c r="E48" s="110"/>
       <c r="F48" s="110"/>
       <c r="G48" s="168" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="49" spans="2:8" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7194,7 +7432,7 @@
       <c r="E49" s="110"/>
       <c r="F49" s="110"/>
       <c r="G49" s="168" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H49" s="197"/>
     </row>
@@ -7205,7 +7443,7 @@
       <c r="E50" s="110"/>
       <c r="F50" s="110"/>
       <c r="G50" s="198" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="51" spans="2:8" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7733,8 +7971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B8C70F-B8AB-4C19-B79C-FF22DE95A418}">
   <dimension ref="A3:I116"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7751,14 +7989,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="258" t="s">
+      <c r="B3" s="282" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="258"/>
-      <c r="D3" s="258"/>
-      <c r="E3" s="258"/>
-      <c r="F3" s="258"/>
-      <c r="G3" s="258"/>
+      <c r="C3" s="282"/>
+      <c r="D3" s="282"/>
+      <c r="E3" s="282"/>
+      <c r="F3" s="282"/>
+      <c r="G3" s="282"/>
     </row>
     <row r="4" spans="2:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="155"/>
@@ -7767,21 +8005,21 @@
       <c r="F4" s="156"/>
     </row>
     <row r="5" spans="2:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="257" t="s">
-        <v>298</v>
-      </c>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
+      <c r="B5" s="281" t="s">
+        <v>294</v>
+      </c>
+      <c r="C5" s="281"/>
+      <c r="D5" s="281"/>
+      <c r="E5" s="281"/>
+      <c r="F5" s="281"/>
+      <c r="G5" s="281"/>
     </row>
     <row r="6" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E7" s="255" t="s">
+      <c r="E7" s="279" t="s">
         <v>198</v>
       </c>
-      <c r="F7" s="256"/>
+      <c r="F7" s="280"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="195" t="s">
@@ -7791,10 +8029,10 @@
         <v>37</v>
       </c>
       <c r="D8" s="192"/>
-      <c r="E8" s="259" t="s">
+      <c r="E8" s="283" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="260"/>
+      <c r="F8" s="284"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="195" t="s">
@@ -7805,10 +8043,10 @@
         <v>53890</v>
       </c>
       <c r="D9" s="193"/>
-      <c r="E9" s="261" t="s">
+      <c r="E9" s="285" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="262"/>
+      <c r="F9" s="286"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="195" t="s">
@@ -7819,10 +8057,10 @@
         <v>0</v>
       </c>
       <c r="D10" s="193"/>
-      <c r="E10" s="263" t="s">
+      <c r="E10" s="287" t="s">
         <v>199</v>
       </c>
-      <c r="F10" s="264"/>
+      <c r="F10" s="288"/>
     </row>
     <row r="11" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="195" t="s">
@@ -7833,10 +8071,10 @@
         <v>-53890</v>
       </c>
       <c r="D11" s="194"/>
-      <c r="E11" s="249" t="s">
+      <c r="E11" s="273" t="s">
         <v>197</v>
       </c>
-      <c r="F11" s="250"/>
+      <c r="F11" s="274"/>
     </row>
     <row r="12" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7869,7 +8107,7 @@
     </row>
     <row r="15" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="171" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C15" s="110"/>
       <c r="D15" s="110"/>
@@ -7878,7 +8116,7 @@
       </c>
       <c r="F15" s="116"/>
       <c r="G15" s="116" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7902,7 +8140,7 @@
       </c>
       <c r="F17" s="116"/>
       <c r="G17" s="117" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7916,10 +8154,10 @@
       </c>
       <c r="F18" s="116"/>
       <c r="G18" s="117" t="s">
-        <v>307</v>
-      </c>
-      <c r="H18" s="265"/>
-      <c r="I18" s="266"/>
+        <v>302</v>
+      </c>
+      <c r="H18" s="289"/>
+      <c r="I18" s="290"/>
     </row>
     <row r="19" spans="1:9" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="171"/>
@@ -7932,7 +8170,7 @@
       </c>
       <c r="F19" s="116"/>
       <c r="G19" s="116" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7951,12 +8189,12 @@
         <v>47</v>
       </c>
       <c r="D21" s="212" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E21" s="213"/>
       <c r="F21" s="214"/>
       <c r="G21" s="215" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7981,7 +8219,7 @@
       </c>
       <c r="F23" s="116"/>
       <c r="G23" s="117" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7990,14 +8228,14 @@
         <v>47</v>
       </c>
       <c r="D24" s="110" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E24" s="116">
         <v>10500</v>
       </c>
       <c r="F24" s="116"/>
       <c r="G24" s="117" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8006,14 +8244,14 @@
         <v>47</v>
       </c>
       <c r="D25" s="110" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E25" s="116">
         <v>6000</v>
       </c>
       <c r="F25" s="116"/>
       <c r="G25" s="117" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8032,12 +8270,12 @@
         <v>41</v>
       </c>
       <c r="D27" s="110"/>
-      <c r="E27" s="110">
+      <c r="E27" s="116">
         <v>450</v>
       </c>
-      <c r="F27" s="110"/>
-      <c r="G27" s="134" t="s">
-        <v>342</v>
+      <c r="F27" s="116"/>
+      <c r="G27" s="117" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8766,110 +9004,119 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J200"/>
+  <dimension ref="A1:X210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G169" sqref="G169"/>
+    <sheetView tabSelected="1" topLeftCell="A190" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G200" sqref="G200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="208" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" style="274" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" style="232" customWidth="1"/>
     <col min="3" max="3" width="21" style="156" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" style="156" customWidth="1"/>
     <col min="5" max="5" width="14.140625" style="156" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" style="156" customWidth="1"/>
-    <col min="7" max="7" width="42.28515625" style="293" customWidth="1"/>
-    <col min="8" max="8" width="36.5703125" style="107" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" style="46" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="46"/>
+    <col min="7" max="7" width="23.85546875" style="156" customWidth="1"/>
+    <col min="8" max="8" width="42.28515625" style="243" customWidth="1"/>
+    <col min="9" max="9" width="36.5703125" style="107" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" style="46" customWidth="1"/>
+    <col min="11" max="17" width="11.42578125" style="46"/>
+    <col min="18" max="18" width="11.7109375" style="46" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" style="46"/>
+    <col min="20" max="20" width="11.7109375" style="46" customWidth="1"/>
+    <col min="21" max="16384" width="11.42578125" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="G1" s="275"/>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="G2" s="275"/>
-    </row>
-    <row r="3" spans="2:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="276" t="s">
+    <row r="1" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="H1" s="233"/>
+    </row>
+    <row r="2" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="H2" s="233"/>
+    </row>
+    <row r="3" spans="2:24" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="291" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="277"/>
-      <c r="E3" s="278"/>
-      <c r="F3" s="278"/>
-      <c r="G3" s="275"/>
-    </row>
-    <row r="4" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D3" s="292"/>
+      <c r="E3" s="293"/>
+      <c r="F3" s="293"/>
+      <c r="G3" s="244"/>
+      <c r="H3" s="233"/>
+    </row>
+    <row r="4" spans="2:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="155"/>
       <c r="D4" s="155"/>
-      <c r="G4" s="275"/>
-    </row>
-    <row r="5" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H4" s="233"/>
+    </row>
+    <row r="5" spans="2:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" s="155"/>
       <c r="D5" s="155"/>
-      <c r="G5" s="275"/>
-    </row>
-    <row r="6" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="270" t="s">
+      <c r="H5" s="233"/>
+    </row>
+    <row r="6" spans="2:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="294" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="270"/>
-      <c r="E6" s="279"/>
-      <c r="F6" s="279"/>
-      <c r="G6" s="275"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="G7" s="275"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D6" s="294"/>
+      <c r="E6" s="295"/>
+      <c r="F6" s="295"/>
+      <c r="G6" s="234"/>
+      <c r="H6" s="233"/>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="H7" s="233"/>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B8" s="138" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="230" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="280"/>
-      <c r="G8" s="275"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D8" s="235"/>
+      <c r="H8" s="233"/>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B9" s="138" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="167">
-        <f>E199</f>
-        <v>856495</v>
-      </c>
-      <c r="D9" s="281"/>
-      <c r="G9" s="275"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+        <f>Tableau2[[#Totals],[Débit]]</f>
+        <v>867175</v>
+      </c>
+      <c r="D9" s="236"/>
+      <c r="H9" s="233"/>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B10" s="138" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="167">
-        <f>F199</f>
+        <f>Tableau2[[#Totals],[Crédit]]</f>
         <v>962000</v>
       </c>
-      <c r="D10" s="281"/>
-      <c r="G10" s="275"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H10" s="233"/>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B11" s="138" t="s">
         <v>35</v>
       </c>
       <c r="C11" s="78">
         <f>C10-C9</f>
-        <v>105505</v>
+        <v>94825</v>
       </c>
       <c r="D11" s="152"/>
-      <c r="G11" s="275"/>
-    </row>
-    <row r="12" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G12" s="275"/>
-    </row>
-    <row r="13" spans="2:8" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="233"/>
+    </row>
+    <row r="12" spans="2:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="233"/>
+      <c r="X12" s="46" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="74" t="s">
         <v>5</v>
       </c>
@@ -8885,14 +9132,26 @@
       <c r="F13" s="145" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="87" t="s">
+      <c r="G13" s="145" t="s">
+        <v>344</v>
+      </c>
+      <c r="H13" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="108" t="s">
+      <c r="I13" s="108" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R13" s="46" t="s">
+        <v>347</v>
+      </c>
+      <c r="T13" s="46" t="s">
+        <v>347</v>
+      </c>
+      <c r="X13" s="46" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="83">
         <v>44762</v>
       </c>
@@ -8906,11 +9165,20 @@
       <c r="F14" s="146">
         <v>150000</v>
       </c>
-      <c r="G14" s="200" t="s">
+      <c r="G14" s="149" t="s">
+        <v>352</v>
+      </c>
+      <c r="H14" s="200" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R14" s="46" t="s">
+        <v>348</v>
+      </c>
+      <c r="T14" s="46" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="83"/>
       <c r="C15" s="136" t="s">
         <v>41</v>
@@ -8920,11 +9188,20 @@
         <v>45000</v>
       </c>
       <c r="F15" s="147"/>
-      <c r="G15" s="200" t="s">
+      <c r="G15" s="149" t="s">
+        <v>345</v>
+      </c>
+      <c r="H15" s="200" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R15" s="46" t="s">
+        <v>348</v>
+      </c>
+      <c r="T15" s="46" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="83"/>
       <c r="C16" s="136" t="s">
         <v>41</v>
@@ -8934,21 +9211,36 @@
         <v>35000</v>
       </c>
       <c r="F16" s="147"/>
-      <c r="G16" s="200" t="s">
+      <c r="G16" s="149" t="s">
+        <v>345</v>
+      </c>
+      <c r="H16" s="200" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" s="139" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R16" s="46" t="s">
+        <v>348</v>
+      </c>
+      <c r="T16" s="46" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="139" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="208"/>
       <c r="B17" s="89"/>
       <c r="C17" s="137"/>
       <c r="D17" s="137"/>
       <c r="E17" s="137"/>
       <c r="F17" s="148"/>
-      <c r="G17" s="201"/>
-      <c r="H17" s="109"/>
-    </row>
-    <row r="18" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G17" s="149" t="s">
+        <v>352</v>
+      </c>
+      <c r="H17" s="201"/>
+      <c r="I17" s="109"/>
+      <c r="R17" s="139" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="83">
         <v>44763</v>
       </c>
@@ -8962,9 +9254,12 @@
       <c r="F18" s="146">
         <v>20000</v>
       </c>
-      <c r="G18" s="200"/>
-    </row>
-    <row r="19" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="146" t="s">
+        <v>352</v>
+      </c>
+      <c r="H18" s="200"/>
+    </row>
+    <row r="19" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="81"/>
       <c r="C19" s="136" t="s">
         <v>42</v>
@@ -8976,21 +9271,27 @@
         <v>6000</v>
       </c>
       <c r="F19" s="147"/>
-      <c r="G19" s="200" t="s">
+      <c r="G19" s="147" t="s">
+        <v>353</v>
+      </c>
+      <c r="H19" s="200" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="139" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" s="139" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="208"/>
       <c r="B20" s="90"/>
       <c r="C20" s="137"/>
       <c r="D20" s="137"/>
       <c r="E20" s="137"/>
       <c r="F20" s="148"/>
-      <c r="G20" s="201"/>
-      <c r="H20" s="109"/>
-    </row>
-    <row r="21" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G20" s="148" t="s">
+        <v>352</v>
+      </c>
+      <c r="H20" s="201"/>
+      <c r="I20" s="109"/>
+    </row>
+    <row r="21" spans="1:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="81">
         <v>44765</v>
       </c>
@@ -9004,11 +9305,14 @@
       <c r="F21" s="146">
         <v>70000</v>
       </c>
-      <c r="G21" s="200" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G21" s="146" t="s">
+        <v>352</v>
+      </c>
+      <c r="H21" s="200" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="81"/>
       <c r="C22" s="136" t="s">
         <v>41</v>
@@ -9018,11 +9322,14 @@
         <v>12000</v>
       </c>
       <c r="F22" s="147"/>
-      <c r="G22" s="202" t="s">
+      <c r="G22" s="147" t="s">
+        <v>346</v>
+      </c>
+      <c r="H22" s="202" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="81"/>
       <c r="C23" s="136" t="s">
         <v>42</v>
@@ -9034,21 +9341,27 @@
         <v>20000</v>
       </c>
       <c r="F23" s="147"/>
-      <c r="G23" s="200" t="s">
+      <c r="G23" s="147" t="s">
+        <v>353</v>
+      </c>
+      <c r="H23" s="200" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="139" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" s="139" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="208"/>
       <c r="B24" s="90"/>
       <c r="C24" s="137"/>
       <c r="D24" s="137"/>
       <c r="E24" s="137"/>
       <c r="F24" s="148"/>
-      <c r="G24" s="201"/>
-      <c r="H24" s="109"/>
-    </row>
-    <row r="25" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G24" s="148" t="s">
+        <v>352</v>
+      </c>
+      <c r="H24" s="201"/>
+      <c r="I24" s="109"/>
+    </row>
+    <row r="25" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="81">
         <v>44766</v>
       </c>
@@ -9060,12 +9373,15 @@
         <v>86520</v>
       </c>
       <c r="F25" s="147"/>
-      <c r="G25" s="200" t="s">
+      <c r="G25" s="147" t="s">
+        <v>354</v>
+      </c>
+      <c r="H25" s="200" t="s">
         <v>228</v>
       </c>
-      <c r="J25" s="140"/>
-    </row>
-    <row r="26" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K25" s="140"/>
+    </row>
+    <row r="26" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="81"/>
       <c r="C26" s="136" t="s">
         <v>44</v>
@@ -9075,11 +9391,14 @@
         <v>2000</v>
       </c>
       <c r="F26" s="147"/>
-      <c r="G26" s="200" t="s">
+      <c r="G26" s="147" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H26" s="200" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="81"/>
       <c r="C27" s="136" t="s">
         <v>41</v>
@@ -9089,11 +9408,14 @@
         <v>1800</v>
       </c>
       <c r="F27" s="147"/>
-      <c r="G27" s="202" t="s">
+      <c r="G27" s="147" t="s">
+        <v>346</v>
+      </c>
+      <c r="H27" s="202" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="81"/>
       <c r="C28" s="136" t="s">
         <v>41</v>
@@ -9103,11 +9425,14 @@
         <v>12700</v>
       </c>
       <c r="F28" s="147"/>
-      <c r="G28" s="202" t="s">
+      <c r="G28" s="147" t="s">
+        <v>346</v>
+      </c>
+      <c r="H28" s="202" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="81"/>
       <c r="C29" s="136" t="s">
         <v>41</v>
@@ -9117,11 +9442,14 @@
         <v>1520</v>
       </c>
       <c r="F29" s="147"/>
-      <c r="G29" s="200" t="s">
+      <c r="G29" s="147" t="s">
+        <v>355</v>
+      </c>
+      <c r="H29" s="200" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="91"/>
       <c r="C30" s="136" t="s">
         <v>47</v>
@@ -9133,19 +9461,25 @@
         <v>15000</v>
       </c>
       <c r="F30" s="147"/>
-      <c r="G30" s="200" t="s">
+      <c r="G30" s="147" t="s">
+        <v>356</v>
+      </c>
+      <c r="H30" s="200" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="90"/>
       <c r="C31" s="137"/>
       <c r="D31" s="137"/>
       <c r="E31" s="141"/>
       <c r="F31" s="148"/>
-      <c r="G31" s="201"/>
-    </row>
-    <row r="32" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G31" s="148" t="s">
+        <v>352</v>
+      </c>
+      <c r="H31" s="201"/>
+    </row>
+    <row r="32" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="81">
         <v>44767</v>
       </c>
@@ -9157,11 +9491,14 @@
         <v>1000</v>
       </c>
       <c r="F32" s="147"/>
-      <c r="G32" s="200" t="s">
+      <c r="G32" s="147" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" s="200" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="82"/>
       <c r="C33" s="136" t="s">
         <v>47</v>
@@ -9173,21 +9510,27 @@
         <v>2000</v>
       </c>
       <c r="F33" s="149"/>
-      <c r="G33" s="200" t="s">
+      <c r="G33" s="149" t="s">
+        <v>353</v>
+      </c>
+      <c r="H33" s="200" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="139" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" s="139" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="208"/>
       <c r="B34" s="90"/>
       <c r="C34" s="137"/>
       <c r="D34" s="137"/>
       <c r="E34" s="137"/>
       <c r="F34" s="148"/>
-      <c r="G34" s="201"/>
-      <c r="H34" s="109"/>
-    </row>
-    <row r="35" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G34" s="148" t="s">
+        <v>352</v>
+      </c>
+      <c r="H34" s="201"/>
+      <c r="I34" s="109"/>
+    </row>
+    <row r="35" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="82">
         <v>44768</v>
       </c>
@@ -9201,9 +9544,12 @@
       <c r="F35" s="146">
         <v>100000</v>
       </c>
-      <c r="G35" s="200"/>
-    </row>
-    <row r="36" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G35" s="146" t="s">
+        <v>352</v>
+      </c>
+      <c r="H35" s="200"/>
+    </row>
+    <row r="36" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="82"/>
       <c r="C36" s="136" t="s">
         <v>41</v>
@@ -9213,12 +9559,15 @@
         <v>44000</v>
       </c>
       <c r="F36" s="149"/>
-      <c r="G36" s="200" t="s">
+      <c r="G36" s="149" t="s">
+        <v>345</v>
+      </c>
+      <c r="H36" s="200" t="s">
         <v>89</v>
       </c>
-      <c r="I36" s="143"/>
-    </row>
-    <row r="37" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J36" s="143"/>
+    </row>
+    <row r="37" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="82"/>
       <c r="C37" s="136" t="s">
         <v>47</v>
@@ -9230,12 +9579,15 @@
         <v>13000</v>
       </c>
       <c r="F37" s="149"/>
-      <c r="G37" s="200" t="s">
+      <c r="G37" s="149" t="s">
+        <v>353</v>
+      </c>
+      <c r="H37" s="200" t="s">
         <v>91</v>
       </c>
-      <c r="I37" s="143"/>
-    </row>
-    <row r="38" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J37" s="143"/>
+    </row>
+    <row r="38" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="82"/>
       <c r="C38" s="136" t="s">
         <v>41</v>
@@ -9245,11 +9597,14 @@
         <v>5800</v>
       </c>
       <c r="F38" s="150"/>
-      <c r="G38" s="200" t="s">
+      <c r="G38" s="150" t="s">
+        <v>355</v>
+      </c>
+      <c r="H38" s="200" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="82"/>
       <c r="C39" s="136" t="s">
         <v>41</v>
@@ -9259,11 +9614,14 @@
         <v>5600</v>
       </c>
       <c r="F39" s="151"/>
-      <c r="G39" s="200" t="s">
+      <c r="G39" s="245" t="s">
+        <v>355</v>
+      </c>
+      <c r="H39" s="200" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="82"/>
       <c r="C40" s="136" t="s">
         <v>41</v>
@@ -9273,13 +9631,16 @@
         <v>6000</v>
       </c>
       <c r="F40" s="149"/>
-      <c r="G40" s="200" t="s">
+      <c r="G40" s="149" t="s">
+        <v>355</v>
+      </c>
+      <c r="H40" s="200" t="s">
         <v>232</v>
       </c>
-      <c r="H40" s="132"/>
-      <c r="I40" s="143"/>
-    </row>
-    <row r="41" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I40" s="132"/>
+      <c r="J40" s="143"/>
+    </row>
+    <row r="41" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="209"/>
       <c r="B41" s="82"/>
       <c r="C41" s="136" t="s">
@@ -9292,12 +9653,15 @@
         <v>2000</v>
       </c>
       <c r="F41" s="149"/>
-      <c r="G41" s="200" t="s">
+      <c r="G41" s="149" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" s="200" t="s">
         <v>233</v>
       </c>
-      <c r="I41" s="143"/>
-    </row>
-    <row r="42" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J41" s="143"/>
+    </row>
+    <row r="42" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="210"/>
       <c r="B42" s="82"/>
       <c r="C42" s="136" t="s">
@@ -9308,12 +9672,15 @@
         <v>9000</v>
       </c>
       <c r="F42" s="149"/>
-      <c r="G42" s="200" t="s">
+      <c r="G42" s="149" t="s">
+        <v>357</v>
+      </c>
+      <c r="H42" s="200" t="s">
         <v>93</v>
       </c>
-      <c r="I42" s="143"/>
-    </row>
-    <row r="43" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J42" s="143"/>
+    </row>
+    <row r="43" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="210"/>
       <c r="B43" s="82"/>
       <c r="C43" s="136" t="s">
@@ -9324,22 +9691,28 @@
         <v>960</v>
       </c>
       <c r="F43" s="149"/>
-      <c r="G43" s="200" t="s">
-        <v>335</v>
-      </c>
-      <c r="I43" s="143"/>
-    </row>
-    <row r="44" spans="1:9" s="139" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G43" s="149" t="s">
+        <v>355</v>
+      </c>
+      <c r="H43" s="200" t="s">
+        <v>328</v>
+      </c>
+      <c r="J43" s="143"/>
+    </row>
+    <row r="44" spans="1:10" s="139" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="210"/>
       <c r="B44" s="90"/>
       <c r="C44" s="137"/>
       <c r="D44" s="137"/>
       <c r="E44" s="137"/>
       <c r="F44" s="148"/>
-      <c r="G44" s="201"/>
-      <c r="H44" s="109"/>
-    </row>
-    <row r="45" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G44" s="148" t="s">
+        <v>352</v>
+      </c>
+      <c r="H44" s="201"/>
+      <c r="I44" s="109"/>
+    </row>
+    <row r="45" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="210"/>
       <c r="B45" s="82">
         <v>44769</v>
@@ -9352,21 +9725,27 @@
         <v>240</v>
       </c>
       <c r="F45" s="149"/>
-      <c r="G45" s="200" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" s="139" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G45" s="149" t="s">
+        <v>355</v>
+      </c>
+      <c r="H45" s="200" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="139" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="210"/>
       <c r="B46" s="90"/>
       <c r="C46" s="137"/>
       <c r="D46" s="144"/>
       <c r="E46" s="144"/>
       <c r="F46" s="148"/>
-      <c r="G46" s="201"/>
-      <c r="H46" s="109"/>
-    </row>
-    <row r="47" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G46" s="148" t="s">
+        <v>352</v>
+      </c>
+      <c r="H46" s="201"/>
+      <c r="I46" s="109"/>
+    </row>
+    <row r="47" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="210"/>
       <c r="B47" s="82">
         <v>44770</v>
@@ -9379,21 +9758,27 @@
         <v>960</v>
       </c>
       <c r="F47" s="149"/>
-      <c r="G47" s="200" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" s="139" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G47" s="149" t="s">
+        <v>355</v>
+      </c>
+      <c r="H47" s="200" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="139" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="210"/>
       <c r="B48" s="90"/>
       <c r="C48" s="137"/>
       <c r="D48" s="137"/>
       <c r="E48" s="137"/>
       <c r="F48" s="148"/>
-      <c r="G48" s="201"/>
-      <c r="H48" s="109"/>
-    </row>
-    <row r="49" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G48" s="148" t="s">
+        <v>352</v>
+      </c>
+      <c r="H48" s="201"/>
+      <c r="I48" s="109"/>
+    </row>
+    <row r="49" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="210"/>
       <c r="B49" s="82">
         <v>44771</v>
@@ -9406,21 +9791,27 @@
         <v>240</v>
       </c>
       <c r="F49" s="149"/>
-      <c r="G49" s="200" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" s="139" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G49" s="149" t="s">
+        <v>355</v>
+      </c>
+      <c r="H49" s="200" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="139" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="210"/>
       <c r="B50" s="90"/>
       <c r="C50" s="137"/>
       <c r="D50" s="137"/>
       <c r="E50" s="137"/>
       <c r="F50" s="148"/>
-      <c r="G50" s="201"/>
-      <c r="H50" s="109"/>
-    </row>
-    <row r="51" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G50" s="148" t="s">
+        <v>352</v>
+      </c>
+      <c r="H50" s="201"/>
+      <c r="I50" s="109"/>
+    </row>
+    <row r="51" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="210"/>
       <c r="B51" s="82">
         <v>44772</v>
@@ -9435,11 +9826,14 @@
       <c r="F51" s="146">
         <v>20000</v>
       </c>
-      <c r="G51" s="200" t="s">
+      <c r="G51" s="146" t="s">
+        <v>352</v>
+      </c>
+      <c r="H51" s="200" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="210"/>
       <c r="B52" s="82"/>
       <c r="C52" s="136" t="s">
@@ -9450,11 +9844,14 @@
         <v>19800</v>
       </c>
       <c r="F52" s="149"/>
-      <c r="G52" s="200" t="s">
+      <c r="G52" s="149" t="s">
+        <v>354</v>
+      </c>
+      <c r="H52" s="200" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="210"/>
       <c r="B53" s="82"/>
       <c r="C53" s="136" t="s">
@@ -9465,11 +9862,14 @@
         <v>280</v>
       </c>
       <c r="F53" s="149"/>
-      <c r="G53" s="200" t="s">
+      <c r="G53" s="149" t="s">
+        <v>355</v>
+      </c>
+      <c r="H53" s="200" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="210"/>
       <c r="B54" s="82"/>
       <c r="C54" s="136" t="s">
@@ -9480,11 +9880,14 @@
         <v>5950</v>
       </c>
       <c r="F54" s="149"/>
-      <c r="G54" s="202" t="s">
+      <c r="G54" s="149" t="s">
+        <v>346</v>
+      </c>
+      <c r="H54" s="202" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="210"/>
       <c r="B55" s="82"/>
       <c r="C55" s="136" t="s">
@@ -9495,11 +9898,14 @@
         <v>1000</v>
       </c>
       <c r="F55" s="149"/>
-      <c r="G55" s="202" t="s">
+      <c r="G55" s="149" t="s">
+        <v>346</v>
+      </c>
+      <c r="H55" s="202" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="210"/>
       <c r="B56" s="82"/>
       <c r="C56" s="136" t="s">
@@ -9510,11 +9916,14 @@
         <v>960</v>
       </c>
       <c r="F56" s="149"/>
-      <c r="G56" s="203" t="s">
+      <c r="G56" s="149" t="s">
+        <v>355</v>
+      </c>
+      <c r="H56" s="203" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="210"/>
       <c r="B57" s="82"/>
       <c r="C57" s="136" t="s">
@@ -9527,34 +9936,43 @@
         <v>2000</v>
       </c>
       <c r="F57" s="149"/>
-      <c r="G57" s="202" t="s">
+      <c r="G57" s="149" t="s">
+        <v>346</v>
+      </c>
+      <c r="H57" s="202" t="s">
         <v>119</v>
       </c>
-      <c r="I57" s="46">
+      <c r="J57" s="46">
         <f>21900+6000+2000+2000+6000</f>
         <v>37900</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="210"/>
       <c r="B58" s="82"/>
       <c r="C58" s="136"/>
       <c r="D58" s="136"/>
       <c r="E58" s="142"/>
       <c r="F58" s="149"/>
-      <c r="G58" s="200"/>
-    </row>
-    <row r="59" spans="1:9" s="139" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G58" s="149" t="s">
+        <v>352</v>
+      </c>
+      <c r="H58" s="200"/>
+    </row>
+    <row r="59" spans="1:10" s="139" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="210"/>
       <c r="B59" s="90"/>
       <c r="C59" s="137"/>
       <c r="D59" s="137"/>
       <c r="E59" s="137"/>
       <c r="F59" s="148"/>
-      <c r="G59" s="201"/>
-      <c r="H59" s="109"/>
-    </row>
-    <row r="60" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G59" s="148" t="s">
+        <v>352</v>
+      </c>
+      <c r="H59" s="201"/>
+      <c r="I59" s="109"/>
+    </row>
+    <row r="60" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="210"/>
       <c r="B60" s="82">
         <v>44773</v>
@@ -9567,11 +9985,14 @@
         <v>960</v>
       </c>
       <c r="F60" s="149"/>
-      <c r="G60" s="200" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G60" s="149" t="s">
+        <v>355</v>
+      </c>
+      <c r="H60" s="200" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="210"/>
       <c r="B61" s="82"/>
       <c r="C61" s="136" t="s">
@@ -9584,11 +10005,14 @@
       <c r="F61" s="146">
         <v>50000</v>
       </c>
-      <c r="G61" s="200" t="s">
+      <c r="G61" s="146" t="s">
+        <v>352</v>
+      </c>
+      <c r="H61" s="200" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="210"/>
       <c r="B62" s="82"/>
       <c r="C62" s="136" t="s">
@@ -9601,15 +10025,18 @@
         <v>23000</v>
       </c>
       <c r="F62" s="149"/>
-      <c r="G62" s="200" t="s">
+      <c r="G62" s="149" t="s">
+        <v>353</v>
+      </c>
+      <c r="H62" s="200" t="s">
         <v>167</v>
       </c>
-      <c r="I62" s="46">
+      <c r="J62" s="46">
         <f>50000-23000-1000-500</f>
         <v>25500</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="210"/>
       <c r="B63" s="82"/>
       <c r="C63" s="136" t="s">
@@ -9622,11 +10049,14 @@
         <v>1000</v>
       </c>
       <c r="F63" s="149"/>
-      <c r="G63" s="200" t="s">
+      <c r="G63" s="149" t="s">
+        <v>358</v>
+      </c>
+      <c r="H63" s="200" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="210"/>
       <c r="B64" s="82"/>
       <c r="C64" s="136" t="s">
@@ -9637,20 +10067,26 @@
         <v>500</v>
       </c>
       <c r="F64" s="149"/>
-      <c r="G64" s="202" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G64" s="149" t="s">
+        <v>346</v>
+      </c>
+      <c r="H64" s="202" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="210"/>
       <c r="B65" s="226"/>
       <c r="C65" s="227"/>
       <c r="D65" s="227"/>
       <c r="E65" s="227"/>
       <c r="F65" s="228"/>
-      <c r="G65" s="229"/>
-    </row>
-    <row r="66" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G65" s="228" t="s">
+        <v>352</v>
+      </c>
+      <c r="H65" s="229"/>
+    </row>
+    <row r="66" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="210"/>
       <c r="B66" s="82">
         <v>44774</v>
@@ -9663,11 +10099,14 @@
         <v>720</v>
       </c>
       <c r="F66" s="149"/>
-      <c r="G66" s="200" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G66" s="149" t="s">
+        <v>355</v>
+      </c>
+      <c r="H66" s="200" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="210"/>
       <c r="B67" s="82"/>
       <c r="C67" s="136" t="s">
@@ -9678,23 +10117,29 @@
         <v>18000</v>
       </c>
       <c r="F67" s="149"/>
-      <c r="G67" s="200" t="s">
+      <c r="G67" s="149" t="s">
+        <v>354</v>
+      </c>
+      <c r="H67" s="200" t="s">
         <v>236</v>
       </c>
-      <c r="H67" s="107" t="s">
+      <c r="I67" s="107" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="210"/>
       <c r="B68" s="226"/>
       <c r="C68" s="227"/>
       <c r="D68" s="227"/>
       <c r="E68" s="227"/>
       <c r="F68" s="228"/>
-      <c r="G68" s="229"/>
-    </row>
-    <row r="69" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G68" s="228" t="s">
+        <v>352</v>
+      </c>
+      <c r="H68" s="229"/>
+    </row>
+    <row r="69" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="210"/>
       <c r="B69" s="82">
         <v>44775</v>
@@ -9709,11 +10154,14 @@
       <c r="F69" s="146">
         <v>50000</v>
       </c>
-      <c r="G69" s="200" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G69" s="146" t="s">
+        <v>352</v>
+      </c>
+      <c r="H69" s="200" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="210"/>
       <c r="B70" s="82"/>
       <c r="C70" s="136" t="s">
@@ -9724,11 +10172,14 @@
         <v>6000</v>
       </c>
       <c r="F70" s="149"/>
-      <c r="G70" s="200" t="s">
+      <c r="G70" s="149" t="s">
+        <v>356</v>
+      </c>
+      <c r="H70" s="200" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="210"/>
       <c r="B71" s="82"/>
       <c r="C71" s="136" t="s">
@@ -9739,12 +10190,15 @@
         <v>11500</v>
       </c>
       <c r="F71" s="149"/>
-      <c r="G71" s="202" t="s">
+      <c r="G71" s="149" t="s">
+        <v>346</v>
+      </c>
+      <c r="H71" s="202" t="s">
         <v>171</v>
       </c>
-      <c r="H71" s="132"/>
-    </row>
-    <row r="72" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I71" s="132"/>
+    </row>
+    <row r="72" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="210"/>
       <c r="B72" s="82"/>
       <c r="C72" s="136" t="s">
@@ -9755,12 +10209,15 @@
         <v>600</v>
       </c>
       <c r="F72" s="149"/>
-      <c r="G72" s="200" t="s">
-        <v>254</v>
-      </c>
-      <c r="H72" s="132"/>
-    </row>
-    <row r="73" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G72" s="149" t="s">
+        <v>355</v>
+      </c>
+      <c r="H72" s="200" t="s">
+        <v>253</v>
+      </c>
+      <c r="I72" s="132"/>
+    </row>
+    <row r="73" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="210"/>
       <c r="B73" s="82"/>
       <c r="C73" s="136" t="s">
@@ -9771,11 +10228,14 @@
         <v>1800</v>
       </c>
       <c r="F73" s="149"/>
-      <c r="G73" s="202" t="s">
+      <c r="G73" s="149" t="s">
+        <v>346</v>
+      </c>
+      <c r="H73" s="202" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="210"/>
       <c r="B74" s="82"/>
       <c r="C74" s="136" t="s">
@@ -9786,11 +10246,14 @@
         <v>1500</v>
       </c>
       <c r="F74" s="149"/>
-      <c r="G74" s="202" t="s">
+      <c r="G74" s="149" t="s">
+        <v>346</v>
+      </c>
+      <c r="H74" s="202" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="210"/>
       <c r="B75" s="82"/>
       <c r="C75" s="136" t="s">
@@ -9803,20 +10266,26 @@
         <v>1000</v>
       </c>
       <c r="F75" s="149"/>
-      <c r="G75" s="200" t="s">
+      <c r="G75" s="149" t="s">
+        <v>358</v>
+      </c>
+      <c r="H75" s="200" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="210"/>
       <c r="B76" s="226"/>
       <c r="C76" s="227"/>
       <c r="D76" s="227"/>
       <c r="E76" s="227"/>
       <c r="F76" s="228"/>
-      <c r="G76" s="229"/>
-    </row>
-    <row r="77" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G76" s="228" t="s">
+        <v>352</v>
+      </c>
+      <c r="H76" s="229"/>
+    </row>
+    <row r="77" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="210"/>
       <c r="B77" s="82">
         <v>44776</v>
@@ -9829,23 +10298,29 @@
         <v>360</v>
       </c>
       <c r="F77" s="149"/>
-      <c r="G77" s="200" t="s">
-        <v>254</v>
-      </c>
-      <c r="H77" s="107" t="s">
+      <c r="G77" s="149" t="s">
+        <v>355</v>
+      </c>
+      <c r="H77" s="200" t="s">
+        <v>253</v>
+      </c>
+      <c r="I77" s="107" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="210"/>
       <c r="B78" s="82"/>
       <c r="C78" s="136"/>
       <c r="D78" s="136"/>
       <c r="E78" s="142"/>
       <c r="F78" s="149"/>
-      <c r="G78" s="200"/>
-    </row>
-    <row r="79" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G78" s="149" t="s">
+        <v>352</v>
+      </c>
+      <c r="H78" s="200"/>
+    </row>
+    <row r="79" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="210"/>
       <c r="B79" s="82">
         <v>44777</v>
@@ -9858,11 +10333,14 @@
         <v>44160</v>
       </c>
       <c r="F79" s="149"/>
-      <c r="G79" s="200" t="s">
+      <c r="G79" s="149" t="s">
+        <v>357</v>
+      </c>
+      <c r="H79" s="200" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="210"/>
       <c r="B80" s="82"/>
       <c r="C80" s="136" t="s">
@@ -9875,15 +10353,18 @@
         <v>10000</v>
       </c>
       <c r="F80" s="149"/>
-      <c r="G80" s="200" t="s">
+      <c r="G80" s="149" t="s">
+        <v>353</v>
+      </c>
+      <c r="H80" s="200" t="s">
         <v>177</v>
       </c>
-      <c r="H80" s="107">
+      <c r="I80" s="107">
         <f>37800/1800</f>
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="210"/>
       <c r="B81" s="82"/>
       <c r="C81" s="136" t="s">
@@ -9894,23 +10375,29 @@
         <v>600</v>
       </c>
       <c r="F81" s="149"/>
-      <c r="G81" s="200" t="s">
-        <v>254</v>
-      </c>
-      <c r="H81" s="107" t="s">
+      <c r="G81" s="149" t="s">
+        <v>355</v>
+      </c>
+      <c r="H81" s="200" t="s">
+        <v>253</v>
+      </c>
+      <c r="I81" s="107" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="210"/>
       <c r="B82" s="226"/>
       <c r="C82" s="227"/>
       <c r="D82" s="227"/>
       <c r="E82" s="227"/>
       <c r="F82" s="228"/>
-      <c r="G82" s="229"/>
-    </row>
-    <row r="83" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G82" s="228" t="s">
+        <v>352</v>
+      </c>
+      <c r="H82" s="229"/>
+    </row>
+    <row r="83" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="210"/>
       <c r="B83" s="82">
         <v>44779</v>
@@ -9921,20 +10408,26 @@
       <c r="D83" s="136"/>
       <c r="E83" s="142"/>
       <c r="F83" s="149"/>
-      <c r="G83" s="200" t="s">
+      <c r="G83" s="149" t="s">
+        <v>352</v>
+      </c>
+      <c r="H83" s="200" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="210"/>
       <c r="B84" s="226"/>
       <c r="C84" s="227"/>
       <c r="D84" s="227"/>
       <c r="E84" s="227"/>
       <c r="F84" s="228"/>
-      <c r="G84" s="229"/>
-    </row>
-    <row r="85" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G84" s="228" t="s">
+        <v>352</v>
+      </c>
+      <c r="H84" s="229"/>
+    </row>
+    <row r="85" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="210"/>
       <c r="B85" s="82">
         <v>44780</v>
@@ -9947,23 +10440,29 @@
         <v>1200</v>
       </c>
       <c r="F85" s="149"/>
-      <c r="G85" s="200" t="s">
-        <v>254</v>
-      </c>
-      <c r="H85" s="107" t="s">
+      <c r="G85" s="149" t="s">
+        <v>355</v>
+      </c>
+      <c r="H85" s="200" t="s">
+        <v>253</v>
+      </c>
+      <c r="I85" s="107" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="210"/>
       <c r="B86" s="226"/>
       <c r="C86" s="227"/>
       <c r="D86" s="227"/>
       <c r="E86" s="227"/>
       <c r="F86" s="228"/>
-      <c r="G86" s="229"/>
-    </row>
-    <row r="87" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G86" s="228" t="s">
+        <v>352</v>
+      </c>
+      <c r="H86" s="229"/>
+    </row>
+    <row r="87" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="210"/>
       <c r="B87" s="82">
         <v>44781</v>
@@ -9976,18 +10475,21 @@
         <v>720</v>
       </c>
       <c r="F87" s="149"/>
-      <c r="G87" s="200" t="s">
-        <v>254</v>
-      </c>
-      <c r="H87" s="107" t="s">
+      <c r="G87" s="149" t="s">
+        <v>355</v>
+      </c>
+      <c r="H87" s="200" t="s">
+        <v>253</v>
+      </c>
+      <c r="I87" s="107" t="s">
         <v>182</v>
       </c>
-      <c r="I87" s="46">
+      <c r="J87" s="46">
         <f>3*240</f>
         <v>720</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="210"/>
       <c r="B88" s="82"/>
       <c r="C88" s="136" t="s">
@@ -9998,23 +10500,29 @@
         <v>250</v>
       </c>
       <c r="F88" s="149"/>
-      <c r="G88" s="202" t="s">
-        <v>337</v>
-      </c>
-      <c r="H88" s="107" t="s">
+      <c r="G88" s="149" t="s">
+        <v>346</v>
+      </c>
+      <c r="H88" s="202" t="s">
+        <v>330</v>
+      </c>
+      <c r="I88" s="107" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="210"/>
       <c r="B89" s="226"/>
       <c r="C89" s="227"/>
       <c r="D89" s="227"/>
       <c r="E89" s="227"/>
       <c r="F89" s="228"/>
-      <c r="G89" s="229"/>
-    </row>
-    <row r="90" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G89" s="228" t="s">
+        <v>352</v>
+      </c>
+      <c r="H89" s="229"/>
+    </row>
+    <row r="90" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="210"/>
       <c r="B90" s="82">
         <v>44782</v>
@@ -10027,14 +10535,17 @@
         <v>720</v>
       </c>
       <c r="F90" s="149"/>
-      <c r="G90" s="200" t="s">
-        <v>254</v>
-      </c>
-      <c r="H90" s="107" t="s">
+      <c r="G90" s="149" t="s">
+        <v>355</v>
+      </c>
+      <c r="H90" s="200" t="s">
+        <v>253</v>
+      </c>
+      <c r="I90" s="107" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="210"/>
       <c r="B91" s="82"/>
       <c r="C91" s="136" t="s">
@@ -10045,20 +10556,26 @@
         <v>9000</v>
       </c>
       <c r="F91" s="149"/>
-      <c r="G91" s="200" t="s">
+      <c r="G91" s="149" t="s">
+        <v>359</v>
+      </c>
+      <c r="H91" s="200" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="210"/>
       <c r="B92" s="226"/>
       <c r="C92" s="227"/>
       <c r="D92" s="227"/>
       <c r="E92" s="227"/>
       <c r="F92" s="228"/>
-      <c r="G92" s="229"/>
-    </row>
-    <row r="93" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G92" s="228" t="s">
+        <v>352</v>
+      </c>
+      <c r="H92" s="229"/>
+    </row>
+    <row r="93" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="210"/>
       <c r="B93" s="82">
         <v>44783</v>
@@ -10071,11 +10588,14 @@
         <v>420</v>
       </c>
       <c r="F93" s="149"/>
-      <c r="G93" s="200" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G93" s="149" t="s">
+        <v>355</v>
+      </c>
+      <c r="H93" s="200" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="210"/>
       <c r="B94" s="82"/>
       <c r="C94" s="136" t="s">
@@ -10086,11 +10606,14 @@
         <v>500</v>
       </c>
       <c r="F94" s="149"/>
-      <c r="G94" s="200" t="s">
+      <c r="G94" s="149" t="s">
+        <v>354</v>
+      </c>
+      <c r="H94" s="200" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="210"/>
       <c r="B95" s="82"/>
       <c r="C95" s="136" t="s">
@@ -10101,20 +10624,26 @@
         <v>1000</v>
       </c>
       <c r="F95" s="149"/>
-      <c r="G95" s="200" t="s">
+      <c r="G95" s="149" t="s">
+        <v>358</v>
+      </c>
+      <c r="H95" s="200" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="210"/>
       <c r="B96" s="226"/>
       <c r="C96" s="227"/>
       <c r="D96" s="227"/>
       <c r="E96" s="227"/>
       <c r="F96" s="228"/>
-      <c r="G96" s="229"/>
-    </row>
-    <row r="97" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G96" s="228" t="s">
+        <v>352</v>
+      </c>
+      <c r="H96" s="229"/>
+    </row>
+    <row r="97" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="210"/>
       <c r="B97" s="82">
         <v>44784</v>
@@ -10127,20 +10656,26 @@
         <v>360</v>
       </c>
       <c r="F97" s="149"/>
-      <c r="G97" s="200" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G97" s="149" t="s">
+        <v>355</v>
+      </c>
+      <c r="H97" s="200" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="210"/>
       <c r="B98" s="226"/>
       <c r="C98" s="227"/>
       <c r="D98" s="227"/>
       <c r="E98" s="227"/>
       <c r="F98" s="228"/>
-      <c r="G98" s="229"/>
-    </row>
-    <row r="99" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G98" s="228" t="s">
+        <v>352</v>
+      </c>
+      <c r="H98" s="229"/>
+    </row>
+    <row r="99" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="210"/>
       <c r="B99" s="82">
         <v>44786</v>
@@ -10154,20 +10689,26 @@
         <v>780</v>
       </c>
       <c r="F99" s="149"/>
-      <c r="G99" s="200" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G99" s="149" t="s">
+        <v>355</v>
+      </c>
+      <c r="H99" s="200" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="210"/>
       <c r="B100" s="226"/>
       <c r="C100" s="227"/>
       <c r="D100" s="227"/>
       <c r="E100" s="227"/>
       <c r="F100" s="228"/>
-      <c r="G100" s="229"/>
-    </row>
-    <row r="101" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G100" s="228" t="s">
+        <v>352</v>
+      </c>
+      <c r="H100" s="229"/>
+    </row>
+    <row r="101" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="210"/>
       <c r="B101" s="82">
         <v>44788</v>
@@ -10180,11 +10721,14 @@
         <v>480</v>
       </c>
       <c r="F101" s="149"/>
-      <c r="G101" s="200" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G101" s="149" t="s">
+        <v>355</v>
+      </c>
+      <c r="H101" s="200" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="210"/>
       <c r="B102" s="82"/>
       <c r="C102" s="136" t="s">
@@ -10195,11 +10739,14 @@
         <v>27500</v>
       </c>
       <c r="F102" s="149"/>
-      <c r="G102" s="200" t="s">
+      <c r="G102" s="149" t="s">
+        <v>355</v>
+      </c>
+      <c r="H102" s="200" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="210"/>
       <c r="B103" s="82"/>
       <c r="C103" s="136" t="s">
@@ -10210,20 +10757,26 @@
         <v>27800</v>
       </c>
       <c r="F103" s="149"/>
-      <c r="G103" s="200" t="s">
+      <c r="G103" s="149" t="s">
+        <v>353</v>
+      </c>
+      <c r="H103" s="200" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="210"/>
       <c r="B104" s="226"/>
       <c r="C104" s="227"/>
       <c r="D104" s="227"/>
       <c r="E104" s="227"/>
       <c r="F104" s="228"/>
-      <c r="G104" s="229"/>
-    </row>
-    <row r="105" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G104" s="228" t="s">
+        <v>352</v>
+      </c>
+      <c r="H104" s="229"/>
+    </row>
+    <row r="105" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="210"/>
       <c r="B105" s="82">
         <v>44789</v>
@@ -10236,11 +10789,14 @@
         <v>7400</v>
       </c>
       <c r="F105" s="149"/>
-      <c r="G105" s="200" t="s">
+      <c r="G105" s="149" t="s">
+        <v>354</v>
+      </c>
+      <c r="H105" s="200" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="210"/>
       <c r="B106" s="82"/>
       <c r="C106" s="136"/>
@@ -10249,14 +10805,17 @@
         <v>420</v>
       </c>
       <c r="F106" s="149"/>
-      <c r="G106" s="200" t="s">
-        <v>254</v>
-      </c>
-      <c r="H106" s="107" t="s">
+      <c r="G106" s="149" t="s">
+        <v>355</v>
+      </c>
+      <c r="H106" s="200" t="s">
+        <v>253</v>
+      </c>
+      <c r="I106" s="107" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="210"/>
       <c r="B107" s="82"/>
       <c r="C107" s="136" t="s">
@@ -10267,20 +10826,26 @@
         <v>700</v>
       </c>
       <c r="F107" s="149"/>
-      <c r="G107" s="200" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G107" s="149" t="s">
+        <v>345</v>
+      </c>
+      <c r="H107" s="200" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="210"/>
       <c r="B108" s="226"/>
       <c r="C108" s="227"/>
       <c r="D108" s="227"/>
       <c r="E108" s="227"/>
       <c r="F108" s="228"/>
-      <c r="G108" s="229"/>
-    </row>
-    <row r="109" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G108" s="228" t="s">
+        <v>352</v>
+      </c>
+      <c r="H108" s="229"/>
+    </row>
+    <row r="109" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="210"/>
       <c r="B109" s="82">
         <v>44790</v>
@@ -10293,11 +10858,17 @@
         <v>11000</v>
       </c>
       <c r="F109" s="149"/>
-      <c r="G109" s="200" t="s">
+      <c r="G109" s="149" t="s">
+        <v>354</v>
+      </c>
+      <c r="H109" s="200" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I109" s="108" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="210"/>
       <c r="B110" s="82"/>
       <c r="C110" s="136" t="s">
@@ -10308,11 +10879,17 @@
         <v>2300</v>
       </c>
       <c r="F110" s="149"/>
-      <c r="G110" s="200" t="s">
+      <c r="G110" s="149" t="s">
+        <v>354</v>
+      </c>
+      <c r="H110" s="200" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I110" s="108" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="210"/>
       <c r="B111" s="82"/>
       <c r="C111" s="136" t="s">
@@ -10325,23 +10902,29 @@
       <c r="F111" s="146">
         <v>100000</v>
       </c>
-      <c r="G111" s="200" t="s">
+      <c r="G111" s="146" t="s">
+        <v>352</v>
+      </c>
+      <c r="H111" s="200" t="s">
         <v>250</v>
       </c>
-      <c r="H111" s="153" t="s">
+      <c r="I111" s="153" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="210"/>
       <c r="B112" s="82"/>
       <c r="C112" s="136"/>
       <c r="D112" s="136"/>
       <c r="E112" s="142"/>
       <c r="F112" s="149"/>
-      <c r="G112" s="200"/>
-    </row>
-    <row r="113" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G112" s="149" t="s">
+        <v>352</v>
+      </c>
+      <c r="H112" s="200"/>
+    </row>
+    <row r="113" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="210"/>
       <c r="B113" s="82">
         <v>44791</v>
@@ -10354,11 +10937,14 @@
         <v>500</v>
       </c>
       <c r="F113" s="149"/>
-      <c r="G113" s="200" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G113" s="149" t="s">
+        <v>345</v>
+      </c>
+      <c r="H113" s="200" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="210"/>
       <c r="B114" s="82"/>
       <c r="C114" s="136" t="s">
@@ -10369,14 +10955,17 @@
         <v>480</v>
       </c>
       <c r="F114" s="149"/>
-      <c r="G114" s="200" t="s">
-        <v>265</v>
-      </c>
-      <c r="H114" s="107" t="s">
+      <c r="G114" s="149" t="s">
+        <v>355</v>
+      </c>
+      <c r="H114" s="200" t="s">
+        <v>263</v>
+      </c>
+      <c r="I114" s="107" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="210"/>
       <c r="B115" s="82"/>
       <c r="C115" s="136" t="s">
@@ -10387,11 +10976,14 @@
         <v>2000</v>
       </c>
       <c r="F115" s="149"/>
-      <c r="G115" s="200" t="s">
+      <c r="G115" s="149" t="s">
+        <v>362</v>
+      </c>
+      <c r="H115" s="200" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="210"/>
       <c r="B116" s="82"/>
       <c r="C116" s="136" t="s">
@@ -10402,20 +10994,26 @@
         <v>6000</v>
       </c>
       <c r="F116" s="149"/>
-      <c r="G116" s="200" t="s">
+      <c r="G116" s="149" t="s">
+        <v>359</v>
+      </c>
+      <c r="H116" s="200" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="210"/>
       <c r="B117" s="226"/>
       <c r="C117" s="227"/>
       <c r="D117" s="227"/>
       <c r="E117" s="227"/>
       <c r="F117" s="228"/>
-      <c r="G117" s="229"/>
-    </row>
-    <row r="118" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G117" s="228" t="s">
+        <v>352</v>
+      </c>
+      <c r="H117" s="229"/>
+    </row>
+    <row r="118" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="210"/>
       <c r="B118" s="82">
         <v>44793</v>
@@ -10428,14 +11026,17 @@
         <v>10300</v>
       </c>
       <c r="F118" s="149"/>
-      <c r="G118" s="200" t="s">
-        <v>263</v>
-      </c>
-      <c r="H118" s="107" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G118" s="149" t="s">
+        <v>354</v>
+      </c>
+      <c r="H118" s="200" t="s">
+        <v>261</v>
+      </c>
+      <c r="I118" s="107" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="210"/>
       <c r="B119" s="82"/>
       <c r="C119" s="136" t="s">
@@ -10443,276 +11044,326 @@
       </c>
       <c r="D119" s="136"/>
       <c r="E119" s="142">
+        <v>7200</v>
+      </c>
+      <c r="F119" s="149"/>
+      <c r="G119" s="149" t="s">
+        <v>358</v>
+      </c>
+      <c r="H119" s="200" t="s">
+        <v>363</v>
+      </c>
+      <c r="I119" s="108" t="s">
+        <v>366</v>
+      </c>
+      <c r="J119" s="46">
         <v>12300</v>
       </c>
-      <c r="F119" s="149"/>
-      <c r="G119" s="200" t="s">
-        <v>262</v>
-      </c>
-      <c r="H119" s="107" t="s">
-        <v>252</v>
-      </c>
-      <c r="J119" s="46">
+      <c r="K119" s="46">
         <f>6750/15</f>
         <v>450</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="210"/>
-      <c r="B120" s="226"/>
-      <c r="C120" s="227"/>
-      <c r="D120" s="227"/>
-      <c r="E120" s="227"/>
-      <c r="F120" s="228"/>
-      <c r="G120" s="229"/>
-    </row>
-    <row r="121" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="82"/>
+      <c r="C120" s="136"/>
+      <c r="D120" s="136"/>
+      <c r="E120" s="142">
+        <v>5000</v>
+      </c>
+      <c r="F120" s="149"/>
+      <c r="G120" s="149" t="s">
+        <v>345</v>
+      </c>
+      <c r="H120" s="200" t="s">
+        <v>364</v>
+      </c>
+      <c r="I120" s="246" t="s">
+        <v>365</v>
+      </c>
+      <c r="J120" s="143" t="e">
+        <f>J119-I120</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="210"/>
-      <c r="B121" s="82">
+      <c r="B121" s="226"/>
+      <c r="C121" s="227"/>
+      <c r="D121" s="227"/>
+      <c r="E121" s="227"/>
+      <c r="F121" s="228"/>
+      <c r="G121" s="228" t="s">
+        <v>352</v>
+      </c>
+      <c r="H121" s="229"/>
+    </row>
+    <row r="122" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="210"/>
+      <c r="B122" s="82">
         <v>44794</v>
       </c>
-      <c r="C121" s="136" t="s">
+      <c r="C122" s="136" t="s">
         <v>41</v>
-      </c>
-      <c r="D121" s="136"/>
-      <c r="E121" s="142">
-        <v>720</v>
-      </c>
-      <c r="F121" s="149"/>
-      <c r="G121" s="200" t="s">
-        <v>254</v>
-      </c>
-      <c r="H121" s="107" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="210"/>
-      <c r="B122" s="82"/>
-      <c r="C122" s="136" t="s">
-        <v>44</v>
       </c>
       <c r="D122" s="136"/>
       <c r="E122" s="142">
-        <v>2000</v>
+        <v>720</v>
       </c>
       <c r="F122" s="149"/>
-      <c r="G122" s="200" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G122" s="149" t="s">
+        <v>355</v>
+      </c>
+      <c r="H122" s="200" t="s">
+        <v>253</v>
+      </c>
+      <c r="I122" s="107" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="210"/>
       <c r="B123" s="82"/>
       <c r="C123" s="136" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D123" s="136"/>
       <c r="E123" s="142">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="F123" s="149"/>
-      <c r="G123" s="200" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G123" s="149" t="s">
+        <v>45</v>
+      </c>
+      <c r="H123" s="200" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="210"/>
       <c r="B124" s="82"/>
-      <c r="C124" s="136"/>
+      <c r="C124" s="136" t="s">
+        <v>41</v>
+      </c>
       <c r="D124" s="136"/>
       <c r="E124" s="142">
+        <v>3000</v>
+      </c>
+      <c r="F124" s="149"/>
+      <c r="G124" s="149" t="s">
+        <v>355</v>
+      </c>
+      <c r="H124" s="200" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="210"/>
+      <c r="B125" s="82"/>
+      <c r="C125" s="136"/>
+      <c r="D125" s="136"/>
+      <c r="E125" s="142">
         <v>250</v>
       </c>
-      <c r="F124" s="149"/>
-      <c r="G124" s="200" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="210"/>
-      <c r="B125" s="226"/>
-      <c r="C125" s="227"/>
-      <c r="D125" s="227"/>
-      <c r="E125" s="227"/>
-      <c r="F125" s="228"/>
-      <c r="G125" s="229"/>
-    </row>
-    <row r="126" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F125" s="149"/>
+      <c r="G125" s="149" t="s">
+        <v>355</v>
+      </c>
+      <c r="H125" s="200" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="210"/>
-      <c r="B126" s="82">
+      <c r="B126" s="226"/>
+      <c r="C126" s="227"/>
+      <c r="D126" s="227"/>
+      <c r="E126" s="227"/>
+      <c r="F126" s="228"/>
+      <c r="G126" s="228" t="s">
+        <v>352</v>
+      </c>
+      <c r="H126" s="229"/>
+    </row>
+    <row r="127" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="210"/>
+      <c r="B127" s="82">
         <v>44795</v>
       </c>
-      <c r="C126" s="136" t="s">
-        <v>41</v>
-      </c>
-      <c r="D126" s="136"/>
-      <c r="E126" s="142">
-        <v>480</v>
-      </c>
-      <c r="F126" s="149"/>
-      <c r="G126" s="200" t="s">
-        <v>254</v>
-      </c>
-      <c r="H126" s="107" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="210"/>
-      <c r="B127" s="82"/>
       <c r="C127" s="136" t="s">
         <v>41</v>
       </c>
       <c r="D127" s="136"/>
       <c r="E127" s="142">
-        <v>1000</v>
+        <v>480</v>
       </c>
       <c r="F127" s="149"/>
-      <c r="G127" s="200" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G127" s="149" t="s">
+        <v>355</v>
+      </c>
+      <c r="H127" s="200" t="s">
+        <v>253</v>
+      </c>
+      <c r="I127" s="107" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" s="210"/>
       <c r="B128" s="82"/>
       <c r="C128" s="136" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D128" s="136"/>
       <c r="E128" s="142">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F128" s="149"/>
-      <c r="G128" s="200" t="s">
-        <v>259</v>
-      </c>
-      <c r="H128" s="107" t="s">
+      <c r="G128" s="149" t="s">
+        <v>358</v>
+      </c>
+      <c r="H128" s="200" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" s="210"/>
       <c r="B129" s="82"/>
       <c r="C129" s="136" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D129" s="136"/>
       <c r="E129" s="142">
+        <v>1500</v>
+      </c>
+      <c r="F129" s="149"/>
+      <c r="G129" s="149" t="s">
+        <v>45</v>
+      </c>
+      <c r="H129" s="200" t="s">
+        <v>258</v>
+      </c>
+      <c r="I129" s="107" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="210"/>
+      <c r="B130" s="82"/>
+      <c r="C130" s="136" t="s">
+        <v>41</v>
+      </c>
+      <c r="D130" s="136"/>
+      <c r="E130" s="142">
         <v>17600</v>
       </c>
-      <c r="F129" s="149"/>
-      <c r="G129" s="200" t="s">
+      <c r="F130" s="149"/>
+      <c r="G130" s="149" t="s">
+        <v>354</v>
+      </c>
+      <c r="H130" s="200" t="s">
+        <v>264</v>
+      </c>
+      <c r="I130" s="107" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="210"/>
+      <c r="B131" s="226"/>
+      <c r="C131" s="227"/>
+      <c r="D131" s="227"/>
+      <c r="E131" s="227"/>
+      <c r="F131" s="228"/>
+      <c r="G131" s="228" t="s">
+        <v>352</v>
+      </c>
+      <c r="H131" s="229"/>
+    </row>
+    <row r="132" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="210"/>
+      <c r="B132" s="82">
+        <v>44796</v>
+      </c>
+      <c r="C132" s="136" t="s">
+        <v>39</v>
+      </c>
+      <c r="D132" s="136"/>
+      <c r="E132" s="142"/>
+      <c r="F132" s="146">
+        <v>100000</v>
+      </c>
+      <c r="G132" s="146" t="s">
+        <v>352</v>
+      </c>
+      <c r="H132" s="200" t="s">
         <v>266</v>
       </c>
-      <c r="H129" s="107" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="210"/>
-      <c r="B130" s="226"/>
-      <c r="C130" s="227"/>
-      <c r="D130" s="227"/>
-      <c r="E130" s="227"/>
-      <c r="F130" s="228"/>
-      <c r="G130" s="229"/>
-    </row>
-    <row r="131" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="210"/>
-      <c r="B131" s="82">
-        <v>44796</v>
-      </c>
-      <c r="C131" s="136" t="s">
-        <v>39</v>
-      </c>
-      <c r="D131" s="136"/>
-      <c r="E131" s="142"/>
-      <c r="F131" s="146">
-        <v>100000</v>
-      </c>
-      <c r="G131" s="200" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="210"/>
-      <c r="B132" s="82"/>
-      <c r="C132" s="136" t="s">
-        <v>94</v>
-      </c>
-      <c r="D132" s="136"/>
-      <c r="E132" s="142">
-        <v>20500</v>
-      </c>
-      <c r="F132" s="149"/>
-      <c r="G132" s="200" t="s">
-        <v>269</v>
-      </c>
-      <c r="H132" s="107" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="210"/>
       <c r="B133" s="82"/>
       <c r="C133" s="136" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="D133" s="136"/>
       <c r="E133" s="142">
-        <v>480</v>
+        <v>14800</v>
       </c>
       <c r="F133" s="149"/>
-      <c r="G133" s="200" t="s">
-        <v>175</v>
-      </c>
-      <c r="H133" s="107" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G133" s="149" t="s">
+        <v>354</v>
+      </c>
+      <c r="H133" s="200" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="210"/>
       <c r="B134" s="82"/>
-      <c r="C134" s="136" t="s">
-        <v>41</v>
-      </c>
+      <c r="C134" s="136"/>
       <c r="D134" s="136"/>
       <c r="E134" s="142">
-        <v>2000</v>
+        <v>5900</v>
       </c>
       <c r="F134" s="149"/>
-      <c r="G134" s="200" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G134" s="149" t="s">
+        <v>355</v>
+      </c>
+      <c r="H134" s="200" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="210"/>
-      <c r="B135" s="226"/>
-      <c r="C135" s="227"/>
-      <c r="D135" s="227"/>
-      <c r="E135" s="227"/>
-      <c r="F135" s="228"/>
-      <c r="G135" s="229"/>
-    </row>
-    <row r="136" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="82"/>
+      <c r="C135" s="136"/>
+      <c r="D135" s="136"/>
+      <c r="E135" s="142">
+        <v>500</v>
+      </c>
+      <c r="F135" s="149"/>
+      <c r="G135" s="149" t="s">
+        <v>45</v>
+      </c>
+      <c r="H135" s="200" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A136" s="210"/>
-      <c r="B136" s="82">
-        <v>44797</v>
-      </c>
-      <c r="C136" s="136" t="s">
-        <v>41</v>
-      </c>
+      <c r="B136" s="82"/>
+      <c r="C136" s="136"/>
       <c r="D136" s="136"/>
-      <c r="E136" s="142">
-        <v>3000</v>
-      </c>
+      <c r="E136" s="142"/>
       <c r="F136" s="149"/>
-      <c r="G136" s="200" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G136" s="149" t="s">
+        <v>352</v>
+      </c>
+      <c r="H136" s="200"/>
+    </row>
+    <row r="137" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A137" s="210"/>
       <c r="B137" s="82"/>
       <c r="C137" s="136" t="s">
@@ -10720,219 +11371,270 @@
       </c>
       <c r="D137" s="136"/>
       <c r="E137" s="142">
-        <v>520</v>
+        <v>480</v>
       </c>
       <c r="F137" s="149"/>
-      <c r="G137" s="200" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G137" s="149" t="s">
+        <v>355</v>
+      </c>
+      <c r="H137" s="200" t="s">
+        <v>175</v>
+      </c>
+      <c r="I137" s="107" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A138" s="210"/>
-      <c r="B138" s="226"/>
-      <c r="C138" s="227"/>
-      <c r="D138" s="227"/>
-      <c r="E138" s="227"/>
-      <c r="F138" s="228"/>
-      <c r="G138" s="229"/>
-    </row>
-    <row r="139" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="82"/>
+      <c r="C138" s="136" t="s">
+        <v>41</v>
+      </c>
+      <c r="D138" s="136"/>
+      <c r="E138" s="142">
+        <v>2000</v>
+      </c>
+      <c r="F138" s="149"/>
+      <c r="G138" s="149" t="s">
+        <v>355</v>
+      </c>
+      <c r="H138" s="200" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" s="210"/>
-      <c r="B139" s="82">
-        <v>44798</v>
-      </c>
-      <c r="C139" s="136" t="s">
-        <v>339</v>
-      </c>
-      <c r="D139" s="136"/>
-      <c r="E139" s="142">
-        <v>14000</v>
-      </c>
-      <c r="F139" s="149"/>
-      <c r="G139" s="200" t="s">
-        <v>273</v>
-      </c>
-      <c r="H139" s="107" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="226"/>
+      <c r="C139" s="227"/>
+      <c r="D139" s="227"/>
+      <c r="E139" s="227"/>
+      <c r="F139" s="228"/>
+      <c r="G139" s="228" t="s">
+        <v>352</v>
+      </c>
+      <c r="H139" s="229"/>
+    </row>
+    <row r="140" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="210"/>
-      <c r="B140" s="82"/>
+      <c r="B140" s="82">
+        <v>44797</v>
+      </c>
       <c r="C140" s="136" t="s">
         <v>41</v>
       </c>
       <c r="D140" s="136"/>
       <c r="E140" s="142">
-        <v>720</v>
+        <v>3000</v>
       </c>
       <c r="F140" s="149"/>
-      <c r="G140" s="200" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G140" s="149" t="s">
+        <v>355</v>
+      </c>
+      <c r="H140" s="200" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" s="210"/>
-      <c r="B141" s="226"/>
-      <c r="C141" s="227"/>
-      <c r="D141" s="227"/>
-      <c r="E141" s="227"/>
-      <c r="F141" s="228"/>
-      <c r="G141" s="229"/>
-    </row>
-    <row r="142" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="82"/>
+      <c r="C141" s="136" t="s">
+        <v>41</v>
+      </c>
+      <c r="D141" s="136"/>
+      <c r="E141" s="142">
+        <v>520</v>
+      </c>
+      <c r="F141" s="149"/>
+      <c r="G141" s="149" t="s">
+        <v>355</v>
+      </c>
+      <c r="H141" s="200" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A142" s="210"/>
-      <c r="B142" s="82">
-        <v>44800</v>
-      </c>
-      <c r="C142" s="136" t="s">
+      <c r="B142" s="226"/>
+      <c r="C142" s="227"/>
+      <c r="D142" s="227"/>
+      <c r="E142" s="227"/>
+      <c r="F142" s="228"/>
+      <c r="G142" s="228" t="s">
+        <v>352</v>
+      </c>
+      <c r="H142" s="229"/>
+    </row>
+    <row r="143" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="210"/>
+      <c r="B143" s="82">
+        <v>44798</v>
+      </c>
+      <c r="C143" s="136" t="s">
+        <v>332</v>
+      </c>
+      <c r="D143" s="136"/>
+      <c r="E143" s="142">
+        <v>14000</v>
+      </c>
+      <c r="F143" s="149"/>
+      <c r="G143" s="149" t="s">
+        <v>356</v>
+      </c>
+      <c r="H143" s="200" t="s">
+        <v>269</v>
+      </c>
+      <c r="I143" s="107" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="210"/>
+      <c r="B144" s="82"/>
+      <c r="C144" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="D142" s="136"/>
-      <c r="E142" s="142">
-        <v>600</v>
-      </c>
-      <c r="F142" s="149"/>
-      <c r="G142" s="200" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="210"/>
-      <c r="B143" s="226"/>
-      <c r="C143" s="227"/>
-      <c r="D143" s="227"/>
-      <c r="E143" s="227"/>
-      <c r="F143" s="228"/>
-      <c r="G143" s="229"/>
-    </row>
-    <row r="144" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="210"/>
-      <c r="B144" s="82">
-        <v>44801</v>
-      </c>
-      <c r="C144" s="136"/>
       <c r="D144" s="136"/>
       <c r="E144" s="142">
-        <v>600</v>
+        <v>720</v>
       </c>
       <c r="F144" s="149"/>
-      <c r="G144" s="200" t="s">
-        <v>276</v>
-      </c>
-      <c r="H144" s="107" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G144" s="149" t="s">
+        <v>355</v>
+      </c>
+      <c r="H144" s="200" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A145" s="210"/>
       <c r="B145" s="226"/>
       <c r="C145" s="227"/>
       <c r="D145" s="227"/>
       <c r="E145" s="227"/>
       <c r="F145" s="228"/>
-      <c r="G145" s="229"/>
-    </row>
-    <row r="146" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G145" s="228" t="s">
+        <v>352</v>
+      </c>
+      <c r="H145" s="229"/>
+    </row>
+    <row r="146" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A146" s="210"/>
       <c r="B146" s="82">
-        <v>44802</v>
+        <v>44800</v>
       </c>
       <c r="C146" s="136" t="s">
         <v>41</v>
       </c>
       <c r="D146" s="136"/>
       <c r="E146" s="142">
-        <v>720</v>
+        <v>600</v>
       </c>
       <c r="F146" s="149"/>
-      <c r="G146" s="200" t="s">
+      <c r="G146" s="149" t="s">
+        <v>355</v>
+      </c>
+      <c r="H146" s="200" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A147" s="210"/>
       <c r="B147" s="226"/>
       <c r="C147" s="227"/>
       <c r="D147" s="227"/>
       <c r="E147" s="227"/>
       <c r="F147" s="228"/>
-      <c r="G147" s="229"/>
-    </row>
-    <row r="148" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G147" s="228" t="s">
+        <v>352</v>
+      </c>
+      <c r="H147" s="229"/>
+    </row>
+    <row r="148" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" s="210"/>
       <c r="B148" s="82">
-        <v>44803</v>
-      </c>
-      <c r="C148" s="136" t="s">
-        <v>44</v>
-      </c>
+        <v>44801</v>
+      </c>
+      <c r="C148" s="136"/>
       <c r="D148" s="136"/>
       <c r="E148" s="142">
-        <v>2800</v>
+        <v>600</v>
       </c>
       <c r="F148" s="149"/>
-      <c r="G148" s="200" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G148" s="149" t="s">
+        <v>355</v>
+      </c>
+      <c r="H148" s="200" t="s">
+        <v>272</v>
+      </c>
+      <c r="I148" s="107" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="210"/>
-      <c r="B149" s="82"/>
-      <c r="C149" s="136" t="s">
+      <c r="B149" s="226"/>
+      <c r="C149" s="227"/>
+      <c r="D149" s="227"/>
+      <c r="E149" s="227"/>
+      <c r="F149" s="228"/>
+      <c r="G149" s="228" t="s">
+        <v>352</v>
+      </c>
+      <c r="H149" s="229"/>
+    </row>
+    <row r="150" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="210"/>
+      <c r="B150" s="82">
+        <v>44802</v>
+      </c>
+      <c r="C150" s="136" t="s">
         <v>41</v>
-      </c>
-      <c r="D149" s="136"/>
-      <c r="E149" s="142">
-        <v>300</v>
-      </c>
-      <c r="F149" s="149"/>
-      <c r="G149" s="200" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="210"/>
-      <c r="B150" s="82"/>
-      <c r="C150" s="136" t="s">
-        <v>339</v>
       </c>
       <c r="D150" s="136"/>
       <c r="E150" s="142">
-        <v>3000</v>
+        <v>720</v>
       </c>
       <c r="F150" s="149"/>
-      <c r="G150" s="200" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G150" s="149" t="s">
+        <v>355</v>
+      </c>
+      <c r="H150" s="200" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="210"/>
       <c r="B151" s="226"/>
       <c r="C151" s="227"/>
       <c r="D151" s="227"/>
       <c r="E151" s="227"/>
       <c r="F151" s="228"/>
-      <c r="G151" s="229"/>
-    </row>
-    <row r="152" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G151" s="228" t="s">
+        <v>352</v>
+      </c>
+      <c r="H151" s="229"/>
+    </row>
+    <row r="152" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="210"/>
       <c r="B152" s="82">
-        <v>44804</v>
+        <v>44803</v>
       </c>
       <c r="C152" s="136" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D152" s="136"/>
       <c r="E152" s="142">
-        <v>1785</v>
+        <v>2800</v>
       </c>
       <c r="F152" s="149"/>
-      <c r="G152" s="200" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G152" s="149" t="s">
+        <v>45</v>
+      </c>
+      <c r="H152" s="200" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="210"/>
       <c r="B153" s="82"/>
       <c r="C153" s="136" t="s">
@@ -10940,664 +11642,967 @@
       </c>
       <c r="D153" s="136"/>
       <c r="E153" s="142">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="F153" s="149"/>
-      <c r="G153" s="200" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G153" s="149" t="s">
+        <v>355</v>
+      </c>
+      <c r="H153" s="200" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" s="210"/>
       <c r="B154" s="82"/>
       <c r="C154" s="136" t="s">
+        <v>332</v>
+      </c>
+      <c r="D154" s="136"/>
+      <c r="E154" s="142">
+        <v>3000</v>
+      </c>
+      <c r="F154" s="149"/>
+      <c r="G154" s="149" t="s">
+        <v>355</v>
+      </c>
+      <c r="H154" s="200" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="210"/>
+      <c r="B155" s="226"/>
+      <c r="C155" s="227"/>
+      <c r="D155" s="227"/>
+      <c r="E155" s="227"/>
+      <c r="F155" s="228"/>
+      <c r="G155" s="228" t="s">
+        <v>352</v>
+      </c>
+      <c r="H155" s="229"/>
+    </row>
+    <row r="156" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="210"/>
+      <c r="B156" s="82">
+        <v>44804</v>
+      </c>
+      <c r="C156" s="136" t="s">
+        <v>41</v>
+      </c>
+      <c r="D156" s="136"/>
+      <c r="E156" s="142">
+        <v>1785</v>
+      </c>
+      <c r="F156" s="149"/>
+      <c r="G156" s="149" t="s">
+        <v>355</v>
+      </c>
+      <c r="H156" s="200" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="210"/>
+      <c r="B157" s="82"/>
+      <c r="C157" s="136" t="s">
+        <v>41</v>
+      </c>
+      <c r="D157" s="136"/>
+      <c r="E157" s="142">
+        <v>720</v>
+      </c>
+      <c r="F157" s="149"/>
+      <c r="G157" s="149" t="s">
+        <v>355</v>
+      </c>
+      <c r="H157" s="200" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="210"/>
+      <c r="B158" s="82"/>
+      <c r="C158" s="136" t="s">
         <v>39</v>
       </c>
-      <c r="D154" s="136" t="s">
+      <c r="D158" s="136" t="s">
         <v>40</v>
       </c>
-      <c r="E154" s="142"/>
-      <c r="F154" s="146">
+      <c r="E158" s="142"/>
+      <c r="F158" s="146">
         <v>2000</v>
       </c>
-      <c r="G154" s="282" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="210"/>
-      <c r="B155" s="82"/>
-      <c r="C155" s="136" t="s">
+      <c r="G158" s="146" t="s">
+        <v>352</v>
+      </c>
+      <c r="H158" s="237" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="210"/>
+      <c r="B159" s="82"/>
+      <c r="C159" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="D155" s="136"/>
-      <c r="E155" s="142">
+      <c r="D159" s="136"/>
+      <c r="E159" s="142">
         <v>1500</v>
       </c>
-      <c r="F155" s="149"/>
-      <c r="G155" s="200" t="s">
+      <c r="F159" s="149"/>
+      <c r="G159" s="149" t="s">
+        <v>358</v>
+      </c>
+      <c r="H159" s="200" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="283"/>
-      <c r="C156" s="284" t="s">
+    <row r="160" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B160" s="238"/>
+      <c r="C160" s="239" t="s">
         <v>41</v>
       </c>
-      <c r="D156" s="284"/>
-      <c r="E156" s="285">
+      <c r="D160" s="239"/>
+      <c r="E160" s="240">
         <v>400</v>
       </c>
-      <c r="F156" s="284"/>
-      <c r="G156" s="286" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="210"/>
-      <c r="B157" s="226"/>
-      <c r="C157" s="227"/>
-      <c r="D157" s="227"/>
-      <c r="E157" s="227"/>
-      <c r="F157" s="228"/>
-      <c r="G157" s="229"/>
-    </row>
-    <row r="158" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="210"/>
-      <c r="B158" s="82">
-        <v>44805</v>
-      </c>
-      <c r="C158" s="136"/>
-      <c r="D158" s="136"/>
-      <c r="E158" s="142"/>
-      <c r="F158" s="149"/>
-      <c r="G158" s="200"/>
-    </row>
-    <row r="159" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="210"/>
-      <c r="B159" s="226"/>
-      <c r="C159" s="227"/>
-      <c r="D159" s="227"/>
-      <c r="E159" s="227"/>
-      <c r="F159" s="228"/>
-      <c r="G159" s="229"/>
-    </row>
-    <row r="160" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="210"/>
-      <c r="B160" s="82">
-        <v>44807</v>
-      </c>
-      <c r="C160" s="136" t="s">
-        <v>41</v>
-      </c>
-      <c r="D160" s="136"/>
-      <c r="E160" s="142">
-        <v>520</v>
-      </c>
-      <c r="F160" s="149"/>
-      <c r="G160" s="200" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F160" s="239"/>
+      <c r="G160" s="239" t="s">
+        <v>358</v>
+      </c>
+      <c r="H160" s="241" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A161" s="210"/>
       <c r="B161" s="226"/>
       <c r="C161" s="227"/>
       <c r="D161" s="227"/>
       <c r="E161" s="227"/>
       <c r="F161" s="228"/>
-      <c r="G161" s="229"/>
-    </row>
-    <row r="162" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G161" s="228" t="s">
+        <v>352</v>
+      </c>
+      <c r="H161" s="229"/>
+    </row>
+    <row r="162" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A162" s="210"/>
       <c r="B162" s="82">
-        <v>44808</v>
-      </c>
-      <c r="C162" s="136" t="s">
-        <v>41</v>
-      </c>
+        <v>44805</v>
+      </c>
+      <c r="C162" s="136"/>
       <c r="D162" s="136"/>
-      <c r="E162" s="142">
-        <v>720</v>
-      </c>
+      <c r="E162" s="142"/>
       <c r="F162" s="149"/>
-      <c r="G162" s="200" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G162" s="149" t="s">
+        <v>352</v>
+      </c>
+      <c r="H162" s="200"/>
+    </row>
+    <row r="163" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A163" s="210"/>
       <c r="B163" s="226"/>
       <c r="C163" s="227"/>
       <c r="D163" s="227"/>
       <c r="E163" s="227"/>
       <c r="F163" s="228"/>
-      <c r="G163" s="229"/>
-      <c r="H163" s="107">
-        <f>2000+600+1750+700</f>
-        <v>5050</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G163" s="228" t="s">
+        <v>352</v>
+      </c>
+      <c r="H163" s="229"/>
+    </row>
+    <row r="164" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" s="210"/>
       <c r="B164" s="82">
-        <v>44809</v>
+        <v>44807</v>
       </c>
       <c r="C164" s="136" t="s">
         <v>41</v>
       </c>
       <c r="D164" s="136"/>
       <c r="E164" s="142">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="F164" s="149"/>
-      <c r="G164" s="200" t="s">
+      <c r="G164" s="149" t="s">
+        <v>355</v>
+      </c>
+      <c r="H164" s="200" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="210"/>
       <c r="B165" s="226"/>
       <c r="C165" s="227"/>
       <c r="D165" s="227"/>
       <c r="E165" s="227"/>
       <c r="F165" s="228"/>
-      <c r="G165" s="229"/>
-    </row>
-    <row r="166" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G165" s="228" t="s">
+        <v>352</v>
+      </c>
+      <c r="H165" s="229"/>
+      <c r="I165" s="107" t="s">
+        <v>343</v>
+      </c>
+      <c r="K165" s="142">
+        <v>24600</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="210"/>
       <c r="B166" s="82">
-        <v>44810</v>
+        <v>44808</v>
       </c>
       <c r="C166" s="136" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D166" s="136"/>
-      <c r="E166" s="142"/>
-      <c r="F166" s="146">
-        <v>100000</v>
-      </c>
-      <c r="G166" s="282" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="82"/>
-      <c r="C167" s="136" t="s">
-        <v>44</v>
-      </c>
-      <c r="D167" s="136"/>
-      <c r="E167" s="142">
-        <v>9000</v>
-      </c>
-      <c r="F167" s="149"/>
-      <c r="G167" s="200" t="s">
-        <v>328</v>
-      </c>
-      <c r="H167" s="107" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="82"/>
+      <c r="E166" s="142">
+        <v>720</v>
+      </c>
+      <c r="F166" s="149"/>
+      <c r="G166" s="149" t="s">
+        <v>355</v>
+      </c>
+      <c r="H166" s="200" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="210"/>
+      <c r="B167" s="226"/>
+      <c r="C167" s="227"/>
+      <c r="D167" s="227"/>
+      <c r="E167" s="227"/>
+      <c r="F167" s="228"/>
+      <c r="G167" s="228" t="s">
+        <v>352</v>
+      </c>
+      <c r="H167" s="229"/>
+      <c r="I167" s="107">
+        <f>2000+600+1750+700</f>
+        <v>5050</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="210"/>
+      <c r="B168" s="82">
+        <v>44809</v>
+      </c>
       <c r="C168" s="136" t="s">
         <v>41</v>
       </c>
       <c r="D168" s="136"/>
       <c r="E168" s="142">
-        <v>24600</v>
+        <v>480</v>
       </c>
       <c r="F168" s="149"/>
-      <c r="G168" s="200" t="s">
+      <c r="G168" s="149" t="s">
+        <v>355</v>
+      </c>
+      <c r="H168" s="200" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B169" s="226"/>
+      <c r="C169" s="227"/>
+      <c r="D169" s="227"/>
+      <c r="E169" s="227"/>
+      <c r="F169" s="228"/>
+      <c r="G169" s="228" t="s">
+        <v>352</v>
+      </c>
+      <c r="H169" s="229"/>
+    </row>
+    <row r="170" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B170" s="82">
+        <v>44810</v>
+      </c>
+      <c r="C170" s="136" t="s">
+        <v>39</v>
+      </c>
+      <c r="D170" s="136"/>
+      <c r="E170" s="142"/>
+      <c r="F170" s="146">
+        <v>100000</v>
+      </c>
+      <c r="G170" s="146" t="s">
+        <v>352</v>
+      </c>
+      <c r="H170" s="237" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B171" s="82"/>
+      <c r="C171" s="136" t="s">
+        <v>44</v>
+      </c>
+      <c r="D171" s="136"/>
+      <c r="E171" s="142">
+        <v>9000</v>
+      </c>
+      <c r="F171" s="149"/>
+      <c r="G171" s="149" t="s">
+        <v>356</v>
+      </c>
+      <c r="H171" s="200" t="s">
+        <v>321</v>
+      </c>
+      <c r="I171" s="107" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B172" s="82"/>
+      <c r="C172" s="136" t="s">
+        <v>41</v>
+      </c>
+      <c r="D172" s="136"/>
+      <c r="E172" s="142">
+        <v>18400</v>
+      </c>
+      <c r="F172" s="149"/>
+      <c r="G172" s="149" t="s">
+        <v>356</v>
+      </c>
+      <c r="H172" s="200" t="s">
+        <v>369</v>
+      </c>
+      <c r="I172" s="247" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B173" s="82"/>
+      <c r="C173" s="136"/>
+      <c r="D173" s="136"/>
+      <c r="E173" s="142">
+        <v>1500</v>
+      </c>
+      <c r="F173" s="149"/>
+      <c r="G173" s="149" t="s">
+        <v>345</v>
+      </c>
+      <c r="H173" s="200" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B174" s="82"/>
+      <c r="C174" s="136"/>
+      <c r="D174" s="136"/>
+      <c r="E174" s="142">
+        <v>4700</v>
+      </c>
+      <c r="F174" s="149"/>
+      <c r="G174" s="149" t="s">
         <v>354</v>
       </c>
-      <c r="H168" s="107" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="82"/>
-      <c r="C169" s="136" t="s">
+      <c r="H174" s="200" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B175" s="82"/>
+      <c r="C175" s="136" t="s">
         <v>42</v>
       </c>
-      <c r="D169" s="136" t="s">
-        <v>303</v>
-      </c>
-      <c r="E169" s="142">
+      <c r="D175" s="136" t="s">
+        <v>298</v>
+      </c>
+      <c r="E175" s="142">
         <v>12000</v>
       </c>
-      <c r="F169" s="149"/>
-      <c r="G169" s="200" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="82"/>
-      <c r="C170" s="136" t="s">
+      <c r="F175" s="149"/>
+      <c r="G175" s="149" t="s">
+        <v>353</v>
+      </c>
+      <c r="H175" s="200" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B176" s="82"/>
+      <c r="C176" s="136" t="s">
         <v>42</v>
       </c>
-      <c r="D170" s="136" t="s">
-        <v>302</v>
-      </c>
-      <c r="E170" s="142">
+      <c r="D176" s="136" t="s">
+        <v>297</v>
+      </c>
+      <c r="E176" s="142">
         <v>12000</v>
       </c>
-      <c r="F170" s="149"/>
-      <c r="G170" s="200" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B171" s="226"/>
-      <c r="C171" s="227"/>
-      <c r="D171" s="227"/>
-      <c r="E171" s="227"/>
-      <c r="F171" s="228"/>
-      <c r="G171" s="229"/>
-      <c r="H171" s="107">
+      <c r="F176" s="149"/>
+      <c r="G176" s="149" t="s">
+        <v>353</v>
+      </c>
+      <c r="H176" s="200" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="177" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B177" s="226"/>
+      <c r="C177" s="227"/>
+      <c r="D177" s="227"/>
+      <c r="E177" s="227"/>
+      <c r="F177" s="228"/>
+      <c r="G177" s="228" t="s">
+        <v>352</v>
+      </c>
+      <c r="H177" s="229"/>
+      <c r="I177" s="107">
         <f>27*1800</f>
         <v>48600</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="82">
+    <row r="178" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B178" s="82">
         <v>44811</v>
       </c>
-      <c r="C172" s="136" t="s">
+      <c r="C178" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="D172" s="136"/>
-      <c r="E172" s="142">
+      <c r="D178" s="136"/>
+      <c r="E178" s="142">
         <v>530</v>
       </c>
-      <c r="F172" s="149"/>
-      <c r="G172" s="200" t="s">
+      <c r="F178" s="149"/>
+      <c r="G178" s="149" t="s">
+        <v>355</v>
+      </c>
+      <c r="H178" s="200" t="s">
         <v>175</v>
       </c>
-      <c r="H172" s="107" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="82"/>
-      <c r="C173" s="136" t="s">
-        <v>41</v>
-      </c>
-      <c r="D173" s="136"/>
-      <c r="E173" s="142">
-        <v>350</v>
-      </c>
-      <c r="F173" s="149"/>
-      <c r="G173" s="200" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="82"/>
-      <c r="C174" s="136" t="s">
-        <v>41</v>
-      </c>
-      <c r="D174" s="136"/>
-      <c r="E174" s="142">
-        <v>100</v>
-      </c>
-      <c r="F174" s="149"/>
-      <c r="G174" s="200" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B175" s="226"/>
-      <c r="C175" s="227"/>
-      <c r="D175" s="227"/>
-      <c r="E175" s="227"/>
-      <c r="F175" s="228"/>
-      <c r="G175" s="229"/>
-    </row>
-    <row r="176" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="82">
-        <v>44815</v>
-      </c>
-      <c r="C176" s="136" t="s">
-        <v>41</v>
-      </c>
-      <c r="D176" s="136"/>
-      <c r="E176" s="142">
-        <v>480</v>
-      </c>
-      <c r="F176" s="149"/>
-      <c r="G176" s="200" t="s">
-        <v>175</v>
-      </c>
-      <c r="H176" s="107" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="177" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="82"/>
-      <c r="C177" s="136" t="s">
-        <v>41</v>
-      </c>
-      <c r="D177" s="136"/>
-      <c r="E177" s="142">
-        <v>1400</v>
-      </c>
-      <c r="F177" s="149"/>
-      <c r="G177" s="200" t="s">
-        <v>322</v>
-      </c>
-      <c r="H177" s="107" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="178" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="226"/>
-      <c r="C178" s="227"/>
-      <c r="D178" s="227"/>
-      <c r="E178" s="227"/>
-      <c r="F178" s="228"/>
-      <c r="G178" s="229"/>
-    </row>
-    <row r="179" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B179" s="82">
-        <v>44816</v>
-      </c>
+      <c r="I178" s="107" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="179" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B179" s="82"/>
       <c r="C179" s="136" t="s">
         <v>41</v>
       </c>
       <c r="D179" s="136"/>
       <c r="E179" s="142">
-        <v>1440</v>
+        <v>350</v>
       </c>
       <c r="F179" s="149"/>
-      <c r="G179" s="200" t="s">
-        <v>175</v>
-      </c>
-      <c r="H179" s="107" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="180" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G179" s="149" t="s">
+        <v>372</v>
+      </c>
+      <c r="H179" s="200" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="180" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B180" s="82"/>
       <c r="C180" s="136" t="s">
         <v>41</v>
       </c>
       <c r="D180" s="136"/>
       <c r="E180" s="142">
-        <v>1500</v>
+        <v>100</v>
       </c>
       <c r="F180" s="149"/>
-      <c r="G180" s="200" t="s">
-        <v>325</v>
-      </c>
-      <c r="H180" s="107" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="181" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G180" s="149" t="s">
+        <v>372</v>
+      </c>
+      <c r="H180" s="200" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="181" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B181" s="226"/>
       <c r="C181" s="227"/>
       <c r="D181" s="227"/>
       <c r="E181" s="227"/>
       <c r="F181" s="228"/>
-      <c r="G181" s="229"/>
-    </row>
-    <row r="182" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G181" s="228" t="s">
+        <v>352</v>
+      </c>
+      <c r="H181" s="229"/>
+    </row>
+    <row r="182" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B182" s="82">
-        <v>44817</v>
+        <v>44815</v>
       </c>
       <c r="C182" s="136" t="s">
         <v>41</v>
       </c>
       <c r="D182" s="136"/>
       <c r="E182" s="142">
+        <v>480</v>
+      </c>
+      <c r="F182" s="149"/>
+      <c r="G182" s="149" t="s">
+        <v>355</v>
+      </c>
+      <c r="H182" s="200" t="s">
+        <v>175</v>
+      </c>
+      <c r="I182" s="107" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="183" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B183" s="82"/>
+      <c r="C183" s="136"/>
+      <c r="D183" s="136"/>
+      <c r="E183" s="142">
+        <v>600</v>
+      </c>
+      <c r="F183" s="149"/>
+      <c r="G183" s="149" t="s">
+        <v>346</v>
+      </c>
+      <c r="H183" s="202" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="184" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B184" s="82"/>
+      <c r="C184" s="136" t="s">
+        <v>41</v>
+      </c>
+      <c r="D184" s="136"/>
+      <c r="E184" s="142">
+        <v>800</v>
+      </c>
+      <c r="F184" s="149"/>
+      <c r="G184" s="149" t="s">
+        <v>372</v>
+      </c>
+      <c r="H184" s="200" t="s">
+        <v>374</v>
+      </c>
+      <c r="I184" s="107" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="185" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B185" s="226"/>
+      <c r="C185" s="227"/>
+      <c r="D185" s="227"/>
+      <c r="E185" s="227"/>
+      <c r="F185" s="228"/>
+      <c r="G185" s="228" t="s">
+        <v>352</v>
+      </c>
+      <c r="H185" s="229"/>
+    </row>
+    <row r="186" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B186" s="82">
+        <v>44816</v>
+      </c>
+      <c r="C186" s="136" t="s">
+        <v>41</v>
+      </c>
+      <c r="D186" s="136"/>
+      <c r="E186" s="142">
+        <v>1440</v>
+      </c>
+      <c r="F186" s="149"/>
+      <c r="G186" s="149" t="s">
+        <v>355</v>
+      </c>
+      <c r="H186" s="200" t="s">
+        <v>175</v>
+      </c>
+      <c r="I186" s="107" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="187" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B187" s="82"/>
+      <c r="C187" s="136"/>
+      <c r="D187" s="136"/>
+      <c r="E187" s="142">
+        <v>900</v>
+      </c>
+      <c r="F187" s="149"/>
+      <c r="G187" s="149" t="s">
+        <v>356</v>
+      </c>
+      <c r="H187" s="200" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="188" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B188" s="82"/>
+      <c r="C188" s="136" t="s">
+        <v>41</v>
+      </c>
+      <c r="D188" s="136"/>
+      <c r="E188" s="142">
+        <v>600</v>
+      </c>
+      <c r="F188" s="149"/>
+      <c r="G188" s="149" t="s">
+        <v>45</v>
+      </c>
+      <c r="H188" s="200" t="s">
+        <v>45</v>
+      </c>
+      <c r="I188" s="107" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="189" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B189" s="226"/>
+      <c r="C189" s="227"/>
+      <c r="D189" s="227"/>
+      <c r="E189" s="227"/>
+      <c r="F189" s="228"/>
+      <c r="G189" s="228" t="s">
+        <v>352</v>
+      </c>
+      <c r="H189" s="229"/>
+    </row>
+    <row r="190" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B190" s="82">
+        <v>44817</v>
+      </c>
+      <c r="C190" s="136" t="s">
+        <v>41</v>
+      </c>
+      <c r="D190" s="136"/>
+      <c r="E190" s="142">
         <f>480+720</f>
         <v>1200</v>
       </c>
-      <c r="F182" s="149"/>
-      <c r="G182" s="200" t="s">
-        <v>254</v>
-      </c>
-      <c r="H182" s="107" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="183" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B183" s="226"/>
-      <c r="C183" s="227"/>
-      <c r="D183" s="227"/>
-      <c r="E183" s="227"/>
-      <c r="F183" s="228"/>
-      <c r="G183" s="229"/>
-    </row>
-    <row r="184" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="82">
+      <c r="F190" s="149"/>
+      <c r="G190" s="149" t="s">
+        <v>355</v>
+      </c>
+      <c r="H190" s="200" t="s">
+        <v>253</v>
+      </c>
+      <c r="I190" s="107" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="191" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B191" s="226"/>
+      <c r="C191" s="227"/>
+      <c r="D191" s="227"/>
+      <c r="E191" s="227"/>
+      <c r="F191" s="228"/>
+      <c r="G191" s="228" t="s">
+        <v>352</v>
+      </c>
+      <c r="H191" s="229"/>
+    </row>
+    <row r="192" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B192" s="82">
         <v>44818</v>
       </c>
-      <c r="C184" s="136" t="s">
+      <c r="C192" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="D184" s="136"/>
-      <c r="E184" s="142">
+      <c r="D192" s="136"/>
+      <c r="E192" s="142">
         <v>720</v>
       </c>
-      <c r="F184" s="149"/>
-      <c r="G184" s="200" t="s">
+      <c r="F192" s="149"/>
+      <c r="G192" s="149" t="s">
+        <v>355</v>
+      </c>
+      <c r="H192" s="200" t="s">
         <v>175</v>
       </c>
-      <c r="H184" s="107" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="185" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B185" s="82"/>
-      <c r="C185" s="136" t="s">
-        <v>41</v>
-      </c>
-      <c r="D185" s="136"/>
-      <c r="E185" s="142">
-        <v>12200</v>
-      </c>
-      <c r="F185" s="149"/>
-      <c r="G185" s="200" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="186" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="82"/>
-      <c r="C186" s="136"/>
-      <c r="D186" s="136"/>
-      <c r="E186" s="142">
-        <v>300</v>
-      </c>
-      <c r="F186" s="149"/>
-      <c r="G186" s="200" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="187" spans="2:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="82"/>
-      <c r="C187" s="136" t="s">
-        <v>71</v>
-      </c>
-      <c r="D187" s="136" t="s">
-        <v>346</v>
-      </c>
-      <c r="E187" s="142">
-        <v>9000</v>
-      </c>
-      <c r="F187" s="149"/>
-      <c r="G187" s="200" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="188" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="82"/>
-      <c r="C188" s="136"/>
-      <c r="D188" s="136"/>
-      <c r="E188" s="142"/>
-      <c r="F188" s="149"/>
-      <c r="G188" s="200"/>
-    </row>
-    <row r="189" spans="2:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="82">
-        <v>44819</v>
-      </c>
-      <c r="C189" s="136" t="s">
-        <v>39</v>
-      </c>
-      <c r="D189" s="136" t="s">
-        <v>52</v>
-      </c>
-      <c r="E189" s="142"/>
-      <c r="F189" s="146">
-        <v>200000</v>
-      </c>
-      <c r="G189" s="282" t="s">
-        <v>348</v>
-      </c>
-      <c r="H189" s="107" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="190" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="82"/>
-      <c r="C190" s="136" t="s">
-        <v>47</v>
-      </c>
-      <c r="D190" s="136" t="s">
-        <v>81</v>
-      </c>
-      <c r="E190" s="142">
-        <v>34800</v>
-      </c>
-      <c r="F190" s="149"/>
-      <c r="G190" s="200" t="s">
-        <v>349</v>
-      </c>
-      <c r="H190" s="107" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="191" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="82"/>
-      <c r="C191" s="136" t="s">
-        <v>47</v>
-      </c>
-      <c r="D191" s="136" t="s">
-        <v>302</v>
-      </c>
-      <c r="E191" s="147">
-        <v>34800</v>
-      </c>
-      <c r="F191" s="149"/>
-      <c r="G191" s="200" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="192" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="82"/>
-      <c r="C192" s="136"/>
-      <c r="D192" s="136"/>
-      <c r="E192" s="142"/>
-      <c r="F192" s="149"/>
-      <c r="G192" s="200"/>
-    </row>
-    <row r="193" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B193" s="82">
-        <v>44822</v>
-      </c>
+      <c r="I192" s="107" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="193" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B193" s="82"/>
       <c r="C193" s="136" t="s">
         <v>41</v>
       </c>
       <c r="D193" s="136"/>
       <c r="E193" s="142">
-        <v>2000</v>
+        <v>12200</v>
       </c>
       <c r="F193" s="149"/>
-      <c r="G193" s="200" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="194" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G193" s="149" t="s">
+        <v>354</v>
+      </c>
+      <c r="H193" s="200" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="194" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B194" s="82"/>
       <c r="C194" s="136" t="s">
-        <v>44</v>
-      </c>
-      <c r="D194" s="136" t="s">
-        <v>351</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D194" s="136"/>
       <c r="E194" s="142">
-        <v>12000</v>
+        <v>300</v>
       </c>
       <c r="F194" s="149"/>
-      <c r="G194" s="200" t="s">
-        <v>352</v>
-      </c>
-      <c r="H194" s="273" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="195" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G194" s="149" t="s">
+        <v>376</v>
+      </c>
+      <c r="H194" s="200" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="195" spans="2:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B195" s="82"/>
-      <c r="C195" s="136"/>
-      <c r="D195" s="136"/>
-      <c r="E195" s="142"/>
+      <c r="C195" s="136" t="s">
+        <v>47</v>
+      </c>
+      <c r="D195" s="136" t="s">
+        <v>338</v>
+      </c>
+      <c r="E195" s="142">
+        <v>9000</v>
+      </c>
       <c r="F195" s="149"/>
-      <c r="G195" s="200"/>
-    </row>
-    <row r="196" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G195" s="149" t="s">
+        <v>376</v>
+      </c>
+      <c r="H195" s="200" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="196" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B196" s="82"/>
       <c r="C196" s="136"/>
       <c r="D196" s="136"/>
       <c r="E196" s="142"/>
       <c r="F196" s="149"/>
-      <c r="G196" s="200"/>
-    </row>
-    <row r="197" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="82"/>
-      <c r="C197" s="136"/>
-      <c r="D197" s="136"/>
+      <c r="G196" s="149" t="s">
+        <v>352</v>
+      </c>
+      <c r="H196" s="200"/>
+    </row>
+    <row r="197" spans="2:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B197" s="82">
+        <v>44819</v>
+      </c>
+      <c r="C197" s="136" t="s">
+        <v>39</v>
+      </c>
+      <c r="D197" s="136" t="s">
+        <v>52</v>
+      </c>
       <c r="E197" s="142"/>
-      <c r="F197" s="149"/>
-      <c r="G197" s="200"/>
-    </row>
-    <row r="198" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F197" s="146">
+        <v>200000</v>
+      </c>
+      <c r="G197" s="146" t="s">
+        <v>352</v>
+      </c>
+      <c r="H197" s="237" t="s">
+        <v>340</v>
+      </c>
+      <c r="I197" s="107" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="198" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B198" s="82"/>
-      <c r="C198" s="136"/>
-      <c r="D198" s="136"/>
-      <c r="E198" s="142"/>
+      <c r="C198" s="136" t="s">
+        <v>47</v>
+      </c>
+      <c r="D198" s="136" t="s">
+        <v>81</v>
+      </c>
+      <c r="E198" s="142">
+        <v>34800</v>
+      </c>
       <c r="F198" s="149"/>
-      <c r="G198" s="200"/>
-    </row>
-    <row r="199" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B199" s="85"/>
-      <c r="C199" s="86"/>
-      <c r="D199" s="86"/>
-      <c r="E199" s="204">
-        <f>SUM(E14:E198)</f>
-        <v>856495</v>
-      </c>
-      <c r="F199" s="205">
-        <f>SUM(F14:F198)</f>
+      <c r="G198" s="149" t="s">
+        <v>353</v>
+      </c>
+      <c r="H198" s="200" t="s">
+        <v>341</v>
+      </c>
+      <c r="I198" s="107" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="199" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B199" s="82"/>
+      <c r="C199" s="136" t="s">
+        <v>47</v>
+      </c>
+      <c r="D199" s="136" t="s">
+        <v>297</v>
+      </c>
+      <c r="E199" s="147">
+        <v>34800</v>
+      </c>
+      <c r="F199" s="149"/>
+      <c r="G199" s="149" t="s">
+        <v>353</v>
+      </c>
+      <c r="H199" s="200" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="200" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B200" s="82"/>
+      <c r="C200" s="136"/>
+      <c r="D200" s="136"/>
+      <c r="E200" s="142"/>
+      <c r="F200" s="149"/>
+      <c r="G200" s="149" t="s">
+        <v>352</v>
+      </c>
+      <c r="H200" s="200"/>
+    </row>
+    <row r="201" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B201" s="82">
+        <v>44822</v>
+      </c>
+      <c r="C201" s="136" t="s">
+        <v>41</v>
+      </c>
+      <c r="D201" s="136"/>
+      <c r="E201" s="142">
+        <v>2000</v>
+      </c>
+      <c r="F201" s="149"/>
+      <c r="G201" s="149" t="s">
+        <v>372</v>
+      </c>
+      <c r="H201" s="200" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="202" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B202" s="82"/>
+      <c r="C202" s="136" t="s">
+        <v>41</v>
+      </c>
+      <c r="D202" s="136"/>
+      <c r="E202" s="142">
+        <v>480</v>
+      </c>
+      <c r="F202" s="149"/>
+      <c r="G202" s="149" t="s">
+        <v>355</v>
+      </c>
+      <c r="H202" s="200" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="203" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B203" s="82"/>
+      <c r="C203" s="136"/>
+      <c r="D203" s="136"/>
+      <c r="E203" s="142"/>
+      <c r="F203" s="149"/>
+      <c r="G203" s="149" t="s">
+        <v>352</v>
+      </c>
+      <c r="H203" s="200"/>
+      <c r="I203" s="231"/>
+    </row>
+    <row r="204" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B204" s="82">
+        <v>44823</v>
+      </c>
+      <c r="C204" s="136" t="s">
+        <v>44</v>
+      </c>
+      <c r="D204" s="136"/>
+      <c r="E204" s="142">
+        <v>21000</v>
+      </c>
+      <c r="F204" s="149"/>
+      <c r="G204" s="149" t="s">
+        <v>356</v>
+      </c>
+      <c r="H204" s="200" t="s">
+        <v>378</v>
+      </c>
+      <c r="I204" s="108" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="205" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B205" s="82"/>
+      <c r="C205" s="136" t="s">
+        <v>41</v>
+      </c>
+      <c r="D205" s="136"/>
+      <c r="E205" s="142">
+        <v>600</v>
+      </c>
+      <c r="F205" s="149"/>
+      <c r="G205" s="149" t="s">
+        <v>355</v>
+      </c>
+      <c r="H205" s="200" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="206" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B206" s="82"/>
+      <c r="C206" s="136"/>
+      <c r="D206" s="136"/>
+      <c r="E206" s="142"/>
+      <c r="F206" s="149"/>
+      <c r="G206" s="149"/>
+      <c r="H206" s="200"/>
+    </row>
+    <row r="207" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B207" s="82"/>
+      <c r="C207" s="136"/>
+      <c r="D207" s="136"/>
+      <c r="E207" s="142"/>
+      <c r="F207" s="149"/>
+      <c r="G207" s="149"/>
+      <c r="H207" s="200"/>
+    </row>
+    <row r="208" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B208" s="85"/>
+      <c r="C208" s="86"/>
+      <c r="D208" s="86"/>
+      <c r="E208" s="204"/>
+      <c r="F208" s="205"/>
+      <c r="G208" s="205"/>
+      <c r="H208" s="242"/>
+    </row>
+    <row r="209" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B209" s="248"/>
+      <c r="C209" s="249"/>
+      <c r="D209" s="249"/>
+      <c r="E209" s="250"/>
+      <c r="F209" s="150"/>
+      <c r="G209" s="150"/>
+      <c r="H209" s="251"/>
+    </row>
+    <row r="210" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B210" s="252" t="s">
+        <v>324</v>
+      </c>
+      <c r="C210" s="253"/>
+      <c r="D210" s="136">
+        <f>Tableau2[[#Totals],[Crédit]]-Tableau2[[#Totals],[Débit]]</f>
+        <v>94825</v>
+      </c>
+      <c r="E210" s="142">
+        <f>SUBTOTAL(109,Tableau2[Débit])</f>
+        <v>867175</v>
+      </c>
+      <c r="F210" s="142">
+        <f>SUBTOTAL(109,Tableau2[Crédit])</f>
         <v>962000</v>
       </c>
-      <c r="G199" s="287" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="200" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B200" s="288" t="s">
-        <v>331</v>
-      </c>
-      <c r="C200" s="289"/>
-      <c r="D200" s="136">
-        <f>F199-E199</f>
-        <v>105505</v>
-      </c>
-      <c r="E200" s="290"/>
-      <c r="F200" s="291"/>
-      <c r="G200" s="292">
+      <c r="G210" s="254"/>
+      <c r="H210" s="253">
         <f>SUBTOTAL(103,Tableau2[Observation])</f>
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -11605,25 +12610,39 @@
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C6:F6"/>
   </mergeCells>
-  <conditionalFormatting sqref="D200">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="lessThan">
+  <phoneticPr fontId="17" type="noConversion"/>
+  <conditionalFormatting sqref="D210">
+    <cfRule type="cellIs" dxfId="37" priority="1" operator="lessThan">
       <formula>-1895</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R14:R29" xr:uid="{73348F5A-0522-434F-A389-66996FB5AF37}">
+      <formula1>OFFSET($R$14,0,0,COUNTA($R:$R)-1)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T14:T29" xr:uid="{561C79B8-F072-4AB9-96BA-C6DA9D28BF83}">
+      <formula1>OFFSET($T$14,0,0,COUNTA($T:$T)-1)</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G14:G209" xr:uid="{B5A92D87-01E3-4B9E-81C8-57C44199F22B}">
+      <formula1>OFFSET($G$14,0,0,COUNTA($G:$G)-1)</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <tableParts count="1">
+  <tableParts count="3">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -11632,8 +12651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A3:J2745"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11647,12 +12666,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="267" t="s">
+      <c r="C3" s="296" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="268"/>
-      <c r="E3" s="269"/>
-      <c r="F3" s="272"/>
+      <c r="D3" s="297"/>
+      <c r="E3" s="298"/>
+      <c r="F3" s="299"/>
     </row>
     <row r="4" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="45"/>
@@ -11667,12 +12686,12 @@
       <c r="F5" s="46"/>
     </row>
     <row r="6" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="270" t="s">
+      <c r="C6" s="294" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="270"/>
-      <c r="E6" s="271"/>
-      <c r="F6" s="271"/>
+      <c r="D6" s="294"/>
+      <c r="E6" s="300"/>
+      <c r="F6" s="300"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="72" t="s">

--- a/Suivie de Caisse 1.xlsx
+++ b/Suivie de Caisse 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ES-SABRE\Desktop\Caisse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AE66494-C904-48CD-8BF7-425EDBBC6BB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58469F3-7FF2-4BDA-9DB7-A96AA2871E71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ETAT DE FACTURES DE DOIT" sheetId="3" state="hidden" r:id="rId1"/>
@@ -19,17 +19,20 @@
     <sheet name="Suivie Caisse Djamel Septembre" sheetId="8" r:id="rId4"/>
     <sheet name="Suivie Caisse Es-Sabre" sheetId="5" r:id="rId5"/>
     <sheet name="Suivie Caisse Es-Sabre (2)" sheetId="6" r:id="rId6"/>
+    <sheet name="Feuil1" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'Suivie Caisse Djamel aout'!$13:$13</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Suivie Caisse Djamel Juillet'!$13:$13</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'Suivie Caisse Djamel Septembre'!$13:$13</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">'Suivie Caisse Es-Sabre'!$13:$13</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'ETAT DE FACTURES DE DOIT'!$B$1:$I$40</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Suivie Caisse Djamel aout'!$A$1:$G$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Suivie Caisse Djamel Juillet'!$A$1:$G$100</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Suivie Caisse Djamel Septembre'!$A$1:$G$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Suivie Caisse Djamel Septembre'!$B$1:$G$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Suivie Caisse Es-Sabre'!$B$1:$H$236</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -42,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="414">
   <si>
     <t>Total</t>
   </si>
@@ -563,9 +566,6 @@
     <t>Flexy Pour Modem ooredoo Djamel</t>
   </si>
   <si>
-    <t>Chauffeur de camion</t>
-  </si>
-  <si>
     <t>Payement chauffeur repas de soir,</t>
   </si>
   <si>
@@ -704,30 +704,6 @@
     <t>Marbre + Transport</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Cartable pour PC ( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>confirmer le prix 4800</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
     <t>Payement deux voyage de citerne d'eau</t>
   </si>
   <si>
@@ -800,9 +776,6 @@
     <t>5 Bidon Sika hydrofuge</t>
   </si>
   <si>
-    <t>1 Bidon Sika Hydrofyge</t>
-  </si>
-  <si>
     <t>deux fardeaux</t>
   </si>
   <si>
@@ -813,9 +786,6 @@
   </si>
   <si>
     <t>2 voyage de citerne d'eau,</t>
-  </si>
-  <si>
-    <t>Donner par Mohamed Chacal au villa de djamel</t>
   </si>
   <si>
     <t xml:space="preserve">jour de coulage dernier voile pereferique + demarrage de la dalle de sol de la terrasse picine </t>
@@ -869,9 +839,6 @@
     <t>tuyau d'eau</t>
   </si>
   <si>
-    <t>essance pour compacteur</t>
-  </si>
-  <si>
     <t>compacteur 4jour</t>
   </si>
   <si>
@@ -885,9 +852,6 @@
   </si>
   <si>
     <t>4*150</t>
-  </si>
-  <si>
-    <t>tranport compacteur (allre/retour)/ poliane/</t>
   </si>
   <si>
     <t>essence pour compacteur</t>
@@ -976,9 +940,6 @@
     <t>Achat repas pour operateurs giraf</t>
   </si>
   <si>
-    <t>Le matin derriere la baraque</t>
-  </si>
-  <si>
     <t>Hassan MO</t>
   </si>
   <si>
@@ -1015,16 +976,10 @@
     <t>50000,00 Payement  de lakhder et kamel par Mr Djamel</t>
   </si>
   <si>
-    <t>Pour reparation meuble/achat bois,,</t>
-  </si>
-  <si>
     <t>12*40+1*50 (congelé)</t>
   </si>
   <si>
     <t>louer le 30/31 pour compactage des dalles flotantes 2 jour a raison de 4500da/jour</t>
-  </si>
-  <si>
-    <t>ruban metre</t>
   </si>
   <si>
     <t>fiche femelle</t>
@@ -1057,13 +1012,7 @@
     <t>3 fardeau eau</t>
   </si>
   <si>
-    <t xml:space="preserve">16 Feuille polysteren </t>
-  </si>
-  <si>
     <t>Solde De La Caisse</t>
-  </si>
-  <si>
-    <t>Manquant du sold ciment</t>
   </si>
   <si>
     <t>Prévu pour payement girafe, citerne d'eau, gardien</t>
@@ -1081,9 +1030,6 @@
     <t>Téflon pour plombier villa</t>
   </si>
   <si>
-    <t>Colle+papier verre pour reparation PVC 160</t>
-  </si>
-  <si>
     <t>Aervice</t>
   </si>
   <si>
@@ -1099,16 +1045,10 @@
     <t>26jour *1800</t>
   </si>
   <si>
-    <t>Manquant du sold ciment /erreur de calcul de mohamed</t>
-  </si>
-  <si>
     <t>Ciment</t>
   </si>
   <si>
     <t>mois de aout 12000/46800</t>
-  </si>
-  <si>
-    <t>le matin au bureau avec l'argent du ciment et le cheque pour Mohamed Materiau</t>
   </si>
   <si>
     <t>Mois d'Aout 46800/46800</t>
@@ -1150,9 +1090,6 @@
     <t>Payement personnel</t>
   </si>
   <si>
-    <t>Beton</t>
-  </si>
-  <si>
     <t>Necessaire au Chantier</t>
   </si>
   <si>
@@ -1174,9 +1111,6 @@
     <t>credit chez halim 2300</t>
   </si>
   <si>
-    <t>Pointe a beton</t>
-  </si>
-  <si>
     <t xml:space="preserve">Achat ciment </t>
   </si>
   <si>
@@ -1187,9 +1121,6 @@
   </si>
   <si>
     <t>16sac*450</t>
-  </si>
-  <si>
-    <t>Rouleau Poliane</t>
   </si>
   <si>
     <t>Brouette</t>
@@ -1207,13 +1138,7 @@
     <t>Outils de Chantier</t>
   </si>
   <si>
-    <t>Silicon ( djamel )</t>
-  </si>
-  <si>
     <t>Clé a molette</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2 Sac de Platre</t>
   </si>
   <si>
     <t>Autre</t>
@@ -1222,10 +1147,169 @@
     <t>Le 1*13/9  4*14/9 1*15/09 1*19/9</t>
   </si>
   <si>
-    <t>7 Voyages citern d'eau</t>
+    <t>Eau pour ouvrier,</t>
   </si>
   <si>
-    <t>Eau pour ouvrier,</t>
+    <t>Béton</t>
+  </si>
+  <si>
+    <t>Colle+papier verre pour réparation PVC 160</t>
+  </si>
+  <si>
+    <t>1 Bidon Sika Hydrofuge</t>
+  </si>
+  <si>
+    <t>Donner par Mohamed Chacal au villa de Djamel</t>
+  </si>
+  <si>
+    <t>Pointe a béton</t>
+  </si>
+  <si>
+    <t>Coulage Béton</t>
+  </si>
+  <si>
+    <t>Rouleau Polyane</t>
+  </si>
+  <si>
+    <t>transport compacteur (aller/retour)/ polyane/</t>
+  </si>
+  <si>
+    <t>Le matin derrière la baraque</t>
+  </si>
+  <si>
+    <t>ruban mètre</t>
+  </si>
+  <si>
+    <t>Silicon ( Djamel )</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 Sac de Plâtre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 Feuille polystyrène </t>
+  </si>
+  <si>
+    <t>Manquant du solde ciment</t>
+  </si>
+  <si>
+    <t>Manquant du solde ciment /erreur de calcul de Mohamed</t>
+  </si>
+  <si>
+    <t>le matin au bureau avec l'argent du ciment et le cheque pour Mohamed Matériaux</t>
+  </si>
+  <si>
+    <t>7 Voyages citerne d'eau</t>
+  </si>
+  <si>
+    <t>Cartable pour PC ( confirmer le prix 4800)</t>
+  </si>
+  <si>
+    <t>Chauffeur Malaxeur</t>
+  </si>
+  <si>
+    <t>FICHE DE SUIVI DU COMPTE CAISSE MOIS SEPTEMBRE</t>
+  </si>
+  <si>
+    <t>Pour reparation meuble/achat bois,</t>
+  </si>
+  <si>
+    <t>FICHE DE SUIVI DU COMPTE CAISSE ES SABRE</t>
+  </si>
+  <si>
+    <t>Pour Salaire Ouvrier</t>
+  </si>
+  <si>
+    <t>Compte Rendu</t>
+  </si>
+  <si>
+    <t>19*1800+6*1000(jour non travailler)=40200-10000 par djamel</t>
+  </si>
+  <si>
+    <t>40200,00 / 40200,00 Mois de Septembre</t>
+  </si>
+  <si>
+    <t>12 juin - 12 sep + achat effectuer pour Djamel</t>
+  </si>
+  <si>
+    <t>35000 + 94000,00 / 288890,00</t>
+  </si>
+  <si>
+    <t>19*1800+6*1000(jour non travailler)=40200 -10000 par djamel</t>
+  </si>
+  <si>
+    <t>12 juin - 12 sep + achat effectuer pour Djamel - 35000(avce juin)</t>
+  </si>
+  <si>
+    <t>268000,00 / 288890,00</t>
+  </si>
+  <si>
+    <t>RAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Au bureau a Kouba</t>
+  </si>
+  <si>
+    <t>Au chaantier dans ca voiture</t>
+  </si>
+  <si>
+    <t>(Pour payement de Giraf et Facture d'eau)</t>
+  </si>
+  <si>
+    <t>Coulage de 135 m3 de beton</t>
+  </si>
+  <si>
+    <t>Ami Said</t>
+  </si>
+  <si>
+    <t>Payement Facture D'Eau</t>
+  </si>
+  <si>
+    <t>ARRET DES TRAVAUX</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pour Achat de Chantier</t>
+  </si>
+  <si>
+    <t>(sur la route en haut du chantier avec Mr Djamel)</t>
+  </si>
+  <si>
+    <t>288890,00/288890,00</t>
+  </si>
+  <si>
+    <t>Eau Pour Ouvrier</t>
+  </si>
+  <si>
+    <t>Polysterene</t>
+  </si>
+  <si>
+    <t>Transport Polysteren</t>
+  </si>
+  <si>
+    <t>3*3000 =9000</t>
+  </si>
+  <si>
+    <t>Bilel etancheité</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acompte </t>
+  </si>
+  <si>
+    <t>Flexy</t>
+  </si>
+  <si>
+    <t>pour le Pax de la villa 1</t>
+  </si>
+  <si>
+    <t>Achat peinture/pinceaux pour Djamel</t>
+  </si>
+  <si>
+    <t>Mostafa Macon</t>
+  </si>
+  <si>
+    <t>Avance pour la construction de bureau</t>
+  </si>
+  <si>
+    <t>10*700 =7000 (achter le 26 payer le 27)</t>
   </si>
 </sst>
 </file>
@@ -1243,7 +1327,7 @@
     <numFmt numFmtId="171" formatCode="m/d/yy_("/>
     <numFmt numFmtId="172" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1346,8 +1430,15 @@
       <sz val="8"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1456,8 +1547,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1700,6 +1809,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1710,7 +1886,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="301">
+  <cellXfs count="336">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2271,12 +2447,6 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2307,39 +2477,6 @@
     <xf numFmtId="4" fontId="11" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="18" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="18" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="18" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="18" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="18" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="18" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="2" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2351,9 +2488,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2373,9 +2507,6 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2384,9 +2515,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2402,9 +2530,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2422,6 +2547,162 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="18" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="18" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="19" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="19" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="19" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="19" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="19" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="19" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="19" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="19" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="18" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="18" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="13" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="20" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="20" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="20" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="21" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="21" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="21" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="21" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="21" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="21" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2569,7 +2850,648 @@
     <cellStyle name="Monétaire" xfId="3" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="68">
+  <dxfs count="77">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFF0000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2854,554 +3776,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="172" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border>
         <top style="medium">
           <color indexed="64"/>
@@ -3485,65 +3859,35 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF0000"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color rgb="FFFF0000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
         <right/>
         <top/>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -3586,6 +3930,26 @@
     <dxf>
       <font>
         <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -3603,6 +3967,7 @@
         <sz val="10"/>
         <color auto="1"/>
         <name val="Arial"/>
+        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
@@ -3620,12 +3985,8 @@
         <right style="medium">
           <color indexed="64"/>
         </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -3681,6 +4042,42 @@
         <sz val="10"/>
         <color auto="1"/>
         <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
@@ -3704,6 +4101,113 @@
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -4284,12 +4788,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF82FF65"/>
+      <color rgb="FF00FF00"/>
       <color rgb="FFFEBAAC"/>
-      <color rgb="FF82FF65"/>
       <color rgb="FFFF5353"/>
       <color rgb="FFFE9782"/>
       <color rgb="FFFFFF66"/>
-      <color rgb="FF00FF00"/>
     </mruColors>
   </colors>
   <extLst>
@@ -4385,98 +4889,100 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau4" displayName="Tableau4" ref="B13:G95" totalsRowShown="0" headerRowDxfId="67" dataDxfId="65" headerRowBorderDxfId="66" tableBorderDxfId="64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau4" displayName="Tableau4" ref="B13:G95" totalsRowShown="0" headerRowDxfId="76" dataDxfId="74" headerRowBorderDxfId="75" tableBorderDxfId="73">
   <autoFilter ref="B13:G95" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="63"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Opérations" dataDxfId="62"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Par / De" dataDxfId="61"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Débit" dataDxfId="60"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Crédit" dataDxfId="59"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Observation" dataDxfId="58"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="72"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Opérations" dataDxfId="71"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Par / De" dataDxfId="70"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Débit" dataDxfId="69"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Crédit" dataDxfId="68"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Observation" dataDxfId="67"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau42" displayName="Tableau42" ref="B13:G52" totalsRowShown="0" headerRowDxfId="57" dataDxfId="55" headerRowBorderDxfId="56" tableBorderDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau42" displayName="Tableau42" ref="B13:G52" totalsRowShown="0" headerRowDxfId="66" dataDxfId="64" headerRowBorderDxfId="65" tableBorderDxfId="63">
   <autoFilter ref="B13:G52" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Date" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Opérations" dataDxfId="52"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Par / De" dataDxfId="51"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Débit" dataDxfId="50"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Crédit" dataDxfId="49"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Observation" dataDxfId="48"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Date" dataDxfId="62"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Opérations" dataDxfId="61"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Par / De" dataDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Débit" dataDxfId="59"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Crédit" dataDxfId="58"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Observation" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D79F84FD-02FB-4970-B09E-1D3934AE7625}" name="Tableau426" displayName="Tableau426" ref="B13:G54" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44">
-  <autoFilter ref="B13:G54" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D79F84FD-02FB-4970-B09E-1D3934AE7625}" name="Tableau426" displayName="Tableau426" ref="B13:G28" totalsRowCount="1" headerRowDxfId="56" dataDxfId="54" headerRowBorderDxfId="55" tableBorderDxfId="53">
+  <autoFilter ref="B13:G27" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{9712B134-76DF-4E92-834A-88CE2D0D20B1}" name="Date" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{435323D6-CD61-47E6-9E37-D5FC77826705}" name="Opérations" dataDxfId="42"/>
-    <tableColumn id="6" xr3:uid="{D3626E4C-0CBA-4147-9F26-7CD98D019F06}" name="Par / De" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{A4C3AC32-653D-4FA1-B3C4-14979BB0F578}" name="Débit" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{81D053C2-198C-43A9-9B40-8C044522E5A0}" name="Crédit" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{C59247B9-B17D-4825-9165-85A02C3F100C}" name="Observation" dataDxfId="38"/>
+    <tableColumn id="1" xr3:uid="{9712B134-76DF-4E92-834A-88CE2D0D20B1}" name="Date" totalsRowLabel="Total" dataDxfId="52" totalsRowDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{435323D6-CD61-47E6-9E37-D5FC77826705}" name="Opérations" dataDxfId="50" totalsRowDxfId="49"/>
+    <tableColumn id="6" xr3:uid="{D3626E4C-0CBA-4147-9F26-7CD98D019F06}" name="Par / De" totalsRowFunction="custom" dataDxfId="48" totalsRowDxfId="47">
+      <totalsRowFormula>Tableau426[[#Totals],[Crédit]]-Tableau426[[#Totals],[Débit]]</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{A4C3AC32-653D-4FA1-B3C4-14979BB0F578}" name="Débit" totalsRowFunction="sum" dataDxfId="46" totalsRowDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{81D053C2-198C-43A9-9B40-8C044522E5A0}" name="Crédit" totalsRowFunction="sum" dataDxfId="44" totalsRowDxfId="43"/>
+    <tableColumn id="5" xr3:uid="{C59247B9-B17D-4825-9165-85A02C3F100C}" name="Observation" dataDxfId="42" totalsRowDxfId="41"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tableau2" displayName="Tableau2" ref="B13:H210" totalsRowCount="1" headerRowDxfId="33" dataDxfId="31" totalsRowDxfId="29" headerRowBorderDxfId="32" tableBorderDxfId="30" totalsRowBorderDxfId="28">
-  <autoFilter ref="B13:H209" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tableau2" displayName="Tableau2" ref="B13:H236" totalsRowCount="1" headerRowDxfId="40" dataDxfId="38" totalsRowDxfId="36" headerRowBorderDxfId="39" tableBorderDxfId="37" totalsRowBorderDxfId="35">
+  <autoFilter ref="B13:H235" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Date" totalsRowLabel="Solde De La Caisse" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Opérations" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Par / De" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="22">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Date" totalsRowLabel="Solde De La Caisse" dataDxfId="20" totalsRowDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Opérations" dataDxfId="19" totalsRowDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Par / De" totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="4">
       <totalsRowFormula>Tableau2[[#Totals],[Crédit]]-Tableau2[[#Totals],[Débit]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Débit" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Crédit" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{C30977D3-8D38-454C-AD50-AD6368348F30}" name="LOT" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Observation" totalsRowFunction="count" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Débit" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Crédit" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{C30977D3-8D38-454C-AD50-AD6368348F30}" name="LOT" dataDxfId="15" totalsRowDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Observation" totalsRowFunction="count" dataDxfId="14" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7806D280-479D-4BBD-9B9E-3AA9E67319C5}" name="Tableau6" displayName="Tableau6" ref="R13:R29" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7806D280-479D-4BBD-9B9E-3AA9E67319C5}" name="Tableau6" displayName="Tableau6" ref="R13:R29" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
   <autoFilter ref="R13:R29" xr:uid="{7C1DE353-BB19-436D-A152-983C47C78B9A}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{5955CE97-A309-4197-818D-A9EABF5AE20B}" name="Colonne1" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{5955CE97-A309-4197-818D-A9EABF5AE20B}" name="Colonne1" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{18FB793D-403A-4D62-8F16-D79D9EAD4081}" name="Tableau8" displayName="Tableau8" ref="T13:T29" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{18FB793D-403A-4D62-8F16-D79D9EAD4081}" name="Tableau8" displayName="Tableau8" ref="T13:T29" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="T13:T29" xr:uid="{06DB10D3-BDE0-4EAA-B542-5E6618A236D2}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{769C60AC-2314-4C7C-A097-41CE787E6F8B}" name="Colonne1" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{769C60AC-2314-4C7C-A097-41CE787E6F8B}" name="Colonne1" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau3" displayName="Tableau3" ref="B13:G78" totalsRowShown="0" headerRowBorderDxfId="7" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau3" displayName="Tableau3" ref="B13:G78" totalsRowShown="0" headerRowBorderDxfId="28" tableBorderDxfId="27">
   <autoFilter ref="B13:G78" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Date" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Opérations" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Par / De" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Débit" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Crédit" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Observation" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Date" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Opérations" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Par / De" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Débit" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Crédit" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Observation" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4841,8 +5347,8 @@
       <c r="G4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="258"/>
-      <c r="I4" s="259"/>
+      <c r="H4" s="293"/>
+      <c r="I4" s="294"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
@@ -4869,11 +5375,11 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="260" t="s">
+      <c r="C10" s="295" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="261"/>
-      <c r="E10" s="262"/>
+      <c r="D10" s="296"/>
+      <c r="E10" s="297"/>
       <c r="F10" s="26"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
@@ -4934,11 +5440,11 @@
       <c r="C18" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="263" t="s">
+      <c r="D18" s="298" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="264"/>
-      <c r="F18" s="265"/>
+      <c r="E18" s="299"/>
+      <c r="F18" s="300"/>
       <c r="G18" s="40" t="s">
         <v>20</v>
       </c>
@@ -4952,9 +5458,9 @@
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="22"/>
       <c r="C19" s="23"/>
-      <c r="D19" s="255"/>
-      <c r="E19" s="256"/>
-      <c r="F19" s="257"/>
+      <c r="D19" s="290"/>
+      <c r="E19" s="291"/>
+      <c r="F19" s="292"/>
       <c r="G19" s="37"/>
       <c r="H19" s="37"/>
       <c r="I19" s="24">
@@ -4965,9 +5471,9 @@
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="11"/>
       <c r="C20" s="12"/>
-      <c r="D20" s="255"/>
-      <c r="E20" s="256"/>
-      <c r="F20" s="257"/>
+      <c r="D20" s="290"/>
+      <c r="E20" s="291"/>
+      <c r="F20" s="292"/>
       <c r="G20" s="38"/>
       <c r="H20" s="38"/>
       <c r="I20" s="13">
@@ -4978,9 +5484,9 @@
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
-      <c r="D21" s="255"/>
-      <c r="E21" s="256"/>
-      <c r="F21" s="257"/>
+      <c r="D21" s="290"/>
+      <c r="E21" s="291"/>
+      <c r="F21" s="292"/>
       <c r="G21" s="38"/>
       <c r="H21" s="38"/>
       <c r="I21" s="13">
@@ -4991,9 +5497,9 @@
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
-      <c r="D22" s="255"/>
-      <c r="E22" s="256"/>
-      <c r="F22" s="257"/>
+      <c r="D22" s="290"/>
+      <c r="E22" s="291"/>
+      <c r="F22" s="292"/>
       <c r="G22" s="38"/>
       <c r="H22" s="38"/>
       <c r="I22" s="13">
@@ -5004,9 +5510,9 @@
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
-      <c r="D23" s="255"/>
-      <c r="E23" s="256"/>
-      <c r="F23" s="257"/>
+      <c r="D23" s="290"/>
+      <c r="E23" s="291"/>
+      <c r="F23" s="292"/>
       <c r="G23" s="38"/>
       <c r="H23" s="38"/>
       <c r="I23" s="13">
@@ -5017,9 +5523,9 @@
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
-      <c r="D24" s="255"/>
-      <c r="E24" s="256"/>
-      <c r="F24" s="257"/>
+      <c r="D24" s="290"/>
+      <c r="E24" s="291"/>
+      <c r="F24" s="292"/>
       <c r="G24" s="38"/>
       <c r="H24" s="38"/>
       <c r="I24" s="13">
@@ -5043,9 +5549,9 @@
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
-      <c r="D26" s="255"/>
-      <c r="E26" s="256"/>
-      <c r="F26" s="257"/>
+      <c r="D26" s="290"/>
+      <c r="E26" s="291"/>
+      <c r="F26" s="292"/>
       <c r="G26" s="38"/>
       <c r="H26" s="38"/>
       <c r="I26" s="13">
@@ -5056,9 +5562,9 @@
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
-      <c r="D27" s="255"/>
-      <c r="E27" s="256"/>
-      <c r="F27" s="257"/>
+      <c r="D27" s="290"/>
+      <c r="E27" s="291"/>
+      <c r="F27" s="292"/>
       <c r="G27" s="38"/>
       <c r="H27" s="38"/>
       <c r="I27" s="13">
@@ -5069,9 +5575,9 @@
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
-      <c r="D28" s="255"/>
-      <c r="E28" s="256"/>
-      <c r="F28" s="257"/>
+      <c r="D28" s="290"/>
+      <c r="E28" s="291"/>
+      <c r="F28" s="292"/>
       <c r="G28" s="38"/>
       <c r="H28" s="38"/>
       <c r="I28" s="13">
@@ -5082,9 +5588,9 @@
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
-      <c r="D29" s="255"/>
-      <c r="E29" s="256"/>
-      <c r="F29" s="257"/>
+      <c r="D29" s="290"/>
+      <c r="E29" s="291"/>
+      <c r="F29" s="292"/>
       <c r="G29" s="38"/>
       <c r="H29" s="38"/>
       <c r="I29" s="13">
@@ -5095,9 +5601,9 @@
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" s="11"/>
       <c r="C30" s="12"/>
-      <c r="D30" s="255"/>
-      <c r="E30" s="256"/>
-      <c r="F30" s="257"/>
+      <c r="D30" s="290"/>
+      <c r="E30" s="291"/>
+      <c r="F30" s="292"/>
       <c r="G30" s="38"/>
       <c r="H30" s="38"/>
       <c r="I30" s="13">
@@ -5108,9 +5614,9 @@
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" s="11"/>
       <c r="C31" s="12"/>
-      <c r="D31" s="255"/>
-      <c r="E31" s="256"/>
-      <c r="F31" s="257"/>
+      <c r="D31" s="290"/>
+      <c r="E31" s="291"/>
+      <c r="F31" s="292"/>
       <c r="G31" s="38"/>
       <c r="H31" s="38"/>
       <c r="I31" s="13">
@@ -5121,9 +5627,9 @@
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" s="11"/>
       <c r="C32" s="12"/>
-      <c r="D32" s="255"/>
-      <c r="E32" s="256"/>
-      <c r="F32" s="257"/>
+      <c r="D32" s="290"/>
+      <c r="E32" s="291"/>
+      <c r="F32" s="292"/>
       <c r="G32" s="38"/>
       <c r="H32" s="38"/>
       <c r="I32" s="13">
@@ -5134,9 +5640,9 @@
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="11"/>
       <c r="C33" s="12"/>
-      <c r="D33" s="255"/>
-      <c r="E33" s="256"/>
-      <c r="F33" s="257"/>
+      <c r="D33" s="290"/>
+      <c r="E33" s="291"/>
+      <c r="F33" s="292"/>
       <c r="G33" s="38"/>
       <c r="H33" s="38"/>
       <c r="I33" s="13">
@@ -5147,9 +5653,9 @@
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="11"/>
       <c r="C34" s="12"/>
-      <c r="D34" s="255"/>
-      <c r="E34" s="256"/>
-      <c r="F34" s="257"/>
+      <c r="D34" s="290"/>
+      <c r="E34" s="291"/>
+      <c r="F34" s="292"/>
       <c r="G34" s="38"/>
       <c r="H34" s="38"/>
       <c r="I34" s="13">
@@ -5160,9 +5666,9 @@
     <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" s="11"/>
       <c r="C35" s="12"/>
-      <c r="D35" s="255"/>
-      <c r="E35" s="256"/>
-      <c r="F35" s="257"/>
+      <c r="D35" s="290"/>
+      <c r="E35" s="291"/>
+      <c r="F35" s="292"/>
       <c r="G35" s="38"/>
       <c r="H35" s="38"/>
       <c r="I35" s="13">
@@ -5173,9 +5679,9 @@
     <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="11"/>
       <c r="C36" s="12"/>
-      <c r="D36" s="255"/>
-      <c r="E36" s="256"/>
-      <c r="F36" s="257"/>
+      <c r="D36" s="290"/>
+      <c r="E36" s="291"/>
+      <c r="F36" s="292"/>
       <c r="G36" s="38"/>
       <c r="H36" s="38"/>
       <c r="I36" s="13">
@@ -5186,9 +5692,9 @@
     <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" s="11"/>
       <c r="C37" s="12"/>
-      <c r="D37" s="255"/>
-      <c r="E37" s="256"/>
-      <c r="F37" s="257"/>
+      <c r="D37" s="290"/>
+      <c r="E37" s="291"/>
+      <c r="F37" s="292"/>
       <c r="G37" s="38"/>
       <c r="H37" s="38"/>
       <c r="I37" s="13">
@@ -5199,9 +5705,9 @@
     <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" s="11"/>
       <c r="C38" s="12"/>
-      <c r="D38" s="255"/>
-      <c r="E38" s="256"/>
-      <c r="F38" s="257"/>
+      <c r="D38" s="290"/>
+      <c r="E38" s="291"/>
+      <c r="F38" s="292"/>
       <c r="G38" s="38"/>
       <c r="H38" s="38"/>
       <c r="I38" s="13">
@@ -5516,15 +6022,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="D37:F37"/>
@@ -5538,6 +6035,15 @@
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="D29:F29"/>
     <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
@@ -5573,14 +6079,14 @@
   <sheetData>
     <row r="2" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="270" t="s">
+      <c r="B3" s="305" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="271"/>
-      <c r="D3" s="271"/>
-      <c r="E3" s="271"/>
-      <c r="F3" s="271"/>
-      <c r="G3" s="272"/>
+      <c r="C3" s="306"/>
+      <c r="D3" s="306"/>
+      <c r="E3" s="306"/>
+      <c r="F3" s="306"/>
+      <c r="G3" s="307"/>
     </row>
     <row r="4" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C4" s="45"/>
@@ -5589,21 +6095,21 @@
       <c r="F4" s="46"/>
     </row>
     <row r="5" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="267" t="s">
-        <v>280</v>
-      </c>
-      <c r="C5" s="268"/>
-      <c r="D5" s="268"/>
-      <c r="E5" s="268"/>
-      <c r="F5" s="268"/>
-      <c r="G5" s="269"/>
+      <c r="B5" s="302" t="s">
+        <v>274</v>
+      </c>
+      <c r="C5" s="303"/>
+      <c r="D5" s="303"/>
+      <c r="E5" s="303"/>
+      <c r="F5" s="303"/>
+      <c r="G5" s="304"/>
     </row>
     <row r="6" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E7" s="278" t="s">
-        <v>198</v>
-      </c>
-      <c r="F7" s="278"/>
+      <c r="E7" s="313" t="s">
+        <v>197</v>
+      </c>
+      <c r="F7" s="313"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="169" t="s">
@@ -5613,10 +6119,10 @@
         <v>37</v>
       </c>
       <c r="D8" s="61"/>
-      <c r="E8" s="277" t="s">
+      <c r="E8" s="312" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="277"/>
+      <c r="F8" s="312"/>
       <c r="G8" s="178"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
@@ -5628,10 +6134,10 @@
         <v>440580</v>
       </c>
       <c r="D9" s="62"/>
-      <c r="E9" s="276" t="s">
+      <c r="E9" s="311" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="276"/>
+      <c r="F9" s="311"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="169" t="s">
@@ -5642,10 +6148,10 @@
         <v>413420</v>
       </c>
       <c r="D10" s="63"/>
-      <c r="E10" s="275" t="s">
-        <v>199</v>
-      </c>
-      <c r="F10" s="275"/>
+      <c r="E10" s="310" t="s">
+        <v>198</v>
+      </c>
+      <c r="F10" s="310"/>
     </row>
     <row r="11" spans="2:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="169" t="s">
@@ -5656,10 +6162,10 @@
         <v>-27160</v>
       </c>
       <c r="D11" s="130"/>
-      <c r="E11" s="273" t="s">
-        <v>197</v>
-      </c>
-      <c r="F11" s="274"/>
+      <c r="E11" s="308" t="s">
+        <v>196</v>
+      </c>
+      <c r="F11" s="309"/>
     </row>
     <row r="13" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="183" t="s">
@@ -5877,7 +6383,7 @@
       </c>
       <c r="F27" s="116"/>
       <c r="G27" s="117" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5977,7 +6483,7 @@
       </c>
       <c r="F34" s="116"/>
       <c r="G34" s="117" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6019,7 +6525,7 @@
       <c r="E37" s="121"/>
       <c r="F37" s="121"/>
       <c r="G37" s="122" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6028,7 +6534,7 @@
         <v>47</v>
       </c>
       <c r="D38" s="110" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E38" s="119">
         <v>20000</v>
@@ -6044,7 +6550,7 @@
         <v>47</v>
       </c>
       <c r="D39" s="110" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E39" s="116">
         <v>4000</v>
@@ -6107,7 +6613,7 @@
       </c>
       <c r="F43" s="119"/>
       <c r="G43" s="120" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="44" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6161,7 +6667,7 @@
       </c>
       <c r="F47" s="119"/>
       <c r="G47" s="120" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="48" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6223,7 +6729,7 @@
       </c>
       <c r="F51" s="116"/>
       <c r="G51" s="117" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="52" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6239,7 +6745,7 @@
         <v>82</v>
       </c>
       <c r="C53" s="110" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D53" s="110"/>
       <c r="E53" s="114"/>
@@ -6319,7 +6825,7 @@
       </c>
       <c r="F59" s="119"/>
       <c r="G59" s="120" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="60" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6341,10 +6847,10 @@
     <row r="61" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B61" s="171"/>
       <c r="C61" s="110" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D61" s="110" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E61" s="119">
         <v>5000</v>
@@ -6365,13 +6871,13 @@
       </c>
       <c r="F62" s="119"/>
       <c r="G62" s="120" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="63" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B63" s="171"/>
       <c r="C63" s="110" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D63" s="110" t="s">
         <v>90</v>
@@ -6407,7 +6913,7 @@
         <v>100000</v>
       </c>
       <c r="G65" s="112" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="66" spans="2:7" s="113" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6421,7 +6927,7 @@
       <c r="E66" s="121"/>
       <c r="F66" s="121"/>
       <c r="G66" s="122" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="67" spans="2:7" s="113" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -6461,7 +6967,7 @@
       </c>
       <c r="F69" s="119"/>
       <c r="G69" s="120" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6553,7 +7059,7 @@
         <v>60000</v>
       </c>
       <c r="G76" s="112" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="77" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6581,7 +7087,7 @@
       </c>
       <c r="F78" s="119"/>
       <c r="G78" s="120" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="79" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6595,7 +7101,7 @@
       </c>
       <c r="F79" s="119"/>
       <c r="G79" s="120" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="80" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6633,7 +7139,7 @@
       </c>
       <c r="F82" s="119"/>
       <c r="G82" s="120" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="83" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6657,7 +7163,7 @@
       </c>
       <c r="F84" s="116"/>
       <c r="G84" s="117" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="85" spans="2:7" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6799,26 +7305,26 @@
       <c r="G95" s="129"/>
     </row>
     <row r="98" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="266" t="s">
-        <v>333</v>
-      </c>
-      <c r="C98" s="266"/>
-      <c r="D98" s="266"/>
-      <c r="E98" s="266"/>
-      <c r="F98" s="266"/>
-      <c r="G98" s="266"/>
+      <c r="B98" s="301" t="s">
+        <v>321</v>
+      </c>
+      <c r="C98" s="301"/>
+      <c r="D98" s="301"/>
+      <c r="E98" s="301"/>
+      <c r="F98" s="301"/>
+      <c r="G98" s="301"/>
       <c r="H98">
         <f>6400/1280</f>
         <v>5</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B99" s="266"/>
-      <c r="C99" s="266"/>
-      <c r="D99" s="266"/>
-      <c r="E99" s="266"/>
-      <c r="F99" s="266"/>
-      <c r="G99" s="266"/>
+      <c r="B99" s="301"/>
+      <c r="C99" s="301"/>
+      <c r="D99" s="301"/>
+      <c r="E99" s="301"/>
+      <c r="F99" s="301"/>
+      <c r="G99" s="301"/>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B100" s="154"/>
@@ -6854,8 +7360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:H114"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6872,14 +7378,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="282" t="s">
+      <c r="B3" s="317" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="282"/>
-      <c r="D3" s="282"/>
-      <c r="E3" s="282"/>
-      <c r="F3" s="282"/>
-      <c r="G3" s="282"/>
+      <c r="C3" s="317"/>
+      <c r="D3" s="317"/>
+      <c r="E3" s="317"/>
+      <c r="F3" s="317"/>
+      <c r="G3" s="317"/>
     </row>
     <row r="4" spans="2:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="155"/>
@@ -6888,21 +7394,21 @@
       <c r="F4" s="156"/>
     </row>
     <row r="5" spans="2:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="281" t="s">
-        <v>294</v>
-      </c>
-      <c r="C5" s="281"/>
-      <c r="D5" s="281"/>
-      <c r="E5" s="281"/>
-      <c r="F5" s="281"/>
-      <c r="G5" s="281"/>
+      <c r="B5" s="316" t="s">
+        <v>288</v>
+      </c>
+      <c r="C5" s="316"/>
+      <c r="D5" s="316"/>
+      <c r="E5" s="316"/>
+      <c r="F5" s="316"/>
+      <c r="G5" s="316"/>
     </row>
     <row r="6" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E7" s="279" t="s">
-        <v>198</v>
-      </c>
-      <c r="F7" s="280"/>
+      <c r="E7" s="314" t="s">
+        <v>197</v>
+      </c>
+      <c r="F7" s="315"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="195" t="s">
@@ -6912,10 +7418,10 @@
         <v>37</v>
       </c>
       <c r="D8" s="192"/>
-      <c r="E8" s="283" t="s">
+      <c r="E8" s="318" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="284"/>
+      <c r="F8" s="319"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="195" t="s">
@@ -6926,10 +7432,10 @@
         <v>98590</v>
       </c>
       <c r="D9" s="193"/>
-      <c r="E9" s="285" t="s">
+      <c r="E9" s="320" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="286"/>
+      <c r="F9" s="321"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="195" t="s">
@@ -6940,10 +7446,10 @@
         <v>66000</v>
       </c>
       <c r="D10" s="193"/>
-      <c r="E10" s="287" t="s">
-        <v>199</v>
-      </c>
-      <c r="F10" s="288"/>
+      <c r="E10" s="322" t="s">
+        <v>198</v>
+      </c>
+      <c r="F10" s="323"/>
     </row>
     <row r="11" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="195" t="s">
@@ -6954,10 +7460,10 @@
         <v>-32590</v>
       </c>
       <c r="D11" s="194"/>
-      <c r="E11" s="273" t="s">
-        <v>197</v>
-      </c>
-      <c r="F11" s="274"/>
+      <c r="E11" s="308" t="s">
+        <v>196</v>
+      </c>
+      <c r="F11" s="309"/>
     </row>
     <row r="12" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6996,14 +7502,14 @@
         <v>39</v>
       </c>
       <c r="D15" s="110" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E15" s="111"/>
       <c r="F15" s="111">
         <v>16000</v>
       </c>
       <c r="G15" s="112" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7017,7 +7523,7 @@
       </c>
       <c r="F16" s="116"/>
       <c r="G16" s="117" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7031,7 +7537,7 @@
       </c>
       <c r="F17" s="116"/>
       <c r="G17" s="117" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7040,14 +7546,14 @@
         <v>47</v>
       </c>
       <c r="D18" s="110" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E18" s="133">
         <v>8000</v>
       </c>
       <c r="F18" s="116"/>
       <c r="G18" s="117" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7071,7 +7577,7 @@
       </c>
       <c r="F20" s="116"/>
       <c r="G20" s="117" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7086,7 +7592,7 @@
       </c>
       <c r="F21" s="116"/>
       <c r="G21" s="117" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7110,7 +7616,7 @@
       </c>
       <c r="F23" s="116"/>
       <c r="G23" s="117" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7124,7 +7630,7 @@
       </c>
       <c r="F24" s="116"/>
       <c r="G24" s="117" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7133,7 +7639,7 @@
         <v>39</v>
       </c>
       <c r="D25" s="110" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E25" s="111"/>
       <c r="F25" s="111">
@@ -7147,32 +7653,32 @@
         <v>47</v>
       </c>
       <c r="D26" s="110" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E26" s="116">
         <v>7000</v>
       </c>
       <c r="F26" s="116" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G26" s="117" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="171"/>
       <c r="C27" s="110" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D27" s="110" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E27" s="116">
         <v>5000</v>
       </c>
       <c r="F27" s="116"/>
       <c r="G27" s="117" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7196,7 +7702,7 @@
       </c>
       <c r="F29" s="116"/>
       <c r="G29" s="117" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7210,12 +7716,12 @@
       </c>
       <c r="F30" s="116"/>
       <c r="G30" s="117" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="171" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C31" s="110"/>
       <c r="D31" s="110"/>
@@ -7236,7 +7742,7 @@
       </c>
       <c r="F32" s="116"/>
       <c r="G32" s="117" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7250,7 +7756,7 @@
       </c>
       <c r="F33" s="116"/>
       <c r="G33" s="117" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="34" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7274,7 +7780,7 @@
       </c>
       <c r="F35" s="116"/>
       <c r="G35" s="117" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7298,7 +7804,7 @@
       </c>
       <c r="F37" s="116"/>
       <c r="G37" s="117" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="38" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7322,7 +7828,7 @@
       </c>
       <c r="F39" s="116"/>
       <c r="G39" s="117" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="40" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7346,7 +7852,7 @@
       </c>
       <c r="F41" s="116"/>
       <c r="G41" s="117" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7370,7 +7876,7 @@
       </c>
       <c r="F43" s="116"/>
       <c r="G43" s="117" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="44" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7384,7 +7890,7 @@
       </c>
       <c r="F44" s="116"/>
       <c r="G44" s="117" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="45" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7402,7 +7908,7 @@
       <c r="E46" s="110"/>
       <c r="F46" s="110"/>
       <c r="G46" s="168" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="47" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7412,7 +7918,7 @@
       <c r="E47" s="110"/>
       <c r="F47" s="110"/>
       <c r="G47" s="168" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="48" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7422,7 +7928,7 @@
       <c r="E48" s="110"/>
       <c r="F48" s="110"/>
       <c r="G48" s="168" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="49" spans="2:8" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7432,7 +7938,7 @@
       <c r="E49" s="110"/>
       <c r="F49" s="110"/>
       <c r="G49" s="168" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="H49" s="197"/>
     </row>
@@ -7443,7 +7949,7 @@
       <c r="E50" s="110"/>
       <c r="F50" s="110"/>
       <c r="G50" s="198" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="51" spans="2:8" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7969,34 +8475,34 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B8C70F-B8AB-4C19-B79C-FF22DE95A418}">
-  <dimension ref="A3:I116"/>
+  <dimension ref="A3:I89"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="135" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="135" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" style="157" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" style="135" customWidth="1"/>
     <col min="4" max="4" width="17" style="135" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" style="135" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" style="135" customWidth="1"/>
-    <col min="7" max="7" width="49.28515625" style="135" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="135" customWidth="1"/>
+    <col min="7" max="7" width="47.85546875" style="135" customWidth="1"/>
     <col min="8" max="8" width="46" style="135" customWidth="1"/>
     <col min="9" max="16384" width="11.42578125" style="135"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="282" t="s">
+      <c r="B3" s="317" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="282"/>
-      <c r="D3" s="282"/>
-      <c r="E3" s="282"/>
-      <c r="F3" s="282"/>
-      <c r="G3" s="282"/>
+      <c r="C3" s="317"/>
+      <c r="D3" s="317"/>
+      <c r="E3" s="317"/>
+      <c r="F3" s="317"/>
+      <c r="G3" s="317"/>
     </row>
     <row r="4" spans="2:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="155"/>
@@ -8005,21 +8511,21 @@
       <c r="F4" s="156"/>
     </row>
     <row r="5" spans="2:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="281" t="s">
-        <v>294</v>
-      </c>
-      <c r="C5" s="281"/>
-      <c r="D5" s="281"/>
-      <c r="E5" s="281"/>
-      <c r="F5" s="281"/>
-      <c r="G5" s="281"/>
+      <c r="B5" s="316" t="s">
+        <v>379</v>
+      </c>
+      <c r="C5" s="316"/>
+      <c r="D5" s="316"/>
+      <c r="E5" s="316"/>
+      <c r="F5" s="316"/>
+      <c r="G5" s="316"/>
     </row>
     <row r="6" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E7" s="279" t="s">
-        <v>198</v>
-      </c>
-      <c r="F7" s="280"/>
+      <c r="E7" s="314" t="s">
+        <v>197</v>
+      </c>
+      <c r="F7" s="315"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="195" t="s">
@@ -8029,52 +8535,52 @@
         <v>37</v>
       </c>
       <c r="D8" s="192"/>
-      <c r="E8" s="283" t="s">
+      <c r="E8" s="318" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="284"/>
+      <c r="F8" s="319"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="195" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="167">
-        <f>E54</f>
+        <f>Tableau426[[#Totals],[Débit]]</f>
         <v>53890</v>
       </c>
       <c r="D9" s="193"/>
-      <c r="E9" s="285" t="s">
+      <c r="E9" s="320" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="286"/>
+      <c r="F9" s="321"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="195" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="167">
-        <f>F54</f>
+        <f>Tableau426[[#Totals],[Crédit]]</f>
         <v>0</v>
       </c>
       <c r="D10" s="193"/>
-      <c r="E10" s="287" t="s">
-        <v>199</v>
-      </c>
-      <c r="F10" s="288"/>
+      <c r="E10" s="322" t="s">
+        <v>198</v>
+      </c>
+      <c r="F10" s="323"/>
     </row>
     <row r="11" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="195" t="s">
         <v>35</v>
       </c>
       <c r="C11" s="199">
-        <f>C10-C9</f>
+        <f>Tableau426[[#Totals],[Crédit]]-Tableau426[[#Totals],[Débit]]</f>
         <v>-53890</v>
       </c>
       <c r="D11" s="194"/>
-      <c r="E11" s="273" t="s">
-        <v>197</v>
-      </c>
-      <c r="F11" s="274"/>
+      <c r="E11" s="308" t="s">
+        <v>196</v>
+      </c>
+      <c r="F11" s="309"/>
     </row>
     <row r="12" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8107,7 +8613,7 @@
     </row>
     <row r="15" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="171" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C15" s="110"/>
       <c r="D15" s="110"/>
@@ -8116,16 +8622,16 @@
       </c>
       <c r="F15" s="116"/>
       <c r="G15" s="116" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="218"/>
-      <c r="C16" s="219"/>
-      <c r="D16" s="219"/>
-      <c r="E16" s="219"/>
-      <c r="F16" s="219"/>
-      <c r="G16" s="220"/>
+        <v>293</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" s="253" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="250"/>
+      <c r="C16" s="251"/>
+      <c r="D16" s="251"/>
+      <c r="E16" s="251"/>
+      <c r="F16" s="251"/>
+      <c r="G16" s="252"/>
     </row>
     <row r="17" spans="1:9" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="171">
@@ -8140,7 +8646,7 @@
       </c>
       <c r="F17" s="116"/>
       <c r="G17" s="117" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8154,10 +8660,10 @@
       </c>
       <c r="F18" s="116"/>
       <c r="G18" s="117" t="s">
-        <v>302</v>
-      </c>
-      <c r="H18" s="289"/>
-      <c r="I18" s="290"/>
+        <v>295</v>
+      </c>
+      <c r="H18" s="324"/>
+      <c r="I18" s="325"/>
     </row>
     <row r="19" spans="1:9" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="171"/>
@@ -8170,40 +8676,40 @@
       </c>
       <c r="F19" s="116"/>
       <c r="G19" s="116" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="221"/>
-      <c r="C20" s="222"/>
-      <c r="D20" s="222"/>
-      <c r="E20" s="222"/>
-      <c r="F20" s="223"/>
-      <c r="G20" s="224"/>
+      <c r="B20" s="254"/>
+      <c r="C20" s="255"/>
+      <c r="D20" s="255"/>
+      <c r="E20" s="255"/>
+      <c r="F20" s="256"/>
+      <c r="G20" s="257"/>
     </row>
     <row r="21" spans="1:9" s="159" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="211">
+      <c r="B21" s="209">
         <v>44811</v>
       </c>
-      <c r="C21" s="212" t="s">
+      <c r="C21" s="210" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="212" t="s">
-        <v>305</v>
-      </c>
-      <c r="E21" s="213"/>
-      <c r="F21" s="214"/>
-      <c r="G21" s="215" t="s">
-        <v>308</v>
+      <c r="D21" s="210" t="s">
+        <v>298</v>
+      </c>
+      <c r="E21" s="211"/>
+      <c r="F21" s="212"/>
+      <c r="G21" s="213" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="225"/>
-      <c r="C22" s="219"/>
-      <c r="D22" s="219"/>
-      <c r="E22" s="219"/>
-      <c r="F22" s="219"/>
-      <c r="G22" s="220"/>
+      <c r="B22" s="258"/>
+      <c r="C22" s="251"/>
+      <c r="D22" s="251"/>
+      <c r="E22" s="251"/>
+      <c r="F22" s="251"/>
+      <c r="G22" s="252"/>
     </row>
     <row r="23" spans="1:9" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="160"/>
@@ -8219,7 +8725,7 @@
       </c>
       <c r="F23" s="116"/>
       <c r="G23" s="117" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8228,14 +8734,14 @@
         <v>47</v>
       </c>
       <c r="D24" s="110" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="E24" s="116">
         <v>10500</v>
       </c>
       <c r="F24" s="116"/>
       <c r="G24" s="117" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8244,23 +8750,23 @@
         <v>47</v>
       </c>
       <c r="D25" s="110" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="E25" s="116">
         <v>6000</v>
       </c>
       <c r="F25" s="116"/>
       <c r="G25" s="117" t="s">
-        <v>309</v>
+        <v>380</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="225"/>
-      <c r="C26" s="219"/>
-      <c r="D26" s="219"/>
-      <c r="E26" s="219"/>
-      <c r="F26" s="219"/>
-      <c r="G26" s="220"/>
+      <c r="B26" s="258"/>
+      <c r="C26" s="251"/>
+      <c r="D26" s="251"/>
+      <c r="E26" s="251"/>
+      <c r="F26" s="251"/>
+      <c r="G26" s="252"/>
     </row>
     <row r="27" spans="1:9" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="171">
@@ -8275,235 +8781,237 @@
       </c>
       <c r="F27" s="116"/>
       <c r="G27" s="117" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="171"/>
-      <c r="C28" s="110"/>
-      <c r="D28" s="110"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="134"/>
-    </row>
-    <row r="29" spans="1:9" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="171"/>
-      <c r="C29" s="110"/>
-      <c r="D29" s="110"/>
-      <c r="E29" s="110"/>
-      <c r="F29" s="110"/>
-      <c r="G29" s="134"/>
-    </row>
-    <row r="30" spans="1:9" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="171"/>
-      <c r="C30" s="110"/>
-      <c r="D30" s="110"/>
-      <c r="E30" s="110"/>
-      <c r="F30" s="110"/>
-      <c r="G30" s="134"/>
-    </row>
-    <row r="31" spans="1:9" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="171"/>
-      <c r="C31" s="110"/>
-      <c r="D31" s="110"/>
-      <c r="E31" s="110"/>
-      <c r="F31" s="110"/>
-      <c r="G31" s="134"/>
-    </row>
-    <row r="32" spans="1:9" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="171"/>
-      <c r="C32" s="110"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="110"/>
-      <c r="F32" s="110"/>
-      <c r="G32" s="134"/>
-    </row>
-    <row r="33" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="171"/>
-      <c r="C33" s="110"/>
-      <c r="D33" s="110"/>
-      <c r="E33" s="110"/>
-      <c r="F33" s="110"/>
-      <c r="G33" s="134"/>
-    </row>
-    <row r="34" spans="2:7" s="159" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="171"/>
-      <c r="C34" s="110"/>
-      <c r="D34" s="110"/>
-      <c r="E34" s="110"/>
-      <c r="F34" s="110"/>
-      <c r="G34" s="134"/>
-    </row>
-    <row r="35" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="171"/>
-      <c r="C35" s="110"/>
-      <c r="D35" s="110"/>
-      <c r="E35" s="110"/>
-      <c r="F35" s="110"/>
-      <c r="G35" s="134"/>
-    </row>
-    <row r="36" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="171"/>
-      <c r="C36" s="110"/>
-      <c r="D36" s="110"/>
-      <c r="E36" s="110"/>
-      <c r="F36" s="110"/>
-      <c r="G36" s="134"/>
-    </row>
-    <row r="37" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="171"/>
-      <c r="C37" s="110"/>
-      <c r="D37" s="110"/>
-      <c r="E37" s="110"/>
-      <c r="F37" s="110"/>
-      <c r="G37" s="134"/>
-    </row>
-    <row r="38" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="171"/>
-      <c r="C38" s="110"/>
-      <c r="D38" s="110"/>
-      <c r="E38" s="110"/>
-      <c r="F38" s="110"/>
-      <c r="G38" s="134"/>
-    </row>
-    <row r="39" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="171"/>
-      <c r="C39" s="110"/>
-      <c r="D39" s="110"/>
-      <c r="E39" s="110"/>
-      <c r="F39" s="110"/>
-      <c r="G39" s="134"/>
-    </row>
-    <row r="40" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="171"/>
-      <c r="C40" s="110"/>
-      <c r="D40" s="110"/>
-      <c r="E40" s="110"/>
-      <c r="F40" s="162"/>
-      <c r="G40" s="134"/>
-    </row>
-    <row r="41" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="171"/>
-      <c r="C41" s="110"/>
-      <c r="D41" s="110"/>
-      <c r="E41" s="110"/>
-      <c r="F41" s="110"/>
-      <c r="G41" s="134"/>
-    </row>
-    <row r="42" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="171"/>
-      <c r="C42" s="110"/>
-      <c r="D42" s="110"/>
-      <c r="E42" s="110"/>
-      <c r="F42" s="110"/>
-      <c r="G42" s="134"/>
-    </row>
-    <row r="43" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="171"/>
-      <c r="C43" s="110"/>
-      <c r="D43" s="110"/>
-      <c r="E43" s="110"/>
-      <c r="F43" s="110"/>
-      <c r="G43" s="134"/>
-    </row>
-    <row r="44" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="171"/>
-      <c r="C44" s="110"/>
-      <c r="D44" s="110"/>
-      <c r="E44" s="110"/>
-      <c r="F44" s="110"/>
-      <c r="G44" s="134"/>
-    </row>
-    <row r="45" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="171"/>
-      <c r="C45" s="110"/>
-      <c r="D45" s="110"/>
-      <c r="E45" s="110"/>
-      <c r="F45" s="110"/>
-      <c r="G45" s="134"/>
-    </row>
-    <row r="46" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="171"/>
-      <c r="C46" s="110"/>
-      <c r="D46" s="110"/>
-      <c r="E46" s="110"/>
-      <c r="F46" s="110"/>
-      <c r="G46" s="134"/>
-    </row>
-    <row r="47" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="171"/>
-      <c r="C47" s="110"/>
-      <c r="D47" s="110"/>
-      <c r="E47" s="110"/>
-      <c r="F47" s="110"/>
-      <c r="G47" s="161"/>
-    </row>
-    <row r="48" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="171"/>
-      <c r="C48" s="110"/>
-      <c r="D48" s="110"/>
-      <c r="E48" s="110"/>
-      <c r="F48" s="110"/>
-      <c r="G48" s="216"/>
-    </row>
-    <row r="49" spans="2:8" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="171"/>
-      <c r="C49" s="110"/>
-      <c r="D49" s="110"/>
-      <c r="E49" s="110"/>
-      <c r="F49" s="110"/>
-      <c r="G49" s="216"/>
-    </row>
-    <row r="50" spans="2:8" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="171"/>
-      <c r="C50" s="110"/>
-      <c r="D50" s="110"/>
-      <c r="E50" s="110"/>
-      <c r="F50" s="110"/>
-      <c r="G50" s="216"/>
-    </row>
-    <row r="51" spans="2:8" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="171"/>
-      <c r="C51" s="110"/>
-      <c r="D51" s="110"/>
-      <c r="E51" s="110"/>
-      <c r="F51" s="110"/>
-      <c r="G51" s="216"/>
-      <c r="H51" s="197"/>
-    </row>
-    <row r="52" spans="2:8" s="166" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="171"/>
-      <c r="C52" s="110"/>
-      <c r="D52" s="110"/>
-      <c r="E52" s="110"/>
-      <c r="F52" s="110"/>
-      <c r="G52" s="217"/>
-    </row>
-    <row r="53" spans="2:8" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="171"/>
-      <c r="C53" s="110"/>
-      <c r="D53" s="110"/>
-      <c r="E53" s="110"/>
-      <c r="F53" s="163"/>
-      <c r="G53" s="161"/>
-    </row>
-    <row r="54" spans="2:8" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="173"/>
-      <c r="C54" s="127" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="246" t="s">
         <v>0</v>
       </c>
-      <c r="D54" s="127"/>
-      <c r="E54" s="128">
-        <f>SUM(E14:E53)</f>
+      <c r="C28" s="247"/>
+      <c r="D28" s="163">
+        <f>Tableau426[[#Totals],[Crédit]]-Tableau426[[#Totals],[Débit]]</f>
+        <v>-53890</v>
+      </c>
+      <c r="E28" s="163">
+        <f>SUBTOTAL(109,Tableau426[Débit])</f>
         <v>53890</v>
       </c>
-      <c r="F54" s="128">
-        <f>SUM(F14:F53)</f>
+      <c r="F28" s="249">
+        <f>SUBTOTAL(109,Tableau426[Crédit])</f>
         <v>0</v>
       </c>
-      <c r="G54" s="165"/>
-    </row>
-    <row r="55" spans="2:8" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G28" s="248"/>
+    </row>
+    <row r="29" spans="1:9" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="157"/>
+      <c r="C29" s="135"/>
+      <c r="D29" s="135"/>
+      <c r="E29" s="135"/>
+      <c r="F29" s="135"/>
+      <c r="G29" s="135"/>
+    </row>
+    <row r="30" spans="1:9" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="157"/>
+      <c r="C30" s="135"/>
+      <c r="D30" s="135"/>
+      <c r="E30" s="135"/>
+      <c r="F30" s="135"/>
+      <c r="G30" s="135"/>
+    </row>
+    <row r="31" spans="1:9" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="157"/>
+      <c r="C31" s="135"/>
+      <c r="D31" s="135"/>
+      <c r="E31" s="135"/>
+      <c r="F31" s="135"/>
+      <c r="G31" s="135"/>
+    </row>
+    <row r="32" spans="1:9" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="157"/>
+      <c r="C32" s="135"/>
+      <c r="D32" s="135"/>
+      <c r="E32" s="135"/>
+      <c r="F32" s="135"/>
+      <c r="G32" s="135"/>
+    </row>
+    <row r="33" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="157"/>
+      <c r="C33" s="135"/>
+      <c r="D33" s="135"/>
+      <c r="E33" s="135"/>
+      <c r="F33" s="135"/>
+      <c r="G33" s="135"/>
+    </row>
+    <row r="34" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="157"/>
+      <c r="C34" s="135"/>
+      <c r="D34" s="135"/>
+      <c r="E34" s="135"/>
+      <c r="F34" s="135"/>
+      <c r="G34" s="135"/>
+    </row>
+    <row r="35" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="157"/>
+      <c r="C35" s="135"/>
+      <c r="D35" s="135"/>
+      <c r="E35" s="135"/>
+      <c r="F35" s="135"/>
+      <c r="G35" s="135"/>
+    </row>
+    <row r="36" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="157"/>
+      <c r="C36" s="135"/>
+      <c r="D36" s="135"/>
+      <c r="E36" s="135"/>
+      <c r="F36" s="135"/>
+      <c r="G36" s="135"/>
+    </row>
+    <row r="37" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="157"/>
+      <c r="C37" s="135"/>
+      <c r="D37" s="135"/>
+      <c r="E37" s="135"/>
+      <c r="F37" s="135"/>
+      <c r="G37" s="135"/>
+    </row>
+    <row r="38" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="157"/>
+      <c r="C38" s="135"/>
+      <c r="D38" s="135"/>
+      <c r="E38" s="135"/>
+      <c r="F38" s="135"/>
+      <c r="G38" s="135"/>
+    </row>
+    <row r="39" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="157"/>
+      <c r="C39" s="135"/>
+      <c r="D39" s="135"/>
+      <c r="E39" s="135"/>
+      <c r="F39" s="135"/>
+      <c r="G39" s="135"/>
+    </row>
+    <row r="40" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="157"/>
+      <c r="C40" s="135"/>
+      <c r="D40" s="135"/>
+      <c r="E40" s="135"/>
+      <c r="F40" s="135"/>
+      <c r="G40" s="135"/>
+    </row>
+    <row r="41" spans="2:7" s="166" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="157"/>
+      <c r="C41" s="135"/>
+      <c r="D41" s="135"/>
+      <c r="E41" s="135"/>
+      <c r="F41" s="135"/>
+      <c r="G41" s="135"/>
+    </row>
+    <row r="42" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="157"/>
+      <c r="C42" s="135"/>
+      <c r="D42" s="135"/>
+      <c r="E42" s="135"/>
+      <c r="F42" s="135"/>
+      <c r="G42" s="135"/>
+    </row>
+    <row r="43" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="157"/>
+      <c r="C43" s="135"/>
+      <c r="D43" s="135"/>
+      <c r="E43" s="135"/>
+      <c r="F43" s="135"/>
+      <c r="G43" s="135"/>
+    </row>
+    <row r="44" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="157"/>
+      <c r="C44" s="135"/>
+      <c r="D44" s="135"/>
+      <c r="E44" s="135"/>
+      <c r="F44" s="135"/>
+      <c r="G44" s="135"/>
+    </row>
+    <row r="45" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="157"/>
+      <c r="C45" s="135"/>
+      <c r="D45" s="135"/>
+      <c r="E45" s="135"/>
+      <c r="F45" s="135"/>
+      <c r="G45" s="135"/>
+    </row>
+    <row r="46" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="157"/>
+      <c r="C46" s="135"/>
+      <c r="D46" s="135"/>
+      <c r="E46" s="135"/>
+      <c r="F46" s="135"/>
+      <c r="G46" s="135"/>
+    </row>
+    <row r="47" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="157"/>
+      <c r="C47" s="135"/>
+      <c r="D47" s="135"/>
+      <c r="E47" s="135"/>
+      <c r="F47" s="135"/>
+      <c r="G47" s="135"/>
+    </row>
+    <row r="48" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="157"/>
+      <c r="C48" s="135"/>
+      <c r="D48" s="135"/>
+      <c r="E48" s="135"/>
+      <c r="F48" s="135"/>
+      <c r="G48" s="135"/>
+    </row>
+    <row r="49" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="157"/>
+      <c r="C49" s="135"/>
+      <c r="D49" s="135"/>
+      <c r="E49" s="135"/>
+      <c r="F49" s="135"/>
+      <c r="G49" s="135"/>
+    </row>
+    <row r="50" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="157"/>
+      <c r="C50" s="135"/>
+      <c r="D50" s="135"/>
+      <c r="E50" s="135"/>
+      <c r="F50" s="135"/>
+      <c r="G50" s="135"/>
+    </row>
+    <row r="51" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="157"/>
+      <c r="C51" s="135"/>
+      <c r="D51" s="135"/>
+      <c r="E51" s="135"/>
+      <c r="F51" s="135"/>
+      <c r="G51" s="135"/>
+    </row>
+    <row r="52" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="157"/>
+      <c r="C52" s="135"/>
+      <c r="D52" s="135"/>
+      <c r="E52" s="135"/>
+      <c r="F52" s="135"/>
+      <c r="G52" s="135"/>
+    </row>
+    <row r="53" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="157"/>
+      <c r="C53" s="135"/>
+      <c r="D53" s="135"/>
+      <c r="E53" s="135"/>
+      <c r="F53" s="135"/>
+      <c r="G53" s="135"/>
+    </row>
+    <row r="54" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="157"/>
+      <c r="C54" s="135"/>
+      <c r="D54" s="135"/>
+      <c r="E54" s="135"/>
+      <c r="F54" s="135"/>
+      <c r="G54" s="135"/>
+    </row>
+    <row r="55" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="157"/>
       <c r="C55" s="135"/>
       <c r="D55" s="135"/>
@@ -8511,7 +9019,7 @@
       <c r="F55" s="135"/>
       <c r="G55" s="135"/>
     </row>
-    <row r="56" spans="2:8" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="157"/>
       <c r="C56" s="135"/>
       <c r="D56" s="135"/>
@@ -8519,7 +9027,7 @@
       <c r="F56" s="135"/>
       <c r="G56" s="135"/>
     </row>
-    <row r="57" spans="2:8" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="157"/>
       <c r="C57" s="135"/>
       <c r="D57" s="135"/>
@@ -8527,7 +9035,7 @@
       <c r="F57" s="135"/>
       <c r="G57" s="135"/>
     </row>
-    <row r="58" spans="2:8" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="157"/>
       <c r="C58" s="135"/>
       <c r="D58" s="135"/>
@@ -8535,7 +9043,7 @@
       <c r="F58" s="135"/>
       <c r="G58" s="135"/>
     </row>
-    <row r="59" spans="2:8" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="157"/>
       <c r="C59" s="135"/>
       <c r="D59" s="135"/>
@@ -8543,7 +9051,7 @@
       <c r="F59" s="135"/>
       <c r="G59" s="135"/>
     </row>
-    <row r="60" spans="2:8" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="157"/>
       <c r="C60" s="135"/>
       <c r="D60" s="135"/>
@@ -8551,7 +9059,7 @@
       <c r="F60" s="135"/>
       <c r="G60" s="135"/>
     </row>
-    <row r="61" spans="2:8" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="157"/>
       <c r="C61" s="135"/>
       <c r="D61" s="135"/>
@@ -8559,7 +9067,7 @@
       <c r="F61" s="135"/>
       <c r="G61" s="135"/>
     </row>
-    <row r="62" spans="2:8" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="157"/>
       <c r="C62" s="135"/>
       <c r="D62" s="135"/>
@@ -8567,7 +9075,7 @@
       <c r="F62" s="135"/>
       <c r="G62" s="135"/>
     </row>
-    <row r="63" spans="2:8" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="157"/>
       <c r="C63" s="135"/>
       <c r="D63" s="135"/>
@@ -8575,7 +9083,7 @@
       <c r="F63" s="135"/>
       <c r="G63" s="135"/>
     </row>
-    <row r="64" spans="2:8" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="157"/>
       <c r="C64" s="135"/>
       <c r="D64" s="135"/>
@@ -8607,7 +9115,7 @@
       <c r="F67" s="135"/>
       <c r="G67" s="135"/>
     </row>
-    <row r="68" spans="2:7" s="166" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="157"/>
       <c r="C68" s="135"/>
       <c r="D68" s="135"/>
@@ -8711,7 +9219,7 @@
       <c r="F80" s="135"/>
       <c r="G80" s="135"/>
     </row>
-    <row r="81" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:8" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="157"/>
       <c r="C81" s="135"/>
       <c r="D81" s="135"/>
@@ -8719,7 +9227,7 @@
       <c r="F81" s="135"/>
       <c r="G81" s="135"/>
     </row>
-    <row r="82" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:8" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="157"/>
       <c r="C82" s="135"/>
       <c r="D82" s="135"/>
@@ -8727,7 +9235,7 @@
       <c r="F82" s="135"/>
       <c r="G82" s="135"/>
     </row>
-    <row r="83" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:8" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="157"/>
       <c r="C83" s="135"/>
       <c r="D83" s="135"/>
@@ -8735,7 +9243,7 @@
       <c r="F83" s="135"/>
       <c r="G83" s="135"/>
     </row>
-    <row r="84" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:8" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="157"/>
       <c r="C84" s="135"/>
       <c r="D84" s="135"/>
@@ -8743,7 +9251,7 @@
       <c r="F84" s="135"/>
       <c r="G84" s="135"/>
     </row>
-    <row r="85" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:8" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="157"/>
       <c r="C85" s="135"/>
       <c r="D85" s="135"/>
@@ -8751,7 +9259,7 @@
       <c r="F85" s="135"/>
       <c r="G85" s="135"/>
     </row>
-    <row r="86" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:8" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="157"/>
       <c r="C86" s="135"/>
       <c r="D86" s="135"/>
@@ -8759,224 +9267,8 @@
       <c r="F86" s="135"/>
       <c r="G86" s="135"/>
     </row>
-    <row r="87" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="157"/>
-      <c r="C87" s="135"/>
-      <c r="D87" s="135"/>
-      <c r="E87" s="135"/>
-      <c r="F87" s="135"/>
-      <c r="G87" s="135"/>
-    </row>
-    <row r="88" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="157"/>
-      <c r="C88" s="135"/>
-      <c r="D88" s="135"/>
-      <c r="E88" s="135"/>
-      <c r="F88" s="135"/>
-      <c r="G88" s="135"/>
-    </row>
-    <row r="89" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="157"/>
-      <c r="C89" s="135"/>
-      <c r="D89" s="135"/>
-      <c r="E89" s="135"/>
-      <c r="F89" s="135"/>
-      <c r="G89" s="135"/>
-    </row>
-    <row r="90" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="157"/>
-      <c r="C90" s="135"/>
-      <c r="D90" s="135"/>
-      <c r="E90" s="135"/>
-      <c r="F90" s="135"/>
-      <c r="G90" s="135"/>
-    </row>
-    <row r="91" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="157"/>
-      <c r="C91" s="135"/>
-      <c r="D91" s="135"/>
-      <c r="E91" s="135"/>
-      <c r="F91" s="135"/>
-      <c r="G91" s="135"/>
-    </row>
-    <row r="92" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="157"/>
-      <c r="C92" s="135"/>
-      <c r="D92" s="135"/>
-      <c r="E92" s="135"/>
-      <c r="F92" s="135"/>
-      <c r="G92" s="135"/>
-    </row>
-    <row r="93" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="157"/>
-      <c r="C93" s="135"/>
-      <c r="D93" s="135"/>
-      <c r="E93" s="135"/>
-      <c r="F93" s="135"/>
-      <c r="G93" s="135"/>
-    </row>
-    <row r="94" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="157"/>
-      <c r="C94" s="135"/>
-      <c r="D94" s="135"/>
-      <c r="E94" s="135"/>
-      <c r="F94" s="135"/>
-      <c r="G94" s="135"/>
-    </row>
-    <row r="95" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="157"/>
-      <c r="C95" s="135"/>
-      <c r="D95" s="135"/>
-      <c r="E95" s="135"/>
-      <c r="F95" s="135"/>
-      <c r="G95" s="135"/>
-    </row>
-    <row r="96" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="157"/>
-      <c r="C96" s="135"/>
-      <c r="D96" s="135"/>
-      <c r="E96" s="135"/>
-      <c r="F96" s="135"/>
-      <c r="G96" s="135"/>
-    </row>
-    <row r="97" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="157"/>
-      <c r="C97" s="135"/>
-      <c r="D97" s="135"/>
-      <c r="E97" s="135"/>
-      <c r="F97" s="135"/>
-      <c r="G97" s="135"/>
-    </row>
-    <row r="98" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="157"/>
-      <c r="C98" s="135"/>
-      <c r="D98" s="135"/>
-      <c r="E98" s="135"/>
-      <c r="F98" s="135"/>
-      <c r="G98" s="135"/>
-    </row>
-    <row r="99" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="157"/>
-      <c r="C99" s="135"/>
-      <c r="D99" s="135"/>
-      <c r="E99" s="135"/>
-      <c r="F99" s="135"/>
-      <c r="G99" s="135"/>
-    </row>
-    <row r="100" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B100" s="157"/>
-      <c r="C100" s="135"/>
-      <c r="D100" s="135"/>
-      <c r="E100" s="135"/>
-      <c r="F100" s="135"/>
-      <c r="G100" s="135"/>
-    </row>
-    <row r="101" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="157"/>
-      <c r="C101" s="135"/>
-      <c r="D101" s="135"/>
-      <c r="E101" s="135"/>
-      <c r="F101" s="135"/>
-      <c r="G101" s="135"/>
-    </row>
-    <row r="102" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B102" s="157"/>
-      <c r="C102" s="135"/>
-      <c r="D102" s="135"/>
-      <c r="E102" s="135"/>
-      <c r="F102" s="135"/>
-      <c r="G102" s="135"/>
-    </row>
-    <row r="103" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B103" s="157"/>
-      <c r="C103" s="135"/>
-      <c r="D103" s="135"/>
-      <c r="E103" s="135"/>
-      <c r="F103" s="135"/>
-      <c r="G103" s="135"/>
-    </row>
-    <row r="104" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="157"/>
-      <c r="C104" s="135"/>
-      <c r="D104" s="135"/>
-      <c r="E104" s="135"/>
-      <c r="F104" s="135"/>
-      <c r="G104" s="135"/>
-    </row>
-    <row r="105" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B105" s="157"/>
-      <c r="C105" s="135"/>
-      <c r="D105" s="135"/>
-      <c r="E105" s="135"/>
-      <c r="F105" s="135"/>
-      <c r="G105" s="135"/>
-    </row>
-    <row r="106" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B106" s="157"/>
-      <c r="C106" s="135"/>
-      <c r="D106" s="135"/>
-      <c r="E106" s="135"/>
-      <c r="F106" s="135"/>
-      <c r="G106" s="135"/>
-    </row>
-    <row r="107" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B107" s="157"/>
-      <c r="C107" s="135"/>
-      <c r="D107" s="135"/>
-      <c r="E107" s="135"/>
-      <c r="F107" s="135"/>
-      <c r="G107" s="135"/>
-    </row>
-    <row r="108" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B108" s="157"/>
-      <c r="C108" s="135"/>
-      <c r="D108" s="135"/>
-      <c r="E108" s="135"/>
-      <c r="F108" s="135"/>
-      <c r="G108" s="135"/>
-    </row>
-    <row r="109" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B109" s="157"/>
-      <c r="C109" s="135"/>
-      <c r="D109" s="135"/>
-      <c r="E109" s="135"/>
-      <c r="F109" s="135"/>
-      <c r="G109" s="135"/>
-    </row>
-    <row r="110" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B110" s="157"/>
-      <c r="C110" s="135"/>
-      <c r="D110" s="135"/>
-      <c r="E110" s="135"/>
-      <c r="F110" s="135"/>
-      <c r="G110" s="135"/>
-    </row>
-    <row r="111" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B111" s="157"/>
-      <c r="C111" s="135"/>
-      <c r="D111" s="135"/>
-      <c r="E111" s="135"/>
-      <c r="F111" s="135"/>
-      <c r="G111" s="135"/>
-    </row>
-    <row r="112" spans="2:7" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B112" s="157"/>
-      <c r="C112" s="135"/>
-      <c r="D112" s="135"/>
-      <c r="E112" s="135"/>
-      <c r="F112" s="135"/>
-      <c r="G112" s="135"/>
-    </row>
-    <row r="113" spans="2:8" s="159" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B113" s="157"/>
-      <c r="C113" s="135"/>
-      <c r="D113" s="135"/>
-      <c r="E113" s="135"/>
-      <c r="F113" s="135"/>
-      <c r="G113" s="135"/>
-    </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="H116" s="135">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H89" s="135">
         <f>6400/1280</f>
         <v>5</v>
       </c>
@@ -8993,7 +9285,18 @@
     <mergeCell ref="E10:F10"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <tableParts count="1">
@@ -9004,23 +9307,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:X210"/>
+  <dimension ref="A1:X236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G200" sqref="G200"/>
+    <sheetView tabSelected="1" topLeftCell="A215" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I225" sqref="I225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="208" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" style="232" customWidth="1"/>
-    <col min="3" max="3" width="21" style="156" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" style="156" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="156" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="156" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" style="156" customWidth="1"/>
-    <col min="8" max="8" width="42.28515625" style="243" customWidth="1"/>
-    <col min="9" max="9" width="36.5703125" style="107" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="206" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="218" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="156" customWidth="1"/>
+    <col min="4" max="4" width="20" style="156" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="156" customWidth="1"/>
+    <col min="6" max="6" width="17" style="156" customWidth="1"/>
+    <col min="7" max="7" width="3" style="156" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="38.5703125" style="227" customWidth="1"/>
+    <col min="9" max="9" width="52.85546875" style="107" customWidth="1"/>
     <col min="10" max="10" width="17.7109375" style="46" customWidth="1"/>
     <col min="11" max="17" width="11.42578125" style="46"/>
     <col min="18" max="18" width="11.7109375" style="46" customWidth="1"/>
@@ -9030,53 +9333,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="H1" s="233"/>
+      <c r="H1" s="219"/>
     </row>
     <row r="2" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="H2" s="233"/>
+      <c r="H2" s="219"/>
     </row>
     <row r="3" spans="2:24" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="291" t="s">
+      <c r="C3" s="326" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="292"/>
-      <c r="E3" s="293"/>
-      <c r="F3" s="293"/>
-      <c r="G3" s="244"/>
-      <c r="H3" s="233"/>
+      <c r="D3" s="327"/>
+      <c r="E3" s="328"/>
+      <c r="F3" s="328"/>
+      <c r="G3" s="228"/>
+      <c r="H3" s="219"/>
     </row>
     <row r="4" spans="2:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="155"/>
       <c r="D4" s="155"/>
-      <c r="H4" s="233"/>
+      <c r="H4" s="219"/>
     </row>
     <row r="5" spans="2:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" s="155"/>
       <c r="D5" s="155"/>
-      <c r="H5" s="233"/>
+      <c r="H5" s="219"/>
     </row>
     <row r="6" spans="2:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="294" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="294"/>
-      <c r="E6" s="295"/>
-      <c r="F6" s="295"/>
-      <c r="G6" s="234"/>
-      <c r="H6" s="233"/>
+      <c r="C6" s="329" t="s">
+        <v>381</v>
+      </c>
+      <c r="D6" s="329"/>
+      <c r="E6" s="330"/>
+      <c r="F6" s="330"/>
+      <c r="G6" s="220"/>
+      <c r="H6" s="219"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="H7" s="233"/>
+      <c r="H7" s="219"/>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B8" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="230" t="s">
+      <c r="C8" s="217" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="235"/>
-      <c r="H8" s="233"/>
+      <c r="D8" s="221"/>
+      <c r="H8" s="219"/>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B9" s="138" t="s">
@@ -9084,10 +9387,10 @@
       </c>
       <c r="C9" s="167">
         <f>Tableau2[[#Totals],[Débit]]</f>
-        <v>867175</v>
-      </c>
-      <c r="D9" s="236"/>
-      <c r="H9" s="233"/>
+        <v>1273305</v>
+      </c>
+      <c r="D9" s="222"/>
+      <c r="H9" s="219"/>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B10" s="138" t="s">
@@ -9095,9 +9398,9 @@
       </c>
       <c r="C10" s="167">
         <f>Tableau2[[#Totals],[Crédit]]</f>
-        <v>962000</v>
-      </c>
-      <c r="H10" s="233"/>
+        <v>1320200</v>
+      </c>
+      <c r="H10" s="219"/>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B11" s="138" t="s">
@@ -9105,18 +9408,18 @@
       </c>
       <c r="C11" s="78">
         <f>C10-C9</f>
-        <v>94825</v>
+        <v>46895</v>
       </c>
       <c r="D11" s="152"/>
-      <c r="H11" s="233"/>
+      <c r="H11" s="219"/>
     </row>
     <row r="12" spans="2:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H12" s="233"/>
+      <c r="H12" s="219"/>
       <c r="X12" s="46" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="13" spans="2:24" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="74" t="s">
         <v>5</v>
       </c>
@@ -9133,26 +9436,26 @@
         <v>32</v>
       </c>
       <c r="G13" s="145" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="H13" s="87" t="s">
         <v>34</v>
       </c>
       <c r="I13" s="108" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="R13" s="46" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="T13" s="46" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="X13" s="46" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="14" spans="2:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="83">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="259">
         <v>44762</v>
       </c>
       <c r="C14" s="136" t="s">
@@ -9165,21 +9468,21 @@
       <c r="F14" s="146">
         <v>150000</v>
       </c>
-      <c r="G14" s="149" t="s">
-        <v>352</v>
-      </c>
-      <c r="H14" s="200" t="s">
-        <v>224</v>
+      <c r="G14" s="146" t="s">
+        <v>338</v>
+      </c>
+      <c r="H14" s="223" t="s">
+        <v>222</v>
       </c>
       <c r="R14" s="46" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="T14" s="46" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="15" spans="2:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="83"/>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="259"/>
       <c r="C15" s="136" t="s">
         <v>41</v>
       </c>
@@ -9189,20 +9492,20 @@
       </c>
       <c r="F15" s="147"/>
       <c r="G15" s="149" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="H15" s="200" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="R15" s="46" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="T15" s="46" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
     </row>
     <row r="16" spans="2:24" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="83"/>
+      <c r="B16" s="259"/>
       <c r="C16" s="136" t="s">
         <v>41</v>
       </c>
@@ -9212,36 +9515,36 @@
       </c>
       <c r="F16" s="147"/>
       <c r="G16" s="149" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="H16" s="200" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="R16" s="46" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="T16" s="46" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
     </row>
     <row r="17" spans="1:18" s="139" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="208"/>
-      <c r="B17" s="89"/>
+      <c r="A17" s="206"/>
+      <c r="B17" s="260"/>
       <c r="C17" s="137"/>
       <c r="D17" s="137"/>
       <c r="E17" s="137"/>
       <c r="F17" s="148"/>
       <c r="G17" s="149" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="H17" s="201"/>
       <c r="I17" s="109"/>
       <c r="R17" s="139" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="83">
+      <c r="B18" s="259">
         <v>44763</v>
       </c>
       <c r="C18" s="136" t="s">
@@ -9255,44 +9558,44 @@
         <v>20000</v>
       </c>
       <c r="G18" s="146" t="s">
-        <v>352</v>
-      </c>
-      <c r="H18" s="200"/>
-    </row>
-    <row r="19" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="81"/>
+        <v>338</v>
+      </c>
+      <c r="H18" s="223"/>
+    </row>
+    <row r="19" spans="1:18" ht="166.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="261"/>
       <c r="C19" s="136" t="s">
         <v>42</v>
       </c>
       <c r="D19" s="136" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E19" s="136">
         <v>6000</v>
       </c>
       <c r="F19" s="147"/>
       <c r="G19" s="147" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="H19" s="200" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:18" s="139" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="208"/>
-      <c r="B20" s="90"/>
+      <c r="A20" s="206"/>
+      <c r="B20" s="262"/>
       <c r="C20" s="137"/>
       <c r="D20" s="137"/>
       <c r="E20" s="137"/>
       <c r="F20" s="148"/>
       <c r="G20" s="148" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="H20" s="201"/>
       <c r="I20" s="109"/>
     </row>
     <row r="21" spans="1:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="81">
+      <c r="B21" s="261">
         <v>44765</v>
       </c>
       <c r="C21" s="136" t="s">
@@ -9306,14 +9609,14 @@
         <v>70000</v>
       </c>
       <c r="G21" s="146" t="s">
-        <v>352</v>
-      </c>
-      <c r="H21" s="200" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="81"/>
+        <v>338</v>
+      </c>
+      <c r="H21" s="223" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="90" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="261"/>
       <c r="C22" s="136" t="s">
         <v>41</v>
       </c>
@@ -9323,46 +9626,46 @@
       </c>
       <c r="F22" s="147"/>
       <c r="G22" s="147" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="H22" s="202" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="81"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="166.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="261"/>
       <c r="C23" s="136" t="s">
         <v>42</v>
       </c>
       <c r="D23" s="136" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E23" s="136">
         <v>20000</v>
       </c>
       <c r="F23" s="147"/>
       <c r="G23" s="147" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="H23" s="200" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:18" s="139" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="208"/>
-      <c r="B24" s="90"/>
+      <c r="A24" s="206"/>
+      <c r="B24" s="262"/>
       <c r="C24" s="137"/>
       <c r="D24" s="137"/>
       <c r="E24" s="137"/>
       <c r="F24" s="148"/>
       <c r="G24" s="148" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="H24" s="201"/>
       <c r="I24" s="109"/>
     </row>
-    <row r="25" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="81">
+    <row r="25" spans="1:18" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="261">
         <v>44766</v>
       </c>
       <c r="C25" s="136" t="s">
@@ -9374,20 +9677,20 @@
       </c>
       <c r="F25" s="147"/>
       <c r="G25" s="147" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="H25" s="200" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K25" s="140"/>
     </row>
-    <row r="26" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="81"/>
+    <row r="26" spans="1:18" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="261"/>
       <c r="C26" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="207"/>
-      <c r="E26" s="206">
+      <c r="D26" s="205"/>
+      <c r="E26" s="204">
         <v>2000</v>
       </c>
       <c r="F26" s="147"/>
@@ -9398,8 +9701,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="81"/>
+    <row r="27" spans="1:18" ht="90" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="261"/>
       <c r="C27" s="136" t="s">
         <v>41</v>
       </c>
@@ -9409,14 +9712,14 @@
       </c>
       <c r="F27" s="147"/>
       <c r="G27" s="147" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="H27" s="202" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="81"/>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="90" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="261"/>
       <c r="C28" s="136" t="s">
         <v>41</v>
       </c>
@@ -9426,14 +9729,14 @@
       </c>
       <c r="F28" s="147"/>
       <c r="G28" s="147" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="H28" s="202" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="81"/>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="261"/>
       <c r="C29" s="136" t="s">
         <v>41</v>
       </c>
@@ -9443,14 +9746,14 @@
       </c>
       <c r="F29" s="147"/>
       <c r="G29" s="147" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="H29" s="200" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="91"/>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="102.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="263"/>
       <c r="C30" s="136" t="s">
         <v>47</v>
       </c>
@@ -9462,25 +9765,25 @@
       </c>
       <c r="F30" s="147"/>
       <c r="G30" s="147" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="H30" s="200" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="90"/>
+      <c r="B31" s="262"/>
       <c r="C31" s="137"/>
       <c r="D31" s="137"/>
       <c r="E31" s="141"/>
       <c r="F31" s="148"/>
       <c r="G31" s="148" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="H31" s="201"/>
     </row>
-    <row r="32" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="81">
+    <row r="32" spans="1:18" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="261">
         <v>44767</v>
       </c>
       <c r="C32" s="136" t="s">
@@ -9498,8 +9801,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="82"/>
+    <row r="33" spans="1:10" ht="166.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="264"/>
       <c r="C33" s="136" t="s">
         <v>47</v>
       </c>
@@ -9511,27 +9814,27 @@
       </c>
       <c r="F33" s="149"/>
       <c r="G33" s="149" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="H33" s="200" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="139" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="208"/>
-      <c r="B34" s="90"/>
+      <c r="A34" s="206"/>
+      <c r="B34" s="262"/>
       <c r="C34" s="137"/>
       <c r="D34" s="137"/>
       <c r="E34" s="137"/>
       <c r="F34" s="148"/>
       <c r="G34" s="148" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="H34" s="201"/>
       <c r="I34" s="109"/>
     </row>
     <row r="35" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="82">
+      <c r="B35" s="264">
         <v>44768</v>
       </c>
       <c r="C35" s="136" t="s">
@@ -9545,12 +9848,12 @@
         <v>100000</v>
       </c>
       <c r="G35" s="146" t="s">
-        <v>352</v>
-      </c>
-      <c r="H35" s="200"/>
-    </row>
-    <row r="36" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="82"/>
+        <v>338</v>
+      </c>
+      <c r="H35" s="223"/>
+    </row>
+    <row r="36" spans="1:10" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="264"/>
       <c r="C36" s="136" t="s">
         <v>41</v>
       </c>
@@ -9560,15 +9863,15 @@
       </c>
       <c r="F36" s="149"/>
       <c r="G36" s="149" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="H36" s="200" t="s">
         <v>89</v>
       </c>
       <c r="J36" s="143"/>
     </row>
-    <row r="37" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="82"/>
+    <row r="37" spans="1:10" ht="166.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="264"/>
       <c r="C37" s="136" t="s">
         <v>47</v>
       </c>
@@ -9580,15 +9883,15 @@
       </c>
       <c r="F37" s="149"/>
       <c r="G37" s="149" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="H37" s="200" t="s">
         <v>91</v>
       </c>
       <c r="J37" s="143"/>
     </row>
-    <row r="38" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="82"/>
+    <row r="38" spans="1:10" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="264"/>
       <c r="C38" s="136" t="s">
         <v>41</v>
       </c>
@@ -9598,14 +9901,14 @@
       </c>
       <c r="F38" s="150"/>
       <c r="G38" s="150" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="H38" s="200" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="82"/>
+        <v>377</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="264"/>
       <c r="C39" s="136" t="s">
         <v>41</v>
       </c>
@@ -9614,15 +9917,15 @@
         <v>5600</v>
       </c>
       <c r="F39" s="151"/>
-      <c r="G39" s="245" t="s">
-        <v>355</v>
+      <c r="G39" s="229" t="s">
+        <v>340</v>
       </c>
       <c r="H39" s="200" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="82"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="264"/>
       <c r="C40" s="136" t="s">
         <v>41</v>
       </c>
@@ -9632,17 +9935,17 @@
       </c>
       <c r="F40" s="149"/>
       <c r="G40" s="149" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="H40" s="200" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I40" s="132"/>
       <c r="J40" s="143"/>
     </row>
-    <row r="41" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="209"/>
-      <c r="B41" s="82"/>
+    <row r="41" spans="1:10" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="207"/>
+      <c r="B41" s="264"/>
       <c r="C41" s="136" t="s">
         <v>44</v>
       </c>
@@ -9657,13 +9960,13 @@
         <v>45</v>
       </c>
       <c r="H41" s="200" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J41" s="143"/>
     </row>
-    <row r="42" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="210"/>
-      <c r="B42" s="82"/>
+    <row r="42" spans="1:10" ht="90" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="208"/>
+      <c r="B42" s="264"/>
       <c r="C42" s="136" t="s">
         <v>41</v>
       </c>
@@ -9673,7 +9976,7 @@
       </c>
       <c r="F42" s="149"/>
       <c r="G42" s="149" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="H42" s="200" t="s">
         <v>93</v>
@@ -9681,8 +9984,8 @@
       <c r="J42" s="143"/>
     </row>
     <row r="43" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="210"/>
-      <c r="B43" s="82"/>
+      <c r="A43" s="208"/>
+      <c r="B43" s="264"/>
       <c r="C43" s="136" t="s">
         <v>41</v>
       </c>
@@ -9692,29 +9995,29 @@
       </c>
       <c r="F43" s="149"/>
       <c r="G43" s="149" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="H43" s="200" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="J43" s="143"/>
     </row>
     <row r="44" spans="1:10" s="139" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="210"/>
-      <c r="B44" s="90"/>
+      <c r="A44" s="208"/>
+      <c r="B44" s="262"/>
       <c r="C44" s="137"/>
       <c r="D44" s="137"/>
       <c r="E44" s="137"/>
       <c r="F44" s="148"/>
       <c r="G44" s="148" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="H44" s="201"/>
       <c r="I44" s="109"/>
     </row>
-    <row r="45" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="210"/>
-      <c r="B45" s="82">
+    <row r="45" spans="1:10" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="208"/>
+      <c r="B45" s="264">
         <v>44769</v>
       </c>
       <c r="C45" s="136" t="s">
@@ -9726,28 +10029,28 @@
       </c>
       <c r="F45" s="149"/>
       <c r="G45" s="149" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="H45" s="200" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="46" spans="1:10" s="139" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="210"/>
-      <c r="B46" s="90"/>
+      <c r="A46" s="208"/>
+      <c r="B46" s="262"/>
       <c r="C46" s="137"/>
       <c r="D46" s="144"/>
       <c r="E46" s="144"/>
       <c r="F46" s="148"/>
       <c r="G46" s="148" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="H46" s="201"/>
       <c r="I46" s="109"/>
     </row>
-    <row r="47" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="210"/>
-      <c r="B47" s="82">
+    <row r="47" spans="1:10" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="208"/>
+      <c r="B47" s="264">
         <v>44770</v>
       </c>
       <c r="C47" s="136" t="s">
@@ -9759,28 +10062,28 @@
       </c>
       <c r="F47" s="149"/>
       <c r="G47" s="149" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="H47" s="200" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
     </row>
     <row r="48" spans="1:10" s="139" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="210"/>
-      <c r="B48" s="90"/>
+      <c r="A48" s="208"/>
+      <c r="B48" s="262"/>
       <c r="C48" s="137"/>
       <c r="D48" s="137"/>
       <c r="E48" s="137"/>
       <c r="F48" s="148"/>
       <c r="G48" s="148" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="H48" s="201"/>
       <c r="I48" s="109"/>
     </row>
-    <row r="49" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="210"/>
-      <c r="B49" s="82">
+    <row r="49" spans="1:10" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="208"/>
+      <c r="B49" s="264">
         <v>44771</v>
       </c>
       <c r="C49" s="136" t="s">
@@ -9792,28 +10095,28 @@
       </c>
       <c r="F49" s="149"/>
       <c r="G49" s="149" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="H49" s="200" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="139" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="210"/>
-      <c r="B50" s="90"/>
+      <c r="A50" s="208"/>
+      <c r="B50" s="262"/>
       <c r="C50" s="137"/>
       <c r="D50" s="137"/>
       <c r="E50" s="137"/>
       <c r="F50" s="148"/>
       <c r="G50" s="148" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="H50" s="201"/>
       <c r="I50" s="109"/>
     </row>
     <row r="51" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="210"/>
-      <c r="B51" s="82">
+      <c r="A51" s="208"/>
+      <c r="B51" s="264">
         <v>44772</v>
       </c>
       <c r="C51" s="136" t="s">
@@ -9827,15 +10130,15 @@
         <v>20000</v>
       </c>
       <c r="G51" s="146" t="s">
-        <v>352</v>
-      </c>
-      <c r="H51" s="200" t="s">
+        <v>338</v>
+      </c>
+      <c r="H51" s="223" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="210"/>
-      <c r="B52" s="82"/>
+    <row r="52" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="208"/>
+      <c r="B52" s="264"/>
       <c r="C52" s="136" t="s">
         <v>41</v>
       </c>
@@ -9845,15 +10148,15 @@
       </c>
       <c r="F52" s="149"/>
       <c r="G52" s="149" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="H52" s="200" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="210"/>
-      <c r="B53" s="82"/>
+    <row r="53" spans="1:10" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="208"/>
+      <c r="B53" s="264"/>
       <c r="C53" s="136" t="s">
         <v>41</v>
       </c>
@@ -9863,15 +10166,15 @@
       </c>
       <c r="F53" s="149"/>
       <c r="G53" s="149" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="H53" s="200" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="210"/>
-      <c r="B54" s="82"/>
+    <row r="54" spans="1:10" ht="90" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="208"/>
+      <c r="B54" s="264"/>
       <c r="C54" s="136" t="s">
         <v>41</v>
       </c>
@@ -9881,15 +10184,15 @@
       </c>
       <c r="F54" s="149"/>
       <c r="G54" s="149" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="H54" s="202" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="210"/>
-      <c r="B55" s="82"/>
+    <row r="55" spans="1:10" ht="90" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="208"/>
+      <c r="B55" s="264"/>
       <c r="C55" s="136" t="s">
         <v>44</v>
       </c>
@@ -9899,15 +10202,15 @@
       </c>
       <c r="F55" s="149"/>
       <c r="G55" s="149" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="H55" s="202" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="210"/>
-      <c r="B56" s="82"/>
+    <row r="56" spans="1:10" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="208"/>
+      <c r="B56" s="264"/>
       <c r="C56" s="136" t="s">
         <v>41</v>
       </c>
@@ -9917,15 +10220,15 @@
       </c>
       <c r="F56" s="149"/>
       <c r="G56" s="149" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="H56" s="203" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="210"/>
-      <c r="B57" s="82"/>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="90" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="208"/>
+      <c r="B57" s="264"/>
       <c r="C57" s="136" t="s">
         <v>41</v>
       </c>
@@ -9937,7 +10240,7 @@
       </c>
       <c r="F57" s="149"/>
       <c r="G57" s="149" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="H57" s="202" t="s">
         <v>119</v>
@@ -9948,33 +10251,33 @@
       </c>
     </row>
     <row r="58" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="210"/>
-      <c r="B58" s="82"/>
+      <c r="A58" s="208"/>
+      <c r="B58" s="264"/>
       <c r="C58" s="136"/>
       <c r="D58" s="136"/>
       <c r="E58" s="142"/>
       <c r="F58" s="149"/>
       <c r="G58" s="149" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="H58" s="200"/>
     </row>
     <row r="59" spans="1:10" s="139" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="210"/>
-      <c r="B59" s="90"/>
+      <c r="A59" s="208"/>
+      <c r="B59" s="262"/>
       <c r="C59" s="137"/>
       <c r="D59" s="137"/>
       <c r="E59" s="137"/>
       <c r="F59" s="148"/>
       <c r="G59" s="148" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="H59" s="201"/>
       <c r="I59" s="109"/>
     </row>
-    <row r="60" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="210"/>
-      <c r="B60" s="82">
+    <row r="60" spans="1:10" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="208"/>
+      <c r="B60" s="264">
         <v>44773</v>
       </c>
       <c r="C60" s="136" t="s">
@@ -9986,15 +10289,15 @@
       </c>
       <c r="F60" s="149"/>
       <c r="G60" s="149" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="H60" s="200" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="210"/>
-      <c r="B61" s="82"/>
+      <c r="A61" s="208"/>
+      <c r="B61" s="264"/>
       <c r="C61" s="136" t="s">
         <v>39</v>
       </c>
@@ -10006,27 +10309,27 @@
         <v>50000</v>
       </c>
       <c r="G61" s="146" t="s">
-        <v>352</v>
-      </c>
-      <c r="H61" s="200" t="s">
+        <v>338</v>
+      </c>
+      <c r="H61" s="223" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="210"/>
-      <c r="B62" s="82"/>
+    <row r="62" spans="1:10" ht="166.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="208"/>
+      <c r="B62" s="264"/>
       <c r="C62" s="136" t="s">
         <v>71</v>
       </c>
       <c r="D62" s="136" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E62" s="142">
         <v>23000</v>
       </c>
       <c r="F62" s="149"/>
       <c r="G62" s="149" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="H62" s="200" t="s">
         <v>167</v>
@@ -10036,29 +10339,29 @@
         <v>25500</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="210"/>
-      <c r="B63" s="82"/>
+    <row r="63" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="208"/>
+      <c r="B63" s="264"/>
       <c r="C63" s="136" t="s">
         <v>41</v>
       </c>
       <c r="D63" s="136" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E63" s="142">
         <v>1000</v>
       </c>
       <c r="F63" s="149"/>
       <c r="G63" s="149" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="H63" s="200" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="210"/>
-      <c r="B64" s="82"/>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="90" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="208"/>
+      <c r="B64" s="264"/>
       <c r="C64" s="136" t="s">
         <v>41</v>
       </c>
@@ -10068,31 +10371,31 @@
       </c>
       <c r="F64" s="149"/>
       <c r="G64" s="149" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="H64" s="202" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="210"/>
-      <c r="B65" s="226"/>
-      <c r="C65" s="227"/>
-      <c r="D65" s="227"/>
-      <c r="E65" s="227"/>
-      <c r="F65" s="228"/>
-      <c r="G65" s="228" t="s">
-        <v>352</v>
-      </c>
-      <c r="H65" s="229"/>
-    </row>
-    <row r="66" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="210"/>
-      <c r="B66" s="82">
+      <c r="A65" s="208"/>
+      <c r="B65" s="265"/>
+      <c r="C65" s="214"/>
+      <c r="D65" s="214"/>
+      <c r="E65" s="214"/>
+      <c r="F65" s="215"/>
+      <c r="G65" s="215" t="s">
+        <v>338</v>
+      </c>
+      <c r="H65" s="216"/>
+    </row>
+    <row r="66" spans="1:9" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="208"/>
+      <c r="B66" s="264">
         <v>44774</v>
       </c>
       <c r="C66" s="136" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="D66" s="136"/>
       <c r="E66" s="142">
@@ -10100,17 +10403,17 @@
       </c>
       <c r="F66" s="149"/>
       <c r="G66" s="149" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="H66" s="200" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="210"/>
-      <c r="B67" s="82"/>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="208"/>
+      <c r="B67" s="264"/>
       <c r="C67" s="136" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="D67" s="136"/>
       <c r="E67" s="142">
@@ -10118,30 +10421,30 @@
       </c>
       <c r="F67" s="149"/>
       <c r="G67" s="149" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="H67" s="200" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I67" s="107" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="210"/>
-      <c r="B68" s="226"/>
-      <c r="C68" s="227"/>
-      <c r="D68" s="227"/>
-      <c r="E68" s="227"/>
-      <c r="F68" s="228"/>
-      <c r="G68" s="228" t="s">
-        <v>352</v>
-      </c>
-      <c r="H68" s="229"/>
+      <c r="A68" s="208"/>
+      <c r="B68" s="265"/>
+      <c r="C68" s="214"/>
+      <c r="D68" s="214"/>
+      <c r="E68" s="214"/>
+      <c r="F68" s="215"/>
+      <c r="G68" s="215" t="s">
+        <v>338</v>
+      </c>
+      <c r="H68" s="216"/>
     </row>
     <row r="69" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="210"/>
-      <c r="B69" s="82">
+      <c r="A69" s="208"/>
+      <c r="B69" s="264">
         <v>44775</v>
       </c>
       <c r="C69" s="136" t="s">
@@ -10155,33 +10458,35 @@
         <v>50000</v>
       </c>
       <c r="G69" s="146" t="s">
-        <v>352</v>
-      </c>
-      <c r="H69" s="200" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="210"/>
-      <c r="B70" s="82"/>
+        <v>338</v>
+      </c>
+      <c r="H69" s="223" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="102.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="208"/>
+      <c r="B70" s="264"/>
       <c r="C70" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="D70" s="136"/>
+      <c r="D70" s="136" t="s">
+        <v>83</v>
+      </c>
       <c r="E70" s="142">
         <v>6000</v>
       </c>
       <c r="F70" s="149"/>
       <c r="G70" s="149" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="H70" s="200" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="210"/>
-      <c r="B71" s="82"/>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="90" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="208"/>
+      <c r="B71" s="264"/>
       <c r="C71" s="136" t="s">
         <v>41</v>
       </c>
@@ -10191,16 +10496,16 @@
       </c>
       <c r="F71" s="149"/>
       <c r="G71" s="149" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="H71" s="202" t="s">
         <v>171</v>
       </c>
       <c r="I71" s="132"/>
     </row>
-    <row r="72" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="210"/>
-      <c r="B72" s="82"/>
+    <row r="72" spans="1:9" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="208"/>
+      <c r="B72" s="264"/>
       <c r="C72" s="136" t="s">
         <v>41</v>
       </c>
@@ -10210,16 +10515,16 @@
       </c>
       <c r="F72" s="149"/>
       <c r="G72" s="149" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="H72" s="200" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="I72" s="132"/>
     </row>
-    <row r="73" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="210"/>
-      <c r="B73" s="82"/>
+    <row r="73" spans="1:9" ht="90" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="208"/>
+      <c r="B73" s="264"/>
       <c r="C73" s="136" t="s">
         <v>41</v>
       </c>
@@ -10229,15 +10534,15 @@
       </c>
       <c r="F73" s="149"/>
       <c r="G73" s="149" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="H73" s="202" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="210"/>
-      <c r="B74" s="82"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="90" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="208"/>
+      <c r="B74" s="264"/>
       <c r="C74" s="136" t="s">
         <v>41</v>
       </c>
@@ -10247,47 +10552,47 @@
       </c>
       <c r="F74" s="149"/>
       <c r="G74" s="149" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="H74" s="202" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="210"/>
-      <c r="B75" s="82"/>
+    <row r="75" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="208"/>
+      <c r="B75" s="264"/>
       <c r="C75" s="136" t="s">
         <v>47</v>
       </c>
       <c r="D75" s="136" t="s">
-        <v>173</v>
+        <v>378</v>
       </c>
       <c r="E75" s="142">
         <v>1000</v>
       </c>
       <c r="F75" s="149"/>
       <c r="G75" s="149" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="H75" s="200" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="210"/>
-      <c r="B76" s="226"/>
-      <c r="C76" s="227"/>
-      <c r="D76" s="227"/>
-      <c r="E76" s="227"/>
-      <c r="F76" s="228"/>
-      <c r="G76" s="228" t="s">
-        <v>352</v>
-      </c>
-      <c r="H76" s="229"/>
-    </row>
-    <row r="77" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="210"/>
-      <c r="B77" s="82">
+      <c r="A76" s="208"/>
+      <c r="B76" s="265"/>
+      <c r="C76" s="214"/>
+      <c r="D76" s="214"/>
+      <c r="E76" s="214"/>
+      <c r="F76" s="215"/>
+      <c r="G76" s="215" t="s">
+        <v>338</v>
+      </c>
+      <c r="H76" s="216"/>
+    </row>
+    <row r="77" spans="1:9" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="208"/>
+      <c r="B77" s="264">
         <v>44776</v>
       </c>
       <c r="C77" s="136" t="s">
@@ -10299,30 +10604,31 @@
       </c>
       <c r="F77" s="149"/>
       <c r="G77" s="149" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="H77" s="200" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="I77" s="107" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="210"/>
-      <c r="B78" s="82"/>
-      <c r="C78" s="136"/>
-      <c r="D78" s="136"/>
-      <c r="E78" s="142"/>
-      <c r="F78" s="149"/>
-      <c r="G78" s="149" t="s">
-        <v>352</v>
-      </c>
-      <c r="H78" s="200"/>
-    </row>
-    <row r="79" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="210"/>
-      <c r="B79" s="82">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" s="240" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="238"/>
+      <c r="B78" s="265"/>
+      <c r="C78" s="214"/>
+      <c r="D78" s="214"/>
+      <c r="E78" s="214"/>
+      <c r="F78" s="215"/>
+      <c r="G78" s="215" t="s">
+        <v>338</v>
+      </c>
+      <c r="H78" s="216"/>
+      <c r="I78" s="239"/>
+    </row>
+    <row r="79" spans="1:9" ht="90" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="208"/>
+      <c r="B79" s="264">
         <v>44777</v>
       </c>
       <c r="C79" s="136" t="s">
@@ -10334,15 +10640,15 @@
       </c>
       <c r="F79" s="149"/>
       <c r="G79" s="149" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="H79" s="200" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="210"/>
-      <c r="B80" s="82"/>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="166.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="208"/>
+      <c r="B80" s="264"/>
       <c r="C80" s="136" t="s">
         <v>47</v>
       </c>
@@ -10354,19 +10660,19 @@
       </c>
       <c r="F80" s="149"/>
       <c r="G80" s="149" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="H80" s="200" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I80" s="107">
         <f>37800/1800</f>
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="210"/>
-      <c r="B81" s="82"/>
+    <row r="81" spans="1:10" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="208"/>
+      <c r="B81" s="264"/>
       <c r="C81" s="136" t="s">
         <v>41</v>
       </c>
@@ -10376,60 +10682,60 @@
       </c>
       <c r="F81" s="149"/>
       <c r="G81" s="149" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="H81" s="200" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="I81" s="107" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="210"/>
-      <c r="B82" s="226"/>
-      <c r="C82" s="227"/>
-      <c r="D82" s="227"/>
-      <c r="E82" s="227"/>
-      <c r="F82" s="228"/>
-      <c r="G82" s="228" t="s">
-        <v>352</v>
-      </c>
-      <c r="H82" s="229"/>
+      <c r="A82" s="208"/>
+      <c r="B82" s="265"/>
+      <c r="C82" s="214"/>
+      <c r="D82" s="214"/>
+      <c r="E82" s="214"/>
+      <c r="F82" s="215"/>
+      <c r="G82" s="215" t="s">
+        <v>338</v>
+      </c>
+      <c r="H82" s="216"/>
     </row>
     <row r="83" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="210"/>
-      <c r="B83" s="82">
+      <c r="A83" s="208"/>
+      <c r="B83" s="264">
         <v>44779</v>
       </c>
       <c r="C83" s="136" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D83" s="136"/>
       <c r="E83" s="142"/>
       <c r="F83" s="149"/>
       <c r="G83" s="149" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="H83" s="200" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="210"/>
-      <c r="B84" s="226"/>
-      <c r="C84" s="227"/>
-      <c r="D84" s="227"/>
-      <c r="E84" s="227"/>
-      <c r="F84" s="228"/>
-      <c r="G84" s="228" t="s">
-        <v>352</v>
-      </c>
-      <c r="H84" s="229"/>
-    </row>
-    <row r="85" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="210"/>
-      <c r="B85" s="82">
+      <c r="A84" s="208"/>
+      <c r="B84" s="265"/>
+      <c r="C84" s="214"/>
+      <c r="D84" s="214"/>
+      <c r="E84" s="214"/>
+      <c r="F84" s="215"/>
+      <c r="G84" s="215" t="s">
+        <v>338</v>
+      </c>
+      <c r="H84" s="216"/>
+    </row>
+    <row r="85" spans="1:10" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="208"/>
+      <c r="B85" s="264">
         <v>44780</v>
       </c>
       <c r="C85" s="136" t="s">
@@ -10441,30 +10747,30 @@
       </c>
       <c r="F85" s="149"/>
       <c r="G85" s="149" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="H85" s="200" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="I85" s="107" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="210"/>
-      <c r="B86" s="226"/>
-      <c r="C86" s="227"/>
-      <c r="D86" s="227"/>
-      <c r="E86" s="227"/>
-      <c r="F86" s="228"/>
-      <c r="G86" s="228" t="s">
-        <v>352</v>
-      </c>
-      <c r="H86" s="229"/>
-    </row>
-    <row r="87" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="210"/>
-      <c r="B87" s="82">
+      <c r="A86" s="208"/>
+      <c r="B86" s="265"/>
+      <c r="C86" s="214"/>
+      <c r="D86" s="214"/>
+      <c r="E86" s="214"/>
+      <c r="F86" s="215"/>
+      <c r="G86" s="215" t="s">
+        <v>338</v>
+      </c>
+      <c r="H86" s="216"/>
+    </row>
+    <row r="87" spans="1:10" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="208"/>
+      <c r="B87" s="264">
         <v>44781</v>
       </c>
       <c r="C87" s="136" t="s">
@@ -10476,22 +10782,22 @@
       </c>
       <c r="F87" s="149"/>
       <c r="G87" s="149" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="H87" s="200" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="I87" s="107" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J87" s="46">
         <f>3*240</f>
         <v>720</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="210"/>
-      <c r="B88" s="82"/>
+    <row r="88" spans="1:10" ht="90" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="208"/>
+      <c r="B88" s="264"/>
       <c r="C88" s="136" t="s">
         <v>41</v>
       </c>
@@ -10501,30 +10807,30 @@
       </c>
       <c r="F88" s="149"/>
       <c r="G88" s="149" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="H88" s="202" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="I88" s="107" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="210"/>
-      <c r="B89" s="226"/>
-      <c r="C89" s="227"/>
-      <c r="D89" s="227"/>
-      <c r="E89" s="227"/>
-      <c r="F89" s="228"/>
-      <c r="G89" s="228" t="s">
-        <v>352</v>
-      </c>
-      <c r="H89" s="229"/>
-    </row>
-    <row r="90" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="210"/>
-      <c r="B90" s="82">
+      <c r="A89" s="208"/>
+      <c r="B89" s="265"/>
+      <c r="C89" s="214"/>
+      <c r="D89" s="214"/>
+      <c r="E89" s="214"/>
+      <c r="F89" s="215"/>
+      <c r="G89" s="215" t="s">
+        <v>338</v>
+      </c>
+      <c r="H89" s="216"/>
+    </row>
+    <row r="90" spans="1:10" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="208"/>
+      <c r="B90" s="264">
         <v>44782</v>
       </c>
       <c r="C90" s="136" t="s">
@@ -10536,48 +10842,50 @@
       </c>
       <c r="F90" s="149"/>
       <c r="G90" s="149" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="H90" s="200" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="I90" s="107" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="210"/>
-      <c r="B91" s="82"/>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="208"/>
+      <c r="B91" s="264"/>
       <c r="C91" s="136" t="s">
-        <v>44</v>
-      </c>
-      <c r="D91" s="136"/>
+        <v>41</v>
+      </c>
+      <c r="D91" s="136" t="s">
+        <v>83</v>
+      </c>
       <c r="E91" s="142">
         <v>9000</v>
       </c>
       <c r="F91" s="149"/>
       <c r="G91" s="149" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="H91" s="200" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="210"/>
-      <c r="B92" s="226"/>
-      <c r="C92" s="227"/>
-      <c r="D92" s="227"/>
-      <c r="E92" s="227"/>
-      <c r="F92" s="228"/>
-      <c r="G92" s="228" t="s">
-        <v>352</v>
-      </c>
-      <c r="H92" s="229"/>
-    </row>
-    <row r="93" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="210"/>
-      <c r="B93" s="82">
+      <c r="A92" s="208"/>
+      <c r="B92" s="265"/>
+      <c r="C92" s="214"/>
+      <c r="D92" s="214"/>
+      <c r="E92" s="214"/>
+      <c r="F92" s="215"/>
+      <c r="G92" s="215" t="s">
+        <v>338</v>
+      </c>
+      <c r="H92" s="216"/>
+    </row>
+    <row r="93" spans="1:10" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="208"/>
+      <c r="B93" s="264">
         <v>44783</v>
       </c>
       <c r="C93" s="136" t="s">
@@ -10589,15 +10897,15 @@
       </c>
       <c r="F93" s="149"/>
       <c r="G93" s="149" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="H93" s="200" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="210"/>
-      <c r="B94" s="82"/>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="208"/>
+      <c r="B94" s="264"/>
       <c r="C94" s="136" t="s">
         <v>41</v>
       </c>
@@ -10607,15 +10915,15 @@
       </c>
       <c r="F94" s="149"/>
       <c r="G94" s="149" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="H94" s="200" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="210"/>
-      <c r="B95" s="82"/>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="208"/>
+      <c r="B95" s="264"/>
       <c r="C95" s="136" t="s">
         <v>41</v>
       </c>
@@ -10625,27 +10933,27 @@
       </c>
       <c r="F95" s="149"/>
       <c r="G95" s="149" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="H95" s="200" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="210"/>
-      <c r="B96" s="226"/>
-      <c r="C96" s="227"/>
-      <c r="D96" s="227"/>
-      <c r="E96" s="227"/>
-      <c r="F96" s="228"/>
-      <c r="G96" s="228" t="s">
-        <v>352</v>
-      </c>
-      <c r="H96" s="229"/>
-    </row>
-    <row r="97" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="210"/>
-      <c r="B97" s="82">
+      <c r="A96" s="208"/>
+      <c r="B96" s="265"/>
+      <c r="C96" s="214"/>
+      <c r="D96" s="214"/>
+      <c r="E96" s="214"/>
+      <c r="F96" s="215"/>
+      <c r="G96" s="215" t="s">
+        <v>338</v>
+      </c>
+      <c r="H96" s="216"/>
+    </row>
+    <row r="97" spans="1:9" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="208"/>
+      <c r="B97" s="264">
         <v>44784</v>
       </c>
       <c r="C97" s="136" t="s">
@@ -10657,27 +10965,27 @@
       </c>
       <c r="F97" s="149"/>
       <c r="G97" s="149" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="H97" s="200" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="210"/>
-      <c r="B98" s="226"/>
-      <c r="C98" s="227"/>
-      <c r="D98" s="227"/>
-      <c r="E98" s="227"/>
-      <c r="F98" s="228"/>
-      <c r="G98" s="228" t="s">
-        <v>352</v>
-      </c>
-      <c r="H98" s="229"/>
-    </row>
-    <row r="99" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="210"/>
-      <c r="B99" s="82">
+      <c r="A98" s="208"/>
+      <c r="B98" s="265"/>
+      <c r="C98" s="214"/>
+      <c r="D98" s="214"/>
+      <c r="E98" s="214"/>
+      <c r="F98" s="215"/>
+      <c r="G98" s="215" t="s">
+        <v>338</v>
+      </c>
+      <c r="H98" s="216"/>
+    </row>
+    <row r="99" spans="1:9" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="208"/>
+      <c r="B99" s="264">
         <v>44786</v>
       </c>
       <c r="C99" s="136" t="s">
@@ -10690,27 +10998,27 @@
       </c>
       <c r="F99" s="149"/>
       <c r="G99" s="149" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="H99" s="200" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="210"/>
-      <c r="B100" s="226"/>
-      <c r="C100" s="227"/>
-      <c r="D100" s="227"/>
-      <c r="E100" s="227"/>
-      <c r="F100" s="228"/>
-      <c r="G100" s="228" t="s">
-        <v>352</v>
-      </c>
-      <c r="H100" s="229"/>
-    </row>
-    <row r="101" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="210"/>
-      <c r="B101" s="82">
+      <c r="A100" s="208"/>
+      <c r="B100" s="265"/>
+      <c r="C100" s="214"/>
+      <c r="D100" s="214"/>
+      <c r="E100" s="214"/>
+      <c r="F100" s="215"/>
+      <c r="G100" s="215" t="s">
+        <v>338</v>
+      </c>
+      <c r="H100" s="216"/>
+    </row>
+    <row r="101" spans="1:9" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="208"/>
+      <c r="B101" s="264">
         <v>44788</v>
       </c>
       <c r="C101" s="136" t="s">
@@ -10722,15 +11030,15 @@
       </c>
       <c r="F101" s="149"/>
       <c r="G101" s="149" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="H101" s="200" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="210"/>
-      <c r="B102" s="82"/>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="208"/>
+      <c r="B102" s="264"/>
       <c r="C102" s="136" t="s">
         <v>47</v>
       </c>
@@ -10740,15 +11048,15 @@
       </c>
       <c r="F102" s="149"/>
       <c r="G102" s="149" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="H102" s="200" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="210"/>
-      <c r="B103" s="82"/>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="166.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="208"/>
+      <c r="B103" s="264"/>
       <c r="C103" s="136" t="s">
         <v>47</v>
       </c>
@@ -10758,27 +11066,27 @@
       </c>
       <c r="F103" s="149"/>
       <c r="G103" s="149" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="H103" s="200" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="210"/>
-      <c r="B104" s="226"/>
-      <c r="C104" s="227"/>
-      <c r="D104" s="227"/>
-      <c r="E104" s="227"/>
-      <c r="F104" s="228"/>
-      <c r="G104" s="228" t="s">
-        <v>352</v>
-      </c>
-      <c r="H104" s="229"/>
-    </row>
-    <row r="105" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="210"/>
-      <c r="B105" s="82">
+      <c r="A104" s="208"/>
+      <c r="B104" s="265"/>
+      <c r="C104" s="214"/>
+      <c r="D104" s="214"/>
+      <c r="E104" s="214"/>
+      <c r="F104" s="215"/>
+      <c r="G104" s="215" t="s">
+        <v>338</v>
+      </c>
+      <c r="H104" s="216"/>
+    </row>
+    <row r="105" spans="1:9" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="208"/>
+      <c r="B105" s="264">
         <v>44789</v>
       </c>
       <c r="C105" s="136" t="s">
@@ -10790,34 +11098,36 @@
       </c>
       <c r="F105" s="149"/>
       <c r="G105" s="149" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="H105" s="200" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="210"/>
-      <c r="B106" s="82"/>
-      <c r="C106" s="136"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="208"/>
+      <c r="B106" s="264"/>
+      <c r="C106" s="136" t="s">
+        <v>41</v>
+      </c>
       <c r="D106" s="136"/>
       <c r="E106" s="142">
         <v>420</v>
       </c>
       <c r="F106" s="149"/>
       <c r="G106" s="149" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="H106" s="200" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="I106" s="107" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="210"/>
-      <c r="B107" s="82"/>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="208"/>
+      <c r="B107" s="264"/>
       <c r="C107" s="136" t="s">
         <v>41</v>
       </c>
@@ -10827,27 +11137,27 @@
       </c>
       <c r="F107" s="149"/>
       <c r="G107" s="149" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="H107" s="200" t="s">
-        <v>331</v>
+        <v>361</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="210"/>
-      <c r="B108" s="226"/>
-      <c r="C108" s="227"/>
-      <c r="D108" s="227"/>
-      <c r="E108" s="227"/>
-      <c r="F108" s="228"/>
-      <c r="G108" s="228" t="s">
-        <v>352</v>
-      </c>
-      <c r="H108" s="229"/>
-    </row>
-    <row r="109" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="210"/>
-      <c r="B109" s="82">
+      <c r="A108" s="208"/>
+      <c r="B108" s="265"/>
+      <c r="C108" s="214"/>
+      <c r="D108" s="214"/>
+      <c r="E108" s="214"/>
+      <c r="F108" s="215"/>
+      <c r="G108" s="215" t="s">
+        <v>338</v>
+      </c>
+      <c r="H108" s="216"/>
+    </row>
+    <row r="109" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="208"/>
+      <c r="B109" s="264">
         <v>44790</v>
       </c>
       <c r="C109" s="136" t="s">
@@ -10859,18 +11169,18 @@
       </c>
       <c r="F109" s="149"/>
       <c r="G109" s="149" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="H109" s="200" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I109" s="108" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="210"/>
-      <c r="B110" s="82"/>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="208"/>
+      <c r="B110" s="264"/>
       <c r="C110" s="136" t="s">
         <v>41</v>
       </c>
@@ -10880,18 +11190,18 @@
       </c>
       <c r="F110" s="149"/>
       <c r="G110" s="149" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="H110" s="200" t="s">
-        <v>245</v>
+        <v>362</v>
       </c>
       <c r="I110" s="108" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="210"/>
-      <c r="B111" s="82"/>
+      <c r="A111" s="208"/>
+      <c r="B111" s="264"/>
       <c r="C111" s="136" t="s">
         <v>39</v>
       </c>
@@ -10903,30 +11213,31 @@
         <v>100000</v>
       </c>
       <c r="G111" s="146" t="s">
-        <v>352</v>
-      </c>
-      <c r="H111" s="200" t="s">
-        <v>250</v>
+        <v>338</v>
+      </c>
+      <c r="H111" s="223" t="s">
+        <v>363</v>
       </c>
       <c r="I111" s="153" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="210"/>
-      <c r="B112" s="82"/>
-      <c r="C112" s="136"/>
-      <c r="D112" s="136"/>
-      <c r="E112" s="142"/>
-      <c r="F112" s="149"/>
-      <c r="G112" s="149" t="s">
-        <v>352</v>
-      </c>
-      <c r="H112" s="200"/>
-    </row>
-    <row r="113" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="210"/>
-      <c r="B113" s="82">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" s="240" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="238"/>
+      <c r="B112" s="265"/>
+      <c r="C112" s="214"/>
+      <c r="D112" s="214"/>
+      <c r="E112" s="214"/>
+      <c r="F112" s="215"/>
+      <c r="G112" s="215" t="s">
+        <v>338</v>
+      </c>
+      <c r="H112" s="216"/>
+      <c r="I112" s="239"/>
+    </row>
+    <row r="113" spans="1:11" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="208"/>
+      <c r="B113" s="264">
         <v>44791</v>
       </c>
       <c r="C113" s="136" t="s">
@@ -10938,15 +11249,15 @@
       </c>
       <c r="F113" s="149"/>
       <c r="G113" s="149" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="H113" s="200" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="210"/>
-      <c r="B114" s="82"/>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="208"/>
+      <c r="B114" s="264"/>
       <c r="C114" s="136" t="s">
         <v>41</v>
       </c>
@@ -10956,18 +11267,18 @@
       </c>
       <c r="F114" s="149"/>
       <c r="G114" s="149" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="H114" s="200" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="I114" s="107" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="210"/>
-      <c r="B115" s="82"/>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="115.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="208"/>
+      <c r="B115" s="264"/>
       <c r="C115" s="136" t="s">
         <v>41</v>
       </c>
@@ -10977,15 +11288,15 @@
       </c>
       <c r="F115" s="149"/>
       <c r="G115" s="149" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="H115" s="200" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="210"/>
-      <c r="B116" s="82"/>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="208"/>
+      <c r="B116" s="264"/>
       <c r="C116" s="136" t="s">
         <v>47</v>
       </c>
@@ -10995,27 +11306,27 @@
       </c>
       <c r="F116" s="149"/>
       <c r="G116" s="149" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="H116" s="200" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="210"/>
-      <c r="B117" s="226"/>
-      <c r="C117" s="227"/>
-      <c r="D117" s="227"/>
-      <c r="E117" s="227"/>
-      <c r="F117" s="228"/>
-      <c r="G117" s="228" t="s">
-        <v>352</v>
-      </c>
-      <c r="H117" s="229"/>
-    </row>
-    <row r="118" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="210"/>
-      <c r="B118" s="82">
+      <c r="A117" s="208"/>
+      <c r="B117" s="265"/>
+      <c r="C117" s="214"/>
+      <c r="D117" s="214"/>
+      <c r="E117" s="214"/>
+      <c r="F117" s="215"/>
+      <c r="G117" s="215" t="s">
+        <v>338</v>
+      </c>
+      <c r="H117" s="216"/>
+    </row>
+    <row r="118" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="208"/>
+      <c r="B118" s="264">
         <v>44793</v>
       </c>
       <c r="C118" s="136" t="s">
@@ -11027,18 +11338,18 @@
       </c>
       <c r="F118" s="149"/>
       <c r="G118" s="149" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="H118" s="200" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="I118" s="107" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="210"/>
-      <c r="B119" s="82"/>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="208"/>
+      <c r="B119" s="264"/>
       <c r="C119" s="136" t="s">
         <v>41</v>
       </c>
@@ -11048,13 +11359,13 @@
       </c>
       <c r="F119" s="149"/>
       <c r="G119" s="149" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="H119" s="200" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="I119" s="108" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="J119" s="46">
         <v>12300</v>
@@ -11064,23 +11375,25 @@
         <v>450</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="210"/>
-      <c r="B120" s="82"/>
-      <c r="C120" s="136"/>
+    <row r="120" spans="1:11" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="208"/>
+      <c r="B120" s="264"/>
+      <c r="C120" s="136" t="s">
+        <v>41</v>
+      </c>
       <c r="D120" s="136"/>
       <c r="E120" s="142">
         <v>5000</v>
       </c>
       <c r="F120" s="149"/>
       <c r="G120" s="149" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="H120" s="200" t="s">
-        <v>364</v>
-      </c>
-      <c r="I120" s="246" t="s">
-        <v>365</v>
+        <v>348</v>
+      </c>
+      <c r="I120" s="230" t="s">
+        <v>349</v>
       </c>
       <c r="J120" s="143" t="e">
         <f>J119-I120</f>
@@ -11088,20 +11401,20 @@
       </c>
     </row>
     <row r="121" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="210"/>
-      <c r="B121" s="226"/>
-      <c r="C121" s="227"/>
-      <c r="D121" s="227"/>
-      <c r="E121" s="227"/>
-      <c r="F121" s="228"/>
-      <c r="G121" s="228" t="s">
-        <v>352</v>
-      </c>
-      <c r="H121" s="229"/>
-    </row>
-    <row r="122" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="210"/>
-      <c r="B122" s="82">
+      <c r="A121" s="208"/>
+      <c r="B121" s="265"/>
+      <c r="C121" s="214"/>
+      <c r="D121" s="214"/>
+      <c r="E121" s="214"/>
+      <c r="F121" s="215"/>
+      <c r="G121" s="215" t="s">
+        <v>338</v>
+      </c>
+      <c r="H121" s="216"/>
+    </row>
+    <row r="122" spans="1:11" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="208"/>
+      <c r="B122" s="264">
         <v>44794</v>
       </c>
       <c r="C122" s="136" t="s">
@@ -11113,18 +11426,18 @@
       </c>
       <c r="F122" s="149"/>
       <c r="G122" s="149" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="H122" s="200" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="I122" s="107" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="210"/>
-      <c r="B123" s="82"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="208"/>
+      <c r="B123" s="264"/>
       <c r="C123" s="136" t="s">
         <v>44</v>
       </c>
@@ -11137,12 +11450,12 @@
         <v>45</v>
       </c>
       <c r="H123" s="200" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="210"/>
-      <c r="B124" s="82"/>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="208"/>
+      <c r="B124" s="264"/>
       <c r="C124" s="136" t="s">
         <v>41</v>
       </c>
@@ -11152,43 +11465,45 @@
       </c>
       <c r="F124" s="149"/>
       <c r="G124" s="149" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="H124" s="200" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="210"/>
-      <c r="B125" s="82"/>
-      <c r="C125" s="136"/>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="208"/>
+      <c r="B125" s="264"/>
+      <c r="C125" s="136" t="s">
+        <v>41</v>
+      </c>
       <c r="D125" s="136"/>
       <c r="E125" s="142">
         <v>250</v>
       </c>
       <c r="F125" s="149"/>
       <c r="G125" s="149" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="H125" s="200" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="210"/>
-      <c r="B126" s="226"/>
-      <c r="C126" s="227"/>
-      <c r="D126" s="227"/>
-      <c r="E126" s="227"/>
-      <c r="F126" s="228"/>
-      <c r="G126" s="228" t="s">
-        <v>352</v>
-      </c>
-      <c r="H126" s="229"/>
-    </row>
-    <row r="127" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="210"/>
-      <c r="B127" s="82">
+      <c r="A126" s="208"/>
+      <c r="B126" s="265"/>
+      <c r="C126" s="214"/>
+      <c r="D126" s="214"/>
+      <c r="E126" s="214"/>
+      <c r="F126" s="215"/>
+      <c r="G126" s="215" t="s">
+        <v>338</v>
+      </c>
+      <c r="H126" s="216"/>
+    </row>
+    <row r="127" spans="1:11" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="208"/>
+      <c r="B127" s="264">
         <v>44795</v>
       </c>
       <c r="C127" s="136" t="s">
@@ -11200,18 +11515,18 @@
       </c>
       <c r="F127" s="149"/>
       <c r="G127" s="149" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="H127" s="200" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="I127" s="107" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="210"/>
-      <c r="B128" s="82"/>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="208"/>
+      <c r="B128" s="264"/>
       <c r="C128" s="136" t="s">
         <v>41</v>
       </c>
@@ -11221,15 +11536,15 @@
       </c>
       <c r="F128" s="149"/>
       <c r="G128" s="149" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="H128" s="200" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="210"/>
-      <c r="B129" s="82"/>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="208"/>
+      <c r="B129" s="264"/>
       <c r="C129" s="136" t="s">
         <v>44</v>
       </c>
@@ -11242,15 +11557,15 @@
         <v>45</v>
       </c>
       <c r="H129" s="200" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="I129" s="107" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="210"/>
-      <c r="B130" s="82"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="208"/>
+      <c r="B130" s="264"/>
       <c r="C130" s="136" t="s">
         <v>41</v>
       </c>
@@ -11260,30 +11575,30 @@
       </c>
       <c r="F130" s="149"/>
       <c r="G130" s="149" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="H130" s="200" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="I130" s="107" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="210"/>
-      <c r="B131" s="226"/>
-      <c r="C131" s="227"/>
-      <c r="D131" s="227"/>
-      <c r="E131" s="227"/>
-      <c r="F131" s="228"/>
-      <c r="G131" s="228" t="s">
-        <v>352</v>
-      </c>
-      <c r="H131" s="229"/>
+      <c r="A131" s="208"/>
+      <c r="B131" s="265"/>
+      <c r="C131" s="214"/>
+      <c r="D131" s="214"/>
+      <c r="E131" s="214"/>
+      <c r="F131" s="215"/>
+      <c r="G131" s="215" t="s">
+        <v>338</v>
+      </c>
+      <c r="H131" s="216"/>
     </row>
     <row r="132" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="210"/>
-      <c r="B132" s="82">
+      <c r="A132" s="208"/>
+      <c r="B132" s="264">
         <v>44796</v>
       </c>
       <c r="C132" s="136" t="s">
@@ -11295,17 +11610,17 @@
         <v>100000</v>
       </c>
       <c r="G132" s="146" t="s">
-        <v>352</v>
-      </c>
-      <c r="H132" s="200" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="210"/>
-      <c r="B133" s="82"/>
+        <v>338</v>
+      </c>
+      <c r="H132" s="223" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="208"/>
+      <c r="B133" s="264"/>
       <c r="C133" s="136" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="D133" s="136"/>
       <c r="E133" s="142">
@@ -11313,32 +11628,36 @@
       </c>
       <c r="F133" s="149"/>
       <c r="G133" s="149" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="H133" s="200" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="210"/>
-      <c r="B134" s="82"/>
-      <c r="C134" s="136"/>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="208"/>
+      <c r="B134" s="264"/>
+      <c r="C134" s="136" t="s">
+        <v>41</v>
+      </c>
       <c r="D134" s="136"/>
       <c r="E134" s="142">
         <v>5900</v>
       </c>
       <c r="F134" s="149"/>
       <c r="G134" s="149" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="H134" s="200" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="210"/>
-      <c r="B135" s="82"/>
-      <c r="C135" s="136"/>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="208"/>
+      <c r="B135" s="264"/>
+      <c r="C135" s="136" t="s">
+        <v>41</v>
+      </c>
       <c r="D135" s="136"/>
       <c r="E135" s="142">
         <v>500</v>
@@ -11352,20 +11671,20 @@
       </c>
     </row>
     <row r="136" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="210"/>
-      <c r="B136" s="82"/>
+      <c r="A136" s="208"/>
+      <c r="B136" s="264"/>
       <c r="C136" s="136"/>
       <c r="D136" s="136"/>
       <c r="E136" s="142"/>
       <c r="F136" s="149"/>
       <c r="G136" s="149" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="H136" s="200"/>
     </row>
-    <row r="137" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="210"/>
-      <c r="B137" s="82"/>
+    <row r="137" spans="1:9" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="208"/>
+      <c r="B137" s="264"/>
       <c r="C137" s="136" t="s">
         <v>41</v>
       </c>
@@ -11375,18 +11694,18 @@
       </c>
       <c r="F137" s="149"/>
       <c r="G137" s="149" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="H137" s="200" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I137" s="107" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="210"/>
-      <c r="B138" s="82"/>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="208"/>
+      <c r="B138" s="264"/>
       <c r="C138" s="136" t="s">
         <v>41</v>
       </c>
@@ -11396,27 +11715,27 @@
       </c>
       <c r="F138" s="149"/>
       <c r="G138" s="149" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="H138" s="200" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="210"/>
-      <c r="B139" s="226"/>
-      <c r="C139" s="227"/>
-      <c r="D139" s="227"/>
-      <c r="E139" s="227"/>
-      <c r="F139" s="228"/>
-      <c r="G139" s="228" t="s">
-        <v>352</v>
-      </c>
-      <c r="H139" s="229"/>
-    </row>
-    <row r="140" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="210"/>
-      <c r="B140" s="82">
+      <c r="A139" s="208"/>
+      <c r="B139" s="265"/>
+      <c r="C139" s="214"/>
+      <c r="D139" s="214"/>
+      <c r="E139" s="214"/>
+      <c r="F139" s="215"/>
+      <c r="G139" s="215" t="s">
+        <v>338</v>
+      </c>
+      <c r="H139" s="216"/>
+    </row>
+    <row r="140" spans="1:9" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="208"/>
+      <c r="B140" s="264">
         <v>44797</v>
       </c>
       <c r="C140" s="136" t="s">
@@ -11428,15 +11747,15 @@
       </c>
       <c r="F140" s="149"/>
       <c r="G140" s="149" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="H140" s="200" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="210"/>
-      <c r="B141" s="82"/>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="208"/>
+      <c r="B141" s="264"/>
       <c r="C141" s="136" t="s">
         <v>41</v>
       </c>
@@ -11446,31 +11765,31 @@
       </c>
       <c r="F141" s="149"/>
       <c r="G141" s="149" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="H141" s="200" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="210"/>
-      <c r="B142" s="226"/>
-      <c r="C142" s="227"/>
-      <c r="D142" s="227"/>
-      <c r="E142" s="227"/>
-      <c r="F142" s="228"/>
-      <c r="G142" s="228" t="s">
-        <v>352</v>
-      </c>
-      <c r="H142" s="229"/>
-    </row>
-    <row r="143" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="210"/>
-      <c r="B143" s="82">
+      <c r="A142" s="208"/>
+      <c r="B142" s="265"/>
+      <c r="C142" s="214"/>
+      <c r="D142" s="214"/>
+      <c r="E142" s="214"/>
+      <c r="F142" s="215"/>
+      <c r="G142" s="215" t="s">
+        <v>338</v>
+      </c>
+      <c r="H142" s="216"/>
+    </row>
+    <row r="143" spans="1:9" ht="102.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="208"/>
+      <c r="B143" s="264">
         <v>44798</v>
       </c>
       <c r="C143" s="136" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="D143" s="136"/>
       <c r="E143" s="142">
@@ -11478,18 +11797,18 @@
       </c>
       <c r="F143" s="149"/>
       <c r="G143" s="149" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="H143" s="200" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="I143" s="107" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="210"/>
-      <c r="B144" s="82"/>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="208"/>
+      <c r="B144" s="264"/>
       <c r="C144" s="136" t="s">
         <v>41</v>
       </c>
@@ -11499,27 +11818,27 @@
       </c>
       <c r="F144" s="149"/>
       <c r="G144" s="149" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="H144" s="200" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="210"/>
-      <c r="B145" s="226"/>
-      <c r="C145" s="227"/>
-      <c r="D145" s="227"/>
-      <c r="E145" s="227"/>
-      <c r="F145" s="228"/>
-      <c r="G145" s="228" t="s">
-        <v>352</v>
-      </c>
-      <c r="H145" s="229"/>
-    </row>
-    <row r="146" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="210"/>
-      <c r="B146" s="82">
+      <c r="A145" s="208"/>
+      <c r="B145" s="265"/>
+      <c r="C145" s="214"/>
+      <c r="D145" s="214"/>
+      <c r="E145" s="214"/>
+      <c r="F145" s="215"/>
+      <c r="G145" s="215" t="s">
+        <v>338</v>
+      </c>
+      <c r="H145" s="216"/>
+    </row>
+    <row r="146" spans="1:9" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="208"/>
+      <c r="B146" s="264">
         <v>44800</v>
       </c>
       <c r="C146" s="136" t="s">
@@ -11531,60 +11850,62 @@
       </c>
       <c r="F146" s="149"/>
       <c r="G146" s="149" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="H146" s="200" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="210"/>
-      <c r="B147" s="226"/>
-      <c r="C147" s="227"/>
-      <c r="D147" s="227"/>
-      <c r="E147" s="227"/>
-      <c r="F147" s="228"/>
-      <c r="G147" s="228" t="s">
-        <v>352</v>
-      </c>
-      <c r="H147" s="229"/>
-    </row>
-    <row r="148" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="210"/>
-      <c r="B148" s="82">
+      <c r="A147" s="208"/>
+      <c r="B147" s="265"/>
+      <c r="C147" s="214"/>
+      <c r="D147" s="214"/>
+      <c r="E147" s="214"/>
+      <c r="F147" s="215"/>
+      <c r="G147" s="215" t="s">
+        <v>338</v>
+      </c>
+      <c r="H147" s="216"/>
+    </row>
+    <row r="148" spans="1:9" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="208"/>
+      <c r="B148" s="264">
         <v>44801</v>
       </c>
-      <c r="C148" s="136"/>
+      <c r="C148" s="136" t="s">
+        <v>41</v>
+      </c>
       <c r="D148" s="136"/>
       <c r="E148" s="142">
         <v>600</v>
       </c>
       <c r="F148" s="149"/>
       <c r="G148" s="149" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="H148" s="200" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="I148" s="107" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="210"/>
-      <c r="B149" s="226"/>
-      <c r="C149" s="227"/>
-      <c r="D149" s="227"/>
-      <c r="E149" s="227"/>
-      <c r="F149" s="228"/>
-      <c r="G149" s="228" t="s">
-        <v>352</v>
-      </c>
-      <c r="H149" s="229"/>
-    </row>
-    <row r="150" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="210"/>
-      <c r="B150" s="82">
+      <c r="A149" s="208"/>
+      <c r="B149" s="265"/>
+      <c r="C149" s="214"/>
+      <c r="D149" s="214"/>
+      <c r="E149" s="214"/>
+      <c r="F149" s="215"/>
+      <c r="G149" s="215" t="s">
+        <v>338</v>
+      </c>
+      <c r="H149" s="216"/>
+    </row>
+    <row r="150" spans="1:9" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="208"/>
+      <c r="B150" s="264">
         <v>44802</v>
       </c>
       <c r="C150" s="136" t="s">
@@ -11596,27 +11917,27 @@
       </c>
       <c r="F150" s="149"/>
       <c r="G150" s="149" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="H150" s="200" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="210"/>
-      <c r="B151" s="226"/>
-      <c r="C151" s="227"/>
-      <c r="D151" s="227"/>
-      <c r="E151" s="227"/>
-      <c r="F151" s="228"/>
-      <c r="G151" s="228" t="s">
-        <v>352</v>
-      </c>
-      <c r="H151" s="229"/>
-    </row>
-    <row r="152" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="210"/>
-      <c r="B152" s="82">
+      <c r="A151" s="208"/>
+      <c r="B151" s="265"/>
+      <c r="C151" s="214"/>
+      <c r="D151" s="214"/>
+      <c r="E151" s="214"/>
+      <c r="F151" s="215"/>
+      <c r="G151" s="215" t="s">
+        <v>338</v>
+      </c>
+      <c r="H151" s="216"/>
+    </row>
+    <row r="152" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="208"/>
+      <c r="B152" s="264">
         <v>44803</v>
       </c>
       <c r="C152" s="136" t="s">
@@ -11631,12 +11952,12 @@
         <v>45</v>
       </c>
       <c r="H152" s="200" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="210"/>
-      <c r="B153" s="82"/>
+        <v>367</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="208"/>
+      <c r="B153" s="264"/>
       <c r="C153" s="136" t="s">
         <v>41</v>
       </c>
@@ -11646,45 +11967,47 @@
       </c>
       <c r="F153" s="149"/>
       <c r="G153" s="149" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="H153" s="200" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="210"/>
-      <c r="B154" s="82"/>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="208"/>
+      <c r="B154" s="264"/>
       <c r="C154" s="136" t="s">
-        <v>332</v>
-      </c>
-      <c r="D154" s="136"/>
+        <v>41</v>
+      </c>
+      <c r="D154" s="136" t="s">
+        <v>83</v>
+      </c>
       <c r="E154" s="142">
         <v>3000</v>
       </c>
       <c r="F154" s="149"/>
       <c r="G154" s="149" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="H154" s="200" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="210"/>
-      <c r="B155" s="226"/>
-      <c r="C155" s="227"/>
-      <c r="D155" s="227"/>
-      <c r="E155" s="227"/>
-      <c r="F155" s="228"/>
-      <c r="G155" s="228" t="s">
-        <v>352</v>
-      </c>
-      <c r="H155" s="229"/>
-    </row>
-    <row r="156" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="210"/>
-      <c r="B156" s="82">
+      <c r="A155" s="208"/>
+      <c r="B155" s="265"/>
+      <c r="C155" s="214"/>
+      <c r="D155" s="214"/>
+      <c r="E155" s="214"/>
+      <c r="F155" s="215"/>
+      <c r="G155" s="215" t="s">
+        <v>338</v>
+      </c>
+      <c r="H155" s="216"/>
+    </row>
+    <row r="156" spans="1:9" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="208"/>
+      <c r="B156" s="264">
         <v>44804</v>
       </c>
       <c r="C156" s="136" t="s">
@@ -11696,15 +12019,15 @@
       </c>
       <c r="F156" s="149"/>
       <c r="G156" s="149" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="H156" s="200" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="210"/>
-      <c r="B157" s="82"/>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="208"/>
+      <c r="B157" s="264"/>
       <c r="C157" s="136" t="s">
         <v>41</v>
       </c>
@@ -11714,15 +12037,15 @@
       </c>
       <c r="F157" s="149"/>
       <c r="G157" s="149" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="H157" s="200" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="210"/>
-      <c r="B158" s="82"/>
+      <c r="A158" s="208"/>
+      <c r="B158" s="264"/>
       <c r="C158" s="136" t="s">
         <v>39</v>
       </c>
@@ -11734,15 +12057,15 @@
         <v>2000</v>
       </c>
       <c r="G158" s="146" t="s">
-        <v>352</v>
-      </c>
-      <c r="H158" s="237" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="210"/>
-      <c r="B159" s="82"/>
+        <v>338</v>
+      </c>
+      <c r="H158" s="223" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="208"/>
+      <c r="B159" s="264"/>
       <c r="C159" s="136" t="s">
         <v>41</v>
       </c>
@@ -11752,44 +12075,44 @@
       </c>
       <c r="F159" s="149"/>
       <c r="G159" s="149" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="H159" s="200" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="238"/>
-      <c r="C160" s="239" t="s">
+      <c r="B160" s="266"/>
+      <c r="C160" s="224" t="s">
         <v>41</v>
       </c>
-      <c r="D160" s="239"/>
-      <c r="E160" s="240">
+      <c r="D160" s="224"/>
+      <c r="E160" s="225">
         <v>400</v>
       </c>
-      <c r="F160" s="239"/>
-      <c r="G160" s="239" t="s">
-        <v>358</v>
-      </c>
-      <c r="H160" s="241" t="s">
-        <v>314</v>
+      <c r="F160" s="224"/>
+      <c r="G160" s="224" t="s">
+        <v>343</v>
+      </c>
+      <c r="H160" s="226" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="161" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="210"/>
-      <c r="B161" s="226"/>
-      <c r="C161" s="227"/>
-      <c r="D161" s="227"/>
-      <c r="E161" s="227"/>
-      <c r="F161" s="228"/>
-      <c r="G161" s="228" t="s">
-        <v>352</v>
-      </c>
-      <c r="H161" s="229"/>
+      <c r="A161" s="208"/>
+      <c r="B161" s="265"/>
+      <c r="C161" s="214"/>
+      <c r="D161" s="214"/>
+      <c r="E161" s="214"/>
+      <c r="F161" s="215"/>
+      <c r="G161" s="215" t="s">
+        <v>338</v>
+      </c>
+      <c r="H161" s="216"/>
     </row>
     <row r="162" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="210"/>
-      <c r="B162" s="82">
+      <c r="A162" s="208"/>
+      <c r="B162" s="264">
         <v>44805</v>
       </c>
       <c r="C162" s="136"/>
@@ -11797,25 +12120,27 @@
       <c r="E162" s="142"/>
       <c r="F162" s="149"/>
       <c r="G162" s="149" t="s">
-        <v>352</v>
-      </c>
-      <c r="H162" s="200"/>
+        <v>338</v>
+      </c>
+      <c r="H162" s="200" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="163" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="210"/>
-      <c r="B163" s="226"/>
-      <c r="C163" s="227"/>
-      <c r="D163" s="227"/>
-      <c r="E163" s="227"/>
-      <c r="F163" s="228"/>
-      <c r="G163" s="228" t="s">
-        <v>352</v>
-      </c>
-      <c r="H163" s="229"/>
-    </row>
-    <row r="164" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="210"/>
-      <c r="B164" s="82">
+      <c r="A163" s="208"/>
+      <c r="B163" s="265"/>
+      <c r="C163" s="214"/>
+      <c r="D163" s="214"/>
+      <c r="E163" s="214"/>
+      <c r="F163" s="215"/>
+      <c r="G163" s="215" t="s">
+        <v>338</v>
+      </c>
+      <c r="H163" s="216"/>
+    </row>
+    <row r="164" spans="1:11" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="208"/>
+      <c r="B164" s="264">
         <v>44807</v>
       </c>
       <c r="C164" s="136" t="s">
@@ -11827,33 +12152,33 @@
       </c>
       <c r="F164" s="149"/>
       <c r="G164" s="149" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="H164" s="200" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="165" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="210"/>
-      <c r="B165" s="226"/>
-      <c r="C165" s="227"/>
-      <c r="D165" s="227"/>
-      <c r="E165" s="227"/>
-      <c r="F165" s="228"/>
-      <c r="G165" s="228" t="s">
-        <v>352</v>
-      </c>
-      <c r="H165" s="229"/>
+      <c r="A165" s="208"/>
+      <c r="B165" s="265"/>
+      <c r="C165" s="214"/>
+      <c r="D165" s="214"/>
+      <c r="E165" s="214"/>
+      <c r="F165" s="215"/>
+      <c r="G165" s="215" t="s">
+        <v>338</v>
+      </c>
+      <c r="H165" s="216"/>
       <c r="I165" s="107" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="K165" s="142">
         <v>24600</v>
       </c>
     </row>
-    <row r="166" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="210"/>
-      <c r="B166" s="82">
+    <row r="166" spans="1:11" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="208"/>
+      <c r="B166" s="264">
         <v>44808</v>
       </c>
       <c r="C166" s="136" t="s">
@@ -11865,31 +12190,31 @@
       </c>
       <c r="F166" s="149"/>
       <c r="G166" s="149" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="H166" s="200" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="167" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="210"/>
-      <c r="B167" s="226"/>
-      <c r="C167" s="227"/>
-      <c r="D167" s="227"/>
-      <c r="E167" s="227"/>
-      <c r="F167" s="228"/>
-      <c r="G167" s="228" t="s">
-        <v>352</v>
-      </c>
-      <c r="H167" s="229"/>
+      <c r="A167" s="208"/>
+      <c r="B167" s="265"/>
+      <c r="C167" s="214"/>
+      <c r="D167" s="214"/>
+      <c r="E167" s="214"/>
+      <c r="F167" s="215"/>
+      <c r="G167" s="215" t="s">
+        <v>338</v>
+      </c>
+      <c r="H167" s="216"/>
       <c r="I167" s="107">
         <f>2000+600+1750+700</f>
         <v>5050</v>
       </c>
     </row>
-    <row r="168" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="210"/>
-      <c r="B168" s="82">
+    <row r="168" spans="1:11" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="208"/>
+      <c r="B168" s="264">
         <v>44809</v>
       </c>
       <c r="C168" s="136" t="s">
@@ -11901,25 +12226,25 @@
       </c>
       <c r="F168" s="149"/>
       <c r="G168" s="149" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="H168" s="200" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="169" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="226"/>
-      <c r="C169" s="227"/>
-      <c r="D169" s="227"/>
-      <c r="E169" s="227"/>
-      <c r="F169" s="228"/>
-      <c r="G169" s="228" t="s">
-        <v>352</v>
-      </c>
-      <c r="H169" s="229"/>
+      <c r="B169" s="265"/>
+      <c r="C169" s="214"/>
+      <c r="D169" s="214"/>
+      <c r="E169" s="214"/>
+      <c r="F169" s="215"/>
+      <c r="G169" s="215" t="s">
+        <v>338</v>
+      </c>
+      <c r="H169" s="216"/>
     </row>
     <row r="170" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="82">
+      <c r="B170" s="264">
         <v>44810</v>
       </c>
       <c r="C170" s="136" t="s">
@@ -11931,14 +12256,14 @@
         <v>100000</v>
       </c>
       <c r="G170" s="146" t="s">
-        <v>352</v>
-      </c>
-      <c r="H170" s="237" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B171" s="82"/>
+        <v>338</v>
+      </c>
+      <c r="H170" s="223" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" ht="102.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B171" s="264"/>
       <c r="C171" s="136" t="s">
         <v>44</v>
       </c>
@@ -11948,17 +12273,17 @@
       </c>
       <c r="F171" s="149"/>
       <c r="G171" s="149" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="H171" s="200" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="I171" s="107" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="82"/>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" ht="102.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B172" s="264"/>
       <c r="C172" s="136" t="s">
         <v>41</v>
       </c>
@@ -11968,100 +12293,104 @@
       </c>
       <c r="F172" s="149"/>
       <c r="G172" s="149" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="H172" s="200" t="s">
-        <v>369</v>
-      </c>
-      <c r="I172" s="247" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="82"/>
-      <c r="C173" s="136"/>
+        <v>352</v>
+      </c>
+      <c r="I172" s="231" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B173" s="264"/>
+      <c r="C173" s="136" t="s">
+        <v>41</v>
+      </c>
       <c r="D173" s="136"/>
       <c r="E173" s="142">
         <v>1500</v>
       </c>
       <c r="F173" s="149"/>
       <c r="G173" s="149" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="H173" s="200" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="82"/>
-      <c r="C174" s="136"/>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B174" s="264"/>
+      <c r="C174" s="136" t="s">
+        <v>41</v>
+      </c>
       <c r="D174" s="136"/>
       <c r="E174" s="142">
         <v>4700</v>
       </c>
       <c r="F174" s="149"/>
       <c r="G174" s="149" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="H174" s="200" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B175" s="82"/>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" ht="166.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B175" s="264"/>
       <c r="C175" s="136" t="s">
         <v>42</v>
       </c>
       <c r="D175" s="136" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E175" s="142">
         <v>12000</v>
       </c>
       <c r="F175" s="149"/>
       <c r="G175" s="149" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="H175" s="200" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="82"/>
+        <v>326</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" ht="166.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B176" s="264"/>
       <c r="C176" s="136" t="s">
         <v>42</v>
       </c>
       <c r="D176" s="136" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="E176" s="142">
         <v>12000</v>
       </c>
       <c r="F176" s="149"/>
       <c r="G176" s="149" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="H176" s="200" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
     </row>
     <row r="177" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="226"/>
-      <c r="C177" s="227"/>
-      <c r="D177" s="227"/>
-      <c r="E177" s="227"/>
-      <c r="F177" s="228"/>
-      <c r="G177" s="228" t="s">
-        <v>352</v>
-      </c>
-      <c r="H177" s="229"/>
+      <c r="B177" s="265"/>
+      <c r="C177" s="214"/>
+      <c r="D177" s="214"/>
+      <c r="E177" s="214"/>
+      <c r="F177" s="215"/>
+      <c r="G177" s="215" t="s">
+        <v>338</v>
+      </c>
+      <c r="H177" s="216"/>
       <c r="I177" s="107">
         <f>27*1800</f>
         <v>48600</v>
       </c>
     </row>
-    <row r="178" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="82">
+    <row r="178" spans="2:9" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B178" s="264">
         <v>44811</v>
       </c>
       <c r="C178" s="136" t="s">
@@ -12073,17 +12402,17 @@
       </c>
       <c r="F178" s="149"/>
       <c r="G178" s="149" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="H178" s="200" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I178" s="107" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="179" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B179" s="82"/>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="179" spans="2:9" ht="141" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B179" s="264"/>
       <c r="C179" s="136" t="s">
         <v>41</v>
       </c>
@@ -12093,14 +12422,14 @@
       </c>
       <c r="F179" s="149"/>
       <c r="G179" s="149" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="H179" s="200" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="180" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="82"/>
+        <v>369</v>
+      </c>
+    </row>
+    <row r="180" spans="2:9" ht="141" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B180" s="264"/>
       <c r="C180" s="136" t="s">
         <v>41</v>
       </c>
@@ -12110,25 +12439,25 @@
       </c>
       <c r="F180" s="149"/>
       <c r="G180" s="149" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="H180" s="200" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="181" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="226"/>
-      <c r="C181" s="227"/>
-      <c r="D181" s="227"/>
-      <c r="E181" s="227"/>
-      <c r="F181" s="228"/>
-      <c r="G181" s="228" t="s">
-        <v>352</v>
-      </c>
-      <c r="H181" s="229"/>
-    </row>
-    <row r="182" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B182" s="82">
+      <c r="B181" s="265"/>
+      <c r="C181" s="214"/>
+      <c r="D181" s="214"/>
+      <c r="E181" s="214"/>
+      <c r="F181" s="215"/>
+      <c r="G181" s="215" t="s">
+        <v>338</v>
+      </c>
+      <c r="H181" s="216"/>
+    </row>
+    <row r="182" spans="2:9" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B182" s="264">
         <v>44815</v>
       </c>
       <c r="C182" s="136" t="s">
@@ -12140,32 +12469,34 @@
       </c>
       <c r="F182" s="149"/>
       <c r="G182" s="149" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="H182" s="200" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I182" s="107" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="183" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B183" s="82"/>
-      <c r="C183" s="136"/>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="183" spans="2:9" ht="90" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B183" s="264"/>
+      <c r="C183" s="136" t="s">
+        <v>41</v>
+      </c>
       <c r="D183" s="136"/>
       <c r="E183" s="142">
         <v>600</v>
       </c>
       <c r="F183" s="149"/>
       <c r="G183" s="149" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="H183" s="202" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="184" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="82"/>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="184" spans="2:9" ht="141" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B184" s="264"/>
       <c r="C184" s="136" t="s">
         <v>41</v>
       </c>
@@ -12175,28 +12506,28 @@
       </c>
       <c r="F184" s="149"/>
       <c r="G184" s="149" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="H184" s="200" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="I184" s="107" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="185" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B185" s="226"/>
-      <c r="C185" s="227"/>
-      <c r="D185" s="227"/>
-      <c r="E185" s="227"/>
-      <c r="F185" s="228"/>
-      <c r="G185" s="228" t="s">
-        <v>352</v>
-      </c>
-      <c r="H185" s="229"/>
-    </row>
-    <row r="186" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="82">
+      <c r="B185" s="265"/>
+      <c r="C185" s="214"/>
+      <c r="D185" s="214"/>
+      <c r="E185" s="214"/>
+      <c r="F185" s="215"/>
+      <c r="G185" s="215" t="s">
+        <v>338</v>
+      </c>
+      <c r="H185" s="216"/>
+    </row>
+    <row r="186" spans="2:9" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B186" s="264">
         <v>44816</v>
       </c>
       <c r="C186" s="136" t="s">
@@ -12208,32 +12539,34 @@
       </c>
       <c r="F186" s="149"/>
       <c r="G186" s="149" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="H186" s="200" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I186" s="107" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="187" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="82"/>
-      <c r="C187" s="136"/>
+        <v>309</v>
+      </c>
+    </row>
+    <row r="187" spans="2:9" ht="102.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B187" s="264"/>
+      <c r="C187" s="136" t="s">
+        <v>41</v>
+      </c>
       <c r="D187" s="136"/>
       <c r="E187" s="142">
         <v>900</v>
       </c>
       <c r="F187" s="149"/>
       <c r="G187" s="149" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="H187" s="200" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="188" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="82"/>
+        <v>371</v>
+      </c>
+    </row>
+    <row r="188" spans="2:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B188" s="264"/>
       <c r="C188" s="136" t="s">
         <v>41</v>
       </c>
@@ -12249,22 +12582,22 @@
         <v>45</v>
       </c>
       <c r="I188" s="107" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
     </row>
     <row r="189" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="226"/>
-      <c r="C189" s="227"/>
-      <c r="D189" s="227"/>
-      <c r="E189" s="227"/>
-      <c r="F189" s="228"/>
-      <c r="G189" s="228" t="s">
-        <v>352</v>
-      </c>
-      <c r="H189" s="229"/>
-    </row>
-    <row r="190" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="82">
+      <c r="B189" s="265"/>
+      <c r="C189" s="214"/>
+      <c r="D189" s="214"/>
+      <c r="E189" s="214"/>
+      <c r="F189" s="215"/>
+      <c r="G189" s="215" t="s">
+        <v>338</v>
+      </c>
+      <c r="H189" s="216"/>
+    </row>
+    <row r="190" spans="2:9" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B190" s="264">
         <v>44817</v>
       </c>
       <c r="C190" s="136" t="s">
@@ -12277,28 +12610,28 @@
       </c>
       <c r="F190" s="149"/>
       <c r="G190" s="149" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="H190" s="200" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="I190" s="107" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="191" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="226"/>
-      <c r="C191" s="227"/>
-      <c r="D191" s="227"/>
-      <c r="E191" s="227"/>
-      <c r="F191" s="228"/>
-      <c r="G191" s="228" t="s">
-        <v>352</v>
-      </c>
-      <c r="H191" s="229"/>
-    </row>
-    <row r="192" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="82">
+      <c r="B191" s="265"/>
+      <c r="C191" s="214"/>
+      <c r="D191" s="214"/>
+      <c r="E191" s="214"/>
+      <c r="F191" s="215"/>
+      <c r="G191" s="215" t="s">
+        <v>338</v>
+      </c>
+      <c r="H191" s="216"/>
+    </row>
+    <row r="192" spans="2:9" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B192" s="264">
         <v>44818</v>
       </c>
       <c r="C192" s="136" t="s">
@@ -12310,17 +12643,17 @@
       </c>
       <c r="F192" s="149"/>
       <c r="G192" s="149" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="H192" s="200" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I192" s="107" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="193" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B193" s="82"/>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="193" spans="2:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B193" s="264"/>
       <c r="C193" s="136" t="s">
         <v>41</v>
       </c>
@@ -12330,14 +12663,14 @@
       </c>
       <c r="F193" s="149"/>
       <c r="G193" s="149" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="H193" s="200" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="194" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B194" s="82"/>
+        <v>372</v>
+      </c>
+    </row>
+    <row r="194" spans="2:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B194" s="264"/>
       <c r="C194" s="136" t="s">
         <v>47</v>
       </c>
@@ -12347,44 +12680,45 @@
       </c>
       <c r="F194" s="149"/>
       <c r="G194" s="149" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="H194" s="200" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="195" spans="2:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B195" s="82"/>
+        <v>373</v>
+      </c>
+    </row>
+    <row r="195" spans="2:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B195" s="264"/>
       <c r="C195" s="136" t="s">
         <v>47</v>
       </c>
       <c r="D195" s="136" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="E195" s="142">
         <v>9000</v>
       </c>
       <c r="F195" s="149"/>
       <c r="G195" s="149" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="H195" s="200" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="196" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B196" s="82"/>
-      <c r="C196" s="136"/>
-      <c r="D196" s="136"/>
-      <c r="E196" s="142"/>
-      <c r="F196" s="149"/>
-      <c r="G196" s="149" t="s">
-        <v>352</v>
-      </c>
-      <c r="H196" s="200"/>
-    </row>
-    <row r="197" spans="2:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="82">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="196" spans="2:9" s="240" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B196" s="265"/>
+      <c r="C196" s="214"/>
+      <c r="D196" s="214"/>
+      <c r="E196" s="214"/>
+      <c r="F196" s="215"/>
+      <c r="G196" s="215" t="s">
+        <v>338</v>
+      </c>
+      <c r="H196" s="216"/>
+      <c r="I196" s="239"/>
+    </row>
+    <row r="197" spans="2:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B197" s="264">
         <v>44819</v>
       </c>
       <c r="C197" s="136" t="s">
@@ -12398,17 +12732,17 @@
         <v>200000</v>
       </c>
       <c r="G197" s="146" t="s">
-        <v>352</v>
-      </c>
-      <c r="H197" s="237" t="s">
-        <v>340</v>
+        <v>338</v>
+      </c>
+      <c r="H197" s="223" t="s">
+        <v>375</v>
       </c>
       <c r="I197" s="107" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="198" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B198" s="82"/>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="198" spans="2:9" ht="166.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B198" s="264"/>
       <c r="C198" s="136" t="s">
         <v>47</v>
       </c>
@@ -12420,47 +12754,48 @@
       </c>
       <c r="F198" s="149"/>
       <c r="G198" s="149" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="H198" s="200" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="I198" s="107" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="199" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B199" s="82"/>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="199" spans="2:9" ht="166.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B199" s="264"/>
       <c r="C199" s="136" t="s">
         <v>47</v>
       </c>
       <c r="D199" s="136" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="E199" s="147">
         <v>34800</v>
       </c>
       <c r="F199" s="149"/>
       <c r="G199" s="149" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="H199" s="200" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="200" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B200" s="82"/>
-      <c r="C200" s="136"/>
-      <c r="D200" s="136"/>
-      <c r="E200" s="142"/>
-      <c r="F200" s="149"/>
-      <c r="G200" s="149" t="s">
-        <v>352</v>
-      </c>
-      <c r="H200" s="200"/>
-    </row>
-    <row r="201" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B201" s="82">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="200" spans="2:9" s="240" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B200" s="265"/>
+      <c r="C200" s="214"/>
+      <c r="D200" s="214"/>
+      <c r="E200" s="214"/>
+      <c r="F200" s="215"/>
+      <c r="G200" s="215" t="s">
+        <v>338</v>
+      </c>
+      <c r="H200" s="216"/>
+      <c r="I200" s="239"/>
+    </row>
+    <row r="201" spans="2:9" ht="141" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B201" s="264">
         <v>44822</v>
       </c>
       <c r="C201" s="136" t="s">
@@ -12472,14 +12807,14 @@
       </c>
       <c r="F201" s="149"/>
       <c r="G201" s="149" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="H201" s="200" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="202" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B202" s="82"/>
+        <v>328</v>
+      </c>
+    </row>
+    <row r="202" spans="2:9" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B202" s="264"/>
       <c r="C202" s="136" t="s">
         <v>41</v>
       </c>
@@ -12489,48 +12824,50 @@
       </c>
       <c r="F202" s="149"/>
       <c r="G202" s="149" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="H202" s="200" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="203" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B203" s="82"/>
-      <c r="C203" s="136"/>
-      <c r="D203" s="136"/>
-      <c r="E203" s="142"/>
-      <c r="F203" s="149"/>
-      <c r="G203" s="149" t="s">
-        <v>352</v>
-      </c>
-      <c r="H203" s="200"/>
-      <c r="I203" s="231"/>
-    </row>
-    <row r="204" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="82">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="203" spans="2:9" s="240" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B203" s="265"/>
+      <c r="C203" s="214"/>
+      <c r="D203" s="214"/>
+      <c r="E203" s="214"/>
+      <c r="F203" s="215"/>
+      <c r="G203" s="215" t="s">
+        <v>338</v>
+      </c>
+      <c r="H203" s="216"/>
+      <c r="I203" s="241"/>
+    </row>
+    <row r="204" spans="2:9" ht="102.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B204" s="264">
         <v>44823</v>
       </c>
       <c r="C204" s="136" t="s">
-        <v>44</v>
-      </c>
-      <c r="D204" s="136"/>
+        <v>41</v>
+      </c>
+      <c r="D204" s="136" t="s">
+        <v>83</v>
+      </c>
       <c r="E204" s="142">
         <v>21000</v>
       </c>
       <c r="F204" s="149"/>
       <c r="G204" s="149" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="H204" s="200" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I204" s="108" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="205" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B205" s="82"/>
+        <v>358</v>
+      </c>
+    </row>
+    <row r="205" spans="2:9" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B205" s="264"/>
       <c r="C205" s="136" t="s">
         <v>41</v>
       </c>
@@ -12540,70 +12877,522 @@
       </c>
       <c r="F205" s="149"/>
       <c r="G205" s="149" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="H205" s="200" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="206" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B206" s="82"/>
-      <c r="C206" s="136"/>
-      <c r="D206" s="136"/>
-      <c r="E206" s="142"/>
-      <c r="F206" s="149"/>
-      <c r="G206" s="149"/>
-      <c r="H206" s="200"/>
-    </row>
-    <row r="207" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B207" s="82"/>
-      <c r="C207" s="136"/>
+        <v>359</v>
+      </c>
+    </row>
+    <row r="206" spans="2:9" s="240" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B206" s="265"/>
+      <c r="C206" s="214"/>
+      <c r="D206" s="214"/>
+      <c r="E206" s="214"/>
+      <c r="F206" s="215"/>
+      <c r="G206" s="215"/>
+      <c r="H206" s="216"/>
+      <c r="I206" s="239"/>
+    </row>
+    <row r="207" spans="2:9" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B207" s="264">
+        <v>44824</v>
+      </c>
+      <c r="C207" s="136" t="s">
+        <v>41</v>
+      </c>
       <c r="D207" s="136"/>
-      <c r="E207" s="142"/>
+      <c r="E207" s="142">
+        <v>240</v>
+      </c>
       <c r="F207" s="149"/>
-      <c r="G207" s="149"/>
-      <c r="H207" s="200"/>
-    </row>
-    <row r="208" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B208" s="85"/>
-      <c r="C208" s="86"/>
-      <c r="D208" s="86"/>
-      <c r="E208" s="204"/>
-      <c r="F208" s="205"/>
-      <c r="G208" s="205"/>
-      <c r="H208" s="242"/>
-    </row>
-    <row r="209" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="248"/>
-      <c r="C209" s="249"/>
-      <c r="D209" s="249"/>
-      <c r="E209" s="250"/>
+      <c r="G207" s="149" t="s">
+        <v>340</v>
+      </c>
+      <c r="H207" s="200" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="208" spans="2:9" s="240" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B208" s="267"/>
+      <c r="C208" s="242"/>
+      <c r="D208" s="242"/>
+      <c r="E208" s="243"/>
+      <c r="F208" s="244"/>
+      <c r="G208" s="244"/>
+      <c r="H208" s="245"/>
+      <c r="I208" s="239"/>
+    </row>
+    <row r="209" spans="2:10" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B209" s="268">
+        <v>44825</v>
+      </c>
+      <c r="C209" s="232" t="s">
+        <v>41</v>
+      </c>
+      <c r="D209" s="232"/>
+      <c r="E209" s="233">
+        <v>360</v>
+      </c>
       <c r="F209" s="150"/>
-      <c r="G209" s="150"/>
-      <c r="H209" s="251"/>
-    </row>
-    <row r="210" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B210" s="252" t="s">
-        <v>324</v>
-      </c>
-      <c r="C210" s="253"/>
-      <c r="D210" s="136">
+      <c r="G209" s="150" t="s">
+        <v>340</v>
+      </c>
+      <c r="H209" s="234" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="210" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B210" s="282"/>
+      <c r="C210" s="283"/>
+      <c r="D210" s="283"/>
+      <c r="E210" s="283"/>
+      <c r="F210" s="284"/>
+      <c r="G210" s="284"/>
+      <c r="H210" s="285" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="211" spans="2:10" s="240" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B211" s="286"/>
+      <c r="C211" s="287"/>
+      <c r="D211" s="287"/>
+      <c r="E211" s="287"/>
+      <c r="F211" s="288"/>
+      <c r="G211" s="288"/>
+      <c r="H211" s="289" t="s">
+        <v>383</v>
+      </c>
+      <c r="I211" s="239"/>
+    </row>
+    <row r="212" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B212" s="270">
+        <v>44847</v>
+      </c>
+      <c r="C212" s="271" t="s">
+        <v>47</v>
+      </c>
+      <c r="D212" s="271" t="s">
+        <v>67</v>
+      </c>
+      <c r="E212" s="272">
+        <v>94000</v>
+      </c>
+      <c r="F212" s="273"/>
+      <c r="G212" s="273"/>
+      <c r="H212" s="269" t="s">
+        <v>387</v>
+      </c>
+      <c r="I212" s="108" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="213" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B213" s="268"/>
+      <c r="C213" s="233" t="s">
+        <v>39</v>
+      </c>
+      <c r="D213" s="233" t="s">
+        <v>40</v>
+      </c>
+      <c r="E213" s="233"/>
+      <c r="F213" s="274">
+        <v>200000</v>
+      </c>
+      <c r="G213" s="274"/>
+      <c r="H213" s="275" t="s">
+        <v>382</v>
+      </c>
+      <c r="I213" s="108" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="214" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B214" s="268"/>
+      <c r="C214" s="232" t="s">
+        <v>47</v>
+      </c>
+      <c r="D214" s="232" t="s">
+        <v>291</v>
+      </c>
+      <c r="E214" s="233">
+        <v>30200</v>
+      </c>
+      <c r="F214" s="150"/>
+      <c r="G214" s="150"/>
+      <c r="H214" s="234" t="s">
+        <v>385</v>
+      </c>
+      <c r="I214" s="108" t="s">
+        <v>388</v>
+      </c>
+      <c r="J214" s="140"/>
+    </row>
+    <row r="215" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B215" s="268"/>
+      <c r="C215" s="232" t="s">
+        <v>47</v>
+      </c>
+      <c r="D215" s="232" t="s">
+        <v>290</v>
+      </c>
+      <c r="E215" s="233">
+        <v>30200</v>
+      </c>
+      <c r="F215" s="150"/>
+      <c r="G215" s="150"/>
+      <c r="H215" s="234" t="s">
+        <v>385</v>
+      </c>
+      <c r="I215" s="107" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="216" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B216" s="268"/>
+      <c r="C216" s="232" t="s">
+        <v>47</v>
+      </c>
+      <c r="D216" s="232" t="s">
+        <v>67</v>
+      </c>
+      <c r="E216" s="233">
+        <v>139000</v>
+      </c>
+      <c r="F216" s="150"/>
+      <c r="G216" s="150"/>
+      <c r="H216" s="234" t="s">
+        <v>390</v>
+      </c>
+      <c r="I216" s="108" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="217" spans="2:10" s="276" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B217" s="277"/>
+      <c r="C217" s="278"/>
+      <c r="D217" s="278"/>
+      <c r="E217" s="278"/>
+      <c r="F217" s="279"/>
+      <c r="G217" s="279"/>
+      <c r="H217" s="280"/>
+      <c r="I217" s="281"/>
+    </row>
+    <row r="218" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B218" s="268">
+        <v>44851</v>
+      </c>
+      <c r="C218" s="232" t="s">
+        <v>39</v>
+      </c>
+      <c r="D218" s="232" t="s">
+        <v>40</v>
+      </c>
+      <c r="E218" s="233"/>
+      <c r="F218" s="150">
+        <v>58200</v>
+      </c>
+      <c r="G218" s="150"/>
+      <c r="H218" s="234" t="s">
+        <v>393</v>
+      </c>
+      <c r="I218" s="107" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="219" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B219" s="268"/>
+      <c r="C219" s="232" t="s">
+        <v>47</v>
+      </c>
+      <c r="D219" s="232" t="s">
+        <v>232</v>
+      </c>
+      <c r="E219" s="233">
+        <v>54000</v>
+      </c>
+      <c r="F219" s="150"/>
+      <c r="G219" s="150"/>
+      <c r="H219" s="234" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="220" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B220" s="268"/>
+      <c r="C220" s="232" t="s">
+        <v>47</v>
+      </c>
+      <c r="D220" s="232" t="s">
+        <v>396</v>
+      </c>
+      <c r="E220" s="233">
+        <v>4200</v>
+      </c>
+      <c r="F220" s="150"/>
+      <c r="G220" s="150"/>
+      <c r="H220" s="234" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="221" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B221" s="268"/>
+      <c r="C221" s="232"/>
+      <c r="D221" s="232"/>
+      <c r="E221" s="233"/>
+      <c r="F221" s="150"/>
+      <c r="G221" s="150"/>
+      <c r="H221" s="234"/>
+    </row>
+    <row r="222" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B222" s="268">
+        <v>44861</v>
+      </c>
+      <c r="C222" s="232" t="s">
+        <v>39</v>
+      </c>
+      <c r="D222" s="232" t="s">
+        <v>40</v>
+      </c>
+      <c r="E222" s="233"/>
+      <c r="F222" s="150">
+        <v>100000</v>
+      </c>
+      <c r="G222" s="150"/>
+      <c r="H222" s="234" t="s">
+        <v>399</v>
+      </c>
+      <c r="I222" s="108" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="223" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B223" s="268"/>
+      <c r="C223" s="232" t="s">
+        <v>47</v>
+      </c>
+      <c r="D223" s="232" t="s">
+        <v>67</v>
+      </c>
+      <c r="E223" s="233">
+        <v>20890</v>
+      </c>
+      <c r="F223" s="150"/>
+      <c r="G223" s="150"/>
+      <c r="H223" s="234" t="s">
+        <v>401</v>
+      </c>
+      <c r="I223" s="108" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="224" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B224" s="268"/>
+      <c r="C224" s="232" t="s">
+        <v>41</v>
+      </c>
+      <c r="D224" s="232"/>
+      <c r="E224" s="233">
+        <v>480</v>
+      </c>
+      <c r="F224" s="150"/>
+      <c r="G224" s="150"/>
+      <c r="H224" s="234" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="225" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B225" s="268"/>
+      <c r="C225" s="232" t="s">
+        <v>41</v>
+      </c>
+      <c r="D225" s="232"/>
+      <c r="E225" s="233">
+        <v>7000</v>
+      </c>
+      <c r="F225" s="150"/>
+      <c r="G225" s="150"/>
+      <c r="H225" s="234" t="s">
+        <v>403</v>
+      </c>
+      <c r="I225" s="108" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="226" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B226" s="268"/>
+      <c r="C226" s="232" t="s">
+        <v>44</v>
+      </c>
+      <c r="D226" s="232"/>
+      <c r="E226" s="233">
+        <v>1000</v>
+      </c>
+      <c r="F226" s="150"/>
+      <c r="G226" s="150"/>
+      <c r="H226" s="234" t="s">
+        <v>404</v>
+      </c>
+      <c r="I226" s="107">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="227" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B227" s="264"/>
+      <c r="C227" s="136" t="s">
+        <v>41</v>
+      </c>
+      <c r="D227" s="136"/>
+      <c r="E227" s="233">
+        <v>3080</v>
+      </c>
+      <c r="F227" s="150"/>
+      <c r="G227" s="150"/>
+      <c r="H227" s="234" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="228" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B228" s="268"/>
+      <c r="C228" s="232"/>
+      <c r="D228" s="232"/>
+      <c r="E228" s="233"/>
+      <c r="F228" s="150"/>
+      <c r="G228" s="150"/>
+      <c r="H228" s="234"/>
+    </row>
+    <row r="229" spans="2:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B229" s="268">
+        <v>44863</v>
+      </c>
+      <c r="C229" s="232" t="s">
+        <v>41</v>
+      </c>
+      <c r="D229" s="232" t="s">
+        <v>83</v>
+      </c>
+      <c r="E229" s="233">
+        <v>9000</v>
+      </c>
+      <c r="F229" s="150"/>
+      <c r="G229" s="150"/>
+      <c r="H229" s="234" t="s">
+        <v>185</v>
+      </c>
+      <c r="I229" s="108" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="230" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B230" s="268"/>
+      <c r="C230" s="232" t="s">
+        <v>44</v>
+      </c>
+      <c r="D230" s="232" t="s">
+        <v>406</v>
+      </c>
+      <c r="E230" s="233">
+        <v>6000</v>
+      </c>
+      <c r="F230" s="150"/>
+      <c r="G230" s="150"/>
+      <c r="H230" s="234" t="s">
+        <v>407</v>
+      </c>
+      <c r="I230" s="108" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="231" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B231" s="268"/>
+      <c r="C231" s="232" t="s">
+        <v>41</v>
+      </c>
+      <c r="D231" s="232"/>
+      <c r="E231" s="233">
+        <v>480</v>
+      </c>
+      <c r="F231" s="150"/>
+      <c r="G231" s="150"/>
+      <c r="H231" s="234" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="232" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B232" s="268"/>
+      <c r="C232" s="232" t="s">
+        <v>44</v>
+      </c>
+      <c r="D232" s="232"/>
+      <c r="E232" s="233">
+        <v>1000</v>
+      </c>
+      <c r="F232" s="150"/>
+      <c r="G232" s="150"/>
+      <c r="H232" s="234" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="233" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B233" s="268"/>
+      <c r="C233" s="232" t="s">
+        <v>42</v>
+      </c>
+      <c r="D233" s="232" t="s">
+        <v>411</v>
+      </c>
+      <c r="E233" s="142">
+        <v>5000</v>
+      </c>
+      <c r="F233" s="149"/>
+      <c r="G233" s="149"/>
+      <c r="H233" s="200" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="234" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B234" s="268"/>
+      <c r="C234" s="232"/>
+      <c r="D234" s="232"/>
+      <c r="E234" s="233"/>
+      <c r="F234" s="150"/>
+      <c r="G234" s="150"/>
+      <c r="H234" s="234"/>
+      <c r="I234" s="107">
+        <f>3280-200</f>
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="235" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B235" s="268"/>
+      <c r="C235" s="232"/>
+      <c r="D235" s="232"/>
+      <c r="E235" s="233"/>
+      <c r="F235" s="150"/>
+      <c r="G235" s="150"/>
+      <c r="H235" s="234"/>
+    </row>
+    <row r="236" spans="2:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B236" s="235" t="s">
+        <v>314</v>
+      </c>
+      <c r="C236" s="236"/>
+      <c r="D236" s="136">
         <f>Tableau2[[#Totals],[Crédit]]-Tableau2[[#Totals],[Débit]]</f>
-        <v>94825</v>
-      </c>
-      <c r="E210" s="142">
+        <v>46895</v>
+      </c>
+      <c r="E236" s="142">
         <f>SUBTOTAL(109,Tableau2[Débit])</f>
-        <v>867175</v>
-      </c>
-      <c r="F210" s="142">
+        <v>1273305</v>
+      </c>
+      <c r="F236" s="142">
         <f>SUBTOTAL(109,Tableau2[Crédit])</f>
-        <v>962000</v>
-      </c>
-      <c r="G210" s="254"/>
-      <c r="H210" s="253">
+        <v>1320200</v>
+      </c>
+      <c r="G236" s="237"/>
+      <c r="H236" s="236">
         <f>SUBTOTAL(103,Tableau2[Observation])</f>
-        <v>138</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="I236" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -12611,33 +13400,33 @@
     <mergeCell ref="C6:F6"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
-  <conditionalFormatting sqref="D210">
-    <cfRule type="cellIs" dxfId="37" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="D236">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="lessThan">
       <formula>-1895</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R14:R29" xr:uid="{73348F5A-0522-434F-A389-66996FB5AF37}">
       <formula1>OFFSET($R$14,0,0,COUNTA($R:$R)-1)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T14:T29" xr:uid="{561C79B8-F072-4AB9-96BA-C6DA9D28BF83}">
       <formula1>OFFSET($T$14,0,0,COUNTA($T:$T)-1)</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G14:G209" xr:uid="{B5A92D87-01E3-4B9E-81C8-57C44199F22B}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G234:G235 G14:G232" xr:uid="{B5A92D87-01E3-4B9E-81C8-57C44199F22B}">
       <formula1>OFFSET($G$14,0,0,COUNTA($G:$G)-1)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <tableParts count="3">
     <tablePart r:id="rId2"/>
@@ -12651,7 +13440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A3:J2745"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
+    <sheetView topLeftCell="A60" workbookViewId="0">
       <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
@@ -12666,12 +13455,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="296" t="s">
+      <c r="C3" s="331" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="297"/>
-      <c r="E3" s="298"/>
-      <c r="F3" s="299"/>
+      <c r="D3" s="332"/>
+      <c r="E3" s="333"/>
+      <c r="F3" s="334"/>
     </row>
     <row r="4" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="45"/>
@@ -12686,12 +13475,12 @@
       <c r="F5" s="46"/>
     </row>
     <row r="6" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="294" t="s">
+      <c r="C6" s="329" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="294"/>
-      <c r="E6" s="300"/>
-      <c r="F6" s="300"/>
+      <c r="D6" s="329"/>
+      <c r="E6" s="335"/>
+      <c r="F6" s="335"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="72" t="s">
@@ -42856,4 +43645,25 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F5DB1B-BD99-4A1C-B691-C4B343055A95}">
+  <dimension ref="F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="7" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F7" t="b">
+        <f>IF(Feuil1!D229="bilel",vr)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Suivie de Caisse 1.xlsx
+++ b/Suivie de Caisse 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ES-SABRE\Desktop\Caisse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58469F3-7FF2-4BDA-9DB7-A96AA2871E71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910D8EF5-EC76-452C-A5EE-B6DF26FBEEAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Suivie Caisse Djamel aout'!$A$1:$G$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Suivie Caisse Djamel Juillet'!$A$1:$G$100</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Suivie Caisse Djamel Septembre'!$B$1:$G$28</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'Suivie Caisse Es-Sabre'!$B$1:$H$236</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Suivie Caisse Es-Sabre'!$B$1:$H$258</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="433">
   <si>
     <t>Total</t>
   </si>
@@ -1291,9 +1291,6 @@
     <t>Bilel etancheité</t>
   </si>
   <si>
-    <t xml:space="preserve">Acompte </t>
-  </si>
-  <si>
     <t>Flexy</t>
   </si>
   <si>
@@ -1311,12 +1308,72 @@
   <si>
     <t>10*700 =7000 (achter le 26 payer le 27)</t>
   </si>
+  <si>
+    <t>5 Sac de gravier</t>
+  </si>
+  <si>
+    <t>Acompte Total  : 6000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acompte Total  : 6000 </t>
+  </si>
+  <si>
+    <t>brique 5</t>
+  </si>
+  <si>
+    <t>40 piece de briques</t>
+  </si>
+  <si>
+    <t>transport des chaise chez le couturier, transport brique, transport des bureau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 piece de polysteren </t>
+  </si>
+  <si>
+    <t>700da * 10</t>
+  </si>
+  <si>
+    <t>8 * 40</t>
+  </si>
+  <si>
+    <t>10000/36400</t>
+  </si>
+  <si>
+    <t>Nabile MO</t>
+  </si>
+  <si>
+    <t>acompte total : 18000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29/10,  31/10,  01/10 </t>
+  </si>
+  <si>
+    <t>cheragua</t>
+  </si>
+  <si>
+    <t>Cable + fiche M/F</t>
+  </si>
+  <si>
+    <t>9 * 40</t>
+  </si>
+  <si>
+    <t>dans sa voiture avec des billet de 500</t>
+  </si>
+  <si>
+    <t>Pour 80 m3 de beton</t>
+  </si>
+  <si>
+    <t>Mr Aniba Hamid</t>
+  </si>
+  <si>
+    <t>Acompte total : 8000</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="9">
+  <numFmts count="10">
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(@"/>
@@ -1326,6 +1383,7 @@
     <numFmt numFmtId="170" formatCode="@_("/>
     <numFmt numFmtId="171" formatCode="m/d/yy_("/>
     <numFmt numFmtId="172" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="173" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -1886,7 +1944,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="336">
+  <cellXfs count="338">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2843,6 +2901,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -2851,6 +2915,99 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="77">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFF0000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -3114,373 +3271,6 @@
         <left style="medium">
           <color indexed="64"/>
         </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF0000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFF0000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
         <right style="medium">
           <color indexed="64"/>
         </right>
@@ -3776,6 +3566,280 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="173" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <top style="medium">
           <color indexed="64"/>
@@ -3787,7 +3851,7 @@
         <b/>
         <family val="2"/>
       </font>
-      <numFmt numFmtId="173" formatCode="#.##0\.00"/>
+      <numFmt numFmtId="174" formatCode="#.##0\.00"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -3810,7 +3874,7 @@
         <b/>
         <family val="2"/>
       </font>
-      <numFmt numFmtId="173" formatCode="#.##0\.00"/>
+      <numFmt numFmtId="174" formatCode="#.##0\.00"/>
     </dxf>
     <dxf>
       <border>
@@ -4226,7 +4290,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="173" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -4477,7 +4541,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="173" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -4725,7 +4789,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="173" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -4936,53 +5000,53 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tableau2" displayName="Tableau2" ref="B13:H236" totalsRowCount="1" headerRowDxfId="40" dataDxfId="38" totalsRowDxfId="36" headerRowBorderDxfId="39" tableBorderDxfId="37" totalsRowBorderDxfId="35">
-  <autoFilter ref="B13:H235" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tableau2" displayName="Tableau2" ref="B13:H258" totalsRowCount="1" headerRowDxfId="40" dataDxfId="38" totalsRowDxfId="36" headerRowBorderDxfId="39" tableBorderDxfId="37" totalsRowBorderDxfId="35">
+  <autoFilter ref="B13:H257" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Date" totalsRowLabel="Solde De La Caisse" dataDxfId="20" totalsRowDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Opérations" dataDxfId="19" totalsRowDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Par / De" totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="4">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Date" totalsRowLabel="Solde De La Caisse" dataDxfId="34" totalsRowDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Opérations" dataDxfId="33" totalsRowDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Par / De" totalsRowFunction="custom" dataDxfId="32" totalsRowDxfId="11">
       <totalsRowFormula>Tableau2[[#Totals],[Crédit]]-Tableau2[[#Totals],[Débit]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Débit" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Crédit" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{C30977D3-8D38-454C-AD50-AD6368348F30}" name="LOT" dataDxfId="15" totalsRowDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Observation" totalsRowFunction="count" dataDxfId="14" totalsRowDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Débit" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Crédit" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{C30977D3-8D38-454C-AD50-AD6368348F30}" name="LOT" dataDxfId="29" totalsRowDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Observation" totalsRowFunction="count" dataDxfId="28" totalsRowDxfId="7"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7806D280-479D-4BBD-9B9E-3AA9E67319C5}" name="Tableau6" displayName="Tableau6" ref="R13:R29" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7806D280-479D-4BBD-9B9E-3AA9E67319C5}" name="Tableau6" displayName="Tableau6" ref="R13:R29" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="R13:R29" xr:uid="{7C1DE353-BB19-436D-A152-983C47C78B9A}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{5955CE97-A309-4197-818D-A9EABF5AE20B}" name="Colonne1" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{5955CE97-A309-4197-818D-A9EABF5AE20B}" name="Colonne1" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{18FB793D-403A-4D62-8F16-D79D9EAD4081}" name="Tableau8" displayName="Tableau8" ref="T13:T29" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{18FB793D-403A-4D62-8F16-D79D9EAD4081}" name="Tableau8" displayName="Tableau8" ref="T13:T29" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="T13:T29" xr:uid="{06DB10D3-BDE0-4EAA-B542-5E6618A236D2}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{769C60AC-2314-4C7C-A097-41CE787E6F8B}" name="Colonne1" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{769C60AC-2314-4C7C-A097-41CE787E6F8B}" name="Colonne1" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau3" displayName="Tableau3" ref="B13:G78" totalsRowShown="0" headerRowBorderDxfId="28" tableBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau3" displayName="Tableau3" ref="B13:G78" totalsRowShown="0" headerRowBorderDxfId="21" tableBorderDxfId="20">
   <autoFilter ref="B13:G78" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Date" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Opérations" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Par / De" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Débit" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Crédit" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Observation" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Date" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Opérations" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Par / De" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Débit" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Crédit" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Observation" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8477,8 +8541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B8C70F-B8AB-4C19-B79C-FF22DE95A418}">
   <dimension ref="A3:I89"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9286,13 +9350,13 @@
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9307,10 +9371,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:X236"/>
+  <dimension ref="A1:X258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I225" sqref="I225"/>
+    <sheetView tabSelected="1" topLeftCell="A235" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I254" sqref="I254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9321,7 +9385,7 @@
     <col min="4" max="4" width="20" style="156" customWidth="1"/>
     <col min="5" max="5" width="13.140625" style="156" customWidth="1"/>
     <col min="6" max="6" width="17" style="156" customWidth="1"/>
-    <col min="7" max="7" width="3" style="156" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" style="156" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="38.5703125" style="227" customWidth="1"/>
     <col min="9" max="9" width="52.85546875" style="107" customWidth="1"/>
     <col min="10" max="10" width="17.7109375" style="46" customWidth="1"/>
@@ -9387,7 +9451,7 @@
       </c>
       <c r="C9" s="167">
         <f>Tableau2[[#Totals],[Débit]]</f>
-        <v>1273305</v>
+        <v>1359965</v>
       </c>
       <c r="D9" s="222"/>
       <c r="H9" s="219"/>
@@ -9398,7 +9462,7 @@
       </c>
       <c r="C10" s="167">
         <f>Tableau2[[#Totals],[Crédit]]</f>
-        <v>1320200</v>
+        <v>1360200</v>
       </c>
       <c r="H10" s="219"/>
     </row>
@@ -9408,7 +9472,7 @@
       </c>
       <c r="C11" s="78">
         <f>C10-C9</f>
-        <v>46895</v>
+        <v>235</v>
       </c>
       <c r="D11" s="152"/>
       <c r="H11" s="219"/>
@@ -9419,7 +9483,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="13" spans="2:24" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="74" t="s">
         <v>5</v>
       </c>
@@ -9481,7 +9545,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="15" spans="2:24" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:24" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="259"/>
       <c r="C15" s="136" t="s">
         <v>41</v>
@@ -9504,7 +9568,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="16" spans="2:24" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:24" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="259"/>
       <c r="C16" s="136" t="s">
         <v>41</v>
@@ -9527,7 +9591,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="139" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" s="139" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="206"/>
       <c r="B17" s="260"/>
       <c r="C17" s="137"/>
@@ -9562,7 +9626,7 @@
       </c>
       <c r="H18" s="223"/>
     </row>
-    <row r="19" spans="1:18" ht="166.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="261"/>
       <c r="C19" s="136" t="s">
         <v>42</v>
@@ -9615,7 +9679,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="90" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="261"/>
       <c r="C22" s="136" t="s">
         <v>41</v>
@@ -9632,7 +9696,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="166.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="261"/>
       <c r="C23" s="136" t="s">
         <v>42</v>
@@ -9664,7 +9728,7 @@
       <c r="H24" s="201"/>
       <c r="I24" s="109"/>
     </row>
-    <row r="25" spans="1:18" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="261">
         <v>44766</v>
       </c>
@@ -9684,7 +9748,7 @@
       </c>
       <c r="K25" s="140"/>
     </row>
-    <row r="26" spans="1:18" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="261"/>
       <c r="C26" s="136" t="s">
         <v>44</v>
@@ -9701,7 +9765,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="90" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="261"/>
       <c r="C27" s="136" t="s">
         <v>41</v>
@@ -9718,7 +9782,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="90" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="261"/>
       <c r="C28" s="136" t="s">
         <v>41</v>
@@ -9735,7 +9799,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="261"/>
       <c r="C29" s="136" t="s">
         <v>41</v>
@@ -9752,7 +9816,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="102.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="263"/>
       <c r="C30" s="136" t="s">
         <v>47</v>
@@ -9782,7 +9846,7 @@
       </c>
       <c r="H31" s="201"/>
     </row>
-    <row r="32" spans="1:18" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="261">
         <v>44767</v>
       </c>
@@ -9801,7 +9865,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="166.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="264"/>
       <c r="C33" s="136" t="s">
         <v>47</v>
@@ -9852,7 +9916,7 @@
       </c>
       <c r="H35" s="223"/>
     </row>
-    <row r="36" spans="1:10" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="264"/>
       <c r="C36" s="136" t="s">
         <v>41</v>
@@ -9870,7 +9934,7 @@
       </c>
       <c r="J36" s="143"/>
     </row>
-    <row r="37" spans="1:10" ht="166.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="264"/>
       <c r="C37" s="136" t="s">
         <v>47</v>
@@ -9890,7 +9954,7 @@
       </c>
       <c r="J37" s="143"/>
     </row>
-    <row r="38" spans="1:10" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="264"/>
       <c r="C38" s="136" t="s">
         <v>41</v>
@@ -9907,7 +9971,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="264"/>
       <c r="C39" s="136" t="s">
         <v>41</v>
@@ -9924,7 +9988,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="264"/>
       <c r="C40" s="136" t="s">
         <v>41</v>
@@ -9943,7 +10007,7 @@
       <c r="I40" s="132"/>
       <c r="J40" s="143"/>
     </row>
-    <row r="41" spans="1:10" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="207"/>
       <c r="B41" s="264"/>
       <c r="C41" s="136" t="s">
@@ -9964,7 +10028,7 @@
       </c>
       <c r="J41" s="143"/>
     </row>
-    <row r="42" spans="1:10" ht="90" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="208"/>
       <c r="B42" s="264"/>
       <c r="C42" s="136" t="s">
@@ -9983,7 +10047,7 @@
       </c>
       <c r="J42" s="143"/>
     </row>
-    <row r="43" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="208"/>
       <c r="B43" s="264"/>
       <c r="C43" s="136" t="s">
@@ -10015,7 +10079,7 @@
       <c r="H44" s="201"/>
       <c r="I44" s="109"/>
     </row>
-    <row r="45" spans="1:10" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="208"/>
       <c r="B45" s="264">
         <v>44769</v>
@@ -10048,7 +10112,7 @@
       <c r="H46" s="201"/>
       <c r="I46" s="109"/>
     </row>
-    <row r="47" spans="1:10" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="208"/>
       <c r="B47" s="264">
         <v>44770</v>
@@ -10081,7 +10145,7 @@
       <c r="H48" s="201"/>
       <c r="I48" s="109"/>
     </row>
-    <row r="49" spans="1:10" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="208"/>
       <c r="B49" s="264">
         <v>44771</v>
@@ -10136,7 +10200,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="208"/>
       <c r="B52" s="264"/>
       <c r="C52" s="136" t="s">
@@ -10154,7 +10218,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="208"/>
       <c r="B53" s="264"/>
       <c r="C53" s="136" t="s">
@@ -10172,7 +10236,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="90" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="208"/>
       <c r="B54" s="264"/>
       <c r="C54" s="136" t="s">
@@ -10190,7 +10254,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="90" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="208"/>
       <c r="B55" s="264"/>
       <c r="C55" s="136" t="s">
@@ -10208,7 +10272,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="208"/>
       <c r="B56" s="264"/>
       <c r="C56" s="136" t="s">
@@ -10226,7 +10290,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="90" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="208"/>
       <c r="B57" s="264"/>
       <c r="C57" s="136" t="s">
@@ -10275,7 +10339,7 @@
       <c r="H59" s="201"/>
       <c r="I59" s="109"/>
     </row>
-    <row r="60" spans="1:10" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="208"/>
       <c r="B60" s="264">
         <v>44773</v>
@@ -10315,7 +10379,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="166.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="208"/>
       <c r="B62" s="264"/>
       <c r="C62" s="136" t="s">
@@ -10339,7 +10403,7 @@
         <v>25500</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="208"/>
       <c r="B63" s="264"/>
       <c r="C63" s="136" t="s">
@@ -10359,7 +10423,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="90" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="208"/>
       <c r="B64" s="264"/>
       <c r="C64" s="136" t="s">
@@ -10389,7 +10453,7 @@
       </c>
       <c r="H65" s="216"/>
     </row>
-    <row r="66" spans="1:9" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="208"/>
       <c r="B66" s="264">
         <v>44774</v>
@@ -10409,7 +10473,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="208"/>
       <c r="B67" s="264"/>
       <c r="C67" s="136" t="s">
@@ -10464,7 +10528,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="102.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="208"/>
       <c r="B70" s="264"/>
       <c r="C70" s="136" t="s">
@@ -10484,7 +10548,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="90" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="208"/>
       <c r="B71" s="264"/>
       <c r="C71" s="136" t="s">
@@ -10503,7 +10567,7 @@
       </c>
       <c r="I71" s="132"/>
     </row>
-    <row r="72" spans="1:9" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="208"/>
       <c r="B72" s="264"/>
       <c r="C72" s="136" t="s">
@@ -10522,7 +10586,7 @@
       </c>
       <c r="I72" s="132"/>
     </row>
-    <row r="73" spans="1:9" ht="90" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="208"/>
       <c r="B73" s="264"/>
       <c r="C73" s="136" t="s">
@@ -10540,7 +10604,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="90" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="208"/>
       <c r="B74" s="264"/>
       <c r="C74" s="136" t="s">
@@ -10558,7 +10622,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="208"/>
       <c r="B75" s="264"/>
       <c r="C75" s="136" t="s">
@@ -10590,7 +10654,7 @@
       </c>
       <c r="H76" s="216"/>
     </row>
-    <row r="77" spans="1:9" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="208"/>
       <c r="B77" s="264">
         <v>44776</v>
@@ -10626,7 +10690,7 @@
       <c r="H78" s="216"/>
       <c r="I78" s="239"/>
     </row>
-    <row r="79" spans="1:9" ht="90" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="208"/>
       <c r="B79" s="264">
         <v>44777</v>
@@ -10646,7 +10710,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="166.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="208"/>
       <c r="B80" s="264"/>
       <c r="C80" s="136" t="s">
@@ -10670,7 +10734,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="208"/>
       <c r="B81" s="264"/>
       <c r="C81" s="136" t="s">
@@ -10733,7 +10797,7 @@
       </c>
       <c r="H84" s="216"/>
     </row>
-    <row r="85" spans="1:10" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="208"/>
       <c r="B85" s="264">
         <v>44780</v>
@@ -10768,7 +10832,7 @@
       </c>
       <c r="H86" s="216"/>
     </row>
-    <row r="87" spans="1:10" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="208"/>
       <c r="B87" s="264">
         <v>44781</v>
@@ -10795,7 +10859,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="90" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="208"/>
       <c r="B88" s="264"/>
       <c r="C88" s="136" t="s">
@@ -10828,7 +10892,7 @@
       </c>
       <c r="H89" s="216"/>
     </row>
-    <row r="90" spans="1:10" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="208"/>
       <c r="B90" s="264">
         <v>44782</v>
@@ -10851,7 +10915,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="208"/>
       <c r="B91" s="264"/>
       <c r="C91" s="136" t="s">
@@ -10883,7 +10947,7 @@
       </c>
       <c r="H92" s="216"/>
     </row>
-    <row r="93" spans="1:10" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="208"/>
       <c r="B93" s="264">
         <v>44783</v>
@@ -10903,7 +10967,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="208"/>
       <c r="B94" s="264"/>
       <c r="C94" s="136" t="s">
@@ -10921,7 +10985,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="208"/>
       <c r="B95" s="264"/>
       <c r="C95" s="136" t="s">
@@ -10951,7 +11015,7 @@
       </c>
       <c r="H96" s="216"/>
     </row>
-    <row r="97" spans="1:9" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="208"/>
       <c r="B97" s="264">
         <v>44784</v>
@@ -10983,7 +11047,7 @@
       </c>
       <c r="H98" s="216"/>
     </row>
-    <row r="99" spans="1:9" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="208"/>
       <c r="B99" s="264">
         <v>44786</v>
@@ -11016,7 +11080,7 @@
       </c>
       <c r="H100" s="216"/>
     </row>
-    <row r="101" spans="1:9" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="208"/>
       <c r="B101" s="264">
         <v>44788</v>
@@ -11036,7 +11100,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="208"/>
       <c r="B102" s="264"/>
       <c r="C102" s="136" t="s">
@@ -11054,7 +11118,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="166.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="208"/>
       <c r="B103" s="264"/>
       <c r="C103" s="136" t="s">
@@ -11084,7 +11148,7 @@
       </c>
       <c r="H104" s="216"/>
     </row>
-    <row r="105" spans="1:9" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="208"/>
       <c r="B105" s="264">
         <v>44789</v>
@@ -11104,7 +11168,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="208"/>
       <c r="B106" s="264"/>
       <c r="C106" s="136" t="s">
@@ -11125,7 +11189,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="208"/>
       <c r="B107" s="264"/>
       <c r="C107" s="136" t="s">
@@ -11155,7 +11219,7 @@
       </c>
       <c r="H108" s="216"/>
     </row>
-    <row r="109" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="208"/>
       <c r="B109" s="264">
         <v>44790</v>
@@ -11178,7 +11242,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="208"/>
       <c r="B110" s="264"/>
       <c r="C110" s="136" t="s">
@@ -11235,7 +11299,7 @@
       <c r="H112" s="216"/>
       <c r="I112" s="239"/>
     </row>
-    <row r="113" spans="1:11" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="208"/>
       <c r="B113" s="264">
         <v>44791</v>
@@ -11255,7 +11319,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="208"/>
       <c r="B114" s="264"/>
       <c r="C114" s="136" t="s">
@@ -11276,7 +11340,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="115.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="208"/>
       <c r="B115" s="264"/>
       <c r="C115" s="136" t="s">
@@ -11294,7 +11358,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="208"/>
       <c r="B116" s="264"/>
       <c r="C116" s="136" t="s">
@@ -11324,7 +11388,7 @@
       </c>
       <c r="H117" s="216"/>
     </row>
-    <row r="118" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="208"/>
       <c r="B118" s="264">
         <v>44793</v>
@@ -11347,7 +11411,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="208"/>
       <c r="B119" s="264"/>
       <c r="C119" s="136" t="s">
@@ -11375,7 +11439,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="208"/>
       <c r="B120" s="264"/>
       <c r="C120" s="136" t="s">
@@ -11412,7 +11476,7 @@
       </c>
       <c r="H121" s="216"/>
     </row>
-    <row r="122" spans="1:11" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="208"/>
       <c r="B122" s="264">
         <v>44794</v>
@@ -11435,7 +11499,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="208"/>
       <c r="B123" s="264"/>
       <c r="C123" s="136" t="s">
@@ -11453,7 +11517,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="208"/>
       <c r="B124" s="264"/>
       <c r="C124" s="136" t="s">
@@ -11471,7 +11535,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="208"/>
       <c r="B125" s="264"/>
       <c r="C125" s="136" t="s">
@@ -11501,7 +11565,7 @@
       </c>
       <c r="H126" s="216"/>
     </row>
-    <row r="127" spans="1:11" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="208"/>
       <c r="B127" s="264">
         <v>44795</v>
@@ -11524,7 +11588,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" s="208"/>
       <c r="B128" s="264"/>
       <c r="C128" s="136" t="s">
@@ -11542,7 +11606,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" s="208"/>
       <c r="B129" s="264"/>
       <c r="C129" s="136" t="s">
@@ -11563,7 +11627,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="208"/>
       <c r="B130" s="264"/>
       <c r="C130" s="136" t="s">
@@ -11616,7 +11680,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="208"/>
       <c r="B133" s="264"/>
       <c r="C133" s="136" t="s">
@@ -11634,7 +11698,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="208"/>
       <c r="B134" s="264"/>
       <c r="C134" s="136" t="s">
@@ -11652,7 +11716,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="208"/>
       <c r="B135" s="264"/>
       <c r="C135" s="136" t="s">
@@ -11682,7 +11746,7 @@
       </c>
       <c r="H136" s="200"/>
     </row>
-    <row r="137" spans="1:9" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A137" s="208"/>
       <c r="B137" s="264"/>
       <c r="C137" s="136" t="s">
@@ -11703,7 +11767,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A138" s="208"/>
       <c r="B138" s="264"/>
       <c r="C138" s="136" t="s">
@@ -11733,7 +11797,7 @@
       </c>
       <c r="H139" s="216"/>
     </row>
-    <row r="140" spans="1:9" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="208"/>
       <c r="B140" s="264">
         <v>44797</v>
@@ -11753,7 +11817,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" s="208"/>
       <c r="B141" s="264"/>
       <c r="C141" s="136" t="s">
@@ -11783,7 +11847,7 @@
       </c>
       <c r="H142" s="216"/>
     </row>
-    <row r="143" spans="1:9" ht="102.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A143" s="208"/>
       <c r="B143" s="264">
         <v>44798</v>
@@ -11806,7 +11870,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A144" s="208"/>
       <c r="B144" s="264"/>
       <c r="C144" s="136" t="s">
@@ -11836,7 +11900,7 @@
       </c>
       <c r="H145" s="216"/>
     </row>
-    <row r="146" spans="1:9" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A146" s="208"/>
       <c r="B146" s="264">
         <v>44800</v>
@@ -11868,7 +11932,7 @@
       </c>
       <c r="H147" s="216"/>
     </row>
-    <row r="148" spans="1:9" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" s="208"/>
       <c r="B148" s="264">
         <v>44801</v>
@@ -11903,7 +11967,7 @@
       </c>
       <c r="H149" s="216"/>
     </row>
-    <row r="150" spans="1:9" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="208"/>
       <c r="B150" s="264">
         <v>44802</v>
@@ -11935,7 +11999,7 @@
       </c>
       <c r="H151" s="216"/>
     </row>
-    <row r="152" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="208"/>
       <c r="B152" s="264">
         <v>44803</v>
@@ -11955,7 +12019,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="208"/>
       <c r="B153" s="264"/>
       <c r="C153" s="136" t="s">
@@ -11973,7 +12037,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" s="208"/>
       <c r="B154" s="264"/>
       <c r="C154" s="136" t="s">
@@ -12005,7 +12069,7 @@
       </c>
       <c r="H155" s="216"/>
     </row>
-    <row r="156" spans="1:9" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A156" s="208"/>
       <c r="B156" s="264">
         <v>44804</v>
@@ -12025,7 +12089,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A157" s="208"/>
       <c r="B157" s="264"/>
       <c r="C157" s="136" t="s">
@@ -12063,7 +12127,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A159" s="208"/>
       <c r="B159" s="264"/>
       <c r="C159" s="136" t="s">
@@ -12138,7 +12202,7 @@
       </c>
       <c r="H163" s="216"/>
     </row>
-    <row r="164" spans="1:11" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" s="208"/>
       <c r="B164" s="264">
         <v>44807</v>
@@ -12176,7 +12240,7 @@
         <v>24600</v>
       </c>
     </row>
-    <row r="166" spans="1:11" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A166" s="208"/>
       <c r="B166" s="264">
         <v>44808</v>
@@ -12212,7 +12276,7 @@
         <v>5050</v>
       </c>
     </row>
-    <row r="168" spans="1:11" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A168" s="208"/>
       <c r="B168" s="264">
         <v>44809</v>
@@ -12262,7 +12326,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="171" spans="1:11" ht="102.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B171" s="264"/>
       <c r="C171" s="136" t="s">
         <v>44</v>
@@ -12282,7 +12346,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="172" spans="1:11" ht="102.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B172" s="264"/>
       <c r="C172" s="136" t="s">
         <v>41</v>
@@ -12302,7 +12366,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="173" spans="1:11" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B173" s="264"/>
       <c r="C173" s="136" t="s">
         <v>41</v>
@@ -12319,7 +12383,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="174" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B174" s="264"/>
       <c r="C174" s="136" t="s">
         <v>41</v>
@@ -12336,7 +12400,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="175" spans="1:11" ht="166.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B175" s="264"/>
       <c r="C175" s="136" t="s">
         <v>42</v>
@@ -12355,7 +12419,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="176" spans="1:11" ht="166.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B176" s="264"/>
       <c r="C176" s="136" t="s">
         <v>42</v>
@@ -12389,7 +12453,7 @@
         <v>48600</v>
       </c>
     </row>
-    <row r="178" spans="2:9" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B178" s="264">
         <v>44811</v>
       </c>
@@ -12411,7 +12475,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="179" spans="2:9" ht="141" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B179" s="264"/>
       <c r="C179" s="136" t="s">
         <v>41</v>
@@ -12428,7 +12492,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="180" spans="2:9" ht="141" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B180" s="264"/>
       <c r="C180" s="136" t="s">
         <v>41</v>
@@ -12456,7 +12520,7 @@
       </c>
       <c r="H181" s="216"/>
     </row>
-    <row r="182" spans="2:9" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B182" s="264">
         <v>44815</v>
       </c>
@@ -12478,7 +12542,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="183" spans="2:9" ht="90" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B183" s="264"/>
       <c r="C183" s="136" t="s">
         <v>41</v>
@@ -12495,7 +12559,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="184" spans="2:9" ht="141" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B184" s="264"/>
       <c r="C184" s="136" t="s">
         <v>41</v>
@@ -12526,7 +12590,7 @@
       </c>
       <c r="H185" s="216"/>
     </row>
-    <row r="186" spans="2:9" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B186" s="264">
         <v>44816</v>
       </c>
@@ -12548,7 +12612,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="187" spans="2:9" ht="102.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B187" s="264"/>
       <c r="C187" s="136" t="s">
         <v>41</v>
@@ -12565,7 +12629,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="188" spans="2:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B188" s="264"/>
       <c r="C188" s="136" t="s">
         <v>41</v>
@@ -12596,7 +12660,7 @@
       </c>
       <c r="H189" s="216"/>
     </row>
-    <row r="190" spans="2:9" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B190" s="264">
         <v>44817</v>
       </c>
@@ -12630,7 +12694,7 @@
       </c>
       <c r="H191" s="216"/>
     </row>
-    <row r="192" spans="2:9" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B192" s="264">
         <v>44818</v>
       </c>
@@ -12652,7 +12716,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="193" spans="2:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B193" s="264"/>
       <c r="C193" s="136" t="s">
         <v>41</v>
@@ -12669,7 +12733,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="194" spans="2:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B194" s="264"/>
       <c r="C194" s="136" t="s">
         <v>47</v>
@@ -12686,7 +12750,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="195" spans="2:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B195" s="264"/>
       <c r="C195" s="136" t="s">
         <v>47</v>
@@ -12741,7 +12805,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="198" spans="2:9" ht="166.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B198" s="264"/>
       <c r="C198" s="136" t="s">
         <v>47</v>
@@ -12763,7 +12827,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="199" spans="2:9" ht="166.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B199" s="264"/>
       <c r="C199" s="136" t="s">
         <v>47</v>
@@ -12794,7 +12858,7 @@
       <c r="H200" s="216"/>
       <c r="I200" s="239"/>
     </row>
-    <row r="201" spans="2:9" ht="141" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B201" s="264">
         <v>44822</v>
       </c>
@@ -12813,7 +12877,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="202" spans="2:9" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B202" s="264"/>
       <c r="C202" s="136" t="s">
         <v>41</v>
@@ -12842,7 +12906,7 @@
       <c r="H203" s="216"/>
       <c r="I203" s="241"/>
     </row>
-    <row r="204" spans="2:9" ht="102.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B204" s="264">
         <v>44823</v>
       </c>
@@ -12866,7 +12930,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="205" spans="2:9" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B205" s="264"/>
       <c r="C205" s="136" t="s">
         <v>41</v>
@@ -12893,7 +12957,7 @@
       <c r="H206" s="216"/>
       <c r="I206" s="239"/>
     </row>
-    <row r="207" spans="2:9" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B207" s="264">
         <v>44824</v>
       </c>
@@ -12922,7 +12986,7 @@
       <c r="H208" s="245"/>
       <c r="I208" s="239"/>
     </row>
-    <row r="209" spans="2:10" ht="192" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:10" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B209" s="268">
         <v>44825</v>
       </c>
@@ -13088,11 +13152,11 @@
         <v>40</v>
       </c>
       <c r="E218" s="233"/>
-      <c r="F218" s="150">
+      <c r="F218" s="274">
         <v>58200</v>
       </c>
-      <c r="G218" s="150"/>
-      <c r="H218" s="234" t="s">
+      <c r="G218" s="274"/>
+      <c r="H218" s="275" t="s">
         <v>393</v>
       </c>
       <c r="I218" s="107" t="s">
@@ -13153,11 +13217,11 @@
         <v>40</v>
       </c>
       <c r="E222" s="233"/>
-      <c r="F222" s="150">
+      <c r="F222" s="274">
         <v>100000</v>
       </c>
-      <c r="G222" s="150"/>
-      <c r="H222" s="234" t="s">
+      <c r="G222" s="274"/>
+      <c r="H222" s="275" t="s">
         <v>399</v>
       </c>
       <c r="I222" s="108" t="s">
@@ -13214,7 +13278,7 @@
         <v>403</v>
       </c>
       <c r="I225" s="108" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="226" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -13247,7 +13311,7 @@
       <c r="F227" s="150"/>
       <c r="G227" s="150"/>
       <c r="H227" s="234" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="228" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -13295,10 +13359,10 @@
       <c r="F230" s="150"/>
       <c r="G230" s="150"/>
       <c r="H230" s="234" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="I230" s="108" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="231" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -13328,7 +13392,7 @@
       <c r="F232" s="150"/>
       <c r="G232" s="150"/>
       <c r="H232" s="234" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="233" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -13337,7 +13401,7 @@
         <v>42</v>
       </c>
       <c r="D233" s="232" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E233" s="142">
         <v>5000</v>
@@ -13345,7 +13409,7 @@
       <c r="F233" s="149"/>
       <c r="G233" s="149"/>
       <c r="H233" s="200" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="234" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -13362,37 +13426,390 @@
       </c>
     </row>
     <row r="235" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B235" s="268"/>
-      <c r="C235" s="232"/>
+      <c r="B235" s="268">
+        <v>44865</v>
+      </c>
+      <c r="C235" s="232" t="s">
+        <v>41</v>
+      </c>
       <c r="D235" s="232"/>
-      <c r="E235" s="233"/>
+      <c r="E235" s="233">
+        <v>1000</v>
+      </c>
       <c r="F235" s="150"/>
       <c r="G235" s="150"/>
-      <c r="H235" s="234"/>
-    </row>
-    <row r="236" spans="2:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B236" s="235" t="s">
+      <c r="H235" s="234" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="236" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B236" s="268"/>
+      <c r="C236" s="232" t="s">
+        <v>44</v>
+      </c>
+      <c r="D236" s="232"/>
+      <c r="E236" s="233">
+        <v>500</v>
+      </c>
+      <c r="F236" s="150"/>
+      <c r="G236" s="150"/>
+      <c r="H236" s="234" t="s">
+        <v>45</v>
+      </c>
+      <c r="I236" s="108"/>
+    </row>
+    <row r="237" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B237" s="268"/>
+      <c r="C237" s="232" t="s">
+        <v>41</v>
+      </c>
+      <c r="D237" s="232"/>
+      <c r="E237" s="233">
+        <v>480</v>
+      </c>
+      <c r="F237" s="150"/>
+      <c r="G237" s="150"/>
+      <c r="H237" s="234" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="238" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B238" s="268"/>
+      <c r="C238" s="232" t="s">
+        <v>42</v>
+      </c>
+      <c r="D238" s="232" t="s">
+        <v>410</v>
+      </c>
+      <c r="E238" s="233">
+        <v>1000</v>
+      </c>
+      <c r="F238" s="150"/>
+      <c r="G238" s="150"/>
+      <c r="H238" s="234" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="239" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B239" s="268"/>
+      <c r="C239" s="232"/>
+      <c r="D239" s="232"/>
+      <c r="E239" s="233"/>
+      <c r="F239" s="150"/>
+      <c r="G239" s="150"/>
+      <c r="H239" s="234"/>
+    </row>
+    <row r="240" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B240" s="268">
+        <v>44866</v>
+      </c>
+      <c r="C240" s="232" t="s">
+        <v>42</v>
+      </c>
+      <c r="D240" s="232" t="s">
+        <v>410</v>
+      </c>
+      <c r="E240" s="233">
+        <v>2000</v>
+      </c>
+      <c r="F240" s="150"/>
+      <c r="G240" s="150"/>
+      <c r="H240" s="234" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="241" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B241" s="268"/>
+      <c r="C241" s="232"/>
+      <c r="D241" s="232"/>
+      <c r="E241" s="233"/>
+      <c r="F241" s="150"/>
+      <c r="G241" s="150"/>
+      <c r="H241" s="234"/>
+    </row>
+    <row r="242" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B242" s="268">
+        <v>44867</v>
+      </c>
+      <c r="C242" s="232" t="s">
+        <v>41</v>
+      </c>
+      <c r="D242" s="232"/>
+      <c r="E242" s="233">
+        <v>1600</v>
+      </c>
+      <c r="F242" s="150"/>
+      <c r="G242" s="150"/>
+      <c r="H242" s="234" t="s">
+        <v>416</v>
+      </c>
+      <c r="I242" s="107" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="243" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B243" s="337"/>
+      <c r="C243" s="232" t="s">
+        <v>44</v>
+      </c>
+      <c r="D243" s="232"/>
+      <c r="E243" s="233">
+        <v>1000</v>
+      </c>
+      <c r="F243" s="150"/>
+      <c r="G243" s="150"/>
+      <c r="H243" s="234" t="s">
+        <v>45</v>
+      </c>
+      <c r="I243" s="107" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="244" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B244" s="337"/>
+      <c r="C244" s="232" t="s">
+        <v>41</v>
+      </c>
+      <c r="D244" s="232"/>
+      <c r="E244" s="233">
+        <v>7000</v>
+      </c>
+      <c r="F244" s="150"/>
+      <c r="G244" s="150"/>
+      <c r="H244" s="234" t="s">
+        <v>419</v>
+      </c>
+      <c r="I244" s="107" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="245" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B245" s="336"/>
+      <c r="C245" s="136" t="s">
+        <v>44</v>
+      </c>
+      <c r="D245" s="136"/>
+      <c r="E245" s="142">
+        <v>1000</v>
+      </c>
+      <c r="F245" s="149"/>
+      <c r="G245" s="149"/>
+      <c r="H245" s="200" t="s">
+        <v>45</v>
+      </c>
+      <c r="I245" s="107" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="246" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B246" s="337"/>
+      <c r="C246" s="232" t="s">
+        <v>41</v>
+      </c>
+      <c r="D246" s="232"/>
+      <c r="E246" s="233">
+        <v>320</v>
+      </c>
+      <c r="F246" s="150"/>
+      <c r="G246" s="150"/>
+      <c r="H246" s="234" t="s">
+        <v>174</v>
+      </c>
+      <c r="I246" s="107" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="247" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B247" s="337"/>
+      <c r="C247" s="232"/>
+      <c r="D247" s="232"/>
+      <c r="E247" s="233"/>
+      <c r="F247" s="150"/>
+      <c r="G247" s="150"/>
+      <c r="H247" s="234"/>
+    </row>
+    <row r="248" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B248" s="337">
+        <v>44868</v>
+      </c>
+      <c r="C248" s="232" t="s">
+        <v>42</v>
+      </c>
+      <c r="D248" s="232" t="s">
+        <v>423</v>
+      </c>
+      <c r="E248" s="233">
+        <v>10000</v>
+      </c>
+      <c r="F248" s="150"/>
+      <c r="G248" s="150"/>
+      <c r="H248" s="234" t="s">
+        <v>422</v>
+      </c>
+      <c r="I248" s="107">
+        <f>(13*1000)+1800+(12*1800)</f>
+        <v>36400</v>
+      </c>
+    </row>
+    <row r="249" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B249" s="337"/>
+      <c r="C249" s="232" t="s">
+        <v>42</v>
+      </c>
+      <c r="D249" s="232" t="s">
+        <v>290</v>
+      </c>
+      <c r="E249" s="233">
+        <v>10000</v>
+      </c>
+      <c r="F249" s="150"/>
+      <c r="G249" s="150"/>
+      <c r="H249" s="234" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="250" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B250" s="337"/>
+      <c r="C250" s="232" t="s">
+        <v>42</v>
+      </c>
+      <c r="D250" s="232" t="s">
+        <v>410</v>
+      </c>
+      <c r="E250" s="233">
+        <v>10000</v>
+      </c>
+      <c r="F250" s="150"/>
+      <c r="G250" s="150"/>
+      <c r="H250" s="234" t="s">
+        <v>424</v>
+      </c>
+      <c r="I250" s="107" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="251" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B251" s="336"/>
+      <c r="C251" s="136" t="s">
+        <v>41</v>
+      </c>
+      <c r="D251" s="136"/>
+      <c r="E251" s="142">
+        <v>360</v>
+      </c>
+      <c r="F251" s="149"/>
+      <c r="G251" s="149"/>
+      <c r="H251" s="200" t="s">
+        <v>174</v>
+      </c>
+      <c r="I251" s="107" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="252" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B252" s="337"/>
+      <c r="C252" s="232" t="s">
+        <v>39</v>
+      </c>
+      <c r="D252" s="232" t="s">
+        <v>40</v>
+      </c>
+      <c r="E252" s="233"/>
+      <c r="F252" s="150">
+        <v>40000</v>
+      </c>
+      <c r="G252" s="150"/>
+      <c r="H252" s="234"/>
+      <c r="I252" s="107" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="253" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B253" s="336"/>
+      <c r="C253" s="136" t="s">
+        <v>47</v>
+      </c>
+      <c r="D253" s="136" t="s">
+        <v>232</v>
+      </c>
+      <c r="E253" s="142">
+        <v>40000</v>
+      </c>
+      <c r="F253" s="149"/>
+      <c r="G253" s="149"/>
+      <c r="H253" s="200" t="s">
+        <v>430</v>
+      </c>
+      <c r="I253" s="107" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="254" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B254" s="336"/>
+      <c r="C254" s="136"/>
+      <c r="D254" s="136"/>
+      <c r="E254" s="142"/>
+      <c r="F254" s="149"/>
+      <c r="G254" s="149"/>
+      <c r="H254" s="200"/>
+    </row>
+    <row r="255" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B255" s="337">
+        <v>44870</v>
+      </c>
+      <c r="C255" s="232" t="s">
+        <v>41</v>
+      </c>
+      <c r="D255" s="232"/>
+      <c r="E255" s="233">
+        <v>400</v>
+      </c>
+      <c r="F255" s="150"/>
+      <c r="G255" s="150"/>
+      <c r="H255" s="234" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="256" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B256" s="337"/>
+      <c r="C256" s="232"/>
+      <c r="D256" s="232"/>
+      <c r="E256" s="233"/>
+      <c r="F256" s="150"/>
+      <c r="G256" s="150"/>
+      <c r="H256" s="234"/>
+    </row>
+    <row r="257" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B257" s="337"/>
+      <c r="C257" s="232"/>
+      <c r="D257" s="232"/>
+      <c r="E257" s="233"/>
+      <c r="F257" s="150"/>
+      <c r="G257" s="150"/>
+      <c r="H257" s="234"/>
+    </row>
+    <row r="258" spans="2:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B258" s="235" t="s">
         <v>314</v>
       </c>
-      <c r="C236" s="236"/>
-      <c r="D236" s="136">
+      <c r="C258" s="236"/>
+      <c r="D258" s="136">
         <f>Tableau2[[#Totals],[Crédit]]-Tableau2[[#Totals],[Débit]]</f>
-        <v>46895</v>
-      </c>
-      <c r="E236" s="142">
+        <v>235</v>
+      </c>
+      <c r="E258" s="142">
         <f>SUBTOTAL(109,Tableau2[Débit])</f>
-        <v>1273305</v>
-      </c>
-      <c r="F236" s="142">
+        <v>1359965</v>
+      </c>
+      <c r="F258" s="142">
         <f>SUBTOTAL(109,Tableau2[Crédit])</f>
-        <v>1320200</v>
-      </c>
-      <c r="G236" s="237"/>
-      <c r="H236" s="236">
+        <v>1360200</v>
+      </c>
+      <c r="G258" s="237"/>
+      <c r="H258" s="236">
         <f>SUBTOTAL(103,Tableau2[Observation])</f>
-        <v>162</v>
-      </c>
-      <c r="I236" s="108"/>
+        <v>178</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -13400,17 +13817,17 @@
     <mergeCell ref="C6:F6"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
-  <conditionalFormatting sqref="D236">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="D258">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>-1895</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Suivie de Caisse 1.xlsx
+++ b/Suivie de Caisse 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ES-SABRE\Desktop\Caisse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3129EA10-0B29-4693-838F-E25569D1A152}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4083C66-F4A5-4D39-9278-16EAF8267661}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Suivie Caisse Djamel aout'!$A$1:$G$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Suivie Caisse Djamel Juillet'!$A$1:$G$100</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Suivie Caisse Djamel Septembre'!$B$1:$G$28</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'Suivie Caisse Es-Sabre'!$B$1:$H$284</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Suivie Caisse Es-Sabre'!$B$1:$H$300</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="485">
   <si>
     <t>Total</t>
   </si>
@@ -1363,9 +1363,6 @@
     <t>Acompte total : 8000</t>
   </si>
   <si>
-    <t>Au chantier dans ca voiture</t>
-  </si>
-  <si>
     <t>payement giraf</t>
   </si>
   <si>
@@ -1457,6 +1454,75 @@
   </si>
   <si>
     <t>49400/49400</t>
+  </si>
+  <si>
+    <t>2*80000da</t>
+  </si>
+  <si>
+    <t>Salaire du 12 sep au 12 nov</t>
+  </si>
+  <si>
+    <t>Robinet Radiateur</t>
+  </si>
+  <si>
+    <t>Equipement electricité</t>
+  </si>
+  <si>
+    <t>Smail Geotechnicien</t>
+  </si>
+  <si>
+    <t>Facture: pour bureau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 voyage le jour du coulage </t>
+  </si>
+  <si>
+    <t>le 13/11/2022</t>
+  </si>
+  <si>
+    <t>Payement D'etude complementaire</t>
+  </si>
+  <si>
+    <t>Cuivre, Robinet de gaz,,,</t>
+  </si>
+  <si>
+    <t>Pour instalation d'une sortie de gaz au jardin</t>
+  </si>
+  <si>
+    <t>coude 90° 40¤</t>
+  </si>
+  <si>
+    <t>Charteton, visse ,</t>
+  </si>
+  <si>
+    <t>Rosace , Tifnon , manchant</t>
+  </si>
+  <si>
+    <t>pour instalation des radiateur au RDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pour Sortie de la piscine </t>
+  </si>
+  <si>
+    <t>pavé</t>
+  </si>
+  <si>
+    <t>40 piece de pavé</t>
+  </si>
+  <si>
+    <t>12000/12000</t>
+  </si>
+  <si>
+    <t>Pour travaux d'etancheité de la villa 1. Somme 15000, reduction a 12000</t>
+  </si>
+  <si>
+    <t>Rouleau Pax TJ 40</t>
+  </si>
+  <si>
+    <t>afin de terminé les travaux d'etancheité de la villa 1</t>
+  </si>
+  <si>
+    <t>Au chantier dans la voiture</t>
   </si>
 </sst>
 </file>
@@ -2033,7 +2099,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="338">
+  <cellXfs count="332">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2732,40 +2798,7 @@
     <xf numFmtId="14" fontId="2" fillId="19" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="18" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="18" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2786,9 +2819,6 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="20" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="2" fillId="20" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2798,9 +2828,6 @@
     <xf numFmtId="0" fontId="2" fillId="20" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="21" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="2" fillId="21" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2808,9 +2835,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="21" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="21" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2996,6 +3020,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="172" fontId="2" fillId="18" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="18" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="21" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="21" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="20" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -3004,99 +3052,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="77">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF0000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFF0000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -3370,6 +3325,373 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="172" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFF0000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3653,280 +3975,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <border>
@@ -5090,53 +5138,53 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tableau2" displayName="Tableau2" ref="B13:H284" totalsRowCount="1" headerRowDxfId="40" dataDxfId="38" totalsRowDxfId="36" headerRowBorderDxfId="39" tableBorderDxfId="37" totalsRowBorderDxfId="35">
-  <autoFilter ref="B13:H283" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tableau2" displayName="Tableau2" ref="B13:H300" totalsRowCount="1" headerRowDxfId="40" dataDxfId="38" totalsRowDxfId="36" headerRowBorderDxfId="39" tableBorderDxfId="37" totalsRowBorderDxfId="35">
+  <autoFilter ref="B13:H299" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Date" totalsRowLabel="Solde De La Caisse" dataDxfId="34" totalsRowDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Opérations" dataDxfId="33" totalsRowDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Par / De" totalsRowFunction="custom" dataDxfId="32" totalsRowDxfId="11">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Date" totalsRowLabel="Solde De La Caisse" dataDxfId="13" totalsRowDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Opérations" dataDxfId="12" totalsRowDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Par / De" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="4">
       <totalsRowFormula>Tableau2[[#Totals],[Crédit]]-Tableau2[[#Totals],[Débit]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Débit" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Crédit" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{C30977D3-8D38-454C-AD50-AD6368348F30}" name="LOT" dataDxfId="29" totalsRowDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Observation" totalsRowFunction="count" dataDxfId="28" totalsRowDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Débit" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Crédit" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{C30977D3-8D38-454C-AD50-AD6368348F30}" name="LOT" dataDxfId="8" totalsRowDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Observation" totalsRowFunction="count" dataDxfId="7" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7806D280-479D-4BBD-9B9E-3AA9E67319C5}" name="Tableau6" displayName="Tableau6" ref="R13:R29" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7806D280-479D-4BBD-9B9E-3AA9E67319C5}" name="Tableau6" displayName="Tableau6" ref="R13:R29" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
   <autoFilter ref="R13:R29" xr:uid="{7C1DE353-BB19-436D-A152-983C47C78B9A}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{5955CE97-A309-4197-818D-A9EABF5AE20B}" name="Colonne1" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{5955CE97-A309-4197-818D-A9EABF5AE20B}" name="Colonne1" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{18FB793D-403A-4D62-8F16-D79D9EAD4081}" name="Tableau8" displayName="Tableau8" ref="T13:T29" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{18FB793D-403A-4D62-8F16-D79D9EAD4081}" name="Tableau8" displayName="Tableau8" ref="T13:T29" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="T13:T29" xr:uid="{06DB10D3-BDE0-4EAA-B542-5E6618A236D2}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{769C60AC-2314-4C7C-A097-41CE787E6F8B}" name="Colonne1" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{769C60AC-2314-4C7C-A097-41CE787E6F8B}" name="Colonne1" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau3" displayName="Tableau3" ref="B13:G78" totalsRowShown="0" headerRowBorderDxfId="21" tableBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau3" displayName="Tableau3" ref="B13:G78" totalsRowShown="0" headerRowBorderDxfId="28" tableBorderDxfId="27">
   <autoFilter ref="B13:G78" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Date" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Opérations" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Par / De" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Débit" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Crédit" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Observation" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Date" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Opérations" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Par / De" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Débit" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Crédit" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Observation" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5501,8 +5549,8 @@
       <c r="G4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="295"/>
-      <c r="I4" s="296"/>
+      <c r="H4" s="281"/>
+      <c r="I4" s="282"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
@@ -5529,11 +5577,11 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="297" t="s">
+      <c r="C10" s="283" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="298"/>
-      <c r="E10" s="299"/>
+      <c r="D10" s="284"/>
+      <c r="E10" s="285"/>
       <c r="F10" s="26"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
@@ -5594,11 +5642,11 @@
       <c r="C18" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="300" t="s">
+      <c r="D18" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="301"/>
-      <c r="F18" s="302"/>
+      <c r="E18" s="287"/>
+      <c r="F18" s="288"/>
       <c r="G18" s="40" t="s">
         <v>20</v>
       </c>
@@ -5612,9 +5660,9 @@
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="22"/>
       <c r="C19" s="23"/>
-      <c r="D19" s="292"/>
-      <c r="E19" s="293"/>
-      <c r="F19" s="294"/>
+      <c r="D19" s="278"/>
+      <c r="E19" s="279"/>
+      <c r="F19" s="280"/>
       <c r="G19" s="37"/>
       <c r="H19" s="37"/>
       <c r="I19" s="24">
@@ -5625,9 +5673,9 @@
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="11"/>
       <c r="C20" s="12"/>
-      <c r="D20" s="292"/>
-      <c r="E20" s="293"/>
-      <c r="F20" s="294"/>
+      <c r="D20" s="278"/>
+      <c r="E20" s="279"/>
+      <c r="F20" s="280"/>
       <c r="G20" s="38"/>
       <c r="H20" s="38"/>
       <c r="I20" s="13">
@@ -5638,9 +5686,9 @@
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
-      <c r="D21" s="292"/>
-      <c r="E21" s="293"/>
-      <c r="F21" s="294"/>
+      <c r="D21" s="278"/>
+      <c r="E21" s="279"/>
+      <c r="F21" s="280"/>
       <c r="G21" s="38"/>
       <c r="H21" s="38"/>
       <c r="I21" s="13">
@@ -5651,9 +5699,9 @@
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
-      <c r="D22" s="292"/>
-      <c r="E22" s="293"/>
-      <c r="F22" s="294"/>
+      <c r="D22" s="278"/>
+      <c r="E22" s="279"/>
+      <c r="F22" s="280"/>
       <c r="G22" s="38"/>
       <c r="H22" s="38"/>
       <c r="I22" s="13">
@@ -5664,9 +5712,9 @@
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
-      <c r="D23" s="292"/>
-      <c r="E23" s="293"/>
-      <c r="F23" s="294"/>
+      <c r="D23" s="278"/>
+      <c r="E23" s="279"/>
+      <c r="F23" s="280"/>
       <c r="G23" s="38"/>
       <c r="H23" s="38"/>
       <c r="I23" s="13">
@@ -5677,9 +5725,9 @@
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
-      <c r="D24" s="292"/>
-      <c r="E24" s="293"/>
-      <c r="F24" s="294"/>
+      <c r="D24" s="278"/>
+      <c r="E24" s="279"/>
+      <c r="F24" s="280"/>
       <c r="G24" s="38"/>
       <c r="H24" s="38"/>
       <c r="I24" s="13">
@@ -5703,9 +5751,9 @@
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
-      <c r="D26" s="292"/>
-      <c r="E26" s="293"/>
-      <c r="F26" s="294"/>
+      <c r="D26" s="278"/>
+      <c r="E26" s="279"/>
+      <c r="F26" s="280"/>
       <c r="G26" s="38"/>
       <c r="H26" s="38"/>
       <c r="I26" s="13">
@@ -5716,9 +5764,9 @@
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
-      <c r="D27" s="292"/>
-      <c r="E27" s="293"/>
-      <c r="F27" s="294"/>
+      <c r="D27" s="278"/>
+      <c r="E27" s="279"/>
+      <c r="F27" s="280"/>
       <c r="G27" s="38"/>
       <c r="H27" s="38"/>
       <c r="I27" s="13">
@@ -5729,9 +5777,9 @@
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
-      <c r="D28" s="292"/>
-      <c r="E28" s="293"/>
-      <c r="F28" s="294"/>
+      <c r="D28" s="278"/>
+      <c r="E28" s="279"/>
+      <c r="F28" s="280"/>
       <c r="G28" s="38"/>
       <c r="H28" s="38"/>
       <c r="I28" s="13">
@@ -5742,9 +5790,9 @@
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
-      <c r="D29" s="292"/>
-      <c r="E29" s="293"/>
-      <c r="F29" s="294"/>
+      <c r="D29" s="278"/>
+      <c r="E29" s="279"/>
+      <c r="F29" s="280"/>
       <c r="G29" s="38"/>
       <c r="H29" s="38"/>
       <c r="I29" s="13">
@@ -5755,9 +5803,9 @@
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" s="11"/>
       <c r="C30" s="12"/>
-      <c r="D30" s="292"/>
-      <c r="E30" s="293"/>
-      <c r="F30" s="294"/>
+      <c r="D30" s="278"/>
+      <c r="E30" s="279"/>
+      <c r="F30" s="280"/>
       <c r="G30" s="38"/>
       <c r="H30" s="38"/>
       <c r="I30" s="13">
@@ -5768,9 +5816,9 @@
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" s="11"/>
       <c r="C31" s="12"/>
-      <c r="D31" s="292"/>
-      <c r="E31" s="293"/>
-      <c r="F31" s="294"/>
+      <c r="D31" s="278"/>
+      <c r="E31" s="279"/>
+      <c r="F31" s="280"/>
       <c r="G31" s="38"/>
       <c r="H31" s="38"/>
       <c r="I31" s="13">
@@ -5781,9 +5829,9 @@
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" s="11"/>
       <c r="C32" s="12"/>
-      <c r="D32" s="292"/>
-      <c r="E32" s="293"/>
-      <c r="F32" s="294"/>
+      <c r="D32" s="278"/>
+      <c r="E32" s="279"/>
+      <c r="F32" s="280"/>
       <c r="G32" s="38"/>
       <c r="H32" s="38"/>
       <c r="I32" s="13">
@@ -5794,9 +5842,9 @@
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="11"/>
       <c r="C33" s="12"/>
-      <c r="D33" s="292"/>
-      <c r="E33" s="293"/>
-      <c r="F33" s="294"/>
+      <c r="D33" s="278"/>
+      <c r="E33" s="279"/>
+      <c r="F33" s="280"/>
       <c r="G33" s="38"/>
       <c r="H33" s="38"/>
       <c r="I33" s="13">
@@ -5807,9 +5855,9 @@
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="11"/>
       <c r="C34" s="12"/>
-      <c r="D34" s="292"/>
-      <c r="E34" s="293"/>
-      <c r="F34" s="294"/>
+      <c r="D34" s="278"/>
+      <c r="E34" s="279"/>
+      <c r="F34" s="280"/>
       <c r="G34" s="38"/>
       <c r="H34" s="38"/>
       <c r="I34" s="13">
@@ -5820,9 +5868,9 @@
     <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" s="11"/>
       <c r="C35" s="12"/>
-      <c r="D35" s="292"/>
-      <c r="E35" s="293"/>
-      <c r="F35" s="294"/>
+      <c r="D35" s="278"/>
+      <c r="E35" s="279"/>
+      <c r="F35" s="280"/>
       <c r="G35" s="38"/>
       <c r="H35" s="38"/>
       <c r="I35" s="13">
@@ -5833,9 +5881,9 @@
     <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="11"/>
       <c r="C36" s="12"/>
-      <c r="D36" s="292"/>
-      <c r="E36" s="293"/>
-      <c r="F36" s="294"/>
+      <c r="D36" s="278"/>
+      <c r="E36" s="279"/>
+      <c r="F36" s="280"/>
       <c r="G36" s="38"/>
       <c r="H36" s="38"/>
       <c r="I36" s="13">
@@ -5846,9 +5894,9 @@
     <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" s="11"/>
       <c r="C37" s="12"/>
-      <c r="D37" s="292"/>
-      <c r="E37" s="293"/>
-      <c r="F37" s="294"/>
+      <c r="D37" s="278"/>
+      <c r="E37" s="279"/>
+      <c r="F37" s="280"/>
       <c r="G37" s="38"/>
       <c r="H37" s="38"/>
       <c r="I37" s="13">
@@ -5859,9 +5907,9 @@
     <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" s="11"/>
       <c r="C38" s="12"/>
-      <c r="D38" s="292"/>
-      <c r="E38" s="293"/>
-      <c r="F38" s="294"/>
+      <c r="D38" s="278"/>
+      <c r="E38" s="279"/>
+      <c r="F38" s="280"/>
       <c r="G38" s="38"/>
       <c r="H38" s="38"/>
       <c r="I38" s="13">
@@ -6176,15 +6224,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="D37:F37"/>
@@ -6198,6 +6237,15 @@
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="D29:F29"/>
     <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
@@ -6233,14 +6281,14 @@
   <sheetData>
     <row r="2" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="307" t="s">
+      <c r="B3" s="293" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="308"/>
-      <c r="D3" s="308"/>
-      <c r="E3" s="308"/>
-      <c r="F3" s="308"/>
-      <c r="G3" s="309"/>
+      <c r="C3" s="294"/>
+      <c r="D3" s="294"/>
+      <c r="E3" s="294"/>
+      <c r="F3" s="294"/>
+      <c r="G3" s="295"/>
     </row>
     <row r="4" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C4" s="45"/>
@@ -6249,21 +6297,21 @@
       <c r="F4" s="46"/>
     </row>
     <row r="5" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="304" t="s">
+      <c r="B5" s="290" t="s">
         <v>274</v>
       </c>
-      <c r="C5" s="305"/>
-      <c r="D5" s="305"/>
-      <c r="E5" s="305"/>
-      <c r="F5" s="305"/>
-      <c r="G5" s="306"/>
+      <c r="C5" s="291"/>
+      <c r="D5" s="291"/>
+      <c r="E5" s="291"/>
+      <c r="F5" s="291"/>
+      <c r="G5" s="292"/>
     </row>
     <row r="6" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E7" s="315" t="s">
+      <c r="E7" s="301" t="s">
         <v>197</v>
       </c>
-      <c r="F7" s="315"/>
+      <c r="F7" s="301"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="164" t="s">
@@ -6273,10 +6321,10 @@
         <v>37</v>
       </c>
       <c r="D8" s="61"/>
-      <c r="E8" s="314" t="s">
+      <c r="E8" s="300" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="314"/>
+      <c r="F8" s="300"/>
       <c r="G8" s="173"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
@@ -6288,10 +6336,10 @@
         <v>440580</v>
       </c>
       <c r="D9" s="62"/>
-      <c r="E9" s="313" t="s">
+      <c r="E9" s="299" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="313"/>
+      <c r="F9" s="299"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="164" t="s">
@@ -6302,10 +6350,10 @@
         <v>413420</v>
       </c>
       <c r="D10" s="63"/>
-      <c r="E10" s="312" t="s">
+      <c r="E10" s="298" t="s">
         <v>198</v>
       </c>
-      <c r="F10" s="312"/>
+      <c r="F10" s="298"/>
     </row>
     <row r="11" spans="2:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="164" t="s">
@@ -6316,10 +6364,10 @@
         <v>-27160</v>
       </c>
       <c r="D11" s="127"/>
-      <c r="E11" s="310" t="s">
+      <c r="E11" s="296" t="s">
         <v>196</v>
       </c>
-      <c r="F11" s="311"/>
+      <c r="F11" s="297"/>
     </row>
     <row r="13" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="178" t="s">
@@ -7459,26 +7507,26 @@
       <c r="G95" s="126"/>
     </row>
     <row r="98" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="303" t="s">
+      <c r="B98" s="289" t="s">
         <v>321</v>
       </c>
-      <c r="C98" s="303"/>
-      <c r="D98" s="303"/>
-      <c r="E98" s="303"/>
-      <c r="F98" s="303"/>
-      <c r="G98" s="303"/>
+      <c r="C98" s="289"/>
+      <c r="D98" s="289"/>
+      <c r="E98" s="289"/>
+      <c r="F98" s="289"/>
+      <c r="G98" s="289"/>
       <c r="H98">
         <f>6400/1280</f>
         <v>5</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B99" s="303"/>
-      <c r="C99" s="303"/>
-      <c r="D99" s="303"/>
-      <c r="E99" s="303"/>
-      <c r="F99" s="303"/>
-      <c r="G99" s="303"/>
+      <c r="B99" s="289"/>
+      <c r="C99" s="289"/>
+      <c r="D99" s="289"/>
+      <c r="E99" s="289"/>
+      <c r="F99" s="289"/>
+      <c r="G99" s="289"/>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B100" s="149"/>
@@ -7532,14 +7580,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="319" t="s">
+      <c r="B3" s="305" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="319"/>
-      <c r="D3" s="319"/>
-      <c r="E3" s="319"/>
-      <c r="F3" s="319"/>
-      <c r="G3" s="319"/>
+      <c r="C3" s="305"/>
+      <c r="D3" s="305"/>
+      <c r="E3" s="305"/>
+      <c r="F3" s="305"/>
+      <c r="G3" s="305"/>
     </row>
     <row r="4" spans="2:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="150"/>
@@ -7548,21 +7596,21 @@
       <c r="F4" s="151"/>
     </row>
     <row r="5" spans="2:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="318" t="s">
+      <c r="B5" s="304" t="s">
         <v>288</v>
       </c>
-      <c r="C5" s="318"/>
-      <c r="D5" s="318"/>
-      <c r="E5" s="318"/>
-      <c r="F5" s="318"/>
-      <c r="G5" s="318"/>
+      <c r="C5" s="304"/>
+      <c r="D5" s="304"/>
+      <c r="E5" s="304"/>
+      <c r="F5" s="304"/>
+      <c r="G5" s="304"/>
     </row>
     <row r="6" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E7" s="316" t="s">
+      <c r="E7" s="302" t="s">
         <v>197</v>
       </c>
-      <c r="F7" s="317"/>
+      <c r="F7" s="303"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="190" t="s">
@@ -7572,10 +7620,10 @@
         <v>37</v>
       </c>
       <c r="D8" s="187"/>
-      <c r="E8" s="320" t="s">
+      <c r="E8" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="321"/>
+      <c r="F8" s="307"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="190" t="s">
@@ -7586,10 +7634,10 @@
         <v>98590</v>
       </c>
       <c r="D9" s="188"/>
-      <c r="E9" s="322" t="s">
+      <c r="E9" s="308" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="323"/>
+      <c r="F9" s="309"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="190" t="s">
@@ -7600,10 +7648,10 @@
         <v>66000</v>
       </c>
       <c r="D10" s="188"/>
-      <c r="E10" s="324" t="s">
+      <c r="E10" s="310" t="s">
         <v>198</v>
       </c>
-      <c r="F10" s="325"/>
+      <c r="F10" s="311"/>
     </row>
     <row r="11" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="190" t="s">
@@ -7614,10 +7662,10 @@
         <v>-32590</v>
       </c>
       <c r="D11" s="189"/>
-      <c r="E11" s="310" t="s">
+      <c r="E11" s="296" t="s">
         <v>196</v>
       </c>
-      <c r="F11" s="311"/>
+      <c r="F11" s="297"/>
     </row>
     <row r="12" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8649,14 +8697,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="319" t="s">
+      <c r="B3" s="305" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="319"/>
-      <c r="D3" s="319"/>
-      <c r="E3" s="319"/>
-      <c r="F3" s="319"/>
-      <c r="G3" s="319"/>
+      <c r="C3" s="305"/>
+      <c r="D3" s="305"/>
+      <c r="E3" s="305"/>
+      <c r="F3" s="305"/>
+      <c r="G3" s="305"/>
     </row>
     <row r="4" spans="2:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="150"/>
@@ -8665,21 +8713,21 @@
       <c r="F4" s="151"/>
     </row>
     <row r="5" spans="2:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="318" t="s">
+      <c r="B5" s="304" t="s">
         <v>379</v>
       </c>
-      <c r="C5" s="318"/>
-      <c r="D5" s="318"/>
-      <c r="E5" s="318"/>
-      <c r="F5" s="318"/>
-      <c r="G5" s="318"/>
+      <c r="C5" s="304"/>
+      <c r="D5" s="304"/>
+      <c r="E5" s="304"/>
+      <c r="F5" s="304"/>
+      <c r="G5" s="304"/>
     </row>
     <row r="6" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E7" s="316" t="s">
+      <c r="E7" s="302" t="s">
         <v>197</v>
       </c>
-      <c r="F7" s="317"/>
+      <c r="F7" s="303"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="190" t="s">
@@ -8689,10 +8737,10 @@
         <v>37</v>
       </c>
       <c r="D8" s="187"/>
-      <c r="E8" s="320" t="s">
+      <c r="E8" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="321"/>
+      <c r="F8" s="307"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="190" t="s">
@@ -8703,10 +8751,10 @@
         <v>53890</v>
       </c>
       <c r="D9" s="188"/>
-      <c r="E9" s="322" t="s">
+      <c r="E9" s="308" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="323"/>
+      <c r="F9" s="309"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="190" t="s">
@@ -8717,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="D10" s="188"/>
-      <c r="E10" s="324" t="s">
+      <c r="E10" s="310" t="s">
         <v>198</v>
       </c>
-      <c r="F10" s="325"/>
+      <c r="F10" s="311"/>
     </row>
     <row r="11" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="190" t="s">
@@ -8731,10 +8779,10 @@
         <v>-53890</v>
       </c>
       <c r="D11" s="189"/>
-      <c r="E11" s="310" t="s">
+      <c r="E11" s="296" t="s">
         <v>196</v>
       </c>
-      <c r="F11" s="311"/>
+      <c r="F11" s="297"/>
     </row>
     <row r="12" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8816,8 +8864,8 @@
       <c r="G18" s="114" t="s">
         <v>295</v>
       </c>
-      <c r="H18" s="326"/>
-      <c r="I18" s="327"/>
+      <c r="H18" s="312"/>
+      <c r="I18" s="313"/>
     </row>
     <row r="19" spans="1:9" s="154" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="166"/>
@@ -9440,13 +9488,13 @@
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9461,10 +9509,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:X284"/>
+  <dimension ref="A1:X300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B259" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B283" sqref="B283"/>
+    <sheetView tabSelected="1" topLeftCell="A280" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H292" sqref="H292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9472,12 +9520,12 @@
     <col min="1" max="1" width="3.42578125" style="201" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" style="213" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" style="151" customWidth="1"/>
-    <col min="4" max="4" width="20" style="151" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" style="151" customWidth="1"/>
     <col min="5" max="5" width="13.140625" style="151" customWidth="1"/>
     <col min="6" max="6" width="17" style="151" customWidth="1"/>
     <col min="7" max="7" width="37.42578125" style="151" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="38.5703125" style="222" customWidth="1"/>
-    <col min="9" max="9" width="26.5703125" style="280" customWidth="1"/>
+    <col min="9" max="9" width="26.5703125" style="266" customWidth="1"/>
     <col min="10" max="10" width="17.7109375" style="46" customWidth="1"/>
     <col min="11" max="17" width="11.42578125" style="46"/>
     <col min="18" max="18" width="11.7109375" style="46" customWidth="1"/>
@@ -9493,12 +9541,12 @@
       <c r="H2" s="214"/>
     </row>
     <row r="3" spans="2:24" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="328" t="s">
+      <c r="C3" s="314" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="329"/>
-      <c r="E3" s="330"/>
-      <c r="F3" s="330"/>
+      <c r="D3" s="315"/>
+      <c r="E3" s="316"/>
+      <c r="F3" s="316"/>
       <c r="G3" s="223"/>
       <c r="H3" s="214"/>
     </row>
@@ -9513,12 +9561,12 @@
       <c r="H5" s="214"/>
     </row>
     <row r="6" spans="2:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="331" t="s">
+      <c r="C6" s="317" t="s">
         <v>381</v>
       </c>
-      <c r="D6" s="331"/>
-      <c r="E6" s="332"/>
-      <c r="F6" s="332"/>
+      <c r="D6" s="317"/>
+      <c r="E6" s="318"/>
+      <c r="F6" s="318"/>
       <c r="G6" s="215"/>
       <c r="H6" s="214"/>
     </row>
@@ -9541,7 +9589,7 @@
       </c>
       <c r="C9" s="162">
         <f>Tableau2[[#Totals],[Débit]]</f>
-        <v>1576175</v>
+        <v>1806135</v>
       </c>
       <c r="D9" s="217"/>
       <c r="H9" s="214"/>
@@ -9552,7 +9600,7 @@
       </c>
       <c r="C10" s="162">
         <f>Tableau2[[#Totals],[Crédit]]</f>
-        <v>1560200</v>
+        <v>1850200</v>
       </c>
       <c r="H10" s="214"/>
     </row>
@@ -9562,7 +9610,7 @@
       </c>
       <c r="C11" s="78">
         <f>C10-C9</f>
-        <v>-15975</v>
+        <v>44065</v>
       </c>
       <c r="D11" s="148"/>
       <c r="H11" s="214"/>
@@ -9595,7 +9643,7 @@
       <c r="H13" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="281" t="s">
+      <c r="I13" s="267" t="s">
         <v>221</v>
       </c>
       <c r="R13" s="46" t="s">
@@ -9609,7 +9657,7 @@
       </c>
     </row>
     <row r="14" spans="2:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="250">
+      <c r="B14" s="83">
         <v>44762</v>
       </c>
       <c r="C14" s="132" t="s">
@@ -9636,7 +9684,7 @@
       </c>
     </row>
     <row r="15" spans="2:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="250"/>
+      <c r="B15" s="83"/>
       <c r="C15" s="132" t="s">
         <v>41</v>
       </c>
@@ -9659,7 +9707,7 @@
       </c>
     </row>
     <row r="16" spans="2:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="250"/>
+      <c r="B16" s="83"/>
       <c r="C16" s="132" t="s">
         <v>41</v>
       </c>
@@ -9683,7 +9731,7 @@
     </row>
     <row r="17" spans="1:18" s="135" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="201"/>
-      <c r="B17" s="251"/>
+      <c r="B17" s="89"/>
       <c r="C17" s="133"/>
       <c r="D17" s="133"/>
       <c r="E17" s="133"/>
@@ -9692,13 +9740,13 @@
         <v>338</v>
       </c>
       <c r="H17" s="196"/>
-      <c r="I17" s="282"/>
+      <c r="I17" s="268"/>
       <c r="R17" s="135" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="250">
+      <c r="B18" s="83">
         <v>44763</v>
       </c>
       <c r="C18" s="132" t="s">
@@ -9717,7 +9765,7 @@
       <c r="H18" s="218"/>
     </row>
     <row r="19" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="252"/>
+      <c r="B19" s="81"/>
       <c r="C19" s="132" t="s">
         <v>42</v>
       </c>
@@ -9737,7 +9785,7 @@
     </row>
     <row r="20" spans="1:18" s="135" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="201"/>
-      <c r="B20" s="253"/>
+      <c r="B20" s="90"/>
       <c r="C20" s="133"/>
       <c r="D20" s="133"/>
       <c r="E20" s="133"/>
@@ -9746,10 +9794,10 @@
         <v>338</v>
       </c>
       <c r="H20" s="196"/>
-      <c r="I20" s="282"/>
+      <c r="I20" s="268"/>
     </row>
     <row r="21" spans="1:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="252">
+      <c r="B21" s="81">
         <v>44765</v>
       </c>
       <c r="C21" s="132" t="s">
@@ -9770,7 +9818,7 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="252"/>
+      <c r="B22" s="81"/>
       <c r="C22" s="132" t="s">
         <v>41</v>
       </c>
@@ -9787,7 +9835,7 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="252"/>
+      <c r="B23" s="81"/>
       <c r="C23" s="132" t="s">
         <v>42</v>
       </c>
@@ -9807,7 +9855,7 @@
     </row>
     <row r="24" spans="1:18" s="135" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="201"/>
-      <c r="B24" s="253"/>
+      <c r="B24" s="90"/>
       <c r="C24" s="133"/>
       <c r="D24" s="133"/>
       <c r="E24" s="133"/>
@@ -9816,10 +9864,10 @@
         <v>338</v>
       </c>
       <c r="H24" s="196"/>
-      <c r="I24" s="282"/>
+      <c r="I24" s="268"/>
     </row>
     <row r="25" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="252">
+      <c r="B25" s="81">
         <v>44766</v>
       </c>
       <c r="C25" s="132" t="s">
@@ -9839,7 +9887,7 @@
       <c r="K25" s="136"/>
     </row>
     <row r="26" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="252"/>
+      <c r="B26" s="81"/>
       <c r="C26" s="132" t="s">
         <v>44</v>
       </c>
@@ -9856,7 +9904,7 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="252"/>
+      <c r="B27" s="81"/>
       <c r="C27" s="132" t="s">
         <v>41</v>
       </c>
@@ -9873,7 +9921,7 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="252"/>
+      <c r="B28" s="81"/>
       <c r="C28" s="132" t="s">
         <v>41</v>
       </c>
@@ -9890,7 +9938,7 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="252"/>
+      <c r="B29" s="81"/>
       <c r="C29" s="132" t="s">
         <v>41</v>
       </c>
@@ -9906,8 +9954,8 @@
         <v>228</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="254"/>
+    <row r="30" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="91"/>
       <c r="C30" s="132" t="s">
         <v>47</v>
       </c>
@@ -9926,7 +9974,7 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="253"/>
+      <c r="B31" s="90"/>
       <c r="C31" s="133"/>
       <c r="D31" s="133"/>
       <c r="E31" s="137"/>
@@ -9937,7 +9985,7 @@
       <c r="H31" s="196"/>
     </row>
     <row r="32" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="252">
+      <c r="B32" s="81">
         <v>44767</v>
       </c>
       <c r="C32" s="132" t="s">
@@ -9956,7 +10004,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="255"/>
+      <c r="B33" s="82"/>
       <c r="C33" s="132" t="s">
         <v>47</v>
       </c>
@@ -9976,7 +10024,7 @@
     </row>
     <row r="34" spans="1:10" s="135" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="201"/>
-      <c r="B34" s="253"/>
+      <c r="B34" s="90"/>
       <c r="C34" s="133"/>
       <c r="D34" s="133"/>
       <c r="E34" s="133"/>
@@ -9985,10 +10033,10 @@
         <v>338</v>
       </c>
       <c r="H34" s="196"/>
-      <c r="I34" s="282"/>
+      <c r="I34" s="268"/>
     </row>
     <row r="35" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="255">
+      <c r="B35" s="82">
         <v>44768</v>
       </c>
       <c r="C35" s="132" t="s">
@@ -10007,7 +10055,7 @@
       <c r="H35" s="218"/>
     </row>
     <row r="36" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="255"/>
+      <c r="B36" s="82"/>
       <c r="C36" s="132" t="s">
         <v>41</v>
       </c>
@@ -10025,7 +10073,7 @@
       <c r="J36" s="139"/>
     </row>
     <row r="37" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="255"/>
+      <c r="B37" s="82"/>
       <c r="C37" s="132" t="s">
         <v>47</v>
       </c>
@@ -10045,7 +10093,7 @@
       <c r="J37" s="139"/>
     </row>
     <row r="38" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="255"/>
+      <c r="B38" s="82"/>
       <c r="C38" s="132" t="s">
         <v>41</v>
       </c>
@@ -10062,7 +10110,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="255"/>
+      <c r="B39" s="82"/>
       <c r="C39" s="132" t="s">
         <v>41</v>
       </c>
@@ -10079,7 +10127,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="255"/>
+      <c r="B40" s="82"/>
       <c r="C40" s="132" t="s">
         <v>41</v>
       </c>
@@ -10094,12 +10142,12 @@
       <c r="H40" s="195" t="s">
         <v>230</v>
       </c>
-      <c r="I40" s="283"/>
+      <c r="I40" s="269"/>
       <c r="J40" s="139"/>
     </row>
     <row r="41" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="202"/>
-      <c r="B41" s="255"/>
+      <c r="B41" s="82"/>
       <c r="C41" s="132" t="s">
         <v>44</v>
       </c>
@@ -10120,7 +10168,7 @@
     </row>
     <row r="42" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="203"/>
-      <c r="B42" s="255"/>
+      <c r="B42" s="82"/>
       <c r="C42" s="132" t="s">
         <v>41</v>
       </c>
@@ -10139,7 +10187,7 @@
     </row>
     <row r="43" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="203"/>
-      <c r="B43" s="255"/>
+      <c r="B43" s="82"/>
       <c r="C43" s="132" t="s">
         <v>41</v>
       </c>
@@ -10158,7 +10206,7 @@
     </row>
     <row r="44" spans="1:10" s="135" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="203"/>
-      <c r="B44" s="253"/>
+      <c r="B44" s="90"/>
       <c r="C44" s="133"/>
       <c r="D44" s="133"/>
       <c r="E44" s="133"/>
@@ -10167,11 +10215,11 @@
         <v>338</v>
       </c>
       <c r="H44" s="196"/>
-      <c r="I44" s="282"/>
+      <c r="I44" s="268"/>
     </row>
     <row r="45" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="203"/>
-      <c r="B45" s="255">
+      <c r="B45" s="82">
         <v>44769</v>
       </c>
       <c r="C45" s="132" t="s">
@@ -10191,7 +10239,7 @@
     </row>
     <row r="46" spans="1:10" s="135" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="203"/>
-      <c r="B46" s="253"/>
+      <c r="B46" s="90"/>
       <c r="C46" s="133"/>
       <c r="D46" s="140"/>
       <c r="E46" s="140"/>
@@ -10200,11 +10248,11 @@
         <v>338</v>
       </c>
       <c r="H46" s="196"/>
-      <c r="I46" s="282"/>
+      <c r="I46" s="268"/>
     </row>
     <row r="47" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="203"/>
-      <c r="B47" s="255">
+      <c r="B47" s="82">
         <v>44770</v>
       </c>
       <c r="C47" s="132" t="s">
@@ -10224,7 +10272,7 @@
     </row>
     <row r="48" spans="1:10" s="135" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="203"/>
-      <c r="B48" s="253"/>
+      <c r="B48" s="90"/>
       <c r="C48" s="133"/>
       <c r="D48" s="133"/>
       <c r="E48" s="133"/>
@@ -10233,11 +10281,11 @@
         <v>338</v>
       </c>
       <c r="H48" s="196"/>
-      <c r="I48" s="282"/>
+      <c r="I48" s="268"/>
     </row>
     <row r="49" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="203"/>
-      <c r="B49" s="255">
+      <c r="B49" s="82">
         <v>44771</v>
       </c>
       <c r="C49" s="132" t="s">
@@ -10257,7 +10305,7 @@
     </row>
     <row r="50" spans="1:10" s="135" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="203"/>
-      <c r="B50" s="253"/>
+      <c r="B50" s="90"/>
       <c r="C50" s="133"/>
       <c r="D50" s="133"/>
       <c r="E50" s="133"/>
@@ -10266,11 +10314,11 @@
         <v>338</v>
       </c>
       <c r="H50" s="196"/>
-      <c r="I50" s="282"/>
+      <c r="I50" s="268"/>
     </row>
     <row r="51" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="203"/>
-      <c r="B51" s="255">
+      <c r="B51" s="82">
         <v>44772</v>
       </c>
       <c r="C51" s="132" t="s">
@@ -10292,7 +10340,7 @@
     </row>
     <row r="52" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="203"/>
-      <c r="B52" s="255"/>
+      <c r="B52" s="82"/>
       <c r="C52" s="132" t="s">
         <v>41</v>
       </c>
@@ -10310,7 +10358,7 @@
     </row>
     <row r="53" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="203"/>
-      <c r="B53" s="255"/>
+      <c r="B53" s="82"/>
       <c r="C53" s="132" t="s">
         <v>41</v>
       </c>
@@ -10328,7 +10376,7 @@
     </row>
     <row r="54" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="203"/>
-      <c r="B54" s="255"/>
+      <c r="B54" s="82"/>
       <c r="C54" s="132" t="s">
         <v>41</v>
       </c>
@@ -10346,7 +10394,7 @@
     </row>
     <row r="55" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="203"/>
-      <c r="B55" s="255"/>
+      <c r="B55" s="82"/>
       <c r="C55" s="132" t="s">
         <v>44</v>
       </c>
@@ -10364,7 +10412,7 @@
     </row>
     <row r="56" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="203"/>
-      <c r="B56" s="255"/>
+      <c r="B56" s="82"/>
       <c r="C56" s="132" t="s">
         <v>41</v>
       </c>
@@ -10382,7 +10430,7 @@
     </row>
     <row r="57" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="203"/>
-      <c r="B57" s="255"/>
+      <c r="B57" s="82"/>
       <c r="C57" s="132" t="s">
         <v>41</v>
       </c>
@@ -10406,7 +10454,7 @@
     </row>
     <row r="58" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="203"/>
-      <c r="B58" s="255"/>
+      <c r="B58" s="82"/>
       <c r="C58" s="132"/>
       <c r="D58" s="132"/>
       <c r="E58" s="138"/>
@@ -10418,7 +10466,7 @@
     </row>
     <row r="59" spans="1:10" s="135" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="203"/>
-      <c r="B59" s="253"/>
+      <c r="B59" s="90"/>
       <c r="C59" s="133"/>
       <c r="D59" s="133"/>
       <c r="E59" s="133"/>
@@ -10427,11 +10475,11 @@
         <v>338</v>
       </c>
       <c r="H59" s="196"/>
-      <c r="I59" s="282"/>
+      <c r="I59" s="268"/>
     </row>
     <row r="60" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="203"/>
-      <c r="B60" s="255">
+      <c r="B60" s="82">
         <v>44773</v>
       </c>
       <c r="C60" s="132" t="s">
@@ -10451,7 +10499,7 @@
     </row>
     <row r="61" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="203"/>
-      <c r="B61" s="255"/>
+      <c r="B61" s="82"/>
       <c r="C61" s="132" t="s">
         <v>39</v>
       </c>
@@ -10471,7 +10519,7 @@
     </row>
     <row r="62" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="203"/>
-      <c r="B62" s="255"/>
+      <c r="B62" s="82"/>
       <c r="C62" s="132" t="s">
         <v>71</v>
       </c>
@@ -10495,7 +10543,7 @@
     </row>
     <row r="63" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="203"/>
-      <c r="B63" s="255"/>
+      <c r="B63" s="82"/>
       <c r="C63" s="132" t="s">
         <v>41</v>
       </c>
@@ -10515,7 +10563,7 @@
     </row>
     <row r="64" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="203"/>
-      <c r="B64" s="255"/>
+      <c r="B64" s="82"/>
       <c r="C64" s="132" t="s">
         <v>41</v>
       </c>
@@ -10533,7 +10581,7 @@
     </row>
     <row r="65" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="203"/>
-      <c r="B65" s="256"/>
+      <c r="B65" s="324"/>
       <c r="C65" s="209"/>
       <c r="D65" s="209"/>
       <c r="E65" s="209"/>
@@ -10545,7 +10593,7 @@
     </row>
     <row r="66" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="203"/>
-      <c r="B66" s="255">
+      <c r="B66" s="82">
         <v>44774</v>
       </c>
       <c r="C66" s="132" t="s">
@@ -10565,7 +10613,7 @@
     </row>
     <row r="67" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="203"/>
-      <c r="B67" s="255"/>
+      <c r="B67" s="82"/>
       <c r="C67" s="132" t="s">
         <v>41</v>
       </c>
@@ -10580,13 +10628,13 @@
       <c r="H67" s="195" t="s">
         <v>234</v>
       </c>
-      <c r="I67" s="280" t="s">
+      <c r="I67" s="266" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="203"/>
-      <c r="B68" s="256"/>
+      <c r="B68" s="324"/>
       <c r="C68" s="209"/>
       <c r="D68" s="209"/>
       <c r="E68" s="209"/>
@@ -10598,7 +10646,7 @@
     </row>
     <row r="69" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="203"/>
-      <c r="B69" s="255">
+      <c r="B69" s="82">
         <v>44775</v>
       </c>
       <c r="C69" s="132" t="s">
@@ -10618,9 +10666,9 @@
         <v>318</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="203"/>
-      <c r="B70" s="255"/>
+      <c r="B70" s="82"/>
       <c r="C70" s="132" t="s">
         <v>41</v>
       </c>
@@ -10640,7 +10688,7 @@
     </row>
     <row r="71" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="203"/>
-      <c r="B71" s="255"/>
+      <c r="B71" s="82"/>
       <c r="C71" s="132" t="s">
         <v>41</v>
       </c>
@@ -10655,11 +10703,11 @@
       <c r="H71" s="197" t="s">
         <v>171</v>
       </c>
-      <c r="I71" s="283"/>
+      <c r="I71" s="269"/>
     </row>
     <row r="72" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="203"/>
-      <c r="B72" s="255"/>
+      <c r="B72" s="82"/>
       <c r="C72" s="132" t="s">
         <v>41</v>
       </c>
@@ -10674,11 +10722,11 @@
       <c r="H72" s="195" t="s">
         <v>249</v>
       </c>
-      <c r="I72" s="283"/>
+      <c r="I72" s="269"/>
     </row>
     <row r="73" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="203"/>
-      <c r="B73" s="255"/>
+      <c r="B73" s="82"/>
       <c r="C73" s="132" t="s">
         <v>41</v>
       </c>
@@ -10696,7 +10744,7 @@
     </row>
     <row r="74" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="203"/>
-      <c r="B74" s="255"/>
+      <c r="B74" s="82"/>
       <c r="C74" s="132" t="s">
         <v>41</v>
       </c>
@@ -10714,7 +10762,7 @@
     </row>
     <row r="75" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="203"/>
-      <c r="B75" s="255"/>
+      <c r="B75" s="82"/>
       <c r="C75" s="132" t="s">
         <v>47</v>
       </c>
@@ -10734,7 +10782,7 @@
     </row>
     <row r="76" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="203"/>
-      <c r="B76" s="256"/>
+      <c r="B76" s="324"/>
       <c r="C76" s="209"/>
       <c r="D76" s="209"/>
       <c r="E76" s="209"/>
@@ -10746,7 +10794,7 @@
     </row>
     <row r="77" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="203"/>
-      <c r="B77" s="255">
+      <c r="B77" s="82">
         <v>44776</v>
       </c>
       <c r="C77" s="132" t="s">
@@ -10763,13 +10811,13 @@
       <c r="H77" s="195" t="s">
         <v>249</v>
       </c>
-      <c r="I77" s="280" t="s">
+      <c r="I77" s="266" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="78" spans="1:9" s="232" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="231"/>
-      <c r="B78" s="256"/>
+      <c r="B78" s="324"/>
       <c r="C78" s="209"/>
       <c r="D78" s="209"/>
       <c r="E78" s="209"/>
@@ -10778,11 +10826,11 @@
         <v>338</v>
       </c>
       <c r="H78" s="211"/>
-      <c r="I78" s="284"/>
+      <c r="I78" s="270"/>
     </row>
     <row r="79" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="203"/>
-      <c r="B79" s="255">
+      <c r="B79" s="82">
         <v>44777</v>
       </c>
       <c r="C79" s="132" t="s">
@@ -10802,7 +10850,7 @@
     </row>
     <row r="80" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="203"/>
-      <c r="B80" s="255"/>
+      <c r="B80" s="82"/>
       <c r="C80" s="132" t="s">
         <v>47</v>
       </c>
@@ -10819,14 +10867,14 @@
       <c r="H80" s="195" t="s">
         <v>176</v>
       </c>
-      <c r="I80" s="280">
+      <c r="I80" s="266">
         <f>37800/1800</f>
         <v>21</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="203"/>
-      <c r="B81" s="255"/>
+      <c r="B81" s="82"/>
       <c r="C81" s="132" t="s">
         <v>41</v>
       </c>
@@ -10841,13 +10889,13 @@
       <c r="H81" s="195" t="s">
         <v>249</v>
       </c>
-      <c r="I81" s="280" t="s">
+      <c r="I81" s="266" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="203"/>
-      <c r="B82" s="256"/>
+      <c r="B82" s="324"/>
       <c r="C82" s="209"/>
       <c r="D82" s="209"/>
       <c r="E82" s="209"/>
@@ -10859,7 +10907,7 @@
     </row>
     <row r="83" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="203"/>
-      <c r="B83" s="255">
+      <c r="B83" s="82">
         <v>44779</v>
       </c>
       <c r="C83" s="132" t="s">
@@ -10877,7 +10925,7 @@
     </row>
     <row r="84" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="203"/>
-      <c r="B84" s="256"/>
+      <c r="B84" s="324"/>
       <c r="C84" s="209"/>
       <c r="D84" s="209"/>
       <c r="E84" s="209"/>
@@ -10889,7 +10937,7 @@
     </row>
     <row r="85" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="203"/>
-      <c r="B85" s="255">
+      <c r="B85" s="82">
         <v>44780</v>
       </c>
       <c r="C85" s="132" t="s">
@@ -10906,13 +10954,13 @@
       <c r="H85" s="195" t="s">
         <v>249</v>
       </c>
-      <c r="I85" s="280" t="s">
+      <c r="I85" s="266" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="203"/>
-      <c r="B86" s="256"/>
+      <c r="B86" s="324"/>
       <c r="C86" s="209"/>
       <c r="D86" s="209"/>
       <c r="E86" s="209"/>
@@ -10924,7 +10972,7 @@
     </row>
     <row r="87" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="203"/>
-      <c r="B87" s="255">
+      <c r="B87" s="82">
         <v>44781</v>
       </c>
       <c r="C87" s="132" t="s">
@@ -10941,7 +10989,7 @@
       <c r="H87" s="195" t="s">
         <v>249</v>
       </c>
-      <c r="I87" s="280" t="s">
+      <c r="I87" s="266" t="s">
         <v>181</v>
       </c>
       <c r="J87" s="46">
@@ -10951,7 +10999,7 @@
     </row>
     <row r="88" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="203"/>
-      <c r="B88" s="255"/>
+      <c r="B88" s="82"/>
       <c r="C88" s="132" t="s">
         <v>41</v>
       </c>
@@ -10966,13 +11014,13 @@
       <c r="H88" s="197" t="s">
         <v>319</v>
       </c>
-      <c r="I88" s="280" t="s">
+      <c r="I88" s="266" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="203"/>
-      <c r="B89" s="256"/>
+      <c r="B89" s="324"/>
       <c r="C89" s="209"/>
       <c r="D89" s="209"/>
       <c r="E89" s="209"/>
@@ -10984,7 +11032,7 @@
     </row>
     <row r="90" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="203"/>
-      <c r="B90" s="255">
+      <c r="B90" s="82">
         <v>44782</v>
       </c>
       <c r="C90" s="132" t="s">
@@ -11001,13 +11049,13 @@
       <c r="H90" s="195" t="s">
         <v>249</v>
       </c>
-      <c r="I90" s="280" t="s">
+      <c r="I90" s="266" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="203"/>
-      <c r="B91" s="255"/>
+      <c r="B91" s="82"/>
       <c r="C91" s="132" t="s">
         <v>41</v>
       </c>
@@ -11027,7 +11075,7 @@
     </row>
     <row r="92" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="203"/>
-      <c r="B92" s="256"/>
+      <c r="B92" s="324"/>
       <c r="C92" s="209"/>
       <c r="D92" s="209"/>
       <c r="E92" s="209"/>
@@ -11039,7 +11087,7 @@
     </row>
     <row r="93" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="203"/>
-      <c r="B93" s="255">
+      <c r="B93" s="82">
         <v>44783</v>
       </c>
       <c r="C93" s="132" t="s">
@@ -11059,7 +11107,7 @@
     </row>
     <row r="94" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="203"/>
-      <c r="B94" s="255"/>
+      <c r="B94" s="82"/>
       <c r="C94" s="132" t="s">
         <v>41</v>
       </c>
@@ -11077,7 +11125,7 @@
     </row>
     <row r="95" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="203"/>
-      <c r="B95" s="255"/>
+      <c r="B95" s="82"/>
       <c r="C95" s="132" t="s">
         <v>41</v>
       </c>
@@ -11095,7 +11143,7 @@
     </row>
     <row r="96" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="203"/>
-      <c r="B96" s="256"/>
+      <c r="B96" s="324"/>
       <c r="C96" s="209"/>
       <c r="D96" s="209"/>
       <c r="E96" s="209"/>
@@ -11107,7 +11155,7 @@
     </row>
     <row r="97" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="203"/>
-      <c r="B97" s="255">
+      <c r="B97" s="82">
         <v>44784</v>
       </c>
       <c r="C97" s="132" t="s">
@@ -11127,7 +11175,7 @@
     </row>
     <row r="98" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="203"/>
-      <c r="B98" s="256"/>
+      <c r="B98" s="324"/>
       <c r="C98" s="209"/>
       <c r="D98" s="209"/>
       <c r="E98" s="209"/>
@@ -11139,7 +11187,7 @@
     </row>
     <row r="99" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="203"/>
-      <c r="B99" s="255">
+      <c r="B99" s="82">
         <v>44786</v>
       </c>
       <c r="C99" s="132" t="s">
@@ -11160,7 +11208,7 @@
     </row>
     <row r="100" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="203"/>
-      <c r="B100" s="256"/>
+      <c r="B100" s="324"/>
       <c r="C100" s="209"/>
       <c r="D100" s="209"/>
       <c r="E100" s="209"/>
@@ -11172,7 +11220,7 @@
     </row>
     <row r="101" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="203"/>
-      <c r="B101" s="255">
+      <c r="B101" s="82">
         <v>44788</v>
       </c>
       <c r="C101" s="132" t="s">
@@ -11192,7 +11240,7 @@
     </row>
     <row r="102" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="203"/>
-      <c r="B102" s="255"/>
+      <c r="B102" s="82"/>
       <c r="C102" s="132" t="s">
         <v>47</v>
       </c>
@@ -11210,7 +11258,7 @@
     </row>
     <row r="103" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="203"/>
-      <c r="B103" s="255"/>
+      <c r="B103" s="82"/>
       <c r="C103" s="132" t="s">
         <v>47</v>
       </c>
@@ -11228,7 +11276,7 @@
     </row>
     <row r="104" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="203"/>
-      <c r="B104" s="256"/>
+      <c r="B104" s="324"/>
       <c r="C104" s="209"/>
       <c r="D104" s="209"/>
       <c r="E104" s="209"/>
@@ -11240,7 +11288,7 @@
     </row>
     <row r="105" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="203"/>
-      <c r="B105" s="255">
+      <c r="B105" s="82">
         <v>44789</v>
       </c>
       <c r="C105" s="132" t="s">
@@ -11260,7 +11308,7 @@
     </row>
     <row r="106" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="203"/>
-      <c r="B106" s="255"/>
+      <c r="B106" s="82"/>
       <c r="C106" s="132" t="s">
         <v>41</v>
       </c>
@@ -11275,13 +11323,13 @@
       <c r="H106" s="195" t="s">
         <v>249</v>
       </c>
-      <c r="I106" s="280" t="s">
+      <c r="I106" s="266" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="203"/>
-      <c r="B107" s="255"/>
+      <c r="B107" s="82"/>
       <c r="C107" s="132" t="s">
         <v>41</v>
       </c>
@@ -11299,7 +11347,7 @@
     </row>
     <row r="108" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="203"/>
-      <c r="B108" s="256"/>
+      <c r="B108" s="324"/>
       <c r="C108" s="209"/>
       <c r="D108" s="209"/>
       <c r="E108" s="209"/>
@@ -11311,7 +11359,7 @@
     </row>
     <row r="109" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="203"/>
-      <c r="B109" s="255">
+      <c r="B109" s="82">
         <v>44790</v>
       </c>
       <c r="C109" s="132" t="s">
@@ -11328,13 +11376,13 @@
       <c r="H109" s="195" t="s">
         <v>242</v>
       </c>
-      <c r="I109" s="281" t="s">
+      <c r="I109" s="267" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="203"/>
-      <c r="B110" s="255"/>
+      <c r="B110" s="82"/>
       <c r="C110" s="132" t="s">
         <v>41</v>
       </c>
@@ -11349,13 +11397,13 @@
       <c r="H110" s="195" t="s">
         <v>362</v>
       </c>
-      <c r="I110" s="281" t="s">
+      <c r="I110" s="267" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="203"/>
-      <c r="B111" s="255"/>
+      <c r="B111" s="82"/>
       <c r="C111" s="132" t="s">
         <v>39</v>
       </c>
@@ -11372,13 +11420,13 @@
       <c r="H111" s="218" t="s">
         <v>363</v>
       </c>
-      <c r="I111" s="280" t="s">
+      <c r="I111" s="266" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="112" spans="1:9" s="232" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="231"/>
-      <c r="B112" s="256"/>
+      <c r="B112" s="324"/>
       <c r="C112" s="209"/>
       <c r="D112" s="209"/>
       <c r="E112" s="209"/>
@@ -11387,11 +11435,11 @@
         <v>338</v>
       </c>
       <c r="H112" s="211"/>
-      <c r="I112" s="284"/>
+      <c r="I112" s="270"/>
     </row>
     <row r="113" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="203"/>
-      <c r="B113" s="255">
+      <c r="B113" s="82">
         <v>44791</v>
       </c>
       <c r="C113" s="132" t="s">
@@ -11411,7 +11459,7 @@
     </row>
     <row r="114" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="203"/>
-      <c r="B114" s="255"/>
+      <c r="B114" s="82"/>
       <c r="C114" s="132" t="s">
         <v>41</v>
       </c>
@@ -11426,13 +11474,13 @@
       <c r="H114" s="195" t="s">
         <v>259</v>
       </c>
-      <c r="I114" s="280" t="s">
+      <c r="I114" s="266" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="203"/>
-      <c r="B115" s="255"/>
+      <c r="B115" s="82"/>
       <c r="C115" s="132" t="s">
         <v>41</v>
       </c>
@@ -11450,7 +11498,7 @@
     </row>
     <row r="116" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="203"/>
-      <c r="B116" s="255"/>
+      <c r="B116" s="82"/>
       <c r="C116" s="132" t="s">
         <v>47</v>
       </c>
@@ -11468,7 +11516,7 @@
     </row>
     <row r="117" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="203"/>
-      <c r="B117" s="256"/>
+      <c r="B117" s="324"/>
       <c r="C117" s="209"/>
       <c r="D117" s="209"/>
       <c r="E117" s="209"/>
@@ -11480,7 +11528,7 @@
     </row>
     <row r="118" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="203"/>
-      <c r="B118" s="255">
+      <c r="B118" s="82">
         <v>44793</v>
       </c>
       <c r="C118" s="132" t="s">
@@ -11497,13 +11545,13 @@
       <c r="H118" s="195" t="s">
         <v>257</v>
       </c>
-      <c r="I118" s="280" t="s">
+      <c r="I118" s="266" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="203"/>
-      <c r="B119" s="255"/>
+      <c r="B119" s="82"/>
       <c r="C119" s="132" t="s">
         <v>41</v>
       </c>
@@ -11518,7 +11566,7 @@
       <c r="H119" s="195" t="s">
         <v>347</v>
       </c>
-      <c r="I119" s="281" t="s">
+      <c r="I119" s="267" t="s">
         <v>350</v>
       </c>
       <c r="J119" s="46">
@@ -11531,7 +11579,7 @@
     </row>
     <row r="120" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="203"/>
-      <c r="B120" s="255"/>
+      <c r="B120" s="82"/>
       <c r="C120" s="132" t="s">
         <v>41</v>
       </c>
@@ -11546,7 +11594,7 @@
       <c r="H120" s="195" t="s">
         <v>348</v>
       </c>
-      <c r="I120" s="285" t="s">
+      <c r="I120" s="271" t="s">
         <v>349</v>
       </c>
       <c r="J120" s="139" t="e">
@@ -11556,7 +11604,7 @@
     </row>
     <row r="121" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="203"/>
-      <c r="B121" s="256"/>
+      <c r="B121" s="324"/>
       <c r="C121" s="209"/>
       <c r="D121" s="209"/>
       <c r="E121" s="209"/>
@@ -11568,7 +11616,7 @@
     </row>
     <row r="122" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="203"/>
-      <c r="B122" s="255">
+      <c r="B122" s="82">
         <v>44794</v>
       </c>
       <c r="C122" s="132" t="s">
@@ -11585,13 +11633,13 @@
       <c r="H122" s="195" t="s">
         <v>249</v>
       </c>
-      <c r="I122" s="280" t="s">
+      <c r="I122" s="266" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="203"/>
-      <c r="B123" s="255"/>
+      <c r="B123" s="82"/>
       <c r="C123" s="132" t="s">
         <v>44</v>
       </c>
@@ -11609,7 +11657,7 @@
     </row>
     <row r="124" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="203"/>
-      <c r="B124" s="255"/>
+      <c r="B124" s="82"/>
       <c r="C124" s="132" t="s">
         <v>41</v>
       </c>
@@ -11627,7 +11675,7 @@
     </row>
     <row r="125" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="203"/>
-      <c r="B125" s="255"/>
+      <c r="B125" s="82"/>
       <c r="C125" s="132" t="s">
         <v>41</v>
       </c>
@@ -11645,7 +11693,7 @@
     </row>
     <row r="126" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="203"/>
-      <c r="B126" s="256"/>
+      <c r="B126" s="324"/>
       <c r="C126" s="209"/>
       <c r="D126" s="209"/>
       <c r="E126" s="209"/>
@@ -11657,7 +11705,7 @@
     </row>
     <row r="127" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="203"/>
-      <c r="B127" s="255">
+      <c r="B127" s="82">
         <v>44795</v>
       </c>
       <c r="C127" s="132" t="s">
@@ -11674,13 +11722,13 @@
       <c r="H127" s="195" t="s">
         <v>249</v>
       </c>
-      <c r="I127" s="280" t="s">
+      <c r="I127" s="266" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="128" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" s="203"/>
-      <c r="B128" s="255"/>
+      <c r="B128" s="82"/>
       <c r="C128" s="132" t="s">
         <v>41</v>
       </c>
@@ -11698,7 +11746,7 @@
     </row>
     <row r="129" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" s="203"/>
-      <c r="B129" s="255"/>
+      <c r="B129" s="82"/>
       <c r="C129" s="132" t="s">
         <v>44</v>
       </c>
@@ -11713,13 +11761,13 @@
       <c r="H129" s="195" t="s">
         <v>254</v>
       </c>
-      <c r="I129" s="280" t="s">
+      <c r="I129" s="266" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="203"/>
-      <c r="B130" s="255"/>
+      <c r="B130" s="82"/>
       <c r="C130" s="132" t="s">
         <v>41</v>
       </c>
@@ -11734,13 +11782,13 @@
       <c r="H130" s="195" t="s">
         <v>260</v>
       </c>
-      <c r="I130" s="280" t="s">
+      <c r="I130" s="266" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="203"/>
-      <c r="B131" s="256"/>
+      <c r="B131" s="324"/>
       <c r="C131" s="209"/>
       <c r="D131" s="209"/>
       <c r="E131" s="209"/>
@@ -11752,7 +11800,7 @@
     </row>
     <row r="132" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" s="203"/>
-      <c r="B132" s="255">
+      <c r="B132" s="82">
         <v>44796</v>
       </c>
       <c r="C132" s="132" t="s">
@@ -11772,7 +11820,7 @@
     </row>
     <row r="133" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="203"/>
-      <c r="B133" s="255"/>
+      <c r="B133" s="82"/>
       <c r="C133" s="132" t="s">
         <v>41</v>
       </c>
@@ -11790,7 +11838,7 @@
     </row>
     <row r="134" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="203"/>
-      <c r="B134" s="255"/>
+      <c r="B134" s="82"/>
       <c r="C134" s="132" t="s">
         <v>41</v>
       </c>
@@ -11808,7 +11856,7 @@
     </row>
     <row r="135" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="203"/>
-      <c r="B135" s="255"/>
+      <c r="B135" s="82"/>
       <c r="C135" s="132" t="s">
         <v>41</v>
       </c>
@@ -11826,7 +11874,7 @@
     </row>
     <row r="136" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A136" s="203"/>
-      <c r="B136" s="255"/>
+      <c r="B136" s="82"/>
       <c r="C136" s="132"/>
       <c r="D136" s="132"/>
       <c r="E136" s="138"/>
@@ -11838,7 +11886,7 @@
     </row>
     <row r="137" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A137" s="203"/>
-      <c r="B137" s="255"/>
+      <c r="B137" s="82"/>
       <c r="C137" s="132" t="s">
         <v>41</v>
       </c>
@@ -11853,13 +11901,13 @@
       <c r="H137" s="195" t="s">
         <v>174</v>
       </c>
-      <c r="I137" s="280" t="s">
+      <c r="I137" s="266" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A138" s="203"/>
-      <c r="B138" s="255"/>
+      <c r="B138" s="82"/>
       <c r="C138" s="132" t="s">
         <v>41</v>
       </c>
@@ -11877,7 +11925,7 @@
     </row>
     <row r="139" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" s="203"/>
-      <c r="B139" s="256"/>
+      <c r="B139" s="324"/>
       <c r="C139" s="209"/>
       <c r="D139" s="209"/>
       <c r="E139" s="209"/>
@@ -11889,7 +11937,7 @@
     </row>
     <row r="140" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="203"/>
-      <c r="B140" s="255">
+      <c r="B140" s="82">
         <v>44797</v>
       </c>
       <c r="C140" s="132" t="s">
@@ -11909,7 +11957,7 @@
     </row>
     <row r="141" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" s="203"/>
-      <c r="B141" s="255"/>
+      <c r="B141" s="82"/>
       <c r="C141" s="132" t="s">
         <v>41</v>
       </c>
@@ -11927,7 +11975,7 @@
     </row>
     <row r="142" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A142" s="203"/>
-      <c r="B142" s="256"/>
+      <c r="B142" s="324"/>
       <c r="C142" s="209"/>
       <c r="D142" s="209"/>
       <c r="E142" s="209"/>
@@ -11939,7 +11987,7 @@
     </row>
     <row r="143" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A143" s="203"/>
-      <c r="B143" s="255">
+      <c r="B143" s="82">
         <v>44798</v>
       </c>
       <c r="C143" s="132" t="s">
@@ -11956,13 +12004,13 @@
       <c r="H143" s="195" t="s">
         <v>264</v>
       </c>
-      <c r="I143" s="280" t="s">
+      <c r="I143" s="266" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A144" s="203"/>
-      <c r="B144" s="255"/>
+      <c r="B144" s="82"/>
       <c r="C144" s="132" t="s">
         <v>41</v>
       </c>
@@ -11980,7 +12028,7 @@
     </row>
     <row r="145" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A145" s="203"/>
-      <c r="B145" s="256"/>
+      <c r="B145" s="324"/>
       <c r="C145" s="209"/>
       <c r="D145" s="209"/>
       <c r="E145" s="209"/>
@@ -11992,7 +12040,7 @@
     </row>
     <row r="146" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A146" s="203"/>
-      <c r="B146" s="255">
+      <c r="B146" s="82">
         <v>44800</v>
       </c>
       <c r="C146" s="132" t="s">
@@ -12012,7 +12060,7 @@
     </row>
     <row r="147" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A147" s="203"/>
-      <c r="B147" s="256"/>
+      <c r="B147" s="324"/>
       <c r="C147" s="209"/>
       <c r="D147" s="209"/>
       <c r="E147" s="209"/>
@@ -12024,7 +12072,7 @@
     </row>
     <row r="148" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" s="203"/>
-      <c r="B148" s="255">
+      <c r="B148" s="82">
         <v>44801</v>
       </c>
       <c r="C148" s="132" t="s">
@@ -12041,13 +12089,13 @@
       <c r="H148" s="195" t="s">
         <v>267</v>
       </c>
-      <c r="I148" s="280" t="s">
+      <c r="I148" s="266" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="203"/>
-      <c r="B149" s="256"/>
+      <c r="B149" s="324"/>
       <c r="C149" s="209"/>
       <c r="D149" s="209"/>
       <c r="E149" s="209"/>
@@ -12059,7 +12107,7 @@
     </row>
     <row r="150" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="203"/>
-      <c r="B150" s="255">
+      <c r="B150" s="82">
         <v>44802</v>
       </c>
       <c r="C150" s="132" t="s">
@@ -12079,7 +12127,7 @@
     </row>
     <row r="151" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="203"/>
-      <c r="B151" s="256"/>
+      <c r="B151" s="324"/>
       <c r="C151" s="209"/>
       <c r="D151" s="209"/>
       <c r="E151" s="209"/>
@@ -12091,7 +12139,7 @@
     </row>
     <row r="152" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="203"/>
-      <c r="B152" s="255">
+      <c r="B152" s="82">
         <v>44803</v>
       </c>
       <c r="C152" s="132" t="s">
@@ -12111,7 +12159,7 @@
     </row>
     <row r="153" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="203"/>
-      <c r="B153" s="255"/>
+      <c r="B153" s="82"/>
       <c r="C153" s="132" t="s">
         <v>41</v>
       </c>
@@ -12127,9 +12175,9 @@
         <v>269</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" s="203"/>
-      <c r="B154" s="255"/>
+      <c r="B154" s="82"/>
       <c r="C154" s="132" t="s">
         <v>41</v>
       </c>
@@ -12149,7 +12197,7 @@
     </row>
     <row r="155" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="203"/>
-      <c r="B155" s="256"/>
+      <c r="B155" s="324"/>
       <c r="C155" s="209"/>
       <c r="D155" s="209"/>
       <c r="E155" s="209"/>
@@ -12161,7 +12209,7 @@
     </row>
     <row r="156" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A156" s="203"/>
-      <c r="B156" s="255">
+      <c r="B156" s="82">
         <v>44804</v>
       </c>
       <c r="C156" s="132" t="s">
@@ -12181,7 +12229,7 @@
     </row>
     <row r="157" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A157" s="203"/>
-      <c r="B157" s="255"/>
+      <c r="B157" s="82"/>
       <c r="C157" s="132" t="s">
         <v>41</v>
       </c>
@@ -12199,7 +12247,7 @@
     </row>
     <row r="158" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A158" s="203"/>
-      <c r="B158" s="255"/>
+      <c r="B158" s="82"/>
       <c r="C158" s="132" t="s">
         <v>39</v>
       </c>
@@ -12219,7 +12267,7 @@
     </row>
     <row r="159" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A159" s="203"/>
-      <c r="B159" s="255"/>
+      <c r="B159" s="82"/>
       <c r="C159" s="132" t="s">
         <v>41</v>
       </c>
@@ -12236,7 +12284,7 @@
       </c>
     </row>
     <row r="160" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="257"/>
+      <c r="B160" s="325"/>
       <c r="C160" s="219" t="s">
         <v>41</v>
       </c>
@@ -12254,7 +12302,7 @@
     </row>
     <row r="161" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A161" s="203"/>
-      <c r="B161" s="256"/>
+      <c r="B161" s="324"/>
       <c r="C161" s="209"/>
       <c r="D161" s="209"/>
       <c r="E161" s="209"/>
@@ -12266,7 +12314,7 @@
     </row>
     <row r="162" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A162" s="203"/>
-      <c r="B162" s="255">
+      <c r="B162" s="82">
         <v>44805</v>
       </c>
       <c r="C162" s="132"/>
@@ -12282,7 +12330,7 @@
     </row>
     <row r="163" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A163" s="203"/>
-      <c r="B163" s="256"/>
+      <c r="B163" s="324"/>
       <c r="C163" s="209"/>
       <c r="D163" s="209"/>
       <c r="E163" s="209"/>
@@ -12294,7 +12342,7 @@
     </row>
     <row r="164" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" s="203"/>
-      <c r="B164" s="255">
+      <c r="B164" s="82">
         <v>44807</v>
       </c>
       <c r="C164" s="132" t="s">
@@ -12314,7 +12362,7 @@
     </row>
     <row r="165" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A165" s="203"/>
-      <c r="B165" s="256"/>
+      <c r="B165" s="324"/>
       <c r="C165" s="209"/>
       <c r="D165" s="209"/>
       <c r="E165" s="209"/>
@@ -12323,7 +12371,7 @@
         <v>338</v>
       </c>
       <c r="H165" s="211"/>
-      <c r="I165" s="280" t="s">
+      <c r="I165" s="266" t="s">
         <v>329</v>
       </c>
       <c r="K165" s="138">
@@ -12332,7 +12380,7 @@
     </row>
     <row r="166" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A166" s="203"/>
-      <c r="B166" s="255">
+      <c r="B166" s="82">
         <v>44808</v>
       </c>
       <c r="C166" s="132" t="s">
@@ -12352,7 +12400,7 @@
     </row>
     <row r="167" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A167" s="203"/>
-      <c r="B167" s="256"/>
+      <c r="B167" s="324"/>
       <c r="C167" s="209"/>
       <c r="D167" s="209"/>
       <c r="E167" s="209"/>
@@ -12361,14 +12409,14 @@
         <v>338</v>
       </c>
       <c r="H167" s="211"/>
-      <c r="I167" s="280">
+      <c r="I167" s="266">
         <f>2000+600+1750+700</f>
         <v>5050</v>
       </c>
     </row>
     <row r="168" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A168" s="203"/>
-      <c r="B168" s="255">
+      <c r="B168" s="82">
         <v>44809</v>
       </c>
       <c r="C168" s="132" t="s">
@@ -12387,7 +12435,7 @@
       </c>
     </row>
     <row r="169" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="256"/>
+      <c r="B169" s="324"/>
       <c r="C169" s="209"/>
       <c r="D169" s="209"/>
       <c r="E169" s="209"/>
@@ -12398,7 +12446,7 @@
       <c r="H169" s="211"/>
     </row>
     <row r="170" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="255">
+      <c r="B170" s="82">
         <v>44810</v>
       </c>
       <c r="C170" s="132" t="s">
@@ -12417,7 +12465,7 @@
       </c>
     </row>
     <row r="171" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B171" s="255"/>
+      <c r="B171" s="82"/>
       <c r="C171" s="132" t="s">
         <v>44</v>
       </c>
@@ -12432,12 +12480,12 @@
       <c r="H171" s="195" t="s">
         <v>312</v>
       </c>
-      <c r="I171" s="280" t="s">
+      <c r="I171" s="266" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="172" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="255"/>
+      <c r="B172" s="82"/>
       <c r="C172" s="132" t="s">
         <v>41</v>
       </c>
@@ -12452,12 +12500,12 @@
       <c r="H172" s="195" t="s">
         <v>352</v>
       </c>
-      <c r="I172" s="281" t="s">
+      <c r="I172" s="267" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="173" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="255"/>
+      <c r="B173" s="82"/>
       <c r="C173" s="132" t="s">
         <v>41</v>
       </c>
@@ -12474,7 +12522,7 @@
       </c>
     </row>
     <row r="174" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="255"/>
+      <c r="B174" s="82"/>
       <c r="C174" s="132" t="s">
         <v>41</v>
       </c>
@@ -12491,7 +12539,7 @@
       </c>
     </row>
     <row r="175" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B175" s="255"/>
+      <c r="B175" s="82"/>
       <c r="C175" s="132" t="s">
         <v>42</v>
       </c>
@@ -12508,13 +12556,13 @@
       <c r="H175" s="195" t="s">
         <v>326</v>
       </c>
-      <c r="I175" s="280">
+      <c r="I175" s="266">
         <f>27*1800</f>
         <v>48600</v>
       </c>
     </row>
     <row r="176" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="255"/>
+      <c r="B176" s="82"/>
       <c r="C176" s="132" t="s">
         <v>42</v>
       </c>
@@ -12533,7 +12581,7 @@
       </c>
     </row>
     <row r="177" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="256"/>
+      <c r="B177" s="324"/>
       <c r="C177" s="209"/>
       <c r="D177" s="209"/>
       <c r="E177" s="209"/>
@@ -12544,7 +12592,7 @@
       <c r="H177" s="211"/>
     </row>
     <row r="178" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="255">
+      <c r="B178" s="82">
         <v>44811</v>
       </c>
       <c r="C178" s="132" t="s">
@@ -12561,12 +12609,12 @@
       <c r="H178" s="195" t="s">
         <v>174</v>
       </c>
-      <c r="I178" s="280" t="s">
+      <c r="I178" s="266" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="179" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B179" s="255"/>
+      <c r="B179" s="82"/>
       <c r="C179" s="132" t="s">
         <v>41</v>
       </c>
@@ -12583,7 +12631,7 @@
       </c>
     </row>
     <row r="180" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="255"/>
+      <c r="B180" s="82"/>
       <c r="C180" s="132" t="s">
         <v>41</v>
       </c>
@@ -12600,7 +12648,7 @@
       </c>
     </row>
     <row r="181" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="256"/>
+      <c r="B181" s="324"/>
       <c r="C181" s="209"/>
       <c r="D181" s="209"/>
       <c r="E181" s="209"/>
@@ -12611,7 +12659,7 @@
       <c r="H181" s="211"/>
     </row>
     <row r="182" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B182" s="255">
+      <c r="B182" s="82">
         <v>44815</v>
       </c>
       <c r="C182" s="132" t="s">
@@ -12628,12 +12676,12 @@
       <c r="H182" s="195" t="s">
         <v>174</v>
       </c>
-      <c r="I182" s="280" t="s">
+      <c r="I182" s="266" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="183" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B183" s="255"/>
+      <c r="B183" s="82"/>
       <c r="C183" s="132" t="s">
         <v>41</v>
       </c>
@@ -12650,7 +12698,7 @@
       </c>
     </row>
     <row r="184" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="255"/>
+      <c r="B184" s="82"/>
       <c r="C184" s="132" t="s">
         <v>41</v>
       </c>
@@ -12665,12 +12713,12 @@
       <c r="H184" s="195" t="s">
         <v>356</v>
       </c>
-      <c r="I184" s="280" t="s">
+      <c r="I184" s="266" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="185" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B185" s="256"/>
+      <c r="B185" s="324"/>
       <c r="C185" s="209"/>
       <c r="D185" s="209"/>
       <c r="E185" s="209"/>
@@ -12681,7 +12729,7 @@
       <c r="H185" s="211"/>
     </row>
     <row r="186" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="255">
+      <c r="B186" s="82">
         <v>44816</v>
       </c>
       <c r="C186" s="132" t="s">
@@ -12698,12 +12746,12 @@
       <c r="H186" s="195" t="s">
         <v>174</v>
       </c>
-      <c r="I186" s="280" t="s">
+      <c r="I186" s="266" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="187" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="255"/>
+      <c r="B187" s="82"/>
       <c r="C187" s="132" t="s">
         <v>41</v>
       </c>
@@ -12720,7 +12768,7 @@
       </c>
     </row>
     <row r="188" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="255"/>
+      <c r="B188" s="82"/>
       <c r="C188" s="132" t="s">
         <v>41</v>
       </c>
@@ -12735,12 +12783,12 @@
       <c r="H188" s="195" t="s">
         <v>45</v>
       </c>
-      <c r="I188" s="280" t="s">
+      <c r="I188" s="266" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="189" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="256"/>
+      <c r="B189" s="324"/>
       <c r="C189" s="209"/>
       <c r="D189" s="209"/>
       <c r="E189" s="209"/>
@@ -12751,7 +12799,7 @@
       <c r="H189" s="211"/>
     </row>
     <row r="190" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="255">
+      <c r="B190" s="82">
         <v>44817</v>
       </c>
       <c r="C190" s="132" t="s">
@@ -12769,12 +12817,12 @@
       <c r="H190" s="195" t="s">
         <v>249</v>
       </c>
-      <c r="I190" s="280" t="s">
+      <c r="I190" s="266" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="191" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="256"/>
+      <c r="B191" s="324"/>
       <c r="C191" s="209"/>
       <c r="D191" s="209"/>
       <c r="E191" s="209"/>
@@ -12785,7 +12833,7 @@
       <c r="H191" s="211"/>
     </row>
     <row r="192" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="255">
+      <c r="B192" s="82">
         <v>44818</v>
       </c>
       <c r="C192" s="132" t="s">
@@ -12802,12 +12850,12 @@
       <c r="H192" s="195" t="s">
         <v>174</v>
       </c>
-      <c r="I192" s="280" t="s">
+      <c r="I192" s="266" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="193" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B193" s="255"/>
+      <c r="B193" s="82"/>
       <c r="C193" s="132" t="s">
         <v>41</v>
       </c>
@@ -12822,12 +12870,12 @@
       <c r="H193" s="195" t="s">
         <v>372</v>
       </c>
-      <c r="I193" s="280" t="s">
-        <v>437</v>
+      <c r="I193" s="266" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="194" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B194" s="255"/>
+      <c r="B194" s="82"/>
       <c r="C194" s="132" t="s">
         <v>47</v>
       </c>
@@ -12844,7 +12892,7 @@
       </c>
     </row>
     <row r="195" spans="2:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B195" s="255"/>
+      <c r="B195" s="82"/>
       <c r="C195" s="132" t="s">
         <v>47</v>
       </c>
@@ -12863,7 +12911,7 @@
       </c>
     </row>
     <row r="196" spans="2:9" s="232" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B196" s="256"/>
+      <c r="B196" s="324"/>
       <c r="C196" s="209"/>
       <c r="D196" s="209"/>
       <c r="E196" s="209"/>
@@ -12872,10 +12920,10 @@
         <v>338</v>
       </c>
       <c r="H196" s="211"/>
-      <c r="I196" s="284"/>
+      <c r="I196" s="270"/>
     </row>
     <row r="197" spans="2:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="255">
+      <c r="B197" s="82">
         <v>44819</v>
       </c>
       <c r="C197" s="132" t="s">
@@ -12896,7 +12944,7 @@
       </c>
     </row>
     <row r="198" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B198" s="255"/>
+      <c r="B198" s="82"/>
       <c r="C198" s="132" t="s">
         <v>47</v>
       </c>
@@ -12913,12 +12961,12 @@
       <c r="H198" s="195" t="s">
         <v>327</v>
       </c>
-      <c r="I198" s="280" t="s">
+      <c r="I198" s="266" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="199" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B199" s="255"/>
+      <c r="B199" s="82"/>
       <c r="C199" s="132" t="s">
         <v>47</v>
       </c>
@@ -12935,12 +12983,12 @@
       <c r="H199" s="195" t="s">
         <v>327</v>
       </c>
-      <c r="I199" s="280" t="s">
+      <c r="I199" s="266" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="200" spans="2:9" s="232" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B200" s="256"/>
+      <c r="B200" s="324"/>
       <c r="C200" s="209"/>
       <c r="D200" s="209"/>
       <c r="E200" s="209"/>
@@ -12949,10 +12997,10 @@
         <v>338</v>
       </c>
       <c r="H200" s="211"/>
-      <c r="I200" s="284"/>
+      <c r="I200" s="270"/>
     </row>
     <row r="201" spans="2:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B201" s="255">
+      <c r="B201" s="82">
         <v>44822</v>
       </c>
       <c r="C201" s="132" t="s">
@@ -12971,7 +13019,7 @@
       </c>
     </row>
     <row r="202" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B202" s="255"/>
+      <c r="B202" s="82"/>
       <c r="C202" s="132" t="s">
         <v>41</v>
       </c>
@@ -12988,7 +13036,7 @@
       </c>
     </row>
     <row r="203" spans="2:9" s="232" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B203" s="256"/>
+      <c r="B203" s="324"/>
       <c r="C203" s="209"/>
       <c r="D203" s="209"/>
       <c r="E203" s="209"/>
@@ -12997,10 +13045,10 @@
         <v>338</v>
       </c>
       <c r="H203" s="211"/>
-      <c r="I203" s="286"/>
-    </row>
-    <row r="204" spans="2:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="255">
+      <c r="I203" s="272"/>
+    </row>
+    <row r="204" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B204" s="82">
         <v>44823</v>
       </c>
       <c r="C204" s="132" t="s">
@@ -13019,12 +13067,12 @@
       <c r="H204" s="195" t="s">
         <v>376</v>
       </c>
-      <c r="I204" s="281" t="s">
+      <c r="I204" s="267" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="205" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B205" s="255"/>
+      <c r="B205" s="82"/>
       <c r="C205" s="132" t="s">
         <v>41</v>
       </c>
@@ -13041,17 +13089,17 @@
       </c>
     </row>
     <row r="206" spans="2:9" s="232" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B206" s="256"/>
+      <c r="B206" s="324"/>
       <c r="C206" s="209"/>
       <c r="D206" s="209"/>
       <c r="E206" s="209"/>
       <c r="F206" s="210"/>
       <c r="G206" s="210"/>
       <c r="H206" s="211"/>
-      <c r="I206" s="284"/>
+      <c r="I206" s="270"/>
     </row>
     <row r="207" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B207" s="255">
+      <c r="B207" s="82">
         <v>44824</v>
       </c>
       <c r="C207" s="132" t="s">
@@ -13070,17 +13118,17 @@
       </c>
     </row>
     <row r="208" spans="2:9" s="232" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B208" s="258"/>
+      <c r="B208" s="326"/>
       <c r="C208" s="233"/>
       <c r="D208" s="233"/>
       <c r="E208" s="234"/>
       <c r="F208" s="235"/>
       <c r="G208" s="235"/>
       <c r="H208" s="236"/>
-      <c r="I208" s="284"/>
+      <c r="I208" s="270"/>
     </row>
     <row r="209" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="259">
+      <c r="B209" s="327">
         <v>44825</v>
       </c>
       <c r="C209" s="225" t="s">
@@ -13099,52 +13147,52 @@
       </c>
     </row>
     <row r="210" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B210" s="272"/>
-      <c r="C210" s="273"/>
-      <c r="D210" s="273"/>
-      <c r="E210" s="273"/>
-      <c r="F210" s="274"/>
-      <c r="G210" s="274"/>
-      <c r="H210" s="275" t="s">
+      <c r="B210" s="328"/>
+      <c r="C210" s="260"/>
+      <c r="D210" s="260"/>
+      <c r="E210" s="260"/>
+      <c r="F210" s="261"/>
+      <c r="G210" s="261"/>
+      <c r="H210" s="262" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="211" spans="2:10" s="232" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="276"/>
-      <c r="C211" s="277"/>
-      <c r="D211" s="277"/>
-      <c r="E211" s="277"/>
-      <c r="F211" s="278"/>
-      <c r="G211" s="278"/>
-      <c r="H211" s="279" t="s">
+      <c r="B211" s="329"/>
+      <c r="C211" s="263"/>
+      <c r="D211" s="263"/>
+      <c r="E211" s="263"/>
+      <c r="F211" s="264"/>
+      <c r="G211" s="264"/>
+      <c r="H211" s="265" t="s">
         <v>383</v>
       </c>
-      <c r="I211" s="284"/>
+      <c r="I211" s="270"/>
     </row>
     <row r="212" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B212" s="261">
+      <c r="B212" s="330">
         <v>44847</v>
       </c>
-      <c r="C212" s="262" t="s">
+      <c r="C212" s="251" t="s">
         <v>47</v>
       </c>
-      <c r="D212" s="262" t="s">
+      <c r="D212" s="251" t="s">
         <v>67</v>
       </c>
-      <c r="E212" s="263">
+      <c r="E212" s="252">
         <v>94000</v>
       </c>
-      <c r="F212" s="264"/>
-      <c r="G212" s="264"/>
-      <c r="H212" s="260" t="s">
+      <c r="F212" s="253"/>
+      <c r="G212" s="253"/>
+      <c r="H212" s="250" t="s">
         <v>387</v>
       </c>
-      <c r="I212" s="281" t="s">
+      <c r="I212" s="267" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="213" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B213" s="259"/>
+      <c r="B213" s="327"/>
       <c r="C213" s="226" t="s">
         <v>39</v>
       </c>
@@ -13152,19 +13200,19 @@
         <v>40</v>
       </c>
       <c r="E213" s="226"/>
-      <c r="F213" s="265">
+      <c r="F213" s="254">
         <v>200000</v>
       </c>
-      <c r="G213" s="265"/>
-      <c r="H213" s="266" t="s">
+      <c r="G213" s="254"/>
+      <c r="H213" s="255" t="s">
         <v>382</v>
       </c>
-      <c r="I213" s="281" t="s">
+      <c r="I213" s="267" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="214" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B214" s="259"/>
+      <c r="B214" s="327"/>
       <c r="C214" s="225" t="s">
         <v>47</v>
       </c>
@@ -13179,13 +13227,13 @@
       <c r="H214" s="227" t="s">
         <v>385</v>
       </c>
-      <c r="I214" s="281" t="s">
+      <c r="I214" s="267" t="s">
         <v>388</v>
       </c>
       <c r="J214" s="136"/>
     </row>
     <row r="215" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B215" s="259"/>
+      <c r="B215" s="327"/>
       <c r="C215" s="225" t="s">
         <v>47</v>
       </c>
@@ -13200,12 +13248,12 @@
       <c r="H215" s="227" t="s">
         <v>385</v>
       </c>
-      <c r="I215" s="280" t="s">
+      <c r="I215" s="266" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="216" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B216" s="259"/>
+      <c r="B216" s="327"/>
       <c r="C216" s="225" t="s">
         <v>47</v>
       </c>
@@ -13220,22 +13268,22 @@
       <c r="H216" s="227" t="s">
         <v>390</v>
       </c>
-      <c r="I216" s="281" t="s">
+      <c r="I216" s="267" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="217" spans="2:10" s="267" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B217" s="268"/>
-      <c r="C217" s="269"/>
-      <c r="D217" s="269"/>
-      <c r="E217" s="269"/>
-      <c r="F217" s="270"/>
-      <c r="G217" s="270"/>
-      <c r="H217" s="271"/>
-      <c r="I217" s="287"/>
+    <row r="217" spans="2:10" s="256" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B217" s="331"/>
+      <c r="C217" s="257"/>
+      <c r="D217" s="257"/>
+      <c r="E217" s="257"/>
+      <c r="F217" s="258"/>
+      <c r="G217" s="258"/>
+      <c r="H217" s="259"/>
+      <c r="I217" s="273"/>
     </row>
     <row r="218" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="259">
+      <c r="B218" s="327">
         <v>44851</v>
       </c>
       <c r="C218" s="225" t="s">
@@ -13245,19 +13293,19 @@
         <v>40</v>
       </c>
       <c r="E218" s="226"/>
-      <c r="F218" s="265">
+      <c r="F218" s="254">
         <v>58200</v>
       </c>
-      <c r="G218" s="265"/>
-      <c r="H218" s="266" t="s">
-        <v>431</v>
-      </c>
-      <c r="I218" s="280" t="s">
+      <c r="G218" s="254"/>
+      <c r="H218" s="255" t="s">
+        <v>484</v>
+      </c>
+      <c r="I218" s="266" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="219" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B219" s="259"/>
+      <c r="B219" s="327"/>
       <c r="C219" s="225" t="s">
         <v>47</v>
       </c>
@@ -13272,12 +13320,12 @@
       <c r="H219" s="227" t="s">
         <v>394</v>
       </c>
-      <c r="I219" s="280" t="s">
-        <v>432</v>
+      <c r="I219" s="266" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="220" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B220" s="259"/>
+      <c r="B220" s="327"/>
       <c r="C220" s="225" t="s">
         <v>47</v>
       </c>
@@ -13292,22 +13340,22 @@
       <c r="H220" s="227" t="s">
         <v>396</v>
       </c>
-      <c r="I220" s="280" t="s">
-        <v>433</v>
+      <c r="I220" s="266" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="221" spans="2:10" s="232" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B221" s="258"/>
+      <c r="B221" s="326"/>
       <c r="C221" s="234"/>
       <c r="D221" s="234"/>
       <c r="E221" s="234"/>
       <c r="F221" s="235"/>
       <c r="G221" s="235"/>
       <c r="H221" s="236"/>
-      <c r="I221" s="284"/>
+      <c r="I221" s="270"/>
     </row>
     <row r="222" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B222" s="259">
+      <c r="B222" s="327">
         <v>44861</v>
       </c>
       <c r="C222" s="225" t="s">
@@ -13317,19 +13365,19 @@
         <v>40</v>
       </c>
       <c r="E222" s="226"/>
-      <c r="F222" s="265">
+      <c r="F222" s="254">
         <v>100000</v>
       </c>
-      <c r="G222" s="265"/>
-      <c r="H222" s="266" t="s">
+      <c r="G222" s="254"/>
+      <c r="H222" s="255" t="s">
         <v>398</v>
       </c>
-      <c r="I222" s="281" t="s">
+      <c r="I222" s="267" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="223" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B223" s="259"/>
+      <c r="B223" s="327"/>
       <c r="C223" s="225" t="s">
         <v>47</v>
       </c>
@@ -13344,12 +13392,12 @@
       <c r="H223" s="227" t="s">
         <v>400</v>
       </c>
-      <c r="I223" s="281" t="s">
+      <c r="I223" s="267" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="224" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B224" s="259"/>
+      <c r="B224" s="327"/>
       <c r="C224" s="225" t="s">
         <v>41</v>
       </c>
@@ -13364,7 +13412,7 @@
       </c>
     </row>
     <row r="225" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B225" s="259"/>
+      <c r="B225" s="327"/>
       <c r="C225" s="225" t="s">
         <v>41</v>
       </c>
@@ -13377,12 +13425,12 @@
       <c r="H225" s="227" t="s">
         <v>402</v>
       </c>
-      <c r="I225" s="281" t="s">
+      <c r="I225" s="267" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="226" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B226" s="259"/>
+      <c r="B226" s="327"/>
       <c r="C226" s="225" t="s">
         <v>44</v>
       </c>
@@ -13395,12 +13443,12 @@
       <c r="H226" s="227" t="s">
         <v>403</v>
       </c>
-      <c r="I226" s="280">
+      <c r="I226" s="266">
         <v>1000</v>
       </c>
     </row>
     <row r="227" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B227" s="255"/>
+      <c r="B227" s="82"/>
       <c r="C227" s="132" t="s">
         <v>41</v>
       </c>
@@ -13415,17 +13463,17 @@
       </c>
     </row>
     <row r="228" spans="2:9" s="232" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B228" s="258"/>
+      <c r="B228" s="326"/>
       <c r="C228" s="234"/>
       <c r="D228" s="234"/>
       <c r="E228" s="234"/>
       <c r="F228" s="235"/>
       <c r="G228" s="235"/>
       <c r="H228" s="236"/>
-      <c r="I228" s="284"/>
-    </row>
-    <row r="229" spans="2:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B229" s="259">
+      <c r="I228" s="270"/>
+    </row>
+    <row r="229" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B229" s="327">
         <v>44863</v>
       </c>
       <c r="C229" s="225" t="s">
@@ -13442,12 +13490,12 @@
       <c r="H229" s="227" t="s">
         <v>185</v>
       </c>
-      <c r="I229" s="281" t="s">
+      <c r="I229" s="267" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="230" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B230" s="259"/>
+      <c r="B230" s="327"/>
       <c r="C230" s="225" t="s">
         <v>44</v>
       </c>
@@ -13462,12 +13510,12 @@
       <c r="H230" s="227" t="s">
         <v>413</v>
       </c>
-      <c r="I230" s="281" t="s">
+      <c r="I230" s="267" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="231" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B231" s="259"/>
+      <c r="B231" s="327"/>
       <c r="C231" s="225" t="s">
         <v>41</v>
       </c>
@@ -13482,7 +13530,7 @@
       </c>
     </row>
     <row r="232" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="259"/>
+      <c r="B232" s="327"/>
       <c r="C232" s="225" t="s">
         <v>44</v>
       </c>
@@ -13497,7 +13545,7 @@
       </c>
     </row>
     <row r="233" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B233" s="259"/>
+      <c r="B233" s="327"/>
       <c r="C233" s="225" t="s">
         <v>42</v>
       </c>
@@ -13514,20 +13562,20 @@
       </c>
     </row>
     <row r="234" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B234" s="259"/>
+      <c r="B234" s="327"/>
       <c r="C234" s="225"/>
       <c r="D234" s="225"/>
       <c r="E234" s="226"/>
       <c r="F234" s="146"/>
       <c r="G234" s="146"/>
       <c r="H234" s="227"/>
-      <c r="I234" s="280">
+      <c r="I234" s="266">
         <f>3280-200</f>
         <v>3080</v>
       </c>
     </row>
     <row r="235" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B235" s="259">
+      <c r="B235" s="327">
         <v>44865</v>
       </c>
       <c r="C235" s="225" t="s">
@@ -13544,7 +13592,7 @@
       </c>
     </row>
     <row r="236" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B236" s="259"/>
+      <c r="B236" s="327"/>
       <c r="C236" s="225" t="s">
         <v>44</v>
       </c>
@@ -13557,10 +13605,10 @@
       <c r="H236" s="227" t="s">
         <v>45</v>
       </c>
-      <c r="I236" s="281"/>
+      <c r="I236" s="267"/>
     </row>
     <row r="237" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B237" s="259"/>
+      <c r="B237" s="327"/>
       <c r="C237" s="225" t="s">
         <v>41</v>
       </c>
@@ -13575,7 +13623,7 @@
       </c>
     </row>
     <row r="238" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B238" s="259"/>
+      <c r="B238" s="327"/>
       <c r="C238" s="225" t="s">
         <v>42</v>
       </c>
@@ -13592,17 +13640,17 @@
       </c>
     </row>
     <row r="239" spans="2:9" s="232" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B239" s="258"/>
+      <c r="B239" s="326"/>
       <c r="C239" s="234"/>
       <c r="D239" s="234"/>
       <c r="E239" s="234"/>
       <c r="F239" s="235"/>
       <c r="G239" s="235"/>
       <c r="H239" s="236"/>
-      <c r="I239" s="284"/>
+      <c r="I239" s="270"/>
     </row>
     <row r="240" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B240" s="259">
+      <c r="B240" s="327">
         <v>44866</v>
       </c>
       <c r="C240" s="225" t="s">
@@ -13621,17 +13669,17 @@
       </c>
     </row>
     <row r="241" spans="2:9" s="232" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B241" s="258"/>
+      <c r="B241" s="326"/>
       <c r="C241" s="234"/>
       <c r="D241" s="234"/>
       <c r="E241" s="234"/>
       <c r="F241" s="235"/>
       <c r="G241" s="235"/>
       <c r="H241" s="236"/>
-      <c r="I241" s="284"/>
+      <c r="I241" s="270"/>
     </row>
     <row r="242" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B242" s="259">
+      <c r="B242" s="327">
         <v>44867</v>
       </c>
       <c r="C242" s="225" t="s">
@@ -13646,12 +13694,12 @@
       <c r="H242" s="227" t="s">
         <v>415</v>
       </c>
-      <c r="I242" s="280" t="s">
+      <c r="I242" s="266" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="243" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B243" s="259"/>
+      <c r="B243" s="327"/>
       <c r="C243" s="225" t="s">
         <v>44</v>
       </c>
@@ -13664,12 +13712,12 @@
       <c r="H243" s="227" t="s">
         <v>45</v>
       </c>
-      <c r="I243" s="280" t="s">
+      <c r="I243" s="266" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="244" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B244" s="259"/>
+      <c r="B244" s="327"/>
       <c r="C244" s="225" t="s">
         <v>41</v>
       </c>
@@ -13682,12 +13730,12 @@
       <c r="H244" s="227" t="s">
         <v>418</v>
       </c>
-      <c r="I244" s="280" t="s">
+      <c r="I244" s="266" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="245" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B245" s="255"/>
+      <c r="B245" s="82"/>
       <c r="C245" s="132" t="s">
         <v>44</v>
       </c>
@@ -13700,12 +13748,12 @@
       <c r="H245" s="195" t="s">
         <v>45</v>
       </c>
-      <c r="I245" s="280" t="s">
+      <c r="I245" s="266" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="246" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B246" s="259"/>
+      <c r="B246" s="327"/>
       <c r="C246" s="225" t="s">
         <v>41</v>
       </c>
@@ -13718,22 +13766,22 @@
       <c r="H246" s="227" t="s">
         <v>174</v>
       </c>
-      <c r="I246" s="280" t="s">
+      <c r="I246" s="266" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="247" spans="2:9" s="232" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B247" s="258"/>
+      <c r="B247" s="326"/>
       <c r="C247" s="234"/>
       <c r="D247" s="234"/>
       <c r="E247" s="234"/>
       <c r="F247" s="235"/>
       <c r="G247" s="235"/>
       <c r="H247" s="236"/>
-      <c r="I247" s="284"/>
+      <c r="I247" s="270"/>
     </row>
     <row r="248" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B248" s="259">
+      <c r="B248" s="327">
         <v>44868</v>
       </c>
       <c r="C248" s="225" t="s">
@@ -13748,15 +13796,15 @@
       <c r="F248" s="146"/>
       <c r="G248" s="146"/>
       <c r="H248" s="227" t="s">
-        <v>445</v>
-      </c>
-      <c r="I248" s="280">
+        <v>444</v>
+      </c>
+      <c r="I248" s="266">
         <f>(13*1000)+1800+(13*1800)</f>
         <v>38200</v>
       </c>
     </row>
     <row r="249" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B249" s="259"/>
+      <c r="B249" s="327"/>
       <c r="C249" s="225" t="s">
         <v>42</v>
       </c>
@@ -13769,11 +13817,11 @@
       <c r="F249" s="146"/>
       <c r="G249" s="146"/>
       <c r="H249" s="227" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="250" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B250" s="259"/>
+      <c r="B250" s="327"/>
       <c r="C250" s="225" t="s">
         <v>42</v>
       </c>
@@ -13788,12 +13836,12 @@
       <c r="H250" s="227" t="s">
         <v>422</v>
       </c>
-      <c r="I250" s="280" t="s">
+      <c r="I250" s="266" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="251" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B251" s="255"/>
+      <c r="B251" s="82"/>
       <c r="C251" s="132" t="s">
         <v>41</v>
       </c>
@@ -13806,12 +13854,12 @@
       <c r="H251" s="195" t="s">
         <v>174</v>
       </c>
-      <c r="I251" s="280" t="s">
+      <c r="I251" s="266" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="252" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B252" s="259"/>
+      <c r="B252" s="327"/>
       <c r="C252" s="225" t="s">
         <v>39</v>
       </c>
@@ -13819,19 +13867,19 @@
         <v>40</v>
       </c>
       <c r="E252" s="226"/>
-      <c r="F252" s="265">
+      <c r="F252" s="254">
         <v>40000</v>
       </c>
-      <c r="G252" s="265"/>
-      <c r="H252" s="266" t="s">
-        <v>436</v>
-      </c>
-      <c r="I252" s="280" t="s">
+      <c r="G252" s="254"/>
+      <c r="H252" s="255" t="s">
+        <v>435</v>
+      </c>
+      <c r="I252" s="266" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="253" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B253" s="255"/>
+      <c r="B253" s="82"/>
       <c r="C253" s="132" t="s">
         <v>47</v>
       </c>
@@ -13846,22 +13894,22 @@
       <c r="H253" s="195" t="s">
         <v>428</v>
       </c>
-      <c r="I253" s="280" t="s">
+      <c r="I253" s="266" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="254" spans="2:9" s="232" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B254" s="256"/>
+      <c r="B254" s="324"/>
       <c r="C254" s="209"/>
       <c r="D254" s="209"/>
       <c r="E254" s="209"/>
       <c r="F254" s="210"/>
       <c r="G254" s="210"/>
       <c r="H254" s="211"/>
-      <c r="I254" s="284"/>
+      <c r="I254" s="270"/>
     </row>
     <row r="255" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B255" s="259">
+      <c r="B255" s="327">
         <v>44870</v>
       </c>
       <c r="C255" s="225" t="s">
@@ -13876,22 +13924,22 @@
       <c r="H255" s="227" t="s">
         <v>425</v>
       </c>
-      <c r="I255" s="280" t="s">
-        <v>435</v>
+      <c r="I255" s="266" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="256" spans="2:9" s="232" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B256" s="258"/>
+      <c r="B256" s="326"/>
       <c r="C256" s="234"/>
       <c r="D256" s="234"/>
       <c r="E256" s="234"/>
       <c r="F256" s="235"/>
       <c r="G256" s="235"/>
       <c r="H256" s="236"/>
-      <c r="I256" s="284"/>
+      <c r="I256" s="270"/>
     </row>
     <row r="257" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B257" s="259">
+      <c r="B257" s="327">
         <v>44874</v>
       </c>
       <c r="C257" s="225" t="s">
@@ -13906,12 +13954,12 @@
       <c r="H257" s="227" t="s">
         <v>45</v>
       </c>
-      <c r="I257" s="280" t="s">
-        <v>434</v>
+      <c r="I257" s="266" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="258" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B258" s="255"/>
+      <c r="B258" s="82"/>
       <c r="C258" s="132" t="s">
         <v>42</v>
       </c>
@@ -13924,24 +13972,24 @@
       <c r="F258" s="145"/>
       <c r="G258" s="145"/>
       <c r="H258" s="195" t="s">
-        <v>444</v>
-      </c>
-      <c r="I258" s="280">
+        <v>443</v>
+      </c>
+      <c r="I258" s="266">
         <v>1</v>
       </c>
     </row>
     <row r="259" spans="2:11" s="232" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B259" s="258"/>
+      <c r="B259" s="326"/>
       <c r="C259" s="234"/>
       <c r="D259" s="234"/>
       <c r="E259" s="234"/>
       <c r="F259" s="235"/>
       <c r="G259" s="235"/>
       <c r="H259" s="236"/>
-      <c r="I259" s="284"/>
+      <c r="I259" s="270"/>
     </row>
     <row r="260" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B260" s="259">
+      <c r="B260" s="327">
         <v>44875</v>
       </c>
       <c r="C260" s="225" t="s">
@@ -13951,14 +13999,16 @@
         <v>40</v>
       </c>
       <c r="E260" s="226"/>
-      <c r="F260" s="265"/>
-      <c r="G260" s="265"/>
-      <c r="H260" s="266" t="s">
-        <v>438</v>
+      <c r="F260" s="254">
+        <v>290000</v>
+      </c>
+      <c r="G260" s="254"/>
+      <c r="H260" s="255" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="261" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B261" s="259"/>
+      <c r="B261" s="327"/>
       <c r="C261" s="225" t="s">
         <v>39</v>
       </c>
@@ -13966,19 +14016,19 @@
         <v>40</v>
       </c>
       <c r="E261" s="226"/>
-      <c r="F261" s="265">
+      <c r="F261" s="254">
         <v>200000</v>
       </c>
-      <c r="G261" s="265"/>
-      <c r="H261" s="266" t="s">
+      <c r="G261" s="254"/>
+      <c r="H261" s="255" t="s">
+        <v>438</v>
+      </c>
+      <c r="I261" s="266" t="s">
         <v>439</v>
       </c>
-      <c r="I261" s="280" t="s">
-        <v>440</v>
-      </c>
     </row>
     <row r="262" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B262" s="259"/>
+      <c r="B262" s="327"/>
       <c r="C262" s="225" t="s">
         <v>42</v>
       </c>
@@ -13991,14 +14041,14 @@
       <c r="F262" s="146"/>
       <c r="G262" s="146"/>
       <c r="H262" s="227" t="s">
-        <v>446</v>
-      </c>
-      <c r="I262" s="280" t="s">
-        <v>448</v>
+        <v>445</v>
+      </c>
+      <c r="I262" s="266" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="263" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B263" s="259"/>
+      <c r="B263" s="327"/>
       <c r="C263" s="225" t="s">
         <v>42</v>
       </c>
@@ -14011,19 +14061,19 @@
       <c r="F263" s="146"/>
       <c r="G263" s="146"/>
       <c r="H263" s="227" t="s">
+        <v>445</v>
+      </c>
+      <c r="I263" s="266" t="s">
         <v>446</v>
       </c>
-      <c r="I263" s="280" t="s">
-        <v>447</v>
-      </c>
     </row>
     <row r="264" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B264" s="259"/>
+      <c r="B264" s="327"/>
       <c r="C264" s="225" t="s">
         <v>47</v>
       </c>
       <c r="D264" s="225" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E264" s="226">
         <v>50000</v>
@@ -14031,10 +14081,10 @@
       <c r="F264" s="146"/>
       <c r="G264" s="146"/>
       <c r="H264" s="227" t="s">
+        <v>441</v>
+      </c>
+      <c r="I264" s="266" t="s">
         <v>442</v>
-      </c>
-      <c r="I264" s="280" t="s">
-        <v>443</v>
       </c>
       <c r="K264" s="46">
         <f>38000+11400</f>
@@ -14042,7 +14092,7 @@
       </c>
     </row>
     <row r="265" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B265" s="259"/>
+      <c r="B265" s="327"/>
       <c r="C265" s="225" t="s">
         <v>47</v>
       </c>
@@ -14055,14 +14105,14 @@
       <c r="F265" s="146"/>
       <c r="G265" s="146"/>
       <c r="H265" s="227" t="s">
-        <v>461</v>
-      </c>
-      <c r="I265" s="280" t="s">
         <v>460</v>
       </c>
+      <c r="I265" s="266" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="266" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B266" s="259"/>
+      <c r="B266" s="327"/>
       <c r="C266" s="225"/>
       <c r="D266" s="225"/>
       <c r="E266" s="226"/>
@@ -14071,34 +14121,34 @@
       <c r="H266" s="227"/>
     </row>
     <row r="267" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B267" s="259">
+      <c r="B267" s="327">
         <v>44877</v>
       </c>
       <c r="C267" s="225" t="s">
         <v>47</v>
       </c>
       <c r="D267" s="225" t="s">
-        <v>291</v>
+        <v>67</v>
       </c>
       <c r="E267" s="226">
-        <v>15200</v>
+        <v>160000</v>
       </c>
       <c r="F267" s="146"/>
       <c r="G267" s="146"/>
       <c r="H267" s="227" t="s">
-        <v>449</v>
-      </c>
-      <c r="I267" s="280" t="s">
-        <v>448</v>
+        <v>462</v>
+      </c>
+      <c r="I267" s="136" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="268" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B268" s="259"/>
+      <c r="B268" s="82"/>
       <c r="C268" s="225" t="s">
         <v>47</v>
       </c>
       <c r="D268" s="225" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E268" s="226">
         <v>15200</v>
@@ -14106,192 +14156,203 @@
       <c r="F268" s="146"/>
       <c r="G268" s="146"/>
       <c r="H268" s="227" t="s">
-        <v>449</v>
-      </c>
-      <c r="I268" s="280" t="s">
         <v>448</v>
       </c>
+      <c r="I268" s="266" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="269" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B269" s="255"/>
-      <c r="C269" s="132" t="s">
+      <c r="B269" s="327"/>
+      <c r="C269" s="225" t="s">
+        <v>47</v>
+      </c>
+      <c r="D269" s="225" t="s">
+        <v>290</v>
+      </c>
+      <c r="E269" s="226">
+        <v>15200</v>
+      </c>
+      <c r="F269" s="146"/>
+      <c r="G269" s="146"/>
+      <c r="H269" s="227" t="s">
+        <v>448</v>
+      </c>
+      <c r="I269" s="266" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="270" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B270" s="82"/>
+      <c r="C270" s="132" t="s">
         <v>41</v>
       </c>
-      <c r="D269" s="132"/>
-      <c r="E269" s="138">
+      <c r="D270" s="132"/>
+      <c r="E270" s="138">
         <v>200</v>
       </c>
-      <c r="F269" s="145"/>
-      <c r="G269" s="145"/>
-      <c r="H269" s="195" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="270" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B270" s="259"/>
-      <c r="C270" s="225"/>
-      <c r="D270" s="225"/>
-      <c r="E270" s="226"/>
-      <c r="F270" s="146"/>
-      <c r="G270" s="146"/>
-      <c r="H270" s="227"/>
+      <c r="F270" s="145"/>
+      <c r="G270" s="145"/>
+      <c r="H270" s="195" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="271" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B271" s="259">
-        <v>44878</v>
-      </c>
-      <c r="C271" s="225" t="s">
-        <v>47</v>
-      </c>
-      <c r="D271" s="225" t="s">
-        <v>232</v>
-      </c>
-      <c r="E271" s="226">
-        <v>40000</v>
-      </c>
+      <c r="B271" s="327"/>
+      <c r="C271" s="225"/>
+      <c r="D271" s="225"/>
+      <c r="E271" s="226"/>
       <c r="F271" s="146"/>
       <c r="G271" s="146"/>
-      <c r="H271" s="227" t="s">
-        <v>451</v>
-      </c>
-      <c r="I271" s="280" t="s">
-        <v>450</v>
-      </c>
+      <c r="H271" s="227"/>
     </row>
     <row r="272" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B272" s="259"/>
-      <c r="C272" s="225"/>
-      <c r="D272" s="225"/>
-      <c r="E272" s="226"/>
+      <c r="B272" s="327">
+        <v>44878</v>
+      </c>
+      <c r="C272" s="225" t="s">
+        <v>47</v>
+      </c>
+      <c r="D272" s="225" t="s">
+        <v>232</v>
+      </c>
+      <c r="E272" s="226">
+        <v>40000</v>
+      </c>
       <c r="F272" s="146"/>
       <c r="G272" s="146"/>
-      <c r="H272" s="227"/>
-      <c r="K272" s="46">
+      <c r="H272" s="227" t="s">
+        <v>450</v>
+      </c>
+      <c r="I272" s="266" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="273" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B273" s="327"/>
+      <c r="C273" s="225"/>
+      <c r="D273" s="225"/>
+      <c r="E273" s="226"/>
+      <c r="F273" s="146"/>
+      <c r="G273" s="146"/>
+      <c r="H273" s="227"/>
+      <c r="K273" s="46">
         <f>160*300</f>
         <v>48000</v>
       </c>
     </row>
-    <row r="273" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B273" s="259">
+    <row r="274" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B274" s="327">
         <v>44879</v>
       </c>
-      <c r="C273" s="225" t="s">
-        <v>41</v>
-      </c>
-      <c r="D273" s="225"/>
-      <c r="E273" s="289">
-        <v>31990</v>
-      </c>
-      <c r="F273" s="290"/>
-      <c r="G273" s="290"/>
-      <c r="H273" s="291" t="s">
-        <v>456</v>
-      </c>
-      <c r="I273" s="288" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="274" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B274" s="259"/>
       <c r="C274" s="225" t="s">
         <v>41</v>
       </c>
       <c r="D274" s="225"/>
-      <c r="E274" s="289">
-        <v>1100</v>
-      </c>
-      <c r="F274" s="290"/>
-      <c r="G274" s="290"/>
-      <c r="H274" s="291" t="s">
-        <v>453</v>
-      </c>
-      <c r="I274" s="288" t="s">
-        <v>452</v>
+      <c r="E274" s="275">
+        <v>31990</v>
+      </c>
+      <c r="F274" s="276"/>
+      <c r="G274" s="276"/>
+      <c r="H274" s="277" t="s">
+        <v>455</v>
+      </c>
+      <c r="I274" s="274" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="275" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B275" s="259"/>
+      <c r="B275" s="327"/>
       <c r="C275" s="225" t="s">
         <v>41</v>
       </c>
       <c r="D275" s="225"/>
-      <c r="E275" s="289">
+      <c r="E275" s="275">
+        <v>1100</v>
+      </c>
+      <c r="F275" s="276"/>
+      <c r="G275" s="276"/>
+      <c r="H275" s="277" t="s">
+        <v>452</v>
+      </c>
+      <c r="I275" s="274" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="276" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B276" s="327"/>
+      <c r="C276" s="225" t="s">
+        <v>41</v>
+      </c>
+      <c r="D276" s="225"/>
+      <c r="E276" s="275">
         <v>2320</v>
       </c>
-      <c r="F275" s="290"/>
-      <c r="G275" s="290"/>
-      <c r="H275" s="291" t="s">
-        <v>454</v>
-      </c>
-      <c r="I275" s="288" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="276" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B276" s="259"/>
-      <c r="C276" s="225"/>
-      <c r="D276" s="225"/>
-      <c r="E276" s="226"/>
-      <c r="F276" s="146"/>
-      <c r="G276" s="146"/>
-      <c r="H276" s="227"/>
+      <c r="F276" s="276"/>
+      <c r="G276" s="276"/>
+      <c r="H276" s="277" t="s">
+        <v>453</v>
+      </c>
+      <c r="I276" s="274" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="277" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B277" s="259">
-        <v>44880</v>
-      </c>
-      <c r="C277" s="225" t="s">
-        <v>44</v>
-      </c>
+      <c r="B277" s="327"/>
+      <c r="C277" s="225"/>
       <c r="D277" s="225"/>
-      <c r="E277" s="226">
-        <v>1500</v>
-      </c>
+      <c r="E277" s="226"/>
       <c r="F277" s="146"/>
       <c r="G277" s="146"/>
-      <c r="H277" s="227" t="s">
-        <v>458</v>
-      </c>
+      <c r="H277" s="227"/>
     </row>
     <row r="278" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B278" s="259"/>
+      <c r="B278" s="327">
+        <v>44880</v>
+      </c>
       <c r="C278" s="225" t="s">
-        <v>47</v>
-      </c>
-      <c r="D278" s="225" t="s">
-        <v>409</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D278" s="225"/>
       <c r="E278" s="226">
-        <v>11400</v>
+        <v>1500</v>
       </c>
       <c r="F278" s="146"/>
       <c r="G278" s="146"/>
       <c r="H278" s="227" t="s">
-        <v>462</v>
-      </c>
-      <c r="I278" s="280" t="s">
-        <v>459</v>
-      </c>
-      <c r="J278" s="46">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="279" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B279" s="327"/>
+      <c r="C279" s="225" t="s">
+        <v>47</v>
+      </c>
+      <c r="D279" s="225" t="s">
+        <v>409</v>
+      </c>
+      <c r="E279" s="226">
+        <v>11400</v>
+      </c>
+      <c r="F279" s="146"/>
+      <c r="G279" s="146"/>
+      <c r="H279" s="227" t="s">
+        <v>461</v>
+      </c>
+      <c r="I279" s="266" t="s">
+        <v>458</v>
+      </c>
+      <c r="J279" s="46">
         <f>160-122</f>
         <v>38</v>
       </c>
-      <c r="K278" s="46">
-        <f>J278*300</f>
+      <c r="K279" s="46">
+        <f>J279*300</f>
         <v>11400</v>
       </c>
     </row>
-    <row r="279" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B279" s="259"/>
-      <c r="C279" s="225"/>
-      <c r="D279" s="225"/>
-      <c r="E279" s="226"/>
-      <c r="F279" s="146"/>
-      <c r="G279" s="146"/>
-      <c r="H279" s="227"/>
-    </row>
     <row r="280" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B280" s="259"/>
+      <c r="B280" s="327"/>
       <c r="C280" s="225"/>
       <c r="D280" s="225"/>
       <c r="E280" s="226"/>
@@ -14300,53 +14361,317 @@
       <c r="H280" s="227"/>
     </row>
     <row r="281" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B281" s="259"/>
-      <c r="C281" s="225"/>
+      <c r="B281" s="327">
+        <v>44884</v>
+      </c>
+      <c r="C281" s="225" t="s">
+        <v>41</v>
+      </c>
       <c r="D281" s="225"/>
-      <c r="E281" s="226"/>
+      <c r="E281" s="226">
+        <v>9280</v>
+      </c>
       <c r="F281" s="146"/>
       <c r="G281" s="146"/>
-      <c r="H281" s="227"/>
+      <c r="H281" s="227" t="s">
+        <v>465</v>
+      </c>
+      <c r="I281" s="274" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="282" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B282" s="259"/>
-      <c r="C282" s="225"/>
+      <c r="B282" s="327"/>
+      <c r="C282" s="225" t="s">
+        <v>41</v>
+      </c>
       <c r="D282" s="225"/>
-      <c r="E282" s="226"/>
+      <c r="E282" s="226">
+        <v>1580</v>
+      </c>
       <c r="F282" s="146"/>
       <c r="G282" s="146"/>
-      <c r="H282" s="227"/>
+      <c r="H282" s="227" t="s">
+        <v>465</v>
+      </c>
+      <c r="I282" s="274" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="283" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B283" s="259"/>
-      <c r="C283" s="225"/>
+      <c r="B283" s="327"/>
+      <c r="C283" s="225" t="s">
+        <v>41</v>
+      </c>
       <c r="D283" s="225"/>
-      <c r="E283" s="226"/>
-      <c r="F283" s="146"/>
-      <c r="G283" s="146"/>
-      <c r="H283" s="227"/>
+      <c r="E283" s="275">
+        <v>8300</v>
+      </c>
+      <c r="F283" s="276"/>
+      <c r="G283" s="276"/>
+      <c r="H283" s="277" t="s">
+        <v>464</v>
+      </c>
+      <c r="I283" s="274" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="284" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B284" s="228" t="s">
+      <c r="B284" s="327"/>
+      <c r="C284" s="225"/>
+      <c r="D284" s="225"/>
+      <c r="E284" s="226"/>
+      <c r="F284" s="146"/>
+      <c r="G284" s="146"/>
+      <c r="H284" s="227"/>
+    </row>
+    <row r="285" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B285" s="327">
+        <v>44886</v>
+      </c>
+      <c r="C285" s="225" t="s">
+        <v>41</v>
+      </c>
+      <c r="D285" s="225"/>
+      <c r="E285" s="226">
+        <v>640</v>
+      </c>
+      <c r="F285" s="146"/>
+      <c r="G285" s="146"/>
+      <c r="H285" s="227" t="s">
+        <v>474</v>
+      </c>
+      <c r="I285" s="274" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="286" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B286" s="327"/>
+      <c r="C286" s="225" t="s">
+        <v>47</v>
+      </c>
+      <c r="D286" s="225" t="s">
+        <v>466</v>
+      </c>
+      <c r="E286" s="226">
+        <v>30000</v>
+      </c>
+      <c r="F286" s="146"/>
+      <c r="G286" s="146"/>
+      <c r="H286" s="227" t="s">
+        <v>470</v>
+      </c>
+      <c r="I286" s="274" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="287" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B287" s="327"/>
+      <c r="C287" s="225"/>
+      <c r="D287" s="225"/>
+      <c r="E287" s="226"/>
+      <c r="F287" s="146"/>
+      <c r="G287" s="146"/>
+      <c r="H287" s="227"/>
+    </row>
+    <row r="288" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B288" s="327">
+        <v>44887</v>
+      </c>
+      <c r="C288" s="225" t="s">
+        <v>41</v>
+      </c>
+      <c r="D288" s="225"/>
+      <c r="E288" s="275">
+        <v>900</v>
+      </c>
+      <c r="F288" s="276"/>
+      <c r="G288" s="276"/>
+      <c r="H288" s="277" t="s">
+        <v>475</v>
+      </c>
+      <c r="I288" s="274" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="289" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B289" s="327"/>
+      <c r="C289" s="225" t="s">
+        <v>44</v>
+      </c>
+      <c r="D289" s="225" t="s">
+        <v>83</v>
+      </c>
+      <c r="E289" s="226">
+        <v>3000</v>
+      </c>
+      <c r="F289" s="146"/>
+      <c r="G289" s="146"/>
+      <c r="H289" s="227" t="s">
+        <v>468</v>
+      </c>
+      <c r="I289" s="266" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="290" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B290" s="327"/>
+      <c r="C290" s="225"/>
+      <c r="D290" s="225"/>
+      <c r="E290" s="275">
+        <v>60</v>
+      </c>
+      <c r="F290" s="276"/>
+      <c r="G290" s="276"/>
+      <c r="H290" s="277" t="s">
+        <v>473</v>
+      </c>
+      <c r="I290" s="266" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="291" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B291" s="82"/>
+      <c r="C291" s="132"/>
+      <c r="D291" s="132"/>
+      <c r="E291" s="138"/>
+      <c r="F291" s="145"/>
+      <c r="G291" s="145"/>
+      <c r="H291" s="195"/>
+    </row>
+    <row r="292" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B292" s="327">
+        <v>44888</v>
+      </c>
+      <c r="C292" s="225" t="s">
+        <v>41</v>
+      </c>
+      <c r="D292" s="225"/>
+      <c r="E292" s="226">
+        <v>3900</v>
+      </c>
+      <c r="F292" s="146"/>
+      <c r="G292" s="146"/>
+      <c r="H292" s="227" t="s">
+        <v>471</v>
+      </c>
+      <c r="I292" s="274" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="293" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B293" s="327"/>
+      <c r="C293" s="225" t="s">
+        <v>41</v>
+      </c>
+      <c r="D293" s="225"/>
+      <c r="E293" s="226">
+        <v>800</v>
+      </c>
+      <c r="F293" s="146"/>
+      <c r="G293" s="146"/>
+      <c r="H293" s="227" t="s">
+        <v>478</v>
+      </c>
+      <c r="I293" s="274" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="294" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B294" s="82"/>
+      <c r="C294" s="132" t="s">
+        <v>41</v>
+      </c>
+      <c r="D294" s="132"/>
+      <c r="E294" s="138">
+        <v>5500</v>
+      </c>
+      <c r="F294" s="145"/>
+      <c r="G294" s="145"/>
+      <c r="H294" s="195" t="s">
+        <v>482</v>
+      </c>
+      <c r="I294" s="266" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="295" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B295" s="327"/>
+      <c r="C295" s="225" t="s">
+        <v>47</v>
+      </c>
+      <c r="D295" s="225" t="s">
+        <v>405</v>
+      </c>
+      <c r="E295" s="226">
+        <v>6000</v>
+      </c>
+      <c r="F295" s="146"/>
+      <c r="G295" s="146"/>
+      <c r="H295" s="227" t="s">
+        <v>480</v>
+      </c>
+      <c r="I295" s="266" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="296" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B296" s="327"/>
+      <c r="C296" s="225"/>
+      <c r="D296" s="225"/>
+      <c r="E296" s="226"/>
+      <c r="F296" s="146"/>
+      <c r="G296" s="146"/>
+      <c r="H296" s="227"/>
+    </row>
+    <row r="297" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B297" s="327"/>
+      <c r="C297" s="225"/>
+      <c r="D297" s="225"/>
+      <c r="E297" s="226"/>
+      <c r="F297" s="146"/>
+      <c r="G297" s="146"/>
+      <c r="H297" s="227"/>
+    </row>
+    <row r="298" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B298" s="327"/>
+      <c r="C298" s="225"/>
+      <c r="D298" s="225"/>
+      <c r="E298" s="226"/>
+      <c r="F298" s="146"/>
+      <c r="G298" s="146"/>
+      <c r="H298" s="227"/>
+    </row>
+    <row r="299" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B299" s="327"/>
+      <c r="C299" s="225"/>
+      <c r="D299" s="225"/>
+      <c r="E299" s="226"/>
+      <c r="F299" s="146"/>
+      <c r="G299" s="146"/>
+      <c r="H299" s="227"/>
+    </row>
+    <row r="300" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B300" s="228" t="s">
         <v>314</v>
       </c>
-      <c r="C284" s="229"/>
-      <c r="D284" s="132">
+      <c r="C300" s="229"/>
+      <c r="D300" s="132">
         <f>Tableau2[[#Totals],[Crédit]]-Tableau2[[#Totals],[Débit]]</f>
-        <v>-15975</v>
-      </c>
-      <c r="E284" s="138">
+        <v>44065</v>
+      </c>
+      <c r="E300" s="138">
         <f>SUBTOTAL(109,Tableau2[Débit])</f>
-        <v>1576175</v>
-      </c>
-      <c r="F284" s="138">
+        <v>1806135</v>
+      </c>
+      <c r="F300" s="138">
         <f>SUBTOTAL(109,Tableau2[Crédit])</f>
-        <v>1560200</v>
-      </c>
-      <c r="G284" s="230"/>
-      <c r="H284" s="229">
+        <v>1850200</v>
+      </c>
+      <c r="G300" s="230"/>
+      <c r="H300" s="229">
         <f>SUBTOTAL(103,Tableau2[Observation])</f>
-        <v>196</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -14355,17 +14680,17 @@
     <mergeCell ref="C6:F6"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
-  <conditionalFormatting sqref="D284">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="D300">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="lessThan">
       <formula>-1895</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14381,17 +14706,25 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I273" r:id="rId1" display="Facture" xr:uid="{C5323F4E-EAB1-4C3C-86E4-EABEE39899D0}"/>
-    <hyperlink ref="I274" r:id="rId2" xr:uid="{FA313240-D89E-4446-B95B-0137CC5D5484}"/>
-    <hyperlink ref="I275" r:id="rId3" xr:uid="{C8172FDF-ABF4-41CF-BBD4-B603B851D581}"/>
+    <hyperlink ref="I274" r:id="rId1" display="Facture" xr:uid="{C5323F4E-EAB1-4C3C-86E4-EABEE39899D0}"/>
+    <hyperlink ref="I275" r:id="rId2" xr:uid="{FA313240-D89E-4446-B95B-0137CC5D5484}"/>
+    <hyperlink ref="I276" r:id="rId3" xr:uid="{C8172FDF-ABF4-41CF-BBD4-B603B851D581}"/>
+    <hyperlink ref="I286" r:id="rId4" xr:uid="{E4604DEB-DB21-4FEC-8AEF-792BFB1E44FA}"/>
+    <hyperlink ref="I285" r:id="rId5" xr:uid="{143AF98C-AF1F-4D4C-B334-74B8DCD8C482}"/>
+    <hyperlink ref="I281" r:id="rId6" xr:uid="{5759FE8B-5526-4177-8823-7A9BE18686C8}"/>
+    <hyperlink ref="I282" r:id="rId7" xr:uid="{A7884C09-3FF9-41FB-B2AF-947A0661FE95}"/>
+    <hyperlink ref="I283" r:id="rId8" xr:uid="{08C05A26-703D-4127-8D64-AC69FD4BAFB9}"/>
+    <hyperlink ref="I288" r:id="rId9" xr:uid="{DC80CE65-F8BF-4BD5-B43E-7CBADCCA3FED}"/>
+    <hyperlink ref="I292" r:id="rId10" xr:uid="{ADDDE24A-B158-437C-964F-F8A47789094A}"/>
+    <hyperlink ref="I293" r:id="rId11" xr:uid="{F8160B58-20DD-4EB6-92DF-AB1CEA0E2552}"/>
   </hyperlinks>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup orientation="landscape" r:id="rId4"/>
+  <pageSetup orientation="landscape" r:id="rId12"/>
   <headerFooter alignWithMargins="0"/>
   <tableParts count="3">
-    <tablePart r:id="rId5"/>
-    <tablePart r:id="rId6"/>
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId14"/>
+    <tablePart r:id="rId15"/>
   </tableParts>
 </worksheet>
 </file>
@@ -14415,12 +14748,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="333" t="s">
+      <c r="C3" s="319" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="334"/>
-      <c r="E3" s="335"/>
-      <c r="F3" s="336"/>
+      <c r="D3" s="320"/>
+      <c r="E3" s="321"/>
+      <c r="F3" s="322"/>
     </row>
     <row r="4" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="45"/>
@@ -14435,12 +14768,12 @@
       <c r="F5" s="46"/>
     </row>
     <row r="6" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="331" t="s">
+      <c r="C6" s="317" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="331"/>
-      <c r="E6" s="337"/>
-      <c r="F6" s="337"/>
+      <c r="D6" s="317"/>
+      <c r="E6" s="323"/>
+      <c r="F6" s="323"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="72" t="s">

--- a/Suivie de Caisse 1.xlsx
+++ b/Suivie de Caisse 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ES-SABRE\Desktop\Caisse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4083C66-F4A5-4D39-9278-16EAF8267661}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07755F6-8B70-4D31-ADAB-4B932927D186}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Suivie Caisse Djamel aout'!$A$1:$G$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Suivie Caisse Djamel Juillet'!$A$1:$G$100</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Suivie Caisse Djamel Septembre'!$B$1:$G$28</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'Suivie Caisse Es-Sabre'!$B$1:$H$300</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Suivie Caisse Es-Sabre'!$B$1:$H$301</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="489">
   <si>
     <t>Total</t>
   </si>
@@ -1523,6 +1523,18 @@
   </si>
   <si>
     <t>Au chantier dans la voiture</t>
+  </si>
+  <si>
+    <t>Sable jaune</t>
+  </si>
+  <si>
+    <t>cheville brique</t>
+  </si>
+  <si>
+    <t>15 piece</t>
+  </si>
+  <si>
+    <t>Factur sable</t>
   </si>
 </sst>
 </file>
@@ -2882,6 +2894,30 @@
     <xf numFmtId="0" fontId="2" fillId="17" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="172" fontId="2" fillId="18" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="18" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="21" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="21" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="20" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3020,30 +3056,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="18" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="18" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="21" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="21" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="20" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -3052,6 +3064,99 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="77">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFF0000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -3325,373 +3430,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="172" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF0000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFF0000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3975,6 +3713,280 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="172" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -5138,53 +5150,53 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tableau2" displayName="Tableau2" ref="B13:H300" totalsRowCount="1" headerRowDxfId="40" dataDxfId="38" totalsRowDxfId="36" headerRowBorderDxfId="39" tableBorderDxfId="37" totalsRowBorderDxfId="35">
-  <autoFilter ref="B13:H299" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tableau2" displayName="Tableau2" ref="B13:H301" totalsRowCount="1" headerRowDxfId="40" dataDxfId="38" totalsRowDxfId="36" headerRowBorderDxfId="39" tableBorderDxfId="37" totalsRowBorderDxfId="35">
+  <autoFilter ref="B13:H300" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Date" totalsRowLabel="Solde De La Caisse" dataDxfId="13" totalsRowDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Opérations" dataDxfId="12" totalsRowDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Par / De" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="4">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Date" totalsRowLabel="Solde De La Caisse" dataDxfId="34" totalsRowDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Opérations" dataDxfId="33" totalsRowDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Par / De" totalsRowFunction="custom" dataDxfId="32" totalsRowDxfId="11">
       <totalsRowFormula>Tableau2[[#Totals],[Crédit]]-Tableau2[[#Totals],[Débit]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Débit" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Crédit" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{C30977D3-8D38-454C-AD50-AD6368348F30}" name="LOT" dataDxfId="8" totalsRowDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Observation" totalsRowFunction="count" dataDxfId="7" totalsRowDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Débit" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Crédit" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{C30977D3-8D38-454C-AD50-AD6368348F30}" name="LOT" dataDxfId="29" totalsRowDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Observation" totalsRowFunction="count" dataDxfId="28" totalsRowDxfId="7"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7806D280-479D-4BBD-9B9E-3AA9E67319C5}" name="Tableau6" displayName="Tableau6" ref="R13:R29" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7806D280-479D-4BBD-9B9E-3AA9E67319C5}" name="Tableau6" displayName="Tableau6" ref="R13:R29" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="R13:R29" xr:uid="{7C1DE353-BB19-436D-A152-983C47C78B9A}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{5955CE97-A309-4197-818D-A9EABF5AE20B}" name="Colonne1" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{5955CE97-A309-4197-818D-A9EABF5AE20B}" name="Colonne1" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{18FB793D-403A-4D62-8F16-D79D9EAD4081}" name="Tableau8" displayName="Tableau8" ref="T13:T29" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{18FB793D-403A-4D62-8F16-D79D9EAD4081}" name="Tableau8" displayName="Tableau8" ref="T13:T29" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="T13:T29" xr:uid="{06DB10D3-BDE0-4EAA-B542-5E6618A236D2}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{769C60AC-2314-4C7C-A097-41CE787E6F8B}" name="Colonne1" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{769C60AC-2314-4C7C-A097-41CE787E6F8B}" name="Colonne1" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau3" displayName="Tableau3" ref="B13:G78" totalsRowShown="0" headerRowBorderDxfId="28" tableBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau3" displayName="Tableau3" ref="B13:G78" totalsRowShown="0" headerRowBorderDxfId="21" tableBorderDxfId="20">
   <autoFilter ref="B13:G78" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Date" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Opérations" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Par / De" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Débit" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Crédit" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Observation" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Date" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Opérations" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Par / De" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Débit" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Crédit" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Observation" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5549,8 +5561,8 @@
       <c r="G4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="281"/>
-      <c r="I4" s="282"/>
+      <c r="H4" s="289"/>
+      <c r="I4" s="290"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
@@ -5577,11 +5589,11 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="283" t="s">
+      <c r="C10" s="291" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="284"/>
-      <c r="E10" s="285"/>
+      <c r="D10" s="292"/>
+      <c r="E10" s="293"/>
       <c r="F10" s="26"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
@@ -5642,11 +5654,11 @@
       <c r="C18" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="286" t="s">
+      <c r="D18" s="294" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="287"/>
-      <c r="F18" s="288"/>
+      <c r="E18" s="295"/>
+      <c r="F18" s="296"/>
       <c r="G18" s="40" t="s">
         <v>20</v>
       </c>
@@ -5660,9 +5672,9 @@
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="22"/>
       <c r="C19" s="23"/>
-      <c r="D19" s="278"/>
-      <c r="E19" s="279"/>
-      <c r="F19" s="280"/>
+      <c r="D19" s="286"/>
+      <c r="E19" s="287"/>
+      <c r="F19" s="288"/>
       <c r="G19" s="37"/>
       <c r="H19" s="37"/>
       <c r="I19" s="24">
@@ -5673,9 +5685,9 @@
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="11"/>
       <c r="C20" s="12"/>
-      <c r="D20" s="278"/>
-      <c r="E20" s="279"/>
-      <c r="F20" s="280"/>
+      <c r="D20" s="286"/>
+      <c r="E20" s="287"/>
+      <c r="F20" s="288"/>
       <c r="G20" s="38"/>
       <c r="H20" s="38"/>
       <c r="I20" s="13">
@@ -5686,9 +5698,9 @@
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
-      <c r="D21" s="278"/>
-      <c r="E21" s="279"/>
-      <c r="F21" s="280"/>
+      <c r="D21" s="286"/>
+      <c r="E21" s="287"/>
+      <c r="F21" s="288"/>
       <c r="G21" s="38"/>
       <c r="H21" s="38"/>
       <c r="I21" s="13">
@@ -5699,9 +5711,9 @@
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
-      <c r="D22" s="278"/>
-      <c r="E22" s="279"/>
-      <c r="F22" s="280"/>
+      <c r="D22" s="286"/>
+      <c r="E22" s="287"/>
+      <c r="F22" s="288"/>
       <c r="G22" s="38"/>
       <c r="H22" s="38"/>
       <c r="I22" s="13">
@@ -5712,9 +5724,9 @@
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
-      <c r="D23" s="278"/>
-      <c r="E23" s="279"/>
-      <c r="F23" s="280"/>
+      <c r="D23" s="286"/>
+      <c r="E23" s="287"/>
+      <c r="F23" s="288"/>
       <c r="G23" s="38"/>
       <c r="H23" s="38"/>
       <c r="I23" s="13">
@@ -5725,9 +5737,9 @@
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
-      <c r="D24" s="278"/>
-      <c r="E24" s="279"/>
-      <c r="F24" s="280"/>
+      <c r="D24" s="286"/>
+      <c r="E24" s="287"/>
+      <c r="F24" s="288"/>
       <c r="G24" s="38"/>
       <c r="H24" s="38"/>
       <c r="I24" s="13">
@@ -5751,9 +5763,9 @@
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
-      <c r="D26" s="278"/>
-      <c r="E26" s="279"/>
-      <c r="F26" s="280"/>
+      <c r="D26" s="286"/>
+      <c r="E26" s="287"/>
+      <c r="F26" s="288"/>
       <c r="G26" s="38"/>
       <c r="H26" s="38"/>
       <c r="I26" s="13">
@@ -5764,9 +5776,9 @@
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
-      <c r="D27" s="278"/>
-      <c r="E27" s="279"/>
-      <c r="F27" s="280"/>
+      <c r="D27" s="286"/>
+      <c r="E27" s="287"/>
+      <c r="F27" s="288"/>
       <c r="G27" s="38"/>
       <c r="H27" s="38"/>
       <c r="I27" s="13">
@@ -5777,9 +5789,9 @@
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
-      <c r="D28" s="278"/>
-      <c r="E28" s="279"/>
-      <c r="F28" s="280"/>
+      <c r="D28" s="286"/>
+      <c r="E28" s="287"/>
+      <c r="F28" s="288"/>
       <c r="G28" s="38"/>
       <c r="H28" s="38"/>
       <c r="I28" s="13">
@@ -5790,9 +5802,9 @@
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
-      <c r="D29" s="278"/>
-      <c r="E29" s="279"/>
-      <c r="F29" s="280"/>
+      <c r="D29" s="286"/>
+      <c r="E29" s="287"/>
+      <c r="F29" s="288"/>
       <c r="G29" s="38"/>
       <c r="H29" s="38"/>
       <c r="I29" s="13">
@@ -5803,9 +5815,9 @@
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" s="11"/>
       <c r="C30" s="12"/>
-      <c r="D30" s="278"/>
-      <c r="E30" s="279"/>
-      <c r="F30" s="280"/>
+      <c r="D30" s="286"/>
+      <c r="E30" s="287"/>
+      <c r="F30" s="288"/>
       <c r="G30" s="38"/>
       <c r="H30" s="38"/>
       <c r="I30" s="13">
@@ -5816,9 +5828,9 @@
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" s="11"/>
       <c r="C31" s="12"/>
-      <c r="D31" s="278"/>
-      <c r="E31" s="279"/>
-      <c r="F31" s="280"/>
+      <c r="D31" s="286"/>
+      <c r="E31" s="287"/>
+      <c r="F31" s="288"/>
       <c r="G31" s="38"/>
       <c r="H31" s="38"/>
       <c r="I31" s="13">
@@ -5829,9 +5841,9 @@
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" s="11"/>
       <c r="C32" s="12"/>
-      <c r="D32" s="278"/>
-      <c r="E32" s="279"/>
-      <c r="F32" s="280"/>
+      <c r="D32" s="286"/>
+      <c r="E32" s="287"/>
+      <c r="F32" s="288"/>
       <c r="G32" s="38"/>
       <c r="H32" s="38"/>
       <c r="I32" s="13">
@@ -5842,9 +5854,9 @@
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="11"/>
       <c r="C33" s="12"/>
-      <c r="D33" s="278"/>
-      <c r="E33" s="279"/>
-      <c r="F33" s="280"/>
+      <c r="D33" s="286"/>
+      <c r="E33" s="287"/>
+      <c r="F33" s="288"/>
       <c r="G33" s="38"/>
       <c r="H33" s="38"/>
       <c r="I33" s="13">
@@ -5855,9 +5867,9 @@
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="11"/>
       <c r="C34" s="12"/>
-      <c r="D34" s="278"/>
-      <c r="E34" s="279"/>
-      <c r="F34" s="280"/>
+      <c r="D34" s="286"/>
+      <c r="E34" s="287"/>
+      <c r="F34" s="288"/>
       <c r="G34" s="38"/>
       <c r="H34" s="38"/>
       <c r="I34" s="13">
@@ -5868,9 +5880,9 @@
     <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" s="11"/>
       <c r="C35" s="12"/>
-      <c r="D35" s="278"/>
-      <c r="E35" s="279"/>
-      <c r="F35" s="280"/>
+      <c r="D35" s="286"/>
+      <c r="E35" s="287"/>
+      <c r="F35" s="288"/>
       <c r="G35" s="38"/>
       <c r="H35" s="38"/>
       <c r="I35" s="13">
@@ -5881,9 +5893,9 @@
     <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="11"/>
       <c r="C36" s="12"/>
-      <c r="D36" s="278"/>
-      <c r="E36" s="279"/>
-      <c r="F36" s="280"/>
+      <c r="D36" s="286"/>
+      <c r="E36" s="287"/>
+      <c r="F36" s="288"/>
       <c r="G36" s="38"/>
       <c r="H36" s="38"/>
       <c r="I36" s="13">
@@ -5894,9 +5906,9 @@
     <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" s="11"/>
       <c r="C37" s="12"/>
-      <c r="D37" s="278"/>
-      <c r="E37" s="279"/>
-      <c r="F37" s="280"/>
+      <c r="D37" s="286"/>
+      <c r="E37" s="287"/>
+      <c r="F37" s="288"/>
       <c r="G37" s="38"/>
       <c r="H37" s="38"/>
       <c r="I37" s="13">
@@ -5907,9 +5919,9 @@
     <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" s="11"/>
       <c r="C38" s="12"/>
-      <c r="D38" s="278"/>
-      <c r="E38" s="279"/>
-      <c r="F38" s="280"/>
+      <c r="D38" s="286"/>
+      <c r="E38" s="287"/>
+      <c r="F38" s="288"/>
       <c r="G38" s="38"/>
       <c r="H38" s="38"/>
       <c r="I38" s="13">
@@ -6224,6 +6236,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="D37:F37"/>
@@ -6237,15 +6258,6 @@
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="D29:F29"/>
     <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
@@ -6281,14 +6293,14 @@
   <sheetData>
     <row r="2" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="293" t="s">
+      <c r="B3" s="301" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="294"/>
-      <c r="D3" s="294"/>
-      <c r="E3" s="294"/>
-      <c r="F3" s="294"/>
-      <c r="G3" s="295"/>
+      <c r="C3" s="302"/>
+      <c r="D3" s="302"/>
+      <c r="E3" s="302"/>
+      <c r="F3" s="302"/>
+      <c r="G3" s="303"/>
     </row>
     <row r="4" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C4" s="45"/>
@@ -6297,21 +6309,21 @@
       <c r="F4" s="46"/>
     </row>
     <row r="5" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="290" t="s">
+      <c r="B5" s="298" t="s">
         <v>274</v>
       </c>
-      <c r="C5" s="291"/>
-      <c r="D5" s="291"/>
-      <c r="E5" s="291"/>
-      <c r="F5" s="291"/>
-      <c r="G5" s="292"/>
+      <c r="C5" s="299"/>
+      <c r="D5" s="299"/>
+      <c r="E5" s="299"/>
+      <c r="F5" s="299"/>
+      <c r="G5" s="300"/>
     </row>
     <row r="6" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E7" s="301" t="s">
+      <c r="E7" s="309" t="s">
         <v>197</v>
       </c>
-      <c r="F7" s="301"/>
+      <c r="F7" s="309"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="164" t="s">
@@ -6321,10 +6333,10 @@
         <v>37</v>
       </c>
       <c r="D8" s="61"/>
-      <c r="E8" s="300" t="s">
+      <c r="E8" s="308" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="300"/>
+      <c r="F8" s="308"/>
       <c r="G8" s="173"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
@@ -6336,10 +6348,10 @@
         <v>440580</v>
       </c>
       <c r="D9" s="62"/>
-      <c r="E9" s="299" t="s">
+      <c r="E9" s="307" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="299"/>
+      <c r="F9" s="307"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="164" t="s">
@@ -6350,10 +6362,10 @@
         <v>413420</v>
       </c>
       <c r="D10" s="63"/>
-      <c r="E10" s="298" t="s">
+      <c r="E10" s="306" t="s">
         <v>198</v>
       </c>
-      <c r="F10" s="298"/>
+      <c r="F10" s="306"/>
     </row>
     <row r="11" spans="2:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="164" t="s">
@@ -6364,10 +6376,10 @@
         <v>-27160</v>
       </c>
       <c r="D11" s="127"/>
-      <c r="E11" s="296" t="s">
+      <c r="E11" s="304" t="s">
         <v>196</v>
       </c>
-      <c r="F11" s="297"/>
+      <c r="F11" s="305"/>
     </row>
     <row r="13" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="178" t="s">
@@ -7507,26 +7519,26 @@
       <c r="G95" s="126"/>
     </row>
     <row r="98" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="289" t="s">
+      <c r="B98" s="297" t="s">
         <v>321</v>
       </c>
-      <c r="C98" s="289"/>
-      <c r="D98" s="289"/>
-      <c r="E98" s="289"/>
-      <c r="F98" s="289"/>
-      <c r="G98" s="289"/>
+      <c r="C98" s="297"/>
+      <c r="D98" s="297"/>
+      <c r="E98" s="297"/>
+      <c r="F98" s="297"/>
+      <c r="G98" s="297"/>
       <c r="H98">
         <f>6400/1280</f>
         <v>5</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B99" s="289"/>
-      <c r="C99" s="289"/>
-      <c r="D99" s="289"/>
-      <c r="E99" s="289"/>
-      <c r="F99" s="289"/>
-      <c r="G99" s="289"/>
+      <c r="B99" s="297"/>
+      <c r="C99" s="297"/>
+      <c r="D99" s="297"/>
+      <c r="E99" s="297"/>
+      <c r="F99" s="297"/>
+      <c r="G99" s="297"/>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B100" s="149"/>
@@ -7580,14 +7592,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="305" t="s">
+      <c r="B3" s="313" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="305"/>
-      <c r="D3" s="305"/>
-      <c r="E3" s="305"/>
-      <c r="F3" s="305"/>
-      <c r="G3" s="305"/>
+      <c r="C3" s="313"/>
+      <c r="D3" s="313"/>
+      <c r="E3" s="313"/>
+      <c r="F3" s="313"/>
+      <c r="G3" s="313"/>
     </row>
     <row r="4" spans="2:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="150"/>
@@ -7596,21 +7608,21 @@
       <c r="F4" s="151"/>
     </row>
     <row r="5" spans="2:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="304" t="s">
+      <c r="B5" s="312" t="s">
         <v>288</v>
       </c>
-      <c r="C5" s="304"/>
-      <c r="D5" s="304"/>
-      <c r="E5" s="304"/>
-      <c r="F5" s="304"/>
-      <c r="G5" s="304"/>
+      <c r="C5" s="312"/>
+      <c r="D5" s="312"/>
+      <c r="E5" s="312"/>
+      <c r="F5" s="312"/>
+      <c r="G5" s="312"/>
     </row>
     <row r="6" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E7" s="302" t="s">
+      <c r="E7" s="310" t="s">
         <v>197</v>
       </c>
-      <c r="F7" s="303"/>
+      <c r="F7" s="311"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="190" t="s">
@@ -7620,10 +7632,10 @@
         <v>37</v>
       </c>
       <c r="D8" s="187"/>
-      <c r="E8" s="306" t="s">
+      <c r="E8" s="314" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="307"/>
+      <c r="F8" s="315"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="190" t="s">
@@ -7634,10 +7646,10 @@
         <v>98590</v>
       </c>
       <c r="D9" s="188"/>
-      <c r="E9" s="308" t="s">
+      <c r="E9" s="316" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="309"/>
+      <c r="F9" s="317"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="190" t="s">
@@ -7648,10 +7660,10 @@
         <v>66000</v>
       </c>
       <c r="D10" s="188"/>
-      <c r="E10" s="310" t="s">
+      <c r="E10" s="318" t="s">
         <v>198</v>
       </c>
-      <c r="F10" s="311"/>
+      <c r="F10" s="319"/>
     </row>
     <row r="11" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="190" t="s">
@@ -7662,10 +7674,10 @@
         <v>-32590</v>
       </c>
       <c r="D11" s="189"/>
-      <c r="E11" s="296" t="s">
+      <c r="E11" s="304" t="s">
         <v>196</v>
       </c>
-      <c r="F11" s="297"/>
+      <c r="F11" s="305"/>
     </row>
     <row r="12" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8697,14 +8709,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="305" t="s">
+      <c r="B3" s="313" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="305"/>
-      <c r="D3" s="305"/>
-      <c r="E3" s="305"/>
-      <c r="F3" s="305"/>
-      <c r="G3" s="305"/>
+      <c r="C3" s="313"/>
+      <c r="D3" s="313"/>
+      <c r="E3" s="313"/>
+      <c r="F3" s="313"/>
+      <c r="G3" s="313"/>
     </row>
     <row r="4" spans="2:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="150"/>
@@ -8713,21 +8725,21 @@
       <c r="F4" s="151"/>
     </row>
     <row r="5" spans="2:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="304" t="s">
+      <c r="B5" s="312" t="s">
         <v>379</v>
       </c>
-      <c r="C5" s="304"/>
-      <c r="D5" s="304"/>
-      <c r="E5" s="304"/>
-      <c r="F5" s="304"/>
-      <c r="G5" s="304"/>
+      <c r="C5" s="312"/>
+      <c r="D5" s="312"/>
+      <c r="E5" s="312"/>
+      <c r="F5" s="312"/>
+      <c r="G5" s="312"/>
     </row>
     <row r="6" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E7" s="302" t="s">
+      <c r="E7" s="310" t="s">
         <v>197</v>
       </c>
-      <c r="F7" s="303"/>
+      <c r="F7" s="311"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="190" t="s">
@@ -8737,10 +8749,10 @@
         <v>37</v>
       </c>
       <c r="D8" s="187"/>
-      <c r="E8" s="306" t="s">
+      <c r="E8" s="314" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="307"/>
+      <c r="F8" s="315"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="190" t="s">
@@ -8751,10 +8763,10 @@
         <v>53890</v>
       </c>
       <c r="D9" s="188"/>
-      <c r="E9" s="308" t="s">
+      <c r="E9" s="316" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="309"/>
+      <c r="F9" s="317"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="190" t="s">
@@ -8765,10 +8777,10 @@
         <v>0</v>
       </c>
       <c r="D10" s="188"/>
-      <c r="E10" s="310" t="s">
+      <c r="E10" s="318" t="s">
         <v>198</v>
       </c>
-      <c r="F10" s="311"/>
+      <c r="F10" s="319"/>
     </row>
     <row r="11" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="190" t="s">
@@ -8779,10 +8791,10 @@
         <v>-53890</v>
       </c>
       <c r="D11" s="189"/>
-      <c r="E11" s="296" t="s">
+      <c r="E11" s="304" t="s">
         <v>196</v>
       </c>
-      <c r="F11" s="297"/>
+      <c r="F11" s="305"/>
     </row>
     <row r="12" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8864,8 +8876,8 @@
       <c r="G18" s="114" t="s">
         <v>295</v>
       </c>
-      <c r="H18" s="312"/>
-      <c r="I18" s="313"/>
+      <c r="H18" s="320"/>
+      <c r="I18" s="321"/>
     </row>
     <row r="19" spans="1:9" s="154" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="166"/>
@@ -9488,13 +9500,13 @@
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9509,10 +9521,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:X300"/>
+  <dimension ref="A1:X301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H292" sqref="H292"/>
+    <sheetView tabSelected="1" topLeftCell="A289" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I299" sqref="I299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9541,12 +9553,12 @@
       <c r="H2" s="214"/>
     </row>
     <row r="3" spans="2:24" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="314" t="s">
+      <c r="C3" s="322" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="315"/>
-      <c r="E3" s="316"/>
-      <c r="F3" s="316"/>
+      <c r="D3" s="323"/>
+      <c r="E3" s="324"/>
+      <c r="F3" s="324"/>
       <c r="G3" s="223"/>
       <c r="H3" s="214"/>
     </row>
@@ -9561,12 +9573,12 @@
       <c r="H5" s="214"/>
     </row>
     <row r="6" spans="2:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="317" t="s">
+      <c r="C6" s="325" t="s">
         <v>381</v>
       </c>
-      <c r="D6" s="317"/>
-      <c r="E6" s="318"/>
-      <c r="F6" s="318"/>
+      <c r="D6" s="325"/>
+      <c r="E6" s="326"/>
+      <c r="F6" s="326"/>
       <c r="G6" s="215"/>
       <c r="H6" s="214"/>
     </row>
@@ -9589,7 +9601,7 @@
       </c>
       <c r="C9" s="162">
         <f>Tableau2[[#Totals],[Débit]]</f>
-        <v>1806135</v>
+        <v>1807135</v>
       </c>
       <c r="D9" s="217"/>
       <c r="H9" s="214"/>
@@ -9610,7 +9622,7 @@
       </c>
       <c r="C11" s="78">
         <f>C10-C9</f>
-        <v>44065</v>
+        <v>43065</v>
       </c>
       <c r="D11" s="148"/>
       <c r="H11" s="214"/>
@@ -10581,7 +10593,7 @@
     </row>
     <row r="65" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="203"/>
-      <c r="B65" s="324"/>
+      <c r="B65" s="278"/>
       <c r="C65" s="209"/>
       <c r="D65" s="209"/>
       <c r="E65" s="209"/>
@@ -10634,7 +10646,7 @@
     </row>
     <row r="68" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="203"/>
-      <c r="B68" s="324"/>
+      <c r="B68" s="278"/>
       <c r="C68" s="209"/>
       <c r="D68" s="209"/>
       <c r="E68" s="209"/>
@@ -10782,7 +10794,7 @@
     </row>
     <row r="76" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="203"/>
-      <c r="B76" s="324"/>
+      <c r="B76" s="278"/>
       <c r="C76" s="209"/>
       <c r="D76" s="209"/>
       <c r="E76" s="209"/>
@@ -10817,7 +10829,7 @@
     </row>
     <row r="78" spans="1:9" s="232" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="231"/>
-      <c r="B78" s="324"/>
+      <c r="B78" s="278"/>
       <c r="C78" s="209"/>
       <c r="D78" s="209"/>
       <c r="E78" s="209"/>
@@ -10895,7 +10907,7 @@
     </row>
     <row r="82" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="203"/>
-      <c r="B82" s="324"/>
+      <c r="B82" s="278"/>
       <c r="C82" s="209"/>
       <c r="D82" s="209"/>
       <c r="E82" s="209"/>
@@ -10925,7 +10937,7 @@
     </row>
     <row r="84" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="203"/>
-      <c r="B84" s="324"/>
+      <c r="B84" s="278"/>
       <c r="C84" s="209"/>
       <c r="D84" s="209"/>
       <c r="E84" s="209"/>
@@ -10960,7 +10972,7 @@
     </row>
     <row r="86" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="203"/>
-      <c r="B86" s="324"/>
+      <c r="B86" s="278"/>
       <c r="C86" s="209"/>
       <c r="D86" s="209"/>
       <c r="E86" s="209"/>
@@ -11020,7 +11032,7 @@
     </row>
     <row r="89" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="203"/>
-      <c r="B89" s="324"/>
+      <c r="B89" s="278"/>
       <c r="C89" s="209"/>
       <c r="D89" s="209"/>
       <c r="E89" s="209"/>
@@ -11075,7 +11087,7 @@
     </row>
     <row r="92" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="203"/>
-      <c r="B92" s="324"/>
+      <c r="B92" s="278"/>
       <c r="C92" s="209"/>
       <c r="D92" s="209"/>
       <c r="E92" s="209"/>
@@ -11143,7 +11155,7 @@
     </row>
     <row r="96" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="203"/>
-      <c r="B96" s="324"/>
+      <c r="B96" s="278"/>
       <c r="C96" s="209"/>
       <c r="D96" s="209"/>
       <c r="E96" s="209"/>
@@ -11175,7 +11187,7 @@
     </row>
     <row r="98" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="203"/>
-      <c r="B98" s="324"/>
+      <c r="B98" s="278"/>
       <c r="C98" s="209"/>
       <c r="D98" s="209"/>
       <c r="E98" s="209"/>
@@ -11208,7 +11220,7 @@
     </row>
     <row r="100" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="203"/>
-      <c r="B100" s="324"/>
+      <c r="B100" s="278"/>
       <c r="C100" s="209"/>
       <c r="D100" s="209"/>
       <c r="E100" s="209"/>
@@ -11276,7 +11288,7 @@
     </row>
     <row r="104" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="203"/>
-      <c r="B104" s="324"/>
+      <c r="B104" s="278"/>
       <c r="C104" s="209"/>
       <c r="D104" s="209"/>
       <c r="E104" s="209"/>
@@ -11347,7 +11359,7 @@
     </row>
     <row r="108" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="203"/>
-      <c r="B108" s="324"/>
+      <c r="B108" s="278"/>
       <c r="C108" s="209"/>
       <c r="D108" s="209"/>
       <c r="E108" s="209"/>
@@ -11426,7 +11438,7 @@
     </row>
     <row r="112" spans="1:9" s="232" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="231"/>
-      <c r="B112" s="324"/>
+      <c r="B112" s="278"/>
       <c r="C112" s="209"/>
       <c r="D112" s="209"/>
       <c r="E112" s="209"/>
@@ -11516,7 +11528,7 @@
     </row>
     <row r="117" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="203"/>
-      <c r="B117" s="324"/>
+      <c r="B117" s="278"/>
       <c r="C117" s="209"/>
       <c r="D117" s="209"/>
       <c r="E117" s="209"/>
@@ -11604,7 +11616,7 @@
     </row>
     <row r="121" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="203"/>
-      <c r="B121" s="324"/>
+      <c r="B121" s="278"/>
       <c r="C121" s="209"/>
       <c r="D121" s="209"/>
       <c r="E121" s="209"/>
@@ -11693,7 +11705,7 @@
     </row>
     <row r="126" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="203"/>
-      <c r="B126" s="324"/>
+      <c r="B126" s="278"/>
       <c r="C126" s="209"/>
       <c r="D126" s="209"/>
       <c r="E126" s="209"/>
@@ -11788,7 +11800,7 @@
     </row>
     <row r="131" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="203"/>
-      <c r="B131" s="324"/>
+      <c r="B131" s="278"/>
       <c r="C131" s="209"/>
       <c r="D131" s="209"/>
       <c r="E131" s="209"/>
@@ -11925,7 +11937,7 @@
     </row>
     <row r="139" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" s="203"/>
-      <c r="B139" s="324"/>
+      <c r="B139" s="278"/>
       <c r="C139" s="209"/>
       <c r="D139" s="209"/>
       <c r="E139" s="209"/>
@@ -11975,7 +11987,7 @@
     </row>
     <row r="142" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A142" s="203"/>
-      <c r="B142" s="324"/>
+      <c r="B142" s="278"/>
       <c r="C142" s="209"/>
       <c r="D142" s="209"/>
       <c r="E142" s="209"/>
@@ -12028,7 +12040,7 @@
     </row>
     <row r="145" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A145" s="203"/>
-      <c r="B145" s="324"/>
+      <c r="B145" s="278"/>
       <c r="C145" s="209"/>
       <c r="D145" s="209"/>
       <c r="E145" s="209"/>
@@ -12060,7 +12072,7 @@
     </row>
     <row r="147" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A147" s="203"/>
-      <c r="B147" s="324"/>
+      <c r="B147" s="278"/>
       <c r="C147" s="209"/>
       <c r="D147" s="209"/>
       <c r="E147" s="209"/>
@@ -12095,7 +12107,7 @@
     </row>
     <row r="149" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="203"/>
-      <c r="B149" s="324"/>
+      <c r="B149" s="278"/>
       <c r="C149" s="209"/>
       <c r="D149" s="209"/>
       <c r="E149" s="209"/>
@@ -12127,7 +12139,7 @@
     </row>
     <row r="151" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="203"/>
-      <c r="B151" s="324"/>
+      <c r="B151" s="278"/>
       <c r="C151" s="209"/>
       <c r="D151" s="209"/>
       <c r="E151" s="209"/>
@@ -12197,7 +12209,7 @@
     </row>
     <row r="155" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="203"/>
-      <c r="B155" s="324"/>
+      <c r="B155" s="278"/>
       <c r="C155" s="209"/>
       <c r="D155" s="209"/>
       <c r="E155" s="209"/>
@@ -12284,7 +12296,7 @@
       </c>
     </row>
     <row r="160" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="325"/>
+      <c r="B160" s="279"/>
       <c r="C160" s="219" t="s">
         <v>41</v>
       </c>
@@ -12302,7 +12314,7 @@
     </row>
     <row r="161" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A161" s="203"/>
-      <c r="B161" s="324"/>
+      <c r="B161" s="278"/>
       <c r="C161" s="209"/>
       <c r="D161" s="209"/>
       <c r="E161" s="209"/>
@@ -12330,7 +12342,7 @@
     </row>
     <row r="163" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A163" s="203"/>
-      <c r="B163" s="324"/>
+      <c r="B163" s="278"/>
       <c r="C163" s="209"/>
       <c r="D163" s="209"/>
       <c r="E163" s="209"/>
@@ -12362,7 +12374,7 @@
     </row>
     <row r="165" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A165" s="203"/>
-      <c r="B165" s="324"/>
+      <c r="B165" s="278"/>
       <c r="C165" s="209"/>
       <c r="D165" s="209"/>
       <c r="E165" s="209"/>
@@ -12400,7 +12412,7 @@
     </row>
     <row r="167" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A167" s="203"/>
-      <c r="B167" s="324"/>
+      <c r="B167" s="278"/>
       <c r="C167" s="209"/>
       <c r="D167" s="209"/>
       <c r="E167" s="209"/>
@@ -12435,7 +12447,7 @@
       </c>
     </row>
     <row r="169" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="324"/>
+      <c r="B169" s="278"/>
       <c r="C169" s="209"/>
       <c r="D169" s="209"/>
       <c r="E169" s="209"/>
@@ -12581,7 +12593,7 @@
       </c>
     </row>
     <row r="177" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="324"/>
+      <c r="B177" s="278"/>
       <c r="C177" s="209"/>
       <c r="D177" s="209"/>
       <c r="E177" s="209"/>
@@ -12648,7 +12660,7 @@
       </c>
     </row>
     <row r="181" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="324"/>
+      <c r="B181" s="278"/>
       <c r="C181" s="209"/>
       <c r="D181" s="209"/>
       <c r="E181" s="209"/>
@@ -12718,7 +12730,7 @@
       </c>
     </row>
     <row r="185" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B185" s="324"/>
+      <c r="B185" s="278"/>
       <c r="C185" s="209"/>
       <c r="D185" s="209"/>
       <c r="E185" s="209"/>
@@ -12788,7 +12800,7 @@
       </c>
     </row>
     <row r="189" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="324"/>
+      <c r="B189" s="278"/>
       <c r="C189" s="209"/>
       <c r="D189" s="209"/>
       <c r="E189" s="209"/>
@@ -12822,7 +12834,7 @@
       </c>
     </row>
     <row r="191" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="324"/>
+      <c r="B191" s="278"/>
       <c r="C191" s="209"/>
       <c r="D191" s="209"/>
       <c r="E191" s="209"/>
@@ -12911,7 +12923,7 @@
       </c>
     </row>
     <row r="196" spans="2:9" s="232" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B196" s="324"/>
+      <c r="B196" s="278"/>
       <c r="C196" s="209"/>
       <c r="D196" s="209"/>
       <c r="E196" s="209"/>
@@ -12988,7 +13000,7 @@
       </c>
     </row>
     <row r="200" spans="2:9" s="232" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B200" s="324"/>
+      <c r="B200" s="278"/>
       <c r="C200" s="209"/>
       <c r="D200" s="209"/>
       <c r="E200" s="209"/>
@@ -13036,7 +13048,7 @@
       </c>
     </row>
     <row r="203" spans="2:9" s="232" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B203" s="324"/>
+      <c r="B203" s="278"/>
       <c r="C203" s="209"/>
       <c r="D203" s="209"/>
       <c r="E203" s="209"/>
@@ -13089,7 +13101,7 @@
       </c>
     </row>
     <row r="206" spans="2:9" s="232" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B206" s="324"/>
+      <c r="B206" s="278"/>
       <c r="C206" s="209"/>
       <c r="D206" s="209"/>
       <c r="E206" s="209"/>
@@ -13118,7 +13130,7 @@
       </c>
     </row>
     <row r="208" spans="2:9" s="232" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B208" s="326"/>
+      <c r="B208" s="280"/>
       <c r="C208" s="233"/>
       <c r="D208" s="233"/>
       <c r="E208" s="234"/>
@@ -13128,7 +13140,7 @@
       <c r="I208" s="270"/>
     </row>
     <row r="209" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="327">
+      <c r="B209" s="281">
         <v>44825</v>
       </c>
       <c r="C209" s="225" t="s">
@@ -13147,7 +13159,7 @@
       </c>
     </row>
     <row r="210" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B210" s="328"/>
+      <c r="B210" s="282"/>
       <c r="C210" s="260"/>
       <c r="D210" s="260"/>
       <c r="E210" s="260"/>
@@ -13158,7 +13170,7 @@
       </c>
     </row>
     <row r="211" spans="2:10" s="232" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="329"/>
+      <c r="B211" s="283"/>
       <c r="C211" s="263"/>
       <c r="D211" s="263"/>
       <c r="E211" s="263"/>
@@ -13170,7 +13182,7 @@
       <c r="I211" s="270"/>
     </row>
     <row r="212" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B212" s="330">
+      <c r="B212" s="284">
         <v>44847</v>
       </c>
       <c r="C212" s="251" t="s">
@@ -13192,7 +13204,7 @@
       </c>
     </row>
     <row r="213" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B213" s="327"/>
+      <c r="B213" s="281"/>
       <c r="C213" s="226" t="s">
         <v>39</v>
       </c>
@@ -13212,7 +13224,7 @@
       </c>
     </row>
     <row r="214" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B214" s="327"/>
+      <c r="B214" s="281"/>
       <c r="C214" s="225" t="s">
         <v>47</v>
       </c>
@@ -13233,7 +13245,7 @@
       <c r="J214" s="136"/>
     </row>
     <row r="215" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B215" s="327"/>
+      <c r="B215" s="281"/>
       <c r="C215" s="225" t="s">
         <v>47</v>
       </c>
@@ -13253,7 +13265,7 @@
       </c>
     </row>
     <row r="216" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B216" s="327"/>
+      <c r="B216" s="281"/>
       <c r="C216" s="225" t="s">
         <v>47</v>
       </c>
@@ -13273,7 +13285,7 @@
       </c>
     </row>
     <row r="217" spans="2:10" s="256" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B217" s="331"/>
+      <c r="B217" s="285"/>
       <c r="C217" s="257"/>
       <c r="D217" s="257"/>
       <c r="E217" s="257"/>
@@ -13283,7 +13295,7 @@
       <c r="I217" s="273"/>
     </row>
     <row r="218" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="327">
+      <c r="B218" s="281">
         <v>44851</v>
       </c>
       <c r="C218" s="225" t="s">
@@ -13305,7 +13317,7 @@
       </c>
     </row>
     <row r="219" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B219" s="327"/>
+      <c r="B219" s="281"/>
       <c r="C219" s="225" t="s">
         <v>47</v>
       </c>
@@ -13325,7 +13337,7 @@
       </c>
     </row>
     <row r="220" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B220" s="327"/>
+      <c r="B220" s="281"/>
       <c r="C220" s="225" t="s">
         <v>47</v>
       </c>
@@ -13345,7 +13357,7 @@
       </c>
     </row>
     <row r="221" spans="2:10" s="232" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B221" s="326"/>
+      <c r="B221" s="280"/>
       <c r="C221" s="234"/>
       <c r="D221" s="234"/>
       <c r="E221" s="234"/>
@@ -13355,7 +13367,7 @@
       <c r="I221" s="270"/>
     </row>
     <row r="222" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B222" s="327">
+      <c r="B222" s="281">
         <v>44861</v>
       </c>
       <c r="C222" s="225" t="s">
@@ -13377,7 +13389,7 @@
       </c>
     </row>
     <row r="223" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B223" s="327"/>
+      <c r="B223" s="281"/>
       <c r="C223" s="225" t="s">
         <v>47</v>
       </c>
@@ -13397,7 +13409,7 @@
       </c>
     </row>
     <row r="224" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B224" s="327"/>
+      <c r="B224" s="281"/>
       <c r="C224" s="225" t="s">
         <v>41</v>
       </c>
@@ -13412,7 +13424,7 @@
       </c>
     </row>
     <row r="225" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B225" s="327"/>
+      <c r="B225" s="281"/>
       <c r="C225" s="225" t="s">
         <v>41</v>
       </c>
@@ -13430,7 +13442,7 @@
       </c>
     </row>
     <row r="226" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B226" s="327"/>
+      <c r="B226" s="281"/>
       <c r="C226" s="225" t="s">
         <v>44</v>
       </c>
@@ -13463,7 +13475,7 @@
       </c>
     </row>
     <row r="228" spans="2:9" s="232" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B228" s="326"/>
+      <c r="B228" s="280"/>
       <c r="C228" s="234"/>
       <c r="D228" s="234"/>
       <c r="E228" s="234"/>
@@ -13473,7 +13485,7 @@
       <c r="I228" s="270"/>
     </row>
     <row r="229" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B229" s="327">
+      <c r="B229" s="281">
         <v>44863</v>
       </c>
       <c r="C229" s="225" t="s">
@@ -13495,7 +13507,7 @@
       </c>
     </row>
     <row r="230" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B230" s="327"/>
+      <c r="B230" s="281"/>
       <c r="C230" s="225" t="s">
         <v>44</v>
       </c>
@@ -13515,7 +13527,7 @@
       </c>
     </row>
     <row r="231" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B231" s="327"/>
+      <c r="B231" s="281"/>
       <c r="C231" s="225" t="s">
         <v>41</v>
       </c>
@@ -13530,7 +13542,7 @@
       </c>
     </row>
     <row r="232" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="327"/>
+      <c r="B232" s="281"/>
       <c r="C232" s="225" t="s">
         <v>44</v>
       </c>
@@ -13545,7 +13557,7 @@
       </c>
     </row>
     <row r="233" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B233" s="327"/>
+      <c r="B233" s="281"/>
       <c r="C233" s="225" t="s">
         <v>42</v>
       </c>
@@ -13562,7 +13574,7 @@
       </c>
     </row>
     <row r="234" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B234" s="327"/>
+      <c r="B234" s="281"/>
       <c r="C234" s="225"/>
       <c r="D234" s="225"/>
       <c r="E234" s="226"/>
@@ -13575,7 +13587,7 @@
       </c>
     </row>
     <row r="235" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B235" s="327">
+      <c r="B235" s="281">
         <v>44865</v>
       </c>
       <c r="C235" s="225" t="s">
@@ -13592,7 +13604,7 @@
       </c>
     </row>
     <row r="236" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B236" s="327"/>
+      <c r="B236" s="281"/>
       <c r="C236" s="225" t="s">
         <v>44</v>
       </c>
@@ -13608,7 +13620,7 @@
       <c r="I236" s="267"/>
     </row>
     <row r="237" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B237" s="327"/>
+      <c r="B237" s="281"/>
       <c r="C237" s="225" t="s">
         <v>41</v>
       </c>
@@ -13623,7 +13635,7 @@
       </c>
     </row>
     <row r="238" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B238" s="327"/>
+      <c r="B238" s="281"/>
       <c r="C238" s="225" t="s">
         <v>42</v>
       </c>
@@ -13640,7 +13652,7 @@
       </c>
     </row>
     <row r="239" spans="2:9" s="232" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B239" s="326"/>
+      <c r="B239" s="280"/>
       <c r="C239" s="234"/>
       <c r="D239" s="234"/>
       <c r="E239" s="234"/>
@@ -13650,7 +13662,7 @@
       <c r="I239" s="270"/>
     </row>
     <row r="240" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B240" s="327">
+      <c r="B240" s="281">
         <v>44866</v>
       </c>
       <c r="C240" s="225" t="s">
@@ -13669,7 +13681,7 @@
       </c>
     </row>
     <row r="241" spans="2:9" s="232" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B241" s="326"/>
+      <c r="B241" s="280"/>
       <c r="C241" s="234"/>
       <c r="D241" s="234"/>
       <c r="E241" s="234"/>
@@ -13679,7 +13691,7 @@
       <c r="I241" s="270"/>
     </row>
     <row r="242" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B242" s="327">
+      <c r="B242" s="281">
         <v>44867</v>
       </c>
       <c r="C242" s="225" t="s">
@@ -13699,7 +13711,7 @@
       </c>
     </row>
     <row r="243" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B243" s="327"/>
+      <c r="B243" s="281"/>
       <c r="C243" s="225" t="s">
         <v>44</v>
       </c>
@@ -13717,7 +13729,7 @@
       </c>
     </row>
     <row r="244" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B244" s="327"/>
+      <c r="B244" s="281"/>
       <c r="C244" s="225" t="s">
         <v>41</v>
       </c>
@@ -13753,7 +13765,7 @@
       </c>
     </row>
     <row r="246" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B246" s="327"/>
+      <c r="B246" s="281"/>
       <c r="C246" s="225" t="s">
         <v>41</v>
       </c>
@@ -13771,7 +13783,7 @@
       </c>
     </row>
     <row r="247" spans="2:9" s="232" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B247" s="326"/>
+      <c r="B247" s="280"/>
       <c r="C247" s="234"/>
       <c r="D247" s="234"/>
       <c r="E247" s="234"/>
@@ -13781,7 +13793,7 @@
       <c r="I247" s="270"/>
     </row>
     <row r="248" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B248" s="327">
+      <c r="B248" s="281">
         <v>44868</v>
       </c>
       <c r="C248" s="225" t="s">
@@ -13804,7 +13816,7 @@
       </c>
     </row>
     <row r="249" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B249" s="327"/>
+      <c r="B249" s="281"/>
       <c r="C249" s="225" t="s">
         <v>42</v>
       </c>
@@ -13821,7 +13833,7 @@
       </c>
     </row>
     <row r="250" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B250" s="327"/>
+      <c r="B250" s="281"/>
       <c r="C250" s="225" t="s">
         <v>42</v>
       </c>
@@ -13859,7 +13871,7 @@
       </c>
     </row>
     <row r="252" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B252" s="327"/>
+      <c r="B252" s="281"/>
       <c r="C252" s="225" t="s">
         <v>39</v>
       </c>
@@ -13899,7 +13911,7 @@
       </c>
     </row>
     <row r="254" spans="2:9" s="232" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B254" s="324"/>
+      <c r="B254" s="278"/>
       <c r="C254" s="209"/>
       <c r="D254" s="209"/>
       <c r="E254" s="209"/>
@@ -13909,7 +13921,7 @@
       <c r="I254" s="270"/>
     </row>
     <row r="255" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B255" s="327">
+      <c r="B255" s="281">
         <v>44870</v>
       </c>
       <c r="C255" s="225" t="s">
@@ -13929,7 +13941,7 @@
       </c>
     </row>
     <row r="256" spans="2:9" s="232" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B256" s="326"/>
+      <c r="B256" s="280"/>
       <c r="C256" s="234"/>
       <c r="D256" s="234"/>
       <c r="E256" s="234"/>
@@ -13939,7 +13951,7 @@
       <c r="I256" s="270"/>
     </row>
     <row r="257" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B257" s="327">
+      <c r="B257" s="281">
         <v>44874</v>
       </c>
       <c r="C257" s="225" t="s">
@@ -13979,7 +13991,7 @@
       </c>
     </row>
     <row r="259" spans="2:11" s="232" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B259" s="326"/>
+      <c r="B259" s="280"/>
       <c r="C259" s="234"/>
       <c r="D259" s="234"/>
       <c r="E259" s="234"/>
@@ -13989,7 +14001,7 @@
       <c r="I259" s="270"/>
     </row>
     <row r="260" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B260" s="327">
+      <c r="B260" s="281">
         <v>44875</v>
       </c>
       <c r="C260" s="225" t="s">
@@ -14008,7 +14020,7 @@
       </c>
     </row>
     <row r="261" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B261" s="327"/>
+      <c r="B261" s="281"/>
       <c r="C261" s="225" t="s">
         <v>39</v>
       </c>
@@ -14028,7 +14040,7 @@
       </c>
     </row>
     <row r="262" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B262" s="327"/>
+      <c r="B262" s="281"/>
       <c r="C262" s="225" t="s">
         <v>42</v>
       </c>
@@ -14048,7 +14060,7 @@
       </c>
     </row>
     <row r="263" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B263" s="327"/>
+      <c r="B263" s="281"/>
       <c r="C263" s="225" t="s">
         <v>42</v>
       </c>
@@ -14068,7 +14080,7 @@
       </c>
     </row>
     <row r="264" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B264" s="327"/>
+      <c r="B264" s="281"/>
       <c r="C264" s="225" t="s">
         <v>47</v>
       </c>
@@ -14092,7 +14104,7 @@
       </c>
     </row>
     <row r="265" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B265" s="327"/>
+      <c r="B265" s="281"/>
       <c r="C265" s="225" t="s">
         <v>47</v>
       </c>
@@ -14112,7 +14124,7 @@
       </c>
     </row>
     <row r="266" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B266" s="327"/>
+      <c r="B266" s="281"/>
       <c r="C266" s="225"/>
       <c r="D266" s="225"/>
       <c r="E266" s="226"/>
@@ -14121,7 +14133,7 @@
       <c r="H266" s="227"/>
     </row>
     <row r="267" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B267" s="327">
+      <c r="B267" s="281">
         <v>44877</v>
       </c>
       <c r="C267" s="225" t="s">
@@ -14163,7 +14175,7 @@
       </c>
     </row>
     <row r="269" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B269" s="327"/>
+      <c r="B269" s="281"/>
       <c r="C269" s="225" t="s">
         <v>47</v>
       </c>
@@ -14198,7 +14210,7 @@
       </c>
     </row>
     <row r="271" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B271" s="327"/>
+      <c r="B271" s="281"/>
       <c r="C271" s="225"/>
       <c r="D271" s="225"/>
       <c r="E271" s="226"/>
@@ -14207,7 +14219,7 @@
       <c r="H271" s="227"/>
     </row>
     <row r="272" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B272" s="327">
+      <c r="B272" s="281">
         <v>44878</v>
       </c>
       <c r="C272" s="225" t="s">
@@ -14229,7 +14241,7 @@
       </c>
     </row>
     <row r="273" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B273" s="327"/>
+      <c r="B273" s="281"/>
       <c r="C273" s="225"/>
       <c r="D273" s="225"/>
       <c r="E273" s="226"/>
@@ -14242,7 +14254,7 @@
       </c>
     </row>
     <row r="274" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B274" s="327">
+      <c r="B274" s="281">
         <v>44879</v>
       </c>
       <c r="C274" s="225" t="s">
@@ -14262,7 +14274,7 @@
       </c>
     </row>
     <row r="275" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B275" s="327"/>
+      <c r="B275" s="281"/>
       <c r="C275" s="225" t="s">
         <v>41</v>
       </c>
@@ -14280,7 +14292,7 @@
       </c>
     </row>
     <row r="276" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B276" s="327"/>
+      <c r="B276" s="281"/>
       <c r="C276" s="225" t="s">
         <v>41</v>
       </c>
@@ -14298,7 +14310,7 @@
       </c>
     </row>
     <row r="277" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B277" s="327"/>
+      <c r="B277" s="281"/>
       <c r="C277" s="225"/>
       <c r="D277" s="225"/>
       <c r="E277" s="226"/>
@@ -14307,7 +14319,7 @@
       <c r="H277" s="227"/>
     </row>
     <row r="278" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B278" s="327">
+      <c r="B278" s="281">
         <v>44880</v>
       </c>
       <c r="C278" s="225" t="s">
@@ -14324,7 +14336,7 @@
       </c>
     </row>
     <row r="279" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B279" s="327"/>
+      <c r="B279" s="281"/>
       <c r="C279" s="225" t="s">
         <v>47</v>
       </c>
@@ -14352,7 +14364,7 @@
       </c>
     </row>
     <row r="280" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B280" s="327"/>
+      <c r="B280" s="281"/>
       <c r="C280" s="225"/>
       <c r="D280" s="225"/>
       <c r="E280" s="226"/>
@@ -14361,7 +14373,7 @@
       <c r="H280" s="227"/>
     </row>
     <row r="281" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B281" s="327">
+      <c r="B281" s="281">
         <v>44884</v>
       </c>
       <c r="C281" s="225" t="s">
@@ -14381,7 +14393,7 @@
       </c>
     </row>
     <row r="282" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B282" s="327"/>
+      <c r="B282" s="281"/>
       <c r="C282" s="225" t="s">
         <v>41</v>
       </c>
@@ -14399,7 +14411,7 @@
       </c>
     </row>
     <row r="283" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B283" s="327"/>
+      <c r="B283" s="281"/>
       <c r="C283" s="225" t="s">
         <v>41</v>
       </c>
@@ -14417,7 +14429,7 @@
       </c>
     </row>
     <row r="284" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B284" s="327"/>
+      <c r="B284" s="281"/>
       <c r="C284" s="225"/>
       <c r="D284" s="225"/>
       <c r="E284" s="226"/>
@@ -14426,7 +14438,7 @@
       <c r="H284" s="227"/>
     </row>
     <row r="285" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B285" s="327">
+      <c r="B285" s="281">
         <v>44886</v>
       </c>
       <c r="C285" s="225" t="s">
@@ -14446,7 +14458,7 @@
       </c>
     </row>
     <row r="286" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B286" s="327"/>
+      <c r="B286" s="281"/>
       <c r="C286" s="225" t="s">
         <v>47</v>
       </c>
@@ -14466,7 +14478,7 @@
       </c>
     </row>
     <row r="287" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B287" s="327"/>
+      <c r="B287" s="281"/>
       <c r="C287" s="225"/>
       <c r="D287" s="225"/>
       <c r="E287" s="226"/>
@@ -14475,7 +14487,7 @@
       <c r="H287" s="227"/>
     </row>
     <row r="288" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B288" s="327">
+      <c r="B288" s="281">
         <v>44887</v>
       </c>
       <c r="C288" s="225" t="s">
@@ -14495,7 +14507,7 @@
       </c>
     </row>
     <row r="289" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B289" s="327"/>
+      <c r="B289" s="281"/>
       <c r="C289" s="225" t="s">
         <v>44</v>
       </c>
@@ -14515,7 +14527,7 @@
       </c>
     </row>
     <row r="290" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B290" s="327"/>
+      <c r="B290" s="281"/>
       <c r="C290" s="225"/>
       <c r="D290" s="225"/>
       <c r="E290" s="275">
@@ -14540,19 +14552,19 @@
       <c r="H291" s="195"/>
     </row>
     <row r="292" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B292" s="327">
+      <c r="B292" s="281">
         <v>44888</v>
       </c>
       <c r="C292" s="225" t="s">
         <v>41</v>
       </c>
       <c r="D292" s="225"/>
-      <c r="E292" s="226">
+      <c r="E292" s="275">
         <v>3900</v>
       </c>
-      <c r="F292" s="146"/>
-      <c r="G292" s="146"/>
-      <c r="H292" s="227" t="s">
+      <c r="F292" s="276"/>
+      <c r="G292" s="276"/>
+      <c r="H292" s="277" t="s">
         <v>471</v>
       </c>
       <c r="I292" s="274" t="s">
@@ -14560,17 +14572,17 @@
       </c>
     </row>
     <row r="293" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B293" s="327"/>
+      <c r="B293" s="281"/>
       <c r="C293" s="225" t="s">
         <v>41</v>
       </c>
       <c r="D293" s="225"/>
-      <c r="E293" s="226">
+      <c r="E293" s="275">
         <v>800</v>
       </c>
-      <c r="F293" s="146"/>
-      <c r="G293" s="146"/>
-      <c r="H293" s="227" t="s">
+      <c r="F293" s="276"/>
+      <c r="G293" s="276"/>
+      <c r="H293" s="277" t="s">
         <v>478</v>
       </c>
       <c r="I293" s="274" t="s">
@@ -14596,7 +14608,7 @@
       </c>
     </row>
     <row r="295" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B295" s="327"/>
+      <c r="B295" s="281"/>
       <c r="C295" s="225" t="s">
         <v>47</v>
       </c>
@@ -14616,7 +14628,7 @@
       </c>
     </row>
     <row r="296" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B296" s="327"/>
+      <c r="B296" s="281"/>
       <c r="C296" s="225"/>
       <c r="D296" s="225"/>
       <c r="E296" s="226"/>
@@ -14625,53 +14637,88 @@
       <c r="H296" s="227"/>
     </row>
     <row r="297" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B297" s="327"/>
-      <c r="C297" s="225"/>
+      <c r="B297" s="281">
+        <v>44889</v>
+      </c>
+      <c r="C297" s="225" t="s">
+        <v>94</v>
+      </c>
       <c r="D297" s="225"/>
-      <c r="E297" s="226"/>
-      <c r="F297" s="146"/>
-      <c r="G297" s="146"/>
-      <c r="H297" s="227"/>
+      <c r="E297" s="275">
+        <v>300</v>
+      </c>
+      <c r="F297" s="276"/>
+      <c r="G297" s="276"/>
+      <c r="H297" s="277" t="s">
+        <v>478</v>
+      </c>
+      <c r="I297" s="274" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="298" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B298" s="327"/>
-      <c r="C298" s="225"/>
+      <c r="B298" s="281"/>
+      <c r="C298" s="225" t="s">
+        <v>41</v>
+      </c>
       <c r="D298" s="225"/>
-      <c r="E298" s="226"/>
-      <c r="F298" s="146"/>
-      <c r="G298" s="146"/>
-      <c r="H298" s="227"/>
+      <c r="E298" s="275">
+        <v>300</v>
+      </c>
+      <c r="F298" s="276"/>
+      <c r="G298" s="276"/>
+      <c r="H298" s="277" t="s">
+        <v>485</v>
+      </c>
+      <c r="I298" s="274" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="299" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B299" s="327"/>
-      <c r="C299" s="225"/>
+      <c r="B299" s="281"/>
+      <c r="C299" s="225" t="s">
+        <v>41</v>
+      </c>
       <c r="D299" s="225"/>
-      <c r="E299" s="226"/>
-      <c r="F299" s="146"/>
-      <c r="G299" s="146"/>
-      <c r="H299" s="227"/>
+      <c r="E299" s="275">
+        <v>400</v>
+      </c>
+      <c r="F299" s="276"/>
+      <c r="G299" s="276"/>
+      <c r="H299" s="277" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="300" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B300" s="228" t="s">
+      <c r="B300" s="281"/>
+      <c r="C300" s="225"/>
+      <c r="D300" s="225"/>
+      <c r="E300" s="226"/>
+      <c r="F300" s="146"/>
+      <c r="G300" s="146"/>
+      <c r="H300" s="227"/>
+    </row>
+    <row r="301" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B301" s="228" t="s">
         <v>314</v>
       </c>
-      <c r="C300" s="229"/>
-      <c r="D300" s="132">
+      <c r="C301" s="229"/>
+      <c r="D301" s="132">
         <f>Tableau2[[#Totals],[Crédit]]-Tableau2[[#Totals],[Débit]]</f>
-        <v>44065</v>
-      </c>
-      <c r="E300" s="138">
+        <v>43065</v>
+      </c>
+      <c r="E301" s="138">
         <f>SUBTOTAL(109,Tableau2[Débit])</f>
-        <v>1806135</v>
-      </c>
-      <c r="F300" s="138">
+        <v>1807135</v>
+      </c>
+      <c r="F301" s="138">
         <f>SUBTOTAL(109,Tableau2[Crédit])</f>
         <v>1850200</v>
       </c>
-      <c r="G300" s="230"/>
-      <c r="H300" s="229">
+      <c r="G301" s="230"/>
+      <c r="H301" s="229">
         <f>SUBTOTAL(103,Tableau2[Observation])</f>
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -14680,17 +14727,17 @@
     <mergeCell ref="C6:F6"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
-  <conditionalFormatting sqref="D300">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="D301">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>-1895</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14717,14 +14764,16 @@
     <hyperlink ref="I288" r:id="rId9" xr:uid="{DC80CE65-F8BF-4BD5-B43E-7CBADCCA3FED}"/>
     <hyperlink ref="I292" r:id="rId10" xr:uid="{ADDDE24A-B158-437C-964F-F8A47789094A}"/>
     <hyperlink ref="I293" r:id="rId11" xr:uid="{F8160B58-20DD-4EB6-92DF-AB1CEA0E2552}"/>
+    <hyperlink ref="I297" r:id="rId12" xr:uid="{B114CE21-7913-4157-890B-B6DE635F8B7D}"/>
+    <hyperlink ref="I298" r:id="rId13" xr:uid="{5F00D6EA-7767-47C0-B22D-449A67D871FE}"/>
   </hyperlinks>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup orientation="landscape" r:id="rId12"/>
+  <pageSetup orientation="landscape" r:id="rId14"/>
   <headerFooter alignWithMargins="0"/>
   <tableParts count="3">
-    <tablePart r:id="rId13"/>
-    <tablePart r:id="rId14"/>
     <tablePart r:id="rId15"/>
+    <tablePart r:id="rId16"/>
+    <tablePart r:id="rId17"/>
   </tableParts>
 </worksheet>
 </file>
@@ -14748,12 +14797,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="319" t="s">
+      <c r="C3" s="327" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="320"/>
-      <c r="E3" s="321"/>
-      <c r="F3" s="322"/>
+      <c r="D3" s="328"/>
+      <c r="E3" s="329"/>
+      <c r="F3" s="330"/>
     </row>
     <row r="4" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="45"/>
@@ -14768,12 +14817,12 @@
       <c r="F5" s="46"/>
     </row>
     <row r="6" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="317" t="s">
+      <c r="C6" s="325" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="317"/>
-      <c r="E6" s="323"/>
-      <c r="F6" s="323"/>
+      <c r="D6" s="325"/>
+      <c r="E6" s="331"/>
+      <c r="F6" s="331"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="72" t="s">

--- a/Suivie de Caisse 1.xlsx
+++ b/Suivie de Caisse 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ES-SABRE\Desktop\Caisse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8C03D5-C83B-4E56-9416-250A3231B20E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155D3D53-E7A6-4F5D-8DF2-2111F3288E84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ETAT DE FACTURES DE DOIT" sheetId="3" state="hidden" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="Test" sheetId="13" r:id="rId11"/>
     <sheet name="Feuil1" sheetId="9" r:id="rId12"/>
     <sheet name="caisse sabre payé par djamel" sheetId="6" r:id="rId13"/>
+    <sheet name="Fateh" sheetId="18" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'Suivie Caisse Djamel aout'!$13:$13</definedName>
@@ -41,7 +42,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Suivie Caisse Djamel Juillet'!$A$1:$G$100</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Suivie Caisse Djamel Mars'!$B$1:$G$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Suivie Caisse Djamel Septembre'!$B$1:$G$28</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'Suivie Caisse Es-Sabre'!$B$1:$H$504</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'Suivie Caisse Es-Sabre'!$B$1:$H$608</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">Test!$B$1:$H$315</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3260" uniqueCount="881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3466" uniqueCount="954">
   <si>
     <t>Total</t>
   </si>
@@ -2723,6 +2724,225 @@
   </si>
   <si>
     <t>2 jour pour aidé les mainoeuvres avec le monte charge</t>
+  </si>
+  <si>
+    <t>pose de la pierre sur dalle villa 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coulage 7m3 de beton </t>
+  </si>
+  <si>
+    <t>Forfait</t>
+  </si>
+  <si>
+    <t>Nabil Central CMH</t>
+  </si>
+  <si>
+    <t>Pour adjuvants</t>
+  </si>
+  <si>
+    <t>Bilel fournisseur Ciment</t>
+  </si>
+  <si>
+    <t>20,22 tonnes + 27,38 tonnes</t>
+  </si>
+  <si>
+    <t>fixateur pour brique</t>
+  </si>
+  <si>
+    <t>acompte</t>
+  </si>
+  <si>
+    <t>gants *12</t>
+  </si>
+  <si>
+    <t>eau (petit et grand)</t>
+  </si>
+  <si>
+    <t>(achat des Regles)</t>
+  </si>
+  <si>
+    <t>26,18 Tonnes de ciment</t>
+  </si>
+  <si>
+    <t>acompte travaux brique</t>
+  </si>
+  <si>
+    <t>4Voyage d'eau</t>
+  </si>
+  <si>
+    <t>29j (27+2vendredis)</t>
+  </si>
+  <si>
+    <t>27j (25+2 vendredis)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pour adjuvant 50000/93240</t>
+  </si>
+  <si>
+    <t>coulage : 20-27-29/07/2023 et 05/08/2023 (222 m3 =&gt; 621,5 L =&gt; 93240</t>
+  </si>
+  <si>
+    <t>coulage de 24m3</t>
+  </si>
+  <si>
+    <t>45000/45000</t>
+  </si>
+  <si>
+    <t>mois de juillet</t>
+  </si>
+  <si>
+    <t>Deux voyages (25/07 et 05/08) 27,xx + 27,xx</t>
+  </si>
+  <si>
+    <t>acomptes</t>
+  </si>
+  <si>
+    <t>kamel brique</t>
+  </si>
+  <si>
+    <t>12/07/2023 au 12/08/2023</t>
+  </si>
+  <si>
+    <t>Avec Chacal</t>
+  </si>
+  <si>
+    <t>1 voyage</t>
+  </si>
+  <si>
+    <t>rouleau de poliane</t>
+  </si>
+  <si>
+    <t>3 boite Sika de Scellement</t>
+  </si>
+  <si>
+    <t>2500*3 gaine orange pour acroter( goute)</t>
+  </si>
+  <si>
+    <t>Agregats</t>
+  </si>
+  <si>
+    <t>Payement agregats</t>
+  </si>
+  <si>
+    <t>prise mal femelle *3</t>
+  </si>
+  <si>
+    <t>Pour payement camion de vidange</t>
+  </si>
+  <si>
+    <t>3 pattes de scellement rond a beton</t>
+  </si>
+  <si>
+    <t>3500*3</t>
+  </si>
+  <si>
+    <t>pattes de scellement rond a beton</t>
+  </si>
+  <si>
+    <t>2 pattes de scellement rond a beton</t>
+  </si>
+  <si>
+    <t>2500 u</t>
+  </si>
+  <si>
+    <t>Essai sclero + geotechnique</t>
+  </si>
+  <si>
+    <t>Citern eau</t>
+  </si>
+  <si>
+    <t>Mohamed feraillage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retrait de cheque au cpa </t>
+  </si>
+  <si>
+    <t>Rouji</t>
+  </si>
+  <si>
+    <t>8 sika</t>
+  </si>
+  <si>
+    <t>2000*8</t>
+  </si>
+  <si>
+    <t>demander par mr djamel par tel</t>
+  </si>
+  <si>
+    <t>Fixateur</t>
+  </si>
+  <si>
+    <t>15 m3 Beton</t>
+  </si>
+  <si>
+    <t>Payement Pompe a beton forait</t>
+  </si>
+  <si>
+    <t>2000 le jeudi et 2000 acompte avant</t>
+  </si>
+  <si>
+    <t>achat sika type A/B 10Kg</t>
+  </si>
+  <si>
+    <t>50m cable + 4 prise m/f</t>
+  </si>
+  <si>
+    <t>Hassan Acompte mois aout</t>
+  </si>
+  <si>
+    <t>Sika A/B 10kg</t>
+  </si>
+  <si>
+    <t>Flitox</t>
+  </si>
+  <si>
+    <t>Produit moustique</t>
+  </si>
+  <si>
+    <t>meche beton 6</t>
+  </si>
+  <si>
+    <t>5 sika de scellement</t>
+  </si>
+  <si>
+    <t>2500*5</t>
+  </si>
+  <si>
+    <t>Fateh</t>
+  </si>
+  <si>
+    <t>acompte travaux monocouche</t>
+  </si>
+  <si>
+    <t>islam acompte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 bidon fixateeur </t>
+  </si>
+  <si>
+    <t>mohamed chacal</t>
+  </si>
+  <si>
+    <t>cheque de 100000 retirer au BNP paribas staouali</t>
+  </si>
+  <si>
+    <t>2 semi brique + 2 camion sable</t>
+  </si>
+  <si>
+    <t>ralonge + chaux(villa djamel) + cable</t>
+  </si>
+  <si>
+    <t>eau + sucre</t>
+  </si>
+  <si>
+    <t>meche 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">payement </t>
+  </si>
+  <si>
+    <t>44100 - 4000 -2000 =38100</t>
   </si>
 </sst>
 </file>
@@ -2889,7 +3109,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3037,6 +3257,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3786,7 +4012,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="623">
+  <cellXfs count="629">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -5375,6 +5601,45 @@
     <xf numFmtId="0" fontId="2" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="2" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="2" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="2" fillId="20" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="174" fontId="23" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="174" fontId="2" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="2" fillId="26" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5558,29 +5823,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="2" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="2" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="2" fillId="20" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="174" fontId="23" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="174" fontId="2" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="14" fontId="2" fillId="13" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5589,7 +5833,7 @@
     <cellStyle name="Monétaire" xfId="3" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="218">
+  <dxfs count="229">
     <dxf>
       <font>
         <b/>
@@ -5885,68 +6129,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-      <numFmt numFmtId="174" formatCode="#.##0\.00"/>
-      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color indexed="64"/>
@@ -6564,6 +6746,184 @@
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+      <numFmt numFmtId="173" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -8208,6 +8568,68 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+      <numFmt numFmtId="174" formatCode="#.##0\.00"/>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -10577,64 +10999,64 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau4" displayName="Tableau4" ref="B13:G95" totalsRowShown="0" headerRowDxfId="217" dataDxfId="215" headerRowBorderDxfId="216" tableBorderDxfId="214">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau4" displayName="Tableau4" ref="B13:G95" totalsRowShown="0" headerRowDxfId="228" dataDxfId="226" headerRowBorderDxfId="227" tableBorderDxfId="225">
   <autoFilter ref="B13:G95" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="213"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Opérations" dataDxfId="212"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Par / De" dataDxfId="211"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Débit" dataDxfId="210"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Crédit" dataDxfId="209"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Observation" dataDxfId="208"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="224"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Opérations" dataDxfId="223"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Par / De" dataDxfId="222"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Débit" dataDxfId="221"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Crédit" dataDxfId="220"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Observation" dataDxfId="219"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{B1BF6A0D-B692-446F-9FB3-3358D622B66B}" name="Tableau1017" displayName="Tableau1017" ref="D8:I26" totalsRowShown="0" headerRowDxfId="111" dataDxfId="109" headerRowBorderDxfId="110" tableBorderDxfId="108" totalsRowBorderDxfId="107">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{B1BF6A0D-B692-446F-9FB3-3358D622B66B}" name="Tableau1017" displayName="Tableau1017" ref="D8:I26" totalsRowShown="0" headerRowDxfId="120" dataDxfId="118" headerRowBorderDxfId="119" tableBorderDxfId="117" totalsRowBorderDxfId="116">
   <autoFilter ref="D8:I26" xr:uid="{365049EB-2711-448B-B543-56B6122B58AD}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{5F041CB1-33CB-4BCD-AE23-D4FAA88E2EE5}" name="Date" dataDxfId="106"/>
-    <tableColumn id="2" xr3:uid="{D8467A74-36CB-4F3F-A083-A3C88FBE061D}" name="Opération" dataDxfId="105"/>
-    <tableColumn id="3" xr3:uid="{E9A63E9B-414A-41FB-97DF-9CE4B1441C15}" name="Par" dataDxfId="104"/>
-    <tableColumn id="4" xr3:uid="{5B9FC278-8984-43CF-BD6B-4185B5A6E09D}" name="A" dataDxfId="103"/>
-    <tableColumn id="5" xr3:uid="{B632782A-6945-42A3-A5AD-9FDD98F4ED29}" name="Somme" dataDxfId="102" dataCellStyle="Monétaire"/>
-    <tableColumn id="6" xr3:uid="{C51F1FEE-1AED-40C5-802D-506123C1AADB}" name="Observation" dataDxfId="101"/>
+    <tableColumn id="1" xr3:uid="{5F041CB1-33CB-4BCD-AE23-D4FAA88E2EE5}" name="Date" dataDxfId="115"/>
+    <tableColumn id="2" xr3:uid="{D8467A74-36CB-4F3F-A083-A3C88FBE061D}" name="Opération" dataDxfId="114"/>
+    <tableColumn id="3" xr3:uid="{E9A63E9B-414A-41FB-97DF-9CE4B1441C15}" name="Par" dataDxfId="113"/>
+    <tableColumn id="4" xr3:uid="{5B9FC278-8984-43CF-BD6B-4185B5A6E09D}" name="A" dataDxfId="112"/>
+    <tableColumn id="5" xr3:uid="{B632782A-6945-42A3-A5AD-9FDD98F4ED29}" name="Somme" dataDxfId="111" dataCellStyle="Monétaire"/>
+    <tableColumn id="6" xr3:uid="{C51F1FEE-1AED-40C5-802D-506123C1AADB}" name="Observation" dataDxfId="110"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{571FF29A-42F5-4C49-9785-228215D4CB59}" name="Tableau101723" displayName="Tableau101723" ref="C9:H23" totalsRowShown="0" headerRowDxfId="100" dataDxfId="98" headerRowBorderDxfId="99" tableBorderDxfId="97" totalsRowBorderDxfId="96">
-  <autoFilter ref="C9:H23" xr:uid="{351235B8-E0D2-45F7-846A-74F5A2BD6830}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{571FF29A-42F5-4C49-9785-228215D4CB59}" name="Tableau101723" displayName="Tableau101723" ref="C9:H24" totalsRowShown="0" headerRowDxfId="109" dataDxfId="107" headerRowBorderDxfId="108" tableBorderDxfId="106" totalsRowBorderDxfId="105">
+  <autoFilter ref="C9:H24" xr:uid="{351235B8-E0D2-45F7-846A-74F5A2BD6830}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{215515FC-E8AD-409C-8EFF-3ACD5ED08766}" name="Date" dataDxfId="95"/>
-    <tableColumn id="2" xr3:uid="{3480AD4E-E0EA-43BC-9790-05EF626D4F25}" name="Opération" dataDxfId="94"/>
-    <tableColumn id="3" xr3:uid="{8780E7CC-7A07-4162-B323-36C5CCF79F9F}" name="Par" dataDxfId="93"/>
-    <tableColumn id="4" xr3:uid="{57DF706F-37B8-4410-A2BF-80274B2CA541}" name="A" dataDxfId="92"/>
-    <tableColumn id="5" xr3:uid="{46D7E592-9660-4B45-A39B-78422861ABB5}" name="Somme" dataDxfId="91" dataCellStyle="Monétaire"/>
-    <tableColumn id="6" xr3:uid="{F0CD56B8-FB80-43DF-B414-D0EB853D2023}" name="Observation" dataDxfId="90"/>
+    <tableColumn id="1" xr3:uid="{215515FC-E8AD-409C-8EFF-3ACD5ED08766}" name="Date" dataDxfId="104"/>
+    <tableColumn id="2" xr3:uid="{3480AD4E-E0EA-43BC-9790-05EF626D4F25}" name="Opération" dataDxfId="103"/>
+    <tableColumn id="3" xr3:uid="{8780E7CC-7A07-4162-B323-36C5CCF79F9F}" name="Par" dataDxfId="102"/>
+    <tableColumn id="4" xr3:uid="{57DF706F-37B8-4410-A2BF-80274B2CA541}" name="A" dataDxfId="101"/>
+    <tableColumn id="5" xr3:uid="{46D7E592-9660-4B45-A39B-78422861ABB5}" name="Somme" dataDxfId="100" dataCellStyle="Monétaire"/>
+    <tableColumn id="6" xr3:uid="{F0CD56B8-FB80-43DF-B414-D0EB853D2023}" name="Observation" dataDxfId="99"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{4608F400-7E40-469B-A9BA-6B06E0C6A1AB}" name="Tableau28" displayName="Tableau28" ref="B13:I315" totalsRowCount="1" headerRowDxfId="89" dataDxfId="87" totalsRowDxfId="85" headerRowBorderDxfId="88" tableBorderDxfId="86" totalsRowBorderDxfId="84">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{4608F400-7E40-469B-A9BA-6B06E0C6A1AB}" name="Tableau28" displayName="Tableau28" ref="B13:I315" totalsRowCount="1" headerRowDxfId="98" dataDxfId="96" totalsRowDxfId="94" headerRowBorderDxfId="97" tableBorderDxfId="95" totalsRowBorderDxfId="93">
   <autoFilter ref="B13:I314" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{21588B16-9727-4BFF-8750-CBC84775CC07}" name="Date" totalsRowLabel="Solde De La Caisse" dataDxfId="83" totalsRowDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{B8D41016-0B42-4FBD-8F29-A8DE34D5E98F}" name="Opérations" dataDxfId="82" totalsRowDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{0B82F9CD-DBB8-4C08-BB20-077811E072F7}" name="Par / De" totalsRowFunction="custom" dataDxfId="81" totalsRowDxfId="37">
+    <tableColumn id="1" xr3:uid="{21588B16-9727-4BFF-8750-CBC84775CC07}" name="Date" totalsRowLabel="Solde De La Caisse" dataDxfId="92" totalsRowDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{B8D41016-0B42-4FBD-8F29-A8DE34D5E98F}" name="Opérations" dataDxfId="91" totalsRowDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{0B82F9CD-DBB8-4C08-BB20-077811E072F7}" name="Par / De" totalsRowFunction="custom" dataDxfId="90" totalsRowDxfId="35">
       <totalsRowFormula>Tableau28[[#Totals],[Crédit]]-Tableau28[[#Totals],[Débit]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{6A1F0B61-6673-44A4-9DDE-F5F088CF20D6}" name="Débit" totalsRowFunction="sum" dataDxfId="80" totalsRowDxfId="36"/>
-    <tableColumn id="5" xr3:uid="{4AB96665-FD8A-4F1A-970E-6C5F1EB69EE6}" name="Crédit" totalsRowFunction="sum" dataDxfId="79" totalsRowDxfId="35"/>
-    <tableColumn id="7" xr3:uid="{19C35C32-A74A-4E56-8A74-C7598526E46A}" name="LOT" dataDxfId="78" totalsRowDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{45F29B2B-A20F-4D07-9377-ADB515865F6D}" name="Observation" totalsRowFunction="count" dataDxfId="77" totalsRowDxfId="33"/>
-    <tableColumn id="8" xr3:uid="{5FDA59AE-4509-49E7-8ED0-EB8C20018422}" name="Détail" totalsRowFunction="custom" dataDxfId="76" totalsRowDxfId="32">
+    <tableColumn id="4" xr3:uid="{6A1F0B61-6673-44A4-9DDE-F5F088CF20D6}" name="Débit" totalsRowFunction="sum" dataDxfId="89" totalsRowDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{4AB96665-FD8A-4F1A-970E-6C5F1EB69EE6}" name="Crédit" totalsRowFunction="sum" dataDxfId="88" totalsRowDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{19C35C32-A74A-4E56-8A74-C7598526E46A}" name="LOT" dataDxfId="87" totalsRowDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{45F29B2B-A20F-4D07-9377-ADB515865F6D}" name="Observation" totalsRowFunction="count" dataDxfId="86" totalsRowDxfId="31"/>
+    <tableColumn id="8" xr3:uid="{5FDA59AE-4509-49E7-8ED0-EB8C20018422}" name="Détail" totalsRowFunction="custom" dataDxfId="85" totalsRowDxfId="30">
       <totalsRowFormula>I313+I314</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -10643,115 +11065,130 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{507304C1-96D4-4CEA-AE2B-7D7276927FAC}" name="Tableau612" displayName="Tableau612" ref="R13:R29" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{507304C1-96D4-4CEA-AE2B-7D7276927FAC}" name="Tableau612" displayName="Tableau612" ref="R13:R29" totalsRowShown="0" headerRowDxfId="84" dataDxfId="83">
   <autoFilter ref="R13:R29" xr:uid="{7C1DE353-BB19-436D-A152-983C47C78B9A}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{151EBD10-F93E-40F5-8E35-3E6177ACE0D0}" name="Colonne1" dataDxfId="73"/>
+    <tableColumn id="1" xr3:uid="{151EBD10-F93E-40F5-8E35-3E6177ACE0D0}" name="Colonne1" dataDxfId="82"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{D24BF516-B9B9-47F1-84BC-E45A47D58B47}" name="Tableau813" displayName="Tableau813" ref="T13:T29" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{D24BF516-B9B9-47F1-84BC-E45A47D58B47}" name="Tableau813" displayName="Tableau813" ref="T13:T29" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
   <autoFilter ref="T13:T29" xr:uid="{06DB10D3-BDE0-4EAA-B542-5E6618A236D2}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{5F6D1B11-A919-44C2-A130-6D6DEFCAA5E2}" name="Colonne1" dataDxfId="70"/>
+    <tableColumn id="1" xr3:uid="{5F6D1B11-A919-44C2-A130-6D6DEFCAA5E2}" name="Colonne1" dataDxfId="79"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{E4DE52BA-4E06-42B9-9DCE-EDA9E7C5F5BD}" name="Tableau14" displayName="Tableau14" ref="BB38:BJ46" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{E4DE52BA-4E06-42B9-9DCE-EDA9E7C5F5BD}" name="Tableau14" displayName="Tableau14" ref="BB38:BJ46" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77">
   <autoFilter ref="BB38:BJ46" xr:uid="{14D4499D-EBFB-45E7-8AFB-2858DA7BC21A}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{C9C8012D-A391-49A5-BBC9-8BC7D9FD57B3}" name="Colonne1" dataDxfId="67"/>
-    <tableColumn id="2" xr3:uid="{D10D3196-C502-4493-805A-6C951F42A7E1}" name="Colonne2" dataDxfId="66"/>
-    <tableColumn id="3" xr3:uid="{83C8CC03-F3AB-44CE-AE45-A1065C2D1903}" name="Colonne3" dataDxfId="65"/>
-    <tableColumn id="4" xr3:uid="{10E351FC-2CDE-4737-AE38-F4C27877599A}" name="Colonne4" dataDxfId="64"/>
-    <tableColumn id="5" xr3:uid="{DB60A996-906E-4AA4-86CF-823D7CF1FA66}" name="Colonne5" dataDxfId="63"/>
-    <tableColumn id="6" xr3:uid="{B517A5FF-5EB5-42A9-8AF5-6BFC7958070E}" name="Colonne6" dataDxfId="62"/>
-    <tableColumn id="7" xr3:uid="{22C60C21-AA61-4C27-A910-525339D23115}" name="Colonne7" dataDxfId="61"/>
-    <tableColumn id="8" xr3:uid="{2C2D5978-7AB9-4780-A935-306BEEBE5FC1}" name="Colonne8" dataDxfId="60"/>
-    <tableColumn id="9" xr3:uid="{7591ADCD-569F-43D1-9028-912D6353E549}" name="Colonne9" dataDxfId="59"/>
+    <tableColumn id="1" xr3:uid="{C9C8012D-A391-49A5-BBC9-8BC7D9FD57B3}" name="Colonne1" dataDxfId="76"/>
+    <tableColumn id="2" xr3:uid="{D10D3196-C502-4493-805A-6C951F42A7E1}" name="Colonne2" dataDxfId="75"/>
+    <tableColumn id="3" xr3:uid="{83C8CC03-F3AB-44CE-AE45-A1065C2D1903}" name="Colonne3" dataDxfId="74"/>
+    <tableColumn id="4" xr3:uid="{10E351FC-2CDE-4737-AE38-F4C27877599A}" name="Colonne4" dataDxfId="73"/>
+    <tableColumn id="5" xr3:uid="{DB60A996-906E-4AA4-86CF-823D7CF1FA66}" name="Colonne5" dataDxfId="72"/>
+    <tableColumn id="6" xr3:uid="{B517A5FF-5EB5-42A9-8AF5-6BFC7958070E}" name="Colonne6" dataDxfId="71"/>
+    <tableColumn id="7" xr3:uid="{22C60C21-AA61-4C27-A910-525339D23115}" name="Colonne7" dataDxfId="70"/>
+    <tableColumn id="8" xr3:uid="{2C2D5978-7AB9-4780-A935-306BEEBE5FC1}" name="Colonne8" dataDxfId="69"/>
+    <tableColumn id="9" xr3:uid="{7591ADCD-569F-43D1-9028-912D6353E549}" name="Colonne9" dataDxfId="68"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{CEA30C29-3C37-4473-9002-ED075853E9DE}" name="Tableau1014" displayName="Tableau1014" ref="C152:H176" totalsRowShown="0" headerRowDxfId="58" dataDxfId="56" headerRowBorderDxfId="57" tableBorderDxfId="55" totalsRowBorderDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{CEA30C29-3C37-4473-9002-ED075853E9DE}" name="Tableau1014" displayName="Tableau1014" ref="C152:H176" totalsRowShown="0" headerRowDxfId="67" dataDxfId="65" headerRowBorderDxfId="66" tableBorderDxfId="64" totalsRowBorderDxfId="63">
   <autoFilter ref="C152:H176" xr:uid="{70C415E7-68AE-4497-9E5D-D20D19BCC8F2}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{7C5C5AE8-6319-45A2-9C17-36D9D0851F72}" name="Date" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{A944E178-D62E-42BF-BEB3-45718219EA09}" name="Operation" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{2D598680-A739-492D-AB3D-5DB1C9A1ACD2}" name="Par" dataDxfId="51"/>
-    <tableColumn id="4" xr3:uid="{774DC2DD-FB43-403D-97FA-6209DDB47072}" name="A" dataDxfId="50"/>
-    <tableColumn id="5" xr3:uid="{FB1D424D-C0CB-4E04-AAF5-AFEA99CCE09A}" name="Somme" dataDxfId="49"/>
-    <tableColumn id="6" xr3:uid="{D64D227A-BA16-49A9-A55D-8E4FECC211BC}" name="Observation" dataDxfId="48"/>
+    <tableColumn id="1" xr3:uid="{7C5C5AE8-6319-45A2-9C17-36D9D0851F72}" name="Date" dataDxfId="62"/>
+    <tableColumn id="2" xr3:uid="{A944E178-D62E-42BF-BEB3-45718219EA09}" name="Operation" dataDxfId="61"/>
+    <tableColumn id="3" xr3:uid="{2D598680-A739-492D-AB3D-5DB1C9A1ACD2}" name="Par" dataDxfId="60"/>
+    <tableColumn id="4" xr3:uid="{774DC2DD-FB43-403D-97FA-6209DDB47072}" name="A" dataDxfId="59"/>
+    <tableColumn id="5" xr3:uid="{FB1D424D-C0CB-4E04-AAF5-AFEA99CCE09A}" name="Somme" dataDxfId="58"/>
+    <tableColumn id="6" xr3:uid="{D64D227A-BA16-49A9-A55D-8E4FECC211BC}" name="Observation" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau3" displayName="Tableau3" ref="B13:G78" totalsRowShown="0" headerRowBorderDxfId="47" tableBorderDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau3" displayName="Tableau3" ref="B13:G78" totalsRowShown="0" headerRowBorderDxfId="56" tableBorderDxfId="55">
   <autoFilter ref="B13:G78" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Date" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Opérations" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Par / De" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Débit" dataDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Crédit" dataDxfId="41"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Observation" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Date" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Opérations" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Par / De" dataDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Débit" dataDxfId="51"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Crédit" dataDxfId="50"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Observation" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{C5216C68-57A3-475D-B3BD-74C7FDC770EC}" name="Tableau10172319" displayName="Tableau10172319" ref="E9:J24" totalsRowShown="0" headerRowDxfId="48" dataDxfId="46" headerRowBorderDxfId="47" tableBorderDxfId="45" totalsRowBorderDxfId="44">
+  <autoFilter ref="E9:J24" xr:uid="{80C30D49-AAE2-4038-AD3B-A004C7079D3F}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{76D01089-A152-47AB-A1E8-A60D2E0CF456}" name="Date" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{51DE6BA3-621A-44B0-92A7-6AC4EEF1FA9D}" name="Opération" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{92A909BE-4358-48CA-8A8F-256D9D58C708}" name="Par" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{231E874F-EF08-4457-91D5-02EEC385B9D4}" name="A" dataDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{4C10CA77-8BAC-4AAC-B056-9EA967DCE92D}" name="Somme" dataDxfId="39" dataCellStyle="Monétaire"/>
+    <tableColumn id="6" xr3:uid="{B728E372-36C3-4749-8FD1-5C75D9BAFCE3}" name="Observation" dataDxfId="38"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau42" displayName="Tableau42" ref="B13:G52" totalsRowShown="0" headerRowDxfId="207" dataDxfId="205" headerRowBorderDxfId="206" tableBorderDxfId="204">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau42" displayName="Tableau42" ref="B13:G52" totalsRowShown="0" headerRowDxfId="218" dataDxfId="216" headerRowBorderDxfId="217" tableBorderDxfId="215">
   <autoFilter ref="B13:G52" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Date" dataDxfId="203"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Opérations" dataDxfId="202"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Par / De" dataDxfId="201"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Débit" dataDxfId="200"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Crédit" dataDxfId="199"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Observation" dataDxfId="198"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Date" dataDxfId="214"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Opérations" dataDxfId="213"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Par / De" dataDxfId="212"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Débit" dataDxfId="211"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Crédit" dataDxfId="210"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Observation" dataDxfId="209"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D79F84FD-02FB-4970-B09E-1D3934AE7625}" name="Tableau426" displayName="Tableau426" ref="B13:G28" totalsRowCount="1" headerRowDxfId="197" dataDxfId="195" headerRowBorderDxfId="196" tableBorderDxfId="194">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D79F84FD-02FB-4970-B09E-1D3934AE7625}" name="Tableau426" displayName="Tableau426" ref="B13:G28" totalsRowCount="1" headerRowDxfId="208" dataDxfId="206" headerRowBorderDxfId="207" tableBorderDxfId="205">
   <autoFilter ref="B13:G27" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{9712B134-76DF-4E92-834A-88CE2D0D20B1}" name="Date" totalsRowLabel="Total" dataDxfId="193" totalsRowDxfId="192"/>
-    <tableColumn id="2" xr3:uid="{435323D6-CD61-47E6-9E37-D5FC77826705}" name="Opérations" dataDxfId="191" totalsRowDxfId="190"/>
-    <tableColumn id="6" xr3:uid="{D3626E4C-0CBA-4147-9F26-7CD98D019F06}" name="Par / De" totalsRowFunction="custom" dataDxfId="189" totalsRowDxfId="188">
+    <tableColumn id="1" xr3:uid="{9712B134-76DF-4E92-834A-88CE2D0D20B1}" name="Date" totalsRowLabel="Total" dataDxfId="204" totalsRowDxfId="203"/>
+    <tableColumn id="2" xr3:uid="{435323D6-CD61-47E6-9E37-D5FC77826705}" name="Opérations" dataDxfId="202" totalsRowDxfId="201"/>
+    <tableColumn id="6" xr3:uid="{D3626E4C-0CBA-4147-9F26-7CD98D019F06}" name="Par / De" totalsRowFunction="custom" dataDxfId="200" totalsRowDxfId="199">
       <totalsRowFormula>Tableau426[[#Totals],[Crédit]]-Tableau426[[#Totals],[Débit]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{A4C3AC32-653D-4FA1-B3C4-14979BB0F578}" name="Débit" totalsRowFunction="sum" dataDxfId="187" totalsRowDxfId="186"/>
-    <tableColumn id="4" xr3:uid="{81D053C2-198C-43A9-9B40-8C044522E5A0}" name="Crédit" totalsRowFunction="sum" dataDxfId="185" totalsRowDxfId="184"/>
-    <tableColumn id="5" xr3:uid="{C59247B9-B17D-4825-9165-85A02C3F100C}" name="Observation" dataDxfId="183" totalsRowDxfId="182"/>
+    <tableColumn id="3" xr3:uid="{A4C3AC32-653D-4FA1-B3C4-14979BB0F578}" name="Débit" totalsRowFunction="sum" dataDxfId="198" totalsRowDxfId="197"/>
+    <tableColumn id="4" xr3:uid="{81D053C2-198C-43A9-9B40-8C044522E5A0}" name="Crédit" totalsRowFunction="sum" dataDxfId="196" totalsRowDxfId="195"/>
+    <tableColumn id="5" xr3:uid="{C59247B9-B17D-4825-9165-85A02C3F100C}" name="Observation" dataDxfId="194" totalsRowDxfId="193"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{5DCBEF82-5837-4728-B3E9-1CFC62B7BBA7}" name="Tableau42610" displayName="Tableau42610" ref="B13:G55" totalsRowCount="1" headerRowDxfId="181" dataDxfId="179" totalsRowDxfId="177" headerRowBorderDxfId="180" tableBorderDxfId="178" totalsRowBorderDxfId="176">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{5DCBEF82-5837-4728-B3E9-1CFC62B7BBA7}" name="Tableau42610" displayName="Tableau42610" ref="B13:G55" totalsRowCount="1" headerRowDxfId="192" dataDxfId="190" totalsRowDxfId="188" headerRowBorderDxfId="191" tableBorderDxfId="189" totalsRowBorderDxfId="187">
   <autoFilter ref="B13:G54" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{B9D61417-F49C-41FF-B9DB-A821B5184E20}" name="Date" totalsRowLabel="Total" dataDxfId="175" totalsRowDxfId="174"/>
-    <tableColumn id="2" xr3:uid="{5A82B16D-89DA-4D33-A704-B0223AB432AF}" name="Opérations" dataDxfId="173" totalsRowDxfId="172"/>
-    <tableColumn id="6" xr3:uid="{77F17AF5-9D7F-4DA6-A700-6AB15BE98615}" name="Par / De" dataDxfId="171" totalsRowDxfId="170"/>
-    <tableColumn id="3" xr3:uid="{6B0F5E7E-AAC3-4406-8DD5-EFD1D88AB8AB}" name="Depense" totalsRowFunction="sum" dataDxfId="169" totalsRowDxfId="168"/>
-    <tableColumn id="4" xr3:uid="{B11ABE1E-485B-4BAE-8CBD-F3911D23548B}" name="Versement" totalsRowFunction="sum" dataDxfId="167" totalsRowDxfId="166" dataCellStyle="Milliers"/>
-    <tableColumn id="5" xr3:uid="{E9F72709-13BB-4D80-8E42-C3DF9F602679}" name="Observation" totalsRowFunction="custom" dataDxfId="165" totalsRowDxfId="164">
+    <tableColumn id="1" xr3:uid="{B9D61417-F49C-41FF-B9DB-A821B5184E20}" name="Date" totalsRowLabel="Total" dataDxfId="186" totalsRowDxfId="185"/>
+    <tableColumn id="2" xr3:uid="{5A82B16D-89DA-4D33-A704-B0223AB432AF}" name="Opérations" dataDxfId="184" totalsRowDxfId="183"/>
+    <tableColumn id="6" xr3:uid="{77F17AF5-9D7F-4DA6-A700-6AB15BE98615}" name="Par / De" dataDxfId="182" totalsRowDxfId="181"/>
+    <tableColumn id="3" xr3:uid="{6B0F5E7E-AAC3-4406-8DD5-EFD1D88AB8AB}" name="Depense" totalsRowFunction="sum" dataDxfId="180" totalsRowDxfId="179"/>
+    <tableColumn id="4" xr3:uid="{B11ABE1E-485B-4BAE-8CBD-F3911D23548B}" name="Versement" totalsRowFunction="sum" dataDxfId="178" totalsRowDxfId="177" dataCellStyle="Milliers"/>
+    <tableColumn id="5" xr3:uid="{E9F72709-13BB-4D80-8E42-C3DF9F602679}" name="Observation" totalsRowFunction="custom" dataDxfId="176" totalsRowDxfId="175">
       <totalsRowFormula>C11</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -10760,15 +11197,15 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{815CC47A-7A06-4BAA-B024-1AF5AF546163}" name="Tableau426107" displayName="Tableau426107" ref="B13:G74" totalsRowCount="1" headerRowDxfId="163" dataDxfId="161" totalsRowDxfId="159" headerRowBorderDxfId="162" tableBorderDxfId="160" totalsRowBorderDxfId="158">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{815CC47A-7A06-4BAA-B024-1AF5AF546163}" name="Tableau426107" displayName="Tableau426107" ref="B13:G74" totalsRowCount="1" headerRowDxfId="174" dataDxfId="172" totalsRowDxfId="170" headerRowBorderDxfId="173" tableBorderDxfId="171" totalsRowBorderDxfId="169">
   <autoFilter ref="B13:G73" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{5575158E-65F8-42C7-A66A-EAEB0A90854D}" name="Date" totalsRowLabel="Total" dataDxfId="157" totalsRowDxfId="156"/>
-    <tableColumn id="2" xr3:uid="{867CEB33-59FA-4680-AE2F-4BC52FB2D6D8}" name="Opérations" dataDxfId="155" totalsRowDxfId="154"/>
-    <tableColumn id="6" xr3:uid="{FB68A8D1-6462-4EB1-B804-76C3D5E93F2F}" name="Par / De" dataDxfId="153" totalsRowDxfId="152"/>
-    <tableColumn id="3" xr3:uid="{6B8C035E-B455-44D7-AA5A-B120C042E5D8}" name="Depense" totalsRowFunction="sum" dataDxfId="151" totalsRowDxfId="150"/>
-    <tableColumn id="4" xr3:uid="{9C4759E3-4514-4237-84D9-5D0981C59965}" name="Versement" totalsRowFunction="sum" dataDxfId="149" totalsRowDxfId="148" dataCellStyle="Milliers"/>
-    <tableColumn id="5" xr3:uid="{055C1E55-0F5B-4CD6-81E8-930EB422449B}" name="Observation" totalsRowFunction="custom" dataDxfId="147" totalsRowDxfId="146">
+    <tableColumn id="1" xr3:uid="{5575158E-65F8-42C7-A66A-EAEB0A90854D}" name="Date" totalsRowLabel="Total" dataDxfId="168" totalsRowDxfId="167"/>
+    <tableColumn id="2" xr3:uid="{867CEB33-59FA-4680-AE2F-4BC52FB2D6D8}" name="Opérations" dataDxfId="166" totalsRowDxfId="165"/>
+    <tableColumn id="6" xr3:uid="{FB68A8D1-6462-4EB1-B804-76C3D5E93F2F}" name="Par / De" dataDxfId="164" totalsRowDxfId="163"/>
+    <tableColumn id="3" xr3:uid="{6B8C035E-B455-44D7-AA5A-B120C042E5D8}" name="Depense" totalsRowFunction="sum" dataDxfId="162" totalsRowDxfId="161"/>
+    <tableColumn id="4" xr3:uid="{9C4759E3-4514-4237-84D9-5D0981C59965}" name="Versement" totalsRowFunction="sum" dataDxfId="160" totalsRowDxfId="159" dataCellStyle="Milliers"/>
+    <tableColumn id="5" xr3:uid="{055C1E55-0F5B-4CD6-81E8-930EB422449B}" name="Observation" totalsRowFunction="custom" dataDxfId="158" totalsRowDxfId="157">
       <totalsRowFormula>C11</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -10777,48 +11214,48 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tableau2" displayName="Tableau2" ref="B13:I504" totalsRowCount="1" headerRowDxfId="145" dataDxfId="143" totalsRowDxfId="141" headerRowBorderDxfId="144" tableBorderDxfId="142" totalsRowBorderDxfId="140">
-  <autoFilter ref="B13:I503" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tableau2" displayName="Tableau2" ref="B13:I608" totalsRowCount="1" headerRowDxfId="156" dataDxfId="154" totalsRowDxfId="152" headerRowBorderDxfId="155" tableBorderDxfId="153" totalsRowBorderDxfId="151">
+  <autoFilter ref="B13:I607" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Date" totalsRowLabel="Solde De La Caisse" dataDxfId="139" totalsRowDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Opérations" dataDxfId="138" totalsRowDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Par / De" totalsRowFunction="custom" dataDxfId="137" totalsRowDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Date" totalsRowLabel="Solde De La Caisse" dataDxfId="150" totalsRowDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Opérations" dataDxfId="149" totalsRowDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Par / De" totalsRowFunction="custom" dataDxfId="148" totalsRowDxfId="5">
       <totalsRowFormula>Tableau2[[#Totals],[Crédit]]-Tableau2[[#Totals],[Débit]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Débit" totalsRowFunction="sum" dataDxfId="136" totalsRowDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Crédit" totalsRowFunction="sum" dataDxfId="135" totalsRowDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{C30977D3-8D38-454C-AD50-AD6368348F30}" name="LOT" dataDxfId="134" totalsRowDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Observation" dataDxfId="9" totalsRowDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{A5E63307-48CF-41D4-9914-8D2617F12F3B}" name="Note Perso" dataDxfId="8" totalsRowDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Débit" totalsRowFunction="sum" dataDxfId="147" totalsRowDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Crédit" totalsRowFunction="sum" dataDxfId="146" totalsRowDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{C30977D3-8D38-454C-AD50-AD6368348F30}" name="LOT" dataDxfId="145" totalsRowDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Observation" dataDxfId="144" totalsRowDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{A5E63307-48CF-41D4-9914-8D2617F12F3B}" name="Note Perso" dataDxfId="143" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{9E5085A5-BF89-46CF-A499-37F827CDDB80}" name="Tableau8" displayName="Tableau8" ref="R399:S415" totalsRowCount="1" headerRowDxfId="133" dataDxfId="132">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{9E5085A5-BF89-46CF-A499-37F827CDDB80}" name="Tableau8" displayName="Tableau8" ref="R399:S415" totalsRowCount="1" headerRowDxfId="142" dataDxfId="141">
   <autoFilter ref="R399:S414" xr:uid="{B02D91CC-2307-4BB8-84D9-46047AC18A02}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E0E102EF-368D-441A-8EB1-37ABB6C2A517}" name="Colonne1" totalsRowFunction="sum" dataDxfId="131" totalsRowDxfId="130" dataCellStyle="Milliers" totalsRowCellStyle="Milliers"/>
-    <tableColumn id="2" xr3:uid="{9BC69961-2B56-476D-9DF2-7155AC3B9673}" name="Colonne2" dataDxfId="129" totalsRowDxfId="128"/>
+    <tableColumn id="1" xr3:uid="{E0E102EF-368D-441A-8EB1-37ABB6C2A517}" name="Colonne1" totalsRowFunction="sum" dataDxfId="140" totalsRowDxfId="139" dataCellStyle="Milliers" totalsRowCellStyle="Milliers"/>
+    <tableColumn id="2" xr3:uid="{9BC69961-2B56-476D-9DF2-7155AC3B9673}" name="Colonne2" dataDxfId="138" totalsRowDxfId="137"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{442EC1BA-7B1D-434E-995F-846D7C0AA2CD}" name="Tableau15" displayName="Tableau15" ref="U399:V406" totalsRowCount="1" dataDxfId="127">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{442EC1BA-7B1D-434E-995F-846D7C0AA2CD}" name="Tableau15" displayName="Tableau15" ref="U399:V406" totalsRowCount="1" dataDxfId="136">
   <autoFilter ref="U399:V405" xr:uid="{D428DF3B-2C7F-4B6B-B489-BAD90CE790A0}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3F5B1E8A-4FF3-4C1E-A8C3-BD7699EB609E}" name="28/05/2023" totalsRowFunction="sum" dataDxfId="126" totalsRowDxfId="125"/>
-    <tableColumn id="2" xr3:uid="{249A466B-3321-42F6-8E00-4CFB75DE052E}" name="Colonne1" totalsRowFunction="count" dataDxfId="124" totalsRowDxfId="123"/>
+    <tableColumn id="1" xr3:uid="{3F5B1E8A-4FF3-4C1E-A8C3-BD7699EB609E}" name="28/05/2023" totalsRowFunction="sum" dataDxfId="135" totalsRowDxfId="134"/>
+    <tableColumn id="2" xr3:uid="{249A466B-3321-42F6-8E00-4CFB75DE052E}" name="Colonne1" totalsRowFunction="count" dataDxfId="133" totalsRowDxfId="132"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D1341F61-E9F5-4626-991B-110522CA8A66}" name="Tableau10" displayName="Tableau10" ref="D7:I28" totalsRowShown="0" headerRowDxfId="122" dataDxfId="120" headerRowBorderDxfId="121" tableBorderDxfId="119" totalsRowBorderDxfId="118">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D1341F61-E9F5-4626-991B-110522CA8A66}" name="Tableau10" displayName="Tableau10" ref="D7:I28" totalsRowShown="0" headerRowDxfId="131" dataDxfId="129" headerRowBorderDxfId="130" tableBorderDxfId="128" totalsRowBorderDxfId="127">
   <autoFilter ref="D7:I28" xr:uid="{B4F2AA57-12EC-4AA4-9568-87A60B1A61A1}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -10828,12 +11265,12 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{287DBF25-1DF1-4BA9-9DDF-4229D49471EC}" name="Date" dataDxfId="117"/>
-    <tableColumn id="2" xr3:uid="{1876EB1E-2BF0-41E4-AFB4-98315B1FF48F}" name="Opération" dataDxfId="116"/>
-    <tableColumn id="3" xr3:uid="{AF941DC2-A5F8-4FCE-8C2C-BA7ED03269D0}" name="Par" dataDxfId="115"/>
-    <tableColumn id="4" xr3:uid="{B2D97E42-3642-496E-9489-E0974019195B}" name="A" dataDxfId="114"/>
-    <tableColumn id="5" xr3:uid="{7A18465B-0244-48EB-85AF-74DE752A7674}" name="Somme" dataDxfId="113"/>
-    <tableColumn id="6" xr3:uid="{F399F3B8-35B9-4DCD-A5F7-F9922FC631E3}" name="Observation" dataDxfId="112"/>
+    <tableColumn id="1" xr3:uid="{287DBF25-1DF1-4BA9-9DDF-4229D49471EC}" name="Date" dataDxfId="126"/>
+    <tableColumn id="2" xr3:uid="{1876EB1E-2BF0-41E4-AFB4-98315B1FF48F}" name="Opération" dataDxfId="125"/>
+    <tableColumn id="3" xr3:uid="{AF941DC2-A5F8-4FCE-8C2C-BA7ED03269D0}" name="Par" dataDxfId="124"/>
+    <tableColumn id="4" xr3:uid="{B2D97E42-3642-496E-9489-E0974019195B}" name="A" dataDxfId="123"/>
+    <tableColumn id="5" xr3:uid="{7A18465B-0244-48EB-85AF-74DE752A7674}" name="Somme" dataDxfId="122"/>
+    <tableColumn id="6" xr3:uid="{F399F3B8-35B9-4DCD-A5F7-F9922FC631E3}" name="Observation" dataDxfId="121"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11198,8 +11635,8 @@
       <c r="G4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="557"/>
-      <c r="I4" s="558"/>
+      <c r="H4" s="570"/>
+      <c r="I4" s="571"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
@@ -11226,11 +11663,11 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="559" t="s">
+      <c r="C10" s="572" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="560"/>
-      <c r="E10" s="561"/>
+      <c r="D10" s="573"/>
+      <c r="E10" s="574"/>
       <c r="F10" s="26"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
@@ -11291,11 +11728,11 @@
       <c r="C18" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="562" t="s">
+      <c r="D18" s="575" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="563"/>
-      <c r="F18" s="564"/>
+      <c r="E18" s="576"/>
+      <c r="F18" s="577"/>
       <c r="G18" s="40" t="s">
         <v>20</v>
       </c>
@@ -11309,9 +11746,9 @@
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="22"/>
       <c r="C19" s="23"/>
-      <c r="D19" s="554"/>
-      <c r="E19" s="555"/>
-      <c r="F19" s="556"/>
+      <c r="D19" s="567"/>
+      <c r="E19" s="568"/>
+      <c r="F19" s="569"/>
       <c r="G19" s="37"/>
       <c r="H19" s="37"/>
       <c r="I19" s="24">
@@ -11322,9 +11759,9 @@
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="11"/>
       <c r="C20" s="12"/>
-      <c r="D20" s="554"/>
-      <c r="E20" s="555"/>
-      <c r="F20" s="556"/>
+      <c r="D20" s="567"/>
+      <c r="E20" s="568"/>
+      <c r="F20" s="569"/>
       <c r="G20" s="38"/>
       <c r="H20" s="38"/>
       <c r="I20" s="13">
@@ -11335,9 +11772,9 @@
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
-      <c r="D21" s="554"/>
-      <c r="E21" s="555"/>
-      <c r="F21" s="556"/>
+      <c r="D21" s="567"/>
+      <c r="E21" s="568"/>
+      <c r="F21" s="569"/>
       <c r="G21" s="38"/>
       <c r="H21" s="38"/>
       <c r="I21" s="13">
@@ -11348,9 +11785,9 @@
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
-      <c r="D22" s="554"/>
-      <c r="E22" s="555"/>
-      <c r="F22" s="556"/>
+      <c r="D22" s="567"/>
+      <c r="E22" s="568"/>
+      <c r="F22" s="569"/>
       <c r="G22" s="38"/>
       <c r="H22" s="38"/>
       <c r="I22" s="13">
@@ -11361,9 +11798,9 @@
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
-      <c r="D23" s="554"/>
-      <c r="E23" s="555"/>
-      <c r="F23" s="556"/>
+      <c r="D23" s="567"/>
+      <c r="E23" s="568"/>
+      <c r="F23" s="569"/>
       <c r="G23" s="38"/>
       <c r="H23" s="38"/>
       <c r="I23" s="13">
@@ -11374,9 +11811,9 @@
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
-      <c r="D24" s="554"/>
-      <c r="E24" s="555"/>
-      <c r="F24" s="556"/>
+      <c r="D24" s="567"/>
+      <c r="E24" s="568"/>
+      <c r="F24" s="569"/>
       <c r="G24" s="38"/>
       <c r="H24" s="38"/>
       <c r="I24" s="13">
@@ -11400,9 +11837,9 @@
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
-      <c r="D26" s="554"/>
-      <c r="E26" s="555"/>
-      <c r="F26" s="556"/>
+      <c r="D26" s="567"/>
+      <c r="E26" s="568"/>
+      <c r="F26" s="569"/>
       <c r="G26" s="38"/>
       <c r="H26" s="38"/>
       <c r="I26" s="13">
@@ -11413,9 +11850,9 @@
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
-      <c r="D27" s="554"/>
-      <c r="E27" s="555"/>
-      <c r="F27" s="556"/>
+      <c r="D27" s="567"/>
+      <c r="E27" s="568"/>
+      <c r="F27" s="569"/>
       <c r="G27" s="38"/>
       <c r="H27" s="38"/>
       <c r="I27" s="13">
@@ -11426,9 +11863,9 @@
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
-      <c r="D28" s="554"/>
-      <c r="E28" s="555"/>
-      <c r="F28" s="556"/>
+      <c r="D28" s="567"/>
+      <c r="E28" s="568"/>
+      <c r="F28" s="569"/>
       <c r="G28" s="38"/>
       <c r="H28" s="38"/>
       <c r="I28" s="13">
@@ -11439,9 +11876,9 @@
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
-      <c r="D29" s="554"/>
-      <c r="E29" s="555"/>
-      <c r="F29" s="556"/>
+      <c r="D29" s="567"/>
+      <c r="E29" s="568"/>
+      <c r="F29" s="569"/>
       <c r="G29" s="38"/>
       <c r="H29" s="38"/>
       <c r="I29" s="13">
@@ -11452,9 +11889,9 @@
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" s="11"/>
       <c r="C30" s="12"/>
-      <c r="D30" s="554"/>
-      <c r="E30" s="555"/>
-      <c r="F30" s="556"/>
+      <c r="D30" s="567"/>
+      <c r="E30" s="568"/>
+      <c r="F30" s="569"/>
       <c r="G30" s="38"/>
       <c r="H30" s="38"/>
       <c r="I30" s="13">
@@ -11465,9 +11902,9 @@
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" s="11"/>
       <c r="C31" s="12"/>
-      <c r="D31" s="554"/>
-      <c r="E31" s="555"/>
-      <c r="F31" s="556"/>
+      <c r="D31" s="567"/>
+      <c r="E31" s="568"/>
+      <c r="F31" s="569"/>
       <c r="G31" s="38"/>
       <c r="H31" s="38"/>
       <c r="I31" s="13">
@@ -11478,9 +11915,9 @@
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" s="11"/>
       <c r="C32" s="12"/>
-      <c r="D32" s="554"/>
-      <c r="E32" s="555"/>
-      <c r="F32" s="556"/>
+      <c r="D32" s="567"/>
+      <c r="E32" s="568"/>
+      <c r="F32" s="569"/>
       <c r="G32" s="38"/>
       <c r="H32" s="38"/>
       <c r="I32" s="13">
@@ -11491,9 +11928,9 @@
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="11"/>
       <c r="C33" s="12"/>
-      <c r="D33" s="554"/>
-      <c r="E33" s="555"/>
-      <c r="F33" s="556"/>
+      <c r="D33" s="567"/>
+      <c r="E33" s="568"/>
+      <c r="F33" s="569"/>
       <c r="G33" s="38"/>
       <c r="H33" s="38"/>
       <c r="I33" s="13">
@@ -11504,9 +11941,9 @@
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="11"/>
       <c r="C34" s="12"/>
-      <c r="D34" s="554"/>
-      <c r="E34" s="555"/>
-      <c r="F34" s="556"/>
+      <c r="D34" s="567"/>
+      <c r="E34" s="568"/>
+      <c r="F34" s="569"/>
       <c r="G34" s="38"/>
       <c r="H34" s="38"/>
       <c r="I34" s="13">
@@ -11517,9 +11954,9 @@
     <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" s="11"/>
       <c r="C35" s="12"/>
-      <c r="D35" s="554"/>
-      <c r="E35" s="555"/>
-      <c r="F35" s="556"/>
+      <c r="D35" s="567"/>
+      <c r="E35" s="568"/>
+      <c r="F35" s="569"/>
       <c r="G35" s="38"/>
       <c r="H35" s="38"/>
       <c r="I35" s="13">
@@ -11530,9 +11967,9 @@
     <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="11"/>
       <c r="C36" s="12"/>
-      <c r="D36" s="554"/>
-      <c r="E36" s="555"/>
-      <c r="F36" s="556"/>
+      <c r="D36" s="567"/>
+      <c r="E36" s="568"/>
+      <c r="F36" s="569"/>
       <c r="G36" s="38"/>
       <c r="H36" s="38"/>
       <c r="I36" s="13">
@@ -11543,9 +11980,9 @@
     <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" s="11"/>
       <c r="C37" s="12"/>
-      <c r="D37" s="554"/>
-      <c r="E37" s="555"/>
-      <c r="F37" s="556"/>
+      <c r="D37" s="567"/>
+      <c r="E37" s="568"/>
+      <c r="F37" s="569"/>
       <c r="G37" s="38"/>
       <c r="H37" s="38"/>
       <c r="I37" s="13">
@@ -11556,9 +11993,9 @@
     <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" s="11"/>
       <c r="C38" s="12"/>
-      <c r="D38" s="554"/>
-      <c r="E38" s="555"/>
-      <c r="F38" s="556"/>
+      <c r="D38" s="567"/>
+      <c r="E38" s="568"/>
+      <c r="F38" s="569"/>
       <c r="G38" s="38"/>
       <c r="H38" s="38"/>
       <c r="I38" s="13">
@@ -11910,10 +12347,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC86E7E3-0E12-4AFE-ABFC-5DC706050D5D}">
-  <dimension ref="C6:H24"/>
+  <dimension ref="C6:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C7" sqref="C7:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11926,14 +12363,14 @@
   <sheetData>
     <row r="6" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="595" t="s">
+      <c r="C7" s="608" t="s">
         <v>810</v>
       </c>
-      <c r="D7" s="596"/>
-      <c r="E7" s="596"/>
-      <c r="F7" s="596"/>
-      <c r="G7" s="596"/>
-      <c r="H7" s="597"/>
+      <c r="D7" s="609"/>
+      <c r="E7" s="609"/>
+      <c r="F7" s="609"/>
+      <c r="G7" s="609"/>
+      <c r="H7" s="610"/>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C8" s="60"/>
@@ -11966,16 +12403,16 @@
       <c r="D10" s="318" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="328" t="s">
+      <c r="E10" s="565" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="328" t="s">
+      <c r="F10" s="565" t="s">
         <v>809</v>
       </c>
-      <c r="G10" s="329">
+      <c r="G10" s="566">
         <v>100000</v>
       </c>
-      <c r="H10" s="328" t="s">
+      <c r="H10" s="565" t="s">
         <v>811</v>
       </c>
     </row>
@@ -11986,16 +12423,16 @@
       <c r="D11" s="318" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="328" t="s">
+      <c r="E11" s="565" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="328" t="s">
+      <c r="F11" s="565" t="s">
         <v>809</v>
       </c>
-      <c r="G11" s="329">
+      <c r="G11" s="566">
         <v>100000</v>
       </c>
-      <c r="H11" s="328" t="s">
+      <c r="H11" s="565" t="s">
         <v>811</v>
       </c>
     </row>
@@ -12006,16 +12443,16 @@
       <c r="D12" s="318" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="328" t="s">
+      <c r="E12" s="565" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="328" t="s">
+      <c r="F12" s="565" t="s">
         <v>819</v>
       </c>
-      <c r="G12" s="329">
+      <c r="G12" s="566">
         <v>100000</v>
       </c>
-      <c r="H12" s="328" t="s">
+      <c r="H12" s="565" t="s">
         <v>811</v>
       </c>
     </row>
@@ -12026,16 +12463,16 @@
       <c r="D13" s="318" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="324" t="s">
+      <c r="E13" s="565" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="324" t="s">
+      <c r="F13" s="565" t="s">
         <v>809</v>
       </c>
-      <c r="G13" s="327">
+      <c r="G13" s="566">
         <v>200000</v>
       </c>
-      <c r="H13" s="324" t="s">
+      <c r="H13" s="565" t="s">
         <v>811</v>
       </c>
     </row>
@@ -12060,60 +12497,132 @@
       </c>
     </row>
     <row r="15" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="317"/>
-      <c r="D15" s="318"/>
-      <c r="E15" s="328"/>
-      <c r="F15" s="328"/>
-      <c r="G15" s="329"/>
-      <c r="H15" s="330"/>
+      <c r="C15" s="317">
+        <v>45131</v>
+      </c>
+      <c r="D15" s="318" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="328" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="328" t="s">
+        <v>809</v>
+      </c>
+      <c r="G15" s="329">
+        <v>50000</v>
+      </c>
+      <c r="H15" s="330" t="s">
+        <v>811</v>
+      </c>
     </row>
     <row r="16" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="317"/>
-      <c r="D16" s="318"/>
-      <c r="E16" s="324"/>
-      <c r="F16" s="324"/>
-      <c r="G16" s="327"/>
-      <c r="H16" s="326"/>
+      <c r="C16" s="317">
+        <v>45136</v>
+      </c>
+      <c r="D16" s="318" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="328" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="328" t="s">
+        <v>809</v>
+      </c>
+      <c r="G16" s="329">
+        <v>15000</v>
+      </c>
+      <c r="H16" s="330" t="s">
+        <v>811</v>
+      </c>
     </row>
     <row r="17" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="317"/>
-      <c r="D17" s="318"/>
-      <c r="E17" s="324"/>
-      <c r="F17" s="324"/>
-      <c r="G17" s="327"/>
-      <c r="H17" s="324"/>
+      <c r="C17" s="564">
+        <v>45148</v>
+      </c>
+      <c r="D17" s="219" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="397" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="397" t="s">
+        <v>809</v>
+      </c>
+      <c r="G17" s="398">
+        <v>75000</v>
+      </c>
+      <c r="H17" s="550" t="s">
+        <v>811</v>
+      </c>
     </row>
     <row r="18" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="317"/>
-      <c r="D18" s="318"/>
-      <c r="E18" s="324"/>
-      <c r="F18" s="324"/>
-      <c r="G18" s="327"/>
-      <c r="H18" s="324"/>
+      <c r="C18" s="317">
+        <v>45152</v>
+      </c>
+      <c r="D18" s="318" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="328" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="328" t="s">
+        <v>809</v>
+      </c>
+      <c r="G18" s="329">
+        <v>200000</v>
+      </c>
+      <c r="H18" s="328" t="s">
+        <v>811</v>
+      </c>
     </row>
     <row r="19" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="317"/>
-      <c r="D19" s="318"/>
-      <c r="E19" s="328"/>
-      <c r="F19" s="328"/>
-      <c r="G19" s="329"/>
-      <c r="H19" s="330"/>
+      <c r="C19" s="317">
+        <v>45162</v>
+      </c>
+      <c r="D19" s="318" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="328" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="328" t="s">
+        <v>809</v>
+      </c>
+      <c r="G19" s="329">
+        <v>50000</v>
+      </c>
+      <c r="H19" s="328" t="s">
+        <v>811</v>
+      </c>
     </row>
     <row r="20" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="317"/>
-      <c r="D20" s="318"/>
-      <c r="E20" s="324"/>
-      <c r="F20" s="324"/>
-      <c r="G20" s="327"/>
-      <c r="H20" s="326"/>
+      <c r="C20" s="317">
+        <v>45177</v>
+      </c>
+      <c r="D20" s="318" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="328" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="328" t="s">
+        <v>809</v>
+      </c>
+      <c r="G20" s="329">
+        <v>50000</v>
+      </c>
+      <c r="H20" s="330" t="s">
+        <v>811</v>
+      </c>
     </row>
     <row r="21" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="530"/>
-      <c r="D21" s="219"/>
-      <c r="E21" s="321"/>
-      <c r="F21" s="321"/>
-      <c r="G21" s="358"/>
-      <c r="H21" s="323"/>
+      <c r="C21" s="317"/>
+      <c r="D21" s="318"/>
+      <c r="E21" s="324"/>
+      <c r="F21" s="324"/>
+      <c r="G21" s="327"/>
+      <c r="H21" s="326"/>
     </row>
     <row r="22" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C22" s="530"/>
@@ -12126,31 +12635,40 @@
     <row r="23" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C23" s="530"/>
       <c r="D23" s="219"/>
-      <c r="E23" s="397"/>
-      <c r="F23" s="397"/>
-      <c r="G23" s="398"/>
-      <c r="H23" s="550"/>
+      <c r="E23" s="321"/>
+      <c r="F23" s="321"/>
+      <c r="G23" s="358"/>
+      <c r="H23" s="323"/>
     </row>
     <row r="24" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="370" t="s">
+      <c r="C24" s="530"/>
+      <c r="D24" s="219"/>
+      <c r="E24" s="397"/>
+      <c r="F24" s="397"/>
+      <c r="G24" s="398"/>
+      <c r="H24" s="550"/>
+    </row>
+    <row r="25" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="370" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="220"/>
-      <c r="E24" s="220"/>
-      <c r="F24" s="220"/>
-      <c r="G24" s="545">
-        <f>SUM(G10:G23)</f>
-        <v>700000</v>
-      </c>
-      <c r="H24" s="400"/>
+      <c r="D25" s="220"/>
+      <c r="E25" s="220"/>
+      <c r="F25" s="220"/>
+      <c r="G25" s="545">
+        <f>SUM(G10:G24)</f>
+        <v>1140000</v>
+      </c>
+      <c r="H25" s="400"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C7:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -12192,12 +12710,12 @@
       <c r="H2" s="214"/>
     </row>
     <row r="3" spans="2:24" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="590" t="s">
+      <c r="C3" s="603" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="591"/>
-      <c r="E3" s="592"/>
-      <c r="F3" s="592"/>
+      <c r="D3" s="604"/>
+      <c r="E3" s="605"/>
+      <c r="F3" s="605"/>
       <c r="G3" s="223"/>
       <c r="H3" s="214"/>
     </row>
@@ -12212,12 +12730,12 @@
       <c r="H5" s="214"/>
     </row>
     <row r="6" spans="2:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="593" t="s">
+      <c r="C6" s="606" t="s">
         <v>381</v>
       </c>
-      <c r="D6" s="593"/>
-      <c r="E6" s="594"/>
-      <c r="F6" s="594"/>
+      <c r="D6" s="606"/>
+      <c r="E6" s="607"/>
+      <c r="F6" s="607"/>
       <c r="G6" s="305"/>
       <c r="H6" s="214"/>
     </row>
@@ -17856,16 +18374,16 @@
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <conditionalFormatting sqref="D315">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="lessThan">
       <formula>-1895</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17913,7 +18431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F5DB1B-BD99-4A1C-B691-C4B343055A95}">
   <dimension ref="C5:I176"/>
   <sheetViews>
-    <sheetView topLeftCell="A160" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A92" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I167" sqref="I167"/>
     </sheetView>
   </sheetViews>
@@ -17949,26 +18467,26 @@
       </c>
     </row>
     <row r="7" spans="3:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="607" t="s">
+      <c r="C7" s="620" t="s">
         <v>397</v>
       </c>
-      <c r="D7" s="608"/>
-      <c r="E7" s="608"/>
-      <c r="F7" s="608"/>
-      <c r="G7" s="608"/>
-      <c r="H7" s="608"/>
-      <c r="I7" s="609"/>
+      <c r="D7" s="621"/>
+      <c r="E7" s="621"/>
+      <c r="F7" s="621"/>
+      <c r="G7" s="621"/>
+      <c r="H7" s="621"/>
+      <c r="I7" s="622"/>
     </row>
     <row r="8" spans="3:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="604" t="s">
+      <c r="C8" s="617" t="s">
         <v>383</v>
       </c>
-      <c r="D8" s="605"/>
-      <c r="E8" s="605"/>
-      <c r="F8" s="605"/>
-      <c r="G8" s="605"/>
-      <c r="H8" s="605"/>
-      <c r="I8" s="606"/>
+      <c r="D8" s="618"/>
+      <c r="E8" s="618"/>
+      <c r="F8" s="618"/>
+      <c r="G8" s="618"/>
+      <c r="H8" s="618"/>
+      <c r="I8" s="619"/>
     </row>
     <row r="9" spans="3:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C9" s="286">
@@ -19419,20 +19937,20 @@
       <c r="D107" s="229"/>
       <c r="E107" s="132">
         <f>Tableau2[[#Totals],[Crédit]]-Tableau2[[#Totals],[Débit]]</f>
-        <v>846955</v>
+        <v>-119305</v>
       </c>
       <c r="F107" s="138">
         <f>SUBTOTAL(109,Tableau2[Débit])</f>
-        <v>8803245</v>
+        <v>15269505</v>
       </c>
       <c r="G107" s="138">
         <f>SUBTOTAL(109,Tableau2[Crédit])</f>
-        <v>9650200</v>
+        <v>15150200</v>
       </c>
       <c r="H107" s="230"/>
       <c r="I107" s="229">
         <f>SUBTOTAL(103,Tableau2[Observation])</f>
-        <v>348</v>
+        <v>409</v>
       </c>
     </row>
     <row r="141" spans="3:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -19514,20 +20032,20 @@
       <c r="D147" s="229"/>
       <c r="E147" s="132">
         <f>Tableau2[[#Totals],[Crédit]]-Tableau2[[#Totals],[Débit]]</f>
-        <v>846955</v>
+        <v>-119305</v>
       </c>
       <c r="F147" s="138">
         <f>SUBTOTAL(109,Tableau2[Débit])</f>
-        <v>8803245</v>
+        <v>15269505</v>
       </c>
       <c r="G147" s="138">
         <f>SUBTOTAL(109,Tableau2[Crédit])</f>
-        <v>9650200</v>
+        <v>15150200</v>
       </c>
       <c r="H147" s="230"/>
       <c r="I147" s="229">
         <f>SUBTOTAL(103,Tableau2[Observation])</f>
-        <v>348</v>
+        <v>409</v>
       </c>
     </row>
     <row r="152" spans="3:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -19971,30 +20489,30 @@
     <mergeCell ref="C7:I7"/>
   </mergeCells>
   <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="17" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="lessThan">
       <formula>-1895</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E147">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
       <formula>-1895</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20030,12 +20548,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="610" t="s">
+      <c r="C3" s="623" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="611"/>
-      <c r="E3" s="612"/>
-      <c r="F3" s="613"/>
+      <c r="D3" s="624"/>
+      <c r="E3" s="625"/>
+      <c r="F3" s="626"/>
     </row>
     <row r="4" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="45"/>
@@ -20050,12 +20568,12 @@
       <c r="F5" s="46"/>
     </row>
     <row r="6" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="593" t="s">
+      <c r="C6" s="606" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="593"/>
-      <c r="E6" s="614"/>
-      <c r="F6" s="614"/>
+      <c r="D6" s="606"/>
+      <c r="E6" s="627"/>
+      <c r="F6" s="627"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="72" t="s">
@@ -50218,6 +50736,213 @@
   <headerFooter alignWithMargins="0"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FDDAF09-6C67-4D7F-8E87-277DF89470CB}">
+  <dimension ref="E6:J25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="10" max="10" width="37.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="5:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="5:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="608" t="s">
+        <v>810</v>
+      </c>
+      <c r="F7" s="609"/>
+      <c r="G7" s="609"/>
+      <c r="H7" s="609"/>
+      <c r="I7" s="609"/>
+      <c r="J7" s="610"/>
+    </row>
+    <row r="8" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E8" s="60"/>
+      <c r="I8" s="311"/>
+    </row>
+    <row r="9" spans="5:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="312" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="313" t="s">
+        <v>620</v>
+      </c>
+      <c r="G9" s="313" t="s">
+        <v>504</v>
+      </c>
+      <c r="H9" s="313" t="s">
+        <v>505</v>
+      </c>
+      <c r="I9" s="529" t="s">
+        <v>506</v>
+      </c>
+      <c r="J9" s="315" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="5:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="317">
+        <v>45177</v>
+      </c>
+      <c r="F10" s="318" t="s">
+        <v>889</v>
+      </c>
+      <c r="G10" s="565" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="565" t="s">
+        <v>942</v>
+      </c>
+      <c r="I10" s="566">
+        <v>20000</v>
+      </c>
+      <c r="J10" s="565" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="11" spans="5:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="317"/>
+      <c r="F11" s="318"/>
+      <c r="G11" s="565"/>
+      <c r="H11" s="565"/>
+      <c r="I11" s="566"/>
+      <c r="J11" s="565"/>
+    </row>
+    <row r="12" spans="5:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="317"/>
+      <c r="F12" s="318"/>
+      <c r="G12" s="565"/>
+      <c r="H12" s="565"/>
+      <c r="I12" s="566"/>
+      <c r="J12" s="565"/>
+    </row>
+    <row r="13" spans="5:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="317"/>
+      <c r="F13" s="318"/>
+      <c r="G13" s="565"/>
+      <c r="H13" s="565"/>
+      <c r="I13" s="566"/>
+      <c r="J13" s="565"/>
+    </row>
+    <row r="14" spans="5:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="317"/>
+      <c r="F14" s="318"/>
+      <c r="G14" s="328"/>
+      <c r="H14" s="328"/>
+      <c r="I14" s="329"/>
+      <c r="J14" s="330"/>
+    </row>
+    <row r="15" spans="5:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="317"/>
+      <c r="F15" s="318"/>
+      <c r="G15" s="328"/>
+      <c r="H15" s="328"/>
+      <c r="I15" s="329"/>
+      <c r="J15" s="330"/>
+    </row>
+    <row r="16" spans="5:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="317"/>
+      <c r="F16" s="318"/>
+      <c r="G16" s="328"/>
+      <c r="H16" s="328"/>
+      <c r="I16" s="329"/>
+      <c r="J16" s="330"/>
+    </row>
+    <row r="17" spans="5:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="564"/>
+      <c r="F17" s="219"/>
+      <c r="G17" s="397"/>
+      <c r="H17" s="397"/>
+      <c r="I17" s="398"/>
+      <c r="J17" s="550"/>
+    </row>
+    <row r="18" spans="5:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="317"/>
+      <c r="F18" s="318"/>
+      <c r="G18" s="328"/>
+      <c r="H18" s="328"/>
+      <c r="I18" s="329"/>
+      <c r="J18" s="328"/>
+    </row>
+    <row r="19" spans="5:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="317"/>
+      <c r="F19" s="318"/>
+      <c r="G19" s="328"/>
+      <c r="H19" s="328"/>
+      <c r="I19" s="329"/>
+      <c r="J19" s="328"/>
+    </row>
+    <row r="20" spans="5:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="317"/>
+      <c r="F20" s="318"/>
+      <c r="G20" s="328"/>
+      <c r="H20" s="328"/>
+      <c r="I20" s="329"/>
+      <c r="J20" s="330"/>
+    </row>
+    <row r="21" spans="5:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="317"/>
+      <c r="F21" s="318"/>
+      <c r="G21" s="324"/>
+      <c r="H21" s="324"/>
+      <c r="I21" s="327"/>
+      <c r="J21" s="326"/>
+    </row>
+    <row r="22" spans="5:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="564"/>
+      <c r="F22" s="219"/>
+      <c r="G22" s="321"/>
+      <c r="H22" s="321"/>
+      <c r="I22" s="358"/>
+      <c r="J22" s="323"/>
+    </row>
+    <row r="23" spans="5:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E23" s="564"/>
+      <c r="F23" s="219"/>
+      <c r="G23" s="321"/>
+      <c r="H23" s="321"/>
+      <c r="I23" s="358"/>
+      <c r="J23" s="323"/>
+    </row>
+    <row r="24" spans="5:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="564"/>
+      <c r="F24" s="219"/>
+      <c r="G24" s="397"/>
+      <c r="H24" s="397"/>
+      <c r="I24" s="398"/>
+      <c r="J24" s="550"/>
+    </row>
+    <row r="25" spans="5:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E25" s="370" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="220"/>
+      <c r="G25" s="220"/>
+      <c r="H25" s="220"/>
+      <c r="I25" s="545">
+        <f>SUM(I10:I24)</f>
+        <v>20000</v>
+      </c>
+      <c r="J25" s="400"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E7:J7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
@@ -50244,14 +50969,14 @@
   <sheetData>
     <row r="2" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="569" t="s">
+      <c r="B3" s="582" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="570"/>
-      <c r="D3" s="570"/>
-      <c r="E3" s="570"/>
-      <c r="F3" s="570"/>
-      <c r="G3" s="571"/>
+      <c r="C3" s="583"/>
+      <c r="D3" s="583"/>
+      <c r="E3" s="583"/>
+      <c r="F3" s="583"/>
+      <c r="G3" s="584"/>
     </row>
     <row r="4" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C4" s="45"/>
@@ -50260,21 +50985,21 @@
       <c r="F4" s="46"/>
     </row>
     <row r="5" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="566" t="s">
+      <c r="B5" s="579" t="s">
         <v>274</v>
       </c>
-      <c r="C5" s="567"/>
-      <c r="D5" s="567"/>
-      <c r="E5" s="567"/>
-      <c r="F5" s="567"/>
-      <c r="G5" s="568"/>
+      <c r="C5" s="580"/>
+      <c r="D5" s="580"/>
+      <c r="E5" s="580"/>
+      <c r="F5" s="580"/>
+      <c r="G5" s="581"/>
     </row>
     <row r="6" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E7" s="577" t="s">
+      <c r="E7" s="590" t="s">
         <v>197</v>
       </c>
-      <c r="F7" s="577"/>
+      <c r="F7" s="590"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="164" t="s">
@@ -50284,10 +51009,10 @@
         <v>37</v>
       </c>
       <c r="D8" s="61"/>
-      <c r="E8" s="576" t="s">
+      <c r="E8" s="589" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="576"/>
+      <c r="F8" s="589"/>
       <c r="G8" s="173"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
@@ -50299,10 +51024,10 @@
         <v>440580</v>
       </c>
       <c r="D9" s="62"/>
-      <c r="E9" s="575" t="s">
+      <c r="E9" s="588" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="575"/>
+      <c r="F9" s="588"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="164" t="s">
@@ -50313,10 +51038,10 @@
         <v>413420</v>
       </c>
       <c r="D10" s="63"/>
-      <c r="E10" s="574" t="s">
+      <c r="E10" s="587" t="s">
         <v>198</v>
       </c>
-      <c r="F10" s="574"/>
+      <c r="F10" s="587"/>
     </row>
     <row r="11" spans="2:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="164" t="s">
@@ -50327,10 +51052,10 @@
         <v>-27160</v>
       </c>
       <c r="D11" s="127"/>
-      <c r="E11" s="572" t="s">
+      <c r="E11" s="585" t="s">
         <v>196</v>
       </c>
-      <c r="F11" s="573"/>
+      <c r="F11" s="586"/>
     </row>
     <row r="13" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="178" t="s">
@@ -51470,26 +52195,26 @@
       <c r="G95" s="126"/>
     </row>
     <row r="98" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="565" t="s">
+      <c r="B98" s="578" t="s">
         <v>321</v>
       </c>
-      <c r="C98" s="565"/>
-      <c r="D98" s="565"/>
-      <c r="E98" s="565"/>
-      <c r="F98" s="565"/>
-      <c r="G98" s="565"/>
+      <c r="C98" s="578"/>
+      <c r="D98" s="578"/>
+      <c r="E98" s="578"/>
+      <c r="F98" s="578"/>
+      <c r="G98" s="578"/>
       <c r="H98">
         <f>6400/1280</f>
         <v>5</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B99" s="565"/>
-      <c r="C99" s="565"/>
-      <c r="D99" s="565"/>
-      <c r="E99" s="565"/>
-      <c r="F99" s="565"/>
-      <c r="G99" s="565"/>
+      <c r="B99" s="578"/>
+      <c r="C99" s="578"/>
+      <c r="D99" s="578"/>
+      <c r="E99" s="578"/>
+      <c r="F99" s="578"/>
+      <c r="G99" s="578"/>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B100" s="149"/>
@@ -51543,14 +52268,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="581" t="s">
+      <c r="B3" s="594" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="581"/>
-      <c r="D3" s="581"/>
-      <c r="E3" s="581"/>
-      <c r="F3" s="581"/>
-      <c r="G3" s="581"/>
+      <c r="C3" s="594"/>
+      <c r="D3" s="594"/>
+      <c r="E3" s="594"/>
+      <c r="F3" s="594"/>
+      <c r="G3" s="594"/>
     </row>
     <row r="4" spans="2:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="150"/>
@@ -51559,21 +52284,21 @@
       <c r="F4" s="151"/>
     </row>
     <row r="5" spans="2:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="580" t="s">
+      <c r="B5" s="593" t="s">
         <v>288</v>
       </c>
-      <c r="C5" s="580"/>
-      <c r="D5" s="580"/>
-      <c r="E5" s="580"/>
-      <c r="F5" s="580"/>
-      <c r="G5" s="580"/>
+      <c r="C5" s="593"/>
+      <c r="D5" s="593"/>
+      <c r="E5" s="593"/>
+      <c r="F5" s="593"/>
+      <c r="G5" s="593"/>
     </row>
     <row r="6" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E7" s="578" t="s">
+      <c r="E7" s="591" t="s">
         <v>197</v>
       </c>
-      <c r="F7" s="579"/>
+      <c r="F7" s="592"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="190" t="s">
@@ -51583,10 +52308,10 @@
         <v>37</v>
       </c>
       <c r="D8" s="187"/>
-      <c r="E8" s="582" t="s">
+      <c r="E8" s="595" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="583"/>
+      <c r="F8" s="596"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="190" t="s">
@@ -51597,10 +52322,10 @@
         <v>98590</v>
       </c>
       <c r="D9" s="188"/>
-      <c r="E9" s="584" t="s">
+      <c r="E9" s="597" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="585"/>
+      <c r="F9" s="598"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="190" t="s">
@@ -51611,10 +52336,10 @@
         <v>66000</v>
       </c>
       <c r="D10" s="188"/>
-      <c r="E10" s="586" t="s">
+      <c r="E10" s="599" t="s">
         <v>198</v>
       </c>
-      <c r="F10" s="587"/>
+      <c r="F10" s="600"/>
     </row>
     <row r="11" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="190" t="s">
@@ -51625,10 +52350,10 @@
         <v>-32590</v>
       </c>
       <c r="D11" s="189"/>
-      <c r="E11" s="572" t="s">
+      <c r="E11" s="585" t="s">
         <v>196</v>
       </c>
-      <c r="F11" s="573"/>
+      <c r="F11" s="586"/>
     </row>
     <row r="12" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -52660,14 +53385,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="581" t="s">
+      <c r="B3" s="594" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="581"/>
-      <c r="D3" s="581"/>
-      <c r="E3" s="581"/>
-      <c r="F3" s="581"/>
-      <c r="G3" s="581"/>
+      <c r="C3" s="594"/>
+      <c r="D3" s="594"/>
+      <c r="E3" s="594"/>
+      <c r="F3" s="594"/>
+      <c r="G3" s="594"/>
     </row>
     <row r="4" spans="2:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="150"/>
@@ -52676,21 +53401,21 @@
       <c r="F4" s="151"/>
     </row>
     <row r="5" spans="2:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="580" t="s">
+      <c r="B5" s="593" t="s">
         <v>379</v>
       </c>
-      <c r="C5" s="580"/>
-      <c r="D5" s="580"/>
-      <c r="E5" s="580"/>
-      <c r="F5" s="580"/>
-      <c r="G5" s="580"/>
+      <c r="C5" s="593"/>
+      <c r="D5" s="593"/>
+      <c r="E5" s="593"/>
+      <c r="F5" s="593"/>
+      <c r="G5" s="593"/>
     </row>
     <row r="6" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E7" s="578" t="s">
+      <c r="E7" s="591" t="s">
         <v>197</v>
       </c>
-      <c r="F7" s="579"/>
+      <c r="F7" s="592"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="190" t="s">
@@ -52700,10 +53425,10 @@
         <v>37</v>
       </c>
       <c r="D8" s="187"/>
-      <c r="E8" s="582" t="s">
+      <c r="E8" s="595" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="583"/>
+      <c r="F8" s="596"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="190" t="s">
@@ -52714,10 +53439,10 @@
         <v>53890</v>
       </c>
       <c r="D9" s="188"/>
-      <c r="E9" s="584" t="s">
+      <c r="E9" s="597" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="585"/>
+      <c r="F9" s="598"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="190" t="s">
@@ -52728,10 +53453,10 @@
         <v>0</v>
       </c>
       <c r="D10" s="188"/>
-      <c r="E10" s="586" t="s">
+      <c r="E10" s="599" t="s">
         <v>198</v>
       </c>
-      <c r="F10" s="587"/>
+      <c r="F10" s="600"/>
     </row>
     <row r="11" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="190" t="s">
@@ -52742,10 +53467,10 @@
         <v>-53890</v>
       </c>
       <c r="D11" s="189"/>
-      <c r="E11" s="572" t="s">
+      <c r="E11" s="585" t="s">
         <v>196</v>
       </c>
-      <c r="F11" s="573"/>
+      <c r="F11" s="586"/>
     </row>
     <row r="12" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -52827,8 +53552,8 @@
       <c r="G18" s="114" t="s">
         <v>295</v>
       </c>
-      <c r="H18" s="588"/>
-      <c r="I18" s="589"/>
+      <c r="H18" s="601"/>
+      <c r="I18" s="602"/>
     </row>
     <row r="19" spans="1:9" s="154" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="166"/>
@@ -53451,13 +54176,13 @@
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -53492,14 +54217,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="581" t="s">
+      <c r="B3" s="594" t="s">
         <v>537</v>
       </c>
-      <c r="C3" s="581"/>
-      <c r="D3" s="581"/>
-      <c r="E3" s="581"/>
-      <c r="F3" s="581"/>
-      <c r="G3" s="581"/>
+      <c r="C3" s="594"/>
+      <c r="D3" s="594"/>
+      <c r="E3" s="594"/>
+      <c r="F3" s="594"/>
+      <c r="G3" s="594"/>
     </row>
     <row r="4" spans="2:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="150"/>
@@ -53508,21 +54233,21 @@
       <c r="F4" s="342"/>
     </row>
     <row r="5" spans="2:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="580" t="s">
+      <c r="B5" s="593" t="s">
         <v>649</v>
       </c>
-      <c r="C5" s="580"/>
-      <c r="D5" s="580"/>
-      <c r="E5" s="580"/>
-      <c r="F5" s="580"/>
-      <c r="G5" s="580"/>
+      <c r="C5" s="593"/>
+      <c r="D5" s="593"/>
+      <c r="E5" s="593"/>
+      <c r="F5" s="593"/>
+      <c r="G5" s="593"/>
     </row>
     <row r="6" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E7" s="578" t="s">
+      <c r="E7" s="591" t="s">
         <v>197</v>
       </c>
-      <c r="F7" s="579"/>
+      <c r="F7" s="592"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="190" t="s">
@@ -53532,10 +54257,10 @@
         <v>37</v>
       </c>
       <c r="D8" s="187"/>
-      <c r="E8" s="582" t="s">
+      <c r="E8" s="595" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="583"/>
+      <c r="F8" s="596"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="190" t="s">
@@ -53546,10 +54271,10 @@
         <v>603890</v>
       </c>
       <c r="D9" s="188"/>
-      <c r="E9" s="584" t="s">
+      <c r="E9" s="597" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="585"/>
+      <c r="F9" s="598"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="190" t="s">
@@ -53560,10 +54285,10 @@
         <v>588500</v>
       </c>
       <c r="D10" s="188"/>
-      <c r="E10" s="586" t="s">
+      <c r="E10" s="599" t="s">
         <v>648</v>
       </c>
-      <c r="F10" s="587"/>
+      <c r="F10" s="600"/>
     </row>
     <row r="11" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="190" t="s">
@@ -53574,10 +54299,10 @@
         <v>-15390</v>
       </c>
       <c r="D11" s="189"/>
-      <c r="E11" s="572" t="s">
+      <c r="E11" s="585" t="s">
         <v>196</v>
       </c>
-      <c r="F11" s="573"/>
+      <c r="F11" s="586"/>
     </row>
     <row r="12" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -54515,10 +55240,10 @@
     <mergeCell ref="E10:F10"/>
   </mergeCells>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="28" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -54535,7 +55260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A200A22B-9A97-44CB-96DC-658D1E2160C5}">
   <dimension ref="B3:I95"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A51" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
@@ -54553,14 +55278,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="581" t="s">
+      <c r="B3" s="594" t="s">
         <v>537</v>
       </c>
-      <c r="C3" s="581"/>
-      <c r="D3" s="581"/>
-      <c r="E3" s="581"/>
-      <c r="F3" s="581"/>
-      <c r="G3" s="581"/>
+      <c r="C3" s="594"/>
+      <c r="D3" s="594"/>
+      <c r="E3" s="594"/>
+      <c r="F3" s="594"/>
+      <c r="G3" s="594"/>
     </row>
     <row r="4" spans="2:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="150"/>
@@ -54569,21 +55294,21 @@
       <c r="F4" s="342"/>
     </row>
     <row r="5" spans="2:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="580" t="s">
+      <c r="B5" s="593" t="s">
         <v>649</v>
       </c>
-      <c r="C5" s="580"/>
-      <c r="D5" s="580"/>
-      <c r="E5" s="580"/>
-      <c r="F5" s="580"/>
-      <c r="G5" s="580"/>
+      <c r="C5" s="593"/>
+      <c r="D5" s="593"/>
+      <c r="E5" s="593"/>
+      <c r="F5" s="593"/>
+      <c r="G5" s="593"/>
     </row>
     <row r="6" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E7" s="578" t="s">
+      <c r="E7" s="591" t="s">
         <v>197</v>
       </c>
-      <c r="F7" s="579"/>
+      <c r="F7" s="592"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="190" t="s">
@@ -54593,10 +55318,10 @@
         <v>37</v>
       </c>
       <c r="D8" s="187"/>
-      <c r="E8" s="582" t="s">
+      <c r="E8" s="595" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="583"/>
+      <c r="F8" s="596"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="190" t="s">
@@ -54607,10 +55332,10 @@
         <v>718425</v>
       </c>
       <c r="D9" s="188"/>
-      <c r="E9" s="584" t="s">
+      <c r="E9" s="597" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="585"/>
+      <c r="F9" s="598"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="190" t="s">
@@ -54621,10 +55346,10 @@
         <v>630000</v>
       </c>
       <c r="D10" s="188"/>
-      <c r="E10" s="586" t="s">
+      <c r="E10" s="599" t="s">
         <v>648</v>
       </c>
-      <c r="F10" s="587"/>
+      <c r="F10" s="600"/>
     </row>
     <row r="11" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="190" t="s">
@@ -54635,10 +55360,10 @@
         <v>-88425</v>
       </c>
       <c r="D11" s="189"/>
-      <c r="E11" s="572" t="s">
+      <c r="E11" s="585" t="s">
         <v>196</v>
       </c>
-      <c r="F11" s="573"/>
+      <c r="F11" s="586"/>
     </row>
     <row r="12" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -55714,10 +56439,10 @@
     <mergeCell ref="E10:F10"/>
   </mergeCells>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="26" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -55732,10 +56457,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AI595"/>
+  <dimension ref="A1:AI642"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A483" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I502" sqref="I502"/>
+    <sheetView tabSelected="1" topLeftCell="A586" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I600" sqref="I600"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -55745,8 +56470,8 @@
     <col min="3" max="3" width="19.85546875" style="151" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" style="151" customWidth="1"/>
     <col min="5" max="5" width="13.140625" style="151" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="151" customWidth="1"/>
-    <col min="7" max="7" width="37.42578125" style="151" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="22" style="151" customWidth="1"/>
+    <col min="7" max="7" width="3.42578125" style="151" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="39" style="222" customWidth="1"/>
     <col min="9" max="9" width="84.7109375" style="266" customWidth="1"/>
     <col min="10" max="10" width="17.7109375" style="46" customWidth="1"/>
@@ -55777,12 +56502,12 @@
       <c r="H2" s="214"/>
     </row>
     <row r="3" spans="2:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="590" t="s">
+      <c r="C3" s="603" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="591"/>
-      <c r="E3" s="592"/>
-      <c r="F3" s="592"/>
+      <c r="D3" s="604"/>
+      <c r="E3" s="605"/>
+      <c r="F3" s="605"/>
       <c r="G3" s="223"/>
       <c r="H3" s="214"/>
     </row>
@@ -55797,12 +56522,12 @@
       <c r="H5" s="214"/>
     </row>
     <row r="6" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="593" t="s">
+      <c r="C6" s="606" t="s">
         <v>381</v>
       </c>
-      <c r="D6" s="593"/>
-      <c r="E6" s="594"/>
-      <c r="F6" s="594"/>
+      <c r="D6" s="606"/>
+      <c r="E6" s="607"/>
+      <c r="F6" s="607"/>
       <c r="G6" s="215"/>
       <c r="H6" s="214"/>
     </row>
@@ -55827,7 +56552,7 @@
       </c>
       <c r="C9" s="162">
         <f>Tableau2[[#Totals],[Débit]]</f>
-        <v>8803245</v>
+        <v>15269505</v>
       </c>
       <c r="D9" s="217"/>
       <c r="H9" s="302" t="s">
@@ -55840,7 +56565,7 @@
       </c>
       <c r="C10" s="162">
         <f>Tableau2[[#Totals],[Crédit]]</f>
-        <v>9650200</v>
+        <v>15150200</v>
       </c>
       <c r="H10" s="303" t="s">
         <v>496</v>
@@ -55852,7 +56577,7 @@
       </c>
       <c r="C11" s="194">
         <f>C10-C9</f>
-        <v>846955</v>
+        <v>-119305</v>
       </c>
       <c r="D11" s="148"/>
       <c r="H11" s="214"/>
@@ -55860,7 +56585,7 @@
     <row r="12" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H12" s="214"/>
     </row>
-    <row r="13" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="74" t="s">
         <v>5</v>
       </c>
@@ -55908,7 +56633,7 @@
       </c>
       <c r="I14" s="543"/>
     </row>
-    <row r="15" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="272"/>
       <c r="C15" s="132" t="s">
         <v>41</v>
@@ -55926,7 +56651,7 @@
       </c>
       <c r="I15" s="543"/>
     </row>
-    <row r="16" spans="2:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="272"/>
       <c r="C16" s="132" t="s">
         <v>41</v>
@@ -55955,7 +56680,7 @@
         <v>338</v>
       </c>
       <c r="H17" s="196"/>
-      <c r="I17" s="616"/>
+      <c r="I17" s="555"/>
       <c r="R17" s="505"/>
     </row>
     <row r="18" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -55978,7 +56703,7 @@
       <c r="H18" s="218"/>
       <c r="I18" s="543"/>
     </row>
-    <row r="19" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="274"/>
       <c r="C19" s="132" t="s">
         <v>42</v>
@@ -56009,7 +56734,7 @@
         <v>338</v>
       </c>
       <c r="H20" s="196"/>
-      <c r="I20" s="616"/>
+      <c r="I20" s="555"/>
       <c r="R20" s="505"/>
     </row>
     <row r="21" spans="1:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -56034,7 +56759,7 @@
       </c>
       <c r="I21" s="543"/>
     </row>
-    <row r="22" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="274"/>
       <c r="C22" s="132" t="s">
         <v>41</v>
@@ -56052,7 +56777,7 @@
       </c>
       <c r="I22" s="543"/>
     </row>
-    <row r="23" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="274"/>
       <c r="C23" s="132" t="s">
         <v>42</v>
@@ -56083,10 +56808,10 @@
         <v>338</v>
       </c>
       <c r="H24" s="196"/>
-      <c r="I24" s="616"/>
+      <c r="I24" s="555"/>
       <c r="R24" s="505"/>
     </row>
-    <row r="25" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="274">
         <v>44766</v>
       </c>
@@ -56107,7 +56832,7 @@
       <c r="I25" s="543"/>
       <c r="K25" s="136"/>
     </row>
-    <row r="26" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="274"/>
       <c r="C26" s="132" t="s">
         <v>44</v>
@@ -56125,7 +56850,7 @@
       </c>
       <c r="I26" s="543"/>
     </row>
-    <row r="27" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="274"/>
       <c r="C27" s="132" t="s">
         <v>41</v>
@@ -56143,7 +56868,7 @@
       </c>
       <c r="I27" s="543"/>
     </row>
-    <row r="28" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="274"/>
       <c r="C28" s="132" t="s">
         <v>41</v>
@@ -56161,7 +56886,7 @@
       </c>
       <c r="I28" s="543"/>
     </row>
-    <row r="29" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="274"/>
       <c r="C29" s="132" t="s">
         <v>41</v>
@@ -56179,7 +56904,7 @@
       </c>
       <c r="I29" s="543"/>
     </row>
-    <row r="30" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" ht="90" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="276"/>
       <c r="C30" s="132" t="s">
         <v>47</v>
@@ -56211,7 +56936,7 @@
       <c r="H31" s="196"/>
       <c r="I31" s="543"/>
     </row>
-    <row r="32" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="274">
         <v>44767</v>
       </c>
@@ -56231,7 +56956,7 @@
       </c>
       <c r="I32" s="543"/>
     </row>
-    <row r="33" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="277"/>
       <c r="C33" s="132" t="s">
         <v>47</v>
@@ -56262,7 +56987,7 @@
         <v>338</v>
       </c>
       <c r="H34" s="196"/>
-      <c r="I34" s="616"/>
+      <c r="I34" s="555"/>
       <c r="R34" s="505"/>
     </row>
     <row r="35" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -56285,7 +57010,7 @@
       <c r="H35" s="218"/>
       <c r="I35" s="543"/>
     </row>
-    <row r="36" spans="1:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="277"/>
       <c r="C36" s="132" t="s">
         <v>41</v>
@@ -56304,7 +57029,7 @@
       <c r="I36" s="543"/>
       <c r="J36" s="139"/>
     </row>
-    <row r="37" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="277"/>
       <c r="C37" s="132" t="s">
         <v>47</v>
@@ -56325,7 +57050,7 @@
       <c r="I37" s="543"/>
       <c r="J37" s="139"/>
     </row>
-    <row r="38" spans="1:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="277"/>
       <c r="C38" s="132" t="s">
         <v>41</v>
@@ -56343,7 +57068,7 @@
       </c>
       <c r="I38" s="543"/>
     </row>
-    <row r="39" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="277"/>
       <c r="C39" s="132" t="s">
         <v>41</v>
@@ -56361,7 +57086,7 @@
       </c>
       <c r="I39" s="543"/>
     </row>
-    <row r="40" spans="1:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="277"/>
       <c r="C40" s="132" t="s">
         <v>41</v>
@@ -56380,7 +57105,7 @@
       <c r="I40" s="543"/>
       <c r="J40" s="139"/>
     </row>
-    <row r="41" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="202"/>
       <c r="B41" s="277"/>
       <c r="C41" s="132" t="s">
@@ -56402,7 +57127,7 @@
       <c r="I41" s="543"/>
       <c r="J41" s="139"/>
     </row>
-    <row r="42" spans="1:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="203"/>
       <c r="B42" s="277"/>
       <c r="C42" s="132" t="s">
@@ -56422,7 +57147,7 @@
       <c r="I42" s="543"/>
       <c r="J42" s="139"/>
     </row>
-    <row r="43" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="203"/>
       <c r="B43" s="277"/>
       <c r="C43" s="132" t="s">
@@ -56453,10 +57178,10 @@
         <v>338</v>
       </c>
       <c r="H44" s="196"/>
-      <c r="I44" s="616"/>
+      <c r="I44" s="555"/>
       <c r="R44" s="505"/>
     </row>
-    <row r="45" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="203"/>
       <c r="B45" s="277">
         <v>44769</v>
@@ -56488,10 +57213,10 @@
         <v>338</v>
       </c>
       <c r="H46" s="196"/>
-      <c r="I46" s="616"/>
+      <c r="I46" s="555"/>
       <c r="R46" s="505"/>
     </row>
-    <row r="47" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="203"/>
       <c r="B47" s="277">
         <v>44770</v>
@@ -56523,10 +57248,10 @@
         <v>338</v>
       </c>
       <c r="H48" s="196"/>
-      <c r="I48" s="616"/>
+      <c r="I48" s="555"/>
       <c r="R48" s="505"/>
     </row>
-    <row r="49" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="203"/>
       <c r="B49" s="277">
         <v>44771</v>
@@ -56558,7 +57283,7 @@
         <v>338</v>
       </c>
       <c r="H50" s="196"/>
-      <c r="I50" s="616"/>
+      <c r="I50" s="555"/>
       <c r="R50" s="505"/>
     </row>
     <row r="51" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -56584,7 +57309,7 @@
       </c>
       <c r="I51" s="543"/>
     </row>
-    <row r="52" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="203"/>
       <c r="B52" s="277"/>
       <c r="C52" s="132" t="s">
@@ -56603,7 +57328,7 @@
       </c>
       <c r="I52" s="543"/>
     </row>
-    <row r="53" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="203"/>
       <c r="B53" s="277"/>
       <c r="C53" s="132" t="s">
@@ -56622,7 +57347,7 @@
       </c>
       <c r="I53" s="543"/>
     </row>
-    <row r="54" spans="1:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="203"/>
       <c r="B54" s="277"/>
       <c r="C54" s="132" t="s">
@@ -56641,7 +57366,7 @@
       </c>
       <c r="I54" s="543"/>
     </row>
-    <row r="55" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="203"/>
       <c r="B55" s="277"/>
       <c r="C55" s="132" t="s">
@@ -56660,7 +57385,7 @@
       </c>
       <c r="I55" s="543"/>
     </row>
-    <row r="56" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="203"/>
       <c r="B56" s="277"/>
       <c r="C56" s="132" t="s">
@@ -56679,7 +57404,7 @@
       </c>
       <c r="I56" s="543"/>
     </row>
-    <row r="57" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="203"/>
       <c r="B57" s="277"/>
       <c r="C57" s="132" t="s">
@@ -56728,10 +57453,10 @@
         <v>338</v>
       </c>
       <c r="H59" s="196"/>
-      <c r="I59" s="616"/>
+      <c r="I59" s="555"/>
       <c r="R59" s="505"/>
     </row>
-    <row r="60" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="203"/>
       <c r="B60" s="277">
         <v>44773</v>
@@ -56773,7 +57498,7 @@
       </c>
       <c r="I61" s="543"/>
     </row>
-    <row r="62" spans="1:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="203"/>
       <c r="B62" s="277"/>
       <c r="C62" s="132" t="s">
@@ -56798,7 +57523,7 @@
         <v>25500</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="203"/>
       <c r="B63" s="277"/>
       <c r="C63" s="132" t="s">
@@ -56819,7 +57544,7 @@
       </c>
       <c r="I63" s="543"/>
     </row>
-    <row r="64" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="203"/>
       <c r="B64" s="277"/>
       <c r="C64" s="132" t="s">
@@ -56851,7 +57576,7 @@
       <c r="H65" s="211"/>
       <c r="I65" s="543"/>
     </row>
-    <row r="66" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="203"/>
       <c r="B66" s="277">
         <v>44774</v>
@@ -56872,7 +57597,7 @@
       </c>
       <c r="I66" s="543"/>
     </row>
-    <row r="67" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="203"/>
       <c r="B67" s="277"/>
       <c r="C67" s="132" t="s">
@@ -56929,7 +57654,7 @@
       </c>
       <c r="I69" s="543"/>
     </row>
-    <row r="70" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" ht="90" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="203"/>
       <c r="B70" s="277"/>
       <c r="C70" s="132" t="s">
@@ -56950,7 +57675,7 @@
       </c>
       <c r="I70" s="543"/>
     </row>
-    <row r="71" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="203"/>
       <c r="B71" s="277"/>
       <c r="C71" s="132" t="s">
@@ -56969,7 +57694,7 @@
       </c>
       <c r="I71" s="543"/>
     </row>
-    <row r="72" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="203"/>
       <c r="B72" s="277"/>
       <c r="C72" s="132" t="s">
@@ -56988,7 +57713,7 @@
       </c>
       <c r="I72" s="543"/>
     </row>
-    <row r="73" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="203"/>
       <c r="B73" s="277"/>
       <c r="C73" s="132" t="s">
@@ -57007,7 +57732,7 @@
       </c>
       <c r="I73" s="543"/>
     </row>
-    <row r="74" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="203"/>
       <c r="B74" s="277"/>
       <c r="C74" s="132" t="s">
@@ -57026,7 +57751,7 @@
       </c>
       <c r="I74" s="543"/>
     </row>
-    <row r="75" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="203"/>
       <c r="B75" s="277"/>
       <c r="C75" s="132" t="s">
@@ -57060,7 +57785,7 @@
       <c r="H76" s="211"/>
       <c r="I76" s="543"/>
     </row>
-    <row r="77" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="203"/>
       <c r="B77" s="277">
         <v>44776</v>
@@ -57094,10 +57819,10 @@
         <v>338</v>
       </c>
       <c r="H78" s="211"/>
-      <c r="I78" s="617"/>
+      <c r="I78" s="556"/>
       <c r="R78" s="506"/>
     </row>
-    <row r="79" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="203"/>
       <c r="B79" s="277">
         <v>44777</v>
@@ -57118,7 +57843,7 @@
       </c>
       <c r="I79" s="543"/>
     </row>
-    <row r="80" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="203"/>
       <c r="B80" s="277"/>
       <c r="C80" s="132" t="s">
@@ -57142,7 +57867,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="203"/>
       <c r="B81" s="277"/>
       <c r="C81" s="132" t="s">
@@ -57208,7 +57933,7 @@
       <c r="H84" s="211"/>
       <c r="I84" s="543"/>
     </row>
-    <row r="85" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="203"/>
       <c r="B85" s="277">
         <v>44780</v>
@@ -57244,7 +57969,7 @@
       <c r="H86" s="211"/>
       <c r="I86" s="543"/>
     </row>
-    <row r="87" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="203"/>
       <c r="B87" s="277">
         <v>44781</v>
@@ -57271,7 +57996,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="203"/>
       <c r="B88" s="277"/>
       <c r="C88" s="132" t="s">
@@ -57305,7 +58030,7 @@
       <c r="H89" s="211"/>
       <c r="I89" s="543"/>
     </row>
-    <row r="90" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="203"/>
       <c r="B90" s="277">
         <v>44782</v>
@@ -57328,7 +58053,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" ht="90" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="203"/>
       <c r="B91" s="277"/>
       <c r="C91" s="132" t="s">
@@ -57362,7 +58087,7 @@
       <c r="H92" s="211"/>
       <c r="I92" s="543"/>
     </row>
-    <row r="93" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="203"/>
       <c r="B93" s="277">
         <v>44783</v>
@@ -57383,7 +58108,7 @@
       </c>
       <c r="I93" s="543"/>
     </row>
-    <row r="94" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="203"/>
       <c r="B94" s="277"/>
       <c r="C94" s="132" t="s">
@@ -57402,7 +58127,7 @@
       </c>
       <c r="I94" s="543"/>
     </row>
-    <row r="95" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="203"/>
       <c r="B95" s="277"/>
       <c r="C95" s="132" t="s">
@@ -57434,7 +58159,7 @@
       <c r="H96" s="211"/>
       <c r="I96" s="543"/>
     </row>
-    <row r="97" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="203"/>
       <c r="B97" s="277">
         <v>44784</v>
@@ -57468,7 +58193,7 @@
       <c r="H98" s="211"/>
       <c r="I98" s="543"/>
     </row>
-    <row r="99" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="203"/>
       <c r="B99" s="277">
         <v>44786</v>
@@ -57503,7 +58228,7 @@
       <c r="H100" s="211"/>
       <c r="I100" s="543"/>
     </row>
-    <row r="101" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="203"/>
       <c r="B101" s="277">
         <v>44788</v>
@@ -57524,7 +58249,7 @@
       </c>
       <c r="I101" s="543"/>
     </row>
-    <row r="102" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="203"/>
       <c r="B102" s="277"/>
       <c r="C102" s="132" t="s">
@@ -57543,7 +58268,7 @@
       </c>
       <c r="I102" s="543"/>
     </row>
-    <row r="103" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="203"/>
       <c r="B103" s="277"/>
       <c r="C103" s="132" t="s">
@@ -57575,7 +58300,7 @@
       <c r="H104" s="211"/>
       <c r="I104" s="543"/>
     </row>
-    <row r="105" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="203"/>
       <c r="B105" s="277">
         <v>44789</v>
@@ -57596,7 +58321,7 @@
       </c>
       <c r="I105" s="543"/>
     </row>
-    <row r="106" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="203"/>
       <c r="B106" s="277"/>
       <c r="C106" s="132" t="s">
@@ -57617,7 +58342,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="107" spans="1:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="203"/>
       <c r="B107" s="277"/>
       <c r="C107" s="132" t="s">
@@ -57649,7 +58374,7 @@
       <c r="H108" s="211"/>
       <c r="I108" s="543"/>
     </row>
-    <row r="109" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="203"/>
       <c r="B109" s="277">
         <v>44790</v>
@@ -57672,7 +58397,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="110" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="203"/>
       <c r="B110" s="277"/>
       <c r="C110" s="132" t="s">
@@ -57727,10 +58452,10 @@
         <v>338</v>
       </c>
       <c r="H112" s="211"/>
-      <c r="I112" s="617"/>
+      <c r="I112" s="556"/>
       <c r="R112" s="506"/>
     </row>
-    <row r="113" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="203"/>
       <c r="B113" s="277">
         <v>44791</v>
@@ -57751,7 +58476,7 @@
       </c>
       <c r="I113" s="543"/>
     </row>
-    <row r="114" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="203"/>
       <c r="B114" s="277"/>
       <c r="C114" s="132" t="s">
@@ -57772,7 +58497,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" ht="90" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="203"/>
       <c r="B115" s="277"/>
       <c r="C115" s="132" t="s">
@@ -57791,7 +58516,7 @@
       </c>
       <c r="I115" s="543"/>
     </row>
-    <row r="116" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" ht="90" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="203"/>
       <c r="B116" s="277"/>
       <c r="C116" s="132" t="s">
@@ -57823,7 +58548,7 @@
       <c r="H117" s="211"/>
       <c r="I117" s="543"/>
     </row>
-    <row r="118" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="203"/>
       <c r="B118" s="277">
         <v>44793</v>
@@ -57846,7 +58571,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="203"/>
       <c r="B119" s="277"/>
       <c r="C119" s="132" t="s">
@@ -57874,7 +58599,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="203"/>
       <c r="B120" s="277"/>
       <c r="C120" s="132" t="s">
@@ -57912,7 +58637,7 @@
       <c r="H121" s="211"/>
       <c r="I121" s="543"/>
     </row>
-    <row r="122" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="203"/>
       <c r="B122" s="277">
         <v>44794</v>
@@ -57935,7 +58660,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="203"/>
       <c r="B123" s="277"/>
       <c r="C123" s="132" t="s">
@@ -57954,7 +58679,7 @@
       </c>
       <c r="I123" s="543"/>
     </row>
-    <row r="124" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="203"/>
       <c r="B124" s="277"/>
       <c r="C124" s="132" t="s">
@@ -57973,7 +58698,7 @@
       </c>
       <c r="I124" s="543"/>
     </row>
-    <row r="125" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="203"/>
       <c r="B125" s="277"/>
       <c r="C125" s="132" t="s">
@@ -58005,7 +58730,7 @@
       <c r="H126" s="211"/>
       <c r="I126" s="543"/>
     </row>
-    <row r="127" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="203"/>
       <c r="B127" s="277">
         <v>44795</v>
@@ -58028,7 +58753,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" s="203"/>
       <c r="B128" s="277"/>
       <c r="C128" s="132" t="s">
@@ -58047,7 +58772,7 @@
       </c>
       <c r="I128" s="543"/>
     </row>
-    <row r="129" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" s="203"/>
       <c r="B129" s="277"/>
       <c r="C129" s="132" t="s">
@@ -58068,7 +58793,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="203"/>
       <c r="B130" s="277"/>
       <c r="C130" s="132" t="s">
@@ -58123,7 +58848,7 @@
       </c>
       <c r="I132" s="543"/>
     </row>
-    <row r="133" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="203"/>
       <c r="B133" s="277"/>
       <c r="C133" s="132" t="s">
@@ -58142,7 +58867,7 @@
       </c>
       <c r="I133" s="543"/>
     </row>
-    <row r="134" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="203"/>
       <c r="B134" s="277"/>
       <c r="C134" s="132" t="s">
@@ -58161,7 +58886,7 @@
       </c>
       <c r="I134" s="543"/>
     </row>
-    <row r="135" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="203"/>
       <c r="B135" s="277"/>
       <c r="C135" s="132" t="s">
@@ -58193,7 +58918,7 @@
       <c r="H136" s="195"/>
       <c r="I136" s="543"/>
     </row>
-    <row r="137" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A137" s="203"/>
       <c r="B137" s="277"/>
       <c r="C137" s="132" t="s">
@@ -58214,7 +58939,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A138" s="203"/>
       <c r="B138" s="277"/>
       <c r="C138" s="132" t="s">
@@ -58246,7 +58971,7 @@
       <c r="H139" s="211"/>
       <c r="I139" s="543"/>
     </row>
-    <row r="140" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="203"/>
       <c r="B140" s="277">
         <v>44797</v>
@@ -58267,7 +58992,7 @@
       </c>
       <c r="I140" s="543"/>
     </row>
-    <row r="141" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" s="203"/>
       <c r="B141" s="277"/>
       <c r="C141" s="132" t="s">
@@ -58299,7 +59024,7 @@
       <c r="H142" s="211"/>
       <c r="I142" s="543"/>
     </row>
-    <row r="143" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" ht="90" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A143" s="203"/>
       <c r="B143" s="277">
         <v>44798</v>
@@ -58322,7 +59047,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A144" s="203"/>
       <c r="B144" s="277"/>
       <c r="C144" s="132" t="s">
@@ -58354,7 +59079,7 @@
       <c r="H145" s="211"/>
       <c r="I145" s="543"/>
     </row>
-    <row r="146" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A146" s="203"/>
       <c r="B146" s="277">
         <v>44800</v>
@@ -58388,7 +59113,7 @@
       <c r="H147" s="211"/>
       <c r="I147" s="543"/>
     </row>
-    <row r="148" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" s="203"/>
       <c r="B148" s="277">
         <v>44801</v>
@@ -58424,7 +59149,7 @@
       <c r="H149" s="211"/>
       <c r="I149" s="543"/>
     </row>
-    <row r="150" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="203"/>
       <c r="B150" s="277">
         <v>44802</v>
@@ -58458,7 +59183,7 @@
       <c r="H151" s="211"/>
       <c r="I151" s="543"/>
     </row>
-    <row r="152" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="203"/>
       <c r="B152" s="277">
         <v>44803</v>
@@ -58479,7 +59204,7 @@
       </c>
       <c r="I152" s="543"/>
     </row>
-    <row r="153" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="203"/>
       <c r="B153" s="277"/>
       <c r="C153" s="132" t="s">
@@ -58498,7 +59223,7 @@
       </c>
       <c r="I153" s="543"/>
     </row>
-    <row r="154" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" s="203"/>
       <c r="B154" s="277"/>
       <c r="C154" s="132" t="s">
@@ -58532,7 +59257,7 @@
       <c r="H155" s="211"/>
       <c r="I155" s="543"/>
     </row>
-    <row r="156" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A156" s="203"/>
       <c r="B156" s="277">
         <v>44804</v>
@@ -58553,7 +59278,7 @@
       </c>
       <c r="I156" s="543"/>
     </row>
-    <row r="157" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A157" s="203"/>
       <c r="B157" s="277"/>
       <c r="C157" s="132" t="s">
@@ -58593,7 +59318,7 @@
       </c>
       <c r="I158" s="543"/>
     </row>
-    <row r="159" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A159" s="203"/>
       <c r="B159" s="277"/>
       <c r="C159" s="132" t="s">
@@ -58676,7 +59401,7 @@
       <c r="L163"/>
       <c r="M163"/>
     </row>
-    <row r="164" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" s="203"/>
       <c r="B164" s="277">
         <v>44807</v>
@@ -58718,7 +59443,7 @@
       <c r="L165"/>
       <c r="M165"/>
     </row>
-    <row r="166" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A166" s="203"/>
       <c r="B166" s="277">
         <v>44808</v>
@@ -58761,7 +59486,7 @@
       <c r="L167"/>
       <c r="M167"/>
     </row>
-    <row r="168" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A168" s="203"/>
       <c r="B168" s="277">
         <v>44809</v>
@@ -58814,7 +59539,7 @@
       </c>
       <c r="I170" s="543"/>
     </row>
-    <row r="171" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" ht="90" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B171" s="277"/>
       <c r="C171" s="132" t="s">
         <v>44</v>
@@ -58834,7 +59559,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" ht="90" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B172" s="277"/>
       <c r="C172" s="132" t="s">
         <v>41</v>
@@ -58854,7 +59579,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B173" s="277"/>
       <c r="C173" s="132" t="s">
         <v>41</v>
@@ -58872,7 +59597,7 @@
       </c>
       <c r="I173" s="543"/>
     </row>
-    <row r="174" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B174" s="277"/>
       <c r="C174" s="132" t="s">
         <v>41</v>
@@ -58890,7 +59615,7 @@
       </c>
       <c r="I174" s="543"/>
     </row>
-    <row r="175" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B175" s="277"/>
       <c r="C175" s="132" t="s">
         <v>42</v>
@@ -58913,7 +59638,7 @@
         <v>48600</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B176" s="277"/>
       <c r="C176" s="132" t="s">
         <v>42</v>
@@ -58945,7 +59670,7 @@
       <c r="H177" s="211"/>
       <c r="I177" s="543"/>
     </row>
-    <row r="178" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:9" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B178" s="277">
         <v>44811</v>
       </c>
@@ -58967,7 +59692,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="179" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:9" ht="102.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B179" s="277"/>
       <c r="C179" s="132" t="s">
         <v>41</v>
@@ -58985,7 +59710,7 @@
       </c>
       <c r="I179" s="543"/>
     </row>
-    <row r="180" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:9" ht="102.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B180" s="277"/>
       <c r="C180" s="132" t="s">
         <v>41</v>
@@ -59015,7 +59740,7 @@
       <c r="H181" s="211"/>
       <c r="I181" s="543"/>
     </row>
-    <row r="182" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:9" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B182" s="277">
         <v>44815</v>
       </c>
@@ -59037,7 +59762,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="183" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B183" s="277"/>
       <c r="C183" s="132" t="s">
         <v>41</v>
@@ -59055,7 +59780,7 @@
       </c>
       <c r="I183" s="543"/>
     </row>
-    <row r="184" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:9" ht="102.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B184" s="277"/>
       <c r="C184" s="132" t="s">
         <v>41</v>
@@ -59087,7 +59812,7 @@
       <c r="H185" s="211"/>
       <c r="I185" s="543"/>
     </row>
-    <row r="186" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:9" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B186" s="277">
         <v>44816</v>
       </c>
@@ -59109,7 +59834,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="187" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:9" ht="90" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B187" s="277"/>
       <c r="C187" s="132" t="s">
         <v>41</v>
@@ -59127,7 +59852,7 @@
       </c>
       <c r="I187" s="543"/>
     </row>
-    <row r="188" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B188" s="277"/>
       <c r="C188" s="132" t="s">
         <v>41</v>
@@ -59159,7 +59884,7 @@
       <c r="H189" s="211"/>
       <c r="I189" s="543"/>
     </row>
-    <row r="190" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:9" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B190" s="277">
         <v>44817</v>
       </c>
@@ -59194,7 +59919,7 @@
       <c r="H191" s="211"/>
       <c r="I191" s="543"/>
     </row>
-    <row r="192" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:9" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B192" s="277">
         <v>44818</v>
       </c>
@@ -59216,7 +59941,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="193" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:18" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B193" s="277"/>
       <c r="C193" s="132" t="s">
         <v>41</v>
@@ -59236,7 +59961,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="194" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B194" s="277"/>
       <c r="C194" s="132" t="s">
         <v>47</v>
@@ -59284,7 +60009,7 @@
         <v>338</v>
       </c>
       <c r="H196" s="211"/>
-      <c r="I196" s="617"/>
+      <c r="I196" s="556"/>
       <c r="R196" s="506"/>
     </row>
     <row r="197" spans="2:18" ht="39" thickBot="1" x14ac:dyDescent="0.25">
@@ -59309,7 +60034,7 @@
       </c>
       <c r="I197" s="543"/>
     </row>
-    <row r="198" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:18" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B198" s="277"/>
       <c r="C198" s="132" t="s">
         <v>47</v>
@@ -59331,7 +60056,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="199" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:18" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B199" s="277"/>
       <c r="C199" s="132" t="s">
         <v>47</v>
@@ -59363,10 +60088,10 @@
         <v>338</v>
       </c>
       <c r="H200" s="211"/>
-      <c r="I200" s="617"/>
+      <c r="I200" s="556"/>
       <c r="R200" s="506"/>
     </row>
-    <row r="201" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:18" ht="102.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B201" s="277">
         <v>44822</v>
       </c>
@@ -59386,7 +60111,7 @@
       </c>
       <c r="I201" s="543"/>
     </row>
-    <row r="202" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:18" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B202" s="277"/>
       <c r="C202" s="132" t="s">
         <v>41</v>
@@ -59414,10 +60139,10 @@
         <v>338</v>
       </c>
       <c r="H203" s="211"/>
-      <c r="I203" s="617"/>
+      <c r="I203" s="556"/>
       <c r="R203" s="506"/>
     </row>
-    <row r="204" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:18" ht="90" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B204" s="277">
         <v>44823</v>
       </c>
@@ -59441,7 +60166,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="205" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:18" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B205" s="277"/>
       <c r="C205" s="132" t="s">
         <v>41</v>
@@ -59467,10 +60192,10 @@
       <c r="F206" s="210"/>
       <c r="G206" s="210"/>
       <c r="H206" s="211"/>
-      <c r="I206" s="617"/>
+      <c r="I206" s="556"/>
       <c r="R206" s="506"/>
     </row>
-    <row r="207" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:18" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B207" s="277">
         <v>44824</v>
       </c>
@@ -59498,10 +60223,10 @@
       <c r="F208" s="235"/>
       <c r="G208" s="235"/>
       <c r="H208" s="236"/>
-      <c r="I208" s="617"/>
+      <c r="I208" s="556"/>
       <c r="R208" s="506"/>
     </row>
-    <row r="209" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:18" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B209" s="281">
         <v>44825</v>
       </c>
@@ -59543,7 +60268,7 @@
       <c r="H211" s="541" t="s">
         <v>383</v>
       </c>
-      <c r="I211" s="617"/>
+      <c r="I211" s="556"/>
       <c r="R211" s="506"/>
     </row>
     <row r="212" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -59657,7 +60382,7 @@
       <c r="F217" s="258"/>
       <c r="G217" s="258"/>
       <c r="H217" s="259"/>
-      <c r="I217" s="618"/>
+      <c r="I217" s="557"/>
       <c r="R217" s="507"/>
     </row>
     <row r="218" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -59730,7 +60455,7 @@
       <c r="F221" s="235"/>
       <c r="G221" s="235"/>
       <c r="H221" s="236"/>
-      <c r="I221" s="617"/>
+      <c r="I221" s="556"/>
       <c r="R221" s="506"/>
     </row>
     <row r="222" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -59851,7 +60576,7 @@
       <c r="F228" s="235"/>
       <c r="G228" s="235"/>
       <c r="H228" s="236"/>
-      <c r="I228" s="617"/>
+      <c r="I228" s="556"/>
       <c r="R228" s="506"/>
     </row>
     <row r="229" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -60035,7 +60760,7 @@
       <c r="F239" s="235"/>
       <c r="G239" s="235"/>
       <c r="H239" s="236"/>
-      <c r="I239" s="617"/>
+      <c r="I239" s="556"/>
       <c r="R239" s="506"/>
     </row>
     <row r="240" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -60066,7 +60791,7 @@
       <c r="F241" s="235"/>
       <c r="G241" s="235"/>
       <c r="H241" s="236"/>
-      <c r="I241" s="617"/>
+      <c r="I241" s="556"/>
       <c r="R241" s="506"/>
     </row>
     <row r="242" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -60169,7 +60894,7 @@
       <c r="F247" s="235"/>
       <c r="G247" s="235"/>
       <c r="H247" s="236"/>
-      <c r="I247" s="617"/>
+      <c r="I247" s="556"/>
       <c r="R247" s="506"/>
     </row>
     <row r="248" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -60299,7 +61024,7 @@
       <c r="F254" s="210"/>
       <c r="G254" s="210"/>
       <c r="H254" s="211"/>
-      <c r="I254" s="617"/>
+      <c r="I254" s="556"/>
       <c r="R254" s="506"/>
     </row>
     <row r="255" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -60330,7 +61055,7 @@
       <c r="F256" s="235"/>
       <c r="G256" s="235"/>
       <c r="H256" s="236"/>
-      <c r="I256" s="617"/>
+      <c r="I256" s="556"/>
       <c r="R256" s="506"/>
     </row>
     <row r="257" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -60381,7 +61106,7 @@
       <c r="F259" s="235"/>
       <c r="G259" s="235"/>
       <c r="H259" s="236"/>
-      <c r="I259" s="617"/>
+      <c r="I259" s="556"/>
       <c r="R259" s="506"/>
     </row>
     <row r="260" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -60536,7 +61261,7 @@
       <c r="H267" s="227" t="s">
         <v>462</v>
       </c>
-      <c r="I267" s="619" t="s">
+      <c r="I267" s="558" t="s">
         <v>463</v>
       </c>
     </row>
@@ -60658,7 +61383,7 @@
       <c r="H274" s="377" t="s">
         <v>455</v>
       </c>
-      <c r="I274" s="620" t="s">
+      <c r="I274" s="559" t="s">
         <v>456</v>
       </c>
     </row>
@@ -60676,7 +61401,7 @@
       <c r="H275" s="377" t="s">
         <v>452</v>
       </c>
-      <c r="I275" s="620" t="s">
+      <c r="I275" s="559" t="s">
         <v>451</v>
       </c>
     </row>
@@ -60694,7 +61419,7 @@
       <c r="H276" s="377" t="s">
         <v>453</v>
       </c>
-      <c r="I276" s="620" t="s">
+      <c r="I276" s="559" t="s">
         <v>451</v>
       </c>
     </row>
@@ -60780,7 +61505,7 @@
       <c r="H281" s="227" t="s">
         <v>465</v>
       </c>
-      <c r="I281" s="620" t="s">
+      <c r="I281" s="559" t="s">
         <v>467</v>
       </c>
     </row>
@@ -60798,7 +61523,7 @@
       <c r="H282" s="227" t="s">
         <v>465</v>
       </c>
-      <c r="I282" s="620" t="s">
+      <c r="I282" s="559" t="s">
         <v>467</v>
       </c>
     </row>
@@ -60816,7 +61541,7 @@
       <c r="H283" s="377" t="s">
         <v>464</v>
       </c>
-      <c r="I283" s="620" t="s">
+      <c r="I283" s="559" t="s">
         <v>451</v>
       </c>
     </row>
@@ -60846,7 +61571,7 @@
       <c r="H285" s="227" t="s">
         <v>474</v>
       </c>
-      <c r="I285" s="620" t="s">
+      <c r="I285" s="559" t="s">
         <v>451</v>
       </c>
     </row>
@@ -60866,7 +61591,7 @@
       <c r="H286" s="227" t="s">
         <v>470</v>
       </c>
-      <c r="I286" s="620" t="s">
+      <c r="I286" s="559" t="s">
         <v>451</v>
       </c>
     </row>
@@ -60896,7 +61621,7 @@
       <c r="H288" s="377" t="s">
         <v>475</v>
       </c>
-      <c r="I288" s="620" t="s">
+      <c r="I288" s="559" t="s">
         <v>476</v>
       </c>
     </row>
@@ -60962,7 +61687,7 @@
       <c r="H292" s="377" t="s">
         <v>471</v>
       </c>
-      <c r="I292" s="620" t="s">
+      <c r="I292" s="559" t="s">
         <v>472</v>
       </c>
     </row>
@@ -60980,7 +61705,7 @@
       <c r="H293" s="377" t="s">
         <v>478</v>
       </c>
-      <c r="I293" s="620" t="s">
+      <c r="I293" s="559" t="s">
         <v>479</v>
       </c>
       <c r="Q293"/>
@@ -61124,7 +61849,7 @@
       <c r="H297" s="377" t="s">
         <v>478</v>
       </c>
-      <c r="I297" s="620" t="s">
+      <c r="I297" s="559" t="s">
         <v>487</v>
       </c>
       <c r="Q297"/>
@@ -61161,7 +61886,7 @@
       <c r="H298" s="377" t="s">
         <v>485</v>
       </c>
-      <c r="I298" s="620" t="s">
+      <c r="I298" s="559" t="s">
         <v>490</v>
       </c>
       <c r="Q298"/>
@@ -61264,7 +61989,7 @@
       <c r="H301" s="270" t="s">
         <v>488</v>
       </c>
-      <c r="I301" s="620" t="s">
+      <c r="I301" s="559" t="s">
         <v>518</v>
       </c>
       <c r="Q301"/>
@@ -61336,7 +62061,7 @@
       <c r="H303" s="270" t="s">
         <v>492</v>
       </c>
-      <c r="I303" s="620" t="s">
+      <c r="I303" s="559" t="s">
         <v>451</v>
       </c>
       <c r="Q303"/>
@@ -62184,7 +62909,7 @@
       <c r="H327" s="227" t="s">
         <v>547</v>
       </c>
-      <c r="I327" s="619"/>
+      <c r="I327" s="558"/>
       <c r="Q327"/>
       <c r="R327" s="387"/>
       <c r="S327"/>
@@ -62213,7 +62938,7 @@
       <c r="F328" s="145"/>
       <c r="G328" s="145"/>
       <c r="H328" s="195"/>
-      <c r="I328" s="619"/>
+      <c r="I328" s="558"/>
       <c r="Q328"/>
       <c r="R328" s="387"/>
       <c r="S328"/>
@@ -63840,7 +64565,7 @@
       <c r="H374" s="227" t="s">
         <v>680</v>
       </c>
-      <c r="I374" s="620" t="s">
+      <c r="I374" s="559" t="s">
         <v>698</v>
       </c>
       <c r="Q374"/>
@@ -63912,7 +64637,7 @@
       <c r="H376" s="227" t="s">
         <v>681</v>
       </c>
-      <c r="I376" s="620" t="s">
+      <c r="I376" s="559" t="s">
         <v>698</v>
       </c>
       <c r="Q376"/>
@@ -63980,7 +64705,7 @@
       <c r="H378" s="227" t="s">
         <v>682</v>
       </c>
-      <c r="I378" s="620" t="s">
+      <c r="I378" s="559" t="s">
         <v>698</v>
       </c>
       <c r="Q378"/>
@@ -65084,7 +65809,7 @@
       <c r="F414" s="145"/>
       <c r="G414" s="145"/>
       <c r="H414" s="195"/>
-      <c r="I414" s="619"/>
+      <c r="I414" s="558"/>
       <c r="J414"/>
       <c r="Z414"/>
       <c r="AA414"/>
@@ -65112,7 +65837,7 @@
       <c r="H415" s="195" t="s">
         <v>759</v>
       </c>
-      <c r="I415" s="619"/>
+      <c r="I415" s="558"/>
       <c r="J415"/>
       <c r="R415" s="509">
         <f>SUBTOTAL(109,Tableau8[Colonne1])</f>
@@ -65143,7 +65868,7 @@
       <c r="H416" s="195" t="s">
         <v>771</v>
       </c>
-      <c r="I416" s="619"/>
+      <c r="I416" s="558"/>
       <c r="J416"/>
       <c r="R416" s="509"/>
       <c r="S416" s="151"/>
@@ -65166,7 +65891,7 @@
       <c r="F417" s="145"/>
       <c r="G417" s="145"/>
       <c r="H417" s="195"/>
-      <c r="I417" s="619"/>
+      <c r="I417" s="558"/>
       <c r="J417"/>
       <c r="U417" s="46">
         <v>90000</v>
@@ -65197,7 +65922,7 @@
       <c r="H418" s="255" t="s">
         <v>755</v>
       </c>
-      <c r="I418" s="619" t="s">
+      <c r="I418" s="558" t="s">
         <v>806</v>
       </c>
       <c r="J418"/>
@@ -65223,7 +65948,7 @@
       <c r="H419" s="547" t="s">
         <v>770</v>
       </c>
-      <c r="I419" s="619" t="s">
+      <c r="I419" s="558" t="s">
         <v>777</v>
       </c>
       <c r="J419"/>
@@ -65243,7 +65968,7 @@
       <c r="F420" s="145"/>
       <c r="G420" s="145"/>
       <c r="H420" s="195"/>
-      <c r="I420" s="619"/>
+      <c r="I420" s="558"/>
       <c r="J420"/>
       <c r="Z420"/>
       <c r="AA420"/>
@@ -65358,7 +66083,7 @@
       <c r="F425" s="146"/>
       <c r="G425" s="146"/>
       <c r="H425" s="227"/>
-      <c r="I425" s="619"/>
+      <c r="I425" s="558"/>
       <c r="J425"/>
       <c r="Z425"/>
       <c r="AA425"/>
@@ -65385,7 +66110,7 @@
       <c r="H426" s="227" t="s">
         <v>802</v>
       </c>
-      <c r="I426" s="619"/>
+      <c r="I426" s="558"/>
       <c r="J426"/>
       <c r="Z426"/>
       <c r="AA426"/>
@@ -65412,7 +66137,7 @@
       <c r="H427" s="227" t="s">
         <v>801</v>
       </c>
-      <c r="I427" s="619" t="s">
+      <c r="I427" s="558" t="s">
         <v>800</v>
       </c>
       <c r="J427"/>
@@ -65433,7 +66158,7 @@
       <c r="F428" s="146"/>
       <c r="G428" s="146"/>
       <c r="H428" s="227"/>
-      <c r="I428" s="619"/>
+      <c r="I428" s="558"/>
       <c r="J428"/>
       <c r="Z428"/>
       <c r="AA428"/>
@@ -65460,7 +66185,7 @@
       <c r="H429" s="377" t="s">
         <v>799</v>
       </c>
-      <c r="I429" s="621" t="s">
+      <c r="I429" s="560" t="s">
         <v>804</v>
       </c>
       <c r="J429"/>
@@ -65489,7 +66214,7 @@
       <c r="H430" s="227" t="s">
         <v>71</v>
       </c>
-      <c r="I430" s="621" t="s">
+      <c r="I430" s="560" t="s">
         <v>807</v>
       </c>
       <c r="J430"/>
@@ -65510,7 +66235,7 @@
       <c r="F431" s="145"/>
       <c r="G431" s="145"/>
       <c r="H431" s="195"/>
-      <c r="I431" s="619"/>
+      <c r="I431" s="558"/>
       <c r="J431"/>
       <c r="Z431"/>
       <c r="AA431"/>
@@ -65537,7 +66262,7 @@
       <c r="H432" s="227" t="s">
         <v>796</v>
       </c>
-      <c r="I432" s="621" t="s">
+      <c r="I432" s="560" t="s">
         <v>805</v>
       </c>
       <c r="J432"/>
@@ -65564,7 +66289,7 @@
       <c r="H433" s="227" t="s">
         <v>797</v>
       </c>
-      <c r="I433" s="621"/>
+      <c r="I433" s="560"/>
       <c r="J433"/>
       <c r="Z433"/>
       <c r="AA433"/>
@@ -65591,7 +66316,7 @@
       <c r="H434" s="547" t="s">
         <v>780</v>
       </c>
-      <c r="I434" s="619" t="s">
+      <c r="I434" s="558" t="s">
         <v>798</v>
       </c>
       <c r="J434"/>
@@ -65618,7 +66343,7 @@
       <c r="H435" s="547" t="s">
         <v>568</v>
       </c>
-      <c r="I435" s="619"/>
+      <c r="I435" s="558"/>
       <c r="J435"/>
       <c r="Z435"/>
       <c r="AA435"/>
@@ -65637,7 +66362,7 @@
       <c r="F436" s="145"/>
       <c r="G436" s="145"/>
       <c r="H436" s="195"/>
-      <c r="I436" s="619"/>
+      <c r="I436" s="558"/>
       <c r="J436"/>
     </row>
     <row r="437" spans="1:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -65657,7 +66382,7 @@
       <c r="H437" s="227" t="s">
         <v>792</v>
       </c>
-      <c r="I437" s="621" t="s">
+      <c r="I437" s="560" t="s">
         <v>793</v>
       </c>
       <c r="J437"/>
@@ -65677,7 +66402,7 @@
       <c r="H438" s="227" t="s">
         <v>794</v>
       </c>
-      <c r="I438" s="621" t="s">
+      <c r="I438" s="560" t="s">
         <v>795</v>
       </c>
       <c r="J438"/>
@@ -65695,7 +66420,7 @@
       <c r="H439" s="227" t="s">
         <v>803</v>
       </c>
-      <c r="I439" s="621"/>
+      <c r="I439" s="560"/>
       <c r="J439"/>
     </row>
     <row r="440" spans="1:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -65707,7 +66432,7 @@
       <c r="F440" s="146"/>
       <c r="G440" s="146"/>
       <c r="H440" s="227"/>
-      <c r="I440" s="621"/>
+      <c r="I440" s="560"/>
       <c r="J440"/>
     </row>
     <row r="441" spans="1:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -65729,7 +66454,7 @@
       <c r="H441" s="255" t="s">
         <v>166</v>
       </c>
-      <c r="I441" s="621" t="s">
+      <c r="I441" s="560" t="s">
         <v>812</v>
       </c>
       <c r="J441"/>
@@ -65751,7 +66476,7 @@
       <c r="H442" s="227" t="s">
         <v>813</v>
       </c>
-      <c r="I442" s="621" t="s">
+      <c r="I442" s="560" t="s">
         <v>815</v>
       </c>
       <c r="J442"/>
@@ -65773,7 +66498,7 @@
       <c r="H443" s="227" t="s">
         <v>813</v>
       </c>
-      <c r="I443" s="621" t="s">
+      <c r="I443" s="560" t="s">
         <v>814</v>
       </c>
       <c r="J443"/>
@@ -65787,7 +66512,7 @@
       <c r="F444" s="146"/>
       <c r="G444" s="146"/>
       <c r="H444" s="227"/>
-      <c r="I444" s="621"/>
+      <c r="I444" s="560"/>
       <c r="J444"/>
     </row>
     <row r="445" spans="1:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -65807,43 +66532,43 @@
       <c r="H445" s="227" t="s">
         <v>757</v>
       </c>
-      <c r="I445" s="621"/>
+      <c r="I445" s="560"/>
       <c r="J445"/>
     </row>
     <row r="446" spans="1:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A446"/>
-      <c r="B446" s="281"/>
-      <c r="C446" s="225"/>
-      <c r="D446" s="225"/>
-      <c r="E446" s="226"/>
-      <c r="F446" s="146"/>
-      <c r="G446" s="146"/>
-      <c r="H446" s="227"/>
-      <c r="I446" s="621"/>
+      <c r="B446" s="277"/>
+      <c r="C446" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="D446" s="225" t="s">
+        <v>40</v>
+      </c>
+      <c r="E446" s="138"/>
+      <c r="F446" s="145">
+        <v>500000</v>
+      </c>
+      <c r="G446" s="145"/>
+      <c r="H446" s="296" t="s">
+        <v>912</v>
+      </c>
+      <c r="I446" s="558"/>
       <c r="J446"/>
     </row>
     <row r="447" spans="1:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A447"/>
-      <c r="B447" s="281">
-        <v>45084</v>
-      </c>
-      <c r="C447" s="225" t="s">
-        <v>47</v>
-      </c>
-      <c r="D447" s="225" t="s">
-        <v>816</v>
-      </c>
-      <c r="E447" s="226">
-        <v>30000</v>
-      </c>
-      <c r="F447" s="146"/>
-      <c r="G447" s="146"/>
-      <c r="H447" s="227" t="s">
-        <v>817</v>
-      </c>
-      <c r="I447" s="621" t="s">
-        <v>818</v>
-      </c>
+      <c r="B447" s="277"/>
+      <c r="C447" s="132"/>
+      <c r="D447" s="225"/>
+      <c r="E447" s="138">
+        <v>500000</v>
+      </c>
+      <c r="F447" s="145"/>
+      <c r="G447" s="145"/>
+      <c r="H447" s="296" t="s">
+        <v>913</v>
+      </c>
+      <c r="I447" s="558"/>
       <c r="J447"/>
     </row>
     <row r="448" spans="1:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -65855,30 +66580,30 @@
       <c r="F448" s="146"/>
       <c r="G448" s="146"/>
       <c r="H448" s="227"/>
-      <c r="I448" s="621"/>
+      <c r="I448" s="560"/>
       <c r="J448"/>
     </row>
     <row r="449" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A449"/>
       <c r="B449" s="281">
-        <v>45087</v>
-      </c>
-      <c r="C449" s="551" t="s">
+        <v>45084</v>
+      </c>
+      <c r="C449" s="225" t="s">
         <v>47</v>
       </c>
-      <c r="D449" s="551" t="s">
-        <v>809</v>
-      </c>
-      <c r="E449" s="551">
-        <v>70000</v>
-      </c>
-      <c r="F449" s="552"/>
-      <c r="G449" s="552"/>
-      <c r="H449" s="553" t="s">
-        <v>821</v>
-      </c>
-      <c r="I449" s="621" t="s">
-        <v>820</v>
+      <c r="D449" s="225" t="s">
+        <v>816</v>
+      </c>
+      <c r="E449" s="226">
+        <v>30000</v>
+      </c>
+      <c r="F449" s="146"/>
+      <c r="G449" s="146"/>
+      <c r="H449" s="227" t="s">
+        <v>817</v>
+      </c>
+      <c r="I449" s="560" t="s">
+        <v>818</v>
       </c>
       <c r="J449"/>
     </row>
@@ -65891,29 +66616,31 @@
       <c r="F450" s="146"/>
       <c r="G450" s="146"/>
       <c r="H450" s="227"/>
-      <c r="I450" s="621"/>
+      <c r="I450" s="560"/>
       <c r="J450"/>
     </row>
     <row r="451" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A451"/>
       <c r="B451" s="281">
-        <v>45089</v>
-      </c>
-      <c r="C451" s="225" t="s">
+        <v>45087</v>
+      </c>
+      <c r="C451" s="551" t="s">
         <v>47</v>
       </c>
-      <c r="D451" s="225" t="s">
-        <v>67</v>
-      </c>
-      <c r="E451" s="226">
-        <v>80000</v>
-      </c>
-      <c r="F451" s="146"/>
-      <c r="G451" s="146"/>
-      <c r="H451" s="227" t="s">
-        <v>822</v>
-      </c>
-      <c r="I451" s="621"/>
+      <c r="D451" s="551" t="s">
+        <v>809</v>
+      </c>
+      <c r="E451" s="551">
+        <v>70000</v>
+      </c>
+      <c r="F451" s="552"/>
+      <c r="G451" s="552"/>
+      <c r="H451" s="553" t="s">
+        <v>821</v>
+      </c>
+      <c r="I451" s="560" t="s">
+        <v>820</v>
+      </c>
       <c r="J451"/>
     </row>
     <row r="452" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -65925,29 +66652,29 @@
       <c r="F452" s="146"/>
       <c r="G452" s="146"/>
       <c r="H452" s="227"/>
-      <c r="I452" s="621"/>
+      <c r="I452" s="560"/>
       <c r="J452"/>
     </row>
     <row r="453" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A453"/>
       <c r="B453" s="281">
-        <v>45090</v>
-      </c>
-      <c r="C453" s="334" t="s">
-        <v>39</v>
-      </c>
-      <c r="D453" s="334" t="s">
-        <v>52</v>
-      </c>
-      <c r="E453" s="334"/>
-      <c r="F453" s="254">
-        <v>70000</v>
-      </c>
-      <c r="G453" s="254"/>
-      <c r="H453" s="255"/>
-      <c r="I453" s="621" t="s">
-        <v>823</v>
-      </c>
+        <v>45089</v>
+      </c>
+      <c r="C453" s="225" t="s">
+        <v>47</v>
+      </c>
+      <c r="D453" s="225" t="s">
+        <v>67</v>
+      </c>
+      <c r="E453" s="226">
+        <v>80000</v>
+      </c>
+      <c r="F453" s="146"/>
+      <c r="G453" s="146"/>
+      <c r="H453" s="227" t="s">
+        <v>822</v>
+      </c>
+      <c r="I453" s="560"/>
       <c r="J453"/>
     </row>
     <row r="454" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -65959,27 +66686,29 @@
       <c r="F454" s="146"/>
       <c r="G454" s="146"/>
       <c r="H454" s="227"/>
-      <c r="I454" s="621"/>
+      <c r="I454" s="560"/>
       <c r="J454"/>
     </row>
     <row r="455" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A455"/>
       <c r="B455" s="281">
-        <v>45092</v>
-      </c>
-      <c r="C455" s="225" t="s">
-        <v>41</v>
-      </c>
-      <c r="D455" s="225"/>
-      <c r="E455" s="226">
-        <v>300</v>
-      </c>
-      <c r="F455" s="146"/>
-      <c r="G455" s="146"/>
-      <c r="H455" s="227" t="s">
-        <v>824</v>
-      </c>
-      <c r="I455" s="621"/>
+        <v>45090</v>
+      </c>
+      <c r="C455" s="334" t="s">
+        <v>39</v>
+      </c>
+      <c r="D455" s="334" t="s">
+        <v>52</v>
+      </c>
+      <c r="E455" s="334"/>
+      <c r="F455" s="254">
+        <v>70000</v>
+      </c>
+      <c r="G455" s="254"/>
+      <c r="H455" s="255"/>
+      <c r="I455" s="560" t="s">
+        <v>823</v>
+      </c>
       <c r="J455"/>
     </row>
     <row r="456" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -65991,31 +66720,27 @@
       <c r="F456" s="146"/>
       <c r="G456" s="146"/>
       <c r="H456" s="227"/>
-      <c r="I456" s="621"/>
+      <c r="I456" s="560"/>
       <c r="J456"/>
     </row>
     <row r="457" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A457"/>
       <c r="B457" s="281">
-        <v>45097</v>
+        <v>45092</v>
       </c>
       <c r="C457" s="225" t="s">
-        <v>47</v>
-      </c>
-      <c r="D457" s="225" t="s">
-        <v>838</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="D457" s="225"/>
       <c r="E457" s="226">
-        <v>16000</v>
+        <v>300</v>
       </c>
       <c r="F457" s="146"/>
       <c r="G457" s="146"/>
       <c r="H457" s="227" t="s">
-        <v>825</v>
-      </c>
-      <c r="I457" s="621" t="s">
-        <v>826</v>
-      </c>
+        <v>824</v>
+      </c>
+      <c r="I457" s="560"/>
       <c r="J457"/>
     </row>
     <row r="458" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -66027,436 +66752,434 @@
       <c r="F458" s="146"/>
       <c r="G458" s="146"/>
       <c r="H458" s="227"/>
-      <c r="I458" s="621"/>
+      <c r="I458" s="560"/>
       <c r="J458"/>
     </row>
     <row r="459" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A459"/>
       <c r="B459" s="281">
-        <v>45109</v>
+        <v>45097</v>
       </c>
       <c r="C459" s="225" t="s">
-        <v>41</v>
-      </c>
-      <c r="D459" s="225"/>
+        <v>47</v>
+      </c>
+      <c r="D459" s="225" t="s">
+        <v>838</v>
+      </c>
       <c r="E459" s="226">
-        <v>720</v>
+        <v>16000</v>
       </c>
       <c r="F459" s="146"/>
       <c r="G459" s="146"/>
       <c r="H459" s="227" t="s">
-        <v>827</v>
-      </c>
-      <c r="I459" s="621"/>
+        <v>825</v>
+      </c>
+      <c r="I459" s="560" t="s">
+        <v>826</v>
+      </c>
       <c r="J459"/>
     </row>
     <row r="460" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A460"/>
       <c r="B460" s="281"/>
-      <c r="C460" s="225" t="s">
-        <v>41</v>
-      </c>
+      <c r="C460" s="225"/>
       <c r="D460" s="225"/>
-      <c r="E460" s="226">
-        <v>700</v>
-      </c>
+      <c r="E460" s="226"/>
       <c r="F460" s="146"/>
       <c r="G460" s="146"/>
-      <c r="H460" s="227" t="s">
-        <v>828</v>
-      </c>
-      <c r="I460" s="621"/>
+      <c r="H460" s="227"/>
+      <c r="I460" s="560"/>
       <c r="J460"/>
     </row>
     <row r="461" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A461"/>
-      <c r="B461" s="277"/>
-      <c r="C461" s="132"/>
+      <c r="B461" s="281">
+        <v>45109</v>
+      </c>
+      <c r="C461" s="225" t="s">
+        <v>41</v>
+      </c>
       <c r="D461" s="225"/>
-      <c r="E461" s="138"/>
-      <c r="F461" s="145"/>
-      <c r="G461" s="145"/>
-      <c r="H461" s="195"/>
-      <c r="I461" s="619"/>
+      <c r="E461" s="226">
+        <v>720</v>
+      </c>
+      <c r="F461" s="146"/>
+      <c r="G461" s="146"/>
+      <c r="H461" s="227" t="s">
+        <v>827</v>
+      </c>
+      <c r="I461" s="560"/>
       <c r="J461"/>
     </row>
     <row r="462" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A462"/>
-      <c r="B462" s="281">
-        <v>45111</v>
-      </c>
+      <c r="B462" s="281"/>
       <c r="C462" s="225" t="s">
         <v>41</v>
       </c>
       <c r="D462" s="225"/>
       <c r="E462" s="226">
-        <v>480</v>
+        <v>700</v>
       </c>
       <c r="F462" s="146"/>
       <c r="G462" s="146"/>
       <c r="H462" s="227" t="s">
-        <v>829</v>
-      </c>
-      <c r="I462" s="621"/>
+        <v>828</v>
+      </c>
+      <c r="I462" s="560"/>
       <c r="J462"/>
     </row>
     <row r="463" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A463"/>
       <c r="B463" s="277"/>
-      <c r="C463" s="132" t="s">
-        <v>41</v>
-      </c>
+      <c r="C463" s="132"/>
       <c r="D463" s="225"/>
-      <c r="E463" s="138">
-        <v>4500</v>
-      </c>
+      <c r="E463" s="138"/>
       <c r="F463" s="145"/>
       <c r="G463" s="145"/>
-      <c r="H463" s="195" t="s">
-        <v>830</v>
-      </c>
-      <c r="I463" s="619"/>
+      <c r="H463" s="195"/>
+      <c r="I463" s="558"/>
       <c r="J463"/>
     </row>
     <row r="464" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A464"/>
-      <c r="B464" s="281"/>
+      <c r="B464" s="281">
+        <v>45111</v>
+      </c>
       <c r="C464" s="225" t="s">
-        <v>47</v>
-      </c>
-      <c r="D464" s="225" t="s">
-        <v>290</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="D464" s="225"/>
       <c r="E464" s="226">
-        <v>43200</v>
+        <v>480</v>
       </c>
       <c r="F464" s="146"/>
       <c r="G464" s="146"/>
       <c r="H464" s="227" t="s">
-        <v>831</v>
-      </c>
-      <c r="I464" s="621" t="s">
-        <v>833</v>
-      </c>
+        <v>829</v>
+      </c>
+      <c r="I464" s="560"/>
       <c r="J464"/>
     </row>
     <row r="465" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A465"/>
-      <c r="B465" s="281"/>
-      <c r="C465" s="225" t="s">
-        <v>47</v>
-      </c>
-      <c r="D465" s="225" t="s">
-        <v>569</v>
-      </c>
-      <c r="E465" s="226">
-        <v>43200</v>
-      </c>
-      <c r="F465" s="146"/>
-      <c r="G465" s="146"/>
-      <c r="H465" s="227" t="s">
-        <v>831</v>
-      </c>
-      <c r="I465" s="621" t="s">
-        <v>832</v>
-      </c>
+      <c r="B465" s="277"/>
+      <c r="C465" s="132" t="s">
+        <v>41</v>
+      </c>
+      <c r="D465" s="225"/>
+      <c r="E465" s="138">
+        <v>4500</v>
+      </c>
+      <c r="F465" s="145"/>
+      <c r="G465" s="145"/>
+      <c r="H465" s="195" t="s">
+        <v>830</v>
+      </c>
+      <c r="I465" s="558"/>
       <c r="J465"/>
     </row>
     <row r="466" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A466"/>
       <c r="B466" s="281"/>
-      <c r="C466" s="225"/>
-      <c r="D466" s="225"/>
-      <c r="E466" s="226"/>
+      <c r="C466" s="225" t="s">
+        <v>47</v>
+      </c>
+      <c r="D466" s="225" t="s">
+        <v>290</v>
+      </c>
+      <c r="E466" s="226">
+        <v>43200</v>
+      </c>
       <c r="F466" s="146"/>
       <c r="G466" s="146"/>
-      <c r="H466" s="227"/>
-      <c r="I466" s="621"/>
+      <c r="H466" s="227" t="s">
+        <v>831</v>
+      </c>
+      <c r="I466" s="560" t="s">
+        <v>833</v>
+      </c>
       <c r="J466"/>
     </row>
     <row r="467" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A467"/>
       <c r="B467" s="281"/>
-      <c r="C467" s="225"/>
-      <c r="D467" s="225"/>
-      <c r="E467" s="226"/>
+      <c r="C467" s="225" t="s">
+        <v>47</v>
+      </c>
+      <c r="D467" s="225" t="s">
+        <v>569</v>
+      </c>
+      <c r="E467" s="226">
+        <v>43200</v>
+      </c>
       <c r="F467" s="146"/>
       <c r="G467" s="146"/>
-      <c r="H467" s="227"/>
-      <c r="I467" s="621"/>
+      <c r="H467" s="227" t="s">
+        <v>831</v>
+      </c>
+      <c r="I467" s="560" t="s">
+        <v>832</v>
+      </c>
       <c r="J467"/>
     </row>
     <row r="468" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A468"/>
-      <c r="B468" s="281">
-        <v>45115</v>
-      </c>
-      <c r="C468" s="225" t="s">
-        <v>41</v>
-      </c>
+      <c r="B468" s="281"/>
+      <c r="C468" s="225"/>
       <c r="D468" s="225"/>
-      <c r="E468" s="226">
-        <v>1070</v>
-      </c>
+      <c r="E468" s="226"/>
       <c r="F468" s="146"/>
       <c r="G468" s="146"/>
-      <c r="H468" s="227" t="s">
-        <v>834</v>
-      </c>
-      <c r="I468" s="621"/>
+      <c r="H468" s="227"/>
+      <c r="I468" s="560"/>
       <c r="J468"/>
     </row>
     <row r="469" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A469"/>
       <c r="B469" s="281"/>
-      <c r="C469" s="334" t="s">
-        <v>39</v>
-      </c>
-      <c r="D469" s="334" t="s">
-        <v>52</v>
-      </c>
-      <c r="E469" s="334"/>
-      <c r="F469" s="254">
-        <v>200000</v>
-      </c>
-      <c r="G469" s="254"/>
-      <c r="H469" s="255" t="s">
-        <v>837</v>
-      </c>
-      <c r="I469" s="621"/>
+      <c r="C469" s="225"/>
+      <c r="D469" s="225"/>
+      <c r="E469" s="226"/>
+      <c r="F469" s="146"/>
+      <c r="G469" s="146"/>
+      <c r="H469" s="227"/>
+      <c r="I469" s="560"/>
       <c r="J469"/>
     </row>
     <row r="470" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A470"/>
-      <c r="B470" s="277"/>
-      <c r="C470" s="132" t="s">
-        <v>44</v>
-      </c>
-      <c r="D470" s="225" t="s">
-        <v>839</v>
-      </c>
-      <c r="E470" s="138">
-        <v>6000</v>
-      </c>
-      <c r="F470" s="145"/>
-      <c r="G470" s="145"/>
-      <c r="H470" s="195" t="s">
-        <v>246</v>
-      </c>
-      <c r="I470" s="619"/>
+      <c r="B470" s="281">
+        <v>45115</v>
+      </c>
+      <c r="C470" s="225" t="s">
+        <v>41</v>
+      </c>
+      <c r="D470" s="225"/>
+      <c r="E470" s="226">
+        <v>1070</v>
+      </c>
+      <c r="F470" s="146"/>
+      <c r="G470" s="146"/>
+      <c r="H470" s="227" t="s">
+        <v>834</v>
+      </c>
+      <c r="I470" s="560"/>
       <c r="J470"/>
     </row>
     <row r="471" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A471"/>
-      <c r="B471" s="277"/>
-      <c r="C471" s="132"/>
-      <c r="D471" s="225"/>
-      <c r="E471" s="138"/>
-      <c r="F471" s="145"/>
-      <c r="G471" s="145"/>
-      <c r="H471" s="195"/>
-      <c r="I471" s="619"/>
+      <c r="B471" s="281"/>
+      <c r="C471" s="334" t="s">
+        <v>39</v>
+      </c>
+      <c r="D471" s="334" t="s">
+        <v>52</v>
+      </c>
+      <c r="E471" s="334"/>
+      <c r="F471" s="254">
+        <v>200000</v>
+      </c>
+      <c r="G471" s="254"/>
+      <c r="H471" s="255" t="s">
+        <v>837</v>
+      </c>
+      <c r="I471" s="560"/>
       <c r="J471"/>
     </row>
     <row r="472" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B472" s="281">
+      <c r="A472"/>
+      <c r="B472" s="277"/>
+      <c r="C472" s="132" t="s">
+        <v>44</v>
+      </c>
+      <c r="D472" s="225" t="s">
+        <v>839</v>
+      </c>
+      <c r="E472" s="138">
+        <v>6000</v>
+      </c>
+      <c r="F472" s="145"/>
+      <c r="G472" s="145"/>
+      <c r="H472" s="195" t="s">
+        <v>246</v>
+      </c>
+      <c r="I472" s="558"/>
+      <c r="J472"/>
+    </row>
+    <row r="473" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A473"/>
+      <c r="B473" s="277"/>
+      <c r="C473" s="132"/>
+      <c r="D473" s="225"/>
+      <c r="E473" s="138"/>
+      <c r="F473" s="145"/>
+      <c r="G473" s="145"/>
+      <c r="H473" s="195"/>
+      <c r="I473" s="558"/>
+      <c r="J473"/>
+    </row>
+    <row r="474" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B474" s="281">
         <v>45116</v>
       </c>
-      <c r="C472" s="225" t="s">
+      <c r="C474" s="225" t="s">
         <v>41</v>
       </c>
-      <c r="D472" s="225"/>
-      <c r="E472" s="226">
+      <c r="D474" s="225"/>
+      <c r="E474" s="226">
         <v>450</v>
       </c>
-      <c r="F472" s="146"/>
-      <c r="G472" s="146"/>
-      <c r="H472" s="227" t="s">
-        <v>835</v>
-      </c>
-      <c r="I472" s="621" t="s">
-        <v>836</v>
-      </c>
-      <c r="J472"/>
-    </row>
-    <row r="473" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B473" s="281"/>
-      <c r="C473" s="225" t="s">
-        <v>47</v>
-      </c>
-      <c r="D473" s="225" t="s">
-        <v>842</v>
-      </c>
-      <c r="E473" s="226">
-        <v>151650</v>
-      </c>
-      <c r="F473" s="146"/>
-      <c r="G473" s="146"/>
-      <c r="H473" s="227" t="s">
-        <v>840</v>
-      </c>
-      <c r="I473" s="621" t="s">
-        <v>841</v>
-      </c>
-      <c r="J473"/>
-    </row>
-    <row r="474" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B474" s="281"/>
-      <c r="C474" s="225"/>
-      <c r="D474" s="225"/>
-      <c r="E474" s="226"/>
       <c r="F474" s="146"/>
       <c r="G474" s="146"/>
-      <c r="H474" s="227"/>
-      <c r="I474" s="621"/>
+      <c r="H474" s="227" t="s">
+        <v>835</v>
+      </c>
+      <c r="I474" s="560" t="s">
+        <v>836</v>
+      </c>
       <c r="J474"/>
     </row>
     <row r="475" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B475" s="281">
-        <v>45117</v>
-      </c>
+      <c r="B475" s="281"/>
       <c r="C475" s="225" t="s">
-        <v>41</v>
-      </c>
-      <c r="D475" s="225"/>
+        <v>47</v>
+      </c>
+      <c r="D475" s="225" t="s">
+        <v>842</v>
+      </c>
       <c r="E475" s="226">
-        <v>200</v>
+        <v>151650</v>
       </c>
       <c r="F475" s="146"/>
       <c r="G475" s="146"/>
       <c r="H475" s="227" t="s">
-        <v>843</v>
-      </c>
-      <c r="I475" s="621"/>
+        <v>840</v>
+      </c>
+      <c r="I475" s="560" t="s">
+        <v>841</v>
+      </c>
       <c r="J475"/>
     </row>
     <row r="476" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B476" s="281"/>
-      <c r="C476" s="225" t="s">
-        <v>41</v>
-      </c>
+      <c r="C476" s="225"/>
       <c r="D476" s="225"/>
-      <c r="E476" s="226">
-        <v>280</v>
-      </c>
+      <c r="E476" s="226"/>
       <c r="F476" s="146"/>
       <c r="G476" s="146"/>
-      <c r="H476" s="227" t="s">
-        <v>174</v>
-      </c>
-      <c r="I476" s="621"/>
+      <c r="H476" s="227"/>
+      <c r="I476" s="560"/>
       <c r="J476"/>
     </row>
     <row r="477" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B477" s="281"/>
+      <c r="B477" s="281">
+        <v>45117</v>
+      </c>
       <c r="C477" s="225" t="s">
         <v>41</v>
       </c>
       <c r="D477" s="225"/>
       <c r="E477" s="226">
-        <v>4800</v>
+        <v>200</v>
       </c>
       <c r="F477" s="146"/>
       <c r="G477" s="146"/>
       <c r="H477" s="227" t="s">
-        <v>844</v>
-      </c>
-      <c r="I477" s="621" t="s">
-        <v>845</v>
-      </c>
+        <v>843</v>
+      </c>
+      <c r="I477" s="560"/>
       <c r="J477"/>
     </row>
     <row r="478" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B478" s="281" t="s">
-        <v>193</v>
-      </c>
+      <c r="B478" s="281"/>
       <c r="C478" s="225" t="s">
-        <v>47</v>
-      </c>
-      <c r="D478" s="225" t="s">
-        <v>816</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="D478" s="225"/>
       <c r="E478" s="226">
-        <v>27000</v>
+        <v>280</v>
       </c>
       <c r="F478" s="146"/>
       <c r="G478" s="146"/>
       <c r="H478" s="227" t="s">
-        <v>846</v>
-      </c>
-      <c r="I478" s="621"/>
+        <v>174</v>
+      </c>
+      <c r="I478" s="560"/>
       <c r="J478"/>
     </row>
     <row r="479" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B479" s="281"/>
-      <c r="C479" s="225"/>
+      <c r="C479" s="225" t="s">
+        <v>41</v>
+      </c>
       <c r="D479" s="225"/>
-      <c r="E479" s="226"/>
+      <c r="E479" s="226">
+        <v>4800</v>
+      </c>
       <c r="F479" s="146"/>
       <c r="G479" s="146"/>
-      <c r="H479" s="227"/>
-      <c r="I479" s="621"/>
+      <c r="H479" s="227" t="s">
+        <v>844</v>
+      </c>
+      <c r="I479" s="560" t="s">
+        <v>845</v>
+      </c>
       <c r="J479"/>
     </row>
     <row r="480" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B480" s="281">
-        <v>45118</v>
-      </c>
-      <c r="C480" s="334" t="s">
-        <v>39</v>
-      </c>
-      <c r="D480" s="334" t="s">
-        <v>52</v>
-      </c>
-      <c r="E480" s="334"/>
-      <c r="F480" s="254">
-        <v>3983000</v>
-      </c>
-      <c r="G480" s="254"/>
-      <c r="H480" s="255" t="s">
-        <v>847</v>
-      </c>
-      <c r="I480" s="622" t="s">
-        <v>876</v>
-      </c>
+      <c r="B480" s="281" t="s">
+        <v>193</v>
+      </c>
+      <c r="C480" s="225" t="s">
+        <v>47</v>
+      </c>
+      <c r="D480" s="225" t="s">
+        <v>816</v>
+      </c>
+      <c r="E480" s="226">
+        <v>27000</v>
+      </c>
+      <c r="F480" s="146"/>
+      <c r="G480" s="146"/>
+      <c r="H480" s="227" t="s">
+        <v>846</v>
+      </c>
+      <c r="I480" s="560"/>
       <c r="J480"/>
     </row>
     <row r="481" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B481" s="281"/>
-      <c r="C481" s="225" t="s">
-        <v>47</v>
-      </c>
-      <c r="D481" s="225" t="s">
-        <v>848</v>
-      </c>
-      <c r="E481" s="146">
-        <v>1250000</v>
-      </c>
-      <c r="F481" s="145"/>
+      <c r="C481" s="225"/>
+      <c r="D481" s="225"/>
+      <c r="E481" s="226"/>
+      <c r="F481" s="146"/>
       <c r="G481" s="146"/>
-      <c r="H481" s="227" t="s">
-        <v>849</v>
-      </c>
-      <c r="I481" s="621"/>
+      <c r="H481" s="227"/>
+      <c r="I481" s="560"/>
       <c r="J481"/>
     </row>
     <row r="482" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B482" s="281"/>
-      <c r="C482" s="225" t="s">
-        <v>47</v>
-      </c>
-      <c r="D482" s="225" t="s">
-        <v>850</v>
-      </c>
-      <c r="E482" s="146">
-        <v>1250000</v>
-      </c>
-      <c r="F482" s="146"/>
-      <c r="G482" s="146"/>
-      <c r="H482" s="227" t="s">
-        <v>851</v>
-      </c>
-      <c r="I482" s="621"/>
+      <c r="B482" s="281">
+        <v>45118</v>
+      </c>
+      <c r="C482" s="334" t="s">
+        <v>39</v>
+      </c>
+      <c r="D482" s="334" t="s">
+        <v>52</v>
+      </c>
+      <c r="E482" s="334"/>
+      <c r="F482" s="254">
+        <v>3983000</v>
+      </c>
+      <c r="G482" s="254"/>
+      <c r="H482" s="255" t="s">
+        <v>847</v>
+      </c>
+      <c r="I482" s="561" t="s">
+        <v>876</v>
+      </c>
       <c r="J482"/>
     </row>
     <row r="483" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -66465,17 +67188,17 @@
         <v>47</v>
       </c>
       <c r="D483" s="225" t="s">
-        <v>852</v>
-      </c>
-      <c r="E483" s="226">
-        <v>1000000</v>
-      </c>
-      <c r="F483" s="146"/>
+        <v>848</v>
+      </c>
+      <c r="E483" s="146">
+        <v>1250000</v>
+      </c>
+      <c r="F483" s="145"/>
       <c r="G483" s="146"/>
       <c r="H483" s="227" t="s">
-        <v>853</v>
-      </c>
-      <c r="I483" s="621"/>
+        <v>849</v>
+      </c>
+      <c r="I483" s="560"/>
       <c r="J483"/>
     </row>
     <row r="484" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -66484,17 +67207,17 @@
         <v>47</v>
       </c>
       <c r="D484" s="225" t="s">
-        <v>854</v>
-      </c>
-      <c r="E484" s="226">
-        <v>200000</v>
+        <v>850</v>
+      </c>
+      <c r="E484" s="146">
+        <v>1250000</v>
       </c>
       <c r="F484" s="146"/>
       <c r="G484" s="146"/>
       <c r="H484" s="227" t="s">
-        <v>853</v>
-      </c>
-      <c r="I484" s="621"/>
+        <v>851</v>
+      </c>
+      <c r="I484" s="560"/>
       <c r="J484"/>
     </row>
     <row r="485" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -66503,17 +67226,17 @@
         <v>47</v>
       </c>
       <c r="D485" s="225" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="E485" s="226">
-        <v>215400</v>
+        <v>1000000</v>
       </c>
       <c r="F485" s="146"/>
       <c r="G485" s="146"/>
       <c r="H485" s="227" t="s">
-        <v>855</v>
-      </c>
-      <c r="I485" s="621"/>
+        <v>853</v>
+      </c>
+      <c r="I485" s="560"/>
       <c r="J485"/>
     </row>
     <row r="486" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -66522,102 +67245,110 @@
         <v>47</v>
       </c>
       <c r="D486" s="225" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="E486" s="226">
-        <v>6000</v>
+        <v>200000</v>
       </c>
       <c r="F486" s="146"/>
       <c r="G486" s="146"/>
       <c r="H486" s="227" t="s">
-        <v>858</v>
-      </c>
-      <c r="I486" s="621" t="s">
-        <v>859</v>
-      </c>
+        <v>853</v>
+      </c>
+      <c r="I486" s="560"/>
       <c r="J486"/>
     </row>
     <row r="487" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B487" s="281"/>
-      <c r="C487" s="225"/>
-      <c r="D487" s="225"/>
-      <c r="E487" s="226"/>
+      <c r="C487" s="225" t="s">
+        <v>47</v>
+      </c>
+      <c r="D487" s="225" t="s">
+        <v>856</v>
+      </c>
+      <c r="E487" s="226">
+        <v>215400</v>
+      </c>
       <c r="F487" s="146"/>
       <c r="G487" s="146"/>
-      <c r="H487" s="227"/>
-      <c r="I487" s="621"/>
+      <c r="H487" s="227" t="s">
+        <v>855</v>
+      </c>
+      <c r="I487" s="560"/>
       <c r="J487"/>
     </row>
     <row r="488" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B488" s="281">
-        <v>45119</v>
-      </c>
+      <c r="B488" s="281"/>
       <c r="C488" s="225" t="s">
         <v>47</v>
       </c>
       <c r="D488" s="225" t="s">
-        <v>395</v>
+        <v>857</v>
       </c>
       <c r="E488" s="226">
-        <v>18400</v>
+        <v>6000</v>
       </c>
       <c r="F488" s="146"/>
       <c r="G488" s="146"/>
       <c r="H488" s="227" t="s">
-        <v>396</v>
-      </c>
-      <c r="I488" s="621">
-        <v>18400</v>
+        <v>858</v>
+      </c>
+      <c r="I488" s="560" t="s">
+        <v>859</v>
       </c>
       <c r="J488"/>
     </row>
     <row r="489" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B489" s="281"/>
-      <c r="C489" s="225" t="s">
-        <v>47</v>
-      </c>
-      <c r="D489" s="225" t="s">
-        <v>67</v>
-      </c>
-      <c r="E489" s="226">
-        <v>80000</v>
-      </c>
+      <c r="C489" s="225"/>
+      <c r="D489" s="225"/>
+      <c r="E489" s="226"/>
       <c r="F489" s="146"/>
       <c r="G489" s="146"/>
-      <c r="H489" s="227" t="s">
-        <v>860</v>
-      </c>
-      <c r="I489" s="621"/>
+      <c r="H489" s="227"/>
+      <c r="I489" s="560"/>
       <c r="J489"/>
     </row>
     <row r="490" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B490" s="281"/>
-      <c r="C490" s="225"/>
-      <c r="D490" s="225"/>
-      <c r="E490" s="226"/>
+      <c r="B490" s="281">
+        <v>45119</v>
+      </c>
+      <c r="C490" s="225" t="s">
+        <v>47</v>
+      </c>
+      <c r="D490" s="225" t="s">
+        <v>395</v>
+      </c>
+      <c r="E490" s="226">
+        <v>18400</v>
+      </c>
       <c r="F490" s="146"/>
       <c r="G490" s="146"/>
-      <c r="H490" s="227"/>
-      <c r="I490" s="621"/>
+      <c r="H490" s="227" t="s">
+        <v>396</v>
+      </c>
+      <c r="I490" s="560">
+        <v>18400</v>
+      </c>
       <c r="J490"/>
     </row>
     <row r="491" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B491" s="281">
-        <v>45120</v>
-      </c>
+      <c r="B491" s="281"/>
       <c r="C491" s="225" t="s">
-        <v>868</v>
-      </c>
-      <c r="D491" s="225"/>
+        <v>47</v>
+      </c>
+      <c r="D491" s="225" t="s">
+        <v>67</v>
+      </c>
       <c r="E491" s="226">
-        <v>200</v>
+        <v>80000</v>
       </c>
       <c r="F491" s="146"/>
       <c r="G491" s="146"/>
       <c r="H491" s="227" t="s">
-        <v>861</v>
-      </c>
-      <c r="I491" s="621"/>
+        <v>860</v>
+      </c>
+      <c r="I491" s="560"/>
       <c r="J491"/>
     </row>
     <row r="492" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -66628,1233 +67359,2264 @@
       <c r="F492" s="146"/>
       <c r="G492" s="146"/>
       <c r="H492" s="227"/>
-      <c r="I492" s="621"/>
+      <c r="I492" s="560"/>
       <c r="J492"/>
     </row>
     <row r="493" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B493" s="281">
-        <v>45122</v>
+        <v>45120</v>
       </c>
       <c r="C493" s="225" t="s">
-        <v>41</v>
+        <v>868</v>
       </c>
       <c r="D493" s="225"/>
       <c r="E493" s="226">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="F493" s="146"/>
       <c r="G493" s="146"/>
       <c r="H493" s="227" t="s">
-        <v>757</v>
-      </c>
-      <c r="I493" s="621"/>
+        <v>861</v>
+      </c>
+      <c r="I493" s="560"/>
       <c r="J493"/>
     </row>
     <row r="494" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B494" s="281"/>
-      <c r="C494" s="225" t="s">
-        <v>193</v>
-      </c>
+      <c r="C494" s="225"/>
       <c r="D494" s="225"/>
       <c r="E494" s="226"/>
       <c r="F494" s="146"/>
       <c r="G494" s="146"/>
       <c r="H494" s="227"/>
-      <c r="I494" s="621"/>
+      <c r="I494" s="560"/>
       <c r="J494"/>
-      <c r="L494" s="46">
-        <v>1500000</v>
-      </c>
     </row>
     <row r="495" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B495" s="281">
-        <v>45123</v>
+        <v>45122</v>
       </c>
       <c r="C495" s="225" t="s">
-        <v>44</v>
-      </c>
-      <c r="D495" s="225" t="s">
-        <v>862</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="D495" s="225"/>
       <c r="E495" s="226">
-        <v>57000</v>
+        <v>1000</v>
       </c>
       <c r="F495" s="146"/>
       <c r="G495" s="146"/>
       <c r="H495" s="227" t="s">
-        <v>863</v>
-      </c>
-      <c r="I495" s="621" t="s">
-        <v>864</v>
-      </c>
+        <v>757</v>
+      </c>
+      <c r="I495" s="560"/>
       <c r="J495"/>
-      <c r="K495" s="615" t="s">
-        <v>871</v>
-      </c>
-      <c r="L495" s="46">
-        <v>400000</v>
-      </c>
     </row>
     <row r="496" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B496" s="281"/>
       <c r="C496" s="225" t="s">
-        <v>47</v>
-      </c>
-      <c r="D496" s="225" t="s">
-        <v>865</v>
-      </c>
-      <c r="E496" s="226">
-        <v>170000</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="D496" s="225"/>
+      <c r="E496" s="226"/>
       <c r="F496" s="146"/>
       <c r="G496" s="146"/>
-      <c r="H496" s="227" t="s">
-        <v>866</v>
-      </c>
-      <c r="I496" s="621"/>
+      <c r="H496" s="227"/>
+      <c r="I496" s="560"/>
       <c r="J496"/>
-      <c r="K496" s="615" t="s">
-        <v>872</v>
-      </c>
       <c r="L496" s="46">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="497" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B497" s="281">
+        <v>45123</v>
+      </c>
+      <c r="C497" s="225" t="s">
+        <v>44</v>
+      </c>
+      <c r="D497" s="225" t="s">
+        <v>862</v>
+      </c>
+      <c r="E497" s="226">
+        <v>57000</v>
+      </c>
+      <c r="F497" s="146"/>
+      <c r="G497" s="146"/>
+      <c r="H497" s="227" t="s">
+        <v>863</v>
+      </c>
+      <c r="I497" s="560" t="s">
+        <v>864</v>
+      </c>
+      <c r="J497"/>
+      <c r="K497" s="554" t="s">
+        <v>871</v>
+      </c>
+      <c r="L497" s="46">
         <v>400000</v>
-      </c>
-    </row>
-    <row r="497" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B497" s="281"/>
-      <c r="C497" s="334" t="s">
-        <v>39</v>
-      </c>
-      <c r="D497" s="334" t="s">
-        <v>867</v>
-      </c>
-      <c r="E497" s="334"/>
-      <c r="F497" s="254">
-        <v>500000</v>
-      </c>
-      <c r="G497" s="254"/>
-      <c r="H497" s="255"/>
-      <c r="I497" s="622"/>
-      <c r="J497"/>
-      <c r="K497" s="615" t="s">
-        <v>873</v>
-      </c>
-      <c r="L497" s="46">
-        <v>350000</v>
       </c>
     </row>
     <row r="498" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B498" s="281"/>
-      <c r="C498" s="225"/>
-      <c r="D498" s="225"/>
-      <c r="E498" s="226"/>
+      <c r="C498" s="225" t="s">
+        <v>47</v>
+      </c>
+      <c r="D498" s="225" t="s">
+        <v>865</v>
+      </c>
+      <c r="E498" s="226">
+        <v>170000</v>
+      </c>
       <c r="F498" s="146"/>
       <c r="G498" s="146"/>
-      <c r="H498" s="227"/>
-      <c r="I498" s="621"/>
+      <c r="H498" s="227" t="s">
+        <v>866</v>
+      </c>
+      <c r="I498" s="560"/>
       <c r="J498"/>
-    </row>
-    <row r="499" spans="2:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B499" s="281">
-        <v>45124</v>
-      </c>
+      <c r="K498" s="554" t="s">
+        <v>872</v>
+      </c>
+      <c r="L498" s="46">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="499" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B499" s="281"/>
       <c r="C499" s="334" t="s">
         <v>39</v>
       </c>
       <c r="D499" s="334" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="E499" s="334"/>
       <c r="F499" s="254">
-        <v>1500000</v>
+        <v>500000</v>
       </c>
       <c r="G499" s="254"/>
-      <c r="H499" s="255" t="s">
-        <v>870</v>
-      </c>
-      <c r="I499" s="622"/>
+      <c r="H499" s="255"/>
+      <c r="I499" s="561"/>
       <c r="J499"/>
-    </row>
-    <row r="500" spans="2:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K499" s="554" t="s">
+        <v>873</v>
+      </c>
+      <c r="L499" s="46">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="500" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B500" s="281"/>
-      <c r="C500" s="225" t="s">
-        <v>47</v>
-      </c>
-      <c r="D500" s="225" t="s">
-        <v>440</v>
-      </c>
-      <c r="E500" s="226">
-        <v>400000</v>
-      </c>
+      <c r="C500" s="225"/>
+      <c r="D500" s="225"/>
+      <c r="E500" s="226"/>
       <c r="F500" s="146"/>
       <c r="G500" s="146"/>
-      <c r="H500" s="227" t="s">
-        <v>874</v>
-      </c>
-      <c r="I500" s="621"/>
+      <c r="H500" s="227"/>
+      <c r="I500" s="560"/>
       <c r="J500"/>
     </row>
-    <row r="501" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B501" s="281"/>
-      <c r="C501" s="225" t="s">
-        <v>47</v>
-      </c>
-      <c r="D501" s="225" t="s">
-        <v>850</v>
-      </c>
-      <c r="E501" s="226">
-        <v>400000</v>
-      </c>
-      <c r="F501" s="146"/>
-      <c r="G501" s="146"/>
-      <c r="H501" s="227" t="s">
-        <v>875</v>
-      </c>
-      <c r="I501" s="621"/>
+    <row r="501" spans="2:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B501" s="281">
+        <v>45124</v>
+      </c>
+      <c r="C501" s="334" t="s">
+        <v>39</v>
+      </c>
+      <c r="D501" s="334" t="s">
+        <v>869</v>
+      </c>
+      <c r="E501" s="334"/>
+      <c r="F501" s="254">
+        <v>1500000</v>
+      </c>
+      <c r="G501" s="254"/>
+      <c r="H501" s="255" t="s">
+        <v>870</v>
+      </c>
+      <c r="I501" s="561"/>
       <c r="J501"/>
     </row>
-    <row r="502" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="2:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B502" s="281"/>
       <c r="C502" s="225" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="D502" s="225" t="s">
-        <v>878</v>
+        <v>440</v>
       </c>
       <c r="E502" s="226">
-        <v>3600</v>
+        <v>400000</v>
       </c>
       <c r="F502" s="146"/>
       <c r="G502" s="146"/>
       <c r="H502" s="227" t="s">
-        <v>879</v>
-      </c>
-      <c r="I502" s="621" t="s">
-        <v>880</v>
-      </c>
-      <c r="J502"/>
+        <v>874</v>
+      </c>
+      <c r="I502" s="560"/>
+      <c r="J502">
+        <f>1250000+1000000+1250000+200000</f>
+        <v>3700000</v>
+      </c>
     </row>
     <row r="503" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B503" s="281"/>
-      <c r="C503" s="225"/>
-      <c r="D503" s="225"/>
-      <c r="E503" s="226"/>
+      <c r="C503" s="225" t="s">
+        <v>47</v>
+      </c>
+      <c r="D503" s="225" t="s">
+        <v>850</v>
+      </c>
+      <c r="E503" s="226">
+        <v>400000</v>
+      </c>
       <c r="F503" s="146"/>
       <c r="G503" s="146"/>
-      <c r="H503" s="227"/>
-      <c r="I503" s="621"/>
+      <c r="H503" s="227" t="s">
+        <v>875</v>
+      </c>
+      <c r="I503" s="560"/>
       <c r="J503"/>
     </row>
-    <row r="504" spans="2:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B504" s="525" t="s">
+    <row r="504" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B504" s="281"/>
+      <c r="C504" s="225" t="s">
+        <v>71</v>
+      </c>
+      <c r="D504" s="225" t="s">
+        <v>878</v>
+      </c>
+      <c r="E504" s="226">
+        <v>3600</v>
+      </c>
+      <c r="F504" s="146"/>
+      <c r="G504" s="146"/>
+      <c r="H504" s="227" t="s">
+        <v>879</v>
+      </c>
+      <c r="I504" s="560" t="s">
+        <v>880</v>
+      </c>
+      <c r="J504"/>
+    </row>
+    <row r="505" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B505" s="281"/>
+      <c r="C505" s="225"/>
+      <c r="D505" s="225"/>
+      <c r="E505" s="226"/>
+      <c r="F505" s="146"/>
+      <c r="G505" s="146"/>
+      <c r="H505" s="227"/>
+      <c r="I505" s="560"/>
+      <c r="J505"/>
+    </row>
+    <row r="506" spans="2:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B506" s="281">
+        <v>45125</v>
+      </c>
+      <c r="C506" s="225" t="s">
+        <v>47</v>
+      </c>
+      <c r="D506" s="225" t="s">
+        <v>886</v>
+      </c>
+      <c r="E506" s="226">
+        <v>357000</v>
+      </c>
+      <c r="F506" s="146"/>
+      <c r="G506" s="146"/>
+      <c r="H506" s="290" t="s">
+        <v>887</v>
+      </c>
+      <c r="I506" s="560">
+        <f>(20.22+27.38)*7500</f>
+        <v>356999.99999999994</v>
+      </c>
+      <c r="J506"/>
+    </row>
+    <row r="507" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B507" s="281"/>
+      <c r="C507" s="225"/>
+      <c r="D507" s="225"/>
+      <c r="E507" s="226"/>
+      <c r="F507" s="146"/>
+      <c r="G507" s="146"/>
+      <c r="H507" s="290"/>
+      <c r="I507" s="560"/>
+      <c r="J507"/>
+    </row>
+    <row r="508" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B508" s="281">
+        <v>45127</v>
+      </c>
+      <c r="C508" s="225" t="s">
+        <v>47</v>
+      </c>
+      <c r="D508" s="225" t="s">
+        <v>862</v>
+      </c>
+      <c r="E508" s="226">
+        <v>22000</v>
+      </c>
+      <c r="F508" s="146"/>
+      <c r="G508" s="146"/>
+      <c r="H508" s="290" t="s">
+        <v>881</v>
+      </c>
+      <c r="I508" s="560"/>
+      <c r="J508"/>
+    </row>
+    <row r="509" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B509" s="281"/>
+      <c r="C509" s="225" t="s">
+        <v>47</v>
+      </c>
+      <c r="D509" s="225" t="s">
+        <v>816</v>
+      </c>
+      <c r="E509" s="226">
+        <v>17000</v>
+      </c>
+      <c r="F509" s="146"/>
+      <c r="G509" s="146"/>
+      <c r="H509" s="290" t="s">
+        <v>882</v>
+      </c>
+      <c r="I509" s="560" t="s">
+        <v>883</v>
+      </c>
+      <c r="J509"/>
+    </row>
+    <row r="510" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B510" s="281"/>
+      <c r="C510" s="225" t="s">
+        <v>47</v>
+      </c>
+      <c r="D510" s="225" t="s">
+        <v>884</v>
+      </c>
+      <c r="E510" s="226">
+        <v>42000</v>
+      </c>
+      <c r="F510" s="146"/>
+      <c r="G510" s="146"/>
+      <c r="H510" s="290" t="s">
+        <v>885</v>
+      </c>
+      <c r="I510" s="560"/>
+      <c r="J510"/>
+    </row>
+    <row r="511" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B511" s="281"/>
+      <c r="C511" s="225" t="s">
+        <v>41</v>
+      </c>
+      <c r="D511" s="225"/>
+      <c r="E511" s="226">
+        <v>1000</v>
+      </c>
+      <c r="F511" s="146"/>
+      <c r="G511" s="146"/>
+      <c r="H511" s="290" t="s">
+        <v>757</v>
+      </c>
+      <c r="I511" s="560"/>
+      <c r="J511"/>
+    </row>
+    <row r="512" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B512" s="281"/>
+      <c r="C512" s="225"/>
+      <c r="D512" s="225"/>
+      <c r="E512" s="226"/>
+      <c r="F512" s="146"/>
+      <c r="G512" s="146"/>
+      <c r="H512" s="290"/>
+      <c r="I512" s="560"/>
+      <c r="J512"/>
+    </row>
+    <row r="513" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B513" s="281">
+        <v>45129</v>
+      </c>
+      <c r="C513" s="132" t="s">
+        <v>94</v>
+      </c>
+      <c r="D513" s="225"/>
+      <c r="E513" s="138">
+        <v>400</v>
+      </c>
+      <c r="F513" s="145"/>
+      <c r="G513" s="145"/>
+      <c r="H513" s="296" t="s">
+        <v>891</v>
+      </c>
+      <c r="I513" s="558"/>
+      <c r="J513"/>
+    </row>
+    <row r="514" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B514" s="277"/>
+      <c r="C514" s="225" t="s">
+        <v>41</v>
+      </c>
+      <c r="D514" s="225"/>
+      <c r="E514" s="226">
+        <v>3400</v>
+      </c>
+      <c r="F514" s="146"/>
+      <c r="G514" s="146"/>
+      <c r="H514" s="290" t="s">
+        <v>888</v>
+      </c>
+      <c r="I514" s="560"/>
+      <c r="J514"/>
+    </row>
+    <row r="515" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B515" s="281"/>
+      <c r="C515" s="225" t="s">
+        <v>41</v>
+      </c>
+      <c r="D515" s="225"/>
+      <c r="E515" s="226">
+        <v>2400</v>
+      </c>
+      <c r="F515" s="146"/>
+      <c r="G515" s="146"/>
+      <c r="H515" s="290" t="s">
+        <v>890</v>
+      </c>
+      <c r="I515" s="560"/>
+      <c r="J515"/>
+    </row>
+    <row r="516" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B516" s="281"/>
+      <c r="C516" s="225" t="s">
+        <v>889</v>
+      </c>
+      <c r="D516" s="225" t="s">
+        <v>290</v>
+      </c>
+      <c r="E516" s="226">
+        <v>3000</v>
+      </c>
+      <c r="F516" s="146"/>
+      <c r="G516" s="146"/>
+      <c r="H516" s="290"/>
+      <c r="I516" s="560"/>
+      <c r="J516"/>
+    </row>
+    <row r="517" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B517" s="281"/>
+      <c r="C517" s="225"/>
+      <c r="D517" s="225"/>
+      <c r="E517" s="226"/>
+      <c r="F517" s="146"/>
+      <c r="G517" s="146"/>
+      <c r="H517" s="290"/>
+      <c r="I517" s="560"/>
+      <c r="J517"/>
+    </row>
+    <row r="518" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B518" s="281">
+        <v>45130</v>
+      </c>
+      <c r="C518" s="225" t="s">
+        <v>47</v>
+      </c>
+      <c r="D518" s="225" t="s">
+        <v>809</v>
+      </c>
+      <c r="E518" s="226">
+        <v>50000</v>
+      </c>
+      <c r="F518" s="146"/>
+      <c r="G518" s="146"/>
+      <c r="H518" s="290" t="s">
+        <v>892</v>
+      </c>
+      <c r="I518" s="560"/>
+      <c r="J518"/>
+    </row>
+    <row r="519" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B519" s="281"/>
+      <c r="C519" s="225"/>
+      <c r="D519" s="225"/>
+      <c r="E519" s="226"/>
+      <c r="F519" s="146"/>
+      <c r="G519" s="146"/>
+      <c r="H519" s="290"/>
+      <c r="I519" s="560"/>
+      <c r="J519"/>
+    </row>
+    <row r="520" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B520" s="281"/>
+      <c r="C520" s="225"/>
+      <c r="D520" s="225"/>
+      <c r="E520" s="226"/>
+      <c r="F520" s="146"/>
+      <c r="G520" s="146"/>
+      <c r="H520" s="290"/>
+      <c r="I520" s="560"/>
+      <c r="J520"/>
+    </row>
+    <row r="521" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B521" s="277"/>
+      <c r="C521" s="132"/>
+      <c r="D521" s="225"/>
+      <c r="E521" s="138"/>
+      <c r="F521" s="145"/>
+      <c r="G521" s="145"/>
+      <c r="H521" s="296"/>
+      <c r="I521" s="558"/>
+      <c r="J521"/>
+    </row>
+    <row r="522" spans="2:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B522" s="277">
+        <v>45133</v>
+      </c>
+      <c r="C522" s="132" t="s">
+        <v>47</v>
+      </c>
+      <c r="D522" s="225" t="s">
+        <v>886</v>
+      </c>
+      <c r="E522" s="138">
+        <v>196500</v>
+      </c>
+      <c r="F522" s="145"/>
+      <c r="G522" s="145"/>
+      <c r="H522" s="296" t="s">
+        <v>893</v>
+      </c>
+      <c r="I522" s="558"/>
+      <c r="J522"/>
+    </row>
+    <row r="523" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B523" s="281">
+        <v>45134</v>
+      </c>
+      <c r="C523" s="225" t="s">
+        <v>94</v>
+      </c>
+      <c r="D523" s="225"/>
+      <c r="E523" s="226">
+        <v>600</v>
+      </c>
+      <c r="F523" s="146"/>
+      <c r="G523" s="146"/>
+      <c r="H523" s="290" t="s">
+        <v>802</v>
+      </c>
+      <c r="I523" s="560"/>
+      <c r="J523"/>
+    </row>
+    <row r="524" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B524" s="281"/>
+      <c r="C524" s="225"/>
+      <c r="D524" s="225"/>
+      <c r="E524" s="226"/>
+      <c r="F524" s="146"/>
+      <c r="G524" s="146"/>
+      <c r="H524" s="290"/>
+      <c r="I524" s="560"/>
+      <c r="J524"/>
+    </row>
+    <row r="525" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B525" s="281">
+        <v>45136</v>
+      </c>
+      <c r="C525" s="225" t="s">
+        <v>47</v>
+      </c>
+      <c r="D525" s="225" t="s">
+        <v>819</v>
+      </c>
+      <c r="E525" s="226">
+        <v>15000</v>
+      </c>
+      <c r="F525" s="146"/>
+      <c r="G525" s="146"/>
+      <c r="H525" s="290" t="s">
+        <v>894</v>
+      </c>
+      <c r="I525" s="560"/>
+      <c r="J525"/>
+    </row>
+    <row r="526" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B526" s="281"/>
+      <c r="C526" s="225"/>
+      <c r="D526" s="225"/>
+      <c r="E526" s="226"/>
+      <c r="F526" s="146"/>
+      <c r="G526" s="146"/>
+      <c r="H526" s="290"/>
+      <c r="I526" s="560"/>
+      <c r="J526"/>
+    </row>
+    <row r="527" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B527" s="281">
+        <v>45138</v>
+      </c>
+      <c r="C527" s="225" t="s">
+        <v>47</v>
+      </c>
+      <c r="D527" s="225" t="s">
+        <v>922</v>
+      </c>
+      <c r="E527" s="226">
+        <v>12000</v>
+      </c>
+      <c r="F527" s="146"/>
+      <c r="G527" s="146"/>
+      <c r="H527" s="290" t="s">
+        <v>895</v>
+      </c>
+      <c r="I527" s="560"/>
+      <c r="J527"/>
+    </row>
+    <row r="528" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B528" s="281"/>
+      <c r="C528" s="225"/>
+      <c r="D528" s="225"/>
+      <c r="E528" s="226"/>
+      <c r="F528" s="146"/>
+      <c r="G528" s="146"/>
+      <c r="H528" s="290"/>
+      <c r="I528" s="560"/>
+      <c r="J528"/>
+    </row>
+    <row r="529" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B529" s="281">
+        <v>45139</v>
+      </c>
+      <c r="C529" s="225" t="s">
+        <v>47</v>
+      </c>
+      <c r="D529" s="225" t="s">
+        <v>290</v>
+      </c>
+      <c r="E529" s="226">
+        <v>52200</v>
+      </c>
+      <c r="F529" s="146"/>
+      <c r="G529" s="146"/>
+      <c r="H529" s="290" t="s">
+        <v>896</v>
+      </c>
+      <c r="I529" s="560"/>
+      <c r="J529"/>
+    </row>
+    <row r="530" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B530" s="281"/>
+      <c r="C530" s="225" t="s">
+        <v>47</v>
+      </c>
+      <c r="D530" s="225" t="s">
+        <v>569</v>
+      </c>
+      <c r="E530" s="226">
+        <v>48600</v>
+      </c>
+      <c r="F530" s="146"/>
+      <c r="G530" s="146"/>
+      <c r="H530" s="290" t="s">
+        <v>897</v>
+      </c>
+      <c r="I530" s="560"/>
+      <c r="J530"/>
+    </row>
+    <row r="531" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B531" s="281"/>
+      <c r="C531" s="225"/>
+      <c r="D531" s="225"/>
+      <c r="E531" s="226"/>
+      <c r="F531" s="146"/>
+      <c r="G531" s="146"/>
+      <c r="H531" s="290"/>
+      <c r="I531" s="560"/>
+      <c r="J531"/>
+    </row>
+    <row r="532" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B532" s="281">
+        <v>45141</v>
+      </c>
+      <c r="C532" s="225" t="s">
+        <v>47</v>
+      </c>
+      <c r="D532" s="225" t="s">
+        <v>202</v>
+      </c>
+      <c r="E532" s="226">
+        <v>20000</v>
+      </c>
+      <c r="F532" s="146"/>
+      <c r="G532" s="146"/>
+      <c r="H532" s="290" t="s">
+        <v>889</v>
+      </c>
+      <c r="I532" s="560"/>
+      <c r="J532"/>
+    </row>
+    <row r="533" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B533" s="281"/>
+      <c r="C533" s="225"/>
+      <c r="D533" s="225"/>
+      <c r="E533" s="226"/>
+      <c r="F533" s="146"/>
+      <c r="G533" s="146"/>
+      <c r="H533" s="290"/>
+      <c r="I533" s="560"/>
+      <c r="J533"/>
+    </row>
+    <row r="534" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B534" s="281">
+        <v>45143</v>
+      </c>
+      <c r="C534" s="225" t="s">
+        <v>47</v>
+      </c>
+      <c r="D534" s="225" t="s">
+        <v>884</v>
+      </c>
+      <c r="E534" s="226">
+        <v>50000</v>
+      </c>
+      <c r="F534" s="146"/>
+      <c r="G534" s="146"/>
+      <c r="H534" s="290" t="s">
+        <v>898</v>
+      </c>
+      <c r="I534" s="560" t="s">
+        <v>899</v>
+      </c>
+      <c r="J534"/>
+    </row>
+    <row r="535" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B535" s="281"/>
+      <c r="C535" s="225"/>
+      <c r="D535" s="225"/>
+      <c r="E535" s="226"/>
+      <c r="F535" s="146"/>
+      <c r="G535" s="146"/>
+      <c r="H535" s="290"/>
+      <c r="I535" s="560"/>
+      <c r="J535">
+        <f>47000+46000+50000</f>
+        <v>143000</v>
+      </c>
+    </row>
+    <row r="536" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B536" s="281">
+        <v>45146</v>
+      </c>
+      <c r="C536" s="225" t="s">
+        <v>47</v>
+      </c>
+      <c r="D536" s="225" t="s">
+        <v>838</v>
+      </c>
+      <c r="E536" s="226">
+        <v>24000</v>
+      </c>
+      <c r="F536" s="146"/>
+      <c r="G536" s="146"/>
+      <c r="H536" s="290" t="s">
+        <v>900</v>
+      </c>
+      <c r="I536" s="560"/>
+      <c r="J536"/>
+    </row>
+    <row r="537" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B537" s="281"/>
+      <c r="C537" s="225"/>
+      <c r="D537" s="225"/>
+      <c r="E537" s="226"/>
+      <c r="F537" s="146"/>
+      <c r="G537" s="146"/>
+      <c r="H537" s="290"/>
+      <c r="I537" s="560"/>
+      <c r="J537"/>
+    </row>
+    <row r="538" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B538" s="281">
+        <v>45147</v>
+      </c>
+      <c r="C538" s="335" t="s">
+        <v>39</v>
+      </c>
+      <c r="D538" s="334" t="s">
+        <v>52</v>
+      </c>
+      <c r="E538" s="335"/>
+      <c r="F538" s="142">
+        <v>3000000</v>
+      </c>
+      <c r="G538" s="142"/>
+      <c r="H538" s="562"/>
+      <c r="I538" s="558"/>
+      <c r="J538"/>
+    </row>
+    <row r="539" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B539" s="277"/>
+      <c r="C539" s="225" t="s">
+        <v>47</v>
+      </c>
+      <c r="D539" s="225" t="s">
+        <v>202</v>
+      </c>
+      <c r="E539" s="226">
+        <v>25000</v>
+      </c>
+      <c r="F539" s="146"/>
+      <c r="G539" s="146"/>
+      <c r="H539" s="290" t="s">
+        <v>901</v>
+      </c>
+      <c r="I539" s="560" t="s">
+        <v>902</v>
+      </c>
+      <c r="J539"/>
+    </row>
+    <row r="540" spans="2:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B540" s="281"/>
+      <c r="C540" s="225" t="s">
+        <v>47</v>
+      </c>
+      <c r="D540" s="225" t="s">
+        <v>886</v>
+      </c>
+      <c r="E540" s="226">
+        <v>408900</v>
+      </c>
+      <c r="F540" s="146"/>
+      <c r="G540" s="146"/>
+      <c r="H540" s="290" t="s">
+        <v>903</v>
+      </c>
+      <c r="I540" s="560"/>
+      <c r="J540"/>
+    </row>
+    <row r="541" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B541" s="277"/>
+      <c r="C541" s="132"/>
+      <c r="D541" s="225"/>
+      <c r="E541" s="138"/>
+      <c r="F541" s="145"/>
+      <c r="G541" s="145"/>
+      <c r="H541" s="296"/>
+      <c r="I541" s="558"/>
+      <c r="J541"/>
+    </row>
+    <row r="542" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B542" s="281">
+        <v>45148</v>
+      </c>
+      <c r="C542" s="225" t="s">
+        <v>47</v>
+      </c>
+      <c r="D542" s="225" t="s">
+        <v>923</v>
+      </c>
+      <c r="E542" s="226">
+        <v>1500000</v>
+      </c>
+      <c r="F542" s="146"/>
+      <c r="G542" s="146"/>
+      <c r="H542" s="290" t="s">
+        <v>904</v>
+      </c>
+      <c r="I542" s="560"/>
+      <c r="J542"/>
+    </row>
+    <row r="543" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B543" s="281"/>
+      <c r="C543" s="225" t="s">
+        <v>47</v>
+      </c>
+      <c r="D543" s="225" t="s">
+        <v>852</v>
+      </c>
+      <c r="E543" s="226">
+        <v>1000000</v>
+      </c>
+      <c r="F543" s="146"/>
+      <c r="G543" s="146"/>
+      <c r="H543" s="290" t="s">
+        <v>904</v>
+      </c>
+      <c r="I543" s="560"/>
+      <c r="J543"/>
+    </row>
+    <row r="544" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B544" s="281"/>
+      <c r="C544" s="225" t="s">
+        <v>47</v>
+      </c>
+      <c r="D544" s="225" t="s">
+        <v>905</v>
+      </c>
+      <c r="E544" s="226">
+        <v>75000</v>
+      </c>
+      <c r="F544" s="146"/>
+      <c r="G544" s="146"/>
+      <c r="H544" s="290" t="s">
+        <v>904</v>
+      </c>
+      <c r="I544" s="560"/>
+      <c r="J544"/>
+    </row>
+    <row r="545" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B545" s="281"/>
+      <c r="C545" s="225"/>
+      <c r="D545" s="225"/>
+      <c r="E545" s="226"/>
+      <c r="F545" s="146"/>
+      <c r="G545" s="146"/>
+      <c r="H545" s="290"/>
+      <c r="I545" s="563"/>
+      <c r="J545"/>
+    </row>
+    <row r="546" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B546" s="281">
+        <v>45150</v>
+      </c>
+      <c r="C546" s="225" t="s">
+        <v>47</v>
+      </c>
+      <c r="D546" s="225" t="s">
+        <v>67</v>
+      </c>
+      <c r="E546" s="226">
+        <v>80000</v>
+      </c>
+      <c r="F546" s="146"/>
+      <c r="G546" s="146"/>
+      <c r="H546" s="290" t="s">
+        <v>906</v>
+      </c>
+      <c r="I546" s="563"/>
+      <c r="J546"/>
+    </row>
+    <row r="547" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B547" s="281"/>
+      <c r="C547" s="225"/>
+      <c r="D547" s="225"/>
+      <c r="E547" s="226"/>
+      <c r="F547" s="146"/>
+      <c r="G547" s="146"/>
+      <c r="H547" s="290"/>
+      <c r="I547" s="563"/>
+      <c r="J547"/>
+    </row>
+    <row r="548" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B548" s="337">
+        <v>45152</v>
+      </c>
+      <c r="C548" s="334" t="s">
+        <v>39</v>
+      </c>
+      <c r="D548" s="334" t="s">
+        <v>52</v>
+      </c>
+      <c r="E548" s="334"/>
+      <c r="F548" s="254">
+        <v>400000</v>
+      </c>
+      <c r="G548" s="254"/>
+      <c r="H548" s="289" t="s">
+        <v>907</v>
+      </c>
+      <c r="I548" s="563"/>
+      <c r="J548"/>
+    </row>
+    <row r="549" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B549" s="281"/>
+      <c r="C549" s="225" t="s">
+        <v>47</v>
+      </c>
+      <c r="D549" s="225" t="s">
+        <v>854</v>
+      </c>
+      <c r="E549" s="226">
+        <v>200000</v>
+      </c>
+      <c r="F549" s="146"/>
+      <c r="G549" s="146"/>
+      <c r="H549" s="290" t="s">
+        <v>889</v>
+      </c>
+      <c r="I549" s="563"/>
+      <c r="J549"/>
+    </row>
+    <row r="550" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B550" s="281"/>
+      <c r="C550" s="225" t="s">
+        <v>47</v>
+      </c>
+      <c r="D550" s="225" t="s">
+        <v>856</v>
+      </c>
+      <c r="E550" s="226">
+        <v>21400</v>
+      </c>
+      <c r="F550" s="146"/>
+      <c r="G550" s="146"/>
+      <c r="H550" s="290" t="s">
+        <v>909</v>
+      </c>
+      <c r="I550" s="563"/>
+      <c r="J550"/>
+    </row>
+    <row r="551" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B551" s="281"/>
+      <c r="C551" s="225" t="s">
+        <v>47</v>
+      </c>
+      <c r="D551" s="225" t="s">
+        <v>922</v>
+      </c>
+      <c r="E551" s="226">
+        <v>3000</v>
+      </c>
+      <c r="F551" s="146"/>
+      <c r="G551" s="146"/>
+      <c r="H551" s="290" t="s">
+        <v>908</v>
+      </c>
+      <c r="I551" s="563"/>
+      <c r="J551"/>
+    </row>
+    <row r="552" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B552" s="281"/>
+      <c r="C552" s="225" t="s">
+        <v>47</v>
+      </c>
+      <c r="D552" s="225" t="s">
+        <v>856</v>
+      </c>
+      <c r="E552" s="226">
+        <v>7500</v>
+      </c>
+      <c r="F552" s="146"/>
+      <c r="G552" s="146"/>
+      <c r="H552" s="290" t="s">
+        <v>910</v>
+      </c>
+      <c r="I552" s="560"/>
+      <c r="J552"/>
+    </row>
+    <row r="553" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B553" s="281"/>
+      <c r="C553" s="225"/>
+      <c r="D553" s="225"/>
+      <c r="E553" s="226"/>
+      <c r="F553" s="146"/>
+      <c r="G553" s="146"/>
+      <c r="H553" s="290"/>
+      <c r="I553" s="560"/>
+      <c r="J553"/>
+    </row>
+    <row r="554" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B554" s="281">
+        <v>45154</v>
+      </c>
+      <c r="C554" s="225" t="s">
+        <v>41</v>
+      </c>
+      <c r="D554" s="225" t="s">
+        <v>856</v>
+      </c>
+      <c r="E554" s="226">
+        <v>7500</v>
+      </c>
+      <c r="F554" s="146"/>
+      <c r="G554" s="146"/>
+      <c r="H554" s="290" t="s">
+        <v>911</v>
+      </c>
+      <c r="I554" s="560"/>
+      <c r="J554"/>
+    </row>
+    <row r="555" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B555" s="277"/>
+      <c r="C555" s="132" t="s">
+        <v>47</v>
+      </c>
+      <c r="D555" s="225" t="s">
+        <v>202</v>
+      </c>
+      <c r="E555" s="138">
+        <v>25000</v>
+      </c>
+      <c r="F555" s="145"/>
+      <c r="G555" s="145"/>
+      <c r="H555" s="296" t="s">
+        <v>915</v>
+      </c>
+      <c r="I555" s="558"/>
+      <c r="J555"/>
+    </row>
+    <row r="556" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B556" s="277"/>
+      <c r="C556" s="132"/>
+      <c r="D556" s="225"/>
+      <c r="E556" s="138"/>
+      <c r="F556" s="145"/>
+      <c r="G556" s="145"/>
+      <c r="H556" s="296"/>
+      <c r="I556" s="558"/>
+      <c r="J556"/>
+    </row>
+    <row r="557" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B557" s="277">
+        <v>45155</v>
+      </c>
+      <c r="C557" s="132" t="s">
+        <v>41</v>
+      </c>
+      <c r="D557" s="225"/>
+      <c r="E557" s="138">
+        <v>780</v>
+      </c>
+      <c r="F557" s="145"/>
+      <c r="G557" s="145"/>
+      <c r="H557" s="296" t="s">
+        <v>914</v>
+      </c>
+      <c r="I557" s="558"/>
+      <c r="J557"/>
+    </row>
+    <row r="558" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B558" s="277"/>
+      <c r="C558" s="132"/>
+      <c r="D558" s="225"/>
+      <c r="E558" s="138"/>
+      <c r="F558" s="145"/>
+      <c r="G558" s="145"/>
+      <c r="H558" s="296"/>
+      <c r="I558" s="558"/>
+      <c r="J558"/>
+    </row>
+    <row r="559" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B559" s="281">
+        <v>45158</v>
+      </c>
+      <c r="C559" s="225" t="s">
+        <v>41</v>
+      </c>
+      <c r="D559" s="225"/>
+      <c r="E559" s="226">
+        <v>10500</v>
+      </c>
+      <c r="F559" s="146"/>
+      <c r="G559" s="146"/>
+      <c r="H559" s="290" t="s">
+        <v>916</v>
+      </c>
+      <c r="I559" s="560" t="s">
+        <v>917</v>
+      </c>
+      <c r="J559"/>
+    </row>
+    <row r="560" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B560" s="281"/>
+      <c r="C560" s="225" t="s">
+        <v>41</v>
+      </c>
+      <c r="D560" s="225"/>
+      <c r="E560" s="226">
+        <v>2500</v>
+      </c>
+      <c r="F560" s="146"/>
+      <c r="G560" s="146"/>
+      <c r="H560" s="290" t="s">
+        <v>918</v>
+      </c>
+      <c r="I560" s="560">
+        <v>2500</v>
+      </c>
+      <c r="J560"/>
+    </row>
+    <row r="561" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B561" s="281"/>
+      <c r="C561" s="225"/>
+      <c r="D561" s="225"/>
+      <c r="E561" s="226"/>
+      <c r="F561" s="146"/>
+      <c r="G561" s="146"/>
+      <c r="H561" s="290"/>
+      <c r="I561" s="560"/>
+      <c r="J561"/>
+    </row>
+    <row r="562" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B562" s="281">
+        <v>45159</v>
+      </c>
+      <c r="C562" s="225" t="s">
+        <v>41</v>
+      </c>
+      <c r="D562" s="225"/>
+      <c r="E562" s="226">
+        <v>5000</v>
+      </c>
+      <c r="F562" s="146"/>
+      <c r="G562" s="146"/>
+      <c r="H562" s="290" t="s">
+        <v>919</v>
+      </c>
+      <c r="I562" s="560" t="s">
+        <v>920</v>
+      </c>
+      <c r="J562"/>
+    </row>
+    <row r="563" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B563" s="281"/>
+      <c r="C563" s="225" t="s">
+        <v>47</v>
+      </c>
+      <c r="D563" s="225" t="s">
+        <v>466</v>
+      </c>
+      <c r="E563" s="226">
+        <v>80000</v>
+      </c>
+      <c r="F563" s="146"/>
+      <c r="G563" s="146"/>
+      <c r="H563" s="290" t="s">
+        <v>921</v>
+      </c>
+      <c r="I563" s="560"/>
+      <c r="J563"/>
+    </row>
+    <row r="564" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B564" s="281"/>
+      <c r="C564" s="225"/>
+      <c r="D564" s="225"/>
+      <c r="E564" s="226"/>
+      <c r="F564" s="146"/>
+      <c r="G564" s="146"/>
+      <c r="H564" s="290"/>
+      <c r="I564" s="560"/>
+      <c r="J564"/>
+    </row>
+    <row r="565" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B565" s="337">
+        <v>45160</v>
+      </c>
+      <c r="C565" s="334" t="s">
+        <v>39</v>
+      </c>
+      <c r="D565" s="334" t="s">
+        <v>869</v>
+      </c>
+      <c r="E565" s="334"/>
+      <c r="F565" s="254">
+        <v>1500000</v>
+      </c>
+      <c r="G565" s="254"/>
+      <c r="H565" s="289" t="s">
+        <v>924</v>
+      </c>
+      <c r="I565" s="560"/>
+      <c r="J565"/>
+    </row>
+    <row r="566" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B566" s="281"/>
+      <c r="C566" s="225" t="s">
+        <v>47</v>
+      </c>
+      <c r="D566" s="225" t="s">
+        <v>925</v>
+      </c>
+      <c r="E566" s="226">
+        <v>1200000</v>
+      </c>
+      <c r="F566" s="146"/>
+      <c r="G566" s="146"/>
+      <c r="H566" s="290"/>
+      <c r="I566" s="560"/>
+      <c r="J566"/>
+    </row>
+    <row r="567" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B567" s="277"/>
+      <c r="C567" s="132" t="s">
+        <v>94</v>
+      </c>
+      <c r="D567" s="225"/>
+      <c r="E567" s="138">
+        <v>12500</v>
+      </c>
+      <c r="F567" s="145"/>
+      <c r="G567" s="145"/>
+      <c r="H567" s="296" t="s">
+        <v>940</v>
+      </c>
+      <c r="I567" s="558" t="s">
+        <v>941</v>
+      </c>
+      <c r="J567"/>
+    </row>
+    <row r="568" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B568" s="281"/>
+      <c r="C568" s="225"/>
+      <c r="D568" s="225"/>
+      <c r="E568" s="226"/>
+      <c r="F568" s="146"/>
+      <c r="G568" s="146"/>
+      <c r="H568" s="290"/>
+      <c r="I568" s="560"/>
+      <c r="J568"/>
+    </row>
+    <row r="569" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B569" s="281">
+        <v>45161</v>
+      </c>
+      <c r="C569" s="225" t="s">
+        <v>94</v>
+      </c>
+      <c r="D569" s="225"/>
+      <c r="E569" s="226">
+        <v>16000</v>
+      </c>
+      <c r="F569" s="146"/>
+      <c r="G569" s="146"/>
+      <c r="H569" s="290" t="s">
+        <v>926</v>
+      </c>
+      <c r="I569" s="560" t="s">
+        <v>927</v>
+      </c>
+      <c r="J569"/>
+    </row>
+    <row r="570" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B570" s="277"/>
+      <c r="C570" s="132"/>
+      <c r="D570" s="225"/>
+      <c r="E570" s="138"/>
+      <c r="F570" s="145"/>
+      <c r="G570" s="145"/>
+      <c r="H570" s="296"/>
+      <c r="I570" s="558"/>
+      <c r="J570"/>
+    </row>
+    <row r="571" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B571" s="277">
+        <v>45162</v>
+      </c>
+      <c r="C571" s="132" t="s">
+        <v>47</v>
+      </c>
+      <c r="D571" s="225" t="s">
+        <v>819</v>
+      </c>
+      <c r="E571" s="138">
+        <v>50000</v>
+      </c>
+      <c r="F571" s="145"/>
+      <c r="G571" s="145"/>
+      <c r="H571" s="296" t="s">
+        <v>928</v>
+      </c>
+      <c r="I571" s="558"/>
+      <c r="J571"/>
+    </row>
+    <row r="572" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B572" s="277"/>
+      <c r="C572" s="132"/>
+      <c r="D572" s="225"/>
+      <c r="E572" s="138"/>
+      <c r="F572" s="145"/>
+      <c r="G572" s="145"/>
+      <c r="H572" s="296"/>
+      <c r="I572" s="558"/>
+      <c r="J572"/>
+    </row>
+    <row r="573" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B573" s="277">
+        <v>45166</v>
+      </c>
+      <c r="C573" s="132" t="s">
+        <v>41</v>
+      </c>
+      <c r="D573" s="225"/>
+      <c r="E573" s="138">
+        <v>5000</v>
+      </c>
+      <c r="F573" s="145"/>
+      <c r="G573" s="145"/>
+      <c r="H573" s="296" t="s">
+        <v>929</v>
+      </c>
+      <c r="I573" s="558"/>
+      <c r="J573"/>
+    </row>
+    <row r="574" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B574" s="277"/>
+      <c r="C574" s="132" t="s">
+        <v>41</v>
+      </c>
+      <c r="D574" s="225"/>
+      <c r="E574" s="138">
+        <v>17000</v>
+      </c>
+      <c r="F574" s="145"/>
+      <c r="G574" s="145"/>
+      <c r="H574" s="296" t="s">
+        <v>933</v>
+      </c>
+      <c r="I574" s="558"/>
+      <c r="J574"/>
+    </row>
+    <row r="575" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B575" s="281"/>
+      <c r="C575" s="225"/>
+      <c r="D575" s="225"/>
+      <c r="E575" s="226"/>
+      <c r="F575" s="146"/>
+      <c r="G575" s="146"/>
+      <c r="H575" s="290"/>
+      <c r="I575" s="558"/>
+      <c r="J575"/>
+    </row>
+    <row r="576" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B576" s="277">
+        <v>45167</v>
+      </c>
+      <c r="C576" s="132" t="s">
+        <v>41</v>
+      </c>
+      <c r="D576" s="225"/>
+      <c r="E576" s="138">
+        <v>111000</v>
+      </c>
+      <c r="F576" s="145"/>
+      <c r="G576" s="145"/>
+      <c r="H576" s="296" t="s">
+        <v>930</v>
+      </c>
+      <c r="I576" s="558"/>
+      <c r="J576"/>
+    </row>
+    <row r="577" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B577" s="277"/>
+      <c r="C577" s="132" t="s">
+        <v>41</v>
+      </c>
+      <c r="D577" s="225"/>
+      <c r="E577" s="138">
+        <v>28000</v>
+      </c>
+      <c r="F577" s="145"/>
+      <c r="G577" s="145"/>
+      <c r="H577" s="296" t="s">
+        <v>931</v>
+      </c>
+      <c r="I577" s="558"/>
+      <c r="J577"/>
+    </row>
+    <row r="578" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B578" s="277"/>
+      <c r="C578" s="132" t="s">
+        <v>94</v>
+      </c>
+      <c r="D578" s="225"/>
+      <c r="E578" s="138">
+        <v>200</v>
+      </c>
+      <c r="F578" s="145"/>
+      <c r="G578" s="145"/>
+      <c r="H578" s="296" t="s">
+        <v>939</v>
+      </c>
+      <c r="I578" s="558"/>
+      <c r="J578"/>
+    </row>
+    <row r="579" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B579" s="277"/>
+      <c r="C579" s="132"/>
+      <c r="D579" s="225"/>
+      <c r="E579" s="138"/>
+      <c r="F579" s="145"/>
+      <c r="G579" s="145"/>
+      <c r="H579" s="296"/>
+      <c r="I579" s="558"/>
+      <c r="J579"/>
+    </row>
+    <row r="580" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B580" s="277">
+        <v>45168</v>
+      </c>
+      <c r="C580" s="132" t="s">
+        <v>952</v>
+      </c>
+      <c r="D580" s="225" t="s">
+        <v>569</v>
+      </c>
+      <c r="E580" s="138">
+        <v>4000</v>
+      </c>
+      <c r="F580" s="145"/>
+      <c r="G580" s="145"/>
+      <c r="H580" s="296" t="s">
+        <v>932</v>
+      </c>
+      <c r="I580" s="558"/>
+      <c r="J580"/>
+    </row>
+    <row r="581" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B581" s="277"/>
+      <c r="C581" s="132"/>
+      <c r="D581" s="225"/>
+      <c r="E581" s="138"/>
+      <c r="F581" s="145"/>
+      <c r="G581" s="145"/>
+      <c r="H581" s="296"/>
+      <c r="I581" s="558"/>
+      <c r="J581" s="146">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="582" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B582" s="277">
+        <v>45169</v>
+      </c>
+      <c r="C582" s="132" t="s">
+        <v>41</v>
+      </c>
+      <c r="D582" s="225"/>
+      <c r="E582" s="138">
+        <v>5400</v>
+      </c>
+      <c r="F582" s="145"/>
+      <c r="G582" s="145"/>
+      <c r="H582" s="296" t="s">
+        <v>934</v>
+      </c>
+      <c r="I582" s="558"/>
+      <c r="J582" s="146"/>
+    </row>
+    <row r="583" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B583" s="277"/>
+      <c r="C583" s="132" t="s">
+        <v>94</v>
+      </c>
+      <c r="D583" s="225"/>
+      <c r="E583" s="138">
+        <v>200</v>
+      </c>
+      <c r="F583" s="145"/>
+      <c r="G583" s="145"/>
+      <c r="H583" s="296" t="s">
+        <v>951</v>
+      </c>
+      <c r="I583" s="558"/>
+      <c r="J583" s="146"/>
+    </row>
+    <row r="584" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B584" s="277"/>
+      <c r="C584" s="132"/>
+      <c r="D584" s="225"/>
+      <c r="E584" s="138"/>
+      <c r="F584" s="145"/>
+      <c r="G584" s="145"/>
+      <c r="H584" s="296"/>
+      <c r="I584" s="558"/>
+      <c r="J584" s="146"/>
+    </row>
+    <row r="585" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B585" s="277">
+        <v>45171</v>
+      </c>
+      <c r="C585" s="132" t="s">
+        <v>41</v>
+      </c>
+      <c r="D585" s="225"/>
+      <c r="E585" s="138">
+        <v>3280</v>
+      </c>
+      <c r="F585" s="145"/>
+      <c r="G585" s="145"/>
+      <c r="H585" s="296" t="s">
+        <v>949</v>
+      </c>
+      <c r="I585" s="558"/>
+      <c r="J585" s="146"/>
+    </row>
+    <row r="586" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B586" s="277"/>
+      <c r="C586" s="132" t="s">
+        <v>41</v>
+      </c>
+      <c r="D586" s="225"/>
+      <c r="E586" s="138">
+        <v>300</v>
+      </c>
+      <c r="F586" s="145"/>
+      <c r="G586" s="145"/>
+      <c r="H586" s="296" t="s">
+        <v>950</v>
+      </c>
+      <c r="I586" s="558"/>
+      <c r="J586" s="145"/>
+    </row>
+    <row r="587" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B587" s="277"/>
+      <c r="C587" s="132"/>
+      <c r="D587" s="225"/>
+      <c r="E587" s="138"/>
+      <c r="F587" s="145"/>
+      <c r="G587" s="145"/>
+      <c r="H587" s="296"/>
+      <c r="I587" s="558"/>
+      <c r="J587" s="145"/>
+    </row>
+    <row r="588" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B588" s="277">
+        <v>45172</v>
+      </c>
+      <c r="C588" s="132" t="s">
+        <v>47</v>
+      </c>
+      <c r="D588" s="225" t="s">
+        <v>290</v>
+      </c>
+      <c r="E588" s="138">
+        <v>10000</v>
+      </c>
+      <c r="F588" s="145"/>
+      <c r="G588" s="145"/>
+      <c r="H588" s="296" t="s">
+        <v>935</v>
+      </c>
+      <c r="I588" s="558"/>
+      <c r="J588" s="145"/>
+    </row>
+    <row r="589" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B589" s="277"/>
+      <c r="C589" s="132"/>
+      <c r="D589" s="225"/>
+      <c r="E589" s="138"/>
+      <c r="F589" s="145"/>
+      <c r="G589" s="145"/>
+      <c r="H589" s="296"/>
+      <c r="I589" s="558"/>
+      <c r="J589" s="145"/>
+    </row>
+    <row r="590" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B590" s="277">
+        <v>45173</v>
+      </c>
+      <c r="C590" s="132" t="s">
+        <v>94</v>
+      </c>
+      <c r="D590" s="225"/>
+      <c r="E590" s="138">
+        <v>17000</v>
+      </c>
+      <c r="F590" s="145"/>
+      <c r="G590" s="145"/>
+      <c r="H590" s="296" t="s">
+        <v>936</v>
+      </c>
+      <c r="I590" s="558"/>
+      <c r="J590" s="145"/>
+    </row>
+    <row r="591" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B591" s="277"/>
+      <c r="C591" s="132" t="s">
+        <v>94</v>
+      </c>
+      <c r="D591" s="225"/>
+      <c r="E591" s="138">
+        <v>200</v>
+      </c>
+      <c r="F591" s="145"/>
+      <c r="G591" s="145"/>
+      <c r="H591" s="296" t="s">
+        <v>937</v>
+      </c>
+      <c r="I591" s="558"/>
+      <c r="J591"/>
+    </row>
+    <row r="592" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B592" s="277"/>
+      <c r="C592" s="132" t="s">
+        <v>94</v>
+      </c>
+      <c r="D592" s="225"/>
+      <c r="E592" s="138">
+        <v>500</v>
+      </c>
+      <c r="F592" s="145"/>
+      <c r="G592" s="145"/>
+      <c r="H592" s="296" t="s">
+        <v>938</v>
+      </c>
+      <c r="I592" s="558"/>
+      <c r="J592"/>
+    </row>
+    <row r="593" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B593" s="277"/>
+      <c r="C593" s="132"/>
+      <c r="D593" s="225"/>
+      <c r="E593" s="138"/>
+      <c r="F593" s="145"/>
+      <c r="G593" s="145"/>
+      <c r="H593" s="296"/>
+      <c r="I593" s="558"/>
+      <c r="J593"/>
+    </row>
+    <row r="594" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B594" s="277">
+        <v>45174</v>
+      </c>
+      <c r="C594" s="132" t="s">
+        <v>71</v>
+      </c>
+      <c r="D594" s="225" t="s">
+        <v>569</v>
+      </c>
+      <c r="E594" s="138">
+        <v>2000</v>
+      </c>
+      <c r="F594" s="145"/>
+      <c r="G594" s="145"/>
+      <c r="H594" s="296" t="s">
+        <v>944</v>
+      </c>
+      <c r="I594" s="558"/>
+      <c r="J594"/>
+    </row>
+    <row r="595" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B595" s="277"/>
+      <c r="C595" s="132"/>
+      <c r="D595" s="225"/>
+      <c r="E595" s="138"/>
+      <c r="F595" s="145"/>
+      <c r="G595" s="145"/>
+      <c r="H595" s="296"/>
+      <c r="I595" s="558"/>
+    </row>
+    <row r="596" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B596" s="277">
+        <v>45175</v>
+      </c>
+      <c r="C596" s="132" t="s">
+        <v>94</v>
+      </c>
+      <c r="D596" s="225"/>
+      <c r="E596" s="138">
+        <v>3400</v>
+      </c>
+      <c r="F596" s="145"/>
+      <c r="G596" s="145"/>
+      <c r="H596" s="296" t="s">
+        <v>945</v>
+      </c>
+      <c r="I596" s="558"/>
+    </row>
+    <row r="597" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B597" s="277"/>
+      <c r="C597" s="132"/>
+      <c r="D597" s="225"/>
+      <c r="E597" s="138"/>
+      <c r="F597" s="145"/>
+      <c r="G597" s="145"/>
+      <c r="H597" s="296"/>
+      <c r="I597" s="558"/>
+    </row>
+    <row r="598" spans="2:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B598" s="628">
+        <v>45176</v>
+      </c>
+      <c r="C598" s="335" t="s">
+        <v>39</v>
+      </c>
+      <c r="D598" s="334" t="s">
+        <v>946</v>
+      </c>
+      <c r="E598" s="335"/>
+      <c r="F598" s="142">
+        <v>100000</v>
+      </c>
+      <c r="G598" s="142"/>
+      <c r="H598" s="562" t="s">
+        <v>947</v>
+      </c>
+      <c r="I598" s="558"/>
+    </row>
+    <row r="599" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B599" s="277"/>
+      <c r="C599" s="132" t="s">
+        <v>47</v>
+      </c>
+      <c r="D599" s="225" t="s">
+        <v>862</v>
+      </c>
+      <c r="E599" s="138">
+        <v>73000</v>
+      </c>
+      <c r="F599" s="145"/>
+      <c r="G599" s="145"/>
+      <c r="H599" s="296" t="s">
+        <v>948</v>
+      </c>
+      <c r="I599" s="558"/>
+    </row>
+    <row r="600" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B600" s="277"/>
+      <c r="C600" s="132" t="s">
+        <v>47</v>
+      </c>
+      <c r="D600" s="225" t="s">
+        <v>569</v>
+      </c>
+      <c r="E600" s="138">
+        <v>38100</v>
+      </c>
+      <c r="F600" s="145"/>
+      <c r="G600" s="145"/>
+      <c r="H600" s="296" t="s">
+        <v>953</v>
+      </c>
+      <c r="I600" s="558"/>
+    </row>
+    <row r="601" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B601" s="277"/>
+      <c r="C601" s="132"/>
+      <c r="D601" s="225"/>
+      <c r="E601" s="138"/>
+      <c r="F601" s="145"/>
+      <c r="G601" s="145"/>
+      <c r="H601" s="296"/>
+      <c r="I601" s="558"/>
+    </row>
+    <row r="602" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B602" s="277"/>
+      <c r="C602" s="132"/>
+      <c r="D602" s="225"/>
+      <c r="E602" s="138"/>
+      <c r="F602" s="145"/>
+      <c r="G602" s="145"/>
+      <c r="H602" s="296"/>
+      <c r="I602" s="558"/>
+    </row>
+    <row r="603" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B603" s="277"/>
+      <c r="C603" s="132"/>
+      <c r="D603" s="225"/>
+      <c r="E603" s="138"/>
+      <c r="F603" s="145"/>
+      <c r="G603" s="145"/>
+      <c r="H603" s="296"/>
+      <c r="I603" s="558"/>
+    </row>
+    <row r="604" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B604" s="277"/>
+      <c r="C604" s="132"/>
+      <c r="D604" s="225"/>
+      <c r="E604" s="138"/>
+      <c r="F604" s="145"/>
+      <c r="G604" s="145"/>
+      <c r="H604" s="296"/>
+      <c r="I604" s="558"/>
+    </row>
+    <row r="605" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B605" s="277"/>
+      <c r="C605" s="132"/>
+      <c r="D605" s="225"/>
+      <c r="E605" s="138"/>
+      <c r="F605" s="145"/>
+      <c r="G605" s="145"/>
+      <c r="H605" s="296"/>
+      <c r="I605" s="558"/>
+    </row>
+    <row r="606" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B606" s="277"/>
+      <c r="C606" s="132"/>
+      <c r="D606" s="225"/>
+      <c r="E606" s="138"/>
+      <c r="F606" s="145"/>
+      <c r="G606" s="145"/>
+      <c r="H606" s="296"/>
+      <c r="I606" s="558"/>
+    </row>
+    <row r="607" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B607" s="277"/>
+      <c r="C607" s="132"/>
+      <c r="D607" s="225"/>
+      <c r="E607" s="138"/>
+      <c r="F607" s="145"/>
+      <c r="G607" s="145"/>
+      <c r="H607" s="296"/>
+      <c r="I607" s="558"/>
+    </row>
+    <row r="608" spans="2:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B608" s="525" t="s">
         <v>314</v>
       </c>
-      <c r="C504" s="525"/>
-      <c r="D504" s="526">
+      <c r="C608" s="525"/>
+      <c r="D608" s="526">
         <f>Tableau2[[#Totals],[Crédit]]-Tableau2[[#Totals],[Débit]]</f>
-        <v>846955</v>
-      </c>
-      <c r="E504" s="527">
+        <v>-119305</v>
+      </c>
+      <c r="E608" s="527">
         <f>SUBTOTAL(109,Tableau2[Débit])</f>
-        <v>8803245</v>
-      </c>
-      <c r="F504" s="527">
+        <v>15269505</v>
+      </c>
+      <c r="F608" s="527">
         <f>SUBTOTAL(109,Tableau2[Crédit])</f>
-        <v>9650200</v>
-      </c>
-      <c r="G504" s="528"/>
-      <c r="H504" s="542"/>
-      <c r="I504" s="544"/>
-      <c r="J504"/>
-    </row>
-    <row r="505" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B505"/>
-      <c r="C505"/>
-      <c r="D505"/>
-      <c r="E505"/>
-      <c r="F505"/>
-      <c r="G505"/>
-      <c r="H505"/>
-      <c r="I505"/>
-      <c r="J505"/>
-    </row>
-    <row r="506" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B506"/>
-      <c r="C506"/>
-      <c r="D506"/>
-      <c r="E506"/>
-      <c r="F506"/>
-      <c r="G506"/>
-      <c r="H506"/>
-      <c r="I506"/>
-      <c r="J506"/>
-    </row>
-    <row r="507" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B507"/>
-      <c r="C507"/>
-      <c r="D507"/>
-      <c r="E507"/>
-      <c r="F507"/>
-      <c r="G507"/>
-      <c r="H507"/>
-      <c r="I507"/>
-      <c r="J507"/>
-    </row>
-    <row r="508" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B508"/>
-      <c r="C508"/>
-      <c r="D508"/>
-      <c r="E508"/>
-      <c r="F508"/>
-      <c r="G508"/>
-      <c r="H508"/>
-      <c r="I508"/>
-      <c r="J508"/>
-    </row>
-    <row r="509" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B509"/>
-      <c r="C509"/>
-      <c r="D509"/>
-      <c r="E509"/>
-      <c r="F509"/>
-      <c r="G509"/>
-      <c r="H509"/>
-      <c r="I509"/>
-      <c r="J509"/>
-    </row>
-    <row r="510" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B510"/>
-      <c r="C510"/>
-      <c r="D510"/>
-      <c r="E510"/>
-      <c r="F510"/>
-      <c r="G510"/>
-      <c r="H510"/>
-      <c r="I510"/>
-      <c r="J510"/>
-    </row>
-    <row r="511" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B511"/>
-      <c r="C511"/>
-      <c r="D511"/>
-      <c r="E511"/>
-      <c r="F511"/>
-      <c r="G511"/>
-      <c r="H511"/>
-      <c r="I511"/>
-      <c r="J511"/>
-    </row>
-    <row r="512" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B512"/>
-      <c r="C512"/>
-      <c r="D512"/>
-      <c r="E512"/>
-      <c r="F512"/>
-      <c r="G512"/>
-      <c r="H512"/>
-      <c r="I512"/>
-      <c r="J512"/>
-    </row>
-    <row r="513" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B513"/>
-      <c r="C513"/>
-      <c r="D513"/>
-      <c r="E513"/>
-      <c r="F513"/>
-      <c r="G513"/>
-      <c r="H513"/>
-      <c r="I513"/>
-      <c r="J513"/>
-    </row>
-    <row r="514" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B514"/>
-      <c r="C514"/>
-      <c r="D514"/>
-      <c r="E514"/>
-      <c r="F514"/>
-      <c r="G514"/>
-      <c r="H514"/>
-      <c r="I514"/>
-      <c r="J514"/>
-    </row>
-    <row r="515" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B515"/>
-      <c r="C515"/>
-      <c r="D515"/>
-      <c r="E515"/>
-      <c r="F515"/>
-      <c r="G515"/>
-      <c r="H515"/>
-      <c r="I515"/>
-      <c r="J515"/>
-    </row>
-    <row r="516" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B516"/>
-      <c r="C516"/>
-      <c r="D516"/>
-      <c r="E516"/>
-      <c r="F516"/>
-      <c r="G516"/>
-      <c r="H516"/>
-      <c r="I516"/>
-      <c r="J516"/>
-    </row>
-    <row r="517" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B517"/>
-      <c r="C517"/>
-      <c r="D517"/>
-      <c r="E517"/>
-      <c r="F517"/>
-      <c r="G517"/>
-      <c r="H517"/>
-      <c r="I517"/>
-      <c r="J517"/>
-    </row>
-    <row r="518" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B518"/>
-      <c r="C518"/>
-      <c r="D518"/>
-      <c r="E518"/>
-      <c r="F518"/>
-      <c r="G518"/>
-      <c r="H518"/>
-      <c r="I518"/>
-      <c r="J518"/>
-    </row>
-    <row r="519" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B519"/>
-      <c r="C519"/>
-      <c r="D519"/>
-      <c r="E519"/>
-      <c r="F519"/>
-      <c r="G519"/>
-      <c r="H519"/>
-      <c r="I519"/>
-      <c r="J519"/>
-    </row>
-    <row r="520" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B520"/>
-      <c r="C520"/>
-      <c r="D520"/>
-      <c r="E520"/>
-      <c r="F520"/>
-      <c r="G520"/>
-      <c r="H520"/>
-      <c r="I520"/>
-      <c r="J520"/>
-    </row>
-    <row r="521" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B521"/>
-      <c r="C521"/>
-      <c r="D521"/>
-      <c r="E521"/>
-      <c r="F521"/>
-      <c r="G521"/>
-      <c r="H521"/>
-      <c r="I521"/>
-      <c r="J521"/>
-    </row>
-    <row r="522" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B522"/>
-      <c r="C522"/>
-      <c r="D522"/>
-      <c r="E522"/>
-      <c r="F522"/>
-      <c r="G522"/>
-      <c r="H522"/>
-      <c r="I522"/>
-      <c r="J522"/>
-    </row>
-    <row r="523" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B523"/>
-      <c r="C523"/>
-      <c r="D523"/>
-      <c r="E523"/>
-      <c r="F523"/>
-      <c r="G523"/>
-      <c r="H523"/>
-      <c r="I523"/>
-      <c r="J523"/>
-    </row>
-    <row r="524" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B524"/>
-      <c r="C524"/>
-      <c r="D524"/>
-      <c r="E524"/>
-      <c r="F524"/>
-      <c r="G524"/>
-      <c r="H524"/>
-      <c r="I524"/>
-      <c r="J524"/>
-    </row>
-    <row r="525" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B525"/>
-      <c r="C525"/>
-      <c r="D525"/>
-      <c r="E525"/>
-      <c r="F525"/>
-      <c r="G525"/>
-      <c r="H525"/>
-      <c r="I525"/>
-      <c r="J525"/>
-    </row>
-    <row r="526" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B526"/>
-      <c r="C526"/>
-      <c r="D526"/>
-      <c r="E526"/>
-      <c r="F526"/>
-      <c r="G526"/>
-      <c r="H526"/>
-      <c r="I526"/>
-      <c r="J526"/>
-    </row>
-    <row r="527" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B527"/>
-      <c r="C527"/>
-      <c r="D527"/>
-      <c r="E527"/>
-      <c r="F527"/>
-      <c r="G527"/>
-      <c r="H527"/>
-      <c r="I527"/>
-      <c r="J527"/>
-    </row>
-    <row r="528" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B528"/>
-      <c r="C528"/>
-      <c r="D528"/>
-      <c r="E528"/>
-      <c r="F528"/>
-      <c r="G528"/>
-      <c r="H528"/>
-      <c r="I528"/>
-      <c r="J528"/>
-    </row>
-    <row r="529" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B529"/>
-      <c r="C529"/>
-      <c r="D529"/>
-      <c r="E529"/>
-      <c r="F529"/>
-      <c r="G529"/>
-      <c r="H529"/>
-      <c r="I529"/>
-      <c r="J529"/>
-    </row>
-    <row r="530" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B530"/>
-      <c r="C530"/>
-      <c r="D530"/>
-      <c r="E530"/>
-      <c r="F530"/>
-      <c r="G530"/>
-      <c r="H530"/>
-      <c r="I530"/>
-      <c r="J530"/>
-    </row>
-    <row r="531" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B531"/>
-      <c r="C531"/>
-      <c r="D531"/>
-      <c r="E531"/>
-      <c r="F531"/>
-      <c r="G531"/>
-      <c r="H531"/>
-      <c r="I531"/>
-      <c r="J531"/>
-    </row>
-    <row r="532" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B532"/>
-      <c r="C532"/>
-      <c r="D532"/>
-      <c r="E532"/>
-      <c r="F532"/>
-      <c r="G532"/>
-      <c r="H532"/>
-      <c r="I532"/>
-      <c r="J532"/>
-    </row>
-    <row r="533" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B533"/>
-      <c r="C533"/>
-      <c r="D533"/>
-      <c r="E533"/>
-      <c r="F533"/>
-      <c r="G533"/>
-      <c r="H533"/>
-      <c r="I533"/>
-      <c r="J533"/>
-    </row>
-    <row r="534" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B534"/>
-      <c r="C534"/>
-      <c r="D534"/>
-      <c r="E534"/>
-      <c r="F534"/>
-      <c r="G534"/>
-      <c r="H534"/>
-      <c r="I534"/>
-      <c r="J534"/>
-    </row>
-    <row r="535" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B535"/>
-      <c r="C535"/>
-      <c r="D535"/>
-      <c r="E535"/>
-      <c r="F535"/>
-      <c r="G535"/>
-      <c r="H535"/>
-      <c r="I535"/>
-      <c r="J535"/>
-    </row>
-    <row r="536" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B536"/>
-      <c r="C536"/>
-      <c r="D536"/>
-      <c r="E536"/>
-      <c r="F536"/>
-      <c r="G536"/>
-      <c r="H536"/>
-      <c r="I536"/>
-      <c r="J536"/>
-    </row>
-    <row r="537" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B537"/>
-      <c r="C537"/>
-      <c r="D537"/>
-      <c r="E537"/>
-      <c r="F537"/>
-      <c r="G537"/>
-      <c r="H537"/>
-      <c r="I537"/>
-      <c r="J537"/>
-    </row>
-    <row r="538" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B538"/>
-      <c r="C538"/>
-      <c r="D538"/>
-      <c r="E538"/>
-      <c r="F538"/>
-      <c r="G538"/>
-      <c r="H538"/>
-      <c r="I538"/>
-      <c r="J538"/>
-    </row>
-    <row r="539" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B539"/>
-      <c r="C539"/>
-      <c r="D539"/>
-      <c r="E539"/>
-      <c r="F539"/>
-      <c r="G539"/>
-      <c r="H539"/>
-      <c r="I539"/>
-      <c r="J539"/>
-    </row>
-    <row r="540" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B540"/>
-      <c r="C540"/>
-      <c r="D540"/>
-      <c r="E540"/>
-      <c r="F540"/>
-      <c r="G540"/>
-      <c r="H540"/>
-      <c r="I540"/>
-      <c r="J540"/>
-    </row>
-    <row r="541" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B541"/>
-      <c r="C541"/>
-      <c r="D541"/>
-      <c r="E541"/>
-      <c r="F541"/>
-      <c r="G541"/>
-      <c r="H541"/>
-      <c r="I541"/>
-      <c r="J541"/>
-    </row>
-    <row r="542" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B542"/>
-      <c r="C542"/>
-      <c r="D542"/>
-      <c r="E542"/>
-      <c r="F542"/>
-      <c r="G542"/>
-      <c r="H542"/>
-      <c r="I542"/>
-      <c r="J542"/>
-    </row>
-    <row r="543" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B543"/>
-      <c r="C543"/>
-      <c r="D543"/>
-      <c r="E543"/>
-      <c r="F543"/>
-      <c r="G543"/>
-      <c r="H543"/>
-      <c r="I543"/>
-      <c r="J543"/>
-    </row>
-    <row r="544" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B544"/>
-      <c r="C544"/>
-      <c r="D544"/>
-      <c r="E544"/>
-      <c r="F544"/>
-      <c r="G544"/>
-      <c r="H544"/>
-      <c r="I544"/>
-      <c r="J544"/>
-    </row>
-    <row r="545" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B545"/>
-      <c r="C545"/>
-      <c r="D545"/>
-      <c r="E545"/>
-      <c r="F545"/>
-      <c r="G545"/>
-      <c r="H545"/>
-      <c r="I545"/>
-      <c r="J545"/>
-    </row>
-    <row r="546" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B546"/>
-      <c r="C546"/>
-      <c r="D546"/>
-      <c r="E546"/>
-      <c r="F546"/>
-      <c r="G546"/>
-      <c r="H546"/>
-      <c r="I546"/>
-      <c r="J546"/>
-    </row>
-    <row r="547" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B547"/>
-      <c r="C547"/>
-      <c r="D547"/>
-      <c r="E547"/>
-      <c r="F547"/>
-      <c r="G547"/>
-      <c r="H547"/>
-      <c r="I547"/>
-      <c r="J547"/>
-    </row>
-    <row r="548" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B548"/>
-      <c r="C548"/>
-      <c r="D548"/>
-      <c r="E548"/>
-      <c r="F548"/>
-      <c r="G548"/>
-      <c r="H548"/>
-      <c r="I548"/>
-      <c r="J548"/>
-    </row>
-    <row r="549" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B549"/>
-      <c r="C549"/>
-      <c r="D549"/>
-      <c r="E549"/>
-      <c r="F549"/>
-      <c r="G549"/>
-      <c r="H549"/>
-      <c r="I549"/>
-      <c r="J549"/>
-    </row>
-    <row r="550" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B550"/>
-      <c r="C550"/>
-      <c r="D550"/>
-      <c r="E550"/>
-      <c r="F550"/>
-      <c r="G550"/>
-      <c r="H550"/>
-      <c r="I550"/>
-      <c r="J550"/>
-    </row>
-    <row r="551" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B551"/>
-      <c r="C551"/>
-      <c r="D551"/>
-      <c r="E551"/>
-      <c r="F551"/>
-      <c r="G551"/>
-      <c r="H551"/>
-      <c r="I551"/>
-      <c r="J551"/>
-    </row>
-    <row r="552" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B552"/>
-      <c r="C552"/>
-      <c r="D552"/>
-      <c r="E552"/>
-      <c r="F552"/>
-      <c r="G552"/>
-      <c r="H552"/>
-      <c r="I552"/>
-      <c r="J552"/>
-    </row>
-    <row r="553" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B553"/>
-      <c r="C553"/>
-      <c r="D553"/>
-      <c r="E553"/>
-      <c r="F553"/>
-      <c r="G553"/>
-      <c r="H553"/>
-      <c r="I553"/>
-      <c r="J553"/>
-    </row>
-    <row r="554" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B554"/>
-      <c r="C554"/>
-      <c r="D554"/>
-      <c r="E554"/>
-      <c r="F554"/>
-      <c r="G554"/>
-      <c r="H554"/>
-      <c r="I554"/>
-      <c r="J554"/>
-    </row>
-    <row r="555" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B555"/>
-      <c r="C555"/>
-      <c r="D555"/>
-      <c r="E555"/>
-      <c r="F555"/>
-      <c r="G555"/>
-      <c r="H555"/>
-      <c r="I555"/>
-      <c r="J555"/>
-    </row>
-    <row r="556" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B556"/>
-      <c r="C556"/>
-      <c r="D556"/>
-      <c r="E556"/>
-      <c r="F556"/>
-      <c r="G556"/>
-      <c r="H556"/>
-      <c r="I556"/>
-      <c r="J556"/>
-    </row>
-    <row r="557" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B557"/>
-      <c r="C557"/>
-      <c r="D557"/>
-      <c r="E557"/>
-      <c r="F557"/>
-      <c r="G557"/>
-      <c r="H557"/>
-      <c r="I557"/>
-      <c r="J557"/>
-    </row>
-    <row r="558" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B558"/>
-      <c r="C558"/>
-      <c r="D558"/>
-      <c r="E558"/>
-      <c r="F558"/>
-      <c r="G558"/>
-      <c r="H558"/>
-      <c r="I558"/>
-      <c r="J558"/>
-    </row>
-    <row r="559" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B559"/>
-      <c r="C559"/>
-      <c r="D559"/>
-      <c r="E559"/>
-      <c r="F559"/>
-      <c r="G559"/>
-      <c r="H559"/>
-      <c r="I559"/>
-      <c r="J559"/>
-    </row>
-    <row r="560" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B560"/>
-      <c r="C560"/>
-      <c r="D560"/>
-      <c r="E560"/>
-      <c r="F560"/>
-      <c r="G560"/>
-      <c r="H560"/>
-      <c r="I560"/>
-      <c r="J560"/>
-    </row>
-    <row r="561" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B561"/>
-      <c r="C561"/>
-      <c r="D561"/>
-      <c r="E561"/>
-      <c r="F561"/>
-      <c r="G561"/>
-      <c r="H561"/>
-      <c r="I561"/>
-      <c r="J561"/>
-    </row>
-    <row r="562" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B562"/>
-      <c r="C562"/>
-      <c r="D562"/>
-      <c r="E562"/>
-      <c r="F562"/>
-      <c r="G562"/>
-      <c r="H562"/>
-      <c r="I562"/>
-      <c r="J562"/>
-    </row>
-    <row r="563" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B563"/>
-      <c r="C563"/>
-      <c r="D563"/>
-      <c r="E563"/>
-      <c r="F563"/>
-      <c r="G563"/>
-      <c r="H563"/>
-      <c r="I563"/>
-      <c r="J563"/>
-    </row>
-    <row r="564" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B564"/>
-      <c r="C564"/>
-      <c r="D564"/>
-      <c r="E564"/>
-      <c r="F564"/>
-      <c r="G564"/>
-      <c r="H564"/>
-      <c r="I564"/>
-      <c r="J564"/>
-    </row>
-    <row r="565" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B565"/>
-      <c r="C565"/>
-      <c r="D565"/>
-      <c r="E565"/>
-      <c r="F565"/>
-      <c r="G565"/>
-      <c r="H565"/>
-      <c r="I565"/>
-      <c r="J565"/>
-    </row>
-    <row r="566" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B566"/>
-      <c r="C566"/>
-      <c r="D566"/>
-      <c r="E566"/>
-      <c r="F566"/>
-      <c r="G566"/>
-      <c r="H566"/>
-      <c r="I566"/>
-      <c r="J566"/>
-    </row>
-    <row r="567" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B567"/>
-      <c r="C567"/>
-      <c r="D567"/>
-      <c r="E567"/>
-      <c r="F567"/>
-      <c r="G567"/>
-      <c r="H567"/>
-      <c r="I567"/>
-      <c r="J567"/>
-    </row>
-    <row r="568" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B568"/>
-      <c r="C568"/>
-      <c r="D568"/>
-      <c r="E568"/>
-      <c r="F568"/>
-      <c r="G568"/>
-      <c r="H568"/>
-      <c r="I568"/>
-      <c r="J568"/>
-    </row>
-    <row r="569" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B569"/>
-      <c r="C569"/>
-      <c r="D569"/>
-      <c r="E569"/>
-      <c r="F569"/>
-      <c r="G569"/>
-      <c r="H569"/>
-      <c r="I569"/>
-      <c r="J569"/>
-    </row>
-    <row r="570" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B570"/>
-      <c r="C570"/>
-      <c r="D570"/>
-      <c r="E570"/>
-      <c r="F570"/>
-      <c r="G570"/>
-      <c r="H570"/>
-      <c r="I570"/>
-      <c r="J570"/>
-    </row>
-    <row r="571" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B571"/>
-      <c r="C571"/>
-      <c r="D571"/>
-      <c r="E571"/>
-      <c r="F571"/>
-      <c r="G571"/>
-      <c r="H571"/>
-      <c r="I571"/>
-      <c r="J571"/>
-    </row>
-    <row r="572" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B572"/>
-      <c r="C572"/>
-      <c r="D572"/>
-      <c r="E572"/>
-      <c r="F572"/>
-      <c r="G572"/>
-      <c r="H572"/>
-      <c r="I572"/>
-      <c r="J572"/>
-    </row>
-    <row r="573" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B573"/>
-      <c r="C573"/>
-      <c r="D573"/>
-      <c r="E573"/>
-      <c r="F573"/>
-      <c r="G573"/>
-      <c r="H573"/>
-      <c r="I573"/>
-      <c r="J573"/>
-    </row>
-    <row r="574" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B574"/>
-      <c r="C574"/>
-      <c r="D574"/>
-      <c r="E574"/>
-      <c r="F574"/>
-      <c r="G574"/>
-      <c r="H574"/>
-      <c r="I574"/>
-      <c r="J574"/>
-    </row>
-    <row r="575" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B575"/>
-      <c r="C575"/>
-      <c r="D575"/>
-      <c r="E575"/>
-      <c r="F575"/>
-      <c r="G575"/>
-      <c r="H575"/>
-      <c r="I575"/>
-      <c r="J575"/>
-    </row>
-    <row r="576" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B576"/>
-      <c r="C576"/>
-      <c r="D576"/>
-      <c r="E576"/>
-      <c r="F576"/>
-      <c r="G576"/>
-      <c r="H576"/>
-      <c r="I576"/>
-      <c r="J576"/>
-    </row>
-    <row r="577" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B577"/>
-      <c r="C577"/>
-      <c r="D577"/>
-      <c r="E577"/>
-      <c r="F577"/>
-      <c r="G577"/>
-      <c r="H577"/>
-      <c r="I577"/>
-      <c r="J577"/>
-    </row>
-    <row r="578" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B578"/>
-      <c r="C578"/>
-      <c r="D578"/>
-      <c r="E578"/>
-      <c r="F578"/>
-      <c r="G578"/>
-      <c r="H578"/>
-      <c r="I578"/>
-      <c r="J578"/>
-    </row>
-    <row r="579" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B579"/>
-      <c r="C579"/>
-      <c r="D579"/>
-      <c r="E579"/>
-      <c r="F579"/>
-      <c r="G579"/>
-      <c r="H579"/>
-      <c r="I579"/>
-      <c r="J579"/>
-    </row>
-    <row r="580" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B580"/>
-      <c r="C580"/>
-      <c r="D580"/>
-      <c r="E580"/>
-      <c r="F580"/>
-      <c r="G580"/>
-      <c r="H580"/>
-      <c r="I580"/>
-      <c r="J580"/>
-    </row>
-    <row r="581" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B581"/>
-      <c r="C581"/>
-      <c r="D581"/>
-      <c r="E581"/>
-      <c r="F581"/>
-      <c r="G581"/>
-      <c r="H581"/>
-      <c r="I581"/>
-      <c r="J581"/>
-    </row>
-    <row r="582" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B582"/>
-      <c r="C582"/>
-      <c r="D582"/>
-      <c r="E582"/>
-      <c r="F582"/>
-      <c r="G582"/>
-      <c r="H582"/>
-      <c r="I582"/>
-      <c r="J582"/>
-    </row>
-    <row r="583" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B583"/>
-      <c r="C583"/>
-      <c r="D583"/>
-      <c r="E583"/>
-      <c r="F583"/>
-      <c r="G583"/>
-      <c r="H583"/>
-      <c r="I583"/>
-      <c r="J583"/>
-    </row>
-    <row r="584" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B584"/>
-      <c r="C584"/>
-      <c r="D584"/>
-      <c r="E584"/>
-      <c r="F584"/>
-      <c r="G584"/>
-      <c r="H584"/>
-      <c r="I584"/>
-      <c r="J584"/>
-    </row>
-    <row r="585" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B585"/>
-      <c r="C585"/>
-      <c r="D585"/>
-      <c r="E585"/>
-      <c r="F585"/>
-      <c r="G585"/>
-      <c r="H585"/>
-      <c r="I585"/>
-      <c r="J585"/>
-    </row>
-    <row r="586" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B586"/>
-      <c r="C586"/>
-      <c r="D586"/>
-      <c r="E586"/>
-      <c r="F586"/>
-      <c r="G586"/>
-      <c r="H586"/>
-      <c r="I586"/>
-      <c r="J586"/>
-    </row>
-    <row r="587" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B587"/>
-      <c r="C587"/>
-      <c r="D587"/>
-      <c r="E587"/>
-      <c r="F587"/>
-      <c r="G587"/>
-      <c r="H587"/>
-      <c r="I587"/>
-      <c r="J587"/>
-    </row>
-    <row r="588" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B588"/>
-      <c r="C588"/>
-      <c r="D588"/>
-      <c r="E588"/>
-      <c r="F588"/>
-      <c r="G588"/>
-      <c r="H588"/>
-      <c r="I588"/>
-    </row>
-    <row r="589" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B589"/>
-      <c r="C589"/>
-      <c r="D589"/>
-      <c r="E589"/>
-      <c r="F589"/>
-      <c r="G589"/>
-      <c r="H589"/>
-      <c r="I589"/>
-    </row>
-    <row r="590" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B590"/>
-      <c r="C590"/>
-      <c r="D590"/>
-      <c r="E590"/>
-      <c r="F590"/>
-      <c r="G590"/>
-      <c r="H590"/>
-      <c r="I590"/>
-    </row>
-    <row r="591" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B591"/>
-      <c r="C591"/>
-      <c r="D591"/>
-      <c r="E591"/>
-      <c r="F591"/>
-      <c r="G591"/>
-      <c r="H591"/>
-      <c r="I591"/>
-    </row>
-    <row r="592" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B592"/>
-      <c r="C592"/>
-      <c r="D592"/>
-      <c r="E592"/>
-      <c r="F592"/>
-      <c r="G592"/>
-      <c r="H592"/>
-    </row>
-    <row r="593" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B593"/>
-      <c r="C593"/>
-      <c r="D593"/>
-      <c r="E593"/>
-      <c r="F593"/>
-      <c r="G593"/>
-      <c r="H593"/>
-    </row>
-    <row r="594" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B594"/>
-      <c r="C594"/>
-      <c r="D594"/>
-      <c r="E594"/>
-      <c r="F594"/>
-      <c r="G594"/>
-      <c r="H594"/>
-    </row>
-    <row r="595" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B595"/>
-      <c r="C595"/>
-      <c r="D595"/>
-      <c r="E595"/>
-      <c r="F595"/>
-      <c r="G595"/>
-      <c r="H595"/>
+        <v>15150200</v>
+      </c>
+      <c r="G608" s="528"/>
+      <c r="H608" s="542"/>
+      <c r="I608" s="544"/>
+    </row>
+    <row r="609" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B609"/>
+      <c r="C609"/>
+      <c r="D609"/>
+      <c r="E609"/>
+      <c r="F609"/>
+      <c r="G609"/>
+      <c r="H609">
+        <f>122000+36000</f>
+        <v>158000</v>
+      </c>
+      <c r="I609"/>
+    </row>
+    <row r="610" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B610"/>
+      <c r="C610"/>
+      <c r="D610"/>
+      <c r="E610"/>
+      <c r="F610"/>
+      <c r="G610"/>
+      <c r="H610"/>
+      <c r="I610"/>
+    </row>
+    <row r="611" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B611"/>
+      <c r="C611"/>
+      <c r="D611"/>
+      <c r="E611"/>
+      <c r="F611"/>
+      <c r="G611"/>
+      <c r="H611"/>
+      <c r="I611"/>
+    </row>
+    <row r="612" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B612"/>
+      <c r="C612"/>
+      <c r="D612"/>
+      <c r="E612"/>
+      <c r="F612"/>
+      <c r="G612"/>
+      <c r="H612"/>
+      <c r="I612"/>
+    </row>
+    <row r="613" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B613"/>
+      <c r="C613"/>
+      <c r="D613"/>
+      <c r="E613"/>
+      <c r="F613"/>
+      <c r="G613"/>
+      <c r="H613"/>
+      <c r="I613" s="226"/>
+    </row>
+    <row r="614" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B614"/>
+      <c r="C614"/>
+      <c r="D614"/>
+      <c r="E614"/>
+      <c r="F614"/>
+      <c r="G614"/>
+      <c r="H614"/>
+      <c r="I614" s="226">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="615" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B615"/>
+      <c r="C615"/>
+      <c r="D615"/>
+      <c r="E615"/>
+      <c r="F615"/>
+      <c r="G615"/>
+      <c r="H615"/>
+      <c r="I615" s="226"/>
+    </row>
+    <row r="616" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B616"/>
+      <c r="C616"/>
+      <c r="D616"/>
+      <c r="E616"/>
+      <c r="F616"/>
+      <c r="G616"/>
+      <c r="H616"/>
+      <c r="I616" s="226">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="617" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B617"/>
+      <c r="C617"/>
+      <c r="D617"/>
+      <c r="E617"/>
+      <c r="F617"/>
+      <c r="G617"/>
+      <c r="H617"/>
+      <c r="I617" s="138"/>
+    </row>
+    <row r="618" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B618"/>
+      <c r="C618"/>
+      <c r="D618"/>
+      <c r="E618"/>
+      <c r="F618"/>
+      <c r="G618"/>
+      <c r="H618"/>
+      <c r="I618" s="138">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="619" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B619"/>
+      <c r="C619"/>
+      <c r="D619"/>
+      <c r="E619"/>
+      <c r="F619"/>
+      <c r="G619"/>
+      <c r="H619"/>
+      <c r="I619" s="138"/>
+    </row>
+    <row r="620" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B620"/>
+      <c r="C620"/>
+      <c r="D620"/>
+      <c r="E620"/>
+      <c r="F620"/>
+      <c r="G620"/>
+      <c r="H620"/>
+      <c r="I620" s="138">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="621" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B621"/>
+      <c r="C621"/>
+      <c r="D621"/>
+      <c r="E621"/>
+      <c r="F621"/>
+      <c r="G621"/>
+      <c r="H621"/>
+      <c r="I621"/>
+    </row>
+    <row r="622" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B622"/>
+      <c r="C622"/>
+      <c r="D622"/>
+      <c r="E622"/>
+      <c r="F622"/>
+      <c r="G622"/>
+      <c r="H622"/>
+      <c r="I622"/>
+    </row>
+    <row r="623" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B623"/>
+      <c r="C623"/>
+      <c r="D623"/>
+      <c r="E623"/>
+      <c r="F623"/>
+      <c r="G623"/>
+      <c r="H623"/>
+      <c r="I623"/>
+    </row>
+    <row r="624" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B624"/>
+      <c r="C624"/>
+      <c r="D624"/>
+      <c r="E624"/>
+      <c r="F624"/>
+      <c r="G624"/>
+      <c r="H624"/>
+      <c r="I624"/>
+    </row>
+    <row r="625" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B625"/>
+      <c r="C625"/>
+      <c r="D625"/>
+      <c r="E625"/>
+      <c r="F625"/>
+      <c r="G625"/>
+      <c r="H625"/>
+      <c r="I625"/>
+    </row>
+    <row r="626" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B626"/>
+      <c r="C626"/>
+      <c r="D626"/>
+      <c r="E626"/>
+      <c r="F626"/>
+      <c r="G626"/>
+      <c r="H626"/>
+      <c r="I626"/>
+    </row>
+    <row r="627" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B627"/>
+      <c r="C627"/>
+      <c r="D627"/>
+      <c r="E627"/>
+      <c r="F627"/>
+      <c r="G627"/>
+      <c r="H627"/>
+      <c r="I627"/>
+    </row>
+    <row r="628" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B628"/>
+      <c r="C628"/>
+      <c r="D628"/>
+      <c r="E628"/>
+      <c r="F628"/>
+      <c r="G628"/>
+      <c r="H628"/>
+      <c r="I628"/>
+    </row>
+    <row r="629" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B629"/>
+      <c r="C629"/>
+      <c r="D629"/>
+      <c r="E629"/>
+      <c r="F629"/>
+      <c r="G629"/>
+      <c r="H629"/>
+      <c r="I629"/>
+    </row>
+    <row r="630" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B630"/>
+      <c r="C630"/>
+      <c r="D630"/>
+      <c r="E630"/>
+      <c r="F630"/>
+      <c r="G630"/>
+      <c r="H630"/>
+      <c r="I630"/>
+    </row>
+    <row r="631" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B631"/>
+      <c r="C631"/>
+      <c r="D631"/>
+      <c r="E631"/>
+      <c r="F631"/>
+      <c r="G631"/>
+      <c r="H631"/>
+      <c r="I631"/>
+    </row>
+    <row r="632" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B632"/>
+      <c r="C632"/>
+      <c r="D632"/>
+      <c r="E632"/>
+      <c r="F632"/>
+      <c r="G632"/>
+      <c r="H632"/>
+      <c r="I632"/>
+    </row>
+    <row r="633" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B633"/>
+      <c r="C633"/>
+      <c r="D633"/>
+      <c r="E633"/>
+      <c r="F633"/>
+      <c r="G633"/>
+      <c r="H633"/>
+      <c r="I633"/>
+    </row>
+    <row r="634" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B634"/>
+      <c r="C634"/>
+      <c r="D634"/>
+      <c r="E634"/>
+      <c r="F634"/>
+      <c r="G634"/>
+      <c r="H634"/>
+      <c r="I634"/>
+    </row>
+    <row r="635" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B635"/>
+      <c r="C635"/>
+      <c r="D635"/>
+      <c r="E635"/>
+      <c r="F635"/>
+      <c r="G635"/>
+      <c r="H635"/>
+      <c r="I635"/>
+    </row>
+    <row r="636" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B636"/>
+      <c r="C636"/>
+      <c r="D636"/>
+      <c r="E636"/>
+      <c r="F636"/>
+      <c r="G636"/>
+      <c r="H636"/>
+      <c r="I636"/>
+    </row>
+    <row r="637" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B637"/>
+      <c r="C637"/>
+      <c r="D637"/>
+      <c r="E637"/>
+      <c r="F637"/>
+      <c r="G637"/>
+      <c r="H637"/>
+      <c r="I637"/>
+    </row>
+    <row r="638" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B638"/>
+      <c r="C638"/>
+      <c r="D638"/>
+      <c r="E638"/>
+      <c r="F638"/>
+      <c r="G638"/>
+      <c r="H638"/>
+      <c r="I638"/>
+    </row>
+    <row r="639" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B639"/>
+      <c r="C639"/>
+      <c r="D639"/>
+      <c r="E639"/>
+      <c r="F639"/>
+      <c r="G639"/>
+      <c r="H639"/>
+    </row>
+    <row r="640" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B640"/>
+      <c r="C640"/>
+      <c r="D640"/>
+      <c r="E640"/>
+      <c r="F640"/>
+      <c r="G640"/>
+      <c r="H640"/>
+    </row>
+    <row r="641" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B641"/>
+      <c r="C641"/>
+      <c r="D641"/>
+      <c r="E641"/>
+      <c r="F641"/>
+      <c r="G641"/>
+      <c r="H641"/>
+    </row>
+    <row r="642" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B642"/>
+      <c r="C642"/>
+      <c r="D642"/>
+      <c r="E642"/>
+      <c r="F642"/>
+      <c r="G642"/>
+      <c r="H642"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -67862,14 +69624,14 @@
     <mergeCell ref="C6:F6"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
-  <conditionalFormatting sqref="D504">
-    <cfRule type="cellIs" dxfId="24" priority="10" operator="lessThan">
+  <conditionalFormatting sqref="D608">
+    <cfRule type="cellIs" dxfId="22" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -67950,14 +69712,14 @@
   <sheetData>
     <row r="4" spans="4:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="4:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="595" t="s">
+      <c r="D5" s="608" t="s">
         <v>616</v>
       </c>
-      <c r="E5" s="596"/>
-      <c r="F5" s="596"/>
-      <c r="G5" s="596"/>
-      <c r="H5" s="596"/>
-      <c r="I5" s="597"/>
+      <c r="E5" s="609"/>
+      <c r="F5" s="609"/>
+      <c r="G5" s="609"/>
+      <c r="H5" s="609"/>
+      <c r="I5" s="610"/>
     </row>
     <row r="6" spans="4:10" x14ac:dyDescent="0.2">
       <c r="J6" s="310"/>
@@ -68608,12 +70370,12 @@
       <c r="I44" s="151"/>
     </row>
     <row r="45" spans="4:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L45" s="598" t="s">
+      <c r="L45" s="611" t="s">
         <v>667</v>
       </c>
-      <c r="M45" s="599"/>
-      <c r="N45" s="599"/>
-      <c r="O45" s="600"/>
+      <c r="M45" s="612"/>
+      <c r="N45" s="612"/>
+      <c r="O45" s="613"/>
     </row>
     <row r="46" spans="4:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L46" s="421" t="s">
@@ -68630,7 +70392,7 @@
       </c>
     </row>
     <row r="47" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="K47" s="601" t="s">
+      <c r="K47" s="614" t="s">
         <v>592</v>
       </c>
       <c r="L47" s="449" t="s">
@@ -68643,7 +70405,7 @@
       </c>
     </row>
     <row r="48" spans="4:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K48" s="602"/>
+      <c r="K48" s="615"/>
       <c r="L48" s="450" t="s">
         <v>599</v>
       </c>
@@ -68655,8 +70417,8 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="49" spans="11:15" ht="51" x14ac:dyDescent="0.2">
-      <c r="K49" s="603" t="s">
+    <row r="49" spans="11:15" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="K49" s="616" t="s">
         <v>593</v>
       </c>
       <c r="L49" s="447" t="s">
@@ -68671,7 +70433,7 @@
       </c>
     </row>
     <row r="50" spans="11:15" x14ac:dyDescent="0.2">
-      <c r="K50" s="603"/>
+      <c r="K50" s="616"/>
       <c r="L50" s="448" t="s">
         <v>588</v>
       </c>
@@ -68687,7 +70449,7 @@
       </c>
     </row>
     <row r="51" spans="11:15" x14ac:dyDescent="0.2">
-      <c r="K51" s="603"/>
+      <c r="K51" s="616"/>
       <c r="L51" s="448" t="s">
         <v>589</v>
       </c>
@@ -68703,7 +70465,7 @@
       </c>
     </row>
     <row r="52" spans="11:15" x14ac:dyDescent="0.2">
-      <c r="K52" s="603"/>
+      <c r="K52" s="616"/>
       <c r="L52" s="448" t="s">
         <v>627</v>
       </c>
@@ -68716,7 +70478,7 @@
       </c>
     </row>
     <row r="53" spans="11:15" x14ac:dyDescent="0.2">
-      <c r="K53" s="603"/>
+      <c r="K53" s="616"/>
       <c r="L53" s="448" t="s">
         <v>590</v>
       </c>
@@ -68729,7 +70491,7 @@
       </c>
     </row>
     <row r="54" spans="11:15" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="K54" s="603"/>
+      <c r="K54" s="616"/>
       <c r="L54" s="448" t="s">
         <v>628</v>
       </c>
@@ -68742,7 +70504,7 @@
       </c>
     </row>
     <row r="55" spans="11:15" x14ac:dyDescent="0.2">
-      <c r="K55" s="603"/>
+      <c r="K55" s="616"/>
       <c r="L55" s="448" t="s">
         <v>582</v>
       </c>
@@ -68758,7 +70520,7 @@
       </c>
     </row>
     <row r="56" spans="11:15" x14ac:dyDescent="0.2">
-      <c r="K56" s="603"/>
+      <c r="K56" s="616"/>
       <c r="L56" s="437" t="s">
         <v>583</v>
       </c>
@@ -68774,7 +70536,7 @@
       </c>
     </row>
     <row r="57" spans="11:15" x14ac:dyDescent="0.2">
-      <c r="K57" s="603"/>
+      <c r="K57" s="616"/>
       <c r="L57" s="437" t="s">
         <v>584</v>
       </c>
@@ -68790,7 +70552,7 @@
       </c>
     </row>
     <row r="58" spans="11:15" x14ac:dyDescent="0.2">
-      <c r="K58" s="603"/>
+      <c r="K58" s="616"/>
       <c r="L58" s="437" t="s">
         <v>587</v>
       </c>
@@ -68803,7 +70565,7 @@
       </c>
     </row>
     <row r="59" spans="11:15" x14ac:dyDescent="0.2">
-      <c r="K59" s="603"/>
+      <c r="K59" s="616"/>
       <c r="L59" s="437" t="s">
         <v>586</v>
       </c>
@@ -68816,7 +70578,7 @@
       </c>
     </row>
     <row r="60" spans="11:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K60" s="602"/>
+      <c r="K60" s="615"/>
       <c r="L60" s="425" t="s">
         <v>612</v>
       </c>
@@ -68827,7 +70589,7 @@
       </c>
     </row>
     <row r="61" spans="11:15" x14ac:dyDescent="0.2">
-      <c r="K61" s="603" t="s">
+      <c r="K61" s="616" t="s">
         <v>629</v>
       </c>
       <c r="L61" s="440" t="s">
@@ -68845,7 +70607,7 @@
       </c>
     </row>
     <row r="62" spans="11:15" x14ac:dyDescent="0.2">
-      <c r="K62" s="603"/>
+      <c r="K62" s="616"/>
       <c r="L62" s="443" t="s">
         <v>585</v>
       </c>
@@ -68861,7 +70623,7 @@
       </c>
     </row>
     <row r="63" spans="11:15" x14ac:dyDescent="0.2">
-      <c r="K63" s="603"/>
+      <c r="K63" s="616"/>
       <c r="L63" s="437" t="s">
         <v>613</v>
       </c>
@@ -68877,7 +70639,7 @@
       </c>
     </row>
     <row r="64" spans="11:15" x14ac:dyDescent="0.2">
-      <c r="K64" s="603"/>
+      <c r="K64" s="616"/>
       <c r="L64" s="435" t="s">
         <v>594</v>
       </c>
@@ -68892,7 +70654,7 @@
       </c>
     </row>
     <row r="65" spans="11:22" x14ac:dyDescent="0.2">
-      <c r="K65" s="603"/>
+      <c r="K65" s="616"/>
       <c r="L65" s="445" t="s">
         <v>595</v>
       </c>
@@ -68907,7 +70669,7 @@
       </c>
     </row>
     <row r="66" spans="11:22" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K66" s="602"/>
+      <c r="K66" s="615"/>
       <c r="L66" s="425" t="s">
         <v>630</v>
       </c>
@@ -68922,7 +70684,7 @@
       </c>
     </row>
     <row r="67" spans="11:22" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="K67" s="603" t="s">
+      <c r="K67" s="616" t="s">
         <v>631</v>
       </c>
       <c r="L67" s="431" t="s">
@@ -68942,7 +70704,7 @@
       <c r="V67" s="405"/>
     </row>
     <row r="68" spans="11:22" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="K68" s="603"/>
+      <c r="K68" s="616"/>
       <c r="L68" s="435" t="s">
         <v>633</v>
       </c>
@@ -68960,7 +70722,7 @@
       <c r="V68" s="405"/>
     </row>
     <row r="69" spans="11:22" x14ac:dyDescent="0.2">
-      <c r="K69" s="603"/>
+      <c r="K69" s="616"/>
       <c r="L69" s="437" t="s">
         <v>634</v>
       </c>
@@ -68988,7 +70750,7 @@
       <c r="V69" s="405"/>
     </row>
     <row r="70" spans="11:22" x14ac:dyDescent="0.2">
-      <c r="K70" s="603"/>
+      <c r="K70" s="616"/>
       <c r="L70" s="435" t="s">
         <v>635</v>
       </c>
@@ -69007,7 +70769,7 @@
       <c r="V70" s="405"/>
     </row>
     <row r="71" spans="11:22" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K71" s="602"/>
+      <c r="K71" s="615"/>
       <c r="L71" s="425" t="s">
         <v>636</v>
       </c>
@@ -69133,14 +70895,14 @@
   <sheetData>
     <row r="5" spans="4:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="4:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="595" t="s">
+      <c r="D6" s="608" t="s">
         <v>743</v>
       </c>
-      <c r="E6" s="596"/>
-      <c r="F6" s="596"/>
-      <c r="G6" s="596"/>
-      <c r="H6" s="596"/>
-      <c r="I6" s="597"/>
+      <c r="E6" s="609"/>
+      <c r="F6" s="609"/>
+      <c r="G6" s="609"/>
+      <c r="H6" s="609"/>
+      <c r="I6" s="610"/>
     </row>
     <row r="7" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D7" s="60"/>
